--- a/all_course.xlsx
+++ b/all_course.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitrepo\lamatxt\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{824748AC-BBB8-4D58-BB72-9C63F456FBC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="20331" windowHeight="8580"/>
+    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1645" uniqueCount="963">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1646" uniqueCount="964">
   <si>
     <t>id</t>
   </si>
@@ -2903,19 +2909,17 @@
   </si>
   <si>
     <t>饮酒之过失</t>
+  </si>
+  <si>
+    <t>source</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2932,23 +2936,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2956,328 +2944,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -3300,313 +2982,30 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3891,25 +3290,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:J382"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K382"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomRight" activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3940,8 +3338,11 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="K1" s="2" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -3952,7 +3353,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -3972,7 +3373,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -3986,7 +3387,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
@@ -4000,7 +3401,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
@@ -4017,7 +3418,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
@@ -4031,7 +3432,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
@@ -4042,7 +3443,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
@@ -4056,7 +3457,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>32</v>
       </c>
@@ -4073,7 +3474,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>36</v>
       </c>
@@ -4084,7 +3485,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>39</v>
       </c>
@@ -4098,7 +3499,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>41</v>
       </c>
@@ -4118,7 +3519,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>45</v>
       </c>
@@ -4132,7 +3533,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>47</v>
       </c>
@@ -4152,7 +3553,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>50</v>
       </c>
@@ -4166,7 +3567,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>52</v>
       </c>
@@ -4180,7 +3581,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>54</v>
       </c>
@@ -4197,7 +3598,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>58</v>
       </c>
@@ -4208,7 +3609,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>60</v>
       </c>
@@ -4219,7 +3620,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>62</v>
       </c>
@@ -4230,7 +3631,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>64</v>
       </c>
@@ -4241,7 +3642,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>66</v>
       </c>
@@ -4252,7 +3653,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>68</v>
       </c>
@@ -4263,7 +3664,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>70</v>
       </c>
@@ -4283,7 +3684,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>74</v>
       </c>
@@ -4300,7 +3701,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>78</v>
       </c>
@@ -4311,7 +3712,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>80</v>
       </c>
@@ -4322,7 +3723,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>82</v>
       </c>
@@ -4333,7 +3734,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>84</v>
       </c>
@@ -4344,7 +3745,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>86</v>
       </c>
@@ -4355,7 +3756,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>88</v>
       </c>
@@ -4366,7 +3767,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>90</v>
       </c>
@@ -4386,7 +3787,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>93</v>
       </c>
@@ -4397,7 +3798,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>95</v>
       </c>
@@ -4408,7 +3809,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>97</v>
       </c>
@@ -4419,7 +3820,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>99</v>
       </c>
@@ -4430,7 +3831,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>101</v>
       </c>
@@ -4450,7 +3851,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>104</v>
       </c>
@@ -4461,7 +3862,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>107</v>
       </c>
@@ -4475,7 +3876,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>110</v>
       </c>
@@ -4492,7 +3893,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>113</v>
       </c>
@@ -4506,7 +3907,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>116</v>
       </c>
@@ -4526,7 +3927,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>120</v>
       </c>
@@ -4543,7 +3944,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>122</v>
       </c>
@@ -4557,7 +3958,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>124</v>
       </c>
@@ -4571,7 +3972,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>127</v>
       </c>
@@ -4582,7 +3983,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>129</v>
       </c>
@@ -4596,7 +3997,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>131</v>
       </c>
@@ -4607,7 +4008,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>133</v>
       </c>
@@ -4621,7 +4022,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>135</v>
       </c>
@@ -4644,7 +4045,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>139</v>
       </c>
@@ -4658,7 +4059,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>141</v>
       </c>
@@ -4675,7 +4076,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>143</v>
       </c>
@@ -4689,7 +4090,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>145</v>
       </c>
@@ -4712,7 +4113,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>149</v>
       </c>
@@ -4732,7 +4133,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>152</v>
       </c>
@@ -4752,7 +4153,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>156</v>
       </c>
@@ -4766,7 +4167,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>159</v>
       </c>
@@ -4777,7 +4178,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>162</v>
       </c>
@@ -4794,7 +4195,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>165</v>
       </c>
@@ -4811,7 +4212,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>167</v>
       </c>
@@ -4828,7 +4229,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>170</v>
       </c>
@@ -4848,7 +4249,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>173</v>
       </c>
@@ -4862,7 +4263,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>176</v>
       </c>
@@ -4876,7 +4277,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>180</v>
       </c>
@@ -4890,7 +4291,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>182</v>
       </c>
@@ -4904,7 +4305,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>184</v>
       </c>
@@ -4924,7 +4325,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>188</v>
       </c>
@@ -4941,7 +4342,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>190</v>
       </c>
@@ -4961,7 +4362,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>193</v>
       </c>
@@ -4978,7 +4379,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>196</v>
       </c>
@@ -4992,7 +4393,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>198</v>
       </c>
@@ -5012,7 +4413,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>200</v>
       </c>
@@ -5032,7 +4433,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>205</v>
       </c>
@@ -5052,7 +4453,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>208</v>
       </c>
@@ -5072,7 +4473,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>211</v>
       </c>
@@ -5092,7 +4493,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>214</v>
       </c>
@@ -5112,7 +4513,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>217</v>
       </c>
@@ -5132,7 +4533,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>220</v>
       </c>
@@ -5152,7 +4553,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>223</v>
       </c>
@@ -5172,7 +4573,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>226</v>
       </c>
@@ -5192,7 +4593,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>229</v>
       </c>
@@ -5212,7 +4613,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>232</v>
       </c>
@@ -5232,7 +4633,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>235</v>
       </c>
@@ -5252,7 +4653,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>238</v>
       </c>
@@ -5272,7 +4673,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>241</v>
       </c>
@@ -5292,7 +4693,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>244</v>
       </c>
@@ -5312,7 +4713,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>247</v>
       </c>
@@ -5332,7 +4733,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>250</v>
       </c>
@@ -5352,7 +4753,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>253</v>
       </c>
@@ -5372,7 +4773,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>256</v>
       </c>
@@ -5392,7 +4793,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>259</v>
       </c>
@@ -5412,7 +4813,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>262</v>
       </c>
@@ -5432,7 +4833,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>265</v>
       </c>
@@ -5452,7 +4853,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>268</v>
       </c>
@@ -5472,7 +4873,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>271</v>
       </c>
@@ -5492,7 +4893,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>274</v>
       </c>
@@ -5512,7 +4913,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>277</v>
       </c>
@@ -5532,7 +4933,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>280</v>
       </c>
@@ -5552,7 +4953,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>283</v>
       </c>
@@ -5572,7 +4973,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>286</v>
       </c>
@@ -5592,7 +4993,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>289</v>
       </c>
@@ -5612,7 +5013,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>292</v>
       </c>
@@ -5632,7 +5033,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>295</v>
       </c>
@@ -5652,7 +5053,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>298</v>
       </c>
@@ -5666,7 +5067,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>300</v>
       </c>
@@ -5686,7 +5087,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>303</v>
       </c>
@@ -5706,7 +5107,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>306</v>
       </c>
@@ -5726,7 +5127,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>309</v>
       </c>
@@ -5746,7 +5147,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>312</v>
       </c>
@@ -5760,7 +5161,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>314</v>
       </c>
@@ -5774,7 +5175,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>316</v>
       </c>
@@ -5788,7 +5189,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>318</v>
       </c>
@@ -5802,7 +5203,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>320</v>
       </c>
@@ -5816,7 +5217,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>322</v>
       </c>
@@ -5830,7 +5231,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>324</v>
       </c>
@@ -5844,7 +5245,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>326</v>
       </c>
@@ -5858,7 +5259,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>328</v>
       </c>
@@ -5872,7 +5273,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>330</v>
       </c>
@@ -5886,7 +5287,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="121" spans="1:9">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>332</v>
       </c>
@@ -5900,7 +5301,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="122" spans="1:9">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>335</v>
       </c>
@@ -5914,7 +5315,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>337</v>
       </c>
@@ -5925,7 +5326,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>339</v>
       </c>
@@ -5936,7 +5337,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>341</v>
       </c>
@@ -5947,7 +5348,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>343</v>
       </c>
@@ -5958,7 +5359,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>345</v>
       </c>
@@ -5969,7 +5370,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>347</v>
       </c>
@@ -5980,7 +5381,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>349</v>
       </c>
@@ -5991,7 +5392,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="130" spans="1:9">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>351</v>
       </c>
@@ -6008,7 +5409,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>355</v>
       </c>
@@ -6022,7 +5423,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>357</v>
       </c>
@@ -6033,7 +5434,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="133" spans="1:9">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>359</v>
       </c>
@@ -6053,7 +5454,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>363</v>
       </c>
@@ -6064,7 +5465,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>365</v>
       </c>
@@ -6075,7 +5476,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="136" spans="1:9">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>367</v>
       </c>
@@ -6092,7 +5493,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>369</v>
       </c>
@@ -6103,7 +5504,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>371</v>
       </c>
@@ -6114,7 +5515,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>373</v>
       </c>
@@ -6125,7 +5526,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="140" spans="1:9">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>375</v>
       </c>
@@ -6142,7 +5543,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>378</v>
       </c>
@@ -6153,7 +5554,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="142" spans="1:9">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>380</v>
       </c>
@@ -6173,7 +5574,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>383</v>
       </c>
@@ -6190,7 +5591,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>387</v>
       </c>
@@ -6204,7 +5605,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>389</v>
       </c>
@@ -6218,7 +5619,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="146" spans="1:9">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>391</v>
       </c>
@@ -6238,7 +5639,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="147" spans="1:9">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>394</v>
       </c>
@@ -6255,7 +5656,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="148" spans="1:9">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>396</v>
       </c>
@@ -6275,7 +5676,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>399</v>
       </c>
@@ -6286,7 +5687,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>401</v>
       </c>
@@ -6300,7 +5701,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>403</v>
       </c>
@@ -6311,7 +5712,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="152" spans="1:9">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>405</v>
       </c>
@@ -6328,7 +5729,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>408</v>
       </c>
@@ -6339,7 +5740,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="154" spans="1:5">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>410</v>
       </c>
@@ -6353,7 +5754,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="155" spans="1:9">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>412</v>
       </c>
@@ -6370,7 +5771,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>414</v>
       </c>
@@ -6381,7 +5782,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>416</v>
       </c>
@@ -6392,7 +5793,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>418</v>
       </c>
@@ -6403,7 +5804,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>420</v>
       </c>
@@ -6414,7 +5815,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>422</v>
       </c>
@@ -6425,7 +5826,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="161" spans="1:9">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>424</v>
       </c>
@@ -6445,7 +5846,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>427</v>
       </c>
@@ -6456,7 +5857,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>429</v>
       </c>
@@ -6467,7 +5868,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="164" spans="1:9">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>431</v>
       </c>
@@ -6481,7 +5882,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="165" spans="1:9">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>433</v>
       </c>
@@ -6498,7 +5899,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>436</v>
       </c>
@@ -6509,7 +5910,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>438</v>
       </c>
@@ -6520,7 +5921,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>440</v>
       </c>
@@ -6534,7 +5935,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>443</v>
       </c>
@@ -6545,7 +5946,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>445</v>
       </c>
@@ -6556,7 +5957,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>447</v>
       </c>
@@ -6567,7 +5968,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>449</v>
       </c>
@@ -6578,7 +5979,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>451</v>
       </c>
@@ -6589,7 +5990,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>453</v>
       </c>
@@ -6600,7 +6001,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>455</v>
       </c>
@@ -6611,7 +6012,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>457</v>
       </c>
@@ -6622,7 +6023,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>459</v>
       </c>
@@ -6633,7 +6034,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>461</v>
       </c>
@@ -6644,7 +6045,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>464</v>
       </c>
@@ -6655,7 +6056,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>466</v>
       </c>
@@ -6666,7 +6067,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="181" spans="1:7">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>468</v>
       </c>
@@ -6683,7 +6084,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="182" spans="1:5">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>470</v>
       </c>
@@ -6697,7 +6098,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="183" spans="1:5">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>473</v>
       </c>
@@ -6711,7 +6112,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>475</v>
       </c>
@@ -6722,7 +6123,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>477</v>
       </c>
@@ -6733,7 +6134,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="186" spans="1:7">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>479</v>
       </c>
@@ -6750,7 +6151,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>483</v>
       </c>
@@ -6764,7 +6165,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>486</v>
       </c>
@@ -6778,7 +6179,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>488</v>
       </c>
@@ -6792,7 +6193,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="190" spans="1:5">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>490</v>
       </c>
@@ -6806,7 +6207,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>492</v>
       </c>
@@ -6820,7 +6221,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>494</v>
       </c>
@@ -6834,7 +6235,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="193" spans="1:5">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>496</v>
       </c>
@@ -6848,7 +6249,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="194" spans="1:5">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>498</v>
       </c>
@@ -6862,7 +6263,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="195" spans="1:5">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>500</v>
       </c>
@@ -6876,7 +6277,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="196" spans="1:5">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>502</v>
       </c>
@@ -6890,7 +6291,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="197" spans="1:5">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>504</v>
       </c>
@@ -6904,7 +6305,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>506</v>
       </c>
@@ -6918,7 +6319,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>508</v>
       </c>
@@ -6932,7 +6333,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="200" spans="1:5">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>510</v>
       </c>
@@ -6946,7 +6347,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="201" spans="1:5">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>512</v>
       </c>
@@ -6960,7 +6361,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="202" spans="1:5">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>514</v>
       </c>
@@ -6974,7 +6375,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="203" spans="1:5">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>516</v>
       </c>
@@ -6988,7 +6389,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="204" spans="1:9">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>519</v>
       </c>
@@ -7008,7 +6409,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="205" spans="1:7">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>522</v>
       </c>
@@ -7022,7 +6423,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="206" spans="1:3">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>524</v>
       </c>
@@ -7033,7 +6434,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="207" spans="1:5">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>526</v>
       </c>
@@ -7047,7 +6448,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="208" spans="1:9">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>528</v>
       </c>
@@ -7061,7 +6462,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="209" spans="1:5">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>530</v>
       </c>
@@ -7075,7 +6476,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="210" spans="1:5">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>532</v>
       </c>
@@ -7089,7 +6490,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="211" spans="1:9">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>534</v>
       </c>
@@ -7103,7 +6504,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="212" spans="1:9">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>537</v>
       </c>
@@ -7117,7 +6518,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="213" spans="1:9">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>539</v>
       </c>
@@ -7131,7 +6532,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="214" spans="1:9">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>541</v>
       </c>
@@ -7148,7 +6549,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="215" spans="1:9">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>543</v>
       </c>
@@ -7162,7 +6563,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="216" spans="1:9">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>545</v>
       </c>
@@ -7176,7 +6577,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="217" spans="1:9">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>547</v>
       </c>
@@ -7193,7 +6594,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="218" spans="1:9">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>549</v>
       </c>
@@ -7213,7 +6614,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="219" spans="1:9">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>554</v>
       </c>
@@ -7233,7 +6634,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="220" spans="1:3">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>557</v>
       </c>
@@ -7244,7 +6645,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="221" spans="1:3">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>559</v>
       </c>
@@ -7255,7 +6656,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="222" spans="1:9">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>561</v>
       </c>
@@ -7275,7 +6676,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="223" spans="1:9">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>564</v>
       </c>
@@ -7295,7 +6696,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="224" spans="1:3">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>567</v>
       </c>
@@ -7306,7 +6707,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="225" spans="1:9">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>569</v>
       </c>
@@ -7326,7 +6727,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="226" spans="1:9">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>572</v>
       </c>
@@ -7343,7 +6744,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="227" spans="1:9">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>575</v>
       </c>
@@ -7363,7 +6764,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="228" spans="1:5">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>579</v>
       </c>
@@ -7377,7 +6778,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="229" spans="1:5">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>581</v>
       </c>
@@ -7391,7 +6792,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="230" spans="1:9">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>583</v>
       </c>
@@ -7408,7 +6809,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="231" spans="1:9">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>586</v>
       </c>
@@ -7425,7 +6826,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="232" spans="1:9">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>590</v>
       </c>
@@ -7445,7 +6846,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="233" spans="1:9">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>593</v>
       </c>
@@ -7462,7 +6863,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="234" spans="1:9">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>596</v>
       </c>
@@ -7482,7 +6883,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="235" spans="1:9">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>599</v>
       </c>
@@ -7499,7 +6900,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="236" spans="1:9">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>602</v>
       </c>
@@ -7516,7 +6917,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="237" spans="1:3">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>605</v>
       </c>
@@ -7527,7 +6928,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="238" spans="1:5">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>607</v>
       </c>
@@ -7541,7 +6942,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="239" spans="1:3">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>610</v>
       </c>
@@ -7552,7 +6953,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="240" spans="1:8">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>612</v>
       </c>
@@ -7566,7 +6967,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="241" spans="1:5">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>615</v>
       </c>
@@ -7580,7 +6981,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="242" spans="1:3">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>617</v>
       </c>
@@ -7591,7 +6992,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="243" spans="1:9">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>619</v>
       </c>
@@ -7611,7 +7012,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="244" spans="1:3">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>622</v>
       </c>
@@ -7622,7 +7023,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="245" spans="1:3">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>624</v>
       </c>
@@ -7633,7 +7034,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="246" spans="1:7">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>626</v>
       </c>
@@ -7650,7 +7051,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="247" spans="1:3">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>629</v>
       </c>
@@ -7661,7 +7062,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="248" spans="1:9">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>631</v>
       </c>
@@ -7681,7 +7082,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="249" spans="1:5">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>634</v>
       </c>
@@ -7695,7 +7096,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="250" spans="1:3">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>636</v>
       </c>
@@ -7706,7 +7107,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="251" spans="1:3">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>638</v>
       </c>
@@ -7717,7 +7118,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="252" spans="1:3">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>640</v>
       </c>
@@ -7728,7 +7129,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="253" spans="1:3">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>642</v>
       </c>
@@ -7739,7 +7140,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="254" spans="1:3">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>644</v>
       </c>
@@ -7750,7 +7151,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="255" spans="1:3">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>646</v>
       </c>
@@ -7761,7 +7162,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="256" spans="1:3">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>649</v>
       </c>
@@ -7772,7 +7173,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="257" spans="1:9">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>651</v>
       </c>
@@ -7792,7 +7193,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="258" spans="1:5">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>654</v>
       </c>
@@ -7806,7 +7207,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="259" spans="1:3">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>656</v>
       </c>
@@ -7817,7 +7218,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="260" spans="1:9">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>658</v>
       </c>
@@ -7837,7 +7238,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="261" spans="1:9">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>661</v>
       </c>
@@ -7857,7 +7258,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="262" spans="1:5">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>664</v>
       </c>
@@ -7871,7 +7272,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="263" spans="1:5">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>666</v>
       </c>
@@ -7885,7 +7286,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="264" spans="1:5">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>669</v>
       </c>
@@ -7899,7 +7300,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="265" spans="1:5">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>671</v>
       </c>
@@ -7913,7 +7314,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="266" spans="1:5">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>673</v>
       </c>
@@ -7927,7 +7328,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="267" spans="1:5">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>675</v>
       </c>
@@ -7941,7 +7342,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="268" spans="1:5">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>677</v>
       </c>
@@ -7955,7 +7356,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="269" spans="1:5">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>679</v>
       </c>
@@ -7969,7 +7370,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="270" spans="1:5">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>681</v>
       </c>
@@ -7983,7 +7384,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="271" spans="1:5">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>683</v>
       </c>
@@ -7997,7 +7398,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="272" spans="1:5">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>685</v>
       </c>
@@ -8011,7 +7412,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="273" spans="1:5">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>687</v>
       </c>
@@ -8025,7 +7426,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="274" spans="1:5">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
         <v>689</v>
       </c>
@@ -8039,7 +7440,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="275" spans="1:5">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
         <v>691</v>
       </c>
@@ -8053,7 +7454,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="276" spans="1:5">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>693</v>
       </c>
@@ -8067,7 +7468,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="277" spans="1:5">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>695</v>
       </c>
@@ -8081,7 +7482,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="278" spans="1:5">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>697</v>
       </c>
@@ -8095,7 +7496,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="279" spans="1:5">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>699</v>
       </c>
@@ -8109,7 +7510,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="280" spans="1:5">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>701</v>
       </c>
@@ -8123,7 +7524,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="281" spans="1:5">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>703</v>
       </c>
@@ -8137,7 +7538,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="282" spans="1:5">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>705</v>
       </c>
@@ -8151,7 +7552,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="283" spans="1:5">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>707</v>
       </c>
@@ -8165,7 +7566,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="284" spans="1:5">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>709</v>
       </c>
@@ -8179,7 +7580,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="285" spans="1:5">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>711</v>
       </c>
@@ -8193,7 +7594,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="286" spans="1:3">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>713</v>
       </c>
@@ -8204,7 +7605,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="287" spans="1:5">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>715</v>
       </c>
@@ -8218,7 +7619,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="288" spans="1:5">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>717</v>
       </c>
@@ -8232,7 +7633,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="289" spans="1:5">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>719</v>
       </c>
@@ -8246,7 +7647,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="290" spans="1:5">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
         <v>721</v>
       </c>
@@ -8260,7 +7661,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="291" spans="1:5">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>723</v>
       </c>
@@ -8274,7 +7675,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="292" spans="1:5">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>725</v>
       </c>
@@ -8288,7 +7689,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="293" spans="1:5">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>727</v>
       </c>
@@ -8302,7 +7703,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="294" spans="1:5">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>729</v>
       </c>
@@ -8316,7 +7717,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="295" spans="1:5">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>731</v>
       </c>
@@ -8330,7 +7731,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="296" spans="1:5">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>733</v>
       </c>
@@ -8344,7 +7745,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="297" spans="1:5">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
         <v>735</v>
       </c>
@@ -8358,7 +7759,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="298" spans="1:5">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>737</v>
       </c>
@@ -8372,7 +7773,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="299" spans="1:5">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>739</v>
       </c>
@@ -8386,7 +7787,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="300" spans="1:5">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>741</v>
       </c>
@@ -8400,7 +7801,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="301" spans="1:3">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
         <v>743</v>
       </c>
@@ -8411,7 +7812,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="302" spans="1:5">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
         <v>745</v>
       </c>
@@ -8425,7 +7826,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="303" spans="1:5">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
         <v>747</v>
       </c>
@@ -8439,7 +7840,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="304" spans="1:3">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
         <v>749</v>
       </c>
@@ -8450,7 +7851,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="305" spans="1:5">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
         <v>751</v>
       </c>
@@ -8464,7 +7865,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="306" spans="1:3">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
         <v>753</v>
       </c>
@@ -8475,7 +7876,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="307" spans="1:3">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
         <v>755</v>
       </c>
@@ -8486,7 +7887,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="308" spans="1:5">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
         <v>757</v>
       </c>
@@ -8500,7 +7901,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="309" spans="1:9">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
         <v>759</v>
       </c>
@@ -8514,7 +7915,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="310" spans="1:3">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
         <v>762</v>
       </c>
@@ -8525,7 +7926,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="311" spans="1:3">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
         <v>764</v>
       </c>
@@ -8536,7 +7937,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="312" spans="1:3">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
         <v>766</v>
       </c>
@@ -8547,7 +7948,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="313" spans="1:3">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
         <v>768</v>
       </c>
@@ -8558,7 +7959,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="314" spans="1:3">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
         <v>770</v>
       </c>
@@ -8569,7 +7970,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="315" spans="1:3">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
         <v>772</v>
       </c>
@@ -8580,7 +7981,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="316" spans="1:3">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
         <v>774</v>
       </c>
@@ -8591,7 +7992,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="317" spans="1:5">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
         <v>776</v>
       </c>
@@ -8605,7 +8006,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="318" spans="1:3">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
         <v>779</v>
       </c>
@@ -8616,7 +8017,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="319" spans="1:5">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
         <v>781</v>
       </c>
@@ -8630,7 +8031,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="320" spans="1:3">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
         <v>783</v>
       </c>
@@ -8641,7 +8042,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="321" spans="1:5">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
         <v>785</v>
       </c>
@@ -8655,7 +8056,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="322" spans="1:3">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
         <v>788</v>
       </c>
@@ -8666,7 +8067,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="323" spans="1:3">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
         <v>790</v>
       </c>
@@ -8677,7 +8078,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="324" spans="1:8">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
         <v>792</v>
       </c>
@@ -8691,7 +8092,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="325" spans="1:9">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
         <v>796</v>
       </c>
@@ -8714,7 +8115,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="326" spans="1:8">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
         <v>800</v>
       </c>
@@ -8728,7 +8129,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="327" spans="1:8">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
         <v>803</v>
       </c>
@@ -8742,7 +8143,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="328" spans="1:8">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
         <v>806</v>
       </c>
@@ -8759,7 +8160,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="329" spans="1:9">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
         <v>809</v>
       </c>
@@ -8782,7 +8183,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="330" spans="1:8">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
         <v>812</v>
       </c>
@@ -8796,7 +8197,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="331" spans="1:9">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
         <v>815</v>
       </c>
@@ -8819,7 +8220,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="332" spans="1:8">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
         <v>819</v>
       </c>
@@ -8836,7 +8237,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="333" spans="1:8">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
         <v>822</v>
       </c>
@@ -8850,7 +8251,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="334" spans="1:8">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
         <v>825</v>
       </c>
@@ -8864,7 +8265,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="335" spans="1:8">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
         <v>828</v>
       </c>
@@ -8881,7 +8282,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="336" spans="1:7">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
         <v>832</v>
       </c>
@@ -8898,7 +8299,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="337" spans="1:7">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
         <v>836</v>
       </c>
@@ -8915,7 +8316,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="338" spans="1:9">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
         <v>840</v>
       </c>
@@ -8938,7 +8339,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="339" spans="1:9">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
         <v>846</v>
       </c>
@@ -8958,7 +8359,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="340" spans="1:8">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
         <v>849</v>
       </c>
@@ -8972,7 +8373,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="341" spans="1:9">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
         <v>852</v>
       </c>
@@ -8995,7 +8396,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="342" spans="1:9">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
         <v>857</v>
       </c>
@@ -9018,7 +8419,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="343" spans="1:8">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
         <v>861</v>
       </c>
@@ -9032,7 +8433,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="344" spans="1:8">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
         <v>864</v>
       </c>
@@ -9049,7 +8450,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="345" spans="1:8">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
         <v>867</v>
       </c>
@@ -9063,7 +8464,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="346" spans="1:8">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
         <v>869</v>
       </c>
@@ -9077,7 +8478,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="347" spans="1:8">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
         <v>872</v>
       </c>
@@ -9091,7 +8492,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="348" spans="1:3">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
         <v>875</v>
       </c>
@@ -9102,7 +8503,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="349" spans="1:8">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
         <v>877</v>
       </c>
@@ -9122,7 +8523,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="350" spans="1:9">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
         <v>881</v>
       </c>
@@ -9148,7 +8549,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="351" spans="1:9">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
         <v>888</v>
       </c>
@@ -9168,7 +8569,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="352" spans="1:9">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
         <v>891</v>
       </c>
@@ -9185,7 +8586,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="353" spans="1:3">
+    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
         <v>893</v>
       </c>
@@ -9196,7 +8597,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="354" spans="1:9">
+    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
         <v>895</v>
       </c>
@@ -9216,7 +8617,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="355" spans="1:9">
+    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
         <v>899</v>
       </c>
@@ -9233,7 +8634,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="356" spans="1:9">
+    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
         <v>901</v>
       </c>
@@ -9253,7 +8654,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="357" spans="1:9">
+    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
         <v>904</v>
       </c>
@@ -9273,7 +8674,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="358" spans="1:5">
+    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
         <v>906</v>
       </c>
@@ -9287,7 +8688,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="359" spans="1:7">
+    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
         <v>908</v>
       </c>
@@ -9301,7 +8702,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="360" spans="1:9">
+    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
         <v>911</v>
       </c>
@@ -9318,7 +8719,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="361" spans="1:5">
+    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
         <v>914</v>
       </c>
@@ -9332,7 +8733,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="362" spans="1:3">
+    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
         <v>916</v>
       </c>
@@ -9343,7 +8744,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="363" spans="1:3">
+    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
         <v>918</v>
       </c>
@@ -9354,7 +8755,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="364" spans="1:9">
+    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
         <v>920</v>
       </c>
@@ -9374,7 +8775,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="365" spans="1:3">
+    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
         <v>923</v>
       </c>
@@ -9385,7 +8786,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="366" spans="1:3">
+    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
         <v>925</v>
       </c>
@@ -9396,7 +8797,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="367" spans="1:9">
+    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
         <v>927</v>
       </c>
@@ -9413,7 +8814,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="368" spans="1:3">
+    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
         <v>929</v>
       </c>
@@ -9424,7 +8825,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="369" spans="1:5">
+    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
         <v>931</v>
       </c>
@@ -9438,7 +8839,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="370" spans="1:3">
+    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
         <v>933</v>
       </c>
@@ -9449,7 +8850,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="371" spans="1:3">
+    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
         <v>935</v>
       </c>
@@ -9460,7 +8861,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="372" spans="1:9">
+    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
         <v>937</v>
       </c>
@@ -9477,7 +8878,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="373" spans="1:3">
+    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
         <v>940</v>
       </c>
@@ -9488,7 +8889,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="374" spans="1:9">
+    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
         <v>942</v>
       </c>
@@ -9502,7 +8903,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="375" spans="1:9">
+    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
         <v>944</v>
       </c>
@@ -9516,7 +8917,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="376" spans="1:5">
+    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
         <v>946</v>
       </c>
@@ -9530,7 +8931,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="377" spans="1:9">
+    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
         <v>948</v>
       </c>
@@ -9553,7 +8954,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="378" spans="1:3">
+    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
         <v>953</v>
       </c>
@@ -9564,7 +8965,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="379" spans="1:3">
+    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
         <v>955</v>
       </c>
@@ -9575,7 +8976,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="380" spans="1:3">
+    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
         <v>957</v>
       </c>
@@ -9586,7 +8987,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="381" spans="1:3">
+    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
         <v>959</v>
       </c>
@@ -9597,7 +8998,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="382" spans="1:3">
+    <row r="382" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
         <v>961</v>
       </c>
@@ -9609,7 +9010,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/all_course.xlsx
+++ b/all_course.xlsx
@@ -577,6 +577,54 @@
     <t>f6318bc8</t>
   </si>
   <si>
+    <t>10071012</t>
+  </si>
+  <si>
+    <t>8993c625</t>
+  </si>
+  <si>
+    <t>e709ebb4</t>
+  </si>
+  <si>
+    <t>4ce88f9c</t>
+  </si>
+  <si>
+    <t>6d074d97</t>
+  </si>
+  <si>
+    <t>7680524b</t>
+  </si>
+  <si>
+    <t>e476485d</t>
+  </si>
+  <si>
+    <t>aab20c41</t>
+  </si>
+  <si>
+    <t>61d9af26</t>
+  </si>
+  <si>
+    <t>762ff46e</t>
+  </si>
+  <si>
+    <t>37a80017</t>
+  </si>
+  <si>
+    <t>9135d3fb</t>
+  </si>
+  <si>
+    <t>b227f846</t>
+  </si>
+  <si>
+    <t>5abdf02e</t>
+  </si>
+  <si>
+    <t>c9a46d8e</t>
+  </si>
+  <si>
+    <t>614ba9fa</t>
+  </si>
+  <si>
     <t>7201d283</t>
   </si>
   <si>
@@ -604,54 +652,6 @@
     <t>e7782d39</t>
   </si>
   <si>
-    <t>10071012</t>
-  </si>
-  <si>
-    <t>8993c625</t>
-  </si>
-  <si>
-    <t>e709ebb4</t>
-  </si>
-  <si>
-    <t>4ce88f9c</t>
-  </si>
-  <si>
-    <t>6d074d97</t>
-  </si>
-  <si>
-    <t>7680524b</t>
-  </si>
-  <si>
-    <t>e476485d</t>
-  </si>
-  <si>
-    <t>aab20c41</t>
-  </si>
-  <si>
-    <t>61d9af26</t>
-  </si>
-  <si>
-    <t>762ff46e</t>
-  </si>
-  <si>
-    <t>37a80017</t>
-  </si>
-  <si>
-    <t>9135d3fb</t>
-  </si>
-  <si>
-    <t>b227f846</t>
-  </si>
-  <si>
-    <t>5abdf02e</t>
-  </si>
-  <si>
-    <t>c9a46d8e</t>
-  </si>
-  <si>
-    <t>614ba9fa</t>
-  </si>
-  <si>
     <t>9f538752</t>
   </si>
   <si>
@@ -1228,15 +1228,15 @@
     <t>实修</t>
   </si>
   <si>
+    <t>对话</t>
+  </si>
+  <si>
     <t>开示</t>
   </si>
   <si>
     <t>念修</t>
   </si>
   <si>
-    <t>慧晤</t>
-  </si>
-  <si>
     <t>戒律</t>
   </si>
   <si>
@@ -1786,6 +1786,54 @@
     <t>除疫莲师观修法</t>
   </si>
   <si>
+    <t>01 问心-索达吉堪布对话埃亚·阿维夫教授</t>
+  </si>
+  <si>
+    <t>02 在美国大学教佛法-索达吉堪布对话本杰明教授</t>
+  </si>
+  <si>
+    <t>03 缘聚纽约谈藏密-索达吉堪布对话滕华睿教授</t>
+  </si>
+  <si>
+    <t>04 修行者说-索达吉堪布对话范彼德教授</t>
+  </si>
+  <si>
+    <t>05 扣问我们的时代-索达吉堪布对话施耐德教授</t>
+  </si>
+  <si>
+    <t>06 科学时代的佛教-索达吉堪布对话晧利·盖利教授</t>
+  </si>
+  <si>
+    <t>07 环保从心开始-索达吉堪布对话叶蓓教授</t>
+  </si>
+  <si>
+    <t>08 佛法与科学是殊途同归-索达吉堪布采访朱清时教授</t>
+  </si>
+  <si>
+    <t>09 文殊菩萨的智慧宝剑-索达吉堪布对话威廉·道格拉斯教授</t>
+  </si>
+  <si>
+    <t>10 当科学与佛法不谋而合-索达吉堪布对话朱清时教授</t>
+  </si>
+  <si>
+    <t>11 科学与佛教的握手-索达吉堪布对话潘宗光教授</t>
+  </si>
+  <si>
+    <t>12 兴衰的幻剧-索达吉堪布对话阎雨院长</t>
+  </si>
+  <si>
+    <t>13-1 从大学校长到佛法传播者-索达吉堪布对话潘宗光教授</t>
+  </si>
+  <si>
+    <t>13-2 成功的另一种定义-索达吉堪布对话潘宗光教授</t>
+  </si>
+  <si>
+    <t>14 浮世修行-索达吉堪布对话海涛法师</t>
+  </si>
+  <si>
+    <t>15 聚焦人工智能与人类幸福-第七届世界青年佛学研讨会座谈</t>
+  </si>
+  <si>
     <t>三过患</t>
   </si>
   <si>
@@ -1811,54 +1859,6 @@
   </si>
   <si>
     <t>念诵仪轨</t>
-  </si>
-  <si>
-    <t>01 问心-索达吉堪布对话埃亚·阿维夫教授</t>
-  </si>
-  <si>
-    <t>02 在美国大学教佛法-索达吉堪布对话本杰明教授</t>
-  </si>
-  <si>
-    <t>03 缘聚纽约谈藏密-索达吉堪布对话滕华睿教授</t>
-  </si>
-  <si>
-    <t>04 修行者说-索达吉堪布对话范彼德教授</t>
-  </si>
-  <si>
-    <t>05 扣问我们的时代-索达吉堪布对话施耐德教授</t>
-  </si>
-  <si>
-    <t>06 科学时代的佛教-索达吉堪布对话晧利·盖利教授</t>
-  </si>
-  <si>
-    <t>07 环保从心开始-索达吉堪布对话叶蓓教授</t>
-  </si>
-  <si>
-    <t>08 佛法与科学是殊途同归-索达吉堪布采访朱清时教授</t>
-  </si>
-  <si>
-    <t>09 文殊菩萨的智慧宝剑-索达吉堪布对话威廉·道格拉斯教授</t>
-  </si>
-  <si>
-    <t>10 当科学与佛法不谋而合-索达吉堪布对话朱清时教授</t>
-  </si>
-  <si>
-    <t>11 科学与佛教的握手-索达吉堪布对话潘宗光教授</t>
-  </si>
-  <si>
-    <t>12 兴衰的幻剧-索达吉堪布对话阎雨院长</t>
-  </si>
-  <si>
-    <t>13-1 从大学校长到佛法传播者-索达吉堪布对话潘宗光教授</t>
-  </si>
-  <si>
-    <t>13-2 成功的另一种定义-索达吉堪布对话潘宗光教授</t>
-  </si>
-  <si>
-    <t>14 浮世修行-索达吉堪布对话海涛法师</t>
-  </si>
-  <si>
-    <t>15 聚焦人工智能与人类幸福-第七届世界青年佛学研讨会座谈</t>
   </si>
   <si>
     <t>三戒要解节选</t>
@@ -6023,7 +6023,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="177" spans="1:7">
+    <row r="177" spans="1:5">
       <c r="A177" s="1" t="s">
         <v>186</v>
       </c>
@@ -6034,7 +6034,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="178" spans="1:7">
+    <row r="178" spans="1:5">
       <c r="A178" s="1" t="s">
         <v>187</v>
       </c>
@@ -6044,8 +6044,11 @@
       <c r="C178" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="179" spans="1:7">
+      <c r="E178" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
       <c r="A179" s="1" t="s">
         <v>188</v>
       </c>
@@ -6055,8 +6058,11 @@
       <c r="C179" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="180" spans="1:7">
+      <c r="E179" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
       <c r="A180" s="1" t="s">
         <v>189</v>
       </c>
@@ -6066,8 +6072,11 @@
       <c r="C180" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="181" spans="1:7">
+      <c r="E180" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
       <c r="A181" s="1" t="s">
         <v>190</v>
       </c>
@@ -6080,11 +6089,8 @@
       <c r="E181" t="s">
         <v>593</v>
       </c>
-      <c r="G181" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7">
+    </row>
+    <row r="182" spans="1:5">
       <c r="A182" s="1" t="s">
         <v>191</v>
       </c>
@@ -6095,10 +6101,10 @@
         <v>594</v>
       </c>
       <c r="E182" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
       <c r="A183" s="1" t="s">
         <v>192</v>
       </c>
@@ -6112,7 +6118,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="184" spans="1:7">
+    <row r="184" spans="1:5">
       <c r="A184" s="1" t="s">
         <v>193</v>
       </c>
@@ -6122,8 +6128,11 @@
       <c r="C184" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="185" spans="1:7">
+      <c r="E184" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
       <c r="A185" s="1" t="s">
         <v>194</v>
       </c>
@@ -6133,13 +6142,16 @@
       <c r="C185" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="186" spans="1:7">
+      <c r="E185" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
       <c r="A186" s="1" t="s">
         <v>195</v>
       </c>
       <c r="B186" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C186" t="s">
         <v>598</v>
@@ -6147,16 +6159,13 @@
       <c r="E186" t="s">
         <v>598</v>
       </c>
-      <c r="G186" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7">
+    </row>
+    <row r="187" spans="1:5">
       <c r="A187" s="1" t="s">
         <v>196</v>
       </c>
       <c r="B187" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C187" t="s">
         <v>599</v>
@@ -6165,12 +6174,12 @@
         <v>599</v>
       </c>
     </row>
-    <row r="188" spans="1:7">
+    <row r="188" spans="1:5">
       <c r="A188" s="1" t="s">
         <v>197</v>
       </c>
       <c r="B188" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C188" t="s">
         <v>600</v>
@@ -6179,12 +6188,12 @@
         <v>600</v>
       </c>
     </row>
-    <row r="189" spans="1:7">
+    <row r="189" spans="1:5">
       <c r="A189" s="1" t="s">
         <v>198</v>
       </c>
       <c r="B189" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C189" t="s">
         <v>601</v>
@@ -6193,12 +6202,12 @@
         <v>601</v>
       </c>
     </row>
-    <row r="190" spans="1:7">
+    <row r="190" spans="1:5">
       <c r="A190" s="1" t="s">
         <v>199</v>
       </c>
       <c r="B190" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C190" t="s">
         <v>602</v>
@@ -6207,12 +6216,12 @@
         <v>602</v>
       </c>
     </row>
-    <row r="191" spans="1:7">
+    <row r="191" spans="1:5">
       <c r="A191" s="1" t="s">
         <v>200</v>
       </c>
       <c r="B191" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C191" t="s">
         <v>603</v>
@@ -6221,12 +6230,12 @@
         <v>603</v>
       </c>
     </row>
-    <row r="192" spans="1:7">
+    <row r="192" spans="1:5">
       <c r="A192" s="1" t="s">
         <v>201</v>
       </c>
       <c r="B192" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C192" t="s">
         <v>604</v>
@@ -6240,7 +6249,7 @@
         <v>202</v>
       </c>
       <c r="B193" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C193" t="s">
         <v>605</v>
@@ -6254,12 +6263,9 @@
         <v>203</v>
       </c>
       <c r="B194" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C194" t="s">
-        <v>606</v>
-      </c>
-      <c r="E194" t="s">
         <v>606</v>
       </c>
     </row>
@@ -6268,12 +6274,9 @@
         <v>204</v>
       </c>
       <c r="B195" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C195" t="s">
-        <v>607</v>
-      </c>
-      <c r="E195" t="s">
         <v>607</v>
       </c>
     </row>
@@ -6282,12 +6285,9 @@
         <v>205</v>
       </c>
       <c r="B196" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C196" t="s">
-        <v>608</v>
-      </c>
-      <c r="E196" t="s">
         <v>608</v>
       </c>
     </row>
@@ -6296,13 +6296,16 @@
         <v>206</v>
       </c>
       <c r="B197" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C197" t="s">
         <v>609</v>
       </c>
       <c r="E197" t="s">
         <v>609</v>
+      </c>
+      <c r="G197" t="s">
+        <v>817</v>
       </c>
     </row>
     <row r="198" spans="1:9">
@@ -6310,13 +6313,13 @@
         <v>207</v>
       </c>
       <c r="B198" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C198" t="s">
         <v>610</v>
       </c>
       <c r="E198" t="s">
-        <v>610</v>
+        <v>805</v>
       </c>
     </row>
     <row r="199" spans="1:9">
@@ -6324,7 +6327,7 @@
         <v>208</v>
       </c>
       <c r="B199" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C199" t="s">
         <v>611</v>
@@ -6338,12 +6341,9 @@
         <v>209</v>
       </c>
       <c r="B200" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C200" t="s">
-        <v>612</v>
-      </c>
-      <c r="E200" t="s">
         <v>612</v>
       </c>
     </row>
@@ -6352,12 +6352,9 @@
         <v>210</v>
       </c>
       <c r="B201" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C201" t="s">
-        <v>613</v>
-      </c>
-      <c r="E201" t="s">
         <v>613</v>
       </c>
     </row>
@@ -6373,6 +6370,9 @@
       </c>
       <c r="E202" t="s">
         <v>614</v>
+      </c>
+      <c r="G202" t="s">
+        <v>874</v>
       </c>
     </row>
     <row r="203" spans="1:9">

--- a/all_course.xlsx
+++ b/all_course.xlsx
@@ -721,492 +721,492 @@
     <t>cfa6d506</t>
   </si>
   <si>
+    <t>43d90710</t>
+  </si>
+  <si>
+    <t>c113c550</t>
+  </si>
+  <si>
+    <t>795ccb05</t>
+  </si>
+  <si>
+    <t>45721e23</t>
+  </si>
+  <si>
+    <t>26cf6855</t>
+  </si>
+  <si>
+    <t>e45ae7e0</t>
+  </si>
+  <si>
+    <t>2183e890</t>
+  </si>
+  <si>
+    <t>912fee3a</t>
+  </si>
+  <si>
+    <t>14336770</t>
+  </si>
+  <si>
+    <t>4ff27c09</t>
+  </si>
+  <si>
+    <t>810cc136</t>
+  </si>
+  <si>
+    <t>1890760b</t>
+  </si>
+  <si>
+    <t>b6045e41</t>
+  </si>
+  <si>
+    <t>ccce8dbb</t>
+  </si>
+  <si>
+    <t>25c99933</t>
+  </si>
+  <si>
+    <t>e8498b72</t>
+  </si>
+  <si>
+    <t>5da56f1a</t>
+  </si>
+  <si>
+    <t>37603eee</t>
+  </si>
+  <si>
+    <t>7590b1d0</t>
+  </si>
+  <si>
+    <t>fa9fe7d9</t>
+  </si>
+  <si>
+    <t>bd657a4a</t>
+  </si>
+  <si>
+    <t>e14d1f78</t>
+  </si>
+  <si>
+    <t>9fa3cbe4</t>
+  </si>
+  <si>
+    <t>4b0790aa</t>
+  </si>
+  <si>
+    <t>e3b8e58a</t>
+  </si>
+  <si>
+    <t>27e8c60d</t>
+  </si>
+  <si>
+    <t>1aaf7d7b</t>
+  </si>
+  <si>
+    <t>eab02f9c</t>
+  </si>
+  <si>
+    <t>5c0fb2e8</t>
+  </si>
+  <si>
+    <t>e435d372</t>
+  </si>
+  <si>
+    <t>f74ec6e5</t>
+  </si>
+  <si>
+    <t>462031f3</t>
+  </si>
+  <si>
+    <t>3294d9be</t>
+  </si>
+  <si>
+    <t>a2d6ecd3</t>
+  </si>
+  <si>
+    <t>e440f8c1</t>
+  </si>
+  <si>
+    <t>a9d5a746</t>
+  </si>
+  <si>
+    <t>c7b10767</t>
+  </si>
+  <si>
+    <t>21aa941d</t>
+  </si>
+  <si>
+    <t>48bd1181</t>
+  </si>
+  <si>
+    <t>a3c8a696</t>
+  </si>
+  <si>
+    <t>09f5a62f</t>
+  </si>
+  <si>
+    <t>202a5ade</t>
+  </si>
+  <si>
+    <t>015824d8</t>
+  </si>
+  <si>
+    <t>08c7faf0</t>
+  </si>
+  <si>
+    <t>b34ec05e</t>
+  </si>
+  <si>
+    <t>3fc83a9a</t>
+  </si>
+  <si>
+    <t>958662cf</t>
+  </si>
+  <si>
+    <t>9cbac40d</t>
+  </si>
+  <si>
+    <t>ec3e624e</t>
+  </si>
+  <si>
+    <t>da032e4c</t>
+  </si>
+  <si>
+    <t>0413459b</t>
+  </si>
+  <si>
+    <t>4bce29f8</t>
+  </si>
+  <si>
+    <t>e98fe498</t>
+  </si>
+  <si>
+    <t>12e72664</t>
+  </si>
+  <si>
+    <t>5ff62495</t>
+  </si>
+  <si>
+    <t>8daeeeb4</t>
+  </si>
+  <si>
+    <t>c5a0d907</t>
+  </si>
+  <si>
+    <t>63ed96bc</t>
+  </si>
+  <si>
+    <t>659a2613</t>
+  </si>
+  <si>
+    <t>21ba6f1f</t>
+  </si>
+  <si>
+    <t>07501352</t>
+  </si>
+  <si>
+    <t>561fa7b9</t>
+  </si>
+  <si>
+    <t>3a5df94a</t>
+  </si>
+  <si>
+    <t>a1646d3f</t>
+  </si>
+  <si>
+    <t>d2c76900</t>
+  </si>
+  <si>
+    <t>68a5d9bc</t>
+  </si>
+  <si>
+    <t>b7b3061f</t>
+  </si>
+  <si>
+    <t>2837567c</t>
+  </si>
+  <si>
+    <t>f7021ca5</t>
+  </si>
+  <si>
+    <t>bcc3a51f</t>
+  </si>
+  <si>
+    <t>5f8111f8</t>
+  </si>
+  <si>
+    <t>ffd6977a</t>
+  </si>
+  <si>
+    <t>5fa8f7c9</t>
+  </si>
+  <si>
+    <t>1a44f08c</t>
+  </si>
+  <si>
+    <t>9d6a0873</t>
+  </si>
+  <si>
+    <t>ea45147a</t>
+  </si>
+  <si>
+    <t>fcd65b00</t>
+  </si>
+  <si>
+    <t>600dfa29</t>
+  </si>
+  <si>
+    <t>e84cc988</t>
+  </si>
+  <si>
+    <t>3cefd5cc</t>
+  </si>
+  <si>
+    <t>1faf74ec</t>
+  </si>
+  <si>
+    <t>dfcf0ff5</t>
+  </si>
+  <si>
+    <t>8741459e</t>
+  </si>
+  <si>
+    <t>b15fc411</t>
+  </si>
+  <si>
+    <t>09c43551</t>
+  </si>
+  <si>
+    <t>022658ff</t>
+  </si>
+  <si>
+    <t>516558c4</t>
+  </si>
+  <si>
+    <t>83c81b86</t>
+  </si>
+  <si>
+    <t>4c1654ad</t>
+  </si>
+  <si>
+    <t>5a246c5f</t>
+  </si>
+  <si>
+    <t>7f507001</t>
+  </si>
+  <si>
+    <t>dafa9d4e</t>
+  </si>
+  <si>
+    <t>75dd4741</t>
+  </si>
+  <si>
+    <t>a75d14fd</t>
+  </si>
+  <si>
+    <t>a2f8a56a</t>
+  </si>
+  <si>
+    <t>ea41863b</t>
+  </si>
+  <si>
+    <t>1e458dab</t>
+  </si>
+  <si>
+    <t>071c0f76</t>
+  </si>
+  <si>
+    <t>906f3b39</t>
+  </si>
+  <si>
+    <t>65bf4ca9</t>
+  </si>
+  <si>
+    <t>caca36b3</t>
+  </si>
+  <si>
+    <t>075446b9</t>
+  </si>
+  <si>
+    <t>80b8d9e8</t>
+  </si>
+  <si>
+    <t>1ff5ab47</t>
+  </si>
+  <si>
+    <t>b364b069</t>
+  </si>
+  <si>
+    <t>e0a20b52</t>
+  </si>
+  <si>
+    <t>35c7c6a5</t>
+  </si>
+  <si>
+    <t>03064261</t>
+  </si>
+  <si>
+    <t>6e2673a1</t>
+  </si>
+  <si>
+    <t>cb807e69</t>
+  </si>
+  <si>
+    <t>4acb694e</t>
+  </si>
+  <si>
+    <t>b9a10122</t>
+  </si>
+  <si>
+    <t>7047c69c</t>
+  </si>
+  <si>
+    <t>477aab9a</t>
+  </si>
+  <si>
+    <t>8a83c256</t>
+  </si>
+  <si>
+    <t>33f13219</t>
+  </si>
+  <si>
+    <t>aa06eba2</t>
+  </si>
+  <si>
+    <t>d132cbae</t>
+  </si>
+  <si>
+    <t>cab3e71b</t>
+  </si>
+  <si>
+    <t>9eb9f24d</t>
+  </si>
+  <si>
+    <t>af9da37f</t>
+  </si>
+  <si>
+    <t>418eb1c0</t>
+  </si>
+  <si>
+    <t>7e8880ed</t>
+  </si>
+  <si>
+    <t>17f2b28c</t>
+  </si>
+  <si>
+    <t>03533665</t>
+  </si>
+  <si>
+    <t>b2b89589</t>
+  </si>
+  <si>
+    <t>3bffbe0a</t>
+  </si>
+  <si>
+    <t>6dd4e0ba</t>
+  </si>
+  <si>
+    <t>1c77de73</t>
+  </si>
+  <si>
+    <t>68461080</t>
+  </si>
+  <si>
+    <t>f652166f</t>
+  </si>
+  <si>
+    <t>d6b0b5bf</t>
+  </si>
+  <si>
+    <t>59aecd68</t>
+  </si>
+  <si>
+    <t>c1c11d98</t>
+  </si>
+  <si>
     <t>21e13cd7</t>
   </si>
   <si>
-    <t>43d90710</t>
-  </si>
-  <si>
-    <t>c113c550</t>
-  </si>
-  <si>
-    <t>795ccb05</t>
-  </si>
-  <si>
-    <t>45721e23</t>
-  </si>
-  <si>
-    <t>26cf6855</t>
-  </si>
-  <si>
-    <t>e45ae7e0</t>
-  </si>
-  <si>
-    <t>2183e890</t>
-  </si>
-  <si>
-    <t>912fee3a</t>
-  </si>
-  <si>
-    <t>14336770</t>
-  </si>
-  <si>
-    <t>4ff27c09</t>
+    <t>c756bd1c</t>
+  </si>
+  <si>
+    <t>2eb0689e</t>
+  </si>
+  <si>
+    <t>65162c4e</t>
+  </si>
+  <si>
+    <t>d9d73708</t>
+  </si>
+  <si>
+    <t>3e950f2b</t>
+  </si>
+  <si>
+    <t>96774e57</t>
+  </si>
+  <si>
+    <t>7f2f18b4</t>
+  </si>
+  <si>
+    <t>f0b18958</t>
+  </si>
+  <si>
+    <t>c1dbf164</t>
+  </si>
+  <si>
+    <t>a6eafe1e</t>
+  </si>
+  <si>
+    <t>93551f55</t>
+  </si>
+  <si>
+    <t>9c9f78e9</t>
+  </si>
+  <si>
+    <t>c4b1bfca</t>
+  </si>
+  <si>
+    <t>78575627</t>
+  </si>
+  <si>
+    <t>b9c6a980</t>
+  </si>
+  <si>
+    <t>068f22fc</t>
+  </si>
+  <si>
+    <t>196f03f7</t>
+  </si>
+  <si>
+    <t>cd94ff90</t>
+  </si>
+  <si>
+    <t>07197259</t>
+  </si>
+  <si>
+    <t>e3ad7cc6</t>
+  </si>
+  <si>
+    <t>a9b5637e</t>
+  </si>
+  <si>
+    <t>2d29b77c</t>
+  </si>
+  <si>
+    <t>e9c9900f</t>
+  </si>
+  <si>
+    <t>9c59aa4e</t>
+  </si>
+  <si>
+    <t>b46d2d67</t>
+  </si>
+  <si>
+    <t>40f8dc3e</t>
   </si>
   <si>
     <t>6fd6741a</t>
   </si>
   <si>
-    <t>810cc136</t>
-  </si>
-  <si>
-    <t>1890760b</t>
-  </si>
-  <si>
-    <t>b6045e41</t>
-  </si>
-  <si>
-    <t>ccce8dbb</t>
-  </si>
-  <si>
-    <t>25c99933</t>
-  </si>
-  <si>
-    <t>e8498b72</t>
-  </si>
-  <si>
-    <t>5da56f1a</t>
-  </si>
-  <si>
-    <t>37603eee</t>
-  </si>
-  <si>
-    <t>7590b1d0</t>
-  </si>
-  <si>
-    <t>fa9fe7d9</t>
-  </si>
-  <si>
-    <t>bd657a4a</t>
-  </si>
-  <si>
-    <t>e14d1f78</t>
-  </si>
-  <si>
-    <t>9fa3cbe4</t>
-  </si>
-  <si>
-    <t>4b0790aa</t>
-  </si>
-  <si>
-    <t>e3b8e58a</t>
-  </si>
-  <si>
-    <t>27e8c60d</t>
-  </si>
-  <si>
-    <t>1aaf7d7b</t>
-  </si>
-  <si>
-    <t>eab02f9c</t>
-  </si>
-  <si>
-    <t>5c0fb2e8</t>
-  </si>
-  <si>
-    <t>e435d372</t>
-  </si>
-  <si>
-    <t>f74ec6e5</t>
-  </si>
-  <si>
-    <t>462031f3</t>
-  </si>
-  <si>
-    <t>3294d9be</t>
-  </si>
-  <si>
-    <t>a2d6ecd3</t>
-  </si>
-  <si>
-    <t>e440f8c1</t>
-  </si>
-  <si>
-    <t>a9d5a746</t>
-  </si>
-  <si>
-    <t>c7b10767</t>
-  </si>
-  <si>
-    <t>21aa941d</t>
-  </si>
-  <si>
-    <t>48bd1181</t>
-  </si>
-  <si>
-    <t>a3c8a696</t>
-  </si>
-  <si>
-    <t>09f5a62f</t>
-  </si>
-  <si>
-    <t>202a5ade</t>
-  </si>
-  <si>
-    <t>015824d8</t>
-  </si>
-  <si>
-    <t>08c7faf0</t>
-  </si>
-  <si>
-    <t>b34ec05e</t>
-  </si>
-  <si>
-    <t>3fc83a9a</t>
-  </si>
-  <si>
-    <t>958662cf</t>
-  </si>
-  <si>
-    <t>9cbac40d</t>
-  </si>
-  <si>
-    <t>ec3e624e</t>
-  </si>
-  <si>
-    <t>da032e4c</t>
-  </si>
-  <si>
-    <t>0413459b</t>
-  </si>
-  <si>
-    <t>4bce29f8</t>
-  </si>
-  <si>
-    <t>e98fe498</t>
-  </si>
-  <si>
-    <t>12e72664</t>
-  </si>
-  <si>
-    <t>5ff62495</t>
-  </si>
-  <si>
-    <t>8daeeeb4</t>
-  </si>
-  <si>
-    <t>c5a0d907</t>
-  </si>
-  <si>
-    <t>63ed96bc</t>
-  </si>
-  <si>
-    <t>659a2613</t>
-  </si>
-  <si>
-    <t>21ba6f1f</t>
-  </si>
-  <si>
-    <t>07501352</t>
-  </si>
-  <si>
-    <t>561fa7b9</t>
-  </si>
-  <si>
-    <t>3a5df94a</t>
-  </si>
-  <si>
-    <t>a1646d3f</t>
-  </si>
-  <si>
-    <t>d2c76900</t>
-  </si>
-  <si>
-    <t>68a5d9bc</t>
-  </si>
-  <si>
-    <t>b7b3061f</t>
-  </si>
-  <si>
-    <t>2837567c</t>
-  </si>
-  <si>
-    <t>f7021ca5</t>
-  </si>
-  <si>
-    <t>bcc3a51f</t>
-  </si>
-  <si>
-    <t>5f8111f8</t>
-  </si>
-  <si>
-    <t>ffd6977a</t>
-  </si>
-  <si>
-    <t>5fa8f7c9</t>
-  </si>
-  <si>
-    <t>1a44f08c</t>
-  </si>
-  <si>
-    <t>9d6a0873</t>
-  </si>
-  <si>
-    <t>ea45147a</t>
-  </si>
-  <si>
-    <t>fcd65b00</t>
-  </si>
-  <si>
-    <t>600dfa29</t>
-  </si>
-  <si>
-    <t>e84cc988</t>
-  </si>
-  <si>
-    <t>3cefd5cc</t>
-  </si>
-  <si>
-    <t>1faf74ec</t>
-  </si>
-  <si>
-    <t>dfcf0ff5</t>
-  </si>
-  <si>
-    <t>8741459e</t>
-  </si>
-  <si>
-    <t>b15fc411</t>
-  </si>
-  <si>
-    <t>09c43551</t>
-  </si>
-  <si>
-    <t>022658ff</t>
-  </si>
-  <si>
-    <t>516558c4</t>
-  </si>
-  <si>
-    <t>83c81b86</t>
-  </si>
-  <si>
-    <t>4c1654ad</t>
-  </si>
-  <si>
-    <t>5a246c5f</t>
-  </si>
-  <si>
-    <t>7f507001</t>
-  </si>
-  <si>
-    <t>dafa9d4e</t>
-  </si>
-  <si>
-    <t>75dd4741</t>
-  </si>
-  <si>
-    <t>a75d14fd</t>
-  </si>
-  <si>
-    <t>a2f8a56a</t>
-  </si>
-  <si>
-    <t>ea41863b</t>
-  </si>
-  <si>
-    <t>1e458dab</t>
-  </si>
-  <si>
-    <t>071c0f76</t>
-  </si>
-  <si>
-    <t>906f3b39</t>
-  </si>
-  <si>
-    <t>65bf4ca9</t>
-  </si>
-  <si>
-    <t>caca36b3</t>
-  </si>
-  <si>
-    <t>075446b9</t>
-  </si>
-  <si>
-    <t>80b8d9e8</t>
-  </si>
-  <si>
-    <t>1ff5ab47</t>
-  </si>
-  <si>
-    <t>b364b069</t>
-  </si>
-  <si>
-    <t>e0a20b52</t>
-  </si>
-  <si>
-    <t>35c7c6a5</t>
-  </si>
-  <si>
-    <t>03064261</t>
-  </si>
-  <si>
-    <t>6e2673a1</t>
-  </si>
-  <si>
-    <t>cb807e69</t>
-  </si>
-  <si>
-    <t>4acb694e</t>
-  </si>
-  <si>
-    <t>b9a10122</t>
-  </si>
-  <si>
-    <t>7047c69c</t>
-  </si>
-  <si>
-    <t>477aab9a</t>
-  </si>
-  <si>
-    <t>8a83c256</t>
-  </si>
-  <si>
-    <t>33f13219</t>
-  </si>
-  <si>
-    <t>aa06eba2</t>
-  </si>
-  <si>
-    <t>d132cbae</t>
-  </si>
-  <si>
-    <t>cab3e71b</t>
-  </si>
-  <si>
-    <t>9eb9f24d</t>
-  </si>
-  <si>
-    <t>af9da37f</t>
-  </si>
-  <si>
-    <t>418eb1c0</t>
-  </si>
-  <si>
-    <t>7e8880ed</t>
-  </si>
-  <si>
-    <t>17f2b28c</t>
-  </si>
-  <si>
-    <t>03533665</t>
-  </si>
-  <si>
-    <t>b2b89589</t>
-  </si>
-  <si>
-    <t>3bffbe0a</t>
-  </si>
-  <si>
-    <t>6dd4e0ba</t>
-  </si>
-  <si>
-    <t>1c77de73</t>
-  </si>
-  <si>
-    <t>68461080</t>
-  </si>
-  <si>
-    <t>f652166f</t>
-  </si>
-  <si>
-    <t>d6b0b5bf</t>
-  </si>
-  <si>
-    <t>59aecd68</t>
-  </si>
-  <si>
-    <t>c1c11d98</t>
-  </si>
-  <si>
-    <t>c756bd1c</t>
-  </si>
-  <si>
-    <t>2eb0689e</t>
-  </si>
-  <si>
-    <t>65162c4e</t>
-  </si>
-  <si>
-    <t>d9d73708</t>
-  </si>
-  <si>
-    <t>3e950f2b</t>
-  </si>
-  <si>
-    <t>96774e57</t>
-  </si>
-  <si>
-    <t>7f2f18b4</t>
-  </si>
-  <si>
-    <t>f0b18958</t>
-  </si>
-  <si>
-    <t>c1dbf164</t>
-  </si>
-  <si>
-    <t>a6eafe1e</t>
-  </si>
-  <si>
-    <t>93551f55</t>
-  </si>
-  <si>
-    <t>9c9f78e9</t>
-  </si>
-  <si>
-    <t>c4b1bfca</t>
-  </si>
-  <si>
-    <t>78575627</t>
-  </si>
-  <si>
-    <t>b9c6a980</t>
-  </si>
-  <si>
-    <t>068f22fc</t>
-  </si>
-  <si>
-    <t>196f03f7</t>
-  </si>
-  <si>
-    <t>cd94ff90</t>
-  </si>
-  <si>
-    <t>07197259</t>
-  </si>
-  <si>
-    <t>e3ad7cc6</t>
-  </si>
-  <si>
-    <t>a9b5637e</t>
-  </si>
-  <si>
-    <t>2d29b77c</t>
-  </si>
-  <si>
-    <t>e9c9900f</t>
-  </si>
-  <si>
-    <t>9c59aa4e</t>
-  </si>
-  <si>
-    <t>b46d2d67</t>
-  </si>
-  <si>
-    <t>40f8dc3e</t>
-  </si>
-  <si>
     <t>3ee21ab2</t>
   </si>
   <si>
@@ -1936,490 +1936,490 @@
     <t>厌世歌•杜鹃妙音</t>
   </si>
   <si>
+    <t>师徒欢喜之歌•无改心之自相</t>
+  </si>
+  <si>
+    <t>法王晋美彭措传</t>
+  </si>
+  <si>
+    <t>瑜伽欢乐道歌•吉祥如意悦音</t>
+  </si>
+  <si>
+    <t>祈祷上师•加持日光</t>
+  </si>
+  <si>
+    <t>窍诀宝藏海</t>
+  </si>
+  <si>
+    <t>胜利道歌</t>
+  </si>
+  <si>
+    <t>莲师多吉卓罗修法</t>
+  </si>
+  <si>
+    <t>莲师略传</t>
+  </si>
+  <si>
+    <t>菩萨戒略轨</t>
+  </si>
+  <si>
+    <t>远唤上师•悉地藏流</t>
+  </si>
+  <si>
+    <t>现观庄严论</t>
+  </si>
+  <si>
+    <t>现观庄严论总义</t>
+  </si>
+  <si>
+    <t>现观庄严论总义讲解</t>
+  </si>
+  <si>
+    <t>现观庄严论注疏</t>
+  </si>
+  <si>
+    <t>现观庄严论略义</t>
+  </si>
+  <si>
+    <t>现观庄严论略义讲解</t>
+  </si>
+  <si>
+    <t>现观庄严论疏</t>
+  </si>
+  <si>
+    <t>现观庄严论讲解</t>
+  </si>
+  <si>
+    <t>01 美国 微软谷歌波音-佛教哲学与现代企业管理</t>
+  </si>
+  <si>
+    <t>02 美国 帕萨迪纳苏格兰仪式中心-通往净土的阶梯</t>
+  </si>
+  <si>
+    <t>03 青海红十字医院-佛学思想与人文关怀</t>
+  </si>
+  <si>
+    <t>04 北京雨枫书馆-从佛学角度看纸媒的未来</t>
+  </si>
+  <si>
+    <t>05 北京雨枫书馆-无“明”的时代，佛法为什么是究竟的真理</t>
+  </si>
+  <si>
+    <t>06 德国 爱尔朗根-现代文明里迷失的精神生活</t>
+  </si>
+  <si>
+    <t>07 广东华阳国际设计集团-心怀感恩 面对世界</t>
+  </si>
+  <si>
+    <t>08 北京世界图书出版公司-佛学与个人成长</t>
+  </si>
+  <si>
+    <t>09 清华卓越领导学堂-觉悟的智慧 灵魂的洗涤</t>
+  </si>
+  <si>
+    <t>10 重庆企业-善与事业</t>
+  </si>
+  <si>
+    <t>11 北京启明星辰-佛学在现代商业中的意义</t>
+  </si>
+  <si>
+    <t>12 北京搜狐-互联网时代的佛学传播</t>
+  </si>
+  <si>
+    <t>13 杭州淘宝大学-佛法与人生</t>
+  </si>
+  <si>
+    <t>14 英国 伦敦三昧宗-三十五佛忏悔文</t>
+  </si>
+  <si>
+    <t>15 杭州阿里集团-借假修真 自利利他</t>
+  </si>
+  <si>
+    <t>16 中国人大重庆校友会-六和精神与企业文化</t>
+  </si>
+  <si>
+    <t>17 英国 伦敦公开演讲-莫舍己道 勿扰他心</t>
+  </si>
+  <si>
+    <t>18 广州粤秀书院-科学精神与佛学智慧</t>
+  </si>
+  <si>
+    <t>19 青岛慈善论坛-因爱结缘 向善而行</t>
+  </si>
+  <si>
+    <t>20 南非 约翰内斯堡禅修中心-四法印</t>
+  </si>
+  <si>
+    <t>21 南非 开普敦三昧宗-菩提心——觉醒的心</t>
+  </si>
+  <si>
+    <t>22 南非 开普敦禅修中心-佛教的皈依及其功德</t>
+  </si>
+  <si>
+    <t>23 莱索托 ACC阿弥陀佛关怀中心-爱的传递</t>
+  </si>
+  <si>
+    <t>24 莱索托 ACC阿弥陀佛关怀中心-锻炼强壮心灵的重要性</t>
+  </si>
+  <si>
+    <t>25 纳米比亚 ACC阿弥陀佛关怀中心-改变自他命运的方法</t>
+  </si>
+  <si>
+    <t>26 意大利 都灵公开演讲-美丽人生</t>
+  </si>
+  <si>
+    <t>27 荷兰 鹿特丹公开演讲-慈悲与智慧</t>
+  </si>
+  <si>
+    <t>28 北京雨枫书馆-走向自己——佛法治愈心灵创伤</t>
+  </si>
+  <si>
+    <t>29 法国 格勒诺布尔CFCF中法企业交流协会-宗教和谐与世界和平</t>
+  </si>
+  <si>
+    <t>31 法国 格勒诺布尔公开演讲-寻找生命的皈依处</t>
+  </si>
+  <si>
+    <t>32 法国 巴黎公开演讲-东方智慧与西方生活</t>
+  </si>
+  <si>
+    <t>33 奥地利 维也纳公开演讲-什么是最大的财富</t>
+  </si>
+  <si>
+    <t>34 日本 东京座谈-佛教如何帮助日本社会</t>
+  </si>
+  <si>
+    <t>35 日本 东京公开演讲-如何平衡自利他利</t>
+  </si>
+  <si>
+    <t>36 日本 东京池袋公开演讲-闻思修与发心的重要性</t>
+  </si>
+  <si>
+    <t>37 新加坡 公开演讲-人生岂止赢与输</t>
+  </si>
+  <si>
+    <t>38 泰国 生命电视台-与时俱进的慈悲</t>
+  </si>
+  <si>
+    <t>39 青岛慈善论坛-企业家的最高境界是什么？</t>
+  </si>
+  <si>
+    <t>40 香港度母法会-度母法门的功德</t>
+  </si>
+  <si>
+    <t>41 北京第三届全球社会企业家生态论坛-心灵的诺亚方舟</t>
+  </si>
+  <si>
+    <t>42 深圳V千年会-商者“义利合一”之道</t>
+  </si>
+  <si>
+    <t>43 香港度母法会-离四贪教言</t>
+  </si>
+  <si>
+    <t>44 甘孜州人民医院-健康人生</t>
+  </si>
+  <si>
+    <t>45 日本 东京观音法会-和平祈愿</t>
+  </si>
+  <si>
+    <t>46 美国 纽约BSA公开演讲-系统闻思修的重要性</t>
+  </si>
+  <si>
+    <t>47 挪威 奥斯陆公开演讲-现代生活中的科学和灵修</t>
+  </si>
+  <si>
+    <t>三主要道论</t>
+  </si>
+  <si>
+    <t>二十一度母赞</t>
+  </si>
+  <si>
+    <t>亲友书</t>
+  </si>
+  <si>
+    <t>佛为娑伽罗龙王所说大乘经</t>
+  </si>
+  <si>
+    <t>佛子行</t>
+  </si>
+  <si>
+    <t>佛说善生经</t>
+  </si>
+  <si>
+    <t>佛说圣大乘三归依经</t>
+  </si>
+  <si>
+    <t>佛说无量寿经</t>
+  </si>
+  <si>
+    <t>佛说观无量寿佛经</t>
+  </si>
+  <si>
+    <t>佛说阿弥陀经</t>
+  </si>
+  <si>
+    <t>修行教言</t>
+  </si>
+  <si>
+    <t>入菩萨行论</t>
+  </si>
+  <si>
+    <t>六祖坛经</t>
+  </si>
+  <si>
+    <t>净土教言——开启信心之佛教明日</t>
+  </si>
+  <si>
+    <t>吉祥经</t>
+  </si>
+  <si>
+    <t>圣大乘临终智慧经</t>
+  </si>
+  <si>
+    <t>圣大乘金子经</t>
+  </si>
+  <si>
+    <t>圣大解脱经</t>
+  </si>
+  <si>
+    <t>大势至菩萨念佛圆通章</t>
+  </si>
+  <si>
+    <t>大圆满前行引导文</t>
+  </si>
+  <si>
+    <t>大圆满心性休息颂（显宗部分）</t>
+  </si>
+  <si>
+    <t>妙法莲华经</t>
+  </si>
+  <si>
+    <t>定解宝灯论</t>
+  </si>
+  <si>
+    <t>开启修心门扉</t>
+  </si>
+  <si>
+    <t>快乐之歌</t>
+  </si>
+  <si>
+    <t>摩邓女经</t>
+  </si>
+  <si>
+    <t>普贤行愿品</t>
+  </si>
+  <si>
+    <t>楞严经</t>
+  </si>
+  <si>
+    <t>父母经</t>
+  </si>
+  <si>
+    <t>维摩诘所说经</t>
+  </si>
+  <si>
+    <t>缘起赞</t>
+  </si>
+  <si>
+    <t>胜出天神赞</t>
+  </si>
+  <si>
+    <t>药师琉璃光七佛本愿功德经</t>
+  </si>
+  <si>
+    <t>菩提道次第摄颂</t>
+  </si>
+  <si>
+    <t>菩提道灯论</t>
+  </si>
+  <si>
+    <t>菩萨宝鬘论</t>
+  </si>
+  <si>
+    <t>萨迦格言</t>
+  </si>
+  <si>
+    <t>金刚功德经</t>
+  </si>
+  <si>
+    <t>金刚经</t>
+  </si>
+  <si>
+    <t>仅有借鉴与研究是不够的</t>
+  </si>
+  <si>
+    <t>佛教科学论</t>
+  </si>
+  <si>
+    <t>修学的旅途</t>
+  </si>
+  <si>
+    <t>化灾难为奇迹</t>
+  </si>
+  <si>
+    <t>博士访谈录</t>
+  </si>
+  <si>
+    <t>密宗断惑论</t>
+  </si>
+  <si>
+    <t>小甘露丸</t>
+  </si>
+  <si>
+    <t>悲惨世界</t>
+  </si>
+  <si>
+    <t>持戒功德如意宝树</t>
+  </si>
+  <si>
+    <t>放生功德文</t>
+  </si>
+  <si>
+    <t>泰国游记</t>
+  </si>
+  <si>
+    <t>生死救度</t>
+  </si>
+  <si>
+    <t>略说佛教各派互不相违</t>
+  </si>
+  <si>
+    <t>破除邪说论</t>
+  </si>
+  <si>
+    <t>红尘中的佛光</t>
+  </si>
+  <si>
+    <t>藏密素食观</t>
+  </si>
+  <si>
+    <t>藏密问答录</t>
+  </si>
+  <si>
+    <t>顺治皇帝出家偈浅释</t>
+  </si>
+  <si>
+    <t>预言</t>
+  </si>
+  <si>
+    <t>三主要道论简释</t>
+  </si>
+  <si>
+    <t>亲友书略释</t>
+  </si>
+  <si>
+    <t>亲友书讲解</t>
+  </si>
+  <si>
+    <t>佛子行讲解</t>
+  </si>
+  <si>
+    <t>入菩萨行论广释</t>
+  </si>
+  <si>
+    <t>入菩萨行论略释</t>
+  </si>
+  <si>
+    <t>入菩萨行论讲解</t>
+  </si>
+  <si>
+    <t>六祖坛经讲解</t>
+  </si>
+  <si>
+    <t>净土教言讲解</t>
+  </si>
+  <si>
+    <t>前世今生论</t>
+  </si>
+  <si>
+    <t>十六罗汉礼供文讲解</t>
+  </si>
+  <si>
+    <t>十大誓愿</t>
+  </si>
+  <si>
     <t>厌世歌•杜鹃妙音讲解</t>
   </si>
   <si>
-    <t>师徒欢喜之歌•无改心之自相</t>
-  </si>
-  <si>
-    <t>法王晋美彭措传</t>
-  </si>
-  <si>
-    <t>瑜伽欢乐道歌•吉祥如意悦音</t>
-  </si>
-  <si>
-    <t>祈祷上师•加持日光</t>
-  </si>
-  <si>
-    <t>窍诀宝藏海</t>
-  </si>
-  <si>
-    <t>胜利道歌</t>
-  </si>
-  <si>
-    <t>莲师多吉卓罗修法</t>
-  </si>
-  <si>
-    <t>莲师略传</t>
-  </si>
-  <si>
-    <t>菩萨戒略轨</t>
-  </si>
-  <si>
-    <t>远唤上师•悉地藏流</t>
+    <t>大乘二十颂略释</t>
+  </si>
+  <si>
+    <t>大乘宝性论释•善说日光</t>
+  </si>
+  <si>
+    <t>大乘斋戒功德</t>
+  </si>
+  <si>
+    <t>大乘经庄严论密意疏</t>
+  </si>
+  <si>
+    <t>大圆满前行讲解</t>
+  </si>
+  <si>
+    <t>大圆满心性休息讲解</t>
+  </si>
+  <si>
+    <t>定解宝灯论浅释</t>
+  </si>
+  <si>
+    <t>定解宝灯论释</t>
+  </si>
+  <si>
+    <t>开启修心门扉讲解</t>
+  </si>
+  <si>
+    <t>往生窍诀</t>
+  </si>
+  <si>
+    <t>快乐之歌讲解</t>
+  </si>
+  <si>
+    <t>怀业祈祷文讲解</t>
+  </si>
+  <si>
+    <t>智慧品释•澄清宝珠论</t>
+  </si>
+  <si>
+    <t>极乐愿文大疏</t>
+  </si>
+  <si>
+    <t>格言宝藏论释</t>
+  </si>
+  <si>
+    <t>烟酒杀生过患</t>
+  </si>
+  <si>
+    <t>缘起赞讲解</t>
+  </si>
+  <si>
+    <t>胜出天神赞讲解</t>
+  </si>
+  <si>
+    <t>胜利道歌浅释</t>
+  </si>
+  <si>
+    <t>胜利道歌讲解</t>
+  </si>
+  <si>
+    <t>自我教言略释</t>
+  </si>
+  <si>
+    <t>菩提道次第摄颂浅释</t>
+  </si>
+  <si>
+    <t>菩萨宝鬘论略记</t>
+  </si>
+  <si>
+    <t>藏传净土法讲解</t>
+  </si>
+  <si>
+    <t>费闲歌讲解</t>
+  </si>
+  <si>
+    <t>辞师之言</t>
   </si>
   <si>
     <t>远唤上师•悉地藏流简释</t>
-  </si>
-  <si>
-    <t>现观庄严论</t>
-  </si>
-  <si>
-    <t>现观庄严论总义</t>
-  </si>
-  <si>
-    <t>现观庄严论总义讲解</t>
-  </si>
-  <si>
-    <t>现观庄严论注疏</t>
-  </si>
-  <si>
-    <t>现观庄严论略义</t>
-  </si>
-  <si>
-    <t>现观庄严论略义讲解</t>
-  </si>
-  <si>
-    <t>现观庄严论疏</t>
-  </si>
-  <si>
-    <t>现观庄严论讲解</t>
-  </si>
-  <si>
-    <t>01 美国 微软谷歌波音-佛教哲学与现代企业管理</t>
-  </si>
-  <si>
-    <t>02 美国 帕萨迪纳苏格兰仪式中心-通往净土的阶梯</t>
-  </si>
-  <si>
-    <t>03 青海红十字医院-佛学思想与人文关怀</t>
-  </si>
-  <si>
-    <t>04 北京雨枫书馆-从佛学角度看纸媒的未来</t>
-  </si>
-  <si>
-    <t>05 北京雨枫书馆-无“明”的时代，佛法为什么是究竟的真理</t>
-  </si>
-  <si>
-    <t>06 德国 爱尔朗根-现代文明里迷失的精神生活</t>
-  </si>
-  <si>
-    <t>07 广东华阳国际设计集团-心怀感恩 面对世界</t>
-  </si>
-  <si>
-    <t>08 北京世界图书出版公司-佛学与个人成长</t>
-  </si>
-  <si>
-    <t>09 清华卓越领导学堂-觉悟的智慧 灵魂的洗涤</t>
-  </si>
-  <si>
-    <t>10 重庆企业-善与事业</t>
-  </si>
-  <si>
-    <t>11 北京启明星辰-佛学在现代商业中的意义</t>
-  </si>
-  <si>
-    <t>12 北京搜狐-互联网时代的佛学传播</t>
-  </si>
-  <si>
-    <t>13 杭州淘宝大学-佛法与人生</t>
-  </si>
-  <si>
-    <t>14 英国 伦敦三昧宗-三十五佛忏悔文</t>
-  </si>
-  <si>
-    <t>15 杭州阿里集团-借假修真 自利利他</t>
-  </si>
-  <si>
-    <t>16 中国人大重庆校友会-六和精神与企业文化</t>
-  </si>
-  <si>
-    <t>17 英国 伦敦公开演讲-莫舍己道 勿扰他心</t>
-  </si>
-  <si>
-    <t>18 广州粤秀书院-科学精神与佛学智慧</t>
-  </si>
-  <si>
-    <t>19 青岛慈善论坛-因爱结缘 向善而行</t>
-  </si>
-  <si>
-    <t>20 南非 约翰内斯堡禅修中心-四法印</t>
-  </si>
-  <si>
-    <t>21 南非 开普敦三昧宗-菩提心——觉醒的心</t>
-  </si>
-  <si>
-    <t>22 南非 开普敦禅修中心-佛教的皈依及其功德</t>
-  </si>
-  <si>
-    <t>23 莱索托 ACC阿弥陀佛关怀中心-爱的传递</t>
-  </si>
-  <si>
-    <t>24 莱索托 ACC阿弥陀佛关怀中心-锻炼强壮心灵的重要性</t>
-  </si>
-  <si>
-    <t>25 纳米比亚 ACC阿弥陀佛关怀中心-改变自他命运的方法</t>
-  </si>
-  <si>
-    <t>26 意大利 都灵公开演讲-美丽人生</t>
-  </si>
-  <si>
-    <t>27 荷兰 鹿特丹公开演讲-慈悲与智慧</t>
-  </si>
-  <si>
-    <t>28 北京雨枫书馆-走向自己——佛法治愈心灵创伤</t>
-  </si>
-  <si>
-    <t>29 法国 格勒诺布尔CFCF中法企业交流协会-宗教和谐与世界和平</t>
-  </si>
-  <si>
-    <t>31 法国 格勒诺布尔公开演讲-寻找生命的皈依处</t>
-  </si>
-  <si>
-    <t>32 法国 巴黎公开演讲-东方智慧与西方生活</t>
-  </si>
-  <si>
-    <t>33 奥地利 维也纳公开演讲-什么是最大的财富</t>
-  </si>
-  <si>
-    <t>34 日本 东京座谈-佛教如何帮助日本社会</t>
-  </si>
-  <si>
-    <t>35 日本 东京公开演讲-如何平衡自利他利</t>
-  </si>
-  <si>
-    <t>36 日本 东京池袋公开演讲-闻思修与发心的重要性</t>
-  </si>
-  <si>
-    <t>37 新加坡 公开演讲-人生岂止赢与输</t>
-  </si>
-  <si>
-    <t>38 泰国 生命电视台-与时俱进的慈悲</t>
-  </si>
-  <si>
-    <t>39 青岛慈善论坛-企业家的最高境界是什么？</t>
-  </si>
-  <si>
-    <t>40 香港度母法会-度母法门的功德</t>
-  </si>
-  <si>
-    <t>41 北京第三届全球社会企业家生态论坛-心灵的诺亚方舟</t>
-  </si>
-  <si>
-    <t>42 深圳V千年会-商者“义利合一”之道</t>
-  </si>
-  <si>
-    <t>43 香港度母法会-离四贪教言</t>
-  </si>
-  <si>
-    <t>44 甘孜州人民医院-健康人生</t>
-  </si>
-  <si>
-    <t>45 日本 东京观音法会-和平祈愿</t>
-  </si>
-  <si>
-    <t>46 美国 纽约BSA公开演讲-系统闻思修的重要性</t>
-  </si>
-  <si>
-    <t>47 挪威 奥斯陆公开演讲-现代生活中的科学和灵修</t>
-  </si>
-  <si>
-    <t>三主要道论</t>
-  </si>
-  <si>
-    <t>二十一度母赞</t>
-  </si>
-  <si>
-    <t>亲友书</t>
-  </si>
-  <si>
-    <t>佛为娑伽罗龙王所说大乘经</t>
-  </si>
-  <si>
-    <t>佛子行</t>
-  </si>
-  <si>
-    <t>佛说善生经</t>
-  </si>
-  <si>
-    <t>佛说圣大乘三归依经</t>
-  </si>
-  <si>
-    <t>佛说无量寿经</t>
-  </si>
-  <si>
-    <t>佛说观无量寿佛经</t>
-  </si>
-  <si>
-    <t>佛说阿弥陀经</t>
-  </si>
-  <si>
-    <t>修行教言</t>
-  </si>
-  <si>
-    <t>入菩萨行论</t>
-  </si>
-  <si>
-    <t>六祖坛经</t>
-  </si>
-  <si>
-    <t>净土教言——开启信心之佛教明日</t>
-  </si>
-  <si>
-    <t>吉祥经</t>
-  </si>
-  <si>
-    <t>圣大乘临终智慧经</t>
-  </si>
-  <si>
-    <t>圣大乘金子经</t>
-  </si>
-  <si>
-    <t>圣大解脱经</t>
-  </si>
-  <si>
-    <t>大势至菩萨念佛圆通章</t>
-  </si>
-  <si>
-    <t>大圆满前行引导文</t>
-  </si>
-  <si>
-    <t>大圆满心性休息颂（显宗部分）</t>
-  </si>
-  <si>
-    <t>妙法莲华经</t>
-  </si>
-  <si>
-    <t>定解宝灯论</t>
-  </si>
-  <si>
-    <t>开启修心门扉</t>
-  </si>
-  <si>
-    <t>快乐之歌</t>
-  </si>
-  <si>
-    <t>摩邓女经</t>
-  </si>
-  <si>
-    <t>普贤行愿品</t>
-  </si>
-  <si>
-    <t>楞严经</t>
-  </si>
-  <si>
-    <t>父母经</t>
-  </si>
-  <si>
-    <t>维摩诘所说经</t>
-  </si>
-  <si>
-    <t>缘起赞</t>
-  </si>
-  <si>
-    <t>胜出天神赞</t>
-  </si>
-  <si>
-    <t>药师琉璃光七佛本愿功德经</t>
-  </si>
-  <si>
-    <t>菩提道次第摄颂</t>
-  </si>
-  <si>
-    <t>菩提道灯论</t>
-  </si>
-  <si>
-    <t>菩萨宝鬘论</t>
-  </si>
-  <si>
-    <t>萨迦格言</t>
-  </si>
-  <si>
-    <t>金刚功德经</t>
-  </si>
-  <si>
-    <t>金刚经</t>
-  </si>
-  <si>
-    <t>仅有借鉴与研究是不够的</t>
-  </si>
-  <si>
-    <t>佛教科学论</t>
-  </si>
-  <si>
-    <t>修学的旅途</t>
-  </si>
-  <si>
-    <t>化灾难为奇迹</t>
-  </si>
-  <si>
-    <t>博士访谈录</t>
-  </si>
-  <si>
-    <t>密宗断惑论</t>
-  </si>
-  <si>
-    <t>小甘露丸</t>
-  </si>
-  <si>
-    <t>悲惨世界</t>
-  </si>
-  <si>
-    <t>持戒功德如意宝树</t>
-  </si>
-  <si>
-    <t>放生功德文</t>
-  </si>
-  <si>
-    <t>泰国游记</t>
-  </si>
-  <si>
-    <t>生死救度</t>
-  </si>
-  <si>
-    <t>略说佛教各派互不相违</t>
-  </si>
-  <si>
-    <t>破除邪说论</t>
-  </si>
-  <si>
-    <t>红尘中的佛光</t>
-  </si>
-  <si>
-    <t>藏密素食观</t>
-  </si>
-  <si>
-    <t>藏密问答录</t>
-  </si>
-  <si>
-    <t>顺治皇帝出家偈浅释</t>
-  </si>
-  <si>
-    <t>预言</t>
-  </si>
-  <si>
-    <t>三主要道论简释</t>
-  </si>
-  <si>
-    <t>亲友书略释</t>
-  </si>
-  <si>
-    <t>亲友书讲解</t>
-  </si>
-  <si>
-    <t>佛子行讲解</t>
-  </si>
-  <si>
-    <t>入菩萨行论广释</t>
-  </si>
-  <si>
-    <t>入菩萨行论略释</t>
-  </si>
-  <si>
-    <t>入菩萨行论讲解</t>
-  </si>
-  <si>
-    <t>六祖坛经讲解</t>
-  </si>
-  <si>
-    <t>净土教言讲解</t>
-  </si>
-  <si>
-    <t>前世今生论</t>
-  </si>
-  <si>
-    <t>十六罗汉礼供文讲解</t>
-  </si>
-  <si>
-    <t>十大誓愿</t>
-  </si>
-  <si>
-    <t>大乘二十颂略释</t>
-  </si>
-  <si>
-    <t>大乘宝性论释•善说日光</t>
-  </si>
-  <si>
-    <t>大乘斋戒功德</t>
-  </si>
-  <si>
-    <t>大乘经庄严论密意疏</t>
-  </si>
-  <si>
-    <t>大圆满前行讲解</t>
-  </si>
-  <si>
-    <t>大圆满心性休息讲解</t>
-  </si>
-  <si>
-    <t>定解宝灯论浅释</t>
-  </si>
-  <si>
-    <t>定解宝灯论释</t>
-  </si>
-  <si>
-    <t>开启修心门扉讲解</t>
-  </si>
-  <si>
-    <t>往生窍诀</t>
-  </si>
-  <si>
-    <t>快乐之歌讲解</t>
-  </si>
-  <si>
-    <t>怀业祈祷文讲解</t>
-  </si>
-  <si>
-    <t>智慧品释•澄清宝珠论</t>
-  </si>
-  <si>
-    <t>极乐愿文大疏</t>
-  </si>
-  <si>
-    <t>格言宝藏论释</t>
-  </si>
-  <si>
-    <t>烟酒杀生过患</t>
-  </si>
-  <si>
-    <t>缘起赞讲解</t>
-  </si>
-  <si>
-    <t>胜出天神赞讲解</t>
-  </si>
-  <si>
-    <t>胜利道歌浅释</t>
-  </si>
-  <si>
-    <t>胜利道歌讲解</t>
-  </si>
-  <si>
-    <t>自我教言略释</t>
-  </si>
-  <si>
-    <t>菩提道次第摄颂浅释</t>
-  </si>
-  <si>
-    <t>菩萨宝鬘论略记</t>
-  </si>
-  <si>
-    <t>藏传净土法讲解</t>
-  </si>
-  <si>
-    <t>费闲歌讲解</t>
-  </si>
-  <si>
-    <t>辞师之言</t>
   </si>
   <si>
     <t>醒世歌讲解</t>
@@ -6716,9 +6716,6 @@
       <c r="C226" t="s">
         <v>640</v>
       </c>
-      <c r="E226" t="s">
-        <v>640</v>
-      </c>
     </row>
     <row r="227" spans="1:9">
       <c r="A227" s="1" t="s">
@@ -6730,6 +6727,15 @@
       <c r="C227" t="s">
         <v>641</v>
       </c>
+      <c r="E227" t="s">
+        <v>641</v>
+      </c>
+      <c r="G227" t="s">
+        <v>882</v>
+      </c>
+      <c r="I227" t="s">
+        <v>966</v>
+      </c>
     </row>
     <row r="228" spans="1:9">
       <c r="A228" s="1" t="s">
@@ -6741,15 +6747,6 @@
       <c r="C228" t="s">
         <v>642</v>
       </c>
-      <c r="E228" t="s">
-        <v>642</v>
-      </c>
-      <c r="G228" t="s">
-        <v>882</v>
-      </c>
-      <c r="I228" t="s">
-        <v>966</v>
-      </c>
     </row>
     <row r="229" spans="1:9">
       <c r="A229" s="1" t="s">
@@ -6772,6 +6769,12 @@
       <c r="C230" t="s">
         <v>644</v>
       </c>
+      <c r="E230" t="s">
+        <v>644</v>
+      </c>
+      <c r="G230" t="s">
+        <v>883</v>
+      </c>
     </row>
     <row r="231" spans="1:9">
       <c r="A231" s="1" t="s">
@@ -6783,12 +6786,6 @@
       <c r="C231" t="s">
         <v>645</v>
       </c>
-      <c r="E231" t="s">
-        <v>645</v>
-      </c>
-      <c r="G231" t="s">
-        <v>883</v>
-      </c>
     </row>
     <row r="232" spans="1:9">
       <c r="A232" s="1" t="s">
@@ -6839,7 +6836,7 @@
         <v>245</v>
       </c>
       <c r="B236" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C236" t="s">
         <v>650</v>
@@ -6850,7 +6847,7 @@
         <v>246</v>
       </c>
       <c r="B237" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C237" t="s">
         <v>651</v>
@@ -6866,6 +6863,15 @@
       <c r="C238" t="s">
         <v>652</v>
       </c>
+      <c r="E238" t="s">
+        <v>652</v>
+      </c>
+      <c r="G238" t="s">
+        <v>884</v>
+      </c>
+      <c r="I238" t="s">
+        <v>960</v>
+      </c>
     </row>
     <row r="239" spans="1:9">
       <c r="A239" s="1" t="s">
@@ -6877,6 +6883,9 @@
       <c r="C239" t="s">
         <v>653</v>
       </c>
+      <c r="E239" t="s">
+        <v>653</v>
+      </c>
     </row>
     <row r="240" spans="1:9">
       <c r="A240" s="1" t="s">
@@ -6888,15 +6897,6 @@
       <c r="C240" t="s">
         <v>654</v>
       </c>
-      <c r="E240" t="s">
-        <v>654</v>
-      </c>
-      <c r="G240" t="s">
-        <v>884</v>
-      </c>
-      <c r="I240" t="s">
-        <v>960</v>
-      </c>
     </row>
     <row r="241" spans="1:9">
       <c r="A241" s="1" t="s">
@@ -6911,6 +6911,12 @@
       <c r="E241" t="s">
         <v>655</v>
       </c>
+      <c r="G241" t="s">
+        <v>885</v>
+      </c>
+      <c r="I241" t="s">
+        <v>960</v>
+      </c>
     </row>
     <row r="242" spans="1:9">
       <c r="A242" s="1" t="s">
@@ -6922,6 +6928,15 @@
       <c r="C242" t="s">
         <v>656</v>
       </c>
+      <c r="E242" t="s">
+        <v>656</v>
+      </c>
+      <c r="G242" t="s">
+        <v>886</v>
+      </c>
+      <c r="I242" t="s">
+        <v>955</v>
+      </c>
     </row>
     <row r="243" spans="1:9">
       <c r="A243" s="1" t="s">
@@ -6936,31 +6951,19 @@
       <c r="E243" t="s">
         <v>657</v>
       </c>
-      <c r="G243" t="s">
-        <v>885</v>
-      </c>
-      <c r="I243" t="s">
-        <v>960</v>
-      </c>
     </row>
     <row r="244" spans="1:9">
       <c r="A244" s="1" t="s">
         <v>253</v>
       </c>
       <c r="B244" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C244" t="s">
         <v>658</v>
       </c>
       <c r="E244" t="s">
         <v>658</v>
-      </c>
-      <c r="G244" t="s">
-        <v>886</v>
-      </c>
-      <c r="I244" t="s">
-        <v>955</v>
       </c>
     </row>
     <row r="245" spans="1:9">
@@ -6968,7 +6971,7 @@
         <v>254</v>
       </c>
       <c r="B245" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C245" t="s">
         <v>659</v>
@@ -7281,9 +7284,6 @@
       <c r="C267" t="s">
         <v>681</v>
       </c>
-      <c r="E267" t="s">
-        <v>681</v>
-      </c>
     </row>
     <row r="268" spans="1:5">
       <c r="A268" s="1" t="s">
@@ -7309,6 +7309,9 @@
       <c r="C269" t="s">
         <v>683</v>
       </c>
+      <c r="E269" t="s">
+        <v>683</v>
+      </c>
     </row>
     <row r="270" spans="1:5">
       <c r="A270" s="1" t="s">
@@ -7488,9 +7491,6 @@
       <c r="C282" t="s">
         <v>696</v>
       </c>
-      <c r="E282" t="s">
-        <v>696</v>
-      </c>
     </row>
     <row r="283" spans="1:5">
       <c r="A283" s="1" t="s">
@@ -7516,6 +7516,9 @@
       <c r="C284" t="s">
         <v>698</v>
       </c>
+      <c r="E284" t="s">
+        <v>698</v>
+      </c>
     </row>
     <row r="285" spans="1:5">
       <c r="A285" s="1" t="s">
@@ -7527,9 +7530,6 @@
       <c r="C285" t="s">
         <v>699</v>
       </c>
-      <c r="E285" t="s">
-        <v>699</v>
-      </c>
     </row>
     <row r="286" spans="1:5">
       <c r="A286" s="1" t="s">
@@ -7566,9 +7566,6 @@
       <c r="C288" t="s">
         <v>702</v>
       </c>
-      <c r="E288" t="s">
-        <v>702</v>
-      </c>
     </row>
     <row r="289" spans="1:9">
       <c r="A289" s="1" t="s">
@@ -7580,16 +7577,22 @@
       <c r="C289" t="s">
         <v>703</v>
       </c>
+      <c r="E289" t="s">
+        <v>703</v>
+      </c>
     </row>
     <row r="290" spans="1:9">
       <c r="A290" s="1" t="s">
         <v>299</v>
       </c>
       <c r="B290" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C290" t="s">
         <v>704</v>
+      </c>
+      <c r="H290" t="s">
+        <v>929</v>
       </c>
     </row>
     <row r="291" spans="1:9">
@@ -7597,12 +7600,9 @@
         <v>300</v>
       </c>
       <c r="B291" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C291" t="s">
-        <v>705</v>
-      </c>
-      <c r="E291" t="s">
         <v>705</v>
       </c>
     </row>
@@ -7617,7 +7617,7 @@
         <v>706</v>
       </c>
       <c r="H292" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
     </row>
     <row r="293" spans="1:9">
@@ -7630,6 +7630,9 @@
       <c r="C293" t="s">
         <v>707</v>
       </c>
+      <c r="I293" t="s">
+        <v>953</v>
+      </c>
     </row>
     <row r="294" spans="1:9">
       <c r="A294" s="1" t="s">
@@ -7642,7 +7645,7 @@
         <v>708</v>
       </c>
       <c r="H294" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
     </row>
     <row r="295" spans="1:9">
@@ -7655,9 +7658,6 @@
       <c r="C295" t="s">
         <v>709</v>
       </c>
-      <c r="I295" t="s">
-        <v>953</v>
-      </c>
     </row>
     <row r="296" spans="1:9">
       <c r="A296" s="1" t="s">
@@ -7670,7 +7670,7 @@
         <v>710</v>
       </c>
       <c r="H296" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
     </row>
     <row r="297" spans="1:9">
@@ -7694,9 +7694,6 @@
       <c r="C298" t="s">
         <v>712</v>
       </c>
-      <c r="H298" t="s">
-        <v>932</v>
-      </c>
     </row>
     <row r="299" spans="1:9">
       <c r="A299" s="1" t="s">
@@ -7719,6 +7716,9 @@
       <c r="C300" t="s">
         <v>714</v>
       </c>
+      <c r="H300" t="s">
+        <v>933</v>
+      </c>
     </row>
     <row r="301" spans="1:9">
       <c r="A301" s="1" t="s">
@@ -7730,6 +7730,12 @@
       <c r="C301" t="s">
         <v>715</v>
       </c>
+      <c r="G301" t="s">
+        <v>887</v>
+      </c>
+      <c r="H301" t="s">
+        <v>934</v>
+      </c>
     </row>
     <row r="302" spans="1:9">
       <c r="A302" s="1" t="s">
@@ -7741,9 +7747,6 @@
       <c r="C302" t="s">
         <v>716</v>
       </c>
-      <c r="H302" t="s">
-        <v>933</v>
-      </c>
     </row>
     <row r="303" spans="1:9">
       <c r="A303" s="1" t="s">
@@ -7755,11 +7758,8 @@
       <c r="C303" t="s">
         <v>717</v>
       </c>
-      <c r="G303" t="s">
-        <v>887</v>
-      </c>
       <c r="H303" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
     </row>
     <row r="304" spans="1:9">
@@ -7784,7 +7784,7 @@
         <v>719</v>
       </c>
       <c r="H305" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
     </row>
     <row r="306" spans="1:9">
@@ -7797,6 +7797,9 @@
       <c r="C306" t="s">
         <v>720</v>
       </c>
+      <c r="H306" t="s">
+        <v>936</v>
+      </c>
     </row>
     <row r="307" spans="1:9">
       <c r="A307" s="1" t="s">
@@ -7808,9 +7811,6 @@
       <c r="C307" t="s">
         <v>721</v>
       </c>
-      <c r="H307" t="s">
-        <v>936</v>
-      </c>
     </row>
     <row r="308" spans="1:9">
       <c r="A308" s="1" t="s">
@@ -7822,9 +7822,6 @@
       <c r="C308" t="s">
         <v>722</v>
       </c>
-      <c r="H308" t="s">
-        <v>936</v>
-      </c>
     </row>
     <row r="309" spans="1:9">
       <c r="A309" s="1" t="s">
@@ -7847,6 +7844,12 @@
       <c r="C310" t="s">
         <v>724</v>
       </c>
+      <c r="G310" t="s">
+        <v>888</v>
+      </c>
+      <c r="I310" t="s">
+        <v>955</v>
+      </c>
     </row>
     <row r="311" spans="1:9">
       <c r="A311" s="1" t="s">
@@ -7858,6 +7861,9 @@
       <c r="C311" t="s">
         <v>725</v>
       </c>
+      <c r="E311" t="s">
+        <v>811</v>
+      </c>
     </row>
     <row r="312" spans="1:9">
       <c r="A312" s="1" t="s">
@@ -7869,12 +7875,6 @@
       <c r="C312" t="s">
         <v>726</v>
       </c>
-      <c r="G312" t="s">
-        <v>888</v>
-      </c>
-      <c r="I312" t="s">
-        <v>955</v>
-      </c>
     </row>
     <row r="313" spans="1:9">
       <c r="A313" s="1" t="s">
@@ -7887,7 +7887,13 @@
         <v>727</v>
       </c>
       <c r="E313" t="s">
-        <v>811</v>
+        <v>727</v>
+      </c>
+      <c r="G313" t="s">
+        <v>889</v>
+      </c>
+      <c r="I313" t="s">
+        <v>967</v>
       </c>
     </row>
     <row r="314" spans="1:9">
@@ -7900,6 +7906,9 @@
       <c r="C314" t="s">
         <v>728</v>
       </c>
+      <c r="G314" t="s">
+        <v>890</v>
+      </c>
     </row>
     <row r="315" spans="1:9">
       <c r="A315" s="1" t="s">
@@ -7911,15 +7920,6 @@
       <c r="C315" t="s">
         <v>729</v>
       </c>
-      <c r="E315" t="s">
-        <v>729</v>
-      </c>
-      <c r="G315" t="s">
-        <v>889</v>
-      </c>
-      <c r="I315" t="s">
-        <v>967</v>
-      </c>
     </row>
     <row r="316" spans="1:9">
       <c r="A316" s="1" t="s">
@@ -7931,9 +7931,6 @@
       <c r="C316" t="s">
         <v>730</v>
       </c>
-      <c r="G316" t="s">
-        <v>890</v>
-      </c>
     </row>
     <row r="317" spans="1:9">
       <c r="A317" s="1" t="s">
@@ -7945,6 +7942,9 @@
       <c r="C317" t="s">
         <v>731</v>
       </c>
+      <c r="E317" t="s">
+        <v>731</v>
+      </c>
     </row>
     <row r="318" spans="1:9">
       <c r="A318" s="1" t="s">
@@ -7956,6 +7956,9 @@
       <c r="C318" t="s">
         <v>732</v>
       </c>
+      <c r="H318" t="s">
+        <v>936</v>
+      </c>
     </row>
     <row r="319" spans="1:9">
       <c r="A319" s="1" t="s">
@@ -7967,9 +7970,6 @@
       <c r="C319" t="s">
         <v>733</v>
       </c>
-      <c r="E319" t="s">
-        <v>733</v>
-      </c>
     </row>
     <row r="320" spans="1:9">
       <c r="A320" s="1" t="s">
@@ -7981,9 +7981,6 @@
       <c r="C320" t="s">
         <v>734</v>
       </c>
-      <c r="H320" t="s">
-        <v>936</v>
-      </c>
     </row>
     <row r="321" spans="1:9">
       <c r="A321" s="1" t="s">
@@ -8006,6 +8003,9 @@
       <c r="C322" t="s">
         <v>736</v>
       </c>
+      <c r="E322" t="s">
+        <v>812</v>
+      </c>
     </row>
     <row r="323" spans="1:9">
       <c r="A323" s="1" t="s">
@@ -8028,9 +8028,6 @@
       <c r="C324" t="s">
         <v>738</v>
       </c>
-      <c r="E324" t="s">
-        <v>812</v>
-      </c>
     </row>
     <row r="325" spans="1:9">
       <c r="A325" s="1" t="s">
@@ -8042,6 +8039,9 @@
       <c r="C325" t="s">
         <v>739</v>
       </c>
+      <c r="I325" t="s">
+        <v>955</v>
+      </c>
     </row>
     <row r="326" spans="1:9">
       <c r="A326" s="1" t="s">
@@ -8053,6 +8053,9 @@
       <c r="C326" t="s">
         <v>740</v>
       </c>
+      <c r="E326" t="s">
+        <v>740</v>
+      </c>
     </row>
     <row r="327" spans="1:9">
       <c r="A327" s="1" t="s">
@@ -8065,7 +8068,7 @@
         <v>741</v>
       </c>
       <c r="I327" t="s">
-        <v>955</v>
+        <v>966</v>
       </c>
     </row>
     <row r="328" spans="1:9">
@@ -8078,22 +8081,25 @@
       <c r="C328" t="s">
         <v>742</v>
       </c>
-      <c r="E328" t="s">
-        <v>742</v>
-      </c>
     </row>
     <row r="329" spans="1:9">
       <c r="A329" s="1" t="s">
         <v>338</v>
       </c>
       <c r="B329" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C329" t="s">
         <v>743</v>
       </c>
+      <c r="E329" t="s">
+        <v>743</v>
+      </c>
+      <c r="G329" t="s">
+        <v>891</v>
+      </c>
       <c r="I329" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
     </row>
     <row r="330" spans="1:9">
@@ -8101,10 +8107,19 @@
         <v>339</v>
       </c>
       <c r="B330" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C330" t="s">
         <v>744</v>
+      </c>
+      <c r="E330" t="s">
+        <v>744</v>
+      </c>
+      <c r="G330" t="s">
+        <v>892</v>
+      </c>
+      <c r="I330" t="s">
+        <v>966</v>
       </c>
     </row>
     <row r="331" spans="1:9">
@@ -8117,15 +8132,6 @@
       <c r="C331" t="s">
         <v>745</v>
       </c>
-      <c r="E331" t="s">
-        <v>745</v>
-      </c>
-      <c r="G331" t="s">
-        <v>891</v>
-      </c>
-      <c r="I331" t="s">
-        <v>968</v>
-      </c>
     </row>
     <row r="332" spans="1:9">
       <c r="A332" s="1" t="s">
@@ -8137,15 +8143,6 @@
       <c r="C332" t="s">
         <v>746</v>
       </c>
-      <c r="E332" t="s">
-        <v>746</v>
-      </c>
-      <c r="G332" t="s">
-        <v>892</v>
-      </c>
-      <c r="I332" t="s">
-        <v>966</v>
-      </c>
     </row>
     <row r="333" spans="1:9">
       <c r="A333" s="1" t="s">
@@ -8157,6 +8154,15 @@
       <c r="C333" t="s">
         <v>747</v>
       </c>
+      <c r="E333" t="s">
+        <v>747</v>
+      </c>
+      <c r="G333" t="s">
+        <v>893</v>
+      </c>
+      <c r="I333" t="s">
+        <v>954</v>
+      </c>
     </row>
     <row r="334" spans="1:9">
       <c r="A334" s="1" t="s">
@@ -8168,6 +8174,15 @@
       <c r="C334" t="s">
         <v>748</v>
       </c>
+      <c r="E334" t="s">
+        <v>748</v>
+      </c>
+      <c r="G334" t="s">
+        <v>894</v>
+      </c>
+      <c r="I334" t="s">
+        <v>952</v>
+      </c>
     </row>
     <row r="335" spans="1:9">
       <c r="A335" s="1" t="s">
@@ -8179,15 +8194,6 @@
       <c r="C335" t="s">
         <v>749</v>
       </c>
-      <c r="E335" t="s">
-        <v>749</v>
-      </c>
-      <c r="G335" t="s">
-        <v>893</v>
-      </c>
-      <c r="I335" t="s">
-        <v>954</v>
-      </c>
     </row>
     <row r="336" spans="1:9">
       <c r="A336" s="1" t="s">
@@ -8203,7 +8209,7 @@
         <v>750</v>
       </c>
       <c r="G336" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="I336" t="s">
         <v>952</v>
@@ -8219,6 +8225,12 @@
       <c r="C337" t="s">
         <v>751</v>
       </c>
+      <c r="G337" t="s">
+        <v>896</v>
+      </c>
+      <c r="I337" t="s">
+        <v>952</v>
+      </c>
     </row>
     <row r="338" spans="1:9">
       <c r="A338" s="1" t="s">
@@ -8234,10 +8246,10 @@
         <v>752</v>
       </c>
       <c r="G338" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="I338" t="s">
-        <v>952</v>
+        <v>969</v>
       </c>
     </row>
     <row r="339" spans="1:9">
@@ -8250,11 +8262,8 @@
       <c r="C339" t="s">
         <v>753</v>
       </c>
-      <c r="G339" t="s">
-        <v>896</v>
-      </c>
-      <c r="I339" t="s">
-        <v>952</v>
+      <c r="E339" t="s">
+        <v>753</v>
       </c>
     </row>
     <row r="340" spans="1:9">
@@ -8270,12 +8279,6 @@
       <c r="E340" t="s">
         <v>754</v>
       </c>
-      <c r="G340" t="s">
-        <v>897</v>
-      </c>
-      <c r="I340" t="s">
-        <v>969</v>
-      </c>
     </row>
     <row r="341" spans="1:9">
       <c r="A341" s="1" t="s">
@@ -8287,8 +8290,11 @@
       <c r="C341" t="s">
         <v>755</v>
       </c>
-      <c r="E341" t="s">
-        <v>755</v>
+      <c r="G341" t="s">
+        <v>898</v>
+      </c>
+      <c r="I341" t="s">
+        <v>952</v>
       </c>
     </row>
     <row r="342" spans="1:9">
@@ -8301,8 +8307,11 @@
       <c r="C342" t="s">
         <v>756</v>
       </c>
-      <c r="E342" t="s">
-        <v>756</v>
+      <c r="G342" t="s">
+        <v>899</v>
+      </c>
+      <c r="I342" t="s">
+        <v>970</v>
       </c>
     </row>
     <row r="343" spans="1:9">
@@ -8315,11 +8324,14 @@
       <c r="C343" t="s">
         <v>757</v>
       </c>
+      <c r="E343" t="s">
+        <v>757</v>
+      </c>
       <c r="G343" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="I343" t="s">
-        <v>952</v>
+        <v>968</v>
       </c>
     </row>
     <row r="344" spans="1:9">
@@ -8333,10 +8345,10 @@
         <v>758</v>
       </c>
       <c r="G344" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="I344" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="345" spans="1:9">
@@ -8353,10 +8365,10 @@
         <v>759</v>
       </c>
       <c r="G345" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="I345" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
     </row>
     <row r="346" spans="1:9">
@@ -8370,10 +8382,10 @@
         <v>760</v>
       </c>
       <c r="G346" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="I346" t="s">
-        <v>968</v>
+        <v>954</v>
       </c>
     </row>
     <row r="347" spans="1:9">
@@ -8386,31 +8398,28 @@
       <c r="C347" t="s">
         <v>761</v>
       </c>
-      <c r="E347" t="s">
-        <v>761</v>
-      </c>
-      <c r="G347" t="s">
-        <v>902</v>
-      </c>
-      <c r="I347" t="s">
-        <v>970</v>
-      </c>
     </row>
     <row r="348" spans="1:9">
       <c r="A348" s="1" t="s">
         <v>357</v>
       </c>
       <c r="B348" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C348" t="s">
         <v>762</v>
       </c>
+      <c r="E348" t="s">
+        <v>762</v>
+      </c>
       <c r="G348" t="s">
-        <v>903</v>
+        <v>904</v>
+      </c>
+      <c r="H348" t="s">
+        <v>937</v>
       </c>
       <c r="I348" t="s">
-        <v>954</v>
+        <v>962</v>
       </c>
     </row>
     <row r="349" spans="1:9">
@@ -8418,10 +8427,16 @@
         <v>358</v>
       </c>
       <c r="B349" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C349" t="s">
         <v>763</v>
+      </c>
+      <c r="E349" t="s">
+        <v>763</v>
+      </c>
+      <c r="H349" t="s">
+        <v>938</v>
       </c>
     </row>
     <row r="350" spans="1:9">
@@ -8438,13 +8453,13 @@
         <v>764</v>
       </c>
       <c r="G350" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="H350" t="s">
-        <v>937</v>
+        <v>923</v>
       </c>
       <c r="I350" t="s">
-        <v>962</v>
+        <v>953</v>
       </c>
     </row>
     <row r="351" spans="1:9">
@@ -8460,8 +8475,14 @@
       <c r="E351" t="s">
         <v>765</v>
       </c>
+      <c r="G351" t="s">
+        <v>906</v>
+      </c>
       <c r="H351" t="s">
-        <v>938</v>
+        <v>939</v>
+      </c>
+      <c r="I351" t="s">
+        <v>950</v>
       </c>
     </row>
     <row r="352" spans="1:9">
@@ -8475,16 +8496,10 @@
         <v>766</v>
       </c>
       <c r="E352" t="s">
-        <v>766</v>
+        <v>813</v>
       </c>
       <c r="G352" t="s">
-        <v>905</v>
-      </c>
-      <c r="H352" t="s">
-        <v>923</v>
-      </c>
-      <c r="I352" t="s">
-        <v>953</v>
+        <v>907</v>
       </c>
     </row>
     <row r="353" spans="1:9">
@@ -8498,16 +8513,10 @@
         <v>767</v>
       </c>
       <c r="E353" t="s">
-        <v>767</v>
+        <v>814</v>
       </c>
       <c r="G353" t="s">
-        <v>906</v>
-      </c>
-      <c r="H353" t="s">
-        <v>939</v>
-      </c>
-      <c r="I353" t="s">
-        <v>950</v>
+        <v>908</v>
       </c>
     </row>
     <row r="354" spans="1:9">
@@ -8521,10 +8530,16 @@
         <v>768</v>
       </c>
       <c r="E354" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="G354" t="s">
-        <v>907</v>
+        <v>909</v>
+      </c>
+      <c r="H354" t="s">
+        <v>940</v>
+      </c>
+      <c r="I354" t="s">
+        <v>971</v>
       </c>
     </row>
     <row r="355" spans="1:9">
@@ -8538,10 +8553,13 @@
         <v>769</v>
       </c>
       <c r="E355" t="s">
-        <v>814</v>
-      </c>
-      <c r="G355" t="s">
-        <v>908</v>
+        <v>769</v>
+      </c>
+      <c r="H355" t="s">
+        <v>923</v>
+      </c>
+      <c r="I355" t="s">
+        <v>972</v>
       </c>
     </row>
     <row r="356" spans="1:9">
@@ -8555,16 +8573,16 @@
         <v>770</v>
       </c>
       <c r="E356" t="s">
-        <v>815</v>
+        <v>770</v>
       </c>
       <c r="G356" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="H356" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="I356" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
     </row>
     <row r="357" spans="1:9">
@@ -8580,11 +8598,14 @@
       <c r="E357" t="s">
         <v>771</v>
       </c>
+      <c r="G357" t="s">
+        <v>911</v>
+      </c>
       <c r="H357" t="s">
-        <v>923</v>
+        <v>942</v>
       </c>
       <c r="I357" t="s">
-        <v>972</v>
+        <v>955</v>
       </c>
     </row>
     <row r="358" spans="1:9">
@@ -8600,14 +8621,8 @@
       <c r="E358" t="s">
         <v>772</v>
       </c>
-      <c r="G358" t="s">
-        <v>910</v>
-      </c>
       <c r="H358" t="s">
-        <v>941</v>
-      </c>
-      <c r="I358" t="s">
-        <v>973</v>
+        <v>943</v>
       </c>
     </row>
     <row r="359" spans="1:9">
@@ -8620,17 +8635,8 @@
       <c r="C359" t="s">
         <v>773</v>
       </c>
-      <c r="E359" t="s">
-        <v>773</v>
-      </c>
-      <c r="G359" t="s">
-        <v>911</v>
-      </c>
       <c r="H359" t="s">
-        <v>942</v>
-      </c>
-      <c r="I359" t="s">
-        <v>955</v>
+        <v>936</v>
       </c>
     </row>
     <row r="360" spans="1:9">
@@ -8646,9 +8652,6 @@
       <c r="E360" t="s">
         <v>774</v>
       </c>
-      <c r="H360" t="s">
-        <v>943</v>
-      </c>
     </row>
     <row r="361" spans="1:9">
       <c r="A361" s="1" t="s">
@@ -8661,7 +8664,7 @@
         <v>775</v>
       </c>
       <c r="H361" t="s">
-        <v>936</v>
+        <v>944</v>
       </c>
     </row>
     <row r="362" spans="1:9">
@@ -8675,7 +8678,7 @@
         <v>776</v>
       </c>
       <c r="H362" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
     </row>
     <row r="363" spans="1:9">
@@ -8688,9 +8691,6 @@
       <c r="C363" t="s">
         <v>777</v>
       </c>
-      <c r="H363" t="s">
-        <v>945</v>
-      </c>
     </row>
     <row r="364" spans="1:9">
       <c r="A364" s="1" t="s">
@@ -8702,6 +8702,15 @@
       <c r="C364" t="s">
         <v>778</v>
       </c>
+      <c r="E364" t="s">
+        <v>778</v>
+      </c>
+      <c r="G364" t="s">
+        <v>912</v>
+      </c>
+      <c r="H364" t="s">
+        <v>946</v>
+      </c>
     </row>
     <row r="365" spans="1:9">
       <c r="A365" s="1" t="s">
@@ -8713,14 +8722,20 @@
       <c r="C365" t="s">
         <v>779</v>
       </c>
+      <c r="D365" t="s">
+        <v>803</v>
+      </c>
       <c r="E365" t="s">
-        <v>779</v>
+        <v>816</v>
       </c>
       <c r="G365" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="H365" t="s">
-        <v>946</v>
+        <v>947</v>
+      </c>
+      <c r="I365" t="s">
+        <v>974</v>
       </c>
     </row>
     <row r="366" spans="1:9">
@@ -8733,20 +8748,14 @@
       <c r="C366" t="s">
         <v>780</v>
       </c>
-      <c r="D366" t="s">
-        <v>803</v>
-      </c>
       <c r="E366" t="s">
-        <v>816</v>
+        <v>780</v>
       </c>
       <c r="G366" t="s">
-        <v>913</v>
-      </c>
-      <c r="H366" t="s">
-        <v>947</v>
+        <v>888</v>
       </c>
       <c r="I366" t="s">
-        <v>974</v>
+        <v>955</v>
       </c>
     </row>
     <row r="367" spans="1:9">
@@ -8763,10 +8772,10 @@
         <v>781</v>
       </c>
       <c r="G367" t="s">
-        <v>888</v>
+        <v>914</v>
       </c>
       <c r="I367" t="s">
-        <v>955</v>
+        <v>967</v>
       </c>
     </row>
     <row r="368" spans="1:9">
@@ -8782,11 +8791,8 @@
       <c r="E368" t="s">
         <v>782</v>
       </c>
-      <c r="G368" t="s">
-        <v>914</v>
-      </c>
       <c r="I368" t="s">
-        <v>967</v>
+        <v>949</v>
       </c>
     </row>
     <row r="369" spans="1:9">
@@ -8802,6 +8808,9 @@
       <c r="E369" t="s">
         <v>783</v>
       </c>
+      <c r="G369" t="s">
+        <v>889</v>
+      </c>
       <c r="I369" t="s">
         <v>949</v>
       </c>
@@ -8819,12 +8828,6 @@
       <c r="E370" t="s">
         <v>784</v>
       </c>
-      <c r="G370" t="s">
-        <v>889</v>
-      </c>
-      <c r="I370" t="s">
-        <v>949</v>
-      </c>
     </row>
     <row r="371" spans="1:9">
       <c r="A371" s="1" t="s">
@@ -8836,8 +8839,11 @@
       <c r="C371" t="s">
         <v>785</v>
       </c>
-      <c r="E371" t="s">
-        <v>785</v>
+      <c r="G371" t="s">
+        <v>915</v>
+      </c>
+      <c r="I371" t="s">
+        <v>950</v>
       </c>
     </row>
     <row r="372" spans="1:9">
@@ -8850,11 +8856,8 @@
       <c r="C372" t="s">
         <v>786</v>
       </c>
-      <c r="G372" t="s">
-        <v>915</v>
-      </c>
-      <c r="I372" t="s">
-        <v>950</v>
+      <c r="E372" t="s">
+        <v>786</v>
       </c>
     </row>
     <row r="373" spans="1:9">
@@ -8867,9 +8870,6 @@
       <c r="C373" t="s">
         <v>787</v>
       </c>
-      <c r="E373" t="s">
-        <v>787</v>
-      </c>
     </row>
     <row r="374" spans="1:9">
       <c r="A374" s="1" t="s">
@@ -8892,6 +8892,15 @@
       <c r="C375" t="s">
         <v>789</v>
       </c>
+      <c r="E375" t="s">
+        <v>789</v>
+      </c>
+      <c r="G375" t="s">
+        <v>916</v>
+      </c>
+      <c r="I375" t="s">
+        <v>949</v>
+      </c>
     </row>
     <row r="376" spans="1:9">
       <c r="A376" s="1" t="s">
@@ -8903,15 +8912,6 @@
       <c r="C376" t="s">
         <v>790</v>
       </c>
-      <c r="E376" t="s">
-        <v>790</v>
-      </c>
-      <c r="G376" t="s">
-        <v>916</v>
-      </c>
-      <c r="I376" t="s">
-        <v>949</v>
-      </c>
     </row>
     <row r="377" spans="1:9">
       <c r="A377" s="1" t="s">
@@ -8923,6 +8923,12 @@
       <c r="C377" t="s">
         <v>791</v>
       </c>
+      <c r="E377" t="s">
+        <v>791</v>
+      </c>
+      <c r="I377" t="s">
+        <v>955</v>
+      </c>
     </row>
     <row r="378" spans="1:9">
       <c r="A378" s="1" t="s">
@@ -8937,9 +8943,6 @@
       <c r="E378" t="s">
         <v>792</v>
       </c>
-      <c r="I378" t="s">
-        <v>955</v>
-      </c>
     </row>
     <row r="379" spans="1:9">
       <c r="A379" s="1" t="s">
@@ -8954,6 +8957,12 @@
       <c r="E379" t="s">
         <v>793</v>
       </c>
+      <c r="G379" t="s">
+        <v>917</v>
+      </c>
+      <c r="I379" t="s">
+        <v>962</v>
+      </c>
     </row>
     <row r="380" spans="1:9">
       <c r="A380" s="1" t="s">
@@ -8968,12 +8977,6 @@
       <c r="E380" t="s">
         <v>794</v>
       </c>
-      <c r="G380" t="s">
-        <v>917</v>
-      </c>
-      <c r="I380" t="s">
-        <v>962</v>
-      </c>
     </row>
     <row r="381" spans="1:9">
       <c r="A381" s="1" t="s">
@@ -8985,9 +8988,6 @@
       <c r="C381" t="s">
         <v>795</v>
       </c>
-      <c r="E381" t="s">
-        <v>795</v>
-      </c>
     </row>
     <row r="382" spans="1:9">
       <c r="A382" s="1" t="s">
@@ -8999,6 +8999,12 @@
       <c r="C382" t="s">
         <v>796</v>
       </c>
+      <c r="G382" t="s">
+        <v>918</v>
+      </c>
+      <c r="I382" t="s">
+        <v>962</v>
+      </c>
     </row>
     <row r="383" spans="1:9">
       <c r="A383" s="1" t="s">
@@ -9010,11 +9016,8 @@
       <c r="C383" t="s">
         <v>797</v>
       </c>
-      <c r="G383" t="s">
-        <v>918</v>
-      </c>
       <c r="I383" t="s">
-        <v>962</v>
+        <v>955</v>
       </c>
     </row>
     <row r="384" spans="1:9">
@@ -9027,11 +9030,20 @@
       <c r="C384" t="s">
         <v>798</v>
       </c>
+      <c r="E384" t="s">
+        <v>817</v>
+      </c>
+      <c r="G384" t="s">
+        <v>919</v>
+      </c>
+      <c r="H384" t="s">
+        <v>948</v>
+      </c>
       <c r="I384" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="385" spans="1:9">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3">
       <c r="A385" s="1" t="s">
         <v>394</v>
       </c>
@@ -9041,20 +9053,8 @@
       <c r="C385" t="s">
         <v>799</v>
       </c>
-      <c r="E385" t="s">
-        <v>817</v>
-      </c>
-      <c r="G385" t="s">
-        <v>919</v>
-      </c>
-      <c r="H385" t="s">
-        <v>948</v>
-      </c>
-      <c r="I385" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="386" spans="1:9">
+    </row>
+    <row r="386" spans="1:3">
       <c r="A386" s="1" t="s">
         <v>395</v>
       </c>
@@ -9065,7 +9065,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="387" spans="1:9">
+    <row r="387" spans="1:3">
       <c r="A387" s="1" t="s">
         <v>396</v>
       </c>
@@ -9076,7 +9076,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="388" spans="1:9">
+    <row r="388" spans="1:3">
       <c r="A388" s="1" t="s">
         <v>397</v>
       </c>

--- a/all_course.xlsx
+++ b/all_course.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1670" uniqueCount="979">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1673" uniqueCount="981">
   <si>
     <t>category</t>
   </si>
@@ -187,6 +187,9 @@
     <t>5a448a70</t>
   </si>
   <si>
+    <t>cc2995de</t>
+  </si>
+  <si>
     <t>fdf9ce42</t>
   </si>
   <si>
@@ -1403,6 +1406,9 @@
   </si>
   <si>
     <t>圣大乘临终智慧经讲解</t>
+  </si>
+  <si>
+    <t>圣大解脱经讲解</t>
   </si>
   <si>
     <t>大势至菩萨念佛圆通章讲解</t>
@@ -3308,7 +3314,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K389"/>
+  <dimension ref="A1:K390"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -3359,10 +3365,10 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -3370,19 +3376,19 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C3" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E3" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="G3" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="I3" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -3390,13 +3396,13 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C4" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E4" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -3404,13 +3410,13 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C5" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="G5" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -3418,16 +3424,16 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C6" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="E6" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G6" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -3435,13 +3441,13 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -3449,10 +3455,10 @@
         <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C8" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -3460,13 +3466,13 @@
         <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C9" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E9" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -3474,19 +3480,19 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C10" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E10" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="G10" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="J10" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -3494,13 +3500,13 @@
         <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C11" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H11" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -3508,13 +3514,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C12" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H12" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -3522,10 +3528,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C13" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -3533,13 +3539,13 @@
         <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C14" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E14" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -3547,19 +3553,19 @@
         <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C15" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E15" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="G15" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="I15" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -3567,13 +3573,13 @@
         <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C16" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E16" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -3581,19 +3587,19 @@
         <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C17" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E17" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="G17" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="I17" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -3601,16 +3607,16 @@
         <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C18" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E18" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="J18" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -3618,13 +3624,13 @@
         <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C19" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E19" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -3632,10 +3638,10 @@
         <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C20" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -3643,16 +3649,16 @@
         <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C21" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E21" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="G21" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -3660,10 +3666,10 @@
         <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C22" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -3671,10 +3677,10 @@
         <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C23" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -3682,10 +3688,10 @@
         <v>33</v>
       </c>
       <c r="B24" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C24" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -3693,10 +3699,10 @@
         <v>34</v>
       </c>
       <c r="B25" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C25" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -3704,10 +3710,10 @@
         <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C26" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -3715,10 +3721,10 @@
         <v>36</v>
       </c>
       <c r="B27" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C27" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -3726,22 +3732,22 @@
         <v>37</v>
       </c>
       <c r="B28" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C28" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E28" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="G28" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="I28" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="J28" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -3749,16 +3755,16 @@
         <v>38</v>
       </c>
       <c r="B29" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C29" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="G29" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="I29" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -3766,10 +3772,10 @@
         <v>39</v>
       </c>
       <c r="B30" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C30" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -3777,10 +3783,10 @@
         <v>40</v>
       </c>
       <c r="B31" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C31" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -3788,10 +3794,10 @@
         <v>41</v>
       </c>
       <c r="B32" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C32" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -3799,10 +3805,10 @@
         <v>42</v>
       </c>
       <c r="B33" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C33" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -3810,10 +3816,10 @@
         <v>43</v>
       </c>
       <c r="B34" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C34" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -3821,10 +3827,10 @@
         <v>44</v>
       </c>
       <c r="B35" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C35" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -3832,19 +3838,19 @@
         <v>45</v>
       </c>
       <c r="B36" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C36" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E36" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="G36" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="I36" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -3852,10 +3858,10 @@
         <v>46</v>
       </c>
       <c r="B37" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -3863,10 +3869,10 @@
         <v>47</v>
       </c>
       <c r="B38" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C38" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -3874,13 +3880,13 @@
         <v>48</v>
       </c>
       <c r="B39" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C39" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="J39" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -3888,10 +3894,10 @@
         <v>49</v>
       </c>
       <c r="B40" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C40" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -3899,19 +3905,19 @@
         <v>50</v>
       </c>
       <c r="B41" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C41" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E41" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G41" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="I41" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -3919,13 +3925,13 @@
         <v>51</v>
       </c>
       <c r="B42" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C42" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E42" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -3933,16 +3939,16 @@
         <v>52</v>
       </c>
       <c r="B43" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C43" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E43" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H43" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -3950,19 +3956,19 @@
         <v>53</v>
       </c>
       <c r="B44" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C44" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E44" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H44" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="I44" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -3970,16 +3976,16 @@
         <v>54</v>
       </c>
       <c r="B45" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C45" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="E45" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H45" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -3987,13 +3993,13 @@
         <v>55</v>
       </c>
       <c r="B46" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C46" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E46" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -4001,10 +4007,10 @@
         <v>56</v>
       </c>
       <c r="B47" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C47" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -4012,10 +4018,10 @@
         <v>57</v>
       </c>
       <c r="B48" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C48" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -4023,13 +4029,10 @@
         <v>58</v>
       </c>
       <c r="B49" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C49" t="s">
-        <v>464</v>
-      </c>
-      <c r="E49" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -4037,22 +4040,13 @@
         <v>59</v>
       </c>
       <c r="B50" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C50" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E50" t="s">
-        <v>465</v>
-      </c>
-      <c r="G50" t="s">
-        <v>831</v>
-      </c>
-      <c r="H50" t="s">
-        <v>925</v>
-      </c>
-      <c r="I50" t="s">
-        <v>956</v>
+        <v>466</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -4060,13 +4054,22 @@
         <v>60</v>
       </c>
       <c r="B51" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C51" t="s">
-        <v>466</v>
+        <v>467</v>
+      </c>
+      <c r="E51" t="s">
+        <v>467</v>
+      </c>
+      <c r="G51" t="s">
+        <v>833</v>
       </c>
       <c r="H51" t="s">
-        <v>925</v>
+        <v>927</v>
+      </c>
+      <c r="I51" t="s">
+        <v>958</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -4074,16 +4077,13 @@
         <v>61</v>
       </c>
       <c r="B52" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C52" t="s">
-        <v>467</v>
-      </c>
-      <c r="E52" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H52" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -4091,22 +4091,16 @@
         <v>62</v>
       </c>
       <c r="B53" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C53" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="E53" t="s">
-        <v>468</v>
-      </c>
-      <c r="G53" t="s">
-        <v>832</v>
+        <v>469</v>
       </c>
       <c r="H53" t="s">
-        <v>925</v>
-      </c>
-      <c r="I53" t="s">
-        <v>957</v>
+        <v>927</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -4114,19 +4108,22 @@
         <v>63</v>
       </c>
       <c r="B54" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C54" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E54" t="s">
-        <v>469</v>
+        <v>470</v>
+      </c>
+      <c r="G54" t="s">
+        <v>834</v>
       </c>
       <c r="H54" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="I54" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -4134,19 +4131,19 @@
         <v>64</v>
       </c>
       <c r="B55" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C55" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E55" t="s">
-        <v>809</v>
+        <v>471</v>
       </c>
       <c r="H55" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="I55" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -4157,7 +4154,16 @@
         <v>403</v>
       </c>
       <c r="C56" t="s">
-        <v>471</v>
+        <v>472</v>
+      </c>
+      <c r="E56" t="s">
+        <v>811</v>
+      </c>
+      <c r="H56" t="s">
+        <v>927</v>
+      </c>
+      <c r="I56" t="s">
+        <v>961</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -4165,16 +4171,10 @@
         <v>66</v>
       </c>
       <c r="B57" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C57" t="s">
-        <v>472</v>
-      </c>
-      <c r="E57" t="s">
-        <v>472</v>
-      </c>
-      <c r="I57" t="s">
-        <v>960</v>
+        <v>473</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -4182,16 +4182,16 @@
         <v>67</v>
       </c>
       <c r="B58" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C58" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E58" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="I58" t="s">
-        <v>951</v>
+        <v>962</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -4199,16 +4199,16 @@
         <v>68</v>
       </c>
       <c r="B59" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C59" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E59" t="s">
-        <v>474</v>
-      </c>
-      <c r="G59" t="s">
-        <v>833</v>
+        <v>475</v>
+      </c>
+      <c r="I59" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -4216,19 +4216,16 @@
         <v>69</v>
       </c>
       <c r="B60" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C60" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="E60" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="G60" t="s">
-        <v>834</v>
-      </c>
-      <c r="I60" t="s">
-        <v>951</v>
+        <v>835</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -4239,10 +4236,16 @@
         <v>404</v>
       </c>
       <c r="C61" t="s">
-        <v>476</v>
+        <v>477</v>
+      </c>
+      <c r="E61" t="s">
+        <v>477</v>
+      </c>
+      <c r="G61" t="s">
+        <v>836</v>
       </c>
       <c r="I61" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -4250,13 +4253,13 @@
         <v>71</v>
       </c>
       <c r="B62" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C62" t="s">
-        <v>477</v>
-      </c>
-      <c r="E62" t="s">
-        <v>477</v>
+        <v>478</v>
+      </c>
+      <c r="I62" t="s">
+        <v>963</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -4264,13 +4267,13 @@
         <v>72</v>
       </c>
       <c r="B63" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C63" t="s">
-        <v>478</v>
-      </c>
-      <c r="I63" t="s">
-        <v>961</v>
+        <v>479</v>
+      </c>
+      <c r="E63" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -4278,19 +4281,13 @@
         <v>73</v>
       </c>
       <c r="B64" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C64" t="s">
-        <v>479</v>
-      </c>
-      <c r="E64" t="s">
-        <v>479</v>
-      </c>
-      <c r="G64" t="s">
-        <v>835</v>
+        <v>480</v>
       </c>
       <c r="I64" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -4298,16 +4295,19 @@
         <v>74</v>
       </c>
       <c r="B65" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C65" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="E65" t="s">
-        <v>480</v>
+        <v>481</v>
+      </c>
+      <c r="G65" t="s">
+        <v>837</v>
       </c>
       <c r="I65" t="s">
-        <v>955</v>
+        <v>964</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -4315,16 +4315,13 @@
         <v>75</v>
       </c>
       <c r="B66" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C66" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E66" t="s">
-        <v>481</v>
-      </c>
-      <c r="G66" t="s">
-        <v>836</v>
+        <v>482</v>
       </c>
       <c r="I66" t="s">
         <v>957</v>
@@ -4335,16 +4332,19 @@
         <v>76</v>
       </c>
       <c r="B67" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C67" t="s">
-        <v>482</v>
+        <v>483</v>
+      </c>
+      <c r="E67" t="s">
+        <v>483</v>
       </c>
       <c r="G67" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="I67" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -4352,13 +4352,16 @@
         <v>77</v>
       </c>
       <c r="B68" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C68" t="s">
-        <v>483</v>
-      </c>
-      <c r="E68" t="s">
-        <v>483</v>
+        <v>484</v>
+      </c>
+      <c r="G68" t="s">
+        <v>839</v>
+      </c>
+      <c r="I68" t="s">
+        <v>963</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -4366,19 +4369,13 @@
         <v>78</v>
       </c>
       <c r="B69" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C69" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E69" t="s">
-        <v>484</v>
-      </c>
-      <c r="G69" t="s">
-        <v>837</v>
-      </c>
-      <c r="I69" t="s">
-        <v>955</v>
+        <v>485</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -4389,16 +4386,16 @@
         <v>405</v>
       </c>
       <c r="C70" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="E70" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="G70" t="s">
-        <v>838</v>
-      </c>
-      <c r="H70" t="s">
-        <v>926</v>
+        <v>839</v>
+      </c>
+      <c r="I70" t="s">
+        <v>957</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -4406,19 +4403,19 @@
         <v>80</v>
       </c>
       <c r="B71" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C71" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="E71" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="G71" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="H71" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -4426,19 +4423,19 @@
         <v>81</v>
       </c>
       <c r="B72" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C72" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="E72" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="G72" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="H72" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -4446,19 +4443,19 @@
         <v>82</v>
       </c>
       <c r="B73" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C73" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="E73" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="G73" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="H73" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -4466,19 +4463,19 @@
         <v>83</v>
       </c>
       <c r="B74" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C74" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="E74" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="G74" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="H74" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -4486,19 +4483,19 @@
         <v>84</v>
       </c>
       <c r="B75" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C75" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E75" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="G75" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="H75" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -4506,19 +4503,19 @@
         <v>85</v>
       </c>
       <c r="B76" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C76" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E76" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="G76" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="H76" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -4526,19 +4523,19 @@
         <v>86</v>
       </c>
       <c r="B77" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C77" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="E77" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="G77" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="H77" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -4546,19 +4543,19 @@
         <v>87</v>
       </c>
       <c r="B78" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C78" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E78" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="G78" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="H78" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -4566,19 +4563,19 @@
         <v>88</v>
       </c>
       <c r="B79" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C79" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E79" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="G79" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="H79" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -4586,19 +4583,19 @@
         <v>89</v>
       </c>
       <c r="B80" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C80" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E80" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="G80" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="H80" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4606,19 +4603,19 @@
         <v>90</v>
       </c>
       <c r="B81" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C81" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="E81" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="G81" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="H81" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4626,19 +4623,19 @@
         <v>91</v>
       </c>
       <c r="B82" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C82" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E82" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="G82" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="H82" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4646,19 +4643,19 @@
         <v>92</v>
       </c>
       <c r="B83" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C83" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="E83" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="G83" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="H83" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4666,19 +4663,19 @@
         <v>93</v>
       </c>
       <c r="B84" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C84" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="E84" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="G84" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="H84" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4686,19 +4683,19 @@
         <v>94</v>
       </c>
       <c r="B85" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C85" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="E85" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="G85" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="H85" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4706,19 +4703,19 @@
         <v>95</v>
       </c>
       <c r="B86" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C86" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E86" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="G86" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="H86" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4726,19 +4723,19 @@
         <v>96</v>
       </c>
       <c r="B87" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C87" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E87" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="G87" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="H87" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4746,19 +4743,19 @@
         <v>97</v>
       </c>
       <c r="B88" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C88" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="E88" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="G88" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="H88" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4766,19 +4763,19 @@
         <v>98</v>
       </c>
       <c r="B89" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C89" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="E89" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="G89" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="H89" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4786,19 +4783,19 @@
         <v>99</v>
       </c>
       <c r="B90" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C90" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E90" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G90" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="H90" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4806,19 +4803,19 @@
         <v>100</v>
       </c>
       <c r="B91" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C91" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E91" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="G91" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="H91" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4826,19 +4823,19 @@
         <v>101</v>
       </c>
       <c r="B92" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C92" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E92" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="G92" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="H92" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4846,19 +4843,19 @@
         <v>102</v>
       </c>
       <c r="B93" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C93" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E93" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G93" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="H93" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4866,19 +4863,19 @@
         <v>103</v>
       </c>
       <c r="B94" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C94" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E94" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="G94" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="H94" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4886,19 +4883,19 @@
         <v>104</v>
       </c>
       <c r="B95" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C95" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E95" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="G95" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="H95" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4906,19 +4903,19 @@
         <v>105</v>
       </c>
       <c r="B96" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C96" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E96" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="G96" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="H96" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4926,19 +4923,19 @@
         <v>106</v>
       </c>
       <c r="B97" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C97" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="E97" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="G97" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="H97" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4946,19 +4943,19 @@
         <v>107</v>
       </c>
       <c r="B98" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C98" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="E98" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="G98" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="H98" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4966,19 +4963,19 @@
         <v>108</v>
       </c>
       <c r="B99" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C99" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="E99" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="G99" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="H99" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4986,19 +4983,19 @@
         <v>109</v>
       </c>
       <c r="B100" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C100" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="E100" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="G100" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="H100" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -5006,19 +5003,19 @@
         <v>110</v>
       </c>
       <c r="B101" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C101" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E101" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="G101" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="H101" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -5026,13 +5023,19 @@
         <v>111</v>
       </c>
       <c r="B102" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C102" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="E102" t="s">
-        <v>517</v>
+        <v>518</v>
+      </c>
+      <c r="G102" t="s">
+        <v>871</v>
+      </c>
+      <c r="H102" t="s">
+        <v>928</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -5040,19 +5043,13 @@
         <v>112</v>
       </c>
       <c r="B103" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C103" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="E103" t="s">
-        <v>518</v>
-      </c>
-      <c r="G103" t="s">
-        <v>870</v>
-      </c>
-      <c r="H103" t="s">
-        <v>926</v>
+        <v>519</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -5060,19 +5057,19 @@
         <v>113</v>
       </c>
       <c r="B104" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C104" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="E104" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="G104" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="H104" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -5080,19 +5077,19 @@
         <v>114</v>
       </c>
       <c r="B105" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C105" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="E105" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="G105" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="H105" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -5100,19 +5097,19 @@
         <v>115</v>
       </c>
       <c r="B106" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C106" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="E106" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="G106" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="H106" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -5120,13 +5117,19 @@
         <v>116</v>
       </c>
       <c r="B107" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C107" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="E107" t="s">
-        <v>522</v>
+        <v>523</v>
+      </c>
+      <c r="G107" t="s">
+        <v>875</v>
+      </c>
+      <c r="H107" t="s">
+        <v>928</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -5134,13 +5137,13 @@
         <v>117</v>
       </c>
       <c r="B108" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C108" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="E108" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -5148,13 +5151,13 @@
         <v>118</v>
       </c>
       <c r="B109" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C109" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="E109" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -5162,13 +5165,13 @@
         <v>119</v>
       </c>
       <c r="B110" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C110" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E110" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -5176,13 +5179,13 @@
         <v>120</v>
       </c>
       <c r="B111" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C111" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="E111" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -5190,13 +5193,13 @@
         <v>121</v>
       </c>
       <c r="B112" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C112" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E112" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -5204,13 +5207,13 @@
         <v>122</v>
       </c>
       <c r="B113" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C113" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="E113" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -5218,13 +5221,13 @@
         <v>123</v>
       </c>
       <c r="B114" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C114" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="E114" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -5232,13 +5235,13 @@
         <v>124</v>
       </c>
       <c r="B115" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C115" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="E115" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -5246,13 +5249,13 @@
         <v>125</v>
       </c>
       <c r="B116" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C116" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="E116" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -5263,10 +5266,10 @@
         <v>406</v>
       </c>
       <c r="C117" t="s">
-        <v>532</v>
-      </c>
-      <c r="I117" t="s">
-        <v>957</v>
+        <v>533</v>
+      </c>
+      <c r="E117" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -5274,13 +5277,13 @@
         <v>127</v>
       </c>
       <c r="B118" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C118" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="I118" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -5288,10 +5291,13 @@
         <v>128</v>
       </c>
       <c r="B119" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C119" t="s">
-        <v>534</v>
+        <v>535</v>
+      </c>
+      <c r="I119" t="s">
+        <v>959</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -5299,10 +5305,10 @@
         <v>129</v>
       </c>
       <c r="B120" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C120" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -5310,10 +5316,10 @@
         <v>130</v>
       </c>
       <c r="B121" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C121" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -5321,10 +5327,10 @@
         <v>131</v>
       </c>
       <c r="B122" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C122" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -5332,10 +5338,10 @@
         <v>132</v>
       </c>
       <c r="B123" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C123" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -5343,16 +5349,10 @@
         <v>133</v>
       </c>
       <c r="B124" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C124" t="s">
-        <v>539</v>
-      </c>
-      <c r="E124" t="s">
-        <v>539</v>
-      </c>
-      <c r="H124" t="s">
-        <v>927</v>
+        <v>540</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -5360,10 +5360,16 @@
         <v>134</v>
       </c>
       <c r="B125" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C125" t="s">
-        <v>540</v>
+        <v>541</v>
+      </c>
+      <c r="E125" t="s">
+        <v>541</v>
+      </c>
+      <c r="H125" t="s">
+        <v>929</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -5371,10 +5377,10 @@
         <v>135</v>
       </c>
       <c r="B126" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C126" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -5382,16 +5388,10 @@
         <v>136</v>
       </c>
       <c r="B127" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C127" t="s">
-        <v>542</v>
-      </c>
-      <c r="G127" t="s">
-        <v>874</v>
-      </c>
-      <c r="I127" t="s">
-        <v>963</v>
+        <v>543</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -5399,13 +5399,16 @@
         <v>137</v>
       </c>
       <c r="B128" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C128" t="s">
-        <v>543</v>
-      </c>
-      <c r="E128" t="s">
-        <v>543</v>
+        <v>544</v>
+      </c>
+      <c r="G128" t="s">
+        <v>876</v>
+      </c>
+      <c r="I128" t="s">
+        <v>965</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -5413,10 +5416,13 @@
         <v>138</v>
       </c>
       <c r="B129" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C129" t="s">
-        <v>544</v>
+        <v>545</v>
+      </c>
+      <c r="E129" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -5424,19 +5430,10 @@
         <v>139</v>
       </c>
       <c r="B130" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C130" t="s">
-        <v>545</v>
-      </c>
-      <c r="E130" t="s">
-        <v>545</v>
-      </c>
-      <c r="G130" t="s">
-        <v>875</v>
-      </c>
-      <c r="I130" t="s">
-        <v>964</v>
+        <v>546</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -5444,10 +5441,19 @@
         <v>140</v>
       </c>
       <c r="B131" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C131" t="s">
-        <v>546</v>
+        <v>547</v>
+      </c>
+      <c r="E131" t="s">
+        <v>547</v>
+      </c>
+      <c r="G131" t="s">
+        <v>877</v>
+      </c>
+      <c r="I131" t="s">
+        <v>966</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -5455,10 +5461,10 @@
         <v>141</v>
       </c>
       <c r="B132" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C132" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -5466,16 +5472,10 @@
         <v>142</v>
       </c>
       <c r="B133" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C133" t="s">
-        <v>548</v>
-      </c>
-      <c r="E133" t="s">
-        <v>548</v>
-      </c>
-      <c r="I133" t="s">
-        <v>955</v>
+        <v>549</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -5483,10 +5483,16 @@
         <v>143</v>
       </c>
       <c r="B134" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C134" t="s">
-        <v>549</v>
+        <v>550</v>
+      </c>
+      <c r="E134" t="s">
+        <v>550</v>
+      </c>
+      <c r="I134" t="s">
+        <v>957</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -5494,10 +5500,10 @@
         <v>144</v>
       </c>
       <c r="B135" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C135" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -5505,10 +5511,10 @@
         <v>145</v>
       </c>
       <c r="B136" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C136" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -5516,16 +5522,10 @@
         <v>146</v>
       </c>
       <c r="B137" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C137" t="s">
-        <v>552</v>
-      </c>
-      <c r="E137" t="s">
-        <v>552</v>
-      </c>
-      <c r="I137" t="s">
-        <v>965</v>
+        <v>553</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -5533,10 +5533,16 @@
         <v>147</v>
       </c>
       <c r="B138" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C138" t="s">
-        <v>553</v>
+        <v>554</v>
+      </c>
+      <c r="E138" t="s">
+        <v>554</v>
+      </c>
+      <c r="I138" t="s">
+        <v>967</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -5544,19 +5550,10 @@
         <v>148</v>
       </c>
       <c r="B139" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C139" t="s">
-        <v>554</v>
-      </c>
-      <c r="E139" t="s">
-        <v>554</v>
-      </c>
-      <c r="G139" t="s">
-        <v>876</v>
-      </c>
-      <c r="I139" t="s">
-        <v>957</v>
+        <v>555</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -5564,16 +5561,19 @@
         <v>149</v>
       </c>
       <c r="B140" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C140" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="E140" t="s">
-        <v>810</v>
-      </c>
-      <c r="H140" t="s">
-        <v>928</v>
+        <v>556</v>
+      </c>
+      <c r="G140" t="s">
+        <v>878</v>
+      </c>
+      <c r="I140" t="s">
+        <v>959</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -5581,13 +5581,16 @@
         <v>150</v>
       </c>
       <c r="B141" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C141" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E141" t="s">
-        <v>555</v>
+        <v>812</v>
+      </c>
+      <c r="H141" t="s">
+        <v>930</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -5595,13 +5598,13 @@
         <v>151</v>
       </c>
       <c r="B142" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C142" t="s">
+        <v>558</v>
+      </c>
+      <c r="E142" t="s">
         <v>557</v>
-      </c>
-      <c r="H142" t="s">
-        <v>929</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -5609,13 +5612,13 @@
         <v>152</v>
       </c>
       <c r="B143" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C143" t="s">
-        <v>558</v>
-      </c>
-      <c r="E143" t="s">
-        <v>558</v>
+        <v>559</v>
+      </c>
+      <c r="H143" t="s">
+        <v>931</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -5623,19 +5626,13 @@
         <v>153</v>
       </c>
       <c r="B144" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C144" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="E144" t="s">
-        <v>559</v>
-      </c>
-      <c r="G144" t="s">
-        <v>877</v>
-      </c>
-      <c r="I144" t="s">
-        <v>963</v>
+        <v>560</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -5643,16 +5640,19 @@
         <v>154</v>
       </c>
       <c r="B145" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C145" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E145" t="s">
-        <v>560</v>
+        <v>561</v>
+      </c>
+      <c r="G145" t="s">
+        <v>879</v>
       </c>
       <c r="I145" t="s">
-        <v>957</v>
+        <v>965</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -5660,19 +5660,16 @@
         <v>155</v>
       </c>
       <c r="B146" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C146" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="E146" t="s">
-        <v>561</v>
-      </c>
-      <c r="G146" t="s">
-        <v>878</v>
+        <v>562</v>
       </c>
       <c r="I146" t="s">
-        <v>951</v>
+        <v>959</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -5680,10 +5677,19 @@
         <v>156</v>
       </c>
       <c r="B147" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C147" t="s">
-        <v>562</v>
+        <v>563</v>
+      </c>
+      <c r="E147" t="s">
+        <v>563</v>
+      </c>
+      <c r="G147" t="s">
+        <v>880</v>
+      </c>
+      <c r="I147" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -5691,13 +5697,10 @@
         <v>157</v>
       </c>
       <c r="B148" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C148" t="s">
-        <v>563</v>
-      </c>
-      <c r="E148" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -5705,10 +5708,13 @@
         <v>158</v>
       </c>
       <c r="B149" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C149" t="s">
-        <v>564</v>
+        <v>565</v>
+      </c>
+      <c r="E149" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -5716,16 +5722,10 @@
         <v>159</v>
       </c>
       <c r="B150" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C150" t="s">
-        <v>565</v>
-      </c>
-      <c r="E150" t="s">
-        <v>565</v>
-      </c>
-      <c r="I150" t="s">
-        <v>966</v>
+        <v>566</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -5733,10 +5733,16 @@
         <v>160</v>
       </c>
       <c r="B151" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C151" t="s">
-        <v>566</v>
+        <v>567</v>
+      </c>
+      <c r="E151" t="s">
+        <v>567</v>
+      </c>
+      <c r="I151" t="s">
+        <v>968</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -5744,13 +5750,10 @@
         <v>161</v>
       </c>
       <c r="B152" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C152" t="s">
-        <v>567</v>
-      </c>
-      <c r="E152" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -5758,16 +5761,13 @@
         <v>162</v>
       </c>
       <c r="B153" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C153" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="E153" t="s">
-        <v>568</v>
-      </c>
-      <c r="I153" t="s">
-        <v>965</v>
+        <v>569</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -5775,10 +5775,16 @@
         <v>163</v>
       </c>
       <c r="B154" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C154" t="s">
-        <v>569</v>
+        <v>570</v>
+      </c>
+      <c r="E154" t="s">
+        <v>570</v>
+      </c>
+      <c r="I154" t="s">
+        <v>967</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -5786,10 +5792,10 @@
         <v>164</v>
       </c>
       <c r="B155" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C155" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -5797,10 +5803,10 @@
         <v>165</v>
       </c>
       <c r="B156" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C156" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -5808,10 +5814,10 @@
         <v>166</v>
       </c>
       <c r="B157" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C157" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="158" spans="1:9">
@@ -5819,10 +5825,10 @@
         <v>167</v>
       </c>
       <c r="B158" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C158" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -5830,19 +5836,10 @@
         <v>168</v>
       </c>
       <c r="B159" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C159" t="s">
-        <v>574</v>
-      </c>
-      <c r="E159" t="s">
-        <v>574</v>
-      </c>
-      <c r="G159" t="s">
-        <v>879</v>
-      </c>
-      <c r="I159" t="s">
-        <v>951</v>
+        <v>575</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -5850,10 +5847,19 @@
         <v>169</v>
       </c>
       <c r="B160" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C160" t="s">
-        <v>575</v>
+        <v>576</v>
+      </c>
+      <c r="E160" t="s">
+        <v>576</v>
+      </c>
+      <c r="G160" t="s">
+        <v>881</v>
+      </c>
+      <c r="I160" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="161" spans="1:9">
@@ -5861,10 +5867,10 @@
         <v>170</v>
       </c>
       <c r="B161" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C161" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="162" spans="1:9">
@@ -5872,13 +5878,10 @@
         <v>171</v>
       </c>
       <c r="B162" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C162" t="s">
-        <v>577</v>
-      </c>
-      <c r="I162" t="s">
-        <v>957</v>
+        <v>578</v>
       </c>
     </row>
     <row r="163" spans="1:9">
@@ -5886,16 +5889,13 @@
         <v>172</v>
       </c>
       <c r="B163" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C163" t="s">
-        <v>578</v>
-      </c>
-      <c r="G163" t="s">
-        <v>880</v>
+        <v>579</v>
       </c>
       <c r="I163" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
     </row>
     <row r="164" spans="1:9">
@@ -5903,10 +5903,16 @@
         <v>173</v>
       </c>
       <c r="B164" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C164" t="s">
-        <v>579</v>
+        <v>580</v>
+      </c>
+      <c r="G164" t="s">
+        <v>882</v>
+      </c>
+      <c r="I164" t="s">
+        <v>966</v>
       </c>
     </row>
     <row r="165" spans="1:9">
@@ -5914,10 +5920,10 @@
         <v>174</v>
       </c>
       <c r="B165" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C165" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="166" spans="1:9">
@@ -5925,13 +5931,10 @@
         <v>175</v>
       </c>
       <c r="B166" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C166" t="s">
-        <v>581</v>
-      </c>
-      <c r="E166" t="s">
-        <v>811</v>
+        <v>582</v>
       </c>
     </row>
     <row r="167" spans="1:9">
@@ -5939,10 +5942,13 @@
         <v>176</v>
       </c>
       <c r="B167" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C167" t="s">
-        <v>582</v>
+        <v>583</v>
+      </c>
+      <c r="E167" t="s">
+        <v>813</v>
       </c>
     </row>
     <row r="168" spans="1:9">
@@ -5950,10 +5956,10 @@
         <v>177</v>
       </c>
       <c r="B168" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C168" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="169" spans="1:9">
@@ -5961,10 +5967,10 @@
         <v>178</v>
       </c>
       <c r="B169" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C169" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="170" spans="1:9">
@@ -5972,10 +5978,10 @@
         <v>179</v>
       </c>
       <c r="B170" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C170" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="171" spans="1:9">
@@ -5983,10 +5989,10 @@
         <v>180</v>
       </c>
       <c r="B171" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C171" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="172" spans="1:9">
@@ -5994,10 +6000,10 @@
         <v>181</v>
       </c>
       <c r="B172" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C172" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="173" spans="1:9">
@@ -6005,10 +6011,10 @@
         <v>182</v>
       </c>
       <c r="B173" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C173" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="174" spans="1:9">
@@ -6016,10 +6022,10 @@
         <v>183</v>
       </c>
       <c r="B174" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C174" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="175" spans="1:9">
@@ -6027,10 +6033,10 @@
         <v>184</v>
       </c>
       <c r="B175" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C175" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="176" spans="1:9">
@@ -6038,10 +6044,10 @@
         <v>185</v>
       </c>
       <c r="B176" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C176" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -6052,10 +6058,7 @@
         <v>407</v>
       </c>
       <c r="C177" t="s">
-        <v>592</v>
-      </c>
-      <c r="E177" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -6063,13 +6066,13 @@
         <v>187</v>
       </c>
       <c r="B178" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C178" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="E178" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -6077,13 +6080,13 @@
         <v>188</v>
       </c>
       <c r="B179" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C179" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="E179" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -6091,13 +6094,13 @@
         <v>189</v>
       </c>
       <c r="B180" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C180" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="E180" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -6105,13 +6108,13 @@
         <v>190</v>
       </c>
       <c r="B181" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C181" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="E181" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -6119,13 +6122,13 @@
         <v>191</v>
       </c>
       <c r="B182" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C182" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="E182" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -6133,13 +6136,13 @@
         <v>192</v>
       </c>
       <c r="B183" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C183" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="E183" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -6147,13 +6150,13 @@
         <v>193</v>
       </c>
       <c r="B184" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C184" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="E184" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -6161,13 +6164,13 @@
         <v>194</v>
       </c>
       <c r="B185" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C185" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E185" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -6175,13 +6178,13 @@
         <v>195</v>
       </c>
       <c r="B186" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C186" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="E186" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -6189,13 +6192,13 @@
         <v>196</v>
       </c>
       <c r="B187" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C187" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E187" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -6203,13 +6206,13 @@
         <v>197</v>
       </c>
       <c r="B188" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C188" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E188" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -6217,13 +6220,13 @@
         <v>198</v>
       </c>
       <c r="B189" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C189" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="E189" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -6231,13 +6234,13 @@
         <v>199</v>
       </c>
       <c r="B190" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C190" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E190" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -6245,13 +6248,13 @@
         <v>200</v>
       </c>
       <c r="B191" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C191" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E191" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -6259,13 +6262,13 @@
         <v>201</v>
       </c>
       <c r="B192" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C192" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="E192" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="193" spans="1:9">
@@ -6276,7 +6279,10 @@
         <v>408</v>
       </c>
       <c r="C193" t="s">
-        <v>608</v>
+        <v>609</v>
+      </c>
+      <c r="E193" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="194" spans="1:9">
@@ -6284,10 +6290,10 @@
         <v>203</v>
       </c>
       <c r="B194" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C194" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="195" spans="1:9">
@@ -6295,10 +6301,10 @@
         <v>204</v>
       </c>
       <c r="B195" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C195" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="196" spans="1:9">
@@ -6306,10 +6312,10 @@
         <v>205</v>
       </c>
       <c r="B196" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C196" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="197" spans="1:9">
@@ -6317,10 +6323,10 @@
         <v>206</v>
       </c>
       <c r="B197" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C197" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="198" spans="1:9">
@@ -6328,16 +6334,10 @@
         <v>207</v>
       </c>
       <c r="B198" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C198" t="s">
-        <v>613</v>
-      </c>
-      <c r="E198" t="s">
-        <v>613</v>
-      </c>
-      <c r="G198" t="s">
-        <v>824</v>
+        <v>614</v>
       </c>
     </row>
     <row r="199" spans="1:9">
@@ -6345,13 +6345,16 @@
         <v>208</v>
       </c>
       <c r="B199" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C199" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E199" t="s">
-        <v>812</v>
+        <v>615</v>
+      </c>
+      <c r="G199" t="s">
+        <v>826</v>
       </c>
     </row>
     <row r="200" spans="1:9">
@@ -6359,13 +6362,13 @@
         <v>209</v>
       </c>
       <c r="B200" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C200" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="E200" t="s">
-        <v>615</v>
+        <v>814</v>
       </c>
     </row>
     <row r="201" spans="1:9">
@@ -6373,10 +6376,13 @@
         <v>210</v>
       </c>
       <c r="B201" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C201" t="s">
-        <v>616</v>
+        <v>617</v>
+      </c>
+      <c r="E201" t="s">
+        <v>617</v>
       </c>
     </row>
     <row r="202" spans="1:9">
@@ -6384,10 +6390,10 @@
         <v>211</v>
       </c>
       <c r="B202" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C202" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="203" spans="1:9">
@@ -6395,10 +6401,10 @@
         <v>212</v>
       </c>
       <c r="B203" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C203" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="204" spans="1:9">
@@ -6406,16 +6412,10 @@
         <v>213</v>
       </c>
       <c r="B204" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C204" t="s">
-        <v>619</v>
-      </c>
-      <c r="G204" t="s">
-        <v>881</v>
-      </c>
-      <c r="I204" t="s">
-        <v>955</v>
+        <v>620</v>
       </c>
     </row>
     <row r="205" spans="1:9">
@@ -6423,10 +6423,16 @@
         <v>214</v>
       </c>
       <c r="B205" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C205" t="s">
-        <v>620</v>
+        <v>621</v>
+      </c>
+      <c r="G205" t="s">
+        <v>883</v>
+      </c>
+      <c r="I205" t="s">
+        <v>957</v>
       </c>
     </row>
     <row r="206" spans="1:9">
@@ -6434,10 +6440,10 @@
         <v>215</v>
       </c>
       <c r="B206" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C206" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="207" spans="1:9">
@@ -6448,13 +6454,7 @@
         <v>409</v>
       </c>
       <c r="C207" t="s">
-        <v>622</v>
-      </c>
-      <c r="E207" t="s">
-        <v>622</v>
-      </c>
-      <c r="G207" t="s">
-        <v>882</v>
+        <v>623</v>
       </c>
     </row>
     <row r="208" spans="1:9">
@@ -6465,10 +6465,13 @@
         <v>410</v>
       </c>
       <c r="C208" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="E208" t="s">
-        <v>623</v>
+        <v>624</v>
+      </c>
+      <c r="G208" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="209" spans="1:9">
@@ -6476,19 +6479,13 @@
         <v>218</v>
       </c>
       <c r="B209" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C209" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="E209" t="s">
-        <v>624</v>
-      </c>
-      <c r="G209" t="s">
-        <v>883</v>
-      </c>
-      <c r="I209" t="s">
-        <v>955</v>
+        <v>625</v>
       </c>
     </row>
     <row r="210" spans="1:9">
@@ -6496,13 +6493,19 @@
         <v>219</v>
       </c>
       <c r="B210" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C210" t="s">
-        <v>625</v>
+        <v>626</v>
+      </c>
+      <c r="E210" t="s">
+        <v>626</v>
       </c>
       <c r="G210" t="s">
-        <v>883</v>
+        <v>885</v>
+      </c>
+      <c r="I210" t="s">
+        <v>957</v>
       </c>
     </row>
     <row r="211" spans="1:9">
@@ -6510,10 +6513,13 @@
         <v>220</v>
       </c>
       <c r="B211" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C211" t="s">
-        <v>626</v>
+        <v>627</v>
+      </c>
+      <c r="G211" t="s">
+        <v>885</v>
       </c>
     </row>
     <row r="212" spans="1:9">
@@ -6521,13 +6527,10 @@
         <v>221</v>
       </c>
       <c r="B212" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C212" t="s">
-        <v>627</v>
-      </c>
-      <c r="E212" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="213" spans="1:9">
@@ -6535,13 +6538,13 @@
         <v>222</v>
       </c>
       <c r="B213" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C213" t="s">
-        <v>628</v>
-      </c>
-      <c r="I213" t="s">
-        <v>951</v>
+        <v>629</v>
+      </c>
+      <c r="E213" t="s">
+        <v>629</v>
       </c>
     </row>
     <row r="214" spans="1:9">
@@ -6549,13 +6552,13 @@
         <v>223</v>
       </c>
       <c r="B214" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C214" t="s">
-        <v>629</v>
-      </c>
-      <c r="E214" t="s">
-        <v>629</v>
+        <v>630</v>
+      </c>
+      <c r="I214" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="215" spans="1:9">
@@ -6563,13 +6566,13 @@
         <v>224</v>
       </c>
       <c r="B215" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C215" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="E215" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="216" spans="1:9">
@@ -6577,13 +6580,13 @@
         <v>225</v>
       </c>
       <c r="B216" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C216" t="s">
-        <v>631</v>
-      </c>
-      <c r="I216" t="s">
-        <v>967</v>
+        <v>632</v>
+      </c>
+      <c r="E216" t="s">
+        <v>632</v>
       </c>
     </row>
     <row r="217" spans="1:9">
@@ -6591,13 +6594,13 @@
         <v>226</v>
       </c>
       <c r="B217" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C217" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="I217" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
     </row>
     <row r="218" spans="1:9">
@@ -6605,13 +6608,13 @@
         <v>227</v>
       </c>
       <c r="B218" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C218" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="I218" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
     </row>
     <row r="219" spans="1:9">
@@ -6619,16 +6622,13 @@
         <v>228</v>
       </c>
       <c r="B219" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C219" t="s">
-        <v>634</v>
-      </c>
-      <c r="E219" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="I219" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
     </row>
     <row r="220" spans="1:9">
@@ -6636,13 +6636,16 @@
         <v>229</v>
       </c>
       <c r="B220" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C220" t="s">
-        <v>635</v>
+        <v>636</v>
+      </c>
+      <c r="E220" t="s">
+        <v>636</v>
       </c>
       <c r="I220" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
     </row>
     <row r="221" spans="1:9">
@@ -6650,13 +6653,13 @@
         <v>230</v>
       </c>
       <c r="B221" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C221" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="I221" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
     </row>
     <row r="222" spans="1:9">
@@ -6664,16 +6667,13 @@
         <v>231</v>
       </c>
       <c r="B222" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C222" t="s">
-        <v>637</v>
-      </c>
-      <c r="E222" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="I222" t="s">
-        <v>955</v>
+        <v>969</v>
       </c>
     </row>
     <row r="223" spans="1:9">
@@ -6684,10 +6684,13 @@
         <v>411</v>
       </c>
       <c r="C223" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="E223" t="s">
-        <v>638</v>
+        <v>639</v>
+      </c>
+      <c r="I223" t="s">
+        <v>957</v>
       </c>
     </row>
     <row r="224" spans="1:9">
@@ -6695,10 +6698,13 @@
         <v>233</v>
       </c>
       <c r="B224" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C224" t="s">
-        <v>639</v>
+        <v>640</v>
+      </c>
+      <c r="E224" t="s">
+        <v>640</v>
       </c>
     </row>
     <row r="225" spans="1:9">
@@ -6706,13 +6712,10 @@
         <v>234</v>
       </c>
       <c r="B225" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C225" t="s">
-        <v>640</v>
-      </c>
-      <c r="H225" t="s">
-        <v>930</v>
+        <v>641</v>
       </c>
     </row>
     <row r="226" spans="1:9">
@@ -6720,10 +6723,13 @@
         <v>235</v>
       </c>
       <c r="B226" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C226" t="s">
-        <v>641</v>
+        <v>642</v>
+      </c>
+      <c r="H226" t="s">
+        <v>932</v>
       </c>
     </row>
     <row r="227" spans="1:9">
@@ -6731,10 +6737,10 @@
         <v>236</v>
       </c>
       <c r="B227" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C227" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="228" spans="1:9">
@@ -6742,19 +6748,10 @@
         <v>237</v>
       </c>
       <c r="B228" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C228" t="s">
-        <v>643</v>
-      </c>
-      <c r="E228" t="s">
-        <v>643</v>
-      </c>
-      <c r="G228" t="s">
-        <v>884</v>
-      </c>
-      <c r="I228" t="s">
-        <v>968</v>
+        <v>644</v>
       </c>
     </row>
     <row r="229" spans="1:9">
@@ -6762,10 +6759,19 @@
         <v>238</v>
       </c>
       <c r="B229" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C229" t="s">
-        <v>644</v>
+        <v>645</v>
+      </c>
+      <c r="E229" t="s">
+        <v>645</v>
+      </c>
+      <c r="G229" t="s">
+        <v>886</v>
+      </c>
+      <c r="I229" t="s">
+        <v>970</v>
       </c>
     </row>
     <row r="230" spans="1:9">
@@ -6773,10 +6779,10 @@
         <v>239</v>
       </c>
       <c r="B230" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C230" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="231" spans="1:9">
@@ -6784,16 +6790,10 @@
         <v>240</v>
       </c>
       <c r="B231" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C231" t="s">
-        <v>646</v>
-      </c>
-      <c r="E231" t="s">
-        <v>646</v>
-      </c>
-      <c r="G231" t="s">
-        <v>885</v>
+        <v>647</v>
       </c>
     </row>
     <row r="232" spans="1:9">
@@ -6801,10 +6801,16 @@
         <v>241</v>
       </c>
       <c r="B232" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C232" t="s">
-        <v>647</v>
+        <v>648</v>
+      </c>
+      <c r="E232" t="s">
+        <v>648</v>
+      </c>
+      <c r="G232" t="s">
+        <v>887</v>
       </c>
     </row>
     <row r="233" spans="1:9">
@@ -6812,10 +6818,10 @@
         <v>242</v>
       </c>
       <c r="B233" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C233" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="234" spans="1:9">
@@ -6823,10 +6829,10 @@
         <v>243</v>
       </c>
       <c r="B234" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C234" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="235" spans="1:9">
@@ -6834,10 +6840,10 @@
         <v>244</v>
       </c>
       <c r="B235" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C235" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="236" spans="1:9">
@@ -6845,10 +6851,10 @@
         <v>245</v>
       </c>
       <c r="B236" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C236" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="237" spans="1:9">
@@ -6859,7 +6865,7 @@
         <v>412</v>
       </c>
       <c r="C237" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="238" spans="1:9">
@@ -6867,10 +6873,10 @@
         <v>247</v>
       </c>
       <c r="B238" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C238" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="239" spans="1:9">
@@ -6878,19 +6884,10 @@
         <v>248</v>
       </c>
       <c r="B239" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C239" t="s">
-        <v>654</v>
-      </c>
-      <c r="E239" t="s">
-        <v>654</v>
-      </c>
-      <c r="G239" t="s">
-        <v>886</v>
-      </c>
-      <c r="I239" t="s">
-        <v>962</v>
+        <v>655</v>
       </c>
     </row>
     <row r="240" spans="1:9">
@@ -6898,13 +6895,19 @@
         <v>249</v>
       </c>
       <c r="B240" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C240" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="E240" t="s">
-        <v>655</v>
+        <v>656</v>
+      </c>
+      <c r="G240" t="s">
+        <v>888</v>
+      </c>
+      <c r="I240" t="s">
+        <v>964</v>
       </c>
     </row>
     <row r="241" spans="1:9">
@@ -6912,10 +6915,13 @@
         <v>250</v>
       </c>
       <c r="B241" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C241" t="s">
-        <v>656</v>
+        <v>657</v>
+      </c>
+      <c r="E241" t="s">
+        <v>657</v>
       </c>
     </row>
     <row r="242" spans="1:9">
@@ -6923,19 +6929,10 @@
         <v>251</v>
       </c>
       <c r="B242" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C242" t="s">
-        <v>657</v>
-      </c>
-      <c r="E242" t="s">
-        <v>657</v>
-      </c>
-      <c r="G242" t="s">
-        <v>887</v>
-      </c>
-      <c r="I242" t="s">
-        <v>962</v>
+        <v>658</v>
       </c>
     </row>
     <row r="243" spans="1:9">
@@ -6943,19 +6940,19 @@
         <v>252</v>
       </c>
       <c r="B243" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C243" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="E243" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="G243" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="I243" t="s">
-        <v>957</v>
+        <v>964</v>
       </c>
     </row>
     <row r="244" spans="1:9">
@@ -6963,13 +6960,19 @@
         <v>253</v>
       </c>
       <c r="B244" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C244" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="E244" t="s">
-        <v>659</v>
+        <v>660</v>
+      </c>
+      <c r="G244" t="s">
+        <v>890</v>
+      </c>
+      <c r="I244" t="s">
+        <v>959</v>
       </c>
     </row>
     <row r="245" spans="1:9">
@@ -6980,10 +6983,10 @@
         <v>413</v>
       </c>
       <c r="C245" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="E245" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="246" spans="1:9">
@@ -6991,13 +6994,13 @@
         <v>255</v>
       </c>
       <c r="B246" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C246" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="E246" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="247" spans="1:9">
@@ -7005,13 +7008,13 @@
         <v>256</v>
       </c>
       <c r="B247" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C247" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="E247" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="248" spans="1:9">
@@ -7019,13 +7022,13 @@
         <v>257</v>
       </c>
       <c r="B248" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C248" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="E248" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="249" spans="1:9">
@@ -7033,13 +7036,13 @@
         <v>258</v>
       </c>
       <c r="B249" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C249" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E249" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="250" spans="1:9">
@@ -7047,13 +7050,13 @@
         <v>259</v>
       </c>
       <c r="B250" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C250" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="E250" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="251" spans="1:9">
@@ -7061,13 +7064,13 @@
         <v>260</v>
       </c>
       <c r="B251" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C251" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="E251" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="252" spans="1:9">
@@ -7075,13 +7078,13 @@
         <v>261</v>
       </c>
       <c r="B252" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C252" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="E252" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="253" spans="1:9">
@@ -7089,13 +7092,13 @@
         <v>262</v>
       </c>
       <c r="B253" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C253" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="E253" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="254" spans="1:9">
@@ -7103,13 +7106,13 @@
         <v>263</v>
       </c>
       <c r="B254" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C254" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="E254" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="255" spans="1:9">
@@ -7117,13 +7120,13 @@
         <v>264</v>
       </c>
       <c r="B255" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C255" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="E255" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="256" spans="1:9">
@@ -7131,13 +7134,13 @@
         <v>265</v>
       </c>
       <c r="B256" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C256" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="E256" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -7145,13 +7148,13 @@
         <v>266</v>
       </c>
       <c r="B257" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C257" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="E257" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -7159,13 +7162,13 @@
         <v>267</v>
       </c>
       <c r="B258" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C258" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="E258" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -7173,13 +7176,13 @@
         <v>268</v>
       </c>
       <c r="B259" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C259" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="E259" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -7187,13 +7190,13 @@
         <v>269</v>
       </c>
       <c r="B260" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C260" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="E260" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -7201,13 +7204,13 @@
         <v>270</v>
       </c>
       <c r="B261" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C261" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="E261" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -7215,13 +7218,13 @@
         <v>271</v>
       </c>
       <c r="B262" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C262" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="E262" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -7229,13 +7232,13 @@
         <v>272</v>
       </c>
       <c r="B263" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C263" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="E263" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -7243,13 +7246,13 @@
         <v>273</v>
       </c>
       <c r="B264" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C264" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="E264" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -7257,13 +7260,13 @@
         <v>274</v>
       </c>
       <c r="B265" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C265" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="E265" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -7271,13 +7274,13 @@
         <v>275</v>
       </c>
       <c r="B266" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C266" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="E266" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -7285,13 +7288,13 @@
         <v>276</v>
       </c>
       <c r="B267" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C267" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="E267" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -7299,10 +7302,13 @@
         <v>277</v>
       </c>
       <c r="B268" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C268" t="s">
-        <v>683</v>
+        <v>684</v>
+      </c>
+      <c r="E268" t="s">
+        <v>684</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -7310,13 +7316,10 @@
         <v>278</v>
       </c>
       <c r="B269" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C269" t="s">
-        <v>684</v>
-      </c>
-      <c r="E269" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -7324,13 +7327,13 @@
         <v>279</v>
       </c>
       <c r="B270" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C270" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="E270" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -7338,13 +7341,13 @@
         <v>280</v>
       </c>
       <c r="B271" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C271" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="E271" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -7352,13 +7355,13 @@
         <v>281</v>
       </c>
       <c r="B272" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C272" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="E272" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -7366,13 +7369,13 @@
         <v>282</v>
       </c>
       <c r="B273" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C273" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="E273" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -7380,13 +7383,13 @@
         <v>283</v>
       </c>
       <c r="B274" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C274" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="E274" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -7394,13 +7397,13 @@
         <v>284</v>
       </c>
       <c r="B275" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C275" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="E275" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -7408,13 +7411,13 @@
         <v>285</v>
       </c>
       <c r="B276" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C276" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="E276" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -7422,13 +7425,13 @@
         <v>286</v>
       </c>
       <c r="B277" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C277" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="E277" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -7436,13 +7439,13 @@
         <v>287</v>
       </c>
       <c r="B278" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C278" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="E278" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -7450,13 +7453,13 @@
         <v>288</v>
       </c>
       <c r="B279" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C279" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="E279" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -7464,13 +7467,13 @@
         <v>289</v>
       </c>
       <c r="B280" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C280" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="E280" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -7478,13 +7481,13 @@
         <v>290</v>
       </c>
       <c r="B281" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C281" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="E281" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -7492,13 +7495,13 @@
         <v>291</v>
       </c>
       <c r="B282" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C282" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="E282" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -7506,10 +7509,13 @@
         <v>292</v>
       </c>
       <c r="B283" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C283" t="s">
-        <v>698</v>
+        <v>699</v>
+      </c>
+      <c r="E283" t="s">
+        <v>699</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -7517,13 +7523,10 @@
         <v>293</v>
       </c>
       <c r="B284" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C284" t="s">
-        <v>699</v>
-      </c>
-      <c r="E284" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -7531,13 +7534,13 @@
         <v>294</v>
       </c>
       <c r="B285" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C285" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="E285" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -7545,10 +7548,13 @@
         <v>295</v>
       </c>
       <c r="B286" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C286" t="s">
-        <v>701</v>
+        <v>702</v>
+      </c>
+      <c r="E286" t="s">
+        <v>702</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -7556,13 +7562,10 @@
         <v>296</v>
       </c>
       <c r="B287" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C287" t="s">
-        <v>702</v>
-      </c>
-      <c r="E287" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -7570,10 +7573,13 @@
         <v>297</v>
       </c>
       <c r="B288" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C288" t="s">
-        <v>703</v>
+        <v>704</v>
+      </c>
+      <c r="E288" t="s">
+        <v>704</v>
       </c>
     </row>
     <row r="289" spans="1:9">
@@ -7581,10 +7587,10 @@
         <v>298</v>
       </c>
       <c r="B289" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C289" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row r="290" spans="1:9">
@@ -7592,13 +7598,10 @@
         <v>299</v>
       </c>
       <c r="B290" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C290" t="s">
-        <v>705</v>
-      </c>
-      <c r="E290" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="291" spans="1:9">
@@ -7609,10 +7612,10 @@
         <v>414</v>
       </c>
       <c r="C291" t="s">
-        <v>706</v>
-      </c>
-      <c r="H291" t="s">
-        <v>931</v>
+        <v>707</v>
+      </c>
+      <c r="E291" t="s">
+        <v>707</v>
       </c>
     </row>
     <row r="292" spans="1:9">
@@ -7620,10 +7623,13 @@
         <v>301</v>
       </c>
       <c r="B292" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C292" t="s">
-        <v>707</v>
+        <v>708</v>
+      </c>
+      <c r="H292" t="s">
+        <v>933</v>
       </c>
     </row>
     <row r="293" spans="1:9">
@@ -7631,13 +7637,10 @@
         <v>302</v>
       </c>
       <c r="B293" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C293" t="s">
-        <v>708</v>
-      </c>
-      <c r="H293" t="s">
-        <v>932</v>
+        <v>709</v>
       </c>
     </row>
     <row r="294" spans="1:9">
@@ -7645,13 +7648,13 @@
         <v>303</v>
       </c>
       <c r="B294" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C294" t="s">
-        <v>709</v>
-      </c>
-      <c r="I294" t="s">
-        <v>955</v>
+        <v>710</v>
+      </c>
+      <c r="H294" t="s">
+        <v>934</v>
       </c>
     </row>
     <row r="295" spans="1:9">
@@ -7659,13 +7662,13 @@
         <v>304</v>
       </c>
       <c r="B295" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C295" t="s">
-        <v>710</v>
-      </c>
-      <c r="H295" t="s">
-        <v>933</v>
+        <v>711</v>
+      </c>
+      <c r="I295" t="s">
+        <v>957</v>
       </c>
     </row>
     <row r="296" spans="1:9">
@@ -7673,10 +7676,13 @@
         <v>305</v>
       </c>
       <c r="B296" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C296" t="s">
-        <v>711</v>
+        <v>712</v>
+      </c>
+      <c r="H296" t="s">
+        <v>935</v>
       </c>
     </row>
     <row r="297" spans="1:9">
@@ -7684,13 +7690,10 @@
         <v>306</v>
       </c>
       <c r="B297" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C297" t="s">
-        <v>712</v>
-      </c>
-      <c r="H297" t="s">
-        <v>934</v>
+        <v>713</v>
       </c>
     </row>
     <row r="298" spans="1:9">
@@ -7698,10 +7701,13 @@
         <v>307</v>
       </c>
       <c r="B298" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C298" t="s">
-        <v>713</v>
+        <v>714</v>
+      </c>
+      <c r="H298" t="s">
+        <v>936</v>
       </c>
     </row>
     <row r="299" spans="1:9">
@@ -7709,10 +7715,10 @@
         <v>308</v>
       </c>
       <c r="B299" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C299" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="300" spans="1:9">
@@ -7720,10 +7726,10 @@
         <v>309</v>
       </c>
       <c r="B300" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C300" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="301" spans="1:9">
@@ -7731,13 +7737,10 @@
         <v>310</v>
       </c>
       <c r="B301" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C301" t="s">
-        <v>716</v>
-      </c>
-      <c r="H301" t="s">
-        <v>935</v>
+        <v>717</v>
       </c>
     </row>
     <row r="302" spans="1:9">
@@ -7745,16 +7748,13 @@
         <v>311</v>
       </c>
       <c r="B302" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C302" t="s">
-        <v>717</v>
-      </c>
-      <c r="G302" t="s">
-        <v>889</v>
+        <v>718</v>
       </c>
       <c r="H302" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
     </row>
     <row r="303" spans="1:9">
@@ -7762,10 +7762,16 @@
         <v>312</v>
       </c>
       <c r="B303" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C303" t="s">
-        <v>718</v>
+        <v>719</v>
+      </c>
+      <c r="G303" t="s">
+        <v>891</v>
+      </c>
+      <c r="H303" t="s">
+        <v>938</v>
       </c>
     </row>
     <row r="304" spans="1:9">
@@ -7773,13 +7779,10 @@
         <v>313</v>
       </c>
       <c r="B304" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C304" t="s">
-        <v>719</v>
-      </c>
-      <c r="H304" t="s">
-        <v>937</v>
+        <v>720</v>
       </c>
     </row>
     <row r="305" spans="1:9">
@@ -7787,10 +7790,13 @@
         <v>314</v>
       </c>
       <c r="B305" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C305" t="s">
-        <v>720</v>
+        <v>721</v>
+      </c>
+      <c r="H305" t="s">
+        <v>939</v>
       </c>
     </row>
     <row r="306" spans="1:9">
@@ -7798,13 +7804,10 @@
         <v>315</v>
       </c>
       <c r="B306" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C306" t="s">
-        <v>721</v>
-      </c>
-      <c r="H306" t="s">
-        <v>938</v>
+        <v>722</v>
       </c>
     </row>
     <row r="307" spans="1:9">
@@ -7812,13 +7815,13 @@
         <v>316</v>
       </c>
       <c r="B307" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C307" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="H307" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
     </row>
     <row r="308" spans="1:9">
@@ -7826,10 +7829,13 @@
         <v>317</v>
       </c>
       <c r="B308" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C308" t="s">
-        <v>723</v>
+        <v>724</v>
+      </c>
+      <c r="H308" t="s">
+        <v>940</v>
       </c>
     </row>
     <row r="309" spans="1:9">
@@ -7837,10 +7843,10 @@
         <v>318</v>
       </c>
       <c r="B309" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C309" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
     </row>
     <row r="310" spans="1:9">
@@ -7848,10 +7854,10 @@
         <v>319</v>
       </c>
       <c r="B310" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C310" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
     </row>
     <row r="311" spans="1:9">
@@ -7859,16 +7865,10 @@
         <v>320</v>
       </c>
       <c r="B311" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C311" t="s">
-        <v>726</v>
-      </c>
-      <c r="G311" t="s">
-        <v>890</v>
-      </c>
-      <c r="I311" t="s">
-        <v>957</v>
+        <v>727</v>
       </c>
     </row>
     <row r="312" spans="1:9">
@@ -7876,13 +7876,16 @@
         <v>321</v>
       </c>
       <c r="B312" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C312" t="s">
-        <v>727</v>
-      </c>
-      <c r="E312" t="s">
-        <v>813</v>
+        <v>728</v>
+      </c>
+      <c r="G312" t="s">
+        <v>892</v>
+      </c>
+      <c r="I312" t="s">
+        <v>959</v>
       </c>
     </row>
     <row r="313" spans="1:9">
@@ -7890,10 +7893,13 @@
         <v>322</v>
       </c>
       <c r="B313" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C313" t="s">
-        <v>728</v>
+        <v>729</v>
+      </c>
+      <c r="E313" t="s">
+        <v>815</v>
       </c>
     </row>
     <row r="314" spans="1:9">
@@ -7901,19 +7907,10 @@
         <v>323</v>
       </c>
       <c r="B314" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C314" t="s">
-        <v>729</v>
-      </c>
-      <c r="E314" t="s">
-        <v>729</v>
-      </c>
-      <c r="G314" t="s">
-        <v>891</v>
-      </c>
-      <c r="I314" t="s">
-        <v>969</v>
+        <v>730</v>
       </c>
     </row>
     <row r="315" spans="1:9">
@@ -7921,13 +7918,19 @@
         <v>324</v>
       </c>
       <c r="B315" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C315" t="s">
-        <v>730</v>
+        <v>731</v>
+      </c>
+      <c r="E315" t="s">
+        <v>731</v>
       </c>
       <c r="G315" t="s">
-        <v>892</v>
+        <v>893</v>
+      </c>
+      <c r="I315" t="s">
+        <v>971</v>
       </c>
     </row>
     <row r="316" spans="1:9">
@@ -7935,10 +7938,13 @@
         <v>325</v>
       </c>
       <c r="B316" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C316" t="s">
-        <v>731</v>
+        <v>732</v>
+      </c>
+      <c r="G316" t="s">
+        <v>894</v>
       </c>
     </row>
     <row r="317" spans="1:9">
@@ -7946,10 +7952,10 @@
         <v>326</v>
       </c>
       <c r="B317" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C317" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
     </row>
     <row r="318" spans="1:9">
@@ -7957,13 +7963,10 @@
         <v>327</v>
       </c>
       <c r="B318" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C318" t="s">
-        <v>733</v>
-      </c>
-      <c r="E318" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
     </row>
     <row r="319" spans="1:9">
@@ -7971,13 +7974,13 @@
         <v>328</v>
       </c>
       <c r="B319" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C319" t="s">
-        <v>734</v>
-      </c>
-      <c r="H319" t="s">
-        <v>938</v>
+        <v>735</v>
+      </c>
+      <c r="E319" t="s">
+        <v>735</v>
       </c>
     </row>
     <row r="320" spans="1:9">
@@ -7985,10 +7988,13 @@
         <v>329</v>
       </c>
       <c r="B320" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C320" t="s">
-        <v>735</v>
+        <v>736</v>
+      </c>
+      <c r="H320" t="s">
+        <v>940</v>
       </c>
     </row>
     <row r="321" spans="1:9">
@@ -7996,10 +8002,10 @@
         <v>330</v>
       </c>
       <c r="B321" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C321" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="322" spans="1:9">
@@ -8007,10 +8013,10 @@
         <v>331</v>
       </c>
       <c r="B322" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C322" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="323" spans="1:9">
@@ -8018,13 +8024,10 @@
         <v>332</v>
       </c>
       <c r="B323" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C323" t="s">
-        <v>738</v>
-      </c>
-      <c r="E323" t="s">
-        <v>814</v>
+        <v>739</v>
       </c>
     </row>
     <row r="324" spans="1:9">
@@ -8032,10 +8035,13 @@
         <v>333</v>
       </c>
       <c r="B324" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C324" t="s">
-        <v>739</v>
+        <v>740</v>
+      </c>
+      <c r="E324" t="s">
+        <v>816</v>
       </c>
     </row>
     <row r="325" spans="1:9">
@@ -8043,10 +8049,10 @@
         <v>334</v>
       </c>
       <c r="B325" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C325" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="326" spans="1:9">
@@ -8054,13 +8060,10 @@
         <v>335</v>
       </c>
       <c r="B326" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C326" t="s">
-        <v>741</v>
-      </c>
-      <c r="I326" t="s">
-        <v>957</v>
+        <v>742</v>
       </c>
     </row>
     <row r="327" spans="1:9">
@@ -8068,13 +8071,13 @@
         <v>336</v>
       </c>
       <c r="B327" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C327" t="s">
-        <v>742</v>
-      </c>
-      <c r="E327" t="s">
-        <v>742</v>
+        <v>743</v>
+      </c>
+      <c r="I327" t="s">
+        <v>959</v>
       </c>
     </row>
     <row r="328" spans="1:9">
@@ -8082,13 +8085,13 @@
         <v>337</v>
       </c>
       <c r="B328" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C328" t="s">
-        <v>743</v>
-      </c>
-      <c r="I328" t="s">
-        <v>968</v>
+        <v>744</v>
+      </c>
+      <c r="E328" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="329" spans="1:9">
@@ -8096,10 +8099,13 @@
         <v>338</v>
       </c>
       <c r="B329" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C329" t="s">
-        <v>744</v>
+        <v>745</v>
+      </c>
+      <c r="I329" t="s">
+        <v>970</v>
       </c>
     </row>
     <row r="330" spans="1:9">
@@ -8110,16 +8116,7 @@
         <v>415</v>
       </c>
       <c r="C330" t="s">
-        <v>745</v>
-      </c>
-      <c r="E330" t="s">
-        <v>745</v>
-      </c>
-      <c r="G330" t="s">
-        <v>893</v>
-      </c>
-      <c r="I330" t="s">
-        <v>970</v>
+        <v>746</v>
       </c>
     </row>
     <row r="331" spans="1:9">
@@ -8127,19 +8124,19 @@
         <v>340</v>
       </c>
       <c r="B331" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C331" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="E331" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="G331" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="I331" t="s">
-        <v>968</v>
+        <v>972</v>
       </c>
     </row>
     <row r="332" spans="1:9">
@@ -8147,10 +8144,19 @@
         <v>341</v>
       </c>
       <c r="B332" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C332" t="s">
-        <v>747</v>
+        <v>748</v>
+      </c>
+      <c r="E332" t="s">
+        <v>748</v>
+      </c>
+      <c r="G332" t="s">
+        <v>896</v>
+      </c>
+      <c r="I332" t="s">
+        <v>970</v>
       </c>
     </row>
     <row r="333" spans="1:9">
@@ -8158,10 +8164,10 @@
         <v>342</v>
       </c>
       <c r="B333" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C333" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
     </row>
     <row r="334" spans="1:9">
@@ -8169,19 +8175,10 @@
         <v>343</v>
       </c>
       <c r="B334" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C334" t="s">
-        <v>749</v>
-      </c>
-      <c r="E334" t="s">
-        <v>749</v>
-      </c>
-      <c r="G334" t="s">
-        <v>895</v>
-      </c>
-      <c r="I334" t="s">
-        <v>956</v>
+        <v>750</v>
       </c>
     </row>
     <row r="335" spans="1:9">
@@ -8189,19 +8186,19 @@
         <v>344</v>
       </c>
       <c r="B335" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C335" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="E335" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="G335" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="I335" t="s">
-        <v>954</v>
+        <v>958</v>
       </c>
     </row>
     <row r="336" spans="1:9">
@@ -8209,10 +8206,19 @@
         <v>345</v>
       </c>
       <c r="B336" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C336" t="s">
-        <v>751</v>
+        <v>752</v>
+      </c>
+      <c r="E336" t="s">
+        <v>752</v>
+      </c>
+      <c r="G336" t="s">
+        <v>898</v>
+      </c>
+      <c r="I336" t="s">
+        <v>956</v>
       </c>
     </row>
     <row r="337" spans="1:9">
@@ -8220,19 +8226,10 @@
         <v>346</v>
       </c>
       <c r="B337" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C337" t="s">
-        <v>752</v>
-      </c>
-      <c r="E337" t="s">
-        <v>752</v>
-      </c>
-      <c r="G337" t="s">
-        <v>897</v>
-      </c>
-      <c r="I337" t="s">
-        <v>954</v>
+        <v>753</v>
       </c>
     </row>
     <row r="338" spans="1:9">
@@ -8240,16 +8237,19 @@
         <v>347</v>
       </c>
       <c r="B338" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C338" t="s">
-        <v>753</v>
+        <v>754</v>
+      </c>
+      <c r="E338" t="s">
+        <v>754</v>
       </c>
       <c r="G338" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="I338" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
     </row>
     <row r="339" spans="1:9">
@@ -8257,19 +8257,16 @@
         <v>348</v>
       </c>
       <c r="B339" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C339" t="s">
-        <v>754</v>
-      </c>
-      <c r="E339" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="G339" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="I339" t="s">
-        <v>971</v>
+        <v>956</v>
       </c>
     </row>
     <row r="340" spans="1:9">
@@ -8277,13 +8274,19 @@
         <v>349</v>
       </c>
       <c r="B340" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C340" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="E340" t="s">
-        <v>755</v>
+        <v>756</v>
+      </c>
+      <c r="G340" t="s">
+        <v>901</v>
+      </c>
+      <c r="I340" t="s">
+        <v>973</v>
       </c>
     </row>
     <row r="341" spans="1:9">
@@ -8291,13 +8294,13 @@
         <v>350</v>
       </c>
       <c r="B341" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C341" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="E341" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
     </row>
     <row r="342" spans="1:9">
@@ -8305,16 +8308,13 @@
         <v>351</v>
       </c>
       <c r="B342" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C342" t="s">
-        <v>757</v>
-      </c>
-      <c r="G342" t="s">
-        <v>900</v>
-      </c>
-      <c r="I342" t="s">
-        <v>954</v>
+        <v>758</v>
+      </c>
+      <c r="E342" t="s">
+        <v>758</v>
       </c>
     </row>
     <row r="343" spans="1:9">
@@ -8322,16 +8322,16 @@
         <v>352</v>
       </c>
       <c r="B343" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C343" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="G343" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="I343" t="s">
-        <v>972</v>
+        <v>956</v>
       </c>
     </row>
     <row r="344" spans="1:9">
@@ -8339,19 +8339,16 @@
         <v>353</v>
       </c>
       <c r="B344" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C344" t="s">
-        <v>759</v>
-      </c>
-      <c r="E344" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="G344" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="I344" t="s">
-        <v>970</v>
+        <v>974</v>
       </c>
     </row>
     <row r="345" spans="1:9">
@@ -8359,16 +8356,19 @@
         <v>354</v>
       </c>
       <c r="B345" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C345" t="s">
-        <v>760</v>
+        <v>761</v>
+      </c>
+      <c r="E345" t="s">
+        <v>761</v>
       </c>
       <c r="G345" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="I345" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
     </row>
     <row r="346" spans="1:9">
@@ -8376,16 +8376,13 @@
         <v>355</v>
       </c>
       <c r="B346" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C346" t="s">
-        <v>761</v>
-      </c>
-      <c r="E346" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="G346" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="I346" t="s">
         <v>972</v>
@@ -8396,16 +8393,19 @@
         <v>356</v>
       </c>
       <c r="B347" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C347" t="s">
-        <v>762</v>
+        <v>763</v>
+      </c>
+      <c r="E347" t="s">
+        <v>763</v>
       </c>
       <c r="G347" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="I347" t="s">
-        <v>956</v>
+        <v>974</v>
       </c>
     </row>
     <row r="348" spans="1:9">
@@ -8413,10 +8413,16 @@
         <v>357</v>
       </c>
       <c r="B348" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C348" t="s">
-        <v>763</v>
+        <v>764</v>
+      </c>
+      <c r="G348" t="s">
+        <v>907</v>
+      </c>
+      <c r="I348" t="s">
+        <v>958</v>
       </c>
     </row>
     <row r="349" spans="1:9">
@@ -8427,19 +8433,7 @@
         <v>416</v>
       </c>
       <c r="C349" t="s">
-        <v>764</v>
-      </c>
-      <c r="E349" t="s">
-        <v>764</v>
-      </c>
-      <c r="G349" t="s">
-        <v>906</v>
-      </c>
-      <c r="H349" t="s">
-        <v>939</v>
-      </c>
-      <c r="I349" t="s">
-        <v>964</v>
+        <v>765</v>
       </c>
     </row>
     <row r="350" spans="1:9">
@@ -8447,16 +8441,22 @@
         <v>359</v>
       </c>
       <c r="B350" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C350" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="E350" t="s">
-        <v>765</v>
+        <v>766</v>
+      </c>
+      <c r="G350" t="s">
+        <v>908</v>
       </c>
       <c r="H350" t="s">
-        <v>940</v>
+        <v>941</v>
+      </c>
+      <c r="I350" t="s">
+        <v>966</v>
       </c>
     </row>
     <row r="351" spans="1:9">
@@ -8464,22 +8464,16 @@
         <v>360</v>
       </c>
       <c r="B351" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C351" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="E351" t="s">
-        <v>766</v>
-      </c>
-      <c r="G351" t="s">
-        <v>907</v>
+        <v>767</v>
       </c>
       <c r="H351" t="s">
-        <v>925</v>
-      </c>
-      <c r="I351" t="s">
-        <v>955</v>
+        <v>942</v>
       </c>
     </row>
     <row r="352" spans="1:9">
@@ -8487,22 +8481,22 @@
         <v>361</v>
       </c>
       <c r="B352" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C352" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="E352" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="G352" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="H352" t="s">
-        <v>941</v>
+        <v>927</v>
       </c>
       <c r="I352" t="s">
-        <v>952</v>
+        <v>957</v>
       </c>
     </row>
     <row r="353" spans="1:9">
@@ -8510,16 +8504,22 @@
         <v>362</v>
       </c>
       <c r="B353" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C353" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="E353" t="s">
-        <v>815</v>
+        <v>769</v>
       </c>
       <c r="G353" t="s">
-        <v>909</v>
+        <v>910</v>
+      </c>
+      <c r="H353" t="s">
+        <v>943</v>
+      </c>
+      <c r="I353" t="s">
+        <v>954</v>
       </c>
     </row>
     <row r="354" spans="1:9">
@@ -8527,16 +8527,16 @@
         <v>363</v>
       </c>
       <c r="B354" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C354" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="E354" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="G354" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
     </row>
     <row r="355" spans="1:9">
@@ -8544,22 +8544,16 @@
         <v>364</v>
       </c>
       <c r="B355" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C355" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="E355" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="G355" t="s">
-        <v>911</v>
-      </c>
-      <c r="H355" t="s">
-        <v>942</v>
-      </c>
-      <c r="I355" t="s">
-        <v>973</v>
+        <v>912</v>
       </c>
     </row>
     <row r="356" spans="1:9">
@@ -8567,19 +8561,22 @@
         <v>365</v>
       </c>
       <c r="B356" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C356" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="E356" t="s">
-        <v>771</v>
+        <v>819</v>
+      </c>
+      <c r="G356" t="s">
+        <v>913</v>
       </c>
       <c r="H356" t="s">
-        <v>925</v>
+        <v>944</v>
       </c>
       <c r="I356" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="357" spans="1:9">
@@ -8587,22 +8584,19 @@
         <v>366</v>
       </c>
       <c r="B357" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C357" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="E357" t="s">
-        <v>772</v>
-      </c>
-      <c r="G357" t="s">
-        <v>912</v>
+        <v>773</v>
       </c>
       <c r="H357" t="s">
-        <v>943</v>
+        <v>927</v>
       </c>
       <c r="I357" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
     </row>
     <row r="358" spans="1:9">
@@ -8610,22 +8604,22 @@
         <v>367</v>
       </c>
       <c r="B358" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C358" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="E358" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="G358" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="H358" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="I358" t="s">
-        <v>957</v>
+        <v>977</v>
       </c>
     </row>
     <row r="359" spans="1:9">
@@ -8633,16 +8627,22 @@
         <v>368</v>
       </c>
       <c r="B359" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C359" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="E359" t="s">
-        <v>774</v>
+        <v>775</v>
+      </c>
+      <c r="G359" t="s">
+        <v>915</v>
       </c>
       <c r="H359" t="s">
-        <v>945</v>
+        <v>946</v>
+      </c>
+      <c r="I359" t="s">
+        <v>959</v>
       </c>
     </row>
     <row r="360" spans="1:9">
@@ -8650,13 +8650,16 @@
         <v>369</v>
       </c>
       <c r="B360" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C360" t="s">
-        <v>775</v>
+        <v>776</v>
+      </c>
+      <c r="E360" t="s">
+        <v>776</v>
       </c>
       <c r="H360" t="s">
-        <v>938</v>
+        <v>947</v>
       </c>
     </row>
     <row r="361" spans="1:9">
@@ -8664,13 +8667,13 @@
         <v>370</v>
       </c>
       <c r="B361" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C361" t="s">
-        <v>776</v>
-      </c>
-      <c r="E361" t="s">
-        <v>776</v>
+        <v>777</v>
+      </c>
+      <c r="H361" t="s">
+        <v>940</v>
       </c>
     </row>
     <row r="362" spans="1:9">
@@ -8678,13 +8681,13 @@
         <v>371</v>
       </c>
       <c r="B362" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C362" t="s">
-        <v>777</v>
-      </c>
-      <c r="H362" t="s">
-        <v>946</v>
+        <v>778</v>
+      </c>
+      <c r="E362" t="s">
+        <v>778</v>
       </c>
     </row>
     <row r="363" spans="1:9">
@@ -8692,13 +8695,13 @@
         <v>372</v>
       </c>
       <c r="B363" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C363" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="H363" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
     </row>
     <row r="364" spans="1:9">
@@ -8706,10 +8709,13 @@
         <v>373</v>
       </c>
       <c r="B364" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C364" t="s">
-        <v>779</v>
+        <v>780</v>
+      </c>
+      <c r="H364" t="s">
+        <v>949</v>
       </c>
     </row>
     <row r="365" spans="1:9">
@@ -8717,19 +8723,10 @@
         <v>374</v>
       </c>
       <c r="B365" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C365" t="s">
-        <v>780</v>
-      </c>
-      <c r="E365" t="s">
-        <v>780</v>
-      </c>
-      <c r="G365" t="s">
-        <v>914</v>
-      </c>
-      <c r="H365" t="s">
-        <v>948</v>
+        <v>781</v>
       </c>
     </row>
     <row r="366" spans="1:9">
@@ -8737,25 +8734,19 @@
         <v>375</v>
       </c>
       <c r="B366" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C366" t="s">
-        <v>781</v>
-      </c>
-      <c r="D366" t="s">
-        <v>805</v>
+        <v>782</v>
       </c>
       <c r="E366" t="s">
-        <v>818</v>
+        <v>782</v>
       </c>
       <c r="G366" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="H366" t="s">
-        <v>949</v>
-      </c>
-      <c r="I366" t="s">
-        <v>976</v>
+        <v>950</v>
       </c>
     </row>
     <row r="367" spans="1:9">
@@ -8763,19 +8754,25 @@
         <v>376</v>
       </c>
       <c r="B367" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C367" t="s">
-        <v>782</v>
+        <v>783</v>
+      </c>
+      <c r="D367" t="s">
+        <v>807</v>
       </c>
       <c r="E367" t="s">
-        <v>782</v>
+        <v>820</v>
       </c>
       <c r="G367" t="s">
-        <v>890</v>
+        <v>917</v>
+      </c>
+      <c r="H367" t="s">
+        <v>951</v>
       </c>
       <c r="I367" t="s">
-        <v>957</v>
+        <v>978</v>
       </c>
     </row>
     <row r="368" spans="1:9">
@@ -8783,19 +8780,19 @@
         <v>377</v>
       </c>
       <c r="B368" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C368" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="E368" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="G368" t="s">
-        <v>916</v>
+        <v>892</v>
       </c>
       <c r="I368" t="s">
-        <v>969</v>
+        <v>959</v>
       </c>
     </row>
     <row r="369" spans="1:9">
@@ -8803,16 +8800,19 @@
         <v>378</v>
       </c>
       <c r="B369" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C369" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="E369" t="s">
-        <v>784</v>
+        <v>785</v>
+      </c>
+      <c r="G369" t="s">
+        <v>918</v>
       </c>
       <c r="I369" t="s">
-        <v>951</v>
+        <v>971</v>
       </c>
     </row>
     <row r="370" spans="1:9">
@@ -8820,19 +8820,16 @@
         <v>379</v>
       </c>
       <c r="B370" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C370" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="E370" t="s">
-        <v>785</v>
-      </c>
-      <c r="G370" t="s">
-        <v>891</v>
+        <v>786</v>
       </c>
       <c r="I370" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
     </row>
     <row r="371" spans="1:9">
@@ -8840,13 +8837,19 @@
         <v>380</v>
       </c>
       <c r="B371" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C371" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="E371" t="s">
-        <v>786</v>
+        <v>787</v>
+      </c>
+      <c r="G371" t="s">
+        <v>893</v>
+      </c>
+      <c r="I371" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="372" spans="1:9">
@@ -8854,16 +8857,13 @@
         <v>381</v>
       </c>
       <c r="B372" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C372" t="s">
-        <v>787</v>
-      </c>
-      <c r="G372" t="s">
-        <v>917</v>
-      </c>
-      <c r="I372" t="s">
-        <v>952</v>
+        <v>788</v>
+      </c>
+      <c r="E372" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="373" spans="1:9">
@@ -8871,13 +8871,16 @@
         <v>382</v>
       </c>
       <c r="B373" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C373" t="s">
-        <v>788</v>
-      </c>
-      <c r="E373" t="s">
-        <v>788</v>
+        <v>789</v>
+      </c>
+      <c r="G373" t="s">
+        <v>919</v>
+      </c>
+      <c r="I373" t="s">
+        <v>954</v>
       </c>
     </row>
     <row r="374" spans="1:9">
@@ -8885,10 +8888,13 @@
         <v>383</v>
       </c>
       <c r="B374" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C374" t="s">
-        <v>789</v>
+        <v>790</v>
+      </c>
+      <c r="E374" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="375" spans="1:9">
@@ -8896,10 +8902,10 @@
         <v>384</v>
       </c>
       <c r="B375" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C375" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="376" spans="1:9">
@@ -8907,19 +8913,10 @@
         <v>385</v>
       </c>
       <c r="B376" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C376" t="s">
-        <v>791</v>
-      </c>
-      <c r="E376" t="s">
-        <v>791</v>
-      </c>
-      <c r="G376" t="s">
-        <v>918</v>
-      </c>
-      <c r="I376" t="s">
-        <v>951</v>
+        <v>792</v>
       </c>
     </row>
     <row r="377" spans="1:9">
@@ -8927,10 +8924,19 @@
         <v>386</v>
       </c>
       <c r="B377" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C377" t="s">
-        <v>792</v>
+        <v>793</v>
+      </c>
+      <c r="E377" t="s">
+        <v>793</v>
+      </c>
+      <c r="G377" t="s">
+        <v>920</v>
+      </c>
+      <c r="I377" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="378" spans="1:9">
@@ -8938,16 +8944,10 @@
         <v>387</v>
       </c>
       <c r="B378" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C378" t="s">
-        <v>793</v>
-      </c>
-      <c r="E378" t="s">
-        <v>793</v>
-      </c>
-      <c r="I378" t="s">
-        <v>957</v>
+        <v>794</v>
       </c>
     </row>
     <row r="379" spans="1:9">
@@ -8955,13 +8955,16 @@
         <v>388</v>
       </c>
       <c r="B379" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C379" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="E379" t="s">
-        <v>794</v>
+        <v>795</v>
+      </c>
+      <c r="I379" t="s">
+        <v>959</v>
       </c>
     </row>
     <row r="380" spans="1:9">
@@ -8969,19 +8972,13 @@
         <v>389</v>
       </c>
       <c r="B380" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C380" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="E380" t="s">
-        <v>795</v>
-      </c>
-      <c r="G380" t="s">
-        <v>919</v>
-      </c>
-      <c r="I380" t="s">
-        <v>964</v>
+        <v>796</v>
       </c>
     </row>
     <row r="381" spans="1:9">
@@ -8989,13 +8986,19 @@
         <v>390</v>
       </c>
       <c r="B381" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C381" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="E381" t="s">
-        <v>796</v>
+        <v>797</v>
+      </c>
+      <c r="G381" t="s">
+        <v>921</v>
+      </c>
+      <c r="I381" t="s">
+        <v>966</v>
       </c>
     </row>
     <row r="382" spans="1:9">
@@ -9003,10 +9006,13 @@
         <v>391</v>
       </c>
       <c r="B382" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C382" t="s">
-        <v>797</v>
+        <v>798</v>
+      </c>
+      <c r="E382" t="s">
+        <v>798</v>
       </c>
     </row>
     <row r="383" spans="1:9">
@@ -9014,16 +9020,10 @@
         <v>392</v>
       </c>
       <c r="B383" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C383" t="s">
-        <v>798</v>
-      </c>
-      <c r="G383" t="s">
-        <v>920</v>
-      </c>
-      <c r="I383" t="s">
-        <v>964</v>
+        <v>799</v>
       </c>
     </row>
     <row r="384" spans="1:9">
@@ -9031,13 +9031,16 @@
         <v>393</v>
       </c>
       <c r="B384" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C384" t="s">
-        <v>799</v>
+        <v>800</v>
+      </c>
+      <c r="G384" t="s">
+        <v>922</v>
       </c>
       <c r="I384" t="s">
-        <v>957</v>
+        <v>966</v>
       </c>
     </row>
     <row r="385" spans="1:9">
@@ -9045,22 +9048,13 @@
         <v>394</v>
       </c>
       <c r="B385" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C385" t="s">
-        <v>800</v>
-      </c>
-      <c r="E385" t="s">
-        <v>819</v>
-      </c>
-      <c r="G385" t="s">
-        <v>921</v>
-      </c>
-      <c r="H385" t="s">
-        <v>950</v>
+        <v>801</v>
       </c>
       <c r="I385" t="s">
-        <v>955</v>
+        <v>959</v>
       </c>
     </row>
     <row r="386" spans="1:9">
@@ -9068,10 +9062,22 @@
         <v>395</v>
       </c>
       <c r="B386" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C386" t="s">
-        <v>801</v>
+        <v>802</v>
+      </c>
+      <c r="E386" t="s">
+        <v>821</v>
+      </c>
+      <c r="G386" t="s">
+        <v>923</v>
+      </c>
+      <c r="H386" t="s">
+        <v>952</v>
+      </c>
+      <c r="I386" t="s">
+        <v>957</v>
       </c>
     </row>
     <row r="387" spans="1:9">
@@ -9079,10 +9085,10 @@
         <v>396</v>
       </c>
       <c r="B387" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C387" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
     </row>
     <row r="388" spans="1:9">
@@ -9090,10 +9096,10 @@
         <v>397</v>
       </c>
       <c r="B388" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C388" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="389" spans="1:9">
@@ -9101,10 +9107,21 @@
         <v>398</v>
       </c>
       <c r="B389" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C389" t="s">
-        <v>804</v>
+        <v>805</v>
+      </c>
+    </row>
+    <row r="390" spans="1:9">
+      <c r="A390" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B390" t="s">
+        <v>417</v>
+      </c>
+      <c r="C390" t="s">
+        <v>806</v>
       </c>
     </row>
   </sheetData>

--- a/all_course.xlsx
+++ b/all_course.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1716" uniqueCount="1009">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1800" uniqueCount="1065">
   <si>
     <t>category</t>
   </si>
@@ -412,6 +412,9 @@
     <t>33acc1dd</t>
   </si>
   <si>
+    <t>892d3664</t>
+  </si>
+  <si>
     <t>fdf582cf</t>
   </si>
   <si>
@@ -646,6 +649,21 @@
     <t>614ba9fa</t>
   </si>
   <si>
+    <t>5973bc42</t>
+  </si>
+  <si>
+    <t>7e54eaf6</t>
+  </si>
+  <si>
+    <t>4bf8ac41</t>
+  </si>
+  <si>
+    <t>949e1bca</t>
+  </si>
+  <si>
+    <t>fedca1d2</t>
+  </si>
+  <si>
     <t>7201d283</t>
   </si>
   <si>
@@ -895,6 +913,9 @@
     <t>958662cf</t>
   </si>
   <si>
+    <t>90aab2e4</t>
+  </si>
+  <si>
     <t>9cbac40d</t>
   </si>
   <si>
@@ -946,6 +967,69 @@
     <t>a1646d3f</t>
   </si>
   <si>
+    <t>f413610e</t>
+  </si>
+  <si>
+    <t>57cd8607</t>
+  </si>
+  <si>
+    <t>999e5fc0</t>
+  </si>
+  <si>
+    <t>046038ca</t>
+  </si>
+  <si>
+    <t>8498c56b</t>
+  </si>
+  <si>
+    <t>6afdec3e</t>
+  </si>
+  <si>
+    <t>e910736d</t>
+  </si>
+  <si>
+    <t>ffa2a41e</t>
+  </si>
+  <si>
+    <t>e96cb8cc</t>
+  </si>
+  <si>
+    <t>6f566085</t>
+  </si>
+  <si>
+    <t>b4114618</t>
+  </si>
+  <si>
+    <t>226e6175</t>
+  </si>
+  <si>
+    <t>df8470ef</t>
+  </si>
+  <si>
+    <t>59a6ecca</t>
+  </si>
+  <si>
+    <t>79a3478f</t>
+  </si>
+  <si>
+    <t>89da441b</t>
+  </si>
+  <si>
+    <t>7be360d9</t>
+  </si>
+  <si>
+    <t>5a978589</t>
+  </si>
+  <si>
+    <t>bc284443</t>
+  </si>
+  <si>
+    <t>10baf0ea</t>
+  </si>
+  <si>
+    <t>ab8224a2</t>
+  </si>
+  <si>
     <t>d2c76900</t>
   </si>
   <si>
@@ -1675,6 +1759,9 @@
     <t>47 富可敌国的奥秘</t>
   </si>
   <si>
+    <t>48 觉性的大地</t>
+  </si>
+  <si>
     <t>三十忠告论</t>
   </si>
   <si>
@@ -1909,6 +1996,21 @@
     <t>15 聚焦人工智能与人类幸福-第七届世界青年佛学研讨会座谈</t>
   </si>
   <si>
+    <t>16 藏传佛教的艺术与教育-索达吉堪布对话芝加哥西北大学师生</t>
+  </si>
+  <si>
+    <t>17 为和平-索达吉堪布对话格拉萨斯主教</t>
+  </si>
+  <si>
+    <t>18 学术研究与修行体悟的关系-索达吉堪布对话希伯来大学学者</t>
+  </si>
+  <si>
+    <t>19 心域无疆-索达吉堪布对话伊丹•赛杰夫教授</t>
+  </si>
+  <si>
+    <t>20 这是最坏的时代，这是最好的时代-索达吉堪布对话申昌镐教授</t>
+  </si>
+  <si>
     <t>三过患</t>
   </si>
   <si>
@@ -2158,6 +2260,9 @@
     <t>29 法国 格勒诺布尔CFCF中法企业交流协会-宗教和谐与世界和平</t>
   </si>
   <si>
+    <t>30 法国 格勒诺布尔旅游局-藏传佛教的基本教义和现代生活</t>
+  </si>
+  <si>
     <t>31 法国 格勒诺布尔公开演讲-寻找生命的皈依处</t>
   </si>
   <si>
@@ -2207,6 +2312,69 @@
   </si>
   <si>
     <t>47 挪威 奥斯陆公开演讲-现代生活中的科学和灵修</t>
+  </si>
+  <si>
+    <t>48 美国 芝加哥BSA公开演讲-皈依的学处</t>
+  </si>
+  <si>
+    <t>49 美国 纽约公开演讲-你在忙什么</t>
+  </si>
+  <si>
+    <t>50 瑞典 斯德哥尔摩BSA公开演讲-菩提心的力量</t>
+  </si>
+  <si>
+    <t>51 瑞典 斯德哥尔摩公开演讲-心经：超凡的喜悦</t>
+  </si>
+  <si>
+    <t>52 挪威 奥斯陆噶玛扎西持林佛教中心-上师摄受愿文</t>
+  </si>
+  <si>
+    <t>53 挪威 奥斯陆噶玛扎西持林佛教中心-四臂观音的修法</t>
+  </si>
+  <si>
+    <t>54 挪威 奥斯陆BSA公开演讲-媒体和科技时代的正念</t>
+  </si>
+  <si>
+    <t>55 瑞士 苏黎世公开演讲-四圣谛</t>
+  </si>
+  <si>
+    <t>56 美国 纽约觉囊佛教中心-观察心性</t>
+  </si>
+  <si>
+    <t>57 瑞典 库姆拉监狱-佛教的自由观</t>
+  </si>
+  <si>
+    <t>58 美国 波士顿噶举佛教中心-佛教精要的修法</t>
+  </si>
+  <si>
+    <t>59 瑞士 苏黎世公开演讲-皈依和发菩提心</t>
+  </si>
+  <si>
+    <t>60 瑞士 宁玛佛教中心-上师瑜伽和修行的关键窍诀</t>
+  </si>
+  <si>
+    <t>61 瑞士 苏黎世公开演讲-如何保存藏文文化和精神</t>
+  </si>
+  <si>
+    <t>62 非洲 斯威士兰ACC阿弥陀佛关怀中心-在苦难中成长</t>
+  </si>
+  <si>
+    <t>63 非洲 马拉维ACC阿弥陀佛关怀中心-在苦难中成长</t>
+  </si>
+  <si>
+    <t>64 非洲 斯威士兰ACC阿弥陀佛关怀中心-在爱中呼吸</t>
+  </si>
+  <si>
+    <t>65 上海 商米科技集团-智能科技与利他心</t>
+  </si>
+  <si>
+    <t>66 上海 整合医学研究院-冥想与健康</t>
+  </si>
+  <si>
+    <t>67 非洲 马拉维监狱-你的未来你做主</t>
+  </si>
+  <si>
+    <t>68 非洲 马拉维监狱-心若向阳 无畏悲伤</t>
   </si>
   <si>
     <t>三主要道论</t>
@@ -3398,7 +3566,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K404"/>
+  <dimension ref="A1:K432"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -3449,10 +3617,10 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>414</v>
+        <v>442</v>
       </c>
       <c r="C2" t="s">
-        <v>432</v>
+        <v>460</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -3460,19 +3628,19 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>414</v>
+        <v>442</v>
       </c>
       <c r="C3" t="s">
-        <v>433</v>
+        <v>461</v>
       </c>
       <c r="E3" t="s">
-        <v>433</v>
+        <v>461</v>
       </c>
       <c r="G3" t="s">
-        <v>850</v>
+        <v>906</v>
       </c>
       <c r="I3" t="s">
-        <v>981</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -3480,13 +3648,13 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>414</v>
+        <v>442</v>
       </c>
       <c r="C4" t="s">
-        <v>434</v>
+        <v>462</v>
       </c>
       <c r="E4" t="s">
-        <v>434</v>
+        <v>462</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -3494,13 +3662,13 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>414</v>
+        <v>442</v>
       </c>
       <c r="C5" t="s">
-        <v>435</v>
+        <v>463</v>
       </c>
       <c r="G5" t="s">
-        <v>851</v>
+        <v>907</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -3508,16 +3676,16 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>414</v>
+        <v>442</v>
       </c>
       <c r="C6" t="s">
-        <v>436</v>
+        <v>464</v>
       </c>
       <c r="E6" t="s">
-        <v>436</v>
+        <v>464</v>
       </c>
       <c r="G6" t="s">
-        <v>852</v>
+        <v>908</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -3525,16 +3693,16 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>414</v>
+        <v>442</v>
       </c>
       <c r="C7" t="s">
-        <v>437</v>
+        <v>465</v>
       </c>
       <c r="E7" t="s">
-        <v>437</v>
+        <v>465</v>
       </c>
       <c r="J7" t="s">
-        <v>1007</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -3542,10 +3710,10 @@
         <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>414</v>
+        <v>442</v>
       </c>
       <c r="C8" t="s">
-        <v>438</v>
+        <v>466</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -3553,13 +3721,13 @@
         <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>414</v>
+        <v>442</v>
       </c>
       <c r="C9" t="s">
-        <v>439</v>
+        <v>467</v>
       </c>
       <c r="E9" t="s">
-        <v>836</v>
+        <v>892</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -3567,19 +3735,19 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>414</v>
+        <v>442</v>
       </c>
       <c r="C10" t="s">
-        <v>440</v>
+        <v>468</v>
       </c>
       <c r="E10" t="s">
-        <v>837</v>
+        <v>893</v>
       </c>
       <c r="G10" t="s">
-        <v>853</v>
+        <v>909</v>
       </c>
       <c r="J10" t="s">
-        <v>1007</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -3587,13 +3755,13 @@
         <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>414</v>
+        <v>442</v>
       </c>
       <c r="C11" t="s">
-        <v>441</v>
+        <v>469</v>
       </c>
       <c r="H11" t="s">
-        <v>952</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -3601,10 +3769,10 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>414</v>
+        <v>442</v>
       </c>
       <c r="C12" t="s">
-        <v>442</v>
+        <v>470</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -3612,13 +3780,13 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>415</v>
+        <v>443</v>
       </c>
       <c r="C13" t="s">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="H13" t="s">
-        <v>953</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -3626,10 +3794,10 @@
         <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>415</v>
+        <v>443</v>
       </c>
       <c r="C14" t="s">
-        <v>444</v>
+        <v>472</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -3637,13 +3805,13 @@
         <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>415</v>
+        <v>443</v>
       </c>
       <c r="C15" t="s">
-        <v>445</v>
+        <v>473</v>
       </c>
       <c r="E15" t="s">
-        <v>445</v>
+        <v>473</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -3651,19 +3819,19 @@
         <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>415</v>
+        <v>443</v>
       </c>
       <c r="C16" t="s">
-        <v>446</v>
+        <v>474</v>
       </c>
       <c r="E16" t="s">
-        <v>446</v>
+        <v>474</v>
       </c>
       <c r="G16" t="s">
-        <v>854</v>
+        <v>910</v>
       </c>
       <c r="I16" t="s">
-        <v>982</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -3671,13 +3839,13 @@
         <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>415</v>
+        <v>443</v>
       </c>
       <c r="C17" t="s">
-        <v>447</v>
+        <v>475</v>
       </c>
       <c r="E17" t="s">
-        <v>447</v>
+        <v>475</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -3685,19 +3853,19 @@
         <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>415</v>
+        <v>443</v>
       </c>
       <c r="C18" t="s">
-        <v>448</v>
+        <v>476</v>
       </c>
       <c r="E18" t="s">
-        <v>448</v>
+        <v>476</v>
       </c>
       <c r="G18" t="s">
-        <v>855</v>
+        <v>911</v>
       </c>
       <c r="I18" t="s">
-        <v>981</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -3705,16 +3873,16 @@
         <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>415</v>
+        <v>443</v>
       </c>
       <c r="C19" t="s">
-        <v>449</v>
+        <v>477</v>
       </c>
       <c r="E19" t="s">
-        <v>449</v>
+        <v>477</v>
       </c>
       <c r="J19" t="s">
-        <v>1008</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -3722,13 +3890,13 @@
         <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>415</v>
+        <v>443</v>
       </c>
       <c r="C20" t="s">
-        <v>450</v>
+        <v>478</v>
       </c>
       <c r="E20" t="s">
-        <v>450</v>
+        <v>478</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -3736,10 +3904,10 @@
         <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>415</v>
+        <v>443</v>
       </c>
       <c r="C21" t="s">
-        <v>451</v>
+        <v>479</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -3747,16 +3915,16 @@
         <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>416</v>
+        <v>444</v>
       </c>
       <c r="C22" t="s">
-        <v>452</v>
+        <v>480</v>
       </c>
       <c r="E22" t="s">
-        <v>452</v>
+        <v>480</v>
       </c>
       <c r="G22" t="s">
-        <v>856</v>
+        <v>912</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -3764,10 +3932,10 @@
         <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>416</v>
+        <v>444</v>
       </c>
       <c r="C23" t="s">
-        <v>453</v>
+        <v>481</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -3775,10 +3943,10 @@
         <v>33</v>
       </c>
       <c r="B24" t="s">
-        <v>416</v>
+        <v>444</v>
       </c>
       <c r="C24" t="s">
-        <v>454</v>
+        <v>482</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -3786,10 +3954,10 @@
         <v>34</v>
       </c>
       <c r="B25" t="s">
-        <v>416</v>
+        <v>444</v>
       </c>
       <c r="C25" t="s">
-        <v>455</v>
+        <v>483</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -3797,10 +3965,10 @@
         <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>416</v>
+        <v>444</v>
       </c>
       <c r="C26" t="s">
-        <v>456</v>
+        <v>484</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -3808,10 +3976,10 @@
         <v>36</v>
       </c>
       <c r="B27" t="s">
-        <v>416</v>
+        <v>444</v>
       </c>
       <c r="C27" t="s">
-        <v>457</v>
+        <v>485</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -3819,10 +3987,10 @@
         <v>37</v>
       </c>
       <c r="B28" t="s">
-        <v>416</v>
+        <v>444</v>
       </c>
       <c r="C28" t="s">
-        <v>458</v>
+        <v>486</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -3830,10 +3998,10 @@
         <v>38</v>
       </c>
       <c r="B29" t="s">
-        <v>416</v>
+        <v>444</v>
       </c>
       <c r="C29" t="s">
-        <v>459</v>
+        <v>487</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -3841,10 +4009,10 @@
         <v>39</v>
       </c>
       <c r="B30" t="s">
-        <v>416</v>
+        <v>444</v>
       </c>
       <c r="C30" t="s">
-        <v>460</v>
+        <v>488</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -3852,10 +4020,10 @@
         <v>40</v>
       </c>
       <c r="B31" t="s">
-        <v>416</v>
+        <v>444</v>
       </c>
       <c r="C31" t="s">
-        <v>461</v>
+        <v>489</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -3863,10 +4031,10 @@
         <v>41</v>
       </c>
       <c r="B32" t="s">
-        <v>416</v>
+        <v>444</v>
       </c>
       <c r="C32" t="s">
-        <v>462</v>
+        <v>490</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -3874,22 +4042,22 @@
         <v>42</v>
       </c>
       <c r="B33" t="s">
-        <v>416</v>
+        <v>444</v>
       </c>
       <c r="C33" t="s">
-        <v>463</v>
+        <v>491</v>
       </c>
       <c r="E33" t="s">
-        <v>463</v>
+        <v>491</v>
       </c>
       <c r="G33" t="s">
-        <v>857</v>
+        <v>913</v>
       </c>
       <c r="I33" t="s">
-        <v>983</v>
+        <v>1039</v>
       </c>
       <c r="J33" t="s">
-        <v>1008</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -3897,16 +4065,16 @@
         <v>43</v>
       </c>
       <c r="B34" t="s">
-        <v>416</v>
+        <v>444</v>
       </c>
       <c r="C34" t="s">
-        <v>464</v>
+        <v>492</v>
       </c>
       <c r="G34" t="s">
-        <v>858</v>
+        <v>914</v>
       </c>
       <c r="I34" t="s">
-        <v>984</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -3914,10 +4082,10 @@
         <v>44</v>
       </c>
       <c r="B35" t="s">
-        <v>416</v>
+        <v>444</v>
       </c>
       <c r="C35" t="s">
-        <v>465</v>
+        <v>493</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -3925,10 +4093,10 @@
         <v>45</v>
       </c>
       <c r="B36" t="s">
-        <v>416</v>
+        <v>444</v>
       </c>
       <c r="C36" t="s">
-        <v>466</v>
+        <v>494</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -3936,10 +4104,10 @@
         <v>46</v>
       </c>
       <c r="B37" t="s">
-        <v>416</v>
+        <v>444</v>
       </c>
       <c r="C37" t="s">
-        <v>467</v>
+        <v>495</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -3947,10 +4115,10 @@
         <v>47</v>
       </c>
       <c r="B38" t="s">
-        <v>416</v>
+        <v>444</v>
       </c>
       <c r="C38" t="s">
-        <v>468</v>
+        <v>496</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -3958,10 +4126,10 @@
         <v>48</v>
       </c>
       <c r="B39" t="s">
-        <v>416</v>
+        <v>444</v>
       </c>
       <c r="C39" t="s">
-        <v>469</v>
+        <v>497</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -3969,10 +4137,10 @@
         <v>49</v>
       </c>
       <c r="B40" t="s">
-        <v>416</v>
+        <v>444</v>
       </c>
       <c r="C40" t="s">
-        <v>470</v>
+        <v>498</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -3980,19 +4148,19 @@
         <v>50</v>
       </c>
       <c r="B41" t="s">
-        <v>416</v>
+        <v>444</v>
       </c>
       <c r="C41" t="s">
-        <v>471</v>
+        <v>499</v>
       </c>
       <c r="E41" t="s">
-        <v>471</v>
+        <v>499</v>
       </c>
       <c r="G41" t="s">
-        <v>859</v>
+        <v>915</v>
       </c>
       <c r="I41" t="s">
-        <v>983</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -4000,10 +4168,10 @@
         <v>51</v>
       </c>
       <c r="B42" t="s">
-        <v>416</v>
+        <v>444</v>
       </c>
       <c r="C42" t="s">
-        <v>472</v>
+        <v>500</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -4011,10 +4179,10 @@
         <v>52</v>
       </c>
       <c r="B43" t="s">
-        <v>416</v>
+        <v>444</v>
       </c>
       <c r="C43" t="s">
-        <v>473</v>
+        <v>501</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -4022,13 +4190,13 @@
         <v>53</v>
       </c>
       <c r="B44" t="s">
-        <v>416</v>
+        <v>444</v>
       </c>
       <c r="C44" t="s">
-        <v>474</v>
+        <v>502</v>
       </c>
       <c r="J44" t="s">
-        <v>1008</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -4036,10 +4204,10 @@
         <v>54</v>
       </c>
       <c r="B45" t="s">
-        <v>416</v>
+        <v>444</v>
       </c>
       <c r="C45" t="s">
-        <v>475</v>
+        <v>503</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -4047,19 +4215,19 @@
         <v>55</v>
       </c>
       <c r="B46" t="s">
-        <v>416</v>
+        <v>444</v>
       </c>
       <c r="C46" t="s">
-        <v>476</v>
+        <v>504</v>
       </c>
       <c r="E46" t="s">
-        <v>476</v>
+        <v>504</v>
       </c>
       <c r="G46" t="s">
-        <v>860</v>
+        <v>916</v>
       </c>
       <c r="I46" t="s">
-        <v>983</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -4067,13 +4235,13 @@
         <v>56</v>
       </c>
       <c r="B47" t="s">
-        <v>417</v>
+        <v>445</v>
       </c>
       <c r="C47" t="s">
-        <v>477</v>
+        <v>505</v>
       </c>
       <c r="E47" t="s">
-        <v>838</v>
+        <v>894</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -4081,16 +4249,16 @@
         <v>57</v>
       </c>
       <c r="B48" t="s">
-        <v>417</v>
+        <v>445</v>
       </c>
       <c r="C48" t="s">
-        <v>478</v>
+        <v>506</v>
       </c>
       <c r="E48" t="s">
-        <v>478</v>
+        <v>506</v>
       </c>
       <c r="H48" t="s">
-        <v>954</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -4098,19 +4266,19 @@
         <v>58</v>
       </c>
       <c r="B49" t="s">
-        <v>417</v>
+        <v>445</v>
       </c>
       <c r="C49" t="s">
-        <v>479</v>
+        <v>507</v>
       </c>
       <c r="E49" t="s">
-        <v>479</v>
+        <v>507</v>
       </c>
       <c r="H49" t="s">
-        <v>955</v>
+        <v>1011</v>
       </c>
       <c r="I49" t="s">
-        <v>985</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -4118,16 +4286,16 @@
         <v>59</v>
       </c>
       <c r="B50" t="s">
-        <v>417</v>
+        <v>445</v>
       </c>
       <c r="C50" t="s">
-        <v>480</v>
+        <v>508</v>
       </c>
       <c r="E50" t="s">
-        <v>480</v>
+        <v>508</v>
       </c>
       <c r="H50" t="s">
-        <v>955</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -4135,13 +4303,13 @@
         <v>60</v>
       </c>
       <c r="B51" t="s">
-        <v>417</v>
+        <v>445</v>
       </c>
       <c r="C51" t="s">
-        <v>481</v>
+        <v>509</v>
       </c>
       <c r="E51" t="s">
-        <v>481</v>
+        <v>509</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -4149,10 +4317,10 @@
         <v>61</v>
       </c>
       <c r="B52" t="s">
-        <v>417</v>
+        <v>445</v>
       </c>
       <c r="C52" t="s">
-        <v>482</v>
+        <v>510</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -4160,10 +4328,10 @@
         <v>62</v>
       </c>
       <c r="B53" t="s">
-        <v>417</v>
+        <v>445</v>
       </c>
       <c r="C53" t="s">
-        <v>483</v>
+        <v>511</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -4171,10 +4339,10 @@
         <v>63</v>
       </c>
       <c r="B54" t="s">
-        <v>417</v>
+        <v>445</v>
       </c>
       <c r="C54" t="s">
-        <v>484</v>
+        <v>512</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -4182,13 +4350,13 @@
         <v>64</v>
       </c>
       <c r="B55" t="s">
-        <v>417</v>
+        <v>445</v>
       </c>
       <c r="C55" t="s">
-        <v>485</v>
+        <v>513</v>
       </c>
       <c r="E55" t="s">
-        <v>485</v>
+        <v>513</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -4196,22 +4364,22 @@
         <v>65</v>
       </c>
       <c r="B56" t="s">
-        <v>417</v>
+        <v>445</v>
       </c>
       <c r="C56" t="s">
-        <v>486</v>
+        <v>514</v>
       </c>
       <c r="E56" t="s">
-        <v>486</v>
+        <v>514</v>
       </c>
       <c r="G56" t="s">
-        <v>861</v>
+        <v>917</v>
       </c>
       <c r="H56" t="s">
-        <v>955</v>
+        <v>1011</v>
       </c>
       <c r="I56" t="s">
-        <v>986</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -4219,13 +4387,13 @@
         <v>66</v>
       </c>
       <c r="B57" t="s">
-        <v>417</v>
+        <v>445</v>
       </c>
       <c r="C57" t="s">
-        <v>487</v>
+        <v>515</v>
       </c>
       <c r="H57" t="s">
-        <v>955</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -4233,16 +4401,16 @@
         <v>67</v>
       </c>
       <c r="B58" t="s">
-        <v>417</v>
+        <v>445</v>
       </c>
       <c r="C58" t="s">
-        <v>488</v>
+        <v>516</v>
       </c>
       <c r="E58" t="s">
-        <v>488</v>
+        <v>516</v>
       </c>
       <c r="H58" t="s">
-        <v>955</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -4250,22 +4418,22 @@
         <v>68</v>
       </c>
       <c r="B59" t="s">
-        <v>417</v>
+        <v>445</v>
       </c>
       <c r="C59" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="E59" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="G59" t="s">
-        <v>862</v>
+        <v>918</v>
       </c>
       <c r="H59" t="s">
-        <v>955</v>
+        <v>1011</v>
       </c>
       <c r="I59" t="s">
-        <v>987</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -4273,19 +4441,19 @@
         <v>69</v>
       </c>
       <c r="B60" t="s">
-        <v>417</v>
+        <v>445</v>
       </c>
       <c r="C60" t="s">
-        <v>490</v>
+        <v>518</v>
       </c>
       <c r="E60" t="s">
-        <v>490</v>
+        <v>518</v>
       </c>
       <c r="H60" t="s">
-        <v>955</v>
+        <v>1011</v>
       </c>
       <c r="I60" t="s">
-        <v>988</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -4293,19 +4461,19 @@
         <v>70</v>
       </c>
       <c r="B61" t="s">
-        <v>417</v>
+        <v>445</v>
       </c>
       <c r="C61" t="s">
-        <v>491</v>
+        <v>519</v>
       </c>
       <c r="E61" t="s">
-        <v>839</v>
+        <v>895</v>
       </c>
       <c r="H61" t="s">
-        <v>955</v>
+        <v>1011</v>
       </c>
       <c r="I61" t="s">
-        <v>989</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -4313,10 +4481,10 @@
         <v>71</v>
       </c>
       <c r="B62" t="s">
-        <v>418</v>
+        <v>446</v>
       </c>
       <c r="C62" t="s">
-        <v>492</v>
+        <v>520</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -4324,16 +4492,16 @@
         <v>72</v>
       </c>
       <c r="B63" t="s">
-        <v>418</v>
+        <v>446</v>
       </c>
       <c r="C63" t="s">
-        <v>493</v>
+        <v>521</v>
       </c>
       <c r="E63" t="s">
-        <v>493</v>
+        <v>521</v>
       </c>
       <c r="I63" t="s">
-        <v>990</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -4341,16 +4509,16 @@
         <v>73</v>
       </c>
       <c r="B64" t="s">
-        <v>418</v>
+        <v>446</v>
       </c>
       <c r="C64" t="s">
-        <v>494</v>
+        <v>522</v>
       </c>
       <c r="E64" t="s">
-        <v>494</v>
+        <v>522</v>
       </c>
       <c r="I64" t="s">
-        <v>981</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -4358,16 +4526,16 @@
         <v>74</v>
       </c>
       <c r="B65" t="s">
-        <v>418</v>
+        <v>446</v>
       </c>
       <c r="C65" t="s">
-        <v>495</v>
+        <v>523</v>
       </c>
       <c r="E65" t="s">
-        <v>495</v>
+        <v>523</v>
       </c>
       <c r="G65" t="s">
-        <v>863</v>
+        <v>919</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -4375,19 +4543,19 @@
         <v>75</v>
       </c>
       <c r="B66" t="s">
-        <v>418</v>
+        <v>446</v>
       </c>
       <c r="C66" t="s">
-        <v>496</v>
+        <v>524</v>
       </c>
       <c r="E66" t="s">
-        <v>496</v>
+        <v>524</v>
       </c>
       <c r="G66" t="s">
-        <v>864</v>
+        <v>920</v>
       </c>
       <c r="I66" t="s">
-        <v>981</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -4395,13 +4563,13 @@
         <v>76</v>
       </c>
       <c r="B67" t="s">
-        <v>419</v>
+        <v>447</v>
       </c>
       <c r="C67" t="s">
-        <v>497</v>
+        <v>525</v>
       </c>
       <c r="I67" t="s">
-        <v>991</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -4409,13 +4577,13 @@
         <v>77</v>
       </c>
       <c r="B68" t="s">
-        <v>419</v>
+        <v>447</v>
       </c>
       <c r="C68" t="s">
-        <v>498</v>
+        <v>526</v>
       </c>
       <c r="E68" t="s">
-        <v>498</v>
+        <v>526</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -4423,13 +4591,13 @@
         <v>78</v>
       </c>
       <c r="B69" t="s">
-        <v>419</v>
+        <v>447</v>
       </c>
       <c r="C69" t="s">
-        <v>499</v>
+        <v>527</v>
       </c>
       <c r="I69" t="s">
-        <v>991</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -4437,19 +4605,19 @@
         <v>79</v>
       </c>
       <c r="B70" t="s">
-        <v>419</v>
+        <v>447</v>
       </c>
       <c r="C70" t="s">
-        <v>500</v>
+        <v>528</v>
       </c>
       <c r="E70" t="s">
-        <v>500</v>
+        <v>528</v>
       </c>
       <c r="G70" t="s">
-        <v>865</v>
+        <v>921</v>
       </c>
       <c r="I70" t="s">
-        <v>992</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -4457,16 +4625,16 @@
         <v>80</v>
       </c>
       <c r="B71" t="s">
-        <v>419</v>
+        <v>447</v>
       </c>
       <c r="C71" t="s">
-        <v>501</v>
+        <v>529</v>
       </c>
       <c r="E71" t="s">
-        <v>501</v>
+        <v>529</v>
       </c>
       <c r="I71" t="s">
-        <v>985</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -4474,19 +4642,19 @@
         <v>81</v>
       </c>
       <c r="B72" t="s">
-        <v>419</v>
+        <v>447</v>
       </c>
       <c r="C72" t="s">
-        <v>502</v>
+        <v>530</v>
       </c>
       <c r="E72" t="s">
-        <v>502</v>
+        <v>530</v>
       </c>
       <c r="G72" t="s">
-        <v>866</v>
+        <v>922</v>
       </c>
       <c r="I72" t="s">
-        <v>987</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -4494,16 +4662,16 @@
         <v>82</v>
       </c>
       <c r="B73" t="s">
-        <v>419</v>
+        <v>447</v>
       </c>
       <c r="C73" t="s">
-        <v>503</v>
+        <v>531</v>
       </c>
       <c r="G73" t="s">
-        <v>867</v>
+        <v>923</v>
       </c>
       <c r="I73" t="s">
-        <v>991</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -4511,13 +4679,13 @@
         <v>83</v>
       </c>
       <c r="B74" t="s">
-        <v>419</v>
+        <v>447</v>
       </c>
       <c r="C74" t="s">
-        <v>504</v>
+        <v>532</v>
       </c>
       <c r="E74" t="s">
-        <v>504</v>
+        <v>532</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -4525,19 +4693,19 @@
         <v>84</v>
       </c>
       <c r="B75" t="s">
-        <v>419</v>
+        <v>447</v>
       </c>
       <c r="C75" t="s">
-        <v>505</v>
+        <v>533</v>
       </c>
       <c r="E75" t="s">
-        <v>505</v>
+        <v>533</v>
       </c>
       <c r="G75" t="s">
-        <v>867</v>
+        <v>923</v>
       </c>
       <c r="I75" t="s">
-        <v>985</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -4545,19 +4713,19 @@
         <v>85</v>
       </c>
       <c r="B76" t="s">
-        <v>420</v>
+        <v>448</v>
       </c>
       <c r="C76" t="s">
-        <v>506</v>
+        <v>534</v>
       </c>
       <c r="E76" t="s">
-        <v>506</v>
+        <v>534</v>
       </c>
       <c r="G76" t="s">
-        <v>868</v>
+        <v>924</v>
       </c>
       <c r="H76" t="s">
-        <v>956</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -4565,19 +4733,19 @@
         <v>86</v>
       </c>
       <c r="B77" t="s">
-        <v>420</v>
+        <v>448</v>
       </c>
       <c r="C77" t="s">
-        <v>507</v>
+        <v>535</v>
       </c>
       <c r="E77" t="s">
-        <v>507</v>
+        <v>535</v>
       </c>
       <c r="G77" t="s">
-        <v>869</v>
+        <v>925</v>
       </c>
       <c r="H77" t="s">
-        <v>956</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -4585,19 +4753,19 @@
         <v>87</v>
       </c>
       <c r="B78" t="s">
-        <v>420</v>
+        <v>448</v>
       </c>
       <c r="C78" t="s">
-        <v>508</v>
+        <v>536</v>
       </c>
       <c r="E78" t="s">
-        <v>508</v>
+        <v>536</v>
       </c>
       <c r="G78" t="s">
-        <v>870</v>
+        <v>926</v>
       </c>
       <c r="H78" t="s">
-        <v>956</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -4605,19 +4773,19 @@
         <v>88</v>
       </c>
       <c r="B79" t="s">
-        <v>420</v>
+        <v>448</v>
       </c>
       <c r="C79" t="s">
-        <v>509</v>
+        <v>537</v>
       </c>
       <c r="E79" t="s">
-        <v>509</v>
+        <v>537</v>
       </c>
       <c r="G79" t="s">
-        <v>871</v>
+        <v>927</v>
       </c>
       <c r="H79" t="s">
-        <v>956</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -4625,19 +4793,19 @@
         <v>89</v>
       </c>
       <c r="B80" t="s">
-        <v>420</v>
+        <v>448</v>
       </c>
       <c r="C80" t="s">
-        <v>510</v>
+        <v>538</v>
       </c>
       <c r="E80" t="s">
-        <v>510</v>
+        <v>538</v>
       </c>
       <c r="G80" t="s">
-        <v>872</v>
+        <v>928</v>
       </c>
       <c r="H80" t="s">
-        <v>956</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4645,19 +4813,19 @@
         <v>90</v>
       </c>
       <c r="B81" t="s">
-        <v>420</v>
+        <v>448</v>
       </c>
       <c r="C81" t="s">
-        <v>511</v>
+        <v>539</v>
       </c>
       <c r="E81" t="s">
-        <v>511</v>
+        <v>539</v>
       </c>
       <c r="G81" t="s">
-        <v>873</v>
+        <v>929</v>
       </c>
       <c r="H81" t="s">
-        <v>956</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4665,19 +4833,19 @@
         <v>91</v>
       </c>
       <c r="B82" t="s">
-        <v>420</v>
+        <v>448</v>
       </c>
       <c r="C82" t="s">
-        <v>512</v>
+        <v>540</v>
       </c>
       <c r="E82" t="s">
-        <v>512</v>
+        <v>540</v>
       </c>
       <c r="G82" t="s">
-        <v>874</v>
+        <v>930</v>
       </c>
       <c r="H82" t="s">
-        <v>956</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4685,19 +4853,19 @@
         <v>92</v>
       </c>
       <c r="B83" t="s">
-        <v>420</v>
+        <v>448</v>
       </c>
       <c r="C83" t="s">
-        <v>513</v>
+        <v>541</v>
       </c>
       <c r="E83" t="s">
-        <v>513</v>
+        <v>541</v>
       </c>
       <c r="G83" t="s">
-        <v>875</v>
+        <v>931</v>
       </c>
       <c r="H83" t="s">
-        <v>956</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4705,19 +4873,19 @@
         <v>93</v>
       </c>
       <c r="B84" t="s">
-        <v>420</v>
+        <v>448</v>
       </c>
       <c r="C84" t="s">
-        <v>514</v>
+        <v>542</v>
       </c>
       <c r="E84" t="s">
-        <v>514</v>
+        <v>542</v>
       </c>
       <c r="G84" t="s">
-        <v>876</v>
+        <v>932</v>
       </c>
       <c r="H84" t="s">
-        <v>956</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4725,19 +4893,19 @@
         <v>94</v>
       </c>
       <c r="B85" t="s">
-        <v>420</v>
+        <v>448</v>
       </c>
       <c r="C85" t="s">
-        <v>515</v>
+        <v>543</v>
       </c>
       <c r="E85" t="s">
-        <v>515</v>
+        <v>543</v>
       </c>
       <c r="G85" t="s">
-        <v>877</v>
+        <v>933</v>
       </c>
       <c r="H85" t="s">
-        <v>956</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4745,19 +4913,19 @@
         <v>95</v>
       </c>
       <c r="B86" t="s">
-        <v>420</v>
+        <v>448</v>
       </c>
       <c r="C86" t="s">
-        <v>516</v>
+        <v>544</v>
       </c>
       <c r="E86" t="s">
-        <v>516</v>
+        <v>544</v>
       </c>
       <c r="G86" t="s">
-        <v>878</v>
+        <v>934</v>
       </c>
       <c r="H86" t="s">
-        <v>956</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4765,19 +4933,19 @@
         <v>96</v>
       </c>
       <c r="B87" t="s">
-        <v>420</v>
+        <v>448</v>
       </c>
       <c r="C87" t="s">
-        <v>517</v>
+        <v>545</v>
       </c>
       <c r="E87" t="s">
-        <v>517</v>
+        <v>545</v>
       </c>
       <c r="G87" t="s">
-        <v>879</v>
+        <v>935</v>
       </c>
       <c r="H87" t="s">
-        <v>956</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4785,19 +4953,19 @@
         <v>97</v>
       </c>
       <c r="B88" t="s">
-        <v>420</v>
+        <v>448</v>
       </c>
       <c r="C88" t="s">
-        <v>518</v>
+        <v>546</v>
       </c>
       <c r="E88" t="s">
-        <v>518</v>
+        <v>546</v>
       </c>
       <c r="G88" t="s">
-        <v>880</v>
+        <v>936</v>
       </c>
       <c r="H88" t="s">
-        <v>956</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4805,19 +4973,19 @@
         <v>98</v>
       </c>
       <c r="B89" t="s">
-        <v>420</v>
+        <v>448</v>
       </c>
       <c r="C89" t="s">
-        <v>519</v>
+        <v>547</v>
       </c>
       <c r="E89" t="s">
-        <v>519</v>
+        <v>547</v>
       </c>
       <c r="G89" t="s">
-        <v>881</v>
+        <v>937</v>
       </c>
       <c r="H89" t="s">
-        <v>956</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4825,19 +4993,19 @@
         <v>99</v>
       </c>
       <c r="B90" t="s">
-        <v>420</v>
+        <v>448</v>
       </c>
       <c r="C90" t="s">
-        <v>520</v>
+        <v>548</v>
       </c>
       <c r="E90" t="s">
-        <v>520</v>
+        <v>548</v>
       </c>
       <c r="G90" t="s">
-        <v>882</v>
+        <v>938</v>
       </c>
       <c r="H90" t="s">
-        <v>956</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4845,19 +5013,19 @@
         <v>100</v>
       </c>
       <c r="B91" t="s">
-        <v>420</v>
+        <v>448</v>
       </c>
       <c r="C91" t="s">
-        <v>521</v>
+        <v>549</v>
       </c>
       <c r="E91" t="s">
-        <v>521</v>
+        <v>549</v>
       </c>
       <c r="G91" t="s">
-        <v>883</v>
+        <v>939</v>
       </c>
       <c r="H91" t="s">
-        <v>956</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4865,19 +5033,19 @@
         <v>101</v>
       </c>
       <c r="B92" t="s">
-        <v>420</v>
+        <v>448</v>
       </c>
       <c r="C92" t="s">
-        <v>522</v>
+        <v>550</v>
       </c>
       <c r="E92" t="s">
-        <v>522</v>
+        <v>550</v>
       </c>
       <c r="G92" t="s">
-        <v>884</v>
+        <v>940</v>
       </c>
       <c r="H92" t="s">
-        <v>956</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4885,19 +5053,19 @@
         <v>102</v>
       </c>
       <c r="B93" t="s">
-        <v>420</v>
+        <v>448</v>
       </c>
       <c r="C93" t="s">
-        <v>523</v>
+        <v>551</v>
       </c>
       <c r="E93" t="s">
-        <v>523</v>
+        <v>551</v>
       </c>
       <c r="G93" t="s">
-        <v>885</v>
+        <v>941</v>
       </c>
       <c r="H93" t="s">
-        <v>956</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4905,19 +5073,19 @@
         <v>103</v>
       </c>
       <c r="B94" t="s">
-        <v>420</v>
+        <v>448</v>
       </c>
       <c r="C94" t="s">
-        <v>524</v>
+        <v>552</v>
       </c>
       <c r="E94" t="s">
-        <v>524</v>
+        <v>552</v>
       </c>
       <c r="G94" t="s">
-        <v>886</v>
+        <v>942</v>
       </c>
       <c r="H94" t="s">
-        <v>956</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4925,19 +5093,19 @@
         <v>104</v>
       </c>
       <c r="B95" t="s">
-        <v>420</v>
+        <v>448</v>
       </c>
       <c r="C95" t="s">
-        <v>525</v>
+        <v>553</v>
       </c>
       <c r="E95" t="s">
-        <v>525</v>
+        <v>553</v>
       </c>
       <c r="G95" t="s">
-        <v>887</v>
+        <v>943</v>
       </c>
       <c r="H95" t="s">
-        <v>956</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4945,19 +5113,19 @@
         <v>105</v>
       </c>
       <c r="B96" t="s">
-        <v>420</v>
+        <v>448</v>
       </c>
       <c r="C96" t="s">
-        <v>526</v>
+        <v>554</v>
       </c>
       <c r="E96" t="s">
-        <v>526</v>
+        <v>554</v>
       </c>
       <c r="G96" t="s">
-        <v>888</v>
+        <v>944</v>
       </c>
       <c r="H96" t="s">
-        <v>956</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4965,19 +5133,19 @@
         <v>106</v>
       </c>
       <c r="B97" t="s">
-        <v>420</v>
+        <v>448</v>
       </c>
       <c r="C97" t="s">
-        <v>527</v>
+        <v>555</v>
       </c>
       <c r="E97" t="s">
-        <v>527</v>
+        <v>555</v>
       </c>
       <c r="G97" t="s">
-        <v>889</v>
+        <v>945</v>
       </c>
       <c r="H97" t="s">
-        <v>956</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4985,19 +5153,19 @@
         <v>107</v>
       </c>
       <c r="B98" t="s">
-        <v>420</v>
+        <v>448</v>
       </c>
       <c r="C98" t="s">
-        <v>528</v>
+        <v>556</v>
       </c>
       <c r="E98" t="s">
-        <v>528</v>
+        <v>556</v>
       </c>
       <c r="G98" t="s">
-        <v>890</v>
+        <v>946</v>
       </c>
       <c r="H98" t="s">
-        <v>956</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -5005,19 +5173,19 @@
         <v>108</v>
       </c>
       <c r="B99" t="s">
-        <v>420</v>
+        <v>448</v>
       </c>
       <c r="C99" t="s">
-        <v>529</v>
+        <v>557</v>
       </c>
       <c r="E99" t="s">
-        <v>529</v>
+        <v>557</v>
       </c>
       <c r="G99" t="s">
-        <v>891</v>
+        <v>947</v>
       </c>
       <c r="H99" t="s">
-        <v>956</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -5025,19 +5193,19 @@
         <v>109</v>
       </c>
       <c r="B100" t="s">
-        <v>420</v>
+        <v>448</v>
       </c>
       <c r="C100" t="s">
-        <v>530</v>
+        <v>558</v>
       </c>
       <c r="E100" t="s">
-        <v>530</v>
+        <v>558</v>
       </c>
       <c r="G100" t="s">
-        <v>892</v>
+        <v>948</v>
       </c>
       <c r="H100" t="s">
-        <v>956</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -5045,19 +5213,19 @@
         <v>110</v>
       </c>
       <c r="B101" t="s">
-        <v>420</v>
+        <v>448</v>
       </c>
       <c r="C101" t="s">
-        <v>531</v>
+        <v>559</v>
       </c>
       <c r="E101" t="s">
-        <v>531</v>
+        <v>559</v>
       </c>
       <c r="G101" t="s">
-        <v>893</v>
+        <v>949</v>
       </c>
       <c r="H101" t="s">
-        <v>956</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -5065,19 +5233,19 @@
         <v>111</v>
       </c>
       <c r="B102" t="s">
-        <v>420</v>
+        <v>448</v>
       </c>
       <c r="C102" t="s">
-        <v>532</v>
+        <v>560</v>
       </c>
       <c r="E102" t="s">
-        <v>532</v>
+        <v>560</v>
       </c>
       <c r="G102" t="s">
-        <v>894</v>
+        <v>950</v>
       </c>
       <c r="H102" t="s">
-        <v>956</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -5085,19 +5253,19 @@
         <v>112</v>
       </c>
       <c r="B103" t="s">
-        <v>420</v>
+        <v>448</v>
       </c>
       <c r="C103" t="s">
-        <v>533</v>
+        <v>561</v>
       </c>
       <c r="E103" t="s">
-        <v>533</v>
+        <v>561</v>
       </c>
       <c r="G103" t="s">
-        <v>895</v>
+        <v>951</v>
       </c>
       <c r="H103" t="s">
-        <v>956</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -5105,19 +5273,19 @@
         <v>113</v>
       </c>
       <c r="B104" t="s">
-        <v>420</v>
+        <v>448</v>
       </c>
       <c r="C104" t="s">
-        <v>534</v>
+        <v>562</v>
       </c>
       <c r="E104" t="s">
-        <v>534</v>
+        <v>562</v>
       </c>
       <c r="G104" t="s">
-        <v>896</v>
+        <v>952</v>
       </c>
       <c r="H104" t="s">
-        <v>956</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -5125,19 +5293,19 @@
         <v>114</v>
       </c>
       <c r="B105" t="s">
-        <v>420</v>
+        <v>448</v>
       </c>
       <c r="C105" t="s">
-        <v>535</v>
+        <v>563</v>
       </c>
       <c r="E105" t="s">
-        <v>535</v>
+        <v>563</v>
       </c>
       <c r="G105" t="s">
-        <v>897</v>
+        <v>953</v>
       </c>
       <c r="H105" t="s">
-        <v>956</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -5145,19 +5313,19 @@
         <v>115</v>
       </c>
       <c r="B106" t="s">
-        <v>420</v>
+        <v>448</v>
       </c>
       <c r="C106" t="s">
-        <v>536</v>
+        <v>564</v>
       </c>
       <c r="E106" t="s">
-        <v>536</v>
+        <v>564</v>
       </c>
       <c r="G106" t="s">
-        <v>898</v>
+        <v>954</v>
       </c>
       <c r="H106" t="s">
-        <v>956</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -5165,19 +5333,19 @@
         <v>116</v>
       </c>
       <c r="B107" t="s">
-        <v>420</v>
+        <v>448</v>
       </c>
       <c r="C107" t="s">
-        <v>537</v>
+        <v>565</v>
       </c>
       <c r="E107" t="s">
-        <v>537</v>
+        <v>565</v>
       </c>
       <c r="G107" t="s">
-        <v>899</v>
+        <v>955</v>
       </c>
       <c r="H107" t="s">
-        <v>956</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -5185,13 +5353,13 @@
         <v>117</v>
       </c>
       <c r="B108" t="s">
-        <v>420</v>
+        <v>448</v>
       </c>
       <c r="C108" t="s">
-        <v>538</v>
+        <v>566</v>
       </c>
       <c r="E108" t="s">
-        <v>538</v>
+        <v>566</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -5199,19 +5367,19 @@
         <v>118</v>
       </c>
       <c r="B109" t="s">
-        <v>420</v>
+        <v>448</v>
       </c>
       <c r="C109" t="s">
-        <v>539</v>
+        <v>567</v>
       </c>
       <c r="E109" t="s">
-        <v>539</v>
+        <v>567</v>
       </c>
       <c r="G109" t="s">
-        <v>900</v>
+        <v>956</v>
       </c>
       <c r="H109" t="s">
-        <v>956</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -5219,19 +5387,19 @@
         <v>119</v>
       </c>
       <c r="B110" t="s">
-        <v>420</v>
+        <v>448</v>
       </c>
       <c r="C110" t="s">
-        <v>540</v>
+        <v>568</v>
       </c>
       <c r="E110" t="s">
-        <v>540</v>
+        <v>568</v>
       </c>
       <c r="G110" t="s">
-        <v>901</v>
+        <v>957</v>
       </c>
       <c r="H110" t="s">
-        <v>956</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -5239,19 +5407,19 @@
         <v>120</v>
       </c>
       <c r="B111" t="s">
-        <v>420</v>
+        <v>448</v>
       </c>
       <c r="C111" t="s">
-        <v>541</v>
+        <v>569</v>
       </c>
       <c r="E111" t="s">
-        <v>541</v>
+        <v>569</v>
       </c>
       <c r="G111" t="s">
-        <v>902</v>
+        <v>958</v>
       </c>
       <c r="H111" t="s">
-        <v>956</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -5259,19 +5427,19 @@
         <v>121</v>
       </c>
       <c r="B112" t="s">
-        <v>420</v>
+        <v>448</v>
       </c>
       <c r="C112" t="s">
-        <v>542</v>
+        <v>570</v>
       </c>
       <c r="E112" t="s">
-        <v>542</v>
+        <v>570</v>
       </c>
       <c r="G112" t="s">
-        <v>903</v>
+        <v>959</v>
       </c>
       <c r="H112" t="s">
-        <v>956</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -5279,13 +5447,13 @@
         <v>122</v>
       </c>
       <c r="B113" t="s">
-        <v>420</v>
+        <v>448</v>
       </c>
       <c r="C113" t="s">
-        <v>543</v>
+        <v>571</v>
       </c>
       <c r="E113" t="s">
-        <v>543</v>
+        <v>571</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -5293,13 +5461,13 @@
         <v>123</v>
       </c>
       <c r="B114" t="s">
-        <v>420</v>
+        <v>448</v>
       </c>
       <c r="C114" t="s">
-        <v>544</v>
+        <v>572</v>
       </c>
       <c r="E114" t="s">
-        <v>544</v>
+        <v>572</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -5307,13 +5475,13 @@
         <v>124</v>
       </c>
       <c r="B115" t="s">
-        <v>420</v>
+        <v>448</v>
       </c>
       <c r="C115" t="s">
-        <v>545</v>
+        <v>573</v>
       </c>
       <c r="E115" t="s">
-        <v>545</v>
+        <v>573</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -5321,13 +5489,13 @@
         <v>125</v>
       </c>
       <c r="B116" t="s">
-        <v>420</v>
+        <v>448</v>
       </c>
       <c r="C116" t="s">
-        <v>546</v>
+        <v>574</v>
       </c>
       <c r="E116" t="s">
-        <v>546</v>
+        <v>574</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -5335,13 +5503,13 @@
         <v>126</v>
       </c>
       <c r="B117" t="s">
-        <v>420</v>
+        <v>448</v>
       </c>
       <c r="C117" t="s">
-        <v>547</v>
+        <v>575</v>
       </c>
       <c r="E117" t="s">
-        <v>547</v>
+        <v>575</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -5349,13 +5517,13 @@
         <v>127</v>
       </c>
       <c r="B118" t="s">
-        <v>420</v>
+        <v>448</v>
       </c>
       <c r="C118" t="s">
-        <v>548</v>
+        <v>576</v>
       </c>
       <c r="E118" t="s">
-        <v>548</v>
+        <v>576</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -5363,13 +5531,13 @@
         <v>128</v>
       </c>
       <c r="B119" t="s">
-        <v>420</v>
+        <v>448</v>
       </c>
       <c r="C119" t="s">
-        <v>549</v>
+        <v>577</v>
       </c>
       <c r="E119" t="s">
-        <v>549</v>
+        <v>577</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -5377,13 +5545,13 @@
         <v>129</v>
       </c>
       <c r="B120" t="s">
-        <v>420</v>
+        <v>448</v>
       </c>
       <c r="C120" t="s">
-        <v>550</v>
+        <v>578</v>
       </c>
       <c r="E120" t="s">
-        <v>550</v>
+        <v>578</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -5391,13 +5559,13 @@
         <v>130</v>
       </c>
       <c r="B121" t="s">
-        <v>420</v>
+        <v>448</v>
       </c>
       <c r="C121" t="s">
-        <v>551</v>
+        <v>579</v>
       </c>
       <c r="E121" t="s">
-        <v>551</v>
+        <v>579</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -5405,13 +5573,13 @@
         <v>131</v>
       </c>
       <c r="B122" t="s">
-        <v>420</v>
+        <v>448</v>
       </c>
       <c r="C122" t="s">
-        <v>552</v>
+        <v>580</v>
       </c>
       <c r="E122" t="s">
-        <v>552</v>
+        <v>580</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -5419,13 +5587,10 @@
         <v>132</v>
       </c>
       <c r="B123" t="s">
-        <v>421</v>
+        <v>448</v>
       </c>
       <c r="C123" t="s">
-        <v>553</v>
-      </c>
-      <c r="I123" t="s">
-        <v>987</v>
+        <v>581</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -5433,13 +5598,13 @@
         <v>133</v>
       </c>
       <c r="B124" t="s">
-        <v>421</v>
+        <v>449</v>
       </c>
       <c r="C124" t="s">
-        <v>554</v>
+        <v>582</v>
       </c>
       <c r="I124" t="s">
-        <v>987</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -5447,10 +5612,13 @@
         <v>134</v>
       </c>
       <c r="B125" t="s">
-        <v>421</v>
+        <v>449</v>
       </c>
       <c r="C125" t="s">
-        <v>555</v>
+        <v>583</v>
+      </c>
+      <c r="I125" t="s">
+        <v>1043</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -5458,10 +5626,10 @@
         <v>135</v>
       </c>
       <c r="B126" t="s">
-        <v>421</v>
+        <v>449</v>
       </c>
       <c r="C126" t="s">
-        <v>556</v>
+        <v>584</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -5469,10 +5637,10 @@
         <v>136</v>
       </c>
       <c r="B127" t="s">
-        <v>421</v>
+        <v>449</v>
       </c>
       <c r="C127" t="s">
-        <v>557</v>
+        <v>585</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -5480,10 +5648,10 @@
         <v>137</v>
       </c>
       <c r="B128" t="s">
-        <v>421</v>
+        <v>449</v>
       </c>
       <c r="C128" t="s">
-        <v>558</v>
+        <v>586</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -5491,10 +5659,10 @@
         <v>138</v>
       </c>
       <c r="B129" t="s">
-        <v>421</v>
+        <v>449</v>
       </c>
       <c r="C129" t="s">
-        <v>559</v>
+        <v>587</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -5502,16 +5670,10 @@
         <v>139</v>
       </c>
       <c r="B130" t="s">
-        <v>421</v>
+        <v>449</v>
       </c>
       <c r="C130" t="s">
-        <v>560</v>
-      </c>
-      <c r="E130" t="s">
-        <v>560</v>
-      </c>
-      <c r="H130" t="s">
-        <v>957</v>
+        <v>588</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -5519,10 +5681,16 @@
         <v>140</v>
       </c>
       <c r="B131" t="s">
-        <v>421</v>
+        <v>449</v>
       </c>
       <c r="C131" t="s">
-        <v>561</v>
+        <v>589</v>
+      </c>
+      <c r="E131" t="s">
+        <v>589</v>
+      </c>
+      <c r="H131" t="s">
+        <v>1013</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -5530,10 +5698,10 @@
         <v>141</v>
       </c>
       <c r="B132" t="s">
-        <v>421</v>
+        <v>449</v>
       </c>
       <c r="C132" t="s">
-        <v>562</v>
+        <v>590</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -5541,16 +5709,10 @@
         <v>142</v>
       </c>
       <c r="B133" t="s">
-        <v>421</v>
+        <v>449</v>
       </c>
       <c r="C133" t="s">
-        <v>563</v>
-      </c>
-      <c r="G133" t="s">
-        <v>904</v>
-      </c>
-      <c r="I133" t="s">
-        <v>993</v>
+        <v>591</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -5558,13 +5720,16 @@
         <v>143</v>
       </c>
       <c r="B134" t="s">
-        <v>421</v>
+        <v>449</v>
       </c>
       <c r="C134" t="s">
-        <v>564</v>
-      </c>
-      <c r="E134" t="s">
-        <v>564</v>
+        <v>592</v>
+      </c>
+      <c r="G134" t="s">
+        <v>960</v>
+      </c>
+      <c r="I134" t="s">
+        <v>1049</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -5572,10 +5737,13 @@
         <v>144</v>
       </c>
       <c r="B135" t="s">
-        <v>421</v>
+        <v>449</v>
       </c>
       <c r="C135" t="s">
-        <v>565</v>
+        <v>593</v>
+      </c>
+      <c r="E135" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -5583,19 +5751,10 @@
         <v>145</v>
       </c>
       <c r="B136" t="s">
-        <v>421</v>
+        <v>449</v>
       </c>
       <c r="C136" t="s">
-        <v>566</v>
-      </c>
-      <c r="E136" t="s">
-        <v>566</v>
-      </c>
-      <c r="G136" t="s">
-        <v>905</v>
-      </c>
-      <c r="I136" t="s">
-        <v>994</v>
+        <v>594</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -5603,10 +5762,19 @@
         <v>146</v>
       </c>
       <c r="B137" t="s">
-        <v>421</v>
+        <v>449</v>
       </c>
       <c r="C137" t="s">
-        <v>567</v>
+        <v>595</v>
+      </c>
+      <c r="E137" t="s">
+        <v>595</v>
+      </c>
+      <c r="G137" t="s">
+        <v>961</v>
+      </c>
+      <c r="I137" t="s">
+        <v>1050</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -5614,10 +5782,10 @@
         <v>147</v>
       </c>
       <c r="B138" t="s">
-        <v>421</v>
+        <v>449</v>
       </c>
       <c r="C138" t="s">
-        <v>568</v>
+        <v>596</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -5625,16 +5793,10 @@
         <v>148</v>
       </c>
       <c r="B139" t="s">
-        <v>421</v>
+        <v>449</v>
       </c>
       <c r="C139" t="s">
-        <v>569</v>
-      </c>
-      <c r="E139" t="s">
-        <v>569</v>
-      </c>
-      <c r="I139" t="s">
-        <v>985</v>
+        <v>597</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -5642,10 +5804,16 @@
         <v>149</v>
       </c>
       <c r="B140" t="s">
-        <v>421</v>
+        <v>449</v>
       </c>
       <c r="C140" t="s">
-        <v>570</v>
+        <v>598</v>
+      </c>
+      <c r="E140" t="s">
+        <v>598</v>
+      </c>
+      <c r="I140" t="s">
+        <v>1041</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -5653,10 +5821,10 @@
         <v>150</v>
       </c>
       <c r="B141" t="s">
-        <v>421</v>
+        <v>449</v>
       </c>
       <c r="C141" t="s">
-        <v>571</v>
+        <v>599</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -5664,10 +5832,10 @@
         <v>151</v>
       </c>
       <c r="B142" t="s">
-        <v>421</v>
+        <v>449</v>
       </c>
       <c r="C142" t="s">
-        <v>572</v>
+        <v>600</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -5675,10 +5843,10 @@
         <v>152</v>
       </c>
       <c r="B143" t="s">
-        <v>421</v>
+        <v>449</v>
       </c>
       <c r="C143" t="s">
-        <v>573</v>
+        <v>601</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -5686,16 +5854,10 @@
         <v>153</v>
       </c>
       <c r="B144" t="s">
-        <v>421</v>
+        <v>449</v>
       </c>
       <c r="C144" t="s">
-        <v>574</v>
-      </c>
-      <c r="E144" t="s">
-        <v>574</v>
-      </c>
-      <c r="I144" t="s">
-        <v>995</v>
+        <v>602</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -5703,10 +5865,16 @@
         <v>154</v>
       </c>
       <c r="B145" t="s">
-        <v>421</v>
+        <v>449</v>
       </c>
       <c r="C145" t="s">
-        <v>575</v>
+        <v>603</v>
+      </c>
+      <c r="E145" t="s">
+        <v>603</v>
+      </c>
+      <c r="I145" t="s">
+        <v>1051</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -5714,19 +5882,10 @@
         <v>155</v>
       </c>
       <c r="B146" t="s">
-        <v>421</v>
+        <v>449</v>
       </c>
       <c r="C146" t="s">
-        <v>576</v>
-      </c>
-      <c r="E146" t="s">
-        <v>576</v>
-      </c>
-      <c r="G146" t="s">
-        <v>906</v>
-      </c>
-      <c r="I146" t="s">
-        <v>987</v>
+        <v>604</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -5734,16 +5893,19 @@
         <v>156</v>
       </c>
       <c r="B147" t="s">
-        <v>421</v>
+        <v>449</v>
       </c>
       <c r="C147" t="s">
-        <v>577</v>
+        <v>605</v>
       </c>
       <c r="E147" t="s">
-        <v>840</v>
-      </c>
-      <c r="H147" t="s">
-        <v>958</v>
+        <v>605</v>
+      </c>
+      <c r="G147" t="s">
+        <v>962</v>
+      </c>
+      <c r="I147" t="s">
+        <v>1043</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -5751,13 +5913,16 @@
         <v>157</v>
       </c>
       <c r="B148" t="s">
-        <v>421</v>
+        <v>449</v>
       </c>
       <c r="C148" t="s">
-        <v>578</v>
+        <v>606</v>
       </c>
       <c r="E148" t="s">
-        <v>577</v>
+        <v>896</v>
+      </c>
+      <c r="H148" t="s">
+        <v>1014</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -5765,13 +5930,13 @@
         <v>158</v>
       </c>
       <c r="B149" t="s">
-        <v>421</v>
+        <v>449</v>
       </c>
       <c r="C149" t="s">
-        <v>579</v>
-      </c>
-      <c r="H149" t="s">
-        <v>959</v>
+        <v>607</v>
+      </c>
+      <c r="E149" t="s">
+        <v>606</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -5779,13 +5944,13 @@
         <v>159</v>
       </c>
       <c r="B150" t="s">
-        <v>421</v>
+        <v>449</v>
       </c>
       <c r="C150" t="s">
-        <v>580</v>
-      </c>
-      <c r="E150" t="s">
-        <v>580</v>
+        <v>608</v>
+      </c>
+      <c r="H150" t="s">
+        <v>1015</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -5793,19 +5958,13 @@
         <v>160</v>
       </c>
       <c r="B151" t="s">
-        <v>421</v>
+        <v>449</v>
       </c>
       <c r="C151" t="s">
-        <v>581</v>
+        <v>609</v>
       </c>
       <c r="E151" t="s">
-        <v>581</v>
-      </c>
-      <c r="G151" t="s">
-        <v>907</v>
-      </c>
-      <c r="I151" t="s">
-        <v>993</v>
+        <v>609</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -5813,16 +5972,19 @@
         <v>161</v>
       </c>
       <c r="B152" t="s">
-        <v>421</v>
+        <v>449</v>
       </c>
       <c r="C152" t="s">
-        <v>582</v>
+        <v>610</v>
       </c>
       <c r="E152" t="s">
-        <v>582</v>
+        <v>610</v>
+      </c>
+      <c r="G152" t="s">
+        <v>963</v>
       </c>
       <c r="I152" t="s">
-        <v>987</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -5830,19 +5992,16 @@
         <v>162</v>
       </c>
       <c r="B153" t="s">
-        <v>421</v>
+        <v>449</v>
       </c>
       <c r="C153" t="s">
-        <v>583</v>
+        <v>611</v>
       </c>
       <c r="E153" t="s">
-        <v>583</v>
-      </c>
-      <c r="G153" t="s">
-        <v>908</v>
+        <v>611</v>
       </c>
       <c r="I153" t="s">
-        <v>981</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -5850,10 +6009,19 @@
         <v>163</v>
       </c>
       <c r="B154" t="s">
-        <v>421</v>
+        <v>449</v>
       </c>
       <c r="C154" t="s">
-        <v>584</v>
+        <v>612</v>
+      </c>
+      <c r="E154" t="s">
+        <v>612</v>
+      </c>
+      <c r="G154" t="s">
+        <v>964</v>
+      </c>
+      <c r="I154" t="s">
+        <v>1037</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -5861,13 +6029,10 @@
         <v>164</v>
       </c>
       <c r="B155" t="s">
-        <v>421</v>
+        <v>449</v>
       </c>
       <c r="C155" t="s">
-        <v>585</v>
-      </c>
-      <c r="E155" t="s">
-        <v>585</v>
+        <v>613</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -5875,10 +6040,13 @@
         <v>165</v>
       </c>
       <c r="B156" t="s">
-        <v>421</v>
+        <v>449</v>
       </c>
       <c r="C156" t="s">
-        <v>586</v>
+        <v>614</v>
+      </c>
+      <c r="E156" t="s">
+        <v>614</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -5886,16 +6054,10 @@
         <v>166</v>
       </c>
       <c r="B157" t="s">
-        <v>421</v>
+        <v>449</v>
       </c>
       <c r="C157" t="s">
-        <v>587</v>
-      </c>
-      <c r="E157" t="s">
-        <v>587</v>
-      </c>
-      <c r="I157" t="s">
-        <v>996</v>
+        <v>615</v>
       </c>
     </row>
     <row r="158" spans="1:9">
@@ -5903,10 +6065,16 @@
         <v>167</v>
       </c>
       <c r="B158" t="s">
-        <v>421</v>
+        <v>449</v>
       </c>
       <c r="C158" t="s">
-        <v>588</v>
+        <v>616</v>
+      </c>
+      <c r="E158" t="s">
+        <v>616</v>
+      </c>
+      <c r="I158" t="s">
+        <v>1052</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -5914,13 +6082,10 @@
         <v>168</v>
       </c>
       <c r="B159" t="s">
-        <v>421</v>
+        <v>449</v>
       </c>
       <c r="C159" t="s">
-        <v>589</v>
-      </c>
-      <c r="E159" t="s">
-        <v>589</v>
+        <v>617</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -5928,16 +6093,13 @@
         <v>169</v>
       </c>
       <c r="B160" t="s">
-        <v>421</v>
+        <v>449</v>
       </c>
       <c r="C160" t="s">
-        <v>590</v>
+        <v>618</v>
       </c>
       <c r="E160" t="s">
-        <v>590</v>
-      </c>
-      <c r="I160" t="s">
-        <v>995</v>
+        <v>618</v>
       </c>
     </row>
     <row r="161" spans="1:9">
@@ -5945,10 +6107,16 @@
         <v>170</v>
       </c>
       <c r="B161" t="s">
-        <v>421</v>
+        <v>449</v>
       </c>
       <c r="C161" t="s">
-        <v>591</v>
+        <v>619</v>
+      </c>
+      <c r="E161" t="s">
+        <v>619</v>
+      </c>
+      <c r="I161" t="s">
+        <v>1051</v>
       </c>
     </row>
     <row r="162" spans="1:9">
@@ -5956,10 +6124,10 @@
         <v>171</v>
       </c>
       <c r="B162" t="s">
-        <v>421</v>
+        <v>449</v>
       </c>
       <c r="C162" t="s">
-        <v>592</v>
+        <v>620</v>
       </c>
     </row>
     <row r="163" spans="1:9">
@@ -5967,10 +6135,10 @@
         <v>172</v>
       </c>
       <c r="B163" t="s">
-        <v>421</v>
+        <v>449</v>
       </c>
       <c r="C163" t="s">
-        <v>593</v>
+        <v>621</v>
       </c>
     </row>
     <row r="164" spans="1:9">
@@ -5978,10 +6146,10 @@
         <v>173</v>
       </c>
       <c r="B164" t="s">
-        <v>421</v>
+        <v>449</v>
       </c>
       <c r="C164" t="s">
-        <v>594</v>
+        <v>622</v>
       </c>
     </row>
     <row r="165" spans="1:9">
@@ -5989,10 +6157,10 @@
         <v>174</v>
       </c>
       <c r="B165" t="s">
-        <v>421</v>
+        <v>449</v>
       </c>
       <c r="C165" t="s">
-        <v>595</v>
+        <v>623</v>
       </c>
     </row>
     <row r="166" spans="1:9">
@@ -6000,10 +6168,10 @@
         <v>175</v>
       </c>
       <c r="B166" t="s">
-        <v>421</v>
+        <v>449</v>
       </c>
       <c r="C166" t="s">
-        <v>596</v>
+        <v>624</v>
       </c>
     </row>
     <row r="167" spans="1:9">
@@ -6011,19 +6179,10 @@
         <v>176</v>
       </c>
       <c r="B167" t="s">
-        <v>421</v>
+        <v>449</v>
       </c>
       <c r="C167" t="s">
-        <v>597</v>
-      </c>
-      <c r="E167" t="s">
-        <v>597</v>
-      </c>
-      <c r="G167" t="s">
-        <v>909</v>
-      </c>
-      <c r="I167" t="s">
-        <v>981</v>
+        <v>625</v>
       </c>
     </row>
     <row r="168" spans="1:9">
@@ -6031,10 +6190,19 @@
         <v>177</v>
       </c>
       <c r="B168" t="s">
-        <v>421</v>
+        <v>449</v>
       </c>
       <c r="C168" t="s">
-        <v>598</v>
+        <v>626</v>
+      </c>
+      <c r="E168" t="s">
+        <v>626</v>
+      </c>
+      <c r="G168" t="s">
+        <v>965</v>
+      </c>
+      <c r="I168" t="s">
+        <v>1037</v>
       </c>
     </row>
     <row r="169" spans="1:9">
@@ -6042,10 +6210,10 @@
         <v>178</v>
       </c>
       <c r="B169" t="s">
-        <v>421</v>
+        <v>449</v>
       </c>
       <c r="C169" t="s">
-        <v>599</v>
+        <v>627</v>
       </c>
     </row>
     <row r="170" spans="1:9">
@@ -6053,13 +6221,10 @@
         <v>179</v>
       </c>
       <c r="B170" t="s">
-        <v>421</v>
+        <v>449</v>
       </c>
       <c r="C170" t="s">
-        <v>600</v>
-      </c>
-      <c r="I170" t="s">
-        <v>987</v>
+        <v>628</v>
       </c>
     </row>
     <row r="171" spans="1:9">
@@ -6067,16 +6232,13 @@
         <v>180</v>
       </c>
       <c r="B171" t="s">
-        <v>421</v>
+        <v>449</v>
       </c>
       <c r="C171" t="s">
-        <v>601</v>
-      </c>
-      <c r="G171" t="s">
-        <v>910</v>
+        <v>629</v>
       </c>
       <c r="I171" t="s">
-        <v>994</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="172" spans="1:9">
@@ -6084,10 +6246,16 @@
         <v>181</v>
       </c>
       <c r="B172" t="s">
-        <v>421</v>
+        <v>449</v>
       </c>
       <c r="C172" t="s">
-        <v>602</v>
+        <v>630</v>
+      </c>
+      <c r="G172" t="s">
+        <v>966</v>
+      </c>
+      <c r="I172" t="s">
+        <v>1050</v>
       </c>
     </row>
     <row r="173" spans="1:9">
@@ -6095,10 +6263,10 @@
         <v>182</v>
       </c>
       <c r="B173" t="s">
-        <v>421</v>
+        <v>449</v>
       </c>
       <c r="C173" t="s">
-        <v>603</v>
+        <v>631</v>
       </c>
     </row>
     <row r="174" spans="1:9">
@@ -6106,13 +6274,10 @@
         <v>183</v>
       </c>
       <c r="B174" t="s">
-        <v>421</v>
+        <v>449</v>
       </c>
       <c r="C174" t="s">
-        <v>604</v>
-      </c>
-      <c r="E174" t="s">
-        <v>841</v>
+        <v>632</v>
       </c>
     </row>
     <row r="175" spans="1:9">
@@ -6120,10 +6285,13 @@
         <v>184</v>
       </c>
       <c r="B175" t="s">
-        <v>421</v>
+        <v>449</v>
       </c>
       <c r="C175" t="s">
-        <v>605</v>
+        <v>633</v>
+      </c>
+      <c r="E175" t="s">
+        <v>897</v>
       </c>
     </row>
     <row r="176" spans="1:9">
@@ -6131,10 +6299,10 @@
         <v>185</v>
       </c>
       <c r="B176" t="s">
-        <v>421</v>
+        <v>449</v>
       </c>
       <c r="C176" t="s">
-        <v>606</v>
+        <v>634</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -6142,10 +6310,10 @@
         <v>186</v>
       </c>
       <c r="B177" t="s">
-        <v>421</v>
+        <v>449</v>
       </c>
       <c r="C177" t="s">
-        <v>607</v>
+        <v>635</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -6153,10 +6321,10 @@
         <v>187</v>
       </c>
       <c r="B178" t="s">
-        <v>421</v>
+        <v>449</v>
       </c>
       <c r="C178" t="s">
-        <v>608</v>
+        <v>636</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -6164,10 +6332,10 @@
         <v>188</v>
       </c>
       <c r="B179" t="s">
-        <v>421</v>
+        <v>449</v>
       </c>
       <c r="C179" t="s">
-        <v>609</v>
+        <v>637</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -6175,10 +6343,10 @@
         <v>189</v>
       </c>
       <c r="B180" t="s">
-        <v>421</v>
+        <v>449</v>
       </c>
       <c r="C180" t="s">
-        <v>610</v>
+        <v>638</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -6186,10 +6354,10 @@
         <v>190</v>
       </c>
       <c r="B181" t="s">
-        <v>421</v>
+        <v>449</v>
       </c>
       <c r="C181" t="s">
-        <v>611</v>
+        <v>639</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -6197,10 +6365,10 @@
         <v>191</v>
       </c>
       <c r="B182" t="s">
-        <v>421</v>
+        <v>449</v>
       </c>
       <c r="C182" t="s">
-        <v>612</v>
+        <v>640</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -6208,10 +6376,10 @@
         <v>192</v>
       </c>
       <c r="B183" t="s">
-        <v>421</v>
+        <v>449</v>
       </c>
       <c r="C183" t="s">
-        <v>613</v>
+        <v>641</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -6219,10 +6387,10 @@
         <v>193</v>
       </c>
       <c r="B184" t="s">
-        <v>421</v>
+        <v>449</v>
       </c>
       <c r="C184" t="s">
-        <v>614</v>
+        <v>642</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -6230,13 +6398,10 @@
         <v>194</v>
       </c>
       <c r="B185" t="s">
-        <v>422</v>
+        <v>449</v>
       </c>
       <c r="C185" t="s">
-        <v>615</v>
-      </c>
-      <c r="E185" t="s">
-        <v>615</v>
+        <v>643</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -6244,13 +6409,13 @@
         <v>195</v>
       </c>
       <c r="B186" t="s">
-        <v>422</v>
+        <v>450</v>
       </c>
       <c r="C186" t="s">
-        <v>616</v>
+        <v>644</v>
       </c>
       <c r="E186" t="s">
-        <v>616</v>
+        <v>644</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -6258,13 +6423,13 @@
         <v>196</v>
       </c>
       <c r="B187" t="s">
-        <v>422</v>
+        <v>450</v>
       </c>
       <c r="C187" t="s">
-        <v>617</v>
+        <v>645</v>
       </c>
       <c r="E187" t="s">
-        <v>617</v>
+        <v>645</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -6272,13 +6437,13 @@
         <v>197</v>
       </c>
       <c r="B188" t="s">
-        <v>422</v>
+        <v>450</v>
       </c>
       <c r="C188" t="s">
-        <v>618</v>
+        <v>646</v>
       </c>
       <c r="E188" t="s">
-        <v>618</v>
+        <v>646</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -6286,13 +6451,13 @@
         <v>198</v>
       </c>
       <c r="B189" t="s">
-        <v>422</v>
+        <v>450</v>
       </c>
       <c r="C189" t="s">
-        <v>619</v>
+        <v>647</v>
       </c>
       <c r="E189" t="s">
-        <v>619</v>
+        <v>647</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -6300,13 +6465,13 @@
         <v>199</v>
       </c>
       <c r="B190" t="s">
-        <v>422</v>
+        <v>450</v>
       </c>
       <c r="C190" t="s">
-        <v>620</v>
+        <v>648</v>
       </c>
       <c r="E190" t="s">
-        <v>620</v>
+        <v>648</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -6314,13 +6479,13 @@
         <v>200</v>
       </c>
       <c r="B191" t="s">
-        <v>422</v>
+        <v>450</v>
       </c>
       <c r="C191" t="s">
-        <v>621</v>
+        <v>649</v>
       </c>
       <c r="E191" t="s">
-        <v>621</v>
+        <v>649</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -6328,222 +6493,216 @@
         <v>201</v>
       </c>
       <c r="B192" t="s">
-        <v>422</v>
+        <v>450</v>
       </c>
       <c r="C192" t="s">
-        <v>622</v>
+        <v>650</v>
       </c>
       <c r="E192" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
       <c r="A193" s="1" t="s">
         <v>202</v>
       </c>
       <c r="B193" t="s">
-        <v>422</v>
+        <v>450</v>
       </c>
       <c r="C193" t="s">
-        <v>623</v>
+        <v>651</v>
       </c>
       <c r="E193" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
       <c r="A194" s="1" t="s">
         <v>203</v>
       </c>
       <c r="B194" t="s">
-        <v>422</v>
+        <v>450</v>
       </c>
       <c r="C194" t="s">
-        <v>624</v>
+        <v>652</v>
       </c>
       <c r="E194" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
       <c r="A195" s="1" t="s">
         <v>204</v>
       </c>
       <c r="B195" t="s">
-        <v>422</v>
+        <v>450</v>
       </c>
       <c r="C195" t="s">
-        <v>625</v>
+        <v>653</v>
       </c>
       <c r="E195" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
       <c r="A196" s="1" t="s">
         <v>205</v>
       </c>
       <c r="B196" t="s">
-        <v>422</v>
+        <v>450</v>
       </c>
       <c r="C196" t="s">
-        <v>626</v>
+        <v>654</v>
       </c>
       <c r="E196" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
       <c r="A197" s="1" t="s">
         <v>206</v>
       </c>
       <c r="B197" t="s">
-        <v>422</v>
+        <v>450</v>
       </c>
       <c r="C197" t="s">
-        <v>627</v>
+        <v>655</v>
       </c>
       <c r="E197" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
       <c r="A198" s="1" t="s">
         <v>207</v>
       </c>
       <c r="B198" t="s">
-        <v>422</v>
+        <v>450</v>
       </c>
       <c r="C198" t="s">
-        <v>628</v>
+        <v>656</v>
       </c>
       <c r="E198" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
       <c r="A199" s="1" t="s">
         <v>208</v>
       </c>
       <c r="B199" t="s">
-        <v>422</v>
+        <v>450</v>
       </c>
       <c r="C199" t="s">
-        <v>629</v>
+        <v>657</v>
       </c>
       <c r="E199" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
       <c r="A200" s="1" t="s">
         <v>209</v>
       </c>
       <c r="B200" t="s">
-        <v>422</v>
+        <v>450</v>
       </c>
       <c r="C200" t="s">
-        <v>630</v>
+        <v>658</v>
       </c>
       <c r="E200" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
       <c r="A201" s="1" t="s">
         <v>210</v>
       </c>
       <c r="B201" t="s">
-        <v>423</v>
+        <v>450</v>
       </c>
       <c r="C201" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7">
+        <v>659</v>
+      </c>
+      <c r="E201" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
       <c r="A202" s="1" t="s">
         <v>211</v>
       </c>
       <c r="B202" t="s">
-        <v>423</v>
+        <v>450</v>
       </c>
       <c r="C202" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
       <c r="A203" s="1" t="s">
         <v>212</v>
       </c>
       <c r="B203" t="s">
-        <v>423</v>
+        <v>450</v>
       </c>
       <c r="C203" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
       <c r="A204" s="1" t="s">
         <v>213</v>
       </c>
       <c r="B204" t="s">
-        <v>423</v>
+        <v>450</v>
       </c>
       <c r="C204" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
       <c r="A205" s="1" t="s">
         <v>214</v>
       </c>
       <c r="B205" t="s">
-        <v>423</v>
+        <v>450</v>
       </c>
       <c r="C205" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
       <c r="A206" s="1" t="s">
         <v>215</v>
       </c>
       <c r="B206" t="s">
-        <v>423</v>
+        <v>450</v>
       </c>
       <c r="C206" t="s">
-        <v>636</v>
-      </c>
-      <c r="E206" t="s">
-        <v>636</v>
-      </c>
-      <c r="G206" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
       <c r="A207" s="1" t="s">
         <v>216</v>
       </c>
       <c r="B207" t="s">
-        <v>423</v>
+        <v>451</v>
       </c>
       <c r="C207" t="s">
-        <v>637</v>
-      </c>
-      <c r="E207" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
       <c r="A208" s="1" t="s">
         <v>217</v>
       </c>
       <c r="B208" t="s">
-        <v>423</v>
+        <v>451</v>
       </c>
       <c r="C208" t="s">
-        <v>638</v>
+        <v>666</v>
       </c>
     </row>
     <row r="209" spans="1:9">
@@ -6551,13 +6710,10 @@
         <v>218</v>
       </c>
       <c r="B209" t="s">
-        <v>423</v>
+        <v>451</v>
       </c>
       <c r="C209" t="s">
-        <v>639</v>
-      </c>
-      <c r="E209" t="s">
-        <v>639</v>
+        <v>667</v>
       </c>
     </row>
     <row r="210" spans="1:9">
@@ -6565,10 +6721,10 @@
         <v>219</v>
       </c>
       <c r="B210" t="s">
-        <v>423</v>
+        <v>451</v>
       </c>
       <c r="C210" t="s">
-        <v>640</v>
+        <v>668</v>
       </c>
     </row>
     <row r="211" spans="1:9">
@@ -6576,10 +6732,10 @@
         <v>220</v>
       </c>
       <c r="B211" t="s">
-        <v>423</v>
+        <v>451</v>
       </c>
       <c r="C211" t="s">
-        <v>641</v>
+        <v>669</v>
       </c>
     </row>
     <row r="212" spans="1:9">
@@ -6587,10 +6743,16 @@
         <v>221</v>
       </c>
       <c r="B212" t="s">
-        <v>423</v>
+        <v>451</v>
       </c>
       <c r="C212" t="s">
-        <v>642</v>
+        <v>670</v>
+      </c>
+      <c r="E212" t="s">
+        <v>670</v>
+      </c>
+      <c r="G212" t="s">
+        <v>910</v>
       </c>
     </row>
     <row r="213" spans="1:9">
@@ -6598,16 +6760,13 @@
         <v>222</v>
       </c>
       <c r="B213" t="s">
-        <v>423</v>
+        <v>451</v>
       </c>
       <c r="C213" t="s">
-        <v>643</v>
-      </c>
-      <c r="G213" t="s">
-        <v>911</v>
-      </c>
-      <c r="I213" t="s">
-        <v>985</v>
+        <v>671</v>
+      </c>
+      <c r="E213" t="s">
+        <v>898</v>
       </c>
     </row>
     <row r="214" spans="1:9">
@@ -6615,10 +6774,10 @@
         <v>223</v>
       </c>
       <c r="B214" t="s">
-        <v>423</v>
+        <v>451</v>
       </c>
       <c r="C214" t="s">
-        <v>644</v>
+        <v>672</v>
       </c>
     </row>
     <row r="215" spans="1:9">
@@ -6626,10 +6785,13 @@
         <v>224</v>
       </c>
       <c r="B215" t="s">
-        <v>423</v>
+        <v>451</v>
       </c>
       <c r="C215" t="s">
-        <v>645</v>
+        <v>673</v>
+      </c>
+      <c r="E215" t="s">
+        <v>673</v>
       </c>
     </row>
     <row r="216" spans="1:9">
@@ -6637,16 +6799,10 @@
         <v>225</v>
       </c>
       <c r="B216" t="s">
-        <v>424</v>
+        <v>451</v>
       </c>
       <c r="C216" t="s">
-        <v>646</v>
-      </c>
-      <c r="E216" t="s">
-        <v>646</v>
-      </c>
-      <c r="G216" t="s">
-        <v>912</v>
+        <v>674</v>
       </c>
     </row>
     <row r="217" spans="1:9">
@@ -6654,13 +6810,10 @@
         <v>226</v>
       </c>
       <c r="B217" t="s">
-        <v>425</v>
+        <v>451</v>
       </c>
       <c r="C217" t="s">
-        <v>647</v>
-      </c>
-      <c r="E217" t="s">
-        <v>647</v>
+        <v>675</v>
       </c>
     </row>
     <row r="218" spans="1:9">
@@ -6668,19 +6821,10 @@
         <v>227</v>
       </c>
       <c r="B218" t="s">
-        <v>425</v>
+        <v>451</v>
       </c>
       <c r="C218" t="s">
-        <v>648</v>
-      </c>
-      <c r="E218" t="s">
-        <v>648</v>
-      </c>
-      <c r="G218" t="s">
-        <v>913</v>
-      </c>
-      <c r="I218" t="s">
-        <v>985</v>
+        <v>676</v>
       </c>
     </row>
     <row r="219" spans="1:9">
@@ -6688,13 +6832,16 @@
         <v>228</v>
       </c>
       <c r="B219" t="s">
-        <v>425</v>
+        <v>451</v>
       </c>
       <c r="C219" t="s">
-        <v>649</v>
+        <v>677</v>
       </c>
       <c r="G219" t="s">
-        <v>913</v>
+        <v>967</v>
+      </c>
+      <c r="I219" t="s">
+        <v>1041</v>
       </c>
     </row>
     <row r="220" spans="1:9">
@@ -6702,10 +6849,10 @@
         <v>229</v>
       </c>
       <c r="B220" t="s">
-        <v>425</v>
+        <v>451</v>
       </c>
       <c r="C220" t="s">
-        <v>650</v>
+        <v>678</v>
       </c>
     </row>
     <row r="221" spans="1:9">
@@ -6713,13 +6860,10 @@
         <v>230</v>
       </c>
       <c r="B221" t="s">
-        <v>425</v>
+        <v>451</v>
       </c>
       <c r="C221" t="s">
-        <v>651</v>
-      </c>
-      <c r="E221" t="s">
-        <v>651</v>
+        <v>679</v>
       </c>
     </row>
     <row r="222" spans="1:9">
@@ -6727,13 +6871,16 @@
         <v>231</v>
       </c>
       <c r="B222" t="s">
-        <v>425</v>
+        <v>452</v>
       </c>
       <c r="C222" t="s">
-        <v>652</v>
-      </c>
-      <c r="I222" t="s">
-        <v>981</v>
+        <v>680</v>
+      </c>
+      <c r="E222" t="s">
+        <v>680</v>
+      </c>
+      <c r="G222" t="s">
+        <v>968</v>
       </c>
     </row>
     <row r="223" spans="1:9">
@@ -6741,13 +6888,13 @@
         <v>232</v>
       </c>
       <c r="B223" t="s">
-        <v>425</v>
+        <v>453</v>
       </c>
       <c r="C223" t="s">
-        <v>653</v>
+        <v>681</v>
       </c>
       <c r="E223" t="s">
-        <v>653</v>
+        <v>681</v>
       </c>
     </row>
     <row r="224" spans="1:9">
@@ -6755,13 +6902,19 @@
         <v>233</v>
       </c>
       <c r="B224" t="s">
-        <v>425</v>
+        <v>453</v>
       </c>
       <c r="C224" t="s">
-        <v>654</v>
+        <v>682</v>
       </c>
       <c r="E224" t="s">
-        <v>654</v>
+        <v>682</v>
+      </c>
+      <c r="G224" t="s">
+        <v>969</v>
+      </c>
+      <c r="I224" t="s">
+        <v>1041</v>
       </c>
     </row>
     <row r="225" spans="1:9">
@@ -6769,13 +6922,13 @@
         <v>234</v>
       </c>
       <c r="B225" t="s">
-        <v>425</v>
+        <v>453</v>
       </c>
       <c r="C225" t="s">
-        <v>655</v>
-      </c>
-      <c r="I225" t="s">
-        <v>997</v>
+        <v>683</v>
+      </c>
+      <c r="G225" t="s">
+        <v>969</v>
       </c>
     </row>
     <row r="226" spans="1:9">
@@ -6783,13 +6936,10 @@
         <v>235</v>
       </c>
       <c r="B226" t="s">
-        <v>425</v>
+        <v>453</v>
       </c>
       <c r="C226" t="s">
-        <v>656</v>
-      </c>
-      <c r="I226" t="s">
-        <v>997</v>
+        <v>684</v>
       </c>
     </row>
     <row r="227" spans="1:9">
@@ -6797,13 +6947,13 @@
         <v>236</v>
       </c>
       <c r="B227" t="s">
-        <v>425</v>
+        <v>453</v>
       </c>
       <c r="C227" t="s">
-        <v>657</v>
-      </c>
-      <c r="I227" t="s">
-        <v>997</v>
+        <v>685</v>
+      </c>
+      <c r="E227" t="s">
+        <v>685</v>
       </c>
     </row>
     <row r="228" spans="1:9">
@@ -6811,16 +6961,13 @@
         <v>237</v>
       </c>
       <c r="B228" t="s">
-        <v>425</v>
+        <v>453</v>
       </c>
       <c r="C228" t="s">
-        <v>658</v>
-      </c>
-      <c r="E228" t="s">
-        <v>658</v>
+        <v>686</v>
       </c>
       <c r="I228" t="s">
-        <v>997</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="229" spans="1:9">
@@ -6828,13 +6975,13 @@
         <v>238</v>
       </c>
       <c r="B229" t="s">
-        <v>425</v>
+        <v>453</v>
       </c>
       <c r="C229" t="s">
-        <v>659</v>
-      </c>
-      <c r="I229" t="s">
-        <v>997</v>
+        <v>687</v>
+      </c>
+      <c r="E229" t="s">
+        <v>687</v>
       </c>
     </row>
     <row r="230" spans="1:9">
@@ -6842,13 +6989,13 @@
         <v>239</v>
       </c>
       <c r="B230" t="s">
-        <v>425</v>
+        <v>453</v>
       </c>
       <c r="C230" t="s">
-        <v>660</v>
-      </c>
-      <c r="I230" t="s">
-        <v>997</v>
+        <v>688</v>
+      </c>
+      <c r="E230" t="s">
+        <v>688</v>
       </c>
     </row>
     <row r="231" spans="1:9">
@@ -6856,16 +7003,13 @@
         <v>240</v>
       </c>
       <c r="B231" t="s">
-        <v>425</v>
+        <v>453</v>
       </c>
       <c r="C231" t="s">
-        <v>661</v>
-      </c>
-      <c r="E231" t="s">
-        <v>661</v>
+        <v>689</v>
       </c>
       <c r="I231" t="s">
-        <v>985</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="232" spans="1:9">
@@ -6873,13 +7017,13 @@
         <v>241</v>
       </c>
       <c r="B232" t="s">
-        <v>426</v>
+        <v>453</v>
       </c>
       <c r="C232" t="s">
-        <v>662</v>
-      </c>
-      <c r="E232" t="s">
-        <v>662</v>
+        <v>690</v>
+      </c>
+      <c r="I232" t="s">
+        <v>1053</v>
       </c>
     </row>
     <row r="233" spans="1:9">
@@ -6887,10 +7031,13 @@
         <v>242</v>
       </c>
       <c r="B233" t="s">
-        <v>426</v>
+        <v>453</v>
       </c>
       <c r="C233" t="s">
-        <v>663</v>
+        <v>691</v>
+      </c>
+      <c r="I233" t="s">
+        <v>1053</v>
       </c>
     </row>
     <row r="234" spans="1:9">
@@ -6898,13 +7045,16 @@
         <v>243</v>
       </c>
       <c r="B234" t="s">
-        <v>426</v>
+        <v>453</v>
       </c>
       <c r="C234" t="s">
-        <v>664</v>
-      </c>
-      <c r="H234" t="s">
-        <v>960</v>
+        <v>692</v>
+      </c>
+      <c r="E234" t="s">
+        <v>692</v>
+      </c>
+      <c r="I234" t="s">
+        <v>1053</v>
       </c>
     </row>
     <row r="235" spans="1:9">
@@ -6912,10 +7062,13 @@
         <v>244</v>
       </c>
       <c r="B235" t="s">
-        <v>426</v>
+        <v>453</v>
       </c>
       <c r="C235" t="s">
-        <v>665</v>
+        <v>693</v>
+      </c>
+      <c r="I235" t="s">
+        <v>1053</v>
       </c>
     </row>
     <row r="236" spans="1:9">
@@ -6923,10 +7076,13 @@
         <v>245</v>
       </c>
       <c r="B236" t="s">
-        <v>426</v>
+        <v>453</v>
       </c>
       <c r="C236" t="s">
-        <v>666</v>
+        <v>694</v>
+      </c>
+      <c r="I236" t="s">
+        <v>1053</v>
       </c>
     </row>
     <row r="237" spans="1:9">
@@ -6934,10 +7090,16 @@
         <v>246</v>
       </c>
       <c r="B237" t="s">
-        <v>426</v>
+        <v>453</v>
       </c>
       <c r="C237" t="s">
-        <v>667</v>
+        <v>695</v>
+      </c>
+      <c r="E237" t="s">
+        <v>695</v>
+      </c>
+      <c r="I237" t="s">
+        <v>1041</v>
       </c>
     </row>
     <row r="238" spans="1:9">
@@ -6945,19 +7107,13 @@
         <v>247</v>
       </c>
       <c r="B238" t="s">
-        <v>426</v>
+        <v>454</v>
       </c>
       <c r="C238" t="s">
-        <v>668</v>
+        <v>696</v>
       </c>
       <c r="E238" t="s">
-        <v>668</v>
-      </c>
-      <c r="G238" t="s">
-        <v>914</v>
-      </c>
-      <c r="I238" t="s">
-        <v>998</v>
+        <v>696</v>
       </c>
     </row>
     <row r="239" spans="1:9">
@@ -6965,10 +7121,10 @@
         <v>248</v>
       </c>
       <c r="B239" t="s">
-        <v>426</v>
+        <v>454</v>
       </c>
       <c r="C239" t="s">
-        <v>669</v>
+        <v>697</v>
       </c>
     </row>
     <row r="240" spans="1:9">
@@ -6976,10 +7132,13 @@
         <v>249</v>
       </c>
       <c r="B240" t="s">
-        <v>426</v>
+        <v>454</v>
       </c>
       <c r="C240" t="s">
-        <v>670</v>
+        <v>698</v>
+      </c>
+      <c r="H240" t="s">
+        <v>1016</v>
       </c>
     </row>
     <row r="241" spans="1:9">
@@ -6987,16 +7146,10 @@
         <v>250</v>
       </c>
       <c r="B241" t="s">
-        <v>426</v>
+        <v>454</v>
       </c>
       <c r="C241" t="s">
-        <v>671</v>
-      </c>
-      <c r="E241" t="s">
-        <v>671</v>
-      </c>
-      <c r="G241" t="s">
-        <v>915</v>
+        <v>699</v>
       </c>
     </row>
     <row r="242" spans="1:9">
@@ -7004,10 +7157,10 @@
         <v>251</v>
       </c>
       <c r="B242" t="s">
-        <v>426</v>
+        <v>454</v>
       </c>
       <c r="C242" t="s">
-        <v>672</v>
+        <v>700</v>
       </c>
     </row>
     <row r="243" spans="1:9">
@@ -7015,10 +7168,10 @@
         <v>252</v>
       </c>
       <c r="B243" t="s">
-        <v>426</v>
+        <v>454</v>
       </c>
       <c r="C243" t="s">
-        <v>673</v>
+        <v>701</v>
       </c>
     </row>
     <row r="244" spans="1:9">
@@ -7026,10 +7179,19 @@
         <v>253</v>
       </c>
       <c r="B244" t="s">
-        <v>426</v>
+        <v>454</v>
       </c>
       <c r="C244" t="s">
-        <v>674</v>
+        <v>702</v>
+      </c>
+      <c r="E244" t="s">
+        <v>702</v>
+      </c>
+      <c r="G244" t="s">
+        <v>970</v>
+      </c>
+      <c r="I244" t="s">
+        <v>1054</v>
       </c>
     </row>
     <row r="245" spans="1:9">
@@ -7037,10 +7199,10 @@
         <v>254</v>
       </c>
       <c r="B245" t="s">
-        <v>426</v>
+        <v>454</v>
       </c>
       <c r="C245" t="s">
-        <v>675</v>
+        <v>703</v>
       </c>
     </row>
     <row r="246" spans="1:9">
@@ -7048,10 +7210,10 @@
         <v>255</v>
       </c>
       <c r="B246" t="s">
-        <v>426</v>
+        <v>454</v>
       </c>
       <c r="C246" t="s">
-        <v>676</v>
+        <v>704</v>
       </c>
     </row>
     <row r="247" spans="1:9">
@@ -7059,10 +7221,16 @@
         <v>256</v>
       </c>
       <c r="B247" t="s">
-        <v>427</v>
+        <v>454</v>
       </c>
       <c r="C247" t="s">
-        <v>677</v>
+        <v>705</v>
+      </c>
+      <c r="E247" t="s">
+        <v>705</v>
+      </c>
+      <c r="G247" t="s">
+        <v>971</v>
       </c>
     </row>
     <row r="248" spans="1:9">
@@ -7070,10 +7238,10 @@
         <v>257</v>
       </c>
       <c r="B248" t="s">
-        <v>427</v>
+        <v>454</v>
       </c>
       <c r="C248" t="s">
-        <v>678</v>
+        <v>706</v>
       </c>
     </row>
     <row r="249" spans="1:9">
@@ -7081,19 +7249,10 @@
         <v>258</v>
       </c>
       <c r="B249" t="s">
-        <v>427</v>
+        <v>454</v>
       </c>
       <c r="C249" t="s">
-        <v>679</v>
-      </c>
-      <c r="E249" t="s">
-        <v>679</v>
-      </c>
-      <c r="G249" t="s">
-        <v>916</v>
-      </c>
-      <c r="I249" t="s">
-        <v>992</v>
+        <v>707</v>
       </c>
     </row>
     <row r="250" spans="1:9">
@@ -7101,13 +7260,10 @@
         <v>259</v>
       </c>
       <c r="B250" t="s">
-        <v>427</v>
+        <v>454</v>
       </c>
       <c r="C250" t="s">
-        <v>680</v>
-      </c>
-      <c r="E250" t="s">
-        <v>680</v>
+        <v>708</v>
       </c>
     </row>
     <row r="251" spans="1:9">
@@ -7115,10 +7271,10 @@
         <v>260</v>
       </c>
       <c r="B251" t="s">
-        <v>427</v>
+        <v>454</v>
       </c>
       <c r="C251" t="s">
-        <v>681</v>
+        <v>709</v>
       </c>
     </row>
     <row r="252" spans="1:9">
@@ -7126,19 +7282,10 @@
         <v>261</v>
       </c>
       <c r="B252" t="s">
-        <v>427</v>
+        <v>454</v>
       </c>
       <c r="C252" t="s">
-        <v>682</v>
-      </c>
-      <c r="E252" t="s">
-        <v>682</v>
-      </c>
-      <c r="G252" t="s">
-        <v>917</v>
-      </c>
-      <c r="I252" t="s">
-        <v>992</v>
+        <v>710</v>
       </c>
     </row>
     <row r="253" spans="1:9">
@@ -7146,19 +7293,10 @@
         <v>262</v>
       </c>
       <c r="B253" t="s">
-        <v>427</v>
+        <v>455</v>
       </c>
       <c r="C253" t="s">
-        <v>683</v>
-      </c>
-      <c r="E253" t="s">
-        <v>683</v>
-      </c>
-      <c r="G253" t="s">
-        <v>918</v>
-      </c>
-      <c r="I253" t="s">
-        <v>987</v>
+        <v>711</v>
       </c>
     </row>
     <row r="254" spans="1:9">
@@ -7166,13 +7304,10 @@
         <v>263</v>
       </c>
       <c r="B254" t="s">
-        <v>427</v>
+        <v>455</v>
       </c>
       <c r="C254" t="s">
-        <v>684</v>
-      </c>
-      <c r="E254" t="s">
-        <v>684</v>
+        <v>712</v>
       </c>
     </row>
     <row r="255" spans="1:9">
@@ -7180,13 +7315,19 @@
         <v>264</v>
       </c>
       <c r="B255" t="s">
-        <v>428</v>
+        <v>455</v>
       </c>
       <c r="C255" t="s">
-        <v>685</v>
+        <v>713</v>
       </c>
       <c r="E255" t="s">
-        <v>685</v>
+        <v>713</v>
+      </c>
+      <c r="G255" t="s">
+        <v>972</v>
+      </c>
+      <c r="I255" t="s">
+        <v>1048</v>
       </c>
     </row>
     <row r="256" spans="1:9">
@@ -7194,237 +7335,246 @@
         <v>265</v>
       </c>
       <c r="B256" t="s">
-        <v>428</v>
+        <v>455</v>
       </c>
       <c r="C256" t="s">
-        <v>686</v>
+        <v>714</v>
       </c>
       <c r="E256" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9">
       <c r="A257" s="1" t="s">
         <v>266</v>
       </c>
       <c r="B257" t="s">
-        <v>428</v>
+        <v>455</v>
       </c>
       <c r="C257" t="s">
-        <v>687</v>
-      </c>
-      <c r="E257" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9">
       <c r="A258" s="1" t="s">
         <v>267</v>
       </c>
       <c r="B258" t="s">
-        <v>428</v>
+        <v>455</v>
       </c>
       <c r="C258" t="s">
-        <v>688</v>
+        <v>716</v>
       </c>
       <c r="E258" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5">
+        <v>716</v>
+      </c>
+      <c r="G258" t="s">
+        <v>973</v>
+      </c>
+      <c r="I258" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9">
       <c r="A259" s="1" t="s">
         <v>268</v>
       </c>
       <c r="B259" t="s">
-        <v>428</v>
+        <v>455</v>
       </c>
       <c r="C259" t="s">
-        <v>689</v>
+        <v>717</v>
       </c>
       <c r="E259" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5">
+        <v>717</v>
+      </c>
+      <c r="G259" t="s">
+        <v>974</v>
+      </c>
+      <c r="I259" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9">
       <c r="A260" s="1" t="s">
         <v>269</v>
       </c>
       <c r="B260" t="s">
-        <v>428</v>
+        <v>455</v>
       </c>
       <c r="C260" t="s">
-        <v>690</v>
+        <v>718</v>
       </c>
       <c r="E260" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="261" spans="1:5">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9">
       <c r="A261" s="1" t="s">
         <v>270</v>
       </c>
       <c r="B261" t="s">
-        <v>428</v>
+        <v>456</v>
       </c>
       <c r="C261" t="s">
-        <v>691</v>
+        <v>719</v>
       </c>
       <c r="E261" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9">
       <c r="A262" s="1" t="s">
         <v>271</v>
       </c>
       <c r="B262" t="s">
-        <v>428</v>
+        <v>456</v>
       </c>
       <c r="C262" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="E262" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9">
       <c r="A263" s="1" t="s">
         <v>272</v>
       </c>
       <c r="B263" t="s">
-        <v>428</v>
+        <v>456</v>
       </c>
       <c r="C263" t="s">
-        <v>693</v>
+        <v>721</v>
       </c>
       <c r="E263" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="264" spans="1:5">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9">
       <c r="A264" s="1" t="s">
         <v>273</v>
       </c>
       <c r="B264" t="s">
-        <v>428</v>
+        <v>456</v>
       </c>
       <c r="C264" t="s">
-        <v>694</v>
+        <v>722</v>
       </c>
       <c r="E264" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9">
       <c r="A265" s="1" t="s">
         <v>274</v>
       </c>
       <c r="B265" t="s">
-        <v>428</v>
+        <v>456</v>
       </c>
       <c r="C265" t="s">
-        <v>695</v>
+        <v>723</v>
       </c>
       <c r="E265" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9">
       <c r="A266" s="1" t="s">
         <v>275</v>
       </c>
       <c r="B266" t="s">
-        <v>428</v>
+        <v>456</v>
       </c>
       <c r="C266" t="s">
-        <v>696</v>
+        <v>724</v>
       </c>
       <c r="E266" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="267" spans="1:5">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9">
       <c r="A267" s="1" t="s">
         <v>276</v>
       </c>
       <c r="B267" t="s">
-        <v>428</v>
+        <v>456</v>
       </c>
       <c r="C267" t="s">
-        <v>697</v>
+        <v>725</v>
       </c>
       <c r="E267" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="268" spans="1:5">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9">
       <c r="A268" s="1" t="s">
         <v>277</v>
       </c>
       <c r="B268" t="s">
-        <v>428</v>
+        <v>456</v>
       </c>
       <c r="C268" t="s">
-        <v>698</v>
+        <v>726</v>
       </c>
       <c r="E268" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="269" spans="1:5">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9">
       <c r="A269" s="1" t="s">
         <v>278</v>
       </c>
       <c r="B269" t="s">
-        <v>428</v>
+        <v>456</v>
       </c>
       <c r="C269" t="s">
-        <v>699</v>
+        <v>727</v>
       </c>
       <c r="E269" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="270" spans="1:5">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9">
       <c r="A270" s="1" t="s">
         <v>279</v>
       </c>
       <c r="B270" t="s">
-        <v>428</v>
+        <v>456</v>
       </c>
       <c r="C270" t="s">
-        <v>700</v>
+        <v>728</v>
       </c>
       <c r="E270" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9">
       <c r="A271" s="1" t="s">
         <v>280</v>
       </c>
       <c r="B271" t="s">
-        <v>428</v>
+        <v>456</v>
       </c>
       <c r="C271" t="s">
-        <v>701</v>
+        <v>729</v>
       </c>
       <c r="E271" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9">
       <c r="A272" s="1" t="s">
         <v>281</v>
       </c>
       <c r="B272" t="s">
-        <v>428</v>
+        <v>456</v>
       </c>
       <c r="C272" t="s">
-        <v>702</v>
+        <v>730</v>
       </c>
       <c r="E272" t="s">
-        <v>702</v>
+        <v>730</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -7432,13 +7582,13 @@
         <v>282</v>
       </c>
       <c r="B273" t="s">
-        <v>428</v>
+        <v>456</v>
       </c>
       <c r="C273" t="s">
-        <v>703</v>
+        <v>731</v>
       </c>
       <c r="E273" t="s">
-        <v>703</v>
+        <v>731</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -7446,13 +7596,13 @@
         <v>283</v>
       </c>
       <c r="B274" t="s">
-        <v>428</v>
+        <v>456</v>
       </c>
       <c r="C274" t="s">
-        <v>704</v>
+        <v>732</v>
       </c>
       <c r="E274" t="s">
-        <v>704</v>
+        <v>732</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -7460,13 +7610,13 @@
         <v>284</v>
       </c>
       <c r="B275" t="s">
-        <v>428</v>
+        <v>456</v>
       </c>
       <c r="C275" t="s">
-        <v>705</v>
+        <v>733</v>
       </c>
       <c r="E275" t="s">
-        <v>705</v>
+        <v>733</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -7474,13 +7624,13 @@
         <v>285</v>
       </c>
       <c r="B276" t="s">
-        <v>428</v>
+        <v>456</v>
       </c>
       <c r="C276" t="s">
-        <v>706</v>
+        <v>734</v>
       </c>
       <c r="E276" t="s">
-        <v>706</v>
+        <v>734</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -7488,13 +7638,13 @@
         <v>286</v>
       </c>
       <c r="B277" t="s">
-        <v>428</v>
+        <v>456</v>
       </c>
       <c r="C277" t="s">
-        <v>707</v>
+        <v>735</v>
       </c>
       <c r="E277" t="s">
-        <v>707</v>
+        <v>735</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -7502,10 +7652,13 @@
         <v>287</v>
       </c>
       <c r="B278" t="s">
-        <v>428</v>
+        <v>456</v>
       </c>
       <c r="C278" t="s">
-        <v>708</v>
+        <v>736</v>
+      </c>
+      <c r="E278" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -7513,13 +7666,13 @@
         <v>288</v>
       </c>
       <c r="B279" t="s">
-        <v>428</v>
+        <v>456</v>
       </c>
       <c r="C279" t="s">
-        <v>709</v>
+        <v>737</v>
       </c>
       <c r="E279" t="s">
-        <v>709</v>
+        <v>737</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -7527,13 +7680,13 @@
         <v>289</v>
       </c>
       <c r="B280" t="s">
-        <v>428</v>
+        <v>456</v>
       </c>
       <c r="C280" t="s">
-        <v>710</v>
+        <v>738</v>
       </c>
       <c r="E280" t="s">
-        <v>710</v>
+        <v>738</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -7541,13 +7694,13 @@
         <v>290</v>
       </c>
       <c r="B281" t="s">
-        <v>428</v>
+        <v>456</v>
       </c>
       <c r="C281" t="s">
-        <v>711</v>
+        <v>739</v>
       </c>
       <c r="E281" t="s">
-        <v>711</v>
+        <v>739</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -7555,13 +7708,13 @@
         <v>291</v>
       </c>
       <c r="B282" t="s">
-        <v>428</v>
+        <v>456</v>
       </c>
       <c r="C282" t="s">
-        <v>712</v>
+        <v>740</v>
       </c>
       <c r="E282" t="s">
-        <v>712</v>
+        <v>740</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -7569,13 +7722,13 @@
         <v>292</v>
       </c>
       <c r="B283" t="s">
-        <v>428</v>
+        <v>456</v>
       </c>
       <c r="C283" t="s">
-        <v>713</v>
+        <v>741</v>
       </c>
       <c r="E283" t="s">
-        <v>713</v>
+        <v>741</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -7583,13 +7736,10 @@
         <v>293</v>
       </c>
       <c r="B284" t="s">
-        <v>428</v>
+        <v>456</v>
       </c>
       <c r="C284" t="s">
-        <v>714</v>
-      </c>
-      <c r="E284" t="s">
-        <v>714</v>
+        <v>742</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -7597,13 +7747,13 @@
         <v>294</v>
       </c>
       <c r="B285" t="s">
-        <v>428</v>
+        <v>456</v>
       </c>
       <c r="C285" t="s">
-        <v>715</v>
+        <v>743</v>
       </c>
       <c r="E285" t="s">
-        <v>715</v>
+        <v>743</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -7611,13 +7761,13 @@
         <v>295</v>
       </c>
       <c r="B286" t="s">
-        <v>428</v>
+        <v>456</v>
       </c>
       <c r="C286" t="s">
-        <v>716</v>
+        <v>744</v>
       </c>
       <c r="E286" t="s">
-        <v>716</v>
+        <v>744</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -7625,13 +7775,13 @@
         <v>296</v>
       </c>
       <c r="B287" t="s">
-        <v>428</v>
+        <v>456</v>
       </c>
       <c r="C287" t="s">
-        <v>717</v>
+        <v>745</v>
       </c>
       <c r="E287" t="s">
-        <v>717</v>
+        <v>745</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -7639,422 +7789,407 @@
         <v>297</v>
       </c>
       <c r="B288" t="s">
-        <v>428</v>
+        <v>456</v>
       </c>
       <c r="C288" t="s">
-        <v>718</v>
+        <v>746</v>
       </c>
       <c r="E288" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="289" spans="1:9">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5">
       <c r="A289" s="1" t="s">
         <v>298</v>
       </c>
       <c r="B289" t="s">
-        <v>428</v>
+        <v>456</v>
       </c>
       <c r="C289" t="s">
-        <v>719</v>
+        <v>747</v>
       </c>
       <c r="E289" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="290" spans="1:9">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5">
       <c r="A290" s="1" t="s">
         <v>299</v>
       </c>
       <c r="B290" t="s">
-        <v>428</v>
+        <v>456</v>
       </c>
       <c r="C290" t="s">
-        <v>720</v>
-      </c>
-      <c r="E290" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="291" spans="1:9">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5">
       <c r="A291" s="1" t="s">
         <v>300</v>
       </c>
       <c r="B291" t="s">
-        <v>428</v>
+        <v>456</v>
       </c>
       <c r="C291" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
       <c r="E291" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="292" spans="1:9">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5">
       <c r="A292" s="1" t="s">
         <v>301</v>
       </c>
       <c r="B292" t="s">
-        <v>428</v>
+        <v>456</v>
       </c>
       <c r="C292" t="s">
-        <v>722</v>
+        <v>750</v>
       </c>
       <c r="E292" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="293" spans="1:9">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5">
       <c r="A293" s="1" t="s">
         <v>302</v>
       </c>
       <c r="B293" t="s">
-        <v>428</v>
+        <v>456</v>
       </c>
       <c r="C293" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="294" spans="1:9">
+        <v>751</v>
+      </c>
+      <c r="E293" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5">
       <c r="A294" s="1" t="s">
         <v>303</v>
       </c>
       <c r="B294" t="s">
-        <v>428</v>
+        <v>456</v>
       </c>
       <c r="C294" t="s">
-        <v>724</v>
+        <v>752</v>
       </c>
       <c r="E294" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="295" spans="1:9">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5">
       <c r="A295" s="1" t="s">
         <v>304</v>
       </c>
       <c r="B295" t="s">
-        <v>428</v>
+        <v>456</v>
       </c>
       <c r="C295" t="s">
-        <v>725</v>
+        <v>753</v>
       </c>
       <c r="E295" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="296" spans="1:9">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5">
       <c r="A296" s="1" t="s">
         <v>305</v>
       </c>
       <c r="B296" t="s">
-        <v>428</v>
+        <v>456</v>
       </c>
       <c r="C296" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="297" spans="1:9">
+        <v>754</v>
+      </c>
+      <c r="E296" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5">
       <c r="A297" s="1" t="s">
         <v>306</v>
       </c>
       <c r="B297" t="s">
-        <v>428</v>
+        <v>456</v>
       </c>
       <c r="C297" t="s">
-        <v>727</v>
+        <v>755</v>
       </c>
       <c r="E297" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="298" spans="1:9">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5">
       <c r="A298" s="1" t="s">
         <v>307</v>
       </c>
       <c r="B298" t="s">
-        <v>428</v>
+        <v>456</v>
       </c>
       <c r="C298" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="299" spans="1:9">
+        <v>756</v>
+      </c>
+      <c r="E298" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5">
       <c r="A299" s="1" t="s">
         <v>308</v>
       </c>
       <c r="B299" t="s">
-        <v>428</v>
+        <v>456</v>
       </c>
       <c r="C299" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="300" spans="1:9">
+        <v>757</v>
+      </c>
+      <c r="E299" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5">
       <c r="A300" s="1" t="s">
         <v>309</v>
       </c>
       <c r="B300" t="s">
-        <v>428</v>
+        <v>456</v>
       </c>
       <c r="C300" t="s">
-        <v>730</v>
-      </c>
-      <c r="E300" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="301" spans="1:9">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5">
       <c r="A301" s="1" t="s">
         <v>310</v>
       </c>
       <c r="B301" t="s">
-        <v>429</v>
+        <v>456</v>
       </c>
       <c r="C301" t="s">
-        <v>731</v>
-      </c>
-      <c r="H301" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="302" spans="1:9">
+        <v>759</v>
+      </c>
+      <c r="E301" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5">
       <c r="A302" s="1" t="s">
         <v>311</v>
       </c>
       <c r="B302" t="s">
-        <v>429</v>
+        <v>456</v>
       </c>
       <c r="C302" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="303" spans="1:9">
+        <v>760</v>
+      </c>
+      <c r="E302" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5">
       <c r="A303" s="1" t="s">
         <v>312</v>
       </c>
       <c r="B303" t="s">
-        <v>429</v>
+        <v>456</v>
       </c>
       <c r="C303" t="s">
-        <v>733</v>
-      </c>
-      <c r="H303" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="304" spans="1:9">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5">
       <c r="A304" s="1" t="s">
         <v>313</v>
       </c>
       <c r="B304" t="s">
-        <v>429</v>
+        <v>456</v>
       </c>
       <c r="C304" t="s">
-        <v>734</v>
-      </c>
-      <c r="I304" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="305" spans="1:8">
+        <v>762</v>
+      </c>
+      <c r="E304" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5">
       <c r="A305" s="1" t="s">
         <v>314</v>
       </c>
       <c r="B305" t="s">
-        <v>429</v>
+        <v>456</v>
       </c>
       <c r="C305" t="s">
-        <v>735</v>
-      </c>
-      <c r="H305" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="306" spans="1:8">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5">
       <c r="A306" s="1" t="s">
         <v>315</v>
       </c>
       <c r="B306" t="s">
-        <v>429</v>
+        <v>456</v>
       </c>
       <c r="C306" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="307" spans="1:8">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5">
       <c r="A307" s="1" t="s">
         <v>316</v>
       </c>
       <c r="B307" t="s">
-        <v>429</v>
+        <v>456</v>
       </c>
       <c r="C307" t="s">
-        <v>737</v>
-      </c>
-      <c r="H307" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="308" spans="1:8">
+        <v>765</v>
+      </c>
+      <c r="E307" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5">
       <c r="A308" s="1" t="s">
         <v>317</v>
       </c>
       <c r="B308" t="s">
-        <v>429</v>
+        <v>456</v>
       </c>
       <c r="C308" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="309" spans="1:8">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5">
       <c r="A309" s="1" t="s">
         <v>318</v>
       </c>
       <c r="B309" t="s">
-        <v>429</v>
+        <v>456</v>
       </c>
       <c r="C309" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="310" spans="1:8">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5">
       <c r="A310" s="1" t="s">
         <v>319</v>
       </c>
       <c r="B310" t="s">
-        <v>429</v>
+        <v>456</v>
       </c>
       <c r="C310" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="311" spans="1:8">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5">
       <c r="A311" s="1" t="s">
         <v>320</v>
       </c>
       <c r="B311" t="s">
-        <v>429</v>
+        <v>456</v>
       </c>
       <c r="C311" t="s">
-        <v>741</v>
-      </c>
-      <c r="H311" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="312" spans="1:8">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5">
       <c r="A312" s="1" t="s">
         <v>321</v>
       </c>
       <c r="B312" t="s">
-        <v>429</v>
+        <v>456</v>
       </c>
       <c r="C312" t="s">
-        <v>742</v>
-      </c>
-      <c r="G312" t="s">
-        <v>919</v>
-      </c>
-      <c r="H312" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="313" spans="1:8">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5">
       <c r="A313" s="1" t="s">
         <v>322</v>
       </c>
       <c r="B313" t="s">
-        <v>429</v>
+        <v>456</v>
       </c>
       <c r="C313" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="314" spans="1:8">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5">
       <c r="A314" s="1" t="s">
         <v>323</v>
       </c>
       <c r="B314" t="s">
-        <v>429</v>
+        <v>456</v>
       </c>
       <c r="C314" t="s">
-        <v>744</v>
-      </c>
-      <c r="H314" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="315" spans="1:8">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5">
       <c r="A315" s="1" t="s">
         <v>324</v>
       </c>
       <c r="B315" t="s">
-        <v>429</v>
+        <v>456</v>
       </c>
       <c r="C315" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="316" spans="1:8">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5">
       <c r="A316" s="1" t="s">
         <v>325</v>
       </c>
       <c r="B316" t="s">
-        <v>429</v>
+        <v>456</v>
       </c>
       <c r="C316" t="s">
-        <v>746</v>
-      </c>
-      <c r="H316" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="317" spans="1:8">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5">
       <c r="A317" s="1" t="s">
         <v>326</v>
       </c>
       <c r="B317" t="s">
-        <v>429</v>
+        <v>456</v>
       </c>
       <c r="C317" t="s">
-        <v>747</v>
-      </c>
-      <c r="H317" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="318" spans="1:8">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5">
       <c r="A318" s="1" t="s">
         <v>327</v>
       </c>
       <c r="B318" t="s">
-        <v>429</v>
+        <v>456</v>
       </c>
       <c r="C318" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="319" spans="1:8">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5">
       <c r="A319" s="1" t="s">
         <v>328</v>
       </c>
       <c r="B319" t="s">
-        <v>429</v>
+        <v>456</v>
       </c>
       <c r="C319" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="320" spans="1:8">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5">
       <c r="A320" s="1" t="s">
         <v>329</v>
       </c>
       <c r="B320" t="s">
-        <v>429</v>
+        <v>456</v>
       </c>
       <c r="C320" t="s">
-        <v>750</v>
+        <v>778</v>
       </c>
     </row>
     <row r="321" spans="1:9">
@@ -8062,16 +8197,10 @@
         <v>330</v>
       </c>
       <c r="B321" t="s">
-        <v>429</v>
+        <v>456</v>
       </c>
       <c r="C321" t="s">
-        <v>751</v>
-      </c>
-      <c r="G321" t="s">
-        <v>920</v>
-      </c>
-      <c r="I321" t="s">
-        <v>987</v>
+        <v>779</v>
       </c>
     </row>
     <row r="322" spans="1:9">
@@ -8079,13 +8208,10 @@
         <v>331</v>
       </c>
       <c r="B322" t="s">
-        <v>429</v>
+        <v>456</v>
       </c>
       <c r="C322" t="s">
-        <v>752</v>
-      </c>
-      <c r="E322" t="s">
-        <v>843</v>
+        <v>780</v>
       </c>
     </row>
     <row r="323" spans="1:9">
@@ -8093,10 +8219,10 @@
         <v>332</v>
       </c>
       <c r="B323" t="s">
-        <v>429</v>
+        <v>456</v>
       </c>
       <c r="C323" t="s">
-        <v>753</v>
+        <v>781</v>
       </c>
     </row>
     <row r="324" spans="1:9">
@@ -8104,19 +8230,10 @@
         <v>333</v>
       </c>
       <c r="B324" t="s">
-        <v>429</v>
+        <v>456</v>
       </c>
       <c r="C324" t="s">
-        <v>754</v>
-      </c>
-      <c r="E324" t="s">
-        <v>754</v>
-      </c>
-      <c r="G324" t="s">
-        <v>921</v>
-      </c>
-      <c r="I324" t="s">
-        <v>999</v>
+        <v>782</v>
       </c>
     </row>
     <row r="325" spans="1:9">
@@ -8124,13 +8241,10 @@
         <v>334</v>
       </c>
       <c r="B325" t="s">
-        <v>429</v>
+        <v>456</v>
       </c>
       <c r="C325" t="s">
-        <v>755</v>
-      </c>
-      <c r="G325" t="s">
-        <v>922</v>
+        <v>783</v>
       </c>
     </row>
     <row r="326" spans="1:9">
@@ -8138,10 +8252,10 @@
         <v>335</v>
       </c>
       <c r="B326" t="s">
-        <v>429</v>
+        <v>456</v>
       </c>
       <c r="C326" t="s">
-        <v>756</v>
+        <v>784</v>
       </c>
     </row>
     <row r="327" spans="1:9">
@@ -8149,10 +8263,10 @@
         <v>336</v>
       </c>
       <c r="B327" t="s">
-        <v>429</v>
+        <v>456</v>
       </c>
       <c r="C327" t="s">
-        <v>757</v>
+        <v>785</v>
       </c>
     </row>
     <row r="328" spans="1:9">
@@ -8160,10 +8274,10 @@
         <v>337</v>
       </c>
       <c r="B328" t="s">
-        <v>429</v>
+        <v>456</v>
       </c>
       <c r="C328" t="s">
-        <v>758</v>
+        <v>786</v>
       </c>
     </row>
     <row r="329" spans="1:9">
@@ -8171,13 +8285,13 @@
         <v>338</v>
       </c>
       <c r="B329" t="s">
-        <v>429</v>
+        <v>457</v>
       </c>
       <c r="C329" t="s">
-        <v>759</v>
-      </c>
-      <c r="E329" t="s">
-        <v>759</v>
+        <v>787</v>
+      </c>
+      <c r="H329" t="s">
+        <v>1017</v>
       </c>
     </row>
     <row r="330" spans="1:9">
@@ -8185,13 +8299,10 @@
         <v>339</v>
       </c>
       <c r="B330" t="s">
-        <v>429</v>
+        <v>457</v>
       </c>
       <c r="C330" t="s">
-        <v>760</v>
-      </c>
-      <c r="H330" t="s">
-        <v>968</v>
+        <v>788</v>
       </c>
     </row>
     <row r="331" spans="1:9">
@@ -8199,10 +8310,13 @@
         <v>340</v>
       </c>
       <c r="B331" t="s">
-        <v>429</v>
+        <v>457</v>
       </c>
       <c r="C331" t="s">
-        <v>761</v>
+        <v>789</v>
+      </c>
+      <c r="H331" t="s">
+        <v>1018</v>
       </c>
     </row>
     <row r="332" spans="1:9">
@@ -8210,10 +8324,13 @@
         <v>341</v>
       </c>
       <c r="B332" t="s">
-        <v>429</v>
+        <v>457</v>
       </c>
       <c r="C332" t="s">
-        <v>762</v>
+        <v>790</v>
+      </c>
+      <c r="I332" t="s">
+        <v>1041</v>
       </c>
     </row>
     <row r="333" spans="1:9">
@@ -8221,10 +8338,13 @@
         <v>342</v>
       </c>
       <c r="B333" t="s">
-        <v>429</v>
+        <v>457</v>
       </c>
       <c r="C333" t="s">
-        <v>763</v>
+        <v>791</v>
+      </c>
+      <c r="H333" t="s">
+        <v>1019</v>
       </c>
     </row>
     <row r="334" spans="1:9">
@@ -8232,10 +8352,10 @@
         <v>343</v>
       </c>
       <c r="B334" t="s">
-        <v>429</v>
+        <v>457</v>
       </c>
       <c r="C334" t="s">
-        <v>764</v>
+        <v>792</v>
       </c>
     </row>
     <row r="335" spans="1:9">
@@ -8243,13 +8363,13 @@
         <v>344</v>
       </c>
       <c r="B335" t="s">
-        <v>429</v>
+        <v>457</v>
       </c>
       <c r="C335" t="s">
-        <v>765</v>
-      </c>
-      <c r="E335" t="s">
-        <v>844</v>
+        <v>793</v>
+      </c>
+      <c r="H335" t="s">
+        <v>1020</v>
       </c>
     </row>
     <row r="336" spans="1:9">
@@ -8257,10 +8377,10 @@
         <v>345</v>
       </c>
       <c r="B336" t="s">
-        <v>429</v>
+        <v>457</v>
       </c>
       <c r="C336" t="s">
-        <v>766</v>
+        <v>794</v>
       </c>
     </row>
     <row r="337" spans="1:9">
@@ -8268,10 +8388,10 @@
         <v>346</v>
       </c>
       <c r="B337" t="s">
-        <v>429</v>
+        <v>457</v>
       </c>
       <c r="C337" t="s">
-        <v>767</v>
+        <v>795</v>
       </c>
     </row>
     <row r="338" spans="1:9">
@@ -8279,13 +8399,10 @@
         <v>347</v>
       </c>
       <c r="B338" t="s">
-        <v>429</v>
+        <v>457</v>
       </c>
       <c r="C338" t="s">
-        <v>768</v>
-      </c>
-      <c r="I338" t="s">
-        <v>987</v>
+        <v>796</v>
       </c>
     </row>
     <row r="339" spans="1:9">
@@ -8293,13 +8410,13 @@
         <v>348</v>
       </c>
       <c r="B339" t="s">
-        <v>429</v>
+        <v>457</v>
       </c>
       <c r="C339" t="s">
-        <v>769</v>
-      </c>
-      <c r="E339" t="s">
-        <v>769</v>
+        <v>797</v>
+      </c>
+      <c r="H339" t="s">
+        <v>1021</v>
       </c>
     </row>
     <row r="340" spans="1:9">
@@ -8307,13 +8424,16 @@
         <v>349</v>
       </c>
       <c r="B340" t="s">
-        <v>429</v>
+        <v>457</v>
       </c>
       <c r="C340" t="s">
-        <v>770</v>
-      </c>
-      <c r="I340" t="s">
-        <v>998</v>
+        <v>798</v>
+      </c>
+      <c r="G340" t="s">
+        <v>975</v>
+      </c>
+      <c r="H340" t="s">
+        <v>1022</v>
       </c>
     </row>
     <row r="341" spans="1:9">
@@ -8321,10 +8441,10 @@
         <v>350</v>
       </c>
       <c r="B341" t="s">
-        <v>429</v>
+        <v>457</v>
       </c>
       <c r="C341" t="s">
-        <v>771</v>
+        <v>799</v>
       </c>
     </row>
     <row r="342" spans="1:9">
@@ -8332,10 +8452,13 @@
         <v>351</v>
       </c>
       <c r="B342" t="s">
-        <v>430</v>
+        <v>457</v>
       </c>
       <c r="C342" t="s">
-        <v>772</v>
+        <v>800</v>
+      </c>
+      <c r="H342" t="s">
+        <v>1023</v>
       </c>
     </row>
     <row r="343" spans="1:9">
@@ -8343,19 +8466,10 @@
         <v>352</v>
       </c>
       <c r="B343" t="s">
-        <v>430</v>
+        <v>457</v>
       </c>
       <c r="C343" t="s">
-        <v>773</v>
-      </c>
-      <c r="E343" t="s">
-        <v>773</v>
-      </c>
-      <c r="G343" t="s">
-        <v>923</v>
-      </c>
-      <c r="I343" t="s">
-        <v>1000</v>
+        <v>801</v>
       </c>
     </row>
     <row r="344" spans="1:9">
@@ -8363,19 +8477,13 @@
         <v>353</v>
       </c>
       <c r="B344" t="s">
-        <v>430</v>
+        <v>457</v>
       </c>
       <c r="C344" t="s">
-        <v>774</v>
-      </c>
-      <c r="E344" t="s">
-        <v>774</v>
-      </c>
-      <c r="G344" t="s">
-        <v>924</v>
-      </c>
-      <c r="I344" t="s">
-        <v>998</v>
+        <v>802</v>
+      </c>
+      <c r="H344" t="s">
+        <v>1024</v>
       </c>
     </row>
     <row r="345" spans="1:9">
@@ -8383,10 +8491,13 @@
         <v>354</v>
       </c>
       <c r="B345" t="s">
-        <v>430</v>
+        <v>457</v>
       </c>
       <c r="C345" t="s">
-        <v>775</v>
+        <v>803</v>
+      </c>
+      <c r="H345" t="s">
+        <v>1024</v>
       </c>
     </row>
     <row r="346" spans="1:9">
@@ -8394,10 +8505,10 @@
         <v>355</v>
       </c>
       <c r="B346" t="s">
-        <v>430</v>
+        <v>457</v>
       </c>
       <c r="C346" t="s">
-        <v>776</v>
+        <v>804</v>
       </c>
     </row>
     <row r="347" spans="1:9">
@@ -8405,19 +8516,10 @@
         <v>356</v>
       </c>
       <c r="B347" t="s">
-        <v>430</v>
+        <v>457</v>
       </c>
       <c r="C347" t="s">
-        <v>777</v>
-      </c>
-      <c r="E347" t="s">
-        <v>777</v>
-      </c>
-      <c r="G347" t="s">
-        <v>925</v>
-      </c>
-      <c r="I347" t="s">
-        <v>986</v>
+        <v>805</v>
       </c>
     </row>
     <row r="348" spans="1:9">
@@ -8425,19 +8527,10 @@
         <v>357</v>
       </c>
       <c r="B348" t="s">
-        <v>430</v>
+        <v>457</v>
       </c>
       <c r="C348" t="s">
-        <v>778</v>
-      </c>
-      <c r="E348" t="s">
-        <v>778</v>
-      </c>
-      <c r="G348" t="s">
-        <v>926</v>
-      </c>
-      <c r="I348" t="s">
-        <v>984</v>
+        <v>806</v>
       </c>
     </row>
     <row r="349" spans="1:9">
@@ -8445,10 +8538,16 @@
         <v>358</v>
       </c>
       <c r="B349" t="s">
-        <v>430</v>
+        <v>457</v>
       </c>
       <c r="C349" t="s">
-        <v>779</v>
+        <v>807</v>
+      </c>
+      <c r="G349" t="s">
+        <v>976</v>
+      </c>
+      <c r="I349" t="s">
+        <v>1043</v>
       </c>
     </row>
     <row r="350" spans="1:9">
@@ -8456,19 +8555,13 @@
         <v>359</v>
       </c>
       <c r="B350" t="s">
-        <v>430</v>
+        <v>457</v>
       </c>
       <c r="C350" t="s">
-        <v>780</v>
+        <v>808</v>
       </c>
       <c r="E350" t="s">
-        <v>780</v>
-      </c>
-      <c r="G350" t="s">
-        <v>927</v>
-      </c>
-      <c r="I350" t="s">
-        <v>984</v>
+        <v>899</v>
       </c>
     </row>
     <row r="351" spans="1:9">
@@ -8476,16 +8569,10 @@
         <v>360</v>
       </c>
       <c r="B351" t="s">
-        <v>430</v>
+        <v>457</v>
       </c>
       <c r="C351" t="s">
-        <v>781</v>
-      </c>
-      <c r="G351" t="s">
-        <v>928</v>
-      </c>
-      <c r="I351" t="s">
-        <v>984</v>
+        <v>809</v>
       </c>
     </row>
     <row r="352" spans="1:9">
@@ -8493,19 +8580,19 @@
         <v>361</v>
       </c>
       <c r="B352" t="s">
-        <v>430</v>
+        <v>457</v>
       </c>
       <c r="C352" t="s">
-        <v>782</v>
+        <v>810</v>
       </c>
       <c r="E352" t="s">
-        <v>782</v>
+        <v>810</v>
       </c>
       <c r="G352" t="s">
-        <v>929</v>
+        <v>977</v>
       </c>
       <c r="I352" t="s">
-        <v>1001</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="353" spans="1:9">
@@ -8513,13 +8600,13 @@
         <v>362</v>
       </c>
       <c r="B353" t="s">
-        <v>430</v>
+        <v>457</v>
       </c>
       <c r="C353" t="s">
-        <v>783</v>
-      </c>
-      <c r="E353" t="s">
-        <v>783</v>
+        <v>811</v>
+      </c>
+      <c r="G353" t="s">
+        <v>978</v>
       </c>
     </row>
     <row r="354" spans="1:9">
@@ -8527,13 +8614,10 @@
         <v>363</v>
       </c>
       <c r="B354" t="s">
-        <v>430</v>
+        <v>457</v>
       </c>
       <c r="C354" t="s">
-        <v>784</v>
-      </c>
-      <c r="E354" t="s">
-        <v>784</v>
+        <v>812</v>
       </c>
     </row>
     <row r="355" spans="1:9">
@@ -8541,16 +8625,10 @@
         <v>364</v>
       </c>
       <c r="B355" t="s">
-        <v>430</v>
+        <v>457</v>
       </c>
       <c r="C355" t="s">
-        <v>785</v>
-      </c>
-      <c r="G355" t="s">
-        <v>930</v>
-      </c>
-      <c r="I355" t="s">
-        <v>984</v>
+        <v>813</v>
       </c>
     </row>
     <row r="356" spans="1:9">
@@ -8558,16 +8636,10 @@
         <v>365</v>
       </c>
       <c r="B356" t="s">
-        <v>430</v>
+        <v>457</v>
       </c>
       <c r="C356" t="s">
-        <v>786</v>
-      </c>
-      <c r="G356" t="s">
-        <v>931</v>
-      </c>
-      <c r="I356" t="s">
-        <v>1002</v>
+        <v>814</v>
       </c>
     </row>
     <row r="357" spans="1:9">
@@ -8575,19 +8647,13 @@
         <v>366</v>
       </c>
       <c r="B357" t="s">
-        <v>430</v>
+        <v>457</v>
       </c>
       <c r="C357" t="s">
-        <v>787</v>
+        <v>815</v>
       </c>
       <c r="E357" t="s">
-        <v>787</v>
-      </c>
-      <c r="G357" t="s">
-        <v>932</v>
-      </c>
-      <c r="I357" t="s">
-        <v>1000</v>
+        <v>815</v>
       </c>
     </row>
     <row r="358" spans="1:9">
@@ -8595,16 +8661,13 @@
         <v>367</v>
       </c>
       <c r="B358" t="s">
-        <v>430</v>
+        <v>457</v>
       </c>
       <c r="C358" t="s">
-        <v>788</v>
-      </c>
-      <c r="G358" t="s">
-        <v>933</v>
-      </c>
-      <c r="I358" t="s">
-        <v>1000</v>
+        <v>816</v>
+      </c>
+      <c r="H358" t="s">
+        <v>1024</v>
       </c>
     </row>
     <row r="359" spans="1:9">
@@ -8612,19 +8675,10 @@
         <v>368</v>
       </c>
       <c r="B359" t="s">
-        <v>430</v>
+        <v>457</v>
       </c>
       <c r="C359" t="s">
-        <v>789</v>
-      </c>
-      <c r="E359" t="s">
-        <v>789</v>
-      </c>
-      <c r="G359" t="s">
-        <v>934</v>
-      </c>
-      <c r="I359" t="s">
-        <v>1002</v>
+        <v>817</v>
       </c>
     </row>
     <row r="360" spans="1:9">
@@ -8632,16 +8686,10 @@
         <v>369</v>
       </c>
       <c r="B360" t="s">
-        <v>430</v>
+        <v>457</v>
       </c>
       <c r="C360" t="s">
-        <v>790</v>
-      </c>
-      <c r="G360" t="s">
-        <v>935</v>
-      </c>
-      <c r="I360" t="s">
-        <v>986</v>
+        <v>818</v>
       </c>
     </row>
     <row r="361" spans="1:9">
@@ -8649,10 +8697,10 @@
         <v>370</v>
       </c>
       <c r="B361" t="s">
-        <v>430</v>
+        <v>457</v>
       </c>
       <c r="C361" t="s">
-        <v>791</v>
+        <v>819</v>
       </c>
     </row>
     <row r="362" spans="1:9">
@@ -8660,22 +8708,10 @@
         <v>371</v>
       </c>
       <c r="B362" t="s">
-        <v>431</v>
+        <v>457</v>
       </c>
       <c r="C362" t="s">
-        <v>792</v>
-      </c>
-      <c r="E362" t="s">
-        <v>792</v>
-      </c>
-      <c r="G362" t="s">
-        <v>936</v>
-      </c>
-      <c r="H362" t="s">
-        <v>969</v>
-      </c>
-      <c r="I362" t="s">
-        <v>994</v>
+        <v>820</v>
       </c>
     </row>
     <row r="363" spans="1:9">
@@ -8683,16 +8719,13 @@
         <v>372</v>
       </c>
       <c r="B363" t="s">
-        <v>431</v>
+        <v>457</v>
       </c>
       <c r="C363" t="s">
-        <v>793</v>
+        <v>821</v>
       </c>
       <c r="E363" t="s">
-        <v>793</v>
-      </c>
-      <c r="H363" t="s">
-        <v>970</v>
+        <v>900</v>
       </c>
     </row>
     <row r="364" spans="1:9">
@@ -8700,22 +8733,10 @@
         <v>373</v>
       </c>
       <c r="B364" t="s">
-        <v>431</v>
+        <v>457</v>
       </c>
       <c r="C364" t="s">
-        <v>794</v>
-      </c>
-      <c r="E364" t="s">
-        <v>794</v>
-      </c>
-      <c r="G364" t="s">
-        <v>937</v>
-      </c>
-      <c r="H364" t="s">
-        <v>955</v>
-      </c>
-      <c r="I364" t="s">
-        <v>985</v>
+        <v>822</v>
       </c>
     </row>
     <row r="365" spans="1:9">
@@ -8723,22 +8744,10 @@
         <v>374</v>
       </c>
       <c r="B365" t="s">
-        <v>431</v>
+        <v>457</v>
       </c>
       <c r="C365" t="s">
-        <v>795</v>
-      </c>
-      <c r="E365" t="s">
-        <v>795</v>
-      </c>
-      <c r="G365" t="s">
-        <v>938</v>
-      </c>
-      <c r="H365" t="s">
-        <v>971</v>
-      </c>
-      <c r="I365" t="s">
-        <v>982</v>
+        <v>823</v>
       </c>
     </row>
     <row r="366" spans="1:9">
@@ -8746,10 +8755,13 @@
         <v>375</v>
       </c>
       <c r="B366" t="s">
-        <v>431</v>
+        <v>457</v>
       </c>
       <c r="C366" t="s">
-        <v>796</v>
+        <v>824</v>
+      </c>
+      <c r="I366" t="s">
+        <v>1043</v>
       </c>
     </row>
     <row r="367" spans="1:9">
@@ -8757,16 +8769,13 @@
         <v>376</v>
       </c>
       <c r="B367" t="s">
-        <v>431</v>
+        <v>457</v>
       </c>
       <c r="C367" t="s">
-        <v>797</v>
+        <v>825</v>
       </c>
       <c r="E367" t="s">
-        <v>845</v>
-      </c>
-      <c r="G367" t="s">
-        <v>939</v>
+        <v>825</v>
       </c>
     </row>
     <row r="368" spans="1:9">
@@ -8774,16 +8783,13 @@
         <v>377</v>
       </c>
       <c r="B368" t="s">
-        <v>431</v>
+        <v>457</v>
       </c>
       <c r="C368" t="s">
-        <v>798</v>
-      </c>
-      <c r="E368" t="s">
-        <v>846</v>
-      </c>
-      <c r="G368" t="s">
-        <v>940</v>
+        <v>826</v>
+      </c>
+      <c r="I368" t="s">
+        <v>1054</v>
       </c>
     </row>
     <row r="369" spans="1:9">
@@ -8791,22 +8797,10 @@
         <v>378</v>
       </c>
       <c r="B369" t="s">
-        <v>431</v>
+        <v>457</v>
       </c>
       <c r="C369" t="s">
-        <v>799</v>
-      </c>
-      <c r="E369" t="s">
-        <v>847</v>
-      </c>
-      <c r="G369" t="s">
-        <v>941</v>
-      </c>
-      <c r="H369" t="s">
-        <v>972</v>
-      </c>
-      <c r="I369" t="s">
-        <v>1003</v>
+        <v>827</v>
       </c>
     </row>
     <row r="370" spans="1:9">
@@ -8814,19 +8808,10 @@
         <v>379</v>
       </c>
       <c r="B370" t="s">
-        <v>431</v>
+        <v>458</v>
       </c>
       <c r="C370" t="s">
-        <v>800</v>
-      </c>
-      <c r="E370" t="s">
-        <v>800</v>
-      </c>
-      <c r="H370" t="s">
-        <v>955</v>
-      </c>
-      <c r="I370" t="s">
-        <v>1004</v>
+        <v>828</v>
       </c>
     </row>
     <row r="371" spans="1:9">
@@ -8834,22 +8819,19 @@
         <v>380</v>
       </c>
       <c r="B371" t="s">
-        <v>431</v>
+        <v>458</v>
       </c>
       <c r="C371" t="s">
-        <v>801</v>
+        <v>829</v>
       </c>
       <c r="E371" t="s">
-        <v>801</v>
+        <v>829</v>
       </c>
       <c r="G371" t="s">
-        <v>942</v>
-      </c>
-      <c r="H371" t="s">
-        <v>973</v>
+        <v>979</v>
       </c>
       <c r="I371" t="s">
-        <v>1005</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="372" spans="1:9">
@@ -8857,22 +8839,19 @@
         <v>381</v>
       </c>
       <c r="B372" t="s">
-        <v>431</v>
+        <v>458</v>
       </c>
       <c r="C372" t="s">
-        <v>802</v>
+        <v>830</v>
       </c>
       <c r="E372" t="s">
-        <v>802</v>
+        <v>830</v>
       </c>
       <c r="G372" t="s">
-        <v>943</v>
-      </c>
-      <c r="H372" t="s">
-        <v>974</v>
+        <v>980</v>
       </c>
       <c r="I372" t="s">
-        <v>987</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="373" spans="1:9">
@@ -8880,16 +8859,10 @@
         <v>382</v>
       </c>
       <c r="B373" t="s">
-        <v>431</v>
+        <v>458</v>
       </c>
       <c r="C373" t="s">
-        <v>803</v>
-      </c>
-      <c r="E373" t="s">
-        <v>803</v>
-      </c>
-      <c r="H373" t="s">
-        <v>975</v>
+        <v>831</v>
       </c>
     </row>
     <row r="374" spans="1:9">
@@ -8897,13 +8870,10 @@
         <v>383</v>
       </c>
       <c r="B374" t="s">
-        <v>431</v>
+        <v>458</v>
       </c>
       <c r="C374" t="s">
-        <v>804</v>
-      </c>
-      <c r="H374" t="s">
-        <v>968</v>
+        <v>832</v>
       </c>
     </row>
     <row r="375" spans="1:9">
@@ -8911,13 +8881,19 @@
         <v>384</v>
       </c>
       <c r="B375" t="s">
-        <v>431</v>
+        <v>458</v>
       </c>
       <c r="C375" t="s">
-        <v>805</v>
+        <v>833</v>
       </c>
       <c r="E375" t="s">
-        <v>805</v>
+        <v>833</v>
+      </c>
+      <c r="G375" t="s">
+        <v>981</v>
+      </c>
+      <c r="I375" t="s">
+        <v>1042</v>
       </c>
     </row>
     <row r="376" spans="1:9">
@@ -8925,13 +8901,19 @@
         <v>385</v>
       </c>
       <c r="B376" t="s">
-        <v>431</v>
+        <v>458</v>
       </c>
       <c r="C376" t="s">
-        <v>806</v>
-      </c>
-      <c r="H376" t="s">
-        <v>976</v>
+        <v>834</v>
+      </c>
+      <c r="E376" t="s">
+        <v>834</v>
+      </c>
+      <c r="G376" t="s">
+        <v>982</v>
+      </c>
+      <c r="I376" t="s">
+        <v>1040</v>
       </c>
     </row>
     <row r="377" spans="1:9">
@@ -8939,13 +8921,10 @@
         <v>386</v>
       </c>
       <c r="B377" t="s">
-        <v>431</v>
+        <v>458</v>
       </c>
       <c r="C377" t="s">
-        <v>807</v>
-      </c>
-      <c r="H377" t="s">
-        <v>977</v>
+        <v>835</v>
       </c>
     </row>
     <row r="378" spans="1:9">
@@ -8953,10 +8932,19 @@
         <v>387</v>
       </c>
       <c r="B378" t="s">
-        <v>431</v>
+        <v>458</v>
       </c>
       <c r="C378" t="s">
-        <v>808</v>
+        <v>836</v>
+      </c>
+      <c r="E378" t="s">
+        <v>836</v>
+      </c>
+      <c r="G378" t="s">
+        <v>983</v>
+      </c>
+      <c r="I378" t="s">
+        <v>1040</v>
       </c>
     </row>
     <row r="379" spans="1:9">
@@ -8964,19 +8952,16 @@
         <v>388</v>
       </c>
       <c r="B379" t="s">
-        <v>431</v>
+        <v>458</v>
       </c>
       <c r="C379" t="s">
-        <v>809</v>
-      </c>
-      <c r="E379" t="s">
-        <v>809</v>
+        <v>837</v>
       </c>
       <c r="G379" t="s">
-        <v>944</v>
-      </c>
-      <c r="H379" t="s">
-        <v>978</v>
+        <v>984</v>
+      </c>
+      <c r="I379" t="s">
+        <v>1040</v>
       </c>
     </row>
     <row r="380" spans="1:9">
@@ -8984,25 +8969,19 @@
         <v>389</v>
       </c>
       <c r="B380" t="s">
-        <v>431</v>
+        <v>458</v>
       </c>
       <c r="C380" t="s">
-        <v>810</v>
-      </c>
-      <c r="D380" t="s">
-        <v>835</v>
+        <v>838</v>
       </c>
       <c r="E380" t="s">
-        <v>848</v>
+        <v>838</v>
       </c>
       <c r="G380" t="s">
-        <v>945</v>
-      </c>
-      <c r="H380" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="I380" t="s">
-        <v>1006</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="381" spans="1:9">
@@ -9010,19 +8989,13 @@
         <v>390</v>
       </c>
       <c r="B381" t="s">
-        <v>431</v>
+        <v>458</v>
       </c>
       <c r="C381" t="s">
-        <v>811</v>
+        <v>839</v>
       </c>
       <c r="E381" t="s">
-        <v>811</v>
-      </c>
-      <c r="G381" t="s">
-        <v>920</v>
-      </c>
-      <c r="I381" t="s">
-        <v>987</v>
+        <v>839</v>
       </c>
     </row>
     <row r="382" spans="1:9">
@@ -9030,19 +9003,13 @@
         <v>391</v>
       </c>
       <c r="B382" t="s">
-        <v>431</v>
+        <v>458</v>
       </c>
       <c r="C382" t="s">
-        <v>812</v>
+        <v>840</v>
       </c>
       <c r="E382" t="s">
-        <v>812</v>
-      </c>
-      <c r="G382" t="s">
-        <v>946</v>
-      </c>
-      <c r="I382" t="s">
-        <v>999</v>
+        <v>840</v>
       </c>
     </row>
     <row r="383" spans="1:9">
@@ -9050,16 +9017,16 @@
         <v>392</v>
       </c>
       <c r="B383" t="s">
-        <v>431</v>
+        <v>458</v>
       </c>
       <c r="C383" t="s">
-        <v>813</v>
-      </c>
-      <c r="E383" t="s">
-        <v>813</v>
+        <v>841</v>
+      </c>
+      <c r="G383" t="s">
+        <v>986</v>
       </c>
       <c r="I383" t="s">
-        <v>981</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="384" spans="1:9">
@@ -9067,19 +9034,16 @@
         <v>393</v>
       </c>
       <c r="B384" t="s">
-        <v>431</v>
+        <v>458</v>
       </c>
       <c r="C384" t="s">
-        <v>814</v>
-      </c>
-      <c r="E384" t="s">
-        <v>814</v>
+        <v>842</v>
       </c>
       <c r="G384" t="s">
-        <v>921</v>
+        <v>987</v>
       </c>
       <c r="I384" t="s">
-        <v>981</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="385" spans="1:9">
@@ -9087,13 +9051,19 @@
         <v>394</v>
       </c>
       <c r="B385" t="s">
-        <v>431</v>
+        <v>458</v>
       </c>
       <c r="C385" t="s">
-        <v>815</v>
+        <v>843</v>
       </c>
       <c r="E385" t="s">
-        <v>815</v>
+        <v>843</v>
+      </c>
+      <c r="G385" t="s">
+        <v>988</v>
+      </c>
+      <c r="I385" t="s">
+        <v>1056</v>
       </c>
     </row>
     <row r="386" spans="1:9">
@@ -9101,16 +9071,16 @@
         <v>395</v>
       </c>
       <c r="B386" t="s">
-        <v>431</v>
+        <v>458</v>
       </c>
       <c r="C386" t="s">
-        <v>816</v>
+        <v>844</v>
       </c>
       <c r="G386" t="s">
-        <v>947</v>
+        <v>989</v>
       </c>
       <c r="I386" t="s">
-        <v>982</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="387" spans="1:9">
@@ -9118,13 +9088,19 @@
         <v>396</v>
       </c>
       <c r="B387" t="s">
-        <v>431</v>
+        <v>458</v>
       </c>
       <c r="C387" t="s">
-        <v>817</v>
+        <v>845</v>
       </c>
       <c r="E387" t="s">
-        <v>817</v>
+        <v>845</v>
+      </c>
+      <c r="G387" t="s">
+        <v>990</v>
+      </c>
+      <c r="I387" t="s">
+        <v>1058</v>
       </c>
     </row>
     <row r="388" spans="1:9">
@@ -9132,10 +9108,16 @@
         <v>397</v>
       </c>
       <c r="B388" t="s">
-        <v>431</v>
+        <v>458</v>
       </c>
       <c r="C388" t="s">
-        <v>818</v>
+        <v>846</v>
+      </c>
+      <c r="G388" t="s">
+        <v>991</v>
+      </c>
+      <c r="I388" t="s">
+        <v>1042</v>
       </c>
     </row>
     <row r="389" spans="1:9">
@@ -9143,10 +9125,10 @@
         <v>398</v>
       </c>
       <c r="B389" t="s">
-        <v>431</v>
+        <v>458</v>
       </c>
       <c r="C389" t="s">
-        <v>819</v>
+        <v>847</v>
       </c>
     </row>
     <row r="390" spans="1:9">
@@ -9154,19 +9136,22 @@
         <v>399</v>
       </c>
       <c r="B390" t="s">
-        <v>431</v>
+        <v>459</v>
       </c>
       <c r="C390" t="s">
-        <v>820</v>
+        <v>848</v>
       </c>
       <c r="E390" t="s">
-        <v>820</v>
+        <v>848</v>
       </c>
       <c r="G390" t="s">
-        <v>948</v>
+        <v>992</v>
+      </c>
+      <c r="H390" t="s">
+        <v>1025</v>
       </c>
       <c r="I390" t="s">
-        <v>981</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="391" spans="1:9">
@@ -9174,10 +9159,16 @@
         <v>400</v>
       </c>
       <c r="B391" t="s">
-        <v>431</v>
+        <v>459</v>
       </c>
       <c r="C391" t="s">
-        <v>821</v>
+        <v>849</v>
+      </c>
+      <c r="E391" t="s">
+        <v>849</v>
+      </c>
+      <c r="H391" t="s">
+        <v>1026</v>
       </c>
     </row>
     <row r="392" spans="1:9">
@@ -9185,16 +9176,22 @@
         <v>401</v>
       </c>
       <c r="B392" t="s">
-        <v>431</v>
+        <v>459</v>
       </c>
       <c r="C392" t="s">
-        <v>822</v>
+        <v>850</v>
       </c>
       <c r="E392" t="s">
-        <v>822</v>
+        <v>850</v>
+      </c>
+      <c r="G392" t="s">
+        <v>993</v>
+      </c>
+      <c r="H392" t="s">
+        <v>1011</v>
       </c>
       <c r="I392" t="s">
-        <v>987</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="393" spans="1:9">
@@ -9202,13 +9199,22 @@
         <v>402</v>
       </c>
       <c r="B393" t="s">
-        <v>431</v>
+        <v>459</v>
       </c>
       <c r="C393" t="s">
-        <v>823</v>
+        <v>851</v>
       </c>
       <c r="E393" t="s">
-        <v>823</v>
+        <v>851</v>
+      </c>
+      <c r="G393" t="s">
+        <v>994</v>
+      </c>
+      <c r="H393" t="s">
+        <v>1027</v>
+      </c>
+      <c r="I393" t="s">
+        <v>1038</v>
       </c>
     </row>
     <row r="394" spans="1:9">
@@ -9216,19 +9222,10 @@
         <v>403</v>
       </c>
       <c r="B394" t="s">
-        <v>431</v>
+        <v>459</v>
       </c>
       <c r="C394" t="s">
-        <v>824</v>
-      </c>
-      <c r="E394" t="s">
-        <v>824</v>
-      </c>
-      <c r="G394" t="s">
-        <v>949</v>
-      </c>
-      <c r="I394" t="s">
-        <v>994</v>
+        <v>852</v>
       </c>
     </row>
     <row r="395" spans="1:9">
@@ -9236,13 +9233,16 @@
         <v>404</v>
       </c>
       <c r="B395" t="s">
-        <v>431</v>
+        <v>459</v>
       </c>
       <c r="C395" t="s">
-        <v>825</v>
+        <v>853</v>
       </c>
       <c r="E395" t="s">
-        <v>825</v>
+        <v>901</v>
+      </c>
+      <c r="G395" t="s">
+        <v>995</v>
       </c>
     </row>
     <row r="396" spans="1:9">
@@ -9250,10 +9250,16 @@
         <v>405</v>
       </c>
       <c r="B396" t="s">
-        <v>431</v>
+        <v>459</v>
       </c>
       <c r="C396" t="s">
-        <v>826</v>
+        <v>854</v>
+      </c>
+      <c r="E396" t="s">
+        <v>902</v>
+      </c>
+      <c r="G396" t="s">
+        <v>996</v>
       </c>
     </row>
     <row r="397" spans="1:9">
@@ -9261,10 +9267,22 @@
         <v>406</v>
       </c>
       <c r="B397" t="s">
-        <v>431</v>
+        <v>459</v>
       </c>
       <c r="C397" t="s">
-        <v>827</v>
+        <v>855</v>
+      </c>
+      <c r="E397" t="s">
+        <v>903</v>
+      </c>
+      <c r="G397" t="s">
+        <v>997</v>
+      </c>
+      <c r="H397" t="s">
+        <v>1028</v>
+      </c>
+      <c r="I397" t="s">
+        <v>1059</v>
       </c>
     </row>
     <row r="398" spans="1:9">
@@ -9272,16 +9290,19 @@
         <v>407</v>
       </c>
       <c r="B398" t="s">
-        <v>431</v>
+        <v>459</v>
       </c>
       <c r="C398" t="s">
-        <v>828</v>
-      </c>
-      <c r="G398" t="s">
-        <v>950</v>
+        <v>856</v>
+      </c>
+      <c r="E398" t="s">
+        <v>856</v>
+      </c>
+      <c r="H398" t="s">
+        <v>1011</v>
       </c>
       <c r="I398" t="s">
-        <v>994</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="399" spans="1:9">
@@ -9289,13 +9310,22 @@
         <v>408</v>
       </c>
       <c r="B399" t="s">
-        <v>431</v>
+        <v>459</v>
       </c>
       <c r="C399" t="s">
-        <v>829</v>
+        <v>857</v>
+      </c>
+      <c r="E399" t="s">
+        <v>857</v>
+      </c>
+      <c r="G399" t="s">
+        <v>998</v>
+      </c>
+      <c r="H399" t="s">
+        <v>1029</v>
       </c>
       <c r="I399" t="s">
-        <v>987</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="400" spans="1:9">
@@ -9303,66 +9333,512 @@
         <v>409</v>
       </c>
       <c r="B400" t="s">
-        <v>431</v>
+        <v>459</v>
       </c>
       <c r="C400" t="s">
-        <v>830</v>
+        <v>858</v>
       </c>
       <c r="E400" t="s">
-        <v>849</v>
+        <v>858</v>
       </c>
       <c r="G400" t="s">
-        <v>951</v>
+        <v>999</v>
       </c>
       <c r="H400" t="s">
-        <v>980</v>
+        <v>1030</v>
       </c>
       <c r="I400" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="401" spans="1:3">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="401" spans="1:9">
       <c r="A401" s="1" t="s">
         <v>410</v>
       </c>
       <c r="B401" t="s">
-        <v>431</v>
+        <v>459</v>
       </c>
       <c r="C401" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="402" spans="1:3">
+        <v>859</v>
+      </c>
+      <c r="E401" t="s">
+        <v>859</v>
+      </c>
+      <c r="H401" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="402" spans="1:9">
       <c r="A402" s="1" t="s">
         <v>411</v>
       </c>
       <c r="B402" t="s">
-        <v>431</v>
+        <v>459</v>
       </c>
       <c r="C402" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="403" spans="1:3">
+        <v>860</v>
+      </c>
+      <c r="H402" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="403" spans="1:9">
       <c r="A403" s="1" t="s">
         <v>412</v>
       </c>
       <c r="B403" t="s">
-        <v>431</v>
+        <v>459</v>
       </c>
       <c r="C403" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="404" spans="1:3">
+        <v>861</v>
+      </c>
+      <c r="E403" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="404" spans="1:9">
       <c r="A404" s="1" t="s">
         <v>413</v>
       </c>
       <c r="B404" t="s">
+        <v>459</v>
+      </c>
+      <c r="C404" t="s">
+        <v>862</v>
+      </c>
+      <c r="H404" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="405" spans="1:9">
+      <c r="A405" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B405" t="s">
+        <v>459</v>
+      </c>
+      <c r="C405" t="s">
+        <v>863</v>
+      </c>
+      <c r="H405" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="406" spans="1:9">
+      <c r="A406" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B406" t="s">
+        <v>459</v>
+      </c>
+      <c r="C406" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="407" spans="1:9">
+      <c r="A407" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B407" t="s">
+        <v>459</v>
+      </c>
+      <c r="C407" t="s">
+        <v>865</v>
+      </c>
+      <c r="E407" t="s">
+        <v>865</v>
+      </c>
+      <c r="G407" t="s">
+        <v>1000</v>
+      </c>
+      <c r="H407" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="408" spans="1:9">
+      <c r="A408" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B408" t="s">
+        <v>459</v>
+      </c>
+      <c r="C408" t="s">
+        <v>866</v>
+      </c>
+      <c r="D408" t="s">
+        <v>891</v>
+      </c>
+      <c r="E408" t="s">
+        <v>904</v>
+      </c>
+      <c r="G408" t="s">
+        <v>1001</v>
+      </c>
+      <c r="H408" t="s">
+        <v>1035</v>
+      </c>
+      <c r="I408" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="409" spans="1:9">
+      <c r="A409" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B409" t="s">
+        <v>459</v>
+      </c>
+      <c r="C409" t="s">
+        <v>867</v>
+      </c>
+      <c r="E409" t="s">
+        <v>867</v>
+      </c>
+      <c r="G409" t="s">
+        <v>976</v>
+      </c>
+      <c r="I409" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="410" spans="1:9">
+      <c r="A410" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B410" t="s">
+        <v>459</v>
+      </c>
+      <c r="C410" t="s">
+        <v>868</v>
+      </c>
+      <c r="E410" t="s">
+        <v>868</v>
+      </c>
+      <c r="G410" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I410" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="411" spans="1:9">
+      <c r="A411" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B411" t="s">
+        <v>459</v>
+      </c>
+      <c r="C411" t="s">
+        <v>869</v>
+      </c>
+      <c r="E411" t="s">
+        <v>869</v>
+      </c>
+      <c r="I411" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="412" spans="1:9">
+      <c r="A412" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B412" t="s">
+        <v>459</v>
+      </c>
+      <c r="C412" t="s">
+        <v>870</v>
+      </c>
+      <c r="E412" t="s">
+        <v>870</v>
+      </c>
+      <c r="G412" t="s">
+        <v>977</v>
+      </c>
+      <c r="I412" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="413" spans="1:9">
+      <c r="A413" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B413" t="s">
+        <v>459</v>
+      </c>
+      <c r="C413" t="s">
+        <v>871</v>
+      </c>
+      <c r="E413" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="414" spans="1:9">
+      <c r="A414" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B414" t="s">
+        <v>459</v>
+      </c>
+      <c r="C414" t="s">
+        <v>872</v>
+      </c>
+      <c r="G414" t="s">
+        <v>1003</v>
+      </c>
+      <c r="I414" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="415" spans="1:9">
+      <c r="A415" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B415" t="s">
+        <v>459</v>
+      </c>
+      <c r="C415" t="s">
+        <v>873</v>
+      </c>
+      <c r="E415" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="416" spans="1:9">
+      <c r="A416" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B416" t="s">
+        <v>459</v>
+      </c>
+      <c r="C416" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="417" spans="1:9">
+      <c r="A417" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B417" t="s">
+        <v>459</v>
+      </c>
+      <c r="C417" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="418" spans="1:9">
+      <c r="A418" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B418" t="s">
+        <v>459</v>
+      </c>
+      <c r="C418" t="s">
+        <v>876</v>
+      </c>
+      <c r="E418" t="s">
+        <v>876</v>
+      </c>
+      <c r="G418" t="s">
+        <v>1004</v>
+      </c>
+      <c r="I418" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="419" spans="1:9">
+      <c r="A419" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B419" t="s">
+        <v>459</v>
+      </c>
+      <c r="C419" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="420" spans="1:9">
+      <c r="A420" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B420" t="s">
+        <v>459</v>
+      </c>
+      <c r="C420" t="s">
+        <v>878</v>
+      </c>
+      <c r="E420" t="s">
+        <v>878</v>
+      </c>
+      <c r="I420" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="421" spans="1:9">
+      <c r="A421" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B421" t="s">
+        <v>459</v>
+      </c>
+      <c r="C421" t="s">
+        <v>879</v>
+      </c>
+      <c r="E421" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="422" spans="1:9">
+      <c r="A422" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="C404" t="s">
-        <v>834</v>
+      <c r="B422" t="s">
+        <v>459</v>
+      </c>
+      <c r="C422" t="s">
+        <v>880</v>
+      </c>
+      <c r="E422" t="s">
+        <v>880</v>
+      </c>
+      <c r="G422" t="s">
+        <v>1005</v>
+      </c>
+      <c r="I422" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="423" spans="1:9">
+      <c r="A423" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B423" t="s">
+        <v>459</v>
+      </c>
+      <c r="C423" t="s">
+        <v>881</v>
+      </c>
+      <c r="E423" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="424" spans="1:9">
+      <c r="A424" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B424" t="s">
+        <v>459</v>
+      </c>
+      <c r="C424" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="425" spans="1:9">
+      <c r="A425" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B425" t="s">
+        <v>459</v>
+      </c>
+      <c r="C425" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="426" spans="1:9">
+      <c r="A426" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B426" t="s">
+        <v>459</v>
+      </c>
+      <c r="C426" t="s">
+        <v>884</v>
+      </c>
+      <c r="G426" t="s">
+        <v>1006</v>
+      </c>
+      <c r="I426" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="427" spans="1:9">
+      <c r="A427" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B427" t="s">
+        <v>459</v>
+      </c>
+      <c r="C427" t="s">
+        <v>885</v>
+      </c>
+      <c r="I427" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="428" spans="1:9">
+      <c r="A428" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B428" t="s">
+        <v>459</v>
+      </c>
+      <c r="C428" t="s">
+        <v>886</v>
+      </c>
+      <c r="E428" t="s">
+        <v>905</v>
+      </c>
+      <c r="G428" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H428" t="s">
+        <v>1036</v>
+      </c>
+      <c r="I428" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="429" spans="1:9">
+      <c r="A429" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B429" t="s">
+        <v>459</v>
+      </c>
+      <c r="C429" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="430" spans="1:9">
+      <c r="A430" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B430" t="s">
+        <v>459</v>
+      </c>
+      <c r="C430" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="431" spans="1:9">
+      <c r="A431" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B431" t="s">
+        <v>459</v>
+      </c>
+      <c r="C431" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="432" spans="1:9">
+      <c r="A432" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B432" t="s">
+        <v>459</v>
+      </c>
+      <c r="C432" t="s">
+        <v>890</v>
       </c>
     </row>
   </sheetData>

--- a/all_course.xlsx
+++ b/all_course.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1800" uniqueCount="1065">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1809" uniqueCount="1071">
   <si>
     <t>category</t>
   </si>
@@ -502,6 +502,9 @@
     <t>81631498</t>
   </si>
   <si>
+    <t>9117aaec</t>
+  </si>
+  <si>
     <t>c625fb00</t>
   </si>
   <si>
@@ -571,6 +574,9 @@
     <t>b7d7b409</t>
   </si>
   <si>
+    <t>f7b34289</t>
+  </si>
+  <si>
     <t>1c42b1b1</t>
   </si>
   <si>
@@ -763,6 +769,9 @@
     <t>05825b5d</t>
   </si>
   <si>
+    <t>5fc8ffce</t>
+  </si>
+  <si>
     <t>cfa6d506</t>
   </si>
   <si>
@@ -1849,6 +1858,9 @@
     <t>四法宝鬘论讲解</t>
   </si>
   <si>
+    <t>四臂观音修法</t>
+  </si>
+  <si>
     <t>山法宝鬘论</t>
   </si>
   <si>
@@ -1918,6 +1930,9 @@
     <t>莲师金刚七句祈祷文讲解</t>
   </si>
   <si>
+    <t>菩提心修法仪轨</t>
+  </si>
+  <si>
     <t>菩提心的修法</t>
   </si>
   <si>
@@ -2108,6 +2123,9 @@
   </si>
   <si>
     <t>修文殊智慧勇士仪轨</t>
+  </si>
+  <si>
+    <t>十三周年涅槃法会纪念</t>
   </si>
   <si>
     <t>厌世歌•杜鹃妙音</t>
@@ -3566,7 +3584,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K432"/>
+  <dimension ref="A1:K435"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -3617,10 +3635,10 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="C2" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -3628,19 +3646,19 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="C3" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="E3" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="G3" t="s">
-        <v>906</v>
+        <v>912</v>
       </c>
       <c r="I3" t="s">
-        <v>1037</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -3648,13 +3666,13 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="C4" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="E4" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -3662,13 +3680,13 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="C5" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="G5" t="s">
-        <v>907</v>
+        <v>913</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -3676,16 +3694,16 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="C6" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="E6" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="G6" t="s">
-        <v>908</v>
+        <v>914</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -3693,16 +3711,16 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="C7" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="E7" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="J7" t="s">
-        <v>1063</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -3710,10 +3728,10 @@
         <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="C8" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -3721,13 +3739,13 @@
         <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="C9" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="E9" t="s">
-        <v>892</v>
+        <v>898</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -3735,19 +3753,19 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="C10" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="E10" t="s">
-        <v>893</v>
+        <v>899</v>
       </c>
       <c r="G10" t="s">
-        <v>909</v>
+        <v>915</v>
       </c>
       <c r="J10" t="s">
-        <v>1063</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -3755,13 +3773,13 @@
         <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="C11" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="H11" t="s">
-        <v>1008</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -3769,10 +3787,10 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="C12" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -3780,13 +3798,13 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="C13" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="H13" t="s">
-        <v>1009</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -3794,10 +3812,10 @@
         <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="C14" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -3805,13 +3823,13 @@
         <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="C15" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="E15" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -3819,19 +3837,19 @@
         <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="C16" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="E16" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="G16" t="s">
-        <v>910</v>
+        <v>916</v>
       </c>
       <c r="I16" t="s">
-        <v>1038</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -3839,13 +3857,13 @@
         <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="C17" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="E17" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -3853,19 +3871,19 @@
         <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="C18" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="E18" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="G18" t="s">
-        <v>911</v>
+        <v>917</v>
       </c>
       <c r="I18" t="s">
-        <v>1037</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -3873,16 +3891,16 @@
         <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="C19" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="E19" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J19" t="s">
-        <v>1064</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -3890,13 +3908,13 @@
         <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="C20" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="E20" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -3904,10 +3922,10 @@
         <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="C21" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -3915,16 +3933,16 @@
         <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="C22" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="E22" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="G22" t="s">
-        <v>912</v>
+        <v>918</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -3932,10 +3950,10 @@
         <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="C23" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -3943,10 +3961,10 @@
         <v>33</v>
       </c>
       <c r="B24" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="C24" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -3954,10 +3972,10 @@
         <v>34</v>
       </c>
       <c r="B25" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="C25" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -3965,10 +3983,10 @@
         <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="C26" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -3976,10 +3994,10 @@
         <v>36</v>
       </c>
       <c r="B27" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="C27" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -3987,10 +4005,10 @@
         <v>37</v>
       </c>
       <c r="B28" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="C28" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -3998,10 +4016,10 @@
         <v>38</v>
       </c>
       <c r="B29" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="C29" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -4009,10 +4027,10 @@
         <v>39</v>
       </c>
       <c r="B30" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="C30" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -4020,10 +4038,10 @@
         <v>40</v>
       </c>
       <c r="B31" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="C31" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -4031,10 +4049,10 @@
         <v>41</v>
       </c>
       <c r="B32" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="C32" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -4042,22 +4060,22 @@
         <v>42</v>
       </c>
       <c r="B33" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="C33" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="E33" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="G33" t="s">
-        <v>913</v>
+        <v>919</v>
       </c>
       <c r="I33" t="s">
-        <v>1039</v>
+        <v>1045</v>
       </c>
       <c r="J33" t="s">
-        <v>1064</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -4065,16 +4083,16 @@
         <v>43</v>
       </c>
       <c r="B34" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="C34" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="G34" t="s">
-        <v>914</v>
+        <v>920</v>
       </c>
       <c r="I34" t="s">
-        <v>1040</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -4082,10 +4100,10 @@
         <v>44</v>
       </c>
       <c r="B35" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="C35" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -4093,10 +4111,10 @@
         <v>45</v>
       </c>
       <c r="B36" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="C36" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -4104,10 +4122,10 @@
         <v>46</v>
       </c>
       <c r="B37" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="C37" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -4115,10 +4133,10 @@
         <v>47</v>
       </c>
       <c r="B38" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="C38" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -4126,10 +4144,10 @@
         <v>48</v>
       </c>
       <c r="B39" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="C39" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -4137,10 +4155,10 @@
         <v>49</v>
       </c>
       <c r="B40" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="C40" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -4148,19 +4166,19 @@
         <v>50</v>
       </c>
       <c r="B41" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="C41" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="E41" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="G41" t="s">
-        <v>915</v>
+        <v>921</v>
       </c>
       <c r="I41" t="s">
-        <v>1039</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -4168,10 +4186,10 @@
         <v>51</v>
       </c>
       <c r="B42" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="C42" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -4179,10 +4197,10 @@
         <v>52</v>
       </c>
       <c r="B43" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="C43" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -4190,13 +4208,13 @@
         <v>53</v>
       </c>
       <c r="B44" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="C44" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="J44" t="s">
-        <v>1064</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -4204,10 +4222,10 @@
         <v>54</v>
       </c>
       <c r="B45" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="C45" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -4215,19 +4233,19 @@
         <v>55</v>
       </c>
       <c r="B46" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="C46" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="E46" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="G46" t="s">
-        <v>916</v>
+        <v>922</v>
       </c>
       <c r="I46" t="s">
-        <v>1039</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -4235,13 +4253,13 @@
         <v>56</v>
       </c>
       <c r="B47" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="C47" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="E47" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -4249,16 +4267,16 @@
         <v>57</v>
       </c>
       <c r="B48" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="C48" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="E48" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="H48" t="s">
-        <v>1010</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -4266,19 +4284,19 @@
         <v>58</v>
       </c>
       <c r="B49" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="C49" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="E49" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="H49" t="s">
-        <v>1011</v>
+        <v>1017</v>
       </c>
       <c r="I49" t="s">
-        <v>1041</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -4286,16 +4304,16 @@
         <v>59</v>
       </c>
       <c r="B50" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="C50" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="E50" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="H50" t="s">
-        <v>1011</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -4303,13 +4321,13 @@
         <v>60</v>
       </c>
       <c r="B51" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="C51" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="E51" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -4317,10 +4335,10 @@
         <v>61</v>
       </c>
       <c r="B52" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="C52" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -4328,10 +4346,10 @@
         <v>62</v>
       </c>
       <c r="B53" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="C53" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -4339,10 +4357,10 @@
         <v>63</v>
       </c>
       <c r="B54" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="C54" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -4350,13 +4368,13 @@
         <v>64</v>
       </c>
       <c r="B55" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="C55" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="E55" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -4364,22 +4382,22 @@
         <v>65</v>
       </c>
       <c r="B56" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="C56" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="E56" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="G56" t="s">
-        <v>917</v>
+        <v>923</v>
       </c>
       <c r="H56" t="s">
-        <v>1011</v>
+        <v>1017</v>
       </c>
       <c r="I56" t="s">
-        <v>1042</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -4387,13 +4405,13 @@
         <v>66</v>
       </c>
       <c r="B57" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="C57" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="H57" t="s">
-        <v>1011</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -4401,16 +4419,16 @@
         <v>67</v>
       </c>
       <c r="B58" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="C58" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="E58" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="H58" t="s">
-        <v>1011</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -4418,22 +4436,22 @@
         <v>68</v>
       </c>
       <c r="B59" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="C59" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E59" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="G59" t="s">
-        <v>918</v>
+        <v>924</v>
       </c>
       <c r="H59" t="s">
-        <v>1011</v>
+        <v>1017</v>
       </c>
       <c r="I59" t="s">
-        <v>1043</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -4441,19 +4459,19 @@
         <v>69</v>
       </c>
       <c r="B60" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="C60" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="E60" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="H60" t="s">
-        <v>1011</v>
+        <v>1017</v>
       </c>
       <c r="I60" t="s">
-        <v>1044</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -4461,19 +4479,19 @@
         <v>70</v>
       </c>
       <c r="B61" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="C61" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="E61" t="s">
-        <v>895</v>
+        <v>901</v>
       </c>
       <c r="H61" t="s">
-        <v>1011</v>
+        <v>1017</v>
       </c>
       <c r="I61" t="s">
-        <v>1045</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -4481,10 +4499,10 @@
         <v>71</v>
       </c>
       <c r="B62" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="C62" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -4492,16 +4510,16 @@
         <v>72</v>
       </c>
       <c r="B63" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="C63" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="E63" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="I63" t="s">
-        <v>1046</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -4509,16 +4527,16 @@
         <v>73</v>
       </c>
       <c r="B64" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="C64" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="E64" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="I64" t="s">
-        <v>1037</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -4526,16 +4544,16 @@
         <v>74</v>
       </c>
       <c r="B65" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="C65" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="E65" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="G65" t="s">
-        <v>919</v>
+        <v>925</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -4543,19 +4561,19 @@
         <v>75</v>
       </c>
       <c r="B66" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="C66" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="E66" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="G66" t="s">
-        <v>920</v>
+        <v>926</v>
       </c>
       <c r="I66" t="s">
-        <v>1037</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -4563,13 +4581,13 @@
         <v>76</v>
       </c>
       <c r="B67" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C67" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="I67" t="s">
-        <v>1047</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -4577,13 +4595,13 @@
         <v>77</v>
       </c>
       <c r="B68" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C68" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="E68" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -4591,13 +4609,13 @@
         <v>78</v>
       </c>
       <c r="B69" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C69" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="I69" t="s">
-        <v>1047</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -4605,19 +4623,19 @@
         <v>79</v>
       </c>
       <c r="B70" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C70" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="E70" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="G70" t="s">
-        <v>921</v>
+        <v>927</v>
       </c>
       <c r="I70" t="s">
-        <v>1048</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -4625,16 +4643,16 @@
         <v>80</v>
       </c>
       <c r="B71" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C71" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="E71" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="I71" t="s">
-        <v>1041</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -4642,19 +4660,19 @@
         <v>81</v>
       </c>
       <c r="B72" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C72" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="E72" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="G72" t="s">
-        <v>922</v>
+        <v>928</v>
       </c>
       <c r="I72" t="s">
-        <v>1043</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -4662,16 +4680,16 @@
         <v>82</v>
       </c>
       <c r="B73" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C73" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="G73" t="s">
-        <v>923</v>
+        <v>929</v>
       </c>
       <c r="I73" t="s">
-        <v>1047</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -4679,13 +4697,13 @@
         <v>83</v>
       </c>
       <c r="B74" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C74" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="E74" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -4693,19 +4711,19 @@
         <v>84</v>
       </c>
       <c r="B75" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C75" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="E75" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="G75" t="s">
-        <v>923</v>
+        <v>929</v>
       </c>
       <c r="I75" t="s">
-        <v>1041</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -4713,19 +4731,19 @@
         <v>85</v>
       </c>
       <c r="B76" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C76" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="E76" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="G76" t="s">
-        <v>924</v>
+        <v>930</v>
       </c>
       <c r="H76" t="s">
-        <v>1012</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -4733,19 +4751,19 @@
         <v>86</v>
       </c>
       <c r="B77" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C77" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="E77" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="G77" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
       <c r="H77" t="s">
-        <v>1012</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -4753,19 +4771,19 @@
         <v>87</v>
       </c>
       <c r="B78" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C78" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="E78" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="G78" t="s">
-        <v>926</v>
+        <v>932</v>
       </c>
       <c r="H78" t="s">
-        <v>1012</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -4773,19 +4791,19 @@
         <v>88</v>
       </c>
       <c r="B79" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C79" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="E79" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="G79" t="s">
-        <v>927</v>
+        <v>933</v>
       </c>
       <c r="H79" t="s">
-        <v>1012</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -4793,19 +4811,19 @@
         <v>89</v>
       </c>
       <c r="B80" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C80" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="E80" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="G80" t="s">
-        <v>928</v>
+        <v>934</v>
       </c>
       <c r="H80" t="s">
-        <v>1012</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4813,19 +4831,19 @@
         <v>90</v>
       </c>
       <c r="B81" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C81" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="E81" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="G81" t="s">
-        <v>929</v>
+        <v>935</v>
       </c>
       <c r="H81" t="s">
-        <v>1012</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4833,19 +4851,19 @@
         <v>91</v>
       </c>
       <c r="B82" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C82" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="E82" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="G82" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
       <c r="H82" t="s">
-        <v>1012</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4853,19 +4871,19 @@
         <v>92</v>
       </c>
       <c r="B83" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C83" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="E83" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="G83" t="s">
-        <v>931</v>
+        <v>937</v>
       </c>
       <c r="H83" t="s">
-        <v>1012</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4873,19 +4891,19 @@
         <v>93</v>
       </c>
       <c r="B84" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C84" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="E84" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="G84" t="s">
-        <v>932</v>
+        <v>938</v>
       </c>
       <c r="H84" t="s">
-        <v>1012</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4893,19 +4911,19 @@
         <v>94</v>
       </c>
       <c r="B85" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C85" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="E85" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="G85" t="s">
-        <v>933</v>
+        <v>939</v>
       </c>
       <c r="H85" t="s">
-        <v>1012</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4913,19 +4931,19 @@
         <v>95</v>
       </c>
       <c r="B86" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C86" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="E86" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="G86" t="s">
-        <v>934</v>
+        <v>940</v>
       </c>
       <c r="H86" t="s">
-        <v>1012</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4933,19 +4951,19 @@
         <v>96</v>
       </c>
       <c r="B87" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C87" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="E87" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="G87" t="s">
-        <v>935</v>
+        <v>941</v>
       </c>
       <c r="H87" t="s">
-        <v>1012</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4953,19 +4971,19 @@
         <v>97</v>
       </c>
       <c r="B88" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C88" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="E88" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="G88" t="s">
-        <v>936</v>
+        <v>942</v>
       </c>
       <c r="H88" t="s">
-        <v>1012</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4973,19 +4991,19 @@
         <v>98</v>
       </c>
       <c r="B89" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C89" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="E89" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="G89" t="s">
-        <v>937</v>
+        <v>943</v>
       </c>
       <c r="H89" t="s">
-        <v>1012</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4993,19 +5011,19 @@
         <v>99</v>
       </c>
       <c r="B90" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C90" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="E90" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="G90" t="s">
-        <v>938</v>
+        <v>944</v>
       </c>
       <c r="H90" t="s">
-        <v>1012</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -5013,19 +5031,19 @@
         <v>100</v>
       </c>
       <c r="B91" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C91" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="E91" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="G91" t="s">
-        <v>939</v>
+        <v>945</v>
       </c>
       <c r="H91" t="s">
-        <v>1012</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -5033,19 +5051,19 @@
         <v>101</v>
       </c>
       <c r="B92" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C92" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="E92" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="G92" t="s">
-        <v>940</v>
+        <v>946</v>
       </c>
       <c r="H92" t="s">
-        <v>1012</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -5053,19 +5071,19 @@
         <v>102</v>
       </c>
       <c r="B93" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C93" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="E93" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="G93" t="s">
-        <v>941</v>
+        <v>947</v>
       </c>
       <c r="H93" t="s">
-        <v>1012</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -5073,19 +5091,19 @@
         <v>103</v>
       </c>
       <c r="B94" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C94" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="E94" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="G94" t="s">
-        <v>942</v>
+        <v>948</v>
       </c>
       <c r="H94" t="s">
-        <v>1012</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -5093,19 +5111,19 @@
         <v>104</v>
       </c>
       <c r="B95" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C95" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="E95" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="G95" t="s">
-        <v>943</v>
+        <v>949</v>
       </c>
       <c r="H95" t="s">
-        <v>1012</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -5113,19 +5131,19 @@
         <v>105</v>
       </c>
       <c r="B96" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C96" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="E96" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="G96" t="s">
-        <v>944</v>
+        <v>950</v>
       </c>
       <c r="H96" t="s">
-        <v>1012</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -5133,19 +5151,19 @@
         <v>106</v>
       </c>
       <c r="B97" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C97" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="E97" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="G97" t="s">
-        <v>945</v>
+        <v>951</v>
       </c>
       <c r="H97" t="s">
-        <v>1012</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -5153,19 +5171,19 @@
         <v>107</v>
       </c>
       <c r="B98" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C98" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="E98" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="G98" t="s">
-        <v>946</v>
+        <v>952</v>
       </c>
       <c r="H98" t="s">
-        <v>1012</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -5173,19 +5191,19 @@
         <v>108</v>
       </c>
       <c r="B99" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C99" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="E99" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="G99" t="s">
-        <v>947</v>
+        <v>953</v>
       </c>
       <c r="H99" t="s">
-        <v>1012</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -5193,19 +5211,19 @@
         <v>109</v>
       </c>
       <c r="B100" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C100" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="E100" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="G100" t="s">
-        <v>948</v>
+        <v>954</v>
       </c>
       <c r="H100" t="s">
-        <v>1012</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -5213,19 +5231,19 @@
         <v>110</v>
       </c>
       <c r="B101" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C101" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="E101" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="G101" t="s">
-        <v>949</v>
+        <v>955</v>
       </c>
       <c r="H101" t="s">
-        <v>1012</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -5233,19 +5251,19 @@
         <v>111</v>
       </c>
       <c r="B102" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C102" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="E102" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="G102" t="s">
-        <v>950</v>
+        <v>956</v>
       </c>
       <c r="H102" t="s">
-        <v>1012</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -5253,19 +5271,19 @@
         <v>112</v>
       </c>
       <c r="B103" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C103" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="E103" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="G103" t="s">
-        <v>951</v>
+        <v>957</v>
       </c>
       <c r="H103" t="s">
-        <v>1012</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -5273,19 +5291,19 @@
         <v>113</v>
       </c>
       <c r="B104" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C104" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="E104" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="G104" t="s">
-        <v>952</v>
+        <v>958</v>
       </c>
       <c r="H104" t="s">
-        <v>1012</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -5293,19 +5311,19 @@
         <v>114</v>
       </c>
       <c r="B105" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C105" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="E105" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="G105" t="s">
-        <v>953</v>
+        <v>959</v>
       </c>
       <c r="H105" t="s">
-        <v>1012</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -5313,19 +5331,19 @@
         <v>115</v>
       </c>
       <c r="B106" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C106" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="E106" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="G106" t="s">
-        <v>954</v>
+        <v>960</v>
       </c>
       <c r="H106" t="s">
-        <v>1012</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -5333,19 +5351,19 @@
         <v>116</v>
       </c>
       <c r="B107" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C107" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="E107" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="G107" t="s">
-        <v>955</v>
+        <v>961</v>
       </c>
       <c r="H107" t="s">
-        <v>1012</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -5353,13 +5371,13 @@
         <v>117</v>
       </c>
       <c r="B108" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C108" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="E108" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -5367,19 +5385,19 @@
         <v>118</v>
       </c>
       <c r="B109" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C109" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="E109" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="G109" t="s">
-        <v>956</v>
+        <v>962</v>
       </c>
       <c r="H109" t="s">
-        <v>1012</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -5387,19 +5405,19 @@
         <v>119</v>
       </c>
       <c r="B110" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C110" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="E110" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="G110" t="s">
-        <v>957</v>
+        <v>963</v>
       </c>
       <c r="H110" t="s">
-        <v>1012</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -5407,19 +5425,19 @@
         <v>120</v>
       </c>
       <c r="B111" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C111" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="E111" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="G111" t="s">
-        <v>958</v>
+        <v>964</v>
       </c>
       <c r="H111" t="s">
-        <v>1012</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -5427,19 +5445,19 @@
         <v>121</v>
       </c>
       <c r="B112" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C112" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="E112" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="G112" t="s">
-        <v>959</v>
+        <v>965</v>
       </c>
       <c r="H112" t="s">
-        <v>1012</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -5447,13 +5465,13 @@
         <v>122</v>
       </c>
       <c r="B113" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C113" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="E113" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -5461,13 +5479,13 @@
         <v>123</v>
       </c>
       <c r="B114" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C114" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="E114" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -5475,13 +5493,13 @@
         <v>124</v>
       </c>
       <c r="B115" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C115" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="E115" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -5489,13 +5507,13 @@
         <v>125</v>
       </c>
       <c r="B116" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C116" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="E116" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -5503,13 +5521,13 @@
         <v>126</v>
       </c>
       <c r="B117" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C117" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="E117" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -5517,13 +5535,13 @@
         <v>127</v>
       </c>
       <c r="B118" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C118" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="E118" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -5531,13 +5549,13 @@
         <v>128</v>
       </c>
       <c r="B119" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C119" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="E119" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -5545,13 +5563,13 @@
         <v>129</v>
       </c>
       <c r="B120" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C120" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="E120" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -5559,13 +5577,13 @@
         <v>130</v>
       </c>
       <c r="B121" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C121" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="E121" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -5573,13 +5591,13 @@
         <v>131</v>
       </c>
       <c r="B122" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C122" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="E122" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -5587,10 +5605,10 @@
         <v>132</v>
       </c>
       <c r="B123" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C123" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -5598,13 +5616,13 @@
         <v>133</v>
       </c>
       <c r="B124" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C124" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="I124" t="s">
-        <v>1043</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -5612,13 +5630,13 @@
         <v>134</v>
       </c>
       <c r="B125" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C125" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="I125" t="s">
-        <v>1043</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -5626,10 +5644,10 @@
         <v>135</v>
       </c>
       <c r="B126" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C126" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -5637,10 +5655,10 @@
         <v>136</v>
       </c>
       <c r="B127" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C127" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -5648,10 +5666,10 @@
         <v>137</v>
       </c>
       <c r="B128" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C128" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -5659,10 +5677,10 @@
         <v>138</v>
       </c>
       <c r="B129" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C129" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -5670,10 +5688,10 @@
         <v>139</v>
       </c>
       <c r="B130" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C130" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -5681,16 +5699,16 @@
         <v>140</v>
       </c>
       <c r="B131" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C131" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="E131" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="H131" t="s">
-        <v>1013</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -5698,10 +5716,10 @@
         <v>141</v>
       </c>
       <c r="B132" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C132" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -5709,10 +5727,10 @@
         <v>142</v>
       </c>
       <c r="B133" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C133" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -5720,16 +5738,16 @@
         <v>143</v>
       </c>
       <c r="B134" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C134" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="G134" t="s">
-        <v>960</v>
+        <v>966</v>
       </c>
       <c r="I134" t="s">
-        <v>1049</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -5737,13 +5755,13 @@
         <v>144</v>
       </c>
       <c r="B135" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C135" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="E135" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -5751,10 +5769,10 @@
         <v>145</v>
       </c>
       <c r="B136" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C136" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -5762,19 +5780,19 @@
         <v>146</v>
       </c>
       <c r="B137" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C137" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="E137" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="G137" t="s">
-        <v>961</v>
+        <v>967</v>
       </c>
       <c r="I137" t="s">
-        <v>1050</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -5782,10 +5800,10 @@
         <v>147</v>
       </c>
       <c r="B138" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C138" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -5793,10 +5811,10 @@
         <v>148</v>
       </c>
       <c r="B139" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C139" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -5804,16 +5822,16 @@
         <v>149</v>
       </c>
       <c r="B140" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C140" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="E140" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="I140" t="s">
-        <v>1041</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -5821,10 +5839,10 @@
         <v>150</v>
       </c>
       <c r="B141" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C141" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -5832,10 +5850,10 @@
         <v>151</v>
       </c>
       <c r="B142" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C142" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -5843,10 +5861,10 @@
         <v>152</v>
       </c>
       <c r="B143" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C143" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -5854,10 +5872,10 @@
         <v>153</v>
       </c>
       <c r="B144" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C144" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -5865,16 +5883,16 @@
         <v>154</v>
       </c>
       <c r="B145" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C145" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="E145" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="I145" t="s">
-        <v>1051</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -5882,10 +5900,10 @@
         <v>155</v>
       </c>
       <c r="B146" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C146" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -5893,19 +5911,19 @@
         <v>156</v>
       </c>
       <c r="B147" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C147" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="E147" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="G147" t="s">
-        <v>962</v>
+        <v>968</v>
       </c>
       <c r="I147" t="s">
-        <v>1043</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -5913,16 +5931,16 @@
         <v>157</v>
       </c>
       <c r="B148" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C148" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="E148" t="s">
-        <v>896</v>
+        <v>902</v>
       </c>
       <c r="H148" t="s">
-        <v>1014</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -5930,13 +5948,13 @@
         <v>158</v>
       </c>
       <c r="B149" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C149" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="E149" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -5944,13 +5962,13 @@
         <v>159</v>
       </c>
       <c r="B150" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C150" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="H150" t="s">
-        <v>1015</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -5958,13 +5976,13 @@
         <v>160</v>
       </c>
       <c r="B151" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C151" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="E151" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -5972,19 +5990,19 @@
         <v>161</v>
       </c>
       <c r="B152" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C152" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="E152" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="G152" t="s">
-        <v>963</v>
+        <v>969</v>
       </c>
       <c r="I152" t="s">
-        <v>1049</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -5992,16 +6010,10 @@
         <v>162</v>
       </c>
       <c r="B153" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C153" t="s">
-        <v>611</v>
-      </c>
-      <c r="E153" t="s">
-        <v>611</v>
-      </c>
-      <c r="I153" t="s">
-        <v>1043</v>
+        <v>614</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -6009,19 +6021,16 @@
         <v>163</v>
       </c>
       <c r="B154" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C154" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="E154" t="s">
-        <v>612</v>
-      </c>
-      <c r="G154" t="s">
-        <v>964</v>
+        <v>615</v>
       </c>
       <c r="I154" t="s">
-        <v>1037</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -6029,10 +6038,19 @@
         <v>164</v>
       </c>
       <c r="B155" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C155" t="s">
-        <v>613</v>
+        <v>616</v>
+      </c>
+      <c r="E155" t="s">
+        <v>616</v>
+      </c>
+      <c r="G155" t="s">
+        <v>970</v>
+      </c>
+      <c r="I155" t="s">
+        <v>1043</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -6040,13 +6058,10 @@
         <v>165</v>
       </c>
       <c r="B156" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C156" t="s">
-        <v>614</v>
-      </c>
-      <c r="E156" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -6054,10 +6069,13 @@
         <v>166</v>
       </c>
       <c r="B157" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C157" t="s">
-        <v>615</v>
+        <v>618</v>
+      </c>
+      <c r="E157" t="s">
+        <v>618</v>
       </c>
     </row>
     <row r="158" spans="1:9">
@@ -6065,16 +6083,10 @@
         <v>167</v>
       </c>
       <c r="B158" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C158" t="s">
-        <v>616</v>
-      </c>
-      <c r="E158" t="s">
-        <v>616</v>
-      </c>
-      <c r="I158" t="s">
-        <v>1052</v>
+        <v>619</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -6082,10 +6094,16 @@
         <v>168</v>
       </c>
       <c r="B159" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C159" t="s">
-        <v>617</v>
+        <v>620</v>
+      </c>
+      <c r="E159" t="s">
+        <v>620</v>
+      </c>
+      <c r="I159" t="s">
+        <v>1058</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -6093,13 +6111,10 @@
         <v>169</v>
       </c>
       <c r="B160" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C160" t="s">
-        <v>618</v>
-      </c>
-      <c r="E160" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
     </row>
     <row r="161" spans="1:9">
@@ -6107,16 +6122,13 @@
         <v>170</v>
       </c>
       <c r="B161" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C161" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="E161" t="s">
-        <v>619</v>
-      </c>
-      <c r="I161" t="s">
-        <v>1051</v>
+        <v>622</v>
       </c>
     </row>
     <row r="162" spans="1:9">
@@ -6124,10 +6136,16 @@
         <v>171</v>
       </c>
       <c r="B162" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C162" t="s">
-        <v>620</v>
+        <v>623</v>
+      </c>
+      <c r="E162" t="s">
+        <v>623</v>
+      </c>
+      <c r="I162" t="s">
+        <v>1057</v>
       </c>
     </row>
     <row r="163" spans="1:9">
@@ -6135,10 +6153,10 @@
         <v>172</v>
       </c>
       <c r="B163" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C163" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
     </row>
     <row r="164" spans="1:9">
@@ -6146,10 +6164,10 @@
         <v>173</v>
       </c>
       <c r="B164" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C164" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
     </row>
     <row r="165" spans="1:9">
@@ -6157,10 +6175,10 @@
         <v>174</v>
       </c>
       <c r="B165" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C165" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
     </row>
     <row r="166" spans="1:9">
@@ -6168,10 +6186,10 @@
         <v>175</v>
       </c>
       <c r="B166" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C166" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
     </row>
     <row r="167" spans="1:9">
@@ -6179,10 +6197,10 @@
         <v>176</v>
       </c>
       <c r="B167" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C167" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
     </row>
     <row r="168" spans="1:9">
@@ -6190,19 +6208,10 @@
         <v>177</v>
       </c>
       <c r="B168" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C168" t="s">
-        <v>626</v>
-      </c>
-      <c r="E168" t="s">
-        <v>626</v>
-      </c>
-      <c r="G168" t="s">
-        <v>965</v>
-      </c>
-      <c r="I168" t="s">
-        <v>1037</v>
+        <v>629</v>
       </c>
     </row>
     <row r="169" spans="1:9">
@@ -6210,10 +6219,19 @@
         <v>178</v>
       </c>
       <c r="B169" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C169" t="s">
-        <v>627</v>
+        <v>630</v>
+      </c>
+      <c r="E169" t="s">
+        <v>630</v>
+      </c>
+      <c r="G169" t="s">
+        <v>971</v>
+      </c>
+      <c r="I169" t="s">
+        <v>1043</v>
       </c>
     </row>
     <row r="170" spans="1:9">
@@ -6221,10 +6239,10 @@
         <v>179</v>
       </c>
       <c r="B170" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C170" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
     </row>
     <row r="171" spans="1:9">
@@ -6232,13 +6250,10 @@
         <v>180</v>
       </c>
       <c r="B171" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C171" t="s">
-        <v>629</v>
-      </c>
-      <c r="I171" t="s">
-        <v>1043</v>
+        <v>632</v>
       </c>
     </row>
     <row r="172" spans="1:9">
@@ -6246,16 +6261,13 @@
         <v>181</v>
       </c>
       <c r="B172" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C172" t="s">
-        <v>630</v>
-      </c>
-      <c r="G172" t="s">
-        <v>966</v>
+        <v>633</v>
       </c>
       <c r="I172" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="173" spans="1:9">
@@ -6263,10 +6275,16 @@
         <v>182</v>
       </c>
       <c r="B173" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C173" t="s">
-        <v>631</v>
+        <v>634</v>
+      </c>
+      <c r="G173" t="s">
+        <v>972</v>
+      </c>
+      <c r="I173" t="s">
+        <v>1056</v>
       </c>
     </row>
     <row r="174" spans="1:9">
@@ -6274,10 +6292,10 @@
         <v>183</v>
       </c>
       <c r="B174" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C174" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
     </row>
     <row r="175" spans="1:9">
@@ -6285,13 +6303,10 @@
         <v>184</v>
       </c>
       <c r="B175" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C175" t="s">
-        <v>633</v>
-      </c>
-      <c r="E175" t="s">
-        <v>897</v>
+        <v>636</v>
       </c>
     </row>
     <row r="176" spans="1:9">
@@ -6299,10 +6314,13 @@
         <v>185</v>
       </c>
       <c r="B176" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C176" t="s">
-        <v>634</v>
+        <v>637</v>
+      </c>
+      <c r="E176" t="s">
+        <v>903</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -6310,10 +6328,10 @@
         <v>186</v>
       </c>
       <c r="B177" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C177" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -6321,10 +6339,10 @@
         <v>187</v>
       </c>
       <c r="B178" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C178" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -6332,10 +6350,10 @@
         <v>188</v>
       </c>
       <c r="B179" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C179" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -6343,10 +6361,10 @@
         <v>189</v>
       </c>
       <c r="B180" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C180" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -6354,10 +6372,10 @@
         <v>190</v>
       </c>
       <c r="B181" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C181" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -6365,10 +6383,10 @@
         <v>191</v>
       </c>
       <c r="B182" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C182" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -6376,10 +6394,10 @@
         <v>192</v>
       </c>
       <c r="B183" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C183" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -6387,10 +6405,10 @@
         <v>193</v>
       </c>
       <c r="B184" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C184" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -6398,10 +6416,10 @@
         <v>194</v>
       </c>
       <c r="B185" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C185" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -6409,13 +6427,10 @@
         <v>195</v>
       </c>
       <c r="B186" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="C186" t="s">
-        <v>644</v>
-      </c>
-      <c r="E186" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -6423,13 +6438,10 @@
         <v>196</v>
       </c>
       <c r="B187" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="C187" t="s">
-        <v>645</v>
-      </c>
-      <c r="E187" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -6437,13 +6449,13 @@
         <v>197</v>
       </c>
       <c r="B188" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="C188" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="E188" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -6451,13 +6463,13 @@
         <v>198</v>
       </c>
       <c r="B189" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="C189" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="E189" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -6465,13 +6477,13 @@
         <v>199</v>
       </c>
       <c r="B190" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="C190" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="E190" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -6479,13 +6491,13 @@
         <v>200</v>
       </c>
       <c r="B191" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="C191" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="E191" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -6493,13 +6505,13 @@
         <v>201</v>
       </c>
       <c r="B192" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="C192" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="E192" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -6507,13 +6519,13 @@
         <v>202</v>
       </c>
       <c r="B193" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="C193" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="E193" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -6521,13 +6533,13 @@
         <v>203</v>
       </c>
       <c r="B194" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="C194" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="E194" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -6535,13 +6547,13 @@
         <v>204</v>
       </c>
       <c r="B195" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="C195" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="E195" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -6549,13 +6561,13 @@
         <v>205</v>
       </c>
       <c r="B196" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="C196" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="E196" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -6563,13 +6575,13 @@
         <v>206</v>
       </c>
       <c r="B197" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="C197" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="E197" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -6577,13 +6589,13 @@
         <v>207</v>
       </c>
       <c r="B198" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="C198" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="E198" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -6591,13 +6603,13 @@
         <v>208</v>
       </c>
       <c r="B199" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="C199" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="E199" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -6605,13 +6617,13 @@
         <v>209</v>
       </c>
       <c r="B200" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="C200" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="E200" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -6619,13 +6631,13 @@
         <v>210</v>
       </c>
       <c r="B201" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="C201" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="E201" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -6633,10 +6645,13 @@
         <v>211</v>
       </c>
       <c r="B202" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="C202" t="s">
-        <v>660</v>
+        <v>663</v>
+      </c>
+      <c r="E202" t="s">
+        <v>663</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -6644,10 +6659,13 @@
         <v>212</v>
       </c>
       <c r="B203" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="C203" t="s">
-        <v>661</v>
+        <v>664</v>
+      </c>
+      <c r="E203" t="s">
+        <v>664</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -6655,10 +6673,10 @@
         <v>213</v>
       </c>
       <c r="B204" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="C204" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -6666,10 +6684,10 @@
         <v>214</v>
       </c>
       <c r="B205" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="C205" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -6677,10 +6695,10 @@
         <v>215</v>
       </c>
       <c r="B206" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="C206" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -6688,10 +6706,10 @@
         <v>216</v>
       </c>
       <c r="B207" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="C207" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -6699,10 +6717,10 @@
         <v>217</v>
       </c>
       <c r="B208" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="C208" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
     </row>
     <row r="209" spans="1:9">
@@ -6710,10 +6728,10 @@
         <v>218</v>
       </c>
       <c r="B209" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="C209" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
     </row>
     <row r="210" spans="1:9">
@@ -6721,10 +6739,10 @@
         <v>219</v>
       </c>
       <c r="B210" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="C210" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
     </row>
     <row r="211" spans="1:9">
@@ -6732,10 +6750,10 @@
         <v>220</v>
       </c>
       <c r="B211" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="C211" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
     </row>
     <row r="212" spans="1:9">
@@ -6743,16 +6761,10 @@
         <v>221</v>
       </c>
       <c r="B212" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="C212" t="s">
-        <v>670</v>
-      </c>
-      <c r="E212" t="s">
-        <v>670</v>
-      </c>
-      <c r="G212" t="s">
-        <v>910</v>
+        <v>673</v>
       </c>
     </row>
     <row r="213" spans="1:9">
@@ -6760,13 +6772,10 @@
         <v>222</v>
       </c>
       <c r="B213" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="C213" t="s">
-        <v>671</v>
-      </c>
-      <c r="E213" t="s">
-        <v>898</v>
+        <v>674</v>
       </c>
     </row>
     <row r="214" spans="1:9">
@@ -6774,10 +6783,16 @@
         <v>223</v>
       </c>
       <c r="B214" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="C214" t="s">
-        <v>672</v>
+        <v>675</v>
+      </c>
+      <c r="E214" t="s">
+        <v>675</v>
+      </c>
+      <c r="G214" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="215" spans="1:9">
@@ -6785,13 +6800,13 @@
         <v>224</v>
       </c>
       <c r="B215" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="C215" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="E215" t="s">
-        <v>673</v>
+        <v>904</v>
       </c>
     </row>
     <row r="216" spans="1:9">
@@ -6799,10 +6814,10 @@
         <v>225</v>
       </c>
       <c r="B216" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="C216" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
     </row>
     <row r="217" spans="1:9">
@@ -6810,10 +6825,13 @@
         <v>226</v>
       </c>
       <c r="B217" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="C217" t="s">
-        <v>675</v>
+        <v>678</v>
+      </c>
+      <c r="E217" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="218" spans="1:9">
@@ -6821,10 +6839,10 @@
         <v>227</v>
       </c>
       <c r="B218" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="C218" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
     </row>
     <row r="219" spans="1:9">
@@ -6832,16 +6850,10 @@
         <v>228</v>
       </c>
       <c r="B219" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="C219" t="s">
-        <v>677</v>
-      </c>
-      <c r="G219" t="s">
-        <v>967</v>
-      </c>
-      <c r="I219" t="s">
-        <v>1041</v>
+        <v>680</v>
       </c>
     </row>
     <row r="220" spans="1:9">
@@ -6849,10 +6861,10 @@
         <v>229</v>
       </c>
       <c r="B220" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="C220" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
     </row>
     <row r="221" spans="1:9">
@@ -6860,10 +6872,16 @@
         <v>230</v>
       </c>
       <c r="B221" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="C221" t="s">
-        <v>679</v>
+        <v>682</v>
+      </c>
+      <c r="G221" t="s">
+        <v>973</v>
+      </c>
+      <c r="I221" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="222" spans="1:9">
@@ -6871,16 +6889,10 @@
         <v>231</v>
       </c>
       <c r="B222" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="C222" t="s">
-        <v>680</v>
-      </c>
-      <c r="E222" t="s">
-        <v>680</v>
-      </c>
-      <c r="G222" t="s">
-        <v>968</v>
+        <v>683</v>
       </c>
     </row>
     <row r="223" spans="1:9">
@@ -6888,13 +6900,10 @@
         <v>232</v>
       </c>
       <c r="B223" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C223" t="s">
-        <v>681</v>
-      </c>
-      <c r="E223" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
     </row>
     <row r="224" spans="1:9">
@@ -6902,19 +6911,16 @@
         <v>233</v>
       </c>
       <c r="B224" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C224" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="E224" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="G224" t="s">
-        <v>969</v>
-      </c>
-      <c r="I224" t="s">
-        <v>1041</v>
+        <v>974</v>
       </c>
     </row>
     <row r="225" spans="1:9">
@@ -6922,13 +6928,13 @@
         <v>234</v>
       </c>
       <c r="B225" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="C225" t="s">
-        <v>683</v>
-      </c>
-      <c r="G225" t="s">
-        <v>969</v>
+        <v>686</v>
+      </c>
+      <c r="E225" t="s">
+        <v>686</v>
       </c>
     </row>
     <row r="226" spans="1:9">
@@ -6936,10 +6942,19 @@
         <v>235</v>
       </c>
       <c r="B226" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="C226" t="s">
-        <v>684</v>
+        <v>687</v>
+      </c>
+      <c r="E226" t="s">
+        <v>687</v>
+      </c>
+      <c r="G226" t="s">
+        <v>975</v>
+      </c>
+      <c r="I226" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="227" spans="1:9">
@@ -6947,13 +6962,13 @@
         <v>236</v>
       </c>
       <c r="B227" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="C227" t="s">
-        <v>685</v>
-      </c>
-      <c r="E227" t="s">
-        <v>685</v>
+        <v>688</v>
+      </c>
+      <c r="G227" t="s">
+        <v>975</v>
       </c>
     </row>
     <row r="228" spans="1:9">
@@ -6961,13 +6976,10 @@
         <v>237</v>
       </c>
       <c r="B228" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="C228" t="s">
-        <v>686</v>
-      </c>
-      <c r="I228" t="s">
-        <v>1037</v>
+        <v>689</v>
       </c>
     </row>
     <row r="229" spans="1:9">
@@ -6975,13 +6987,13 @@
         <v>238</v>
       </c>
       <c r="B229" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="C229" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="E229" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
     </row>
     <row r="230" spans="1:9">
@@ -6989,13 +7001,13 @@
         <v>239</v>
       </c>
       <c r="B230" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="C230" t="s">
-        <v>688</v>
-      </c>
-      <c r="E230" t="s">
-        <v>688</v>
+        <v>691</v>
+      </c>
+      <c r="I230" t="s">
+        <v>1043</v>
       </c>
     </row>
     <row r="231" spans="1:9">
@@ -7003,13 +7015,13 @@
         <v>240</v>
       </c>
       <c r="B231" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="C231" t="s">
-        <v>689</v>
-      </c>
-      <c r="I231" t="s">
-        <v>1053</v>
+        <v>692</v>
+      </c>
+      <c r="E231" t="s">
+        <v>692</v>
       </c>
     </row>
     <row r="232" spans="1:9">
@@ -7017,13 +7029,13 @@
         <v>241</v>
       </c>
       <c r="B232" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="C232" t="s">
-        <v>690</v>
-      </c>
-      <c r="I232" t="s">
-        <v>1053</v>
+        <v>693</v>
+      </c>
+      <c r="E232" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="233" spans="1:9">
@@ -7031,13 +7043,13 @@
         <v>242</v>
       </c>
       <c r="B233" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="C233" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="I233" t="s">
-        <v>1053</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="234" spans="1:9">
@@ -7045,16 +7057,13 @@
         <v>243</v>
       </c>
       <c r="B234" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="C234" t="s">
-        <v>692</v>
-      </c>
-      <c r="E234" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="I234" t="s">
-        <v>1053</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="235" spans="1:9">
@@ -7062,13 +7071,13 @@
         <v>244</v>
       </c>
       <c r="B235" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="C235" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="I235" t="s">
-        <v>1053</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="236" spans="1:9">
@@ -7076,13 +7085,16 @@
         <v>245</v>
       </c>
       <c r="B236" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="C236" t="s">
-        <v>694</v>
+        <v>697</v>
+      </c>
+      <c r="E236" t="s">
+        <v>697</v>
       </c>
       <c r="I236" t="s">
-        <v>1053</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="237" spans="1:9">
@@ -7090,16 +7102,13 @@
         <v>246</v>
       </c>
       <c r="B237" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="C237" t="s">
-        <v>695</v>
-      </c>
-      <c r="E237" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="I237" t="s">
-        <v>1041</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="238" spans="1:9">
@@ -7107,13 +7116,13 @@
         <v>247</v>
       </c>
       <c r="B238" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="C238" t="s">
-        <v>696</v>
-      </c>
-      <c r="E238" t="s">
-        <v>696</v>
+        <v>699</v>
+      </c>
+      <c r="I238" t="s">
+        <v>1059</v>
       </c>
     </row>
     <row r="239" spans="1:9">
@@ -7121,10 +7130,16 @@
         <v>248</v>
       </c>
       <c r="B239" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="C239" t="s">
-        <v>697</v>
+        <v>700</v>
+      </c>
+      <c r="E239" t="s">
+        <v>700</v>
+      </c>
+      <c r="I239" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="240" spans="1:9">
@@ -7132,13 +7147,13 @@
         <v>249</v>
       </c>
       <c r="B240" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="C240" t="s">
-        <v>698</v>
-      </c>
-      <c r="H240" t="s">
-        <v>1016</v>
+        <v>701</v>
+      </c>
+      <c r="E240" t="s">
+        <v>701</v>
       </c>
     </row>
     <row r="241" spans="1:9">
@@ -7146,10 +7161,10 @@
         <v>250</v>
       </c>
       <c r="B241" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="C241" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
     </row>
     <row r="242" spans="1:9">
@@ -7157,10 +7172,10 @@
         <v>251</v>
       </c>
       <c r="B242" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="C242" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
     </row>
     <row r="243" spans="1:9">
@@ -7168,10 +7183,13 @@
         <v>252</v>
       </c>
       <c r="B243" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="C243" t="s">
-        <v>701</v>
+        <v>704</v>
+      </c>
+      <c r="H243" t="s">
+        <v>1022</v>
       </c>
     </row>
     <row r="244" spans="1:9">
@@ -7179,19 +7197,10 @@
         <v>253</v>
       </c>
       <c r="B244" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="C244" t="s">
-        <v>702</v>
-      </c>
-      <c r="E244" t="s">
-        <v>702</v>
-      </c>
-      <c r="G244" t="s">
-        <v>970</v>
-      </c>
-      <c r="I244" t="s">
-        <v>1054</v>
+        <v>705</v>
       </c>
     </row>
     <row r="245" spans="1:9">
@@ -7199,10 +7208,10 @@
         <v>254</v>
       </c>
       <c r="B245" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="C245" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
     </row>
     <row r="246" spans="1:9">
@@ -7210,10 +7219,10 @@
         <v>255</v>
       </c>
       <c r="B246" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="C246" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
     </row>
     <row r="247" spans="1:9">
@@ -7221,16 +7230,19 @@
         <v>256</v>
       </c>
       <c r="B247" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="C247" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="E247" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="G247" t="s">
-        <v>971</v>
+        <v>976</v>
+      </c>
+      <c r="I247" t="s">
+        <v>1060</v>
       </c>
     </row>
     <row r="248" spans="1:9">
@@ -7238,10 +7250,10 @@
         <v>257</v>
       </c>
       <c r="B248" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="C248" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
     </row>
     <row r="249" spans="1:9">
@@ -7249,10 +7261,10 @@
         <v>258</v>
       </c>
       <c r="B249" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="C249" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
     </row>
     <row r="250" spans="1:9">
@@ -7260,10 +7272,16 @@
         <v>259</v>
       </c>
       <c r="B250" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="C250" t="s">
-        <v>708</v>
+        <v>711</v>
+      </c>
+      <c r="E250" t="s">
+        <v>711</v>
+      </c>
+      <c r="G250" t="s">
+        <v>977</v>
       </c>
     </row>
     <row r="251" spans="1:9">
@@ -7271,10 +7289,10 @@
         <v>260</v>
       </c>
       <c r="B251" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="C251" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
     </row>
     <row r="252" spans="1:9">
@@ -7282,10 +7300,10 @@
         <v>261</v>
       </c>
       <c r="B252" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="C252" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
     </row>
     <row r="253" spans="1:9">
@@ -7293,10 +7311,10 @@
         <v>262</v>
       </c>
       <c r="B253" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="C253" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
     </row>
     <row r="254" spans="1:9">
@@ -7304,10 +7322,10 @@
         <v>263</v>
       </c>
       <c r="B254" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="C254" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
     </row>
     <row r="255" spans="1:9">
@@ -7315,19 +7333,10 @@
         <v>264</v>
       </c>
       <c r="B255" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="C255" t="s">
-        <v>713</v>
-      </c>
-      <c r="E255" t="s">
-        <v>713</v>
-      </c>
-      <c r="G255" t="s">
-        <v>972</v>
-      </c>
-      <c r="I255" t="s">
-        <v>1048</v>
+        <v>716</v>
       </c>
     </row>
     <row r="256" spans="1:9">
@@ -7335,13 +7344,10 @@
         <v>265</v>
       </c>
       <c r="B256" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="C256" t="s">
-        <v>714</v>
-      </c>
-      <c r="E256" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
     </row>
     <row r="257" spans="1:9">
@@ -7349,10 +7355,10 @@
         <v>266</v>
       </c>
       <c r="B257" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="C257" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
     </row>
     <row r="258" spans="1:9">
@@ -7360,19 +7366,19 @@
         <v>267</v>
       </c>
       <c r="B258" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="C258" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="E258" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="G258" t="s">
-        <v>973</v>
+        <v>978</v>
       </c>
       <c r="I258" t="s">
-        <v>1048</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="259" spans="1:9">
@@ -7380,19 +7386,13 @@
         <v>268</v>
       </c>
       <c r="B259" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="C259" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="E259" t="s">
-        <v>717</v>
-      </c>
-      <c r="G259" t="s">
-        <v>974</v>
-      </c>
-      <c r="I259" t="s">
-        <v>1043</v>
+        <v>720</v>
       </c>
     </row>
     <row r="260" spans="1:9">
@@ -7400,13 +7400,10 @@
         <v>269</v>
       </c>
       <c r="B260" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="C260" t="s">
-        <v>718</v>
-      </c>
-      <c r="E260" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
     </row>
     <row r="261" spans="1:9">
@@ -7414,13 +7411,19 @@
         <v>270</v>
       </c>
       <c r="B261" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C261" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="E261" t="s">
-        <v>719</v>
+        <v>722</v>
+      </c>
+      <c r="G261" t="s">
+        <v>979</v>
+      </c>
+      <c r="I261" t="s">
+        <v>1054</v>
       </c>
     </row>
     <row r="262" spans="1:9">
@@ -7428,13 +7431,19 @@
         <v>271</v>
       </c>
       <c r="B262" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C262" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="E262" t="s">
-        <v>720</v>
+        <v>723</v>
+      </c>
+      <c r="G262" t="s">
+        <v>980</v>
+      </c>
+      <c r="I262" t="s">
+        <v>1049</v>
       </c>
     </row>
     <row r="263" spans="1:9">
@@ -7442,13 +7451,13 @@
         <v>272</v>
       </c>
       <c r="B263" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C263" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="E263" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
     </row>
     <row r="264" spans="1:9">
@@ -7456,13 +7465,13 @@
         <v>273</v>
       </c>
       <c r="B264" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C264" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="E264" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
     </row>
     <row r="265" spans="1:9">
@@ -7470,13 +7479,13 @@
         <v>274</v>
       </c>
       <c r="B265" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C265" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="E265" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
     </row>
     <row r="266" spans="1:9">
@@ -7484,13 +7493,13 @@
         <v>275</v>
       </c>
       <c r="B266" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C266" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="E266" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
     </row>
     <row r="267" spans="1:9">
@@ -7498,13 +7507,13 @@
         <v>276</v>
       </c>
       <c r="B267" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C267" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="E267" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
     </row>
     <row r="268" spans="1:9">
@@ -7512,13 +7521,13 @@
         <v>277</v>
       </c>
       <c r="B268" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C268" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="E268" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
     </row>
     <row r="269" spans="1:9">
@@ -7526,13 +7535,13 @@
         <v>278</v>
       </c>
       <c r="B269" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C269" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="E269" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
     </row>
     <row r="270" spans="1:9">
@@ -7540,13 +7549,13 @@
         <v>279</v>
       </c>
       <c r="B270" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C270" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="E270" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
     </row>
     <row r="271" spans="1:9">
@@ -7554,13 +7563,13 @@
         <v>280</v>
       </c>
       <c r="B271" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C271" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="E271" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
     </row>
     <row r="272" spans="1:9">
@@ -7568,13 +7577,13 @@
         <v>281</v>
       </c>
       <c r="B272" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C272" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="E272" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -7582,13 +7591,13 @@
         <v>282</v>
       </c>
       <c r="B273" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C273" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="E273" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -7596,13 +7605,13 @@
         <v>283</v>
       </c>
       <c r="B274" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C274" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="E274" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -7610,13 +7619,13 @@
         <v>284</v>
       </c>
       <c r="B275" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C275" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="E275" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -7624,13 +7633,13 @@
         <v>285</v>
       </c>
       <c r="B276" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C276" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="E276" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -7638,13 +7647,13 @@
         <v>286</v>
       </c>
       <c r="B277" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C277" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="E277" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -7652,13 +7661,13 @@
         <v>287</v>
       </c>
       <c r="B278" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C278" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="E278" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -7666,13 +7675,13 @@
         <v>288</v>
       </c>
       <c r="B279" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C279" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="E279" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -7680,13 +7689,13 @@
         <v>289</v>
       </c>
       <c r="B280" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C280" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="E280" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -7694,13 +7703,13 @@
         <v>290</v>
       </c>
       <c r="B281" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C281" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="E281" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -7708,13 +7717,13 @@
         <v>291</v>
       </c>
       <c r="B282" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C282" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="E282" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -7722,13 +7731,13 @@
         <v>292</v>
       </c>
       <c r="B283" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C283" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="E283" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -7736,10 +7745,13 @@
         <v>293</v>
       </c>
       <c r="B284" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C284" t="s">
-        <v>742</v>
+        <v>745</v>
+      </c>
+      <c r="E284" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -7747,13 +7759,13 @@
         <v>294</v>
       </c>
       <c r="B285" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C285" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="E285" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -7761,13 +7773,13 @@
         <v>295</v>
       </c>
       <c r="B286" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C286" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="E286" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -7775,13 +7787,10 @@
         <v>296</v>
       </c>
       <c r="B287" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C287" t="s">
-        <v>745</v>
-      </c>
-      <c r="E287" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -7789,13 +7798,13 @@
         <v>297</v>
       </c>
       <c r="B288" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C288" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="E288" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -7803,13 +7812,13 @@
         <v>298</v>
       </c>
       <c r="B289" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C289" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="E289" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -7817,10 +7826,13 @@
         <v>299</v>
       </c>
       <c r="B290" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C290" t="s">
-        <v>748</v>
+        <v>751</v>
+      </c>
+      <c r="E290" t="s">
+        <v>751</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -7828,13 +7840,13 @@
         <v>300</v>
       </c>
       <c r="B291" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C291" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="E291" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -7842,13 +7854,13 @@
         <v>301</v>
       </c>
       <c r="B292" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C292" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="E292" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -7856,13 +7868,10 @@
         <v>302</v>
       </c>
       <c r="B293" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C293" t="s">
-        <v>751</v>
-      </c>
-      <c r="E293" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -7870,13 +7879,13 @@
         <v>303</v>
       </c>
       <c r="B294" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C294" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="E294" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -7884,13 +7893,13 @@
         <v>304</v>
       </c>
       <c r="B295" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C295" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="E295" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -7898,13 +7907,13 @@
         <v>305</v>
       </c>
       <c r="B296" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C296" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="E296" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -7912,13 +7921,13 @@
         <v>306</v>
       </c>
       <c r="B297" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C297" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="E297" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -7926,13 +7935,13 @@
         <v>307</v>
       </c>
       <c r="B298" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C298" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="E298" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -7940,13 +7949,13 @@
         <v>308</v>
       </c>
       <c r="B299" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C299" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="E299" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -7954,10 +7963,13 @@
         <v>309</v>
       </c>
       <c r="B300" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C300" t="s">
-        <v>758</v>
+        <v>761</v>
+      </c>
+      <c r="E300" t="s">
+        <v>761</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -7965,13 +7977,13 @@
         <v>310</v>
       </c>
       <c r="B301" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C301" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="E301" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -7979,13 +7991,13 @@
         <v>311</v>
       </c>
       <c r="B302" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C302" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="E302" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -7993,10 +8005,10 @@
         <v>312</v>
       </c>
       <c r="B303" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C303" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -8004,13 +8016,13 @@
         <v>313</v>
       </c>
       <c r="B304" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C304" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="E304" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -8018,10 +8030,13 @@
         <v>314</v>
       </c>
       <c r="B305" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C305" t="s">
-        <v>763</v>
+        <v>766</v>
+      </c>
+      <c r="E305" t="s">
+        <v>766</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -8029,10 +8044,10 @@
         <v>315</v>
       </c>
       <c r="B306" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C306" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -8040,13 +8055,13 @@
         <v>316</v>
       </c>
       <c r="B307" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C307" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="E307" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -8054,10 +8069,10 @@
         <v>317</v>
       </c>
       <c r="B308" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C308" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -8065,10 +8080,10 @@
         <v>318</v>
       </c>
       <c r="B309" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C309" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -8076,10 +8091,13 @@
         <v>319</v>
       </c>
       <c r="B310" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C310" t="s">
-        <v>768</v>
+        <v>771</v>
+      </c>
+      <c r="E310" t="s">
+        <v>771</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -8087,10 +8105,10 @@
         <v>320</v>
       </c>
       <c r="B311" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C311" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -8098,10 +8116,10 @@
         <v>321</v>
       </c>
       <c r="B312" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C312" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -8109,10 +8127,10 @@
         <v>322</v>
       </c>
       <c r="B313" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C313" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -8120,10 +8138,10 @@
         <v>323</v>
       </c>
       <c r="B314" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C314" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -8131,10 +8149,10 @@
         <v>324</v>
       </c>
       <c r="B315" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C315" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -8142,10 +8160,10 @@
         <v>325</v>
       </c>
       <c r="B316" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C316" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -8153,10 +8171,10 @@
         <v>326</v>
       </c>
       <c r="B317" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C317" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -8164,10 +8182,10 @@
         <v>327</v>
       </c>
       <c r="B318" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C318" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -8175,10 +8193,10 @@
         <v>328</v>
       </c>
       <c r="B319" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C319" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -8186,10 +8204,10 @@
         <v>329</v>
       </c>
       <c r="B320" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C320" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
     </row>
     <row r="321" spans="1:9">
@@ -8197,10 +8215,10 @@
         <v>330</v>
       </c>
       <c r="B321" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C321" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
     </row>
     <row r="322" spans="1:9">
@@ -8208,10 +8226,10 @@
         <v>331</v>
       </c>
       <c r="B322" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C322" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
     </row>
     <row r="323" spans="1:9">
@@ -8219,10 +8237,10 @@
         <v>332</v>
       </c>
       <c r="B323" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C323" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
     </row>
     <row r="324" spans="1:9">
@@ -8230,10 +8248,10 @@
         <v>333</v>
       </c>
       <c r="B324" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C324" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
     </row>
     <row r="325" spans="1:9">
@@ -8241,10 +8259,10 @@
         <v>334</v>
       </c>
       <c r="B325" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C325" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
     </row>
     <row r="326" spans="1:9">
@@ -8252,10 +8270,10 @@
         <v>335</v>
       </c>
       <c r="B326" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C326" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
     </row>
     <row r="327" spans="1:9">
@@ -8263,10 +8281,10 @@
         <v>336</v>
       </c>
       <c r="B327" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C327" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
     </row>
     <row r="328" spans="1:9">
@@ -8274,10 +8292,10 @@
         <v>337</v>
       </c>
       <c r="B328" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C328" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
     </row>
     <row r="329" spans="1:9">
@@ -8285,13 +8303,10 @@
         <v>338</v>
       </c>
       <c r="B329" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C329" t="s">
-        <v>787</v>
-      </c>
-      <c r="H329" t="s">
-        <v>1017</v>
+        <v>790</v>
       </c>
     </row>
     <row r="330" spans="1:9">
@@ -8299,10 +8314,10 @@
         <v>339</v>
       </c>
       <c r="B330" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C330" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
     </row>
     <row r="331" spans="1:9">
@@ -8310,13 +8325,10 @@
         <v>340</v>
       </c>
       <c r="B331" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C331" t="s">
-        <v>789</v>
-      </c>
-      <c r="H331" t="s">
-        <v>1018</v>
+        <v>792</v>
       </c>
     </row>
     <row r="332" spans="1:9">
@@ -8324,13 +8336,13 @@
         <v>341</v>
       </c>
       <c r="B332" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="C332" t="s">
-        <v>790</v>
-      </c>
-      <c r="I332" t="s">
-        <v>1041</v>
+        <v>793</v>
+      </c>
+      <c r="H332" t="s">
+        <v>1023</v>
       </c>
     </row>
     <row r="333" spans="1:9">
@@ -8338,13 +8350,10 @@
         <v>342</v>
       </c>
       <c r="B333" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="C333" t="s">
-        <v>791</v>
-      </c>
-      <c r="H333" t="s">
-        <v>1019</v>
+        <v>794</v>
       </c>
     </row>
     <row r="334" spans="1:9">
@@ -8352,10 +8361,13 @@
         <v>343</v>
       </c>
       <c r="B334" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="C334" t="s">
-        <v>792</v>
+        <v>795</v>
+      </c>
+      <c r="H334" t="s">
+        <v>1024</v>
       </c>
     </row>
     <row r="335" spans="1:9">
@@ -8363,13 +8375,13 @@
         <v>344</v>
       </c>
       <c r="B335" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="C335" t="s">
-        <v>793</v>
-      </c>
-      <c r="H335" t="s">
-        <v>1020</v>
+        <v>796</v>
+      </c>
+      <c r="I335" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="336" spans="1:9">
@@ -8377,10 +8389,13 @@
         <v>345</v>
       </c>
       <c r="B336" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="C336" t="s">
-        <v>794</v>
+        <v>797</v>
+      </c>
+      <c r="H336" t="s">
+        <v>1025</v>
       </c>
     </row>
     <row r="337" spans="1:9">
@@ -8388,10 +8403,10 @@
         <v>346</v>
       </c>
       <c r="B337" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="C337" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
     </row>
     <row r="338" spans="1:9">
@@ -8399,10 +8414,13 @@
         <v>347</v>
       </c>
       <c r="B338" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="C338" t="s">
-        <v>796</v>
+        <v>799</v>
+      </c>
+      <c r="H338" t="s">
+        <v>1026</v>
       </c>
     </row>
     <row r="339" spans="1:9">
@@ -8410,13 +8428,10 @@
         <v>348</v>
       </c>
       <c r="B339" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="C339" t="s">
-        <v>797</v>
-      </c>
-      <c r="H339" t="s">
-        <v>1021</v>
+        <v>800</v>
       </c>
     </row>
     <row r="340" spans="1:9">
@@ -8424,16 +8439,10 @@
         <v>349</v>
       </c>
       <c r="B340" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="C340" t="s">
-        <v>798</v>
-      </c>
-      <c r="G340" t="s">
-        <v>975</v>
-      </c>
-      <c r="H340" t="s">
-        <v>1022</v>
+        <v>801</v>
       </c>
     </row>
     <row r="341" spans="1:9">
@@ -8441,10 +8450,10 @@
         <v>350</v>
       </c>
       <c r="B341" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="C341" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
     </row>
     <row r="342" spans="1:9">
@@ -8452,13 +8461,13 @@
         <v>351</v>
       </c>
       <c r="B342" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="C342" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="H342" t="s">
-        <v>1023</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="343" spans="1:9">
@@ -8466,10 +8475,16 @@
         <v>352</v>
       </c>
       <c r="B343" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="C343" t="s">
-        <v>801</v>
+        <v>804</v>
+      </c>
+      <c r="G343" t="s">
+        <v>981</v>
+      </c>
+      <c r="H343" t="s">
+        <v>1028</v>
       </c>
     </row>
     <row r="344" spans="1:9">
@@ -8477,13 +8492,10 @@
         <v>353</v>
       </c>
       <c r="B344" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="C344" t="s">
-        <v>802</v>
-      </c>
-      <c r="H344" t="s">
-        <v>1024</v>
+        <v>805</v>
       </c>
     </row>
     <row r="345" spans="1:9">
@@ -8491,13 +8503,13 @@
         <v>354</v>
       </c>
       <c r="B345" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="C345" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="H345" t="s">
-        <v>1024</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="346" spans="1:9">
@@ -8505,10 +8517,10 @@
         <v>355</v>
       </c>
       <c r="B346" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="C346" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
     </row>
     <row r="347" spans="1:9">
@@ -8516,10 +8528,13 @@
         <v>356</v>
       </c>
       <c r="B347" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="C347" t="s">
-        <v>805</v>
+        <v>808</v>
+      </c>
+      <c r="H347" t="s">
+        <v>1030</v>
       </c>
     </row>
     <row r="348" spans="1:9">
@@ -8527,10 +8542,13 @@
         <v>357</v>
       </c>
       <c r="B348" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="C348" t="s">
-        <v>806</v>
+        <v>809</v>
+      </c>
+      <c r="H348" t="s">
+        <v>1030</v>
       </c>
     </row>
     <row r="349" spans="1:9">
@@ -8538,16 +8556,10 @@
         <v>358</v>
       </c>
       <c r="B349" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="C349" t="s">
-        <v>807</v>
-      </c>
-      <c r="G349" t="s">
-        <v>976</v>
-      </c>
-      <c r="I349" t="s">
-        <v>1043</v>
+        <v>810</v>
       </c>
     </row>
     <row r="350" spans="1:9">
@@ -8555,13 +8567,10 @@
         <v>359</v>
       </c>
       <c r="B350" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="C350" t="s">
-        <v>808</v>
-      </c>
-      <c r="E350" t="s">
-        <v>899</v>
+        <v>811</v>
       </c>
     </row>
     <row r="351" spans="1:9">
@@ -8569,10 +8578,10 @@
         <v>360</v>
       </c>
       <c r="B351" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="C351" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
     </row>
     <row r="352" spans="1:9">
@@ -8580,19 +8589,16 @@
         <v>361</v>
       </c>
       <c r="B352" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="C352" t="s">
-        <v>810</v>
-      </c>
-      <c r="E352" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="G352" t="s">
-        <v>977</v>
+        <v>982</v>
       </c>
       <c r="I352" t="s">
-        <v>1055</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="353" spans="1:9">
@@ -8600,13 +8606,13 @@
         <v>362</v>
       </c>
       <c r="B353" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="C353" t="s">
-        <v>811</v>
-      </c>
-      <c r="G353" t="s">
-        <v>978</v>
+        <v>814</v>
+      </c>
+      <c r="E353" t="s">
+        <v>905</v>
       </c>
     </row>
     <row r="354" spans="1:9">
@@ -8614,10 +8620,10 @@
         <v>363</v>
       </c>
       <c r="B354" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="C354" t="s">
-        <v>812</v>
+        <v>815</v>
       </c>
     </row>
     <row r="355" spans="1:9">
@@ -8625,10 +8631,19 @@
         <v>364</v>
       </c>
       <c r="B355" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="C355" t="s">
-        <v>813</v>
+        <v>816</v>
+      </c>
+      <c r="E355" t="s">
+        <v>816</v>
+      </c>
+      <c r="G355" t="s">
+        <v>983</v>
+      </c>
+      <c r="I355" t="s">
+        <v>1061</v>
       </c>
     </row>
     <row r="356" spans="1:9">
@@ -8636,10 +8651,13 @@
         <v>365</v>
       </c>
       <c r="B356" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="C356" t="s">
-        <v>814</v>
+        <v>817</v>
+      </c>
+      <c r="G356" t="s">
+        <v>984</v>
       </c>
     </row>
     <row r="357" spans="1:9">
@@ -8647,13 +8665,10 @@
         <v>366</v>
       </c>
       <c r="B357" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="C357" t="s">
-        <v>815</v>
-      </c>
-      <c r="E357" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
     </row>
     <row r="358" spans="1:9">
@@ -8661,13 +8676,10 @@
         <v>367</v>
       </c>
       <c r="B358" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="C358" t="s">
-        <v>816</v>
-      </c>
-      <c r="H358" t="s">
-        <v>1024</v>
+        <v>819</v>
       </c>
     </row>
     <row r="359" spans="1:9">
@@ -8675,10 +8687,10 @@
         <v>368</v>
       </c>
       <c r="B359" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="C359" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
     </row>
     <row r="360" spans="1:9">
@@ -8686,10 +8698,13 @@
         <v>369</v>
       </c>
       <c r="B360" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="C360" t="s">
-        <v>818</v>
+        <v>821</v>
+      </c>
+      <c r="E360" t="s">
+        <v>821</v>
       </c>
     </row>
     <row r="361" spans="1:9">
@@ -8697,10 +8712,13 @@
         <v>370</v>
       </c>
       <c r="B361" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="C361" t="s">
-        <v>819</v>
+        <v>822</v>
+      </c>
+      <c r="H361" t="s">
+        <v>1030</v>
       </c>
     </row>
     <row r="362" spans="1:9">
@@ -8708,10 +8726,10 @@
         <v>371</v>
       </c>
       <c r="B362" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="C362" t="s">
-        <v>820</v>
+        <v>823</v>
       </c>
     </row>
     <row r="363" spans="1:9">
@@ -8719,13 +8737,10 @@
         <v>372</v>
       </c>
       <c r="B363" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="C363" t="s">
-        <v>821</v>
-      </c>
-      <c r="E363" t="s">
-        <v>900</v>
+        <v>824</v>
       </c>
     </row>
     <row r="364" spans="1:9">
@@ -8733,10 +8748,10 @@
         <v>373</v>
       </c>
       <c r="B364" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="C364" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
     </row>
     <row r="365" spans="1:9">
@@ -8744,10 +8759,10 @@
         <v>374</v>
       </c>
       <c r="B365" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="C365" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
     </row>
     <row r="366" spans="1:9">
@@ -8755,13 +8770,13 @@
         <v>375</v>
       </c>
       <c r="B366" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="C366" t="s">
-        <v>824</v>
-      </c>
-      <c r="I366" t="s">
-        <v>1043</v>
+        <v>827</v>
+      </c>
+      <c r="E366" t="s">
+        <v>906</v>
       </c>
     </row>
     <row r="367" spans="1:9">
@@ -8769,13 +8784,10 @@
         <v>376</v>
       </c>
       <c r="B367" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="C367" t="s">
-        <v>825</v>
-      </c>
-      <c r="E367" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
     </row>
     <row r="368" spans="1:9">
@@ -8783,13 +8795,10 @@
         <v>377</v>
       </c>
       <c r="B368" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="C368" t="s">
-        <v>826</v>
-      </c>
-      <c r="I368" t="s">
-        <v>1054</v>
+        <v>829</v>
       </c>
     </row>
     <row r="369" spans="1:9">
@@ -8797,10 +8806,13 @@
         <v>378</v>
       </c>
       <c r="B369" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="C369" t="s">
-        <v>827</v>
+        <v>830</v>
+      </c>
+      <c r="I369" t="s">
+        <v>1049</v>
       </c>
     </row>
     <row r="370" spans="1:9">
@@ -8808,10 +8820,13 @@
         <v>379</v>
       </c>
       <c r="B370" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C370" t="s">
-        <v>828</v>
+        <v>831</v>
+      </c>
+      <c r="E370" t="s">
+        <v>831</v>
       </c>
     </row>
     <row r="371" spans="1:9">
@@ -8819,19 +8834,13 @@
         <v>380</v>
       </c>
       <c r="B371" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C371" t="s">
-        <v>829</v>
-      </c>
-      <c r="E371" t="s">
-        <v>829</v>
-      </c>
-      <c r="G371" t="s">
-        <v>979</v>
+        <v>832</v>
       </c>
       <c r="I371" t="s">
-        <v>1056</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="372" spans="1:9">
@@ -8839,19 +8848,10 @@
         <v>381</v>
       </c>
       <c r="B372" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C372" t="s">
-        <v>830</v>
-      </c>
-      <c r="E372" t="s">
-        <v>830</v>
-      </c>
-      <c r="G372" t="s">
-        <v>980</v>
-      </c>
-      <c r="I372" t="s">
-        <v>1054</v>
+        <v>833</v>
       </c>
     </row>
     <row r="373" spans="1:9">
@@ -8859,10 +8859,10 @@
         <v>382</v>
       </c>
       <c r="B373" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="C373" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
     </row>
     <row r="374" spans="1:9">
@@ -8870,10 +8870,19 @@
         <v>383</v>
       </c>
       <c r="B374" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="C374" t="s">
-        <v>832</v>
+        <v>835</v>
+      </c>
+      <c r="E374" t="s">
+        <v>835</v>
+      </c>
+      <c r="G374" t="s">
+        <v>985</v>
+      </c>
+      <c r="I374" t="s">
+        <v>1062</v>
       </c>
     </row>
     <row r="375" spans="1:9">
@@ -8881,19 +8890,19 @@
         <v>384</v>
       </c>
       <c r="B375" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="C375" t="s">
-        <v>833</v>
+        <v>836</v>
       </c>
       <c r="E375" t="s">
-        <v>833</v>
+        <v>836</v>
       </c>
       <c r="G375" t="s">
-        <v>981</v>
+        <v>986</v>
       </c>
       <c r="I375" t="s">
-        <v>1042</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="376" spans="1:9">
@@ -8901,19 +8910,10 @@
         <v>385</v>
       </c>
       <c r="B376" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="C376" t="s">
-        <v>834</v>
-      </c>
-      <c r="E376" t="s">
-        <v>834</v>
-      </c>
-      <c r="G376" t="s">
-        <v>982</v>
-      </c>
-      <c r="I376" t="s">
-        <v>1040</v>
+        <v>837</v>
       </c>
     </row>
     <row r="377" spans="1:9">
@@ -8921,10 +8921,10 @@
         <v>386</v>
       </c>
       <c r="B377" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="C377" t="s">
-        <v>835</v>
+        <v>838</v>
       </c>
     </row>
     <row r="378" spans="1:9">
@@ -8932,19 +8932,19 @@
         <v>387</v>
       </c>
       <c r="B378" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="C378" t="s">
-        <v>836</v>
+        <v>839</v>
       </c>
       <c r="E378" t="s">
-        <v>836</v>
+        <v>839</v>
       </c>
       <c r="G378" t="s">
-        <v>983</v>
+        <v>987</v>
       </c>
       <c r="I378" t="s">
-        <v>1040</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="379" spans="1:9">
@@ -8952,16 +8952,19 @@
         <v>388</v>
       </c>
       <c r="B379" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="C379" t="s">
-        <v>837</v>
+        <v>840</v>
+      </c>
+      <c r="E379" t="s">
+        <v>840</v>
       </c>
       <c r="G379" t="s">
-        <v>984</v>
+        <v>988</v>
       </c>
       <c r="I379" t="s">
-        <v>1040</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="380" spans="1:9">
@@ -8969,19 +8972,10 @@
         <v>389</v>
       </c>
       <c r="B380" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="C380" t="s">
-        <v>838</v>
-      </c>
-      <c r="E380" t="s">
-        <v>838</v>
-      </c>
-      <c r="G380" t="s">
-        <v>985</v>
-      </c>
-      <c r="I380" t="s">
-        <v>1057</v>
+        <v>841</v>
       </c>
     </row>
     <row r="381" spans="1:9">
@@ -8989,13 +8983,19 @@
         <v>390</v>
       </c>
       <c r="B381" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="C381" t="s">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="E381" t="s">
-        <v>839</v>
+        <v>842</v>
+      </c>
+      <c r="G381" t="s">
+        <v>989</v>
+      </c>
+      <c r="I381" t="s">
+        <v>1046</v>
       </c>
     </row>
     <row r="382" spans="1:9">
@@ -9003,13 +9003,16 @@
         <v>391</v>
       </c>
       <c r="B382" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="C382" t="s">
-        <v>840</v>
-      </c>
-      <c r="E382" t="s">
-        <v>840</v>
+        <v>843</v>
+      </c>
+      <c r="G382" t="s">
+        <v>990</v>
+      </c>
+      <c r="I382" t="s">
+        <v>1046</v>
       </c>
     </row>
     <row r="383" spans="1:9">
@@ -9017,16 +9020,19 @@
         <v>392</v>
       </c>
       <c r="B383" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="C383" t="s">
-        <v>841</v>
+        <v>844</v>
+      </c>
+      <c r="E383" t="s">
+        <v>844</v>
       </c>
       <c r="G383" t="s">
-        <v>986</v>
+        <v>991</v>
       </c>
       <c r="I383" t="s">
-        <v>1040</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="384" spans="1:9">
@@ -9034,16 +9040,13 @@
         <v>393</v>
       </c>
       <c r="B384" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="C384" t="s">
-        <v>842</v>
-      </c>
-      <c r="G384" t="s">
-        <v>987</v>
-      </c>
-      <c r="I384" t="s">
-        <v>1058</v>
+        <v>845</v>
+      </c>
+      <c r="E384" t="s">
+        <v>845</v>
       </c>
     </row>
     <row r="385" spans="1:9">
@@ -9051,19 +9054,13 @@
         <v>394</v>
       </c>
       <c r="B385" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="C385" t="s">
-        <v>843</v>
+        <v>846</v>
       </c>
       <c r="E385" t="s">
-        <v>843</v>
-      </c>
-      <c r="G385" t="s">
-        <v>988</v>
-      </c>
-      <c r="I385" t="s">
-        <v>1056</v>
+        <v>846</v>
       </c>
     </row>
     <row r="386" spans="1:9">
@@ -9071,16 +9068,16 @@
         <v>395</v>
       </c>
       <c r="B386" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="C386" t="s">
-        <v>844</v>
+        <v>847</v>
       </c>
       <c r="G386" t="s">
-        <v>989</v>
+        <v>992</v>
       </c>
       <c r="I386" t="s">
-        <v>1056</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="387" spans="1:9">
@@ -9088,19 +9085,16 @@
         <v>396</v>
       </c>
       <c r="B387" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="C387" t="s">
-        <v>845</v>
-      </c>
-      <c r="E387" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="G387" t="s">
-        <v>990</v>
+        <v>993</v>
       </c>
       <c r="I387" t="s">
-        <v>1058</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="388" spans="1:9">
@@ -9108,16 +9102,19 @@
         <v>397</v>
       </c>
       <c r="B388" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="C388" t="s">
-        <v>846</v>
+        <v>849</v>
+      </c>
+      <c r="E388" t="s">
+        <v>849</v>
       </c>
       <c r="G388" t="s">
-        <v>991</v>
+        <v>994</v>
       </c>
       <c r="I388" t="s">
-        <v>1042</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="389" spans="1:9">
@@ -9125,10 +9122,16 @@
         <v>398</v>
       </c>
       <c r="B389" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="C389" t="s">
-        <v>847</v>
+        <v>850</v>
+      </c>
+      <c r="G389" t="s">
+        <v>995</v>
+      </c>
+      <c r="I389" t="s">
+        <v>1062</v>
       </c>
     </row>
     <row r="390" spans="1:9">
@@ -9136,22 +9139,19 @@
         <v>399</v>
       </c>
       <c r="B390" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C390" t="s">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="E390" t="s">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="G390" t="s">
-        <v>992</v>
-      </c>
-      <c r="H390" t="s">
-        <v>1025</v>
+        <v>996</v>
       </c>
       <c r="I390" t="s">
-        <v>1050</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="391" spans="1:9">
@@ -9159,16 +9159,16 @@
         <v>400</v>
       </c>
       <c r="B391" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C391" t="s">
-        <v>849</v>
-      </c>
-      <c r="E391" t="s">
-        <v>849</v>
-      </c>
-      <c r="H391" t="s">
-        <v>1026</v>
+        <v>852</v>
+      </c>
+      <c r="G391" t="s">
+        <v>997</v>
+      </c>
+      <c r="I391" t="s">
+        <v>1048</v>
       </c>
     </row>
     <row r="392" spans="1:9">
@@ -9176,22 +9176,10 @@
         <v>401</v>
       </c>
       <c r="B392" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C392" t="s">
-        <v>850</v>
-      </c>
-      <c r="E392" t="s">
-        <v>850</v>
-      </c>
-      <c r="G392" t="s">
-        <v>993</v>
-      </c>
-      <c r="H392" t="s">
-        <v>1011</v>
-      </c>
-      <c r="I392" t="s">
-        <v>1041</v>
+        <v>853</v>
       </c>
     </row>
     <row r="393" spans="1:9">
@@ -9199,22 +9187,22 @@
         <v>402</v>
       </c>
       <c r="B393" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C393" t="s">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="E393" t="s">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="G393" t="s">
-        <v>994</v>
+        <v>998</v>
       </c>
       <c r="H393" t="s">
-        <v>1027</v>
+        <v>1031</v>
       </c>
       <c r="I393" t="s">
-        <v>1038</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="394" spans="1:9">
@@ -9222,10 +9210,16 @@
         <v>403</v>
       </c>
       <c r="B394" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C394" t="s">
-        <v>852</v>
+        <v>855</v>
+      </c>
+      <c r="E394" t="s">
+        <v>855</v>
+      </c>
+      <c r="H394" t="s">
+        <v>1032</v>
       </c>
     </row>
     <row r="395" spans="1:9">
@@ -9233,16 +9227,22 @@
         <v>404</v>
       </c>
       <c r="B395" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C395" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="E395" t="s">
-        <v>901</v>
+        <v>856</v>
       </c>
       <c r="G395" t="s">
-        <v>995</v>
+        <v>999</v>
+      </c>
+      <c r="H395" t="s">
+        <v>1017</v>
+      </c>
+      <c r="I395" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="396" spans="1:9">
@@ -9250,16 +9250,22 @@
         <v>405</v>
       </c>
       <c r="B396" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C396" t="s">
-        <v>854</v>
+        <v>857</v>
       </c>
       <c r="E396" t="s">
-        <v>902</v>
+        <v>857</v>
       </c>
       <c r="G396" t="s">
-        <v>996</v>
+        <v>1000</v>
+      </c>
+      <c r="H396" t="s">
+        <v>1033</v>
+      </c>
+      <c r="I396" t="s">
+        <v>1044</v>
       </c>
     </row>
     <row r="397" spans="1:9">
@@ -9267,22 +9273,10 @@
         <v>406</v>
       </c>
       <c r="B397" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C397" t="s">
-        <v>855</v>
-      </c>
-      <c r="E397" t="s">
-        <v>903</v>
-      </c>
-      <c r="G397" t="s">
-        <v>997</v>
-      </c>
-      <c r="H397" t="s">
-        <v>1028</v>
-      </c>
-      <c r="I397" t="s">
-        <v>1059</v>
+        <v>858</v>
       </c>
     </row>
     <row r="398" spans="1:9">
@@ -9290,19 +9284,16 @@
         <v>407</v>
       </c>
       <c r="B398" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C398" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
       <c r="E398" t="s">
-        <v>856</v>
-      </c>
-      <c r="H398" t="s">
-        <v>1011</v>
-      </c>
-      <c r="I398" t="s">
-        <v>1060</v>
+        <v>907</v>
+      </c>
+      <c r="G398" t="s">
+        <v>1001</v>
       </c>
     </row>
     <row r="399" spans="1:9">
@@ -9310,22 +9301,16 @@
         <v>408</v>
       </c>
       <c r="B399" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C399" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="E399" t="s">
-        <v>857</v>
+        <v>908</v>
       </c>
       <c r="G399" t="s">
-        <v>998</v>
-      </c>
-      <c r="H399" t="s">
-        <v>1029</v>
-      </c>
-      <c r="I399" t="s">
-        <v>1061</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="400" spans="1:9">
@@ -9333,22 +9318,22 @@
         <v>409</v>
       </c>
       <c r="B400" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C400" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="E400" t="s">
-        <v>858</v>
+        <v>909</v>
       </c>
       <c r="G400" t="s">
-        <v>999</v>
+        <v>1003</v>
       </c>
       <c r="H400" t="s">
-        <v>1030</v>
+        <v>1034</v>
       </c>
       <c r="I400" t="s">
-        <v>1043</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="401" spans="1:9">
@@ -9356,16 +9341,19 @@
         <v>410</v>
       </c>
       <c r="B401" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C401" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="E401" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="H401" t="s">
-        <v>1031</v>
+        <v>1017</v>
+      </c>
+      <c r="I401" t="s">
+        <v>1066</v>
       </c>
     </row>
     <row r="402" spans="1:9">
@@ -9373,13 +9361,22 @@
         <v>411</v>
       </c>
       <c r="B402" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C402" t="s">
-        <v>860</v>
+        <v>863</v>
+      </c>
+      <c r="E402" t="s">
+        <v>863</v>
+      </c>
+      <c r="G402" t="s">
+        <v>1004</v>
       </c>
       <c r="H402" t="s">
-        <v>1024</v>
+        <v>1035</v>
+      </c>
+      <c r="I402" t="s">
+        <v>1067</v>
       </c>
     </row>
     <row r="403" spans="1:9">
@@ -9387,13 +9384,22 @@
         <v>412</v>
       </c>
       <c r="B403" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C403" t="s">
-        <v>861</v>
+        <v>864</v>
       </c>
       <c r="E403" t="s">
-        <v>861</v>
+        <v>864</v>
+      </c>
+      <c r="G403" t="s">
+        <v>1005</v>
+      </c>
+      <c r="H403" t="s">
+        <v>1036</v>
+      </c>
+      <c r="I403" t="s">
+        <v>1049</v>
       </c>
     </row>
     <row r="404" spans="1:9">
@@ -9401,13 +9407,16 @@
         <v>413</v>
       </c>
       <c r="B404" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C404" t="s">
-        <v>862</v>
+        <v>865</v>
+      </c>
+      <c r="E404" t="s">
+        <v>865</v>
       </c>
       <c r="H404" t="s">
-        <v>1032</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="405" spans="1:9">
@@ -9415,13 +9424,13 @@
         <v>414</v>
       </c>
       <c r="B405" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C405" t="s">
-        <v>863</v>
+        <v>866</v>
       </c>
       <c r="H405" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="406" spans="1:9">
@@ -9429,10 +9438,13 @@
         <v>415</v>
       </c>
       <c r="B406" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C406" t="s">
-        <v>864</v>
+        <v>867</v>
+      </c>
+      <c r="E406" t="s">
+        <v>867</v>
       </c>
     </row>
     <row r="407" spans="1:9">
@@ -9440,19 +9452,13 @@
         <v>416</v>
       </c>
       <c r="B407" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C407" t="s">
-        <v>865</v>
-      </c>
-      <c r="E407" t="s">
-        <v>865</v>
-      </c>
-      <c r="G407" t="s">
-        <v>1000</v>
+        <v>868</v>
       </c>
       <c r="H407" t="s">
-        <v>1034</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="408" spans="1:9">
@@ -9460,25 +9466,13 @@
         <v>417</v>
       </c>
       <c r="B408" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C408" t="s">
-        <v>866</v>
-      </c>
-      <c r="D408" t="s">
-        <v>891</v>
-      </c>
-      <c r="E408" t="s">
-        <v>904</v>
-      </c>
-      <c r="G408" t="s">
-        <v>1001</v>
+        <v>869</v>
       </c>
       <c r="H408" t="s">
-        <v>1035</v>
-      </c>
-      <c r="I408" t="s">
-        <v>1062</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="409" spans="1:9">
@@ -9486,19 +9480,10 @@
         <v>418</v>
       </c>
       <c r="B409" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C409" t="s">
-        <v>867</v>
-      </c>
-      <c r="E409" t="s">
-        <v>867</v>
-      </c>
-      <c r="G409" t="s">
-        <v>976</v>
-      </c>
-      <c r="I409" t="s">
-        <v>1043</v>
+        <v>870</v>
       </c>
     </row>
     <row r="410" spans="1:9">
@@ -9506,19 +9491,19 @@
         <v>419</v>
       </c>
       <c r="B410" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C410" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="E410" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="G410" t="s">
-        <v>1002</v>
-      </c>
-      <c r="I410" t="s">
-        <v>1055</v>
+        <v>1006</v>
+      </c>
+      <c r="H410" t="s">
+        <v>1040</v>
       </c>
     </row>
     <row r="411" spans="1:9">
@@ -9526,16 +9511,25 @@
         <v>420</v>
       </c>
       <c r="B411" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C411" t="s">
-        <v>869</v>
+        <v>872</v>
+      </c>
+      <c r="D411" t="s">
+        <v>897</v>
       </c>
       <c r="E411" t="s">
-        <v>869</v>
+        <v>910</v>
+      </c>
+      <c r="G411" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H411" t="s">
+        <v>1041</v>
       </c>
       <c r="I411" t="s">
-        <v>1037</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="412" spans="1:9">
@@ -9543,19 +9537,19 @@
         <v>421</v>
       </c>
       <c r="B412" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C412" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
       <c r="E412" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
       <c r="G412" t="s">
-        <v>977</v>
+        <v>982</v>
       </c>
       <c r="I412" t="s">
-        <v>1037</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="413" spans="1:9">
@@ -9563,13 +9557,19 @@
         <v>422</v>
       </c>
       <c r="B413" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C413" t="s">
-        <v>871</v>
+        <v>874</v>
       </c>
       <c r="E413" t="s">
-        <v>871</v>
+        <v>874</v>
+      </c>
+      <c r="G413" t="s">
+        <v>1008</v>
+      </c>
+      <c r="I413" t="s">
+        <v>1061</v>
       </c>
     </row>
     <row r="414" spans="1:9">
@@ -9577,16 +9577,16 @@
         <v>423</v>
       </c>
       <c r="B414" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C414" t="s">
-        <v>872</v>
-      </c>
-      <c r="G414" t="s">
-        <v>1003</v>
+        <v>875</v>
+      </c>
+      <c r="E414" t="s">
+        <v>875</v>
       </c>
       <c r="I414" t="s">
-        <v>1038</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="415" spans="1:9">
@@ -9594,13 +9594,19 @@
         <v>424</v>
       </c>
       <c r="B415" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C415" t="s">
-        <v>873</v>
+        <v>876</v>
       </c>
       <c r="E415" t="s">
-        <v>873</v>
+        <v>876</v>
+      </c>
+      <c r="G415" t="s">
+        <v>983</v>
+      </c>
+      <c r="I415" t="s">
+        <v>1043</v>
       </c>
     </row>
     <row r="416" spans="1:9">
@@ -9608,10 +9614,13 @@
         <v>425</v>
       </c>
       <c r="B416" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C416" t="s">
-        <v>874</v>
+        <v>877</v>
+      </c>
+      <c r="E416" t="s">
+        <v>877</v>
       </c>
     </row>
     <row r="417" spans="1:9">
@@ -9619,10 +9628,16 @@
         <v>426</v>
       </c>
       <c r="B417" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C417" t="s">
-        <v>875</v>
+        <v>878</v>
+      </c>
+      <c r="G417" t="s">
+        <v>1009</v>
+      </c>
+      <c r="I417" t="s">
+        <v>1044</v>
       </c>
     </row>
     <row r="418" spans="1:9">
@@ -9630,19 +9645,13 @@
         <v>427</v>
       </c>
       <c r="B418" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C418" t="s">
-        <v>876</v>
+        <v>879</v>
       </c>
       <c r="E418" t="s">
-        <v>876</v>
-      </c>
-      <c r="G418" t="s">
-        <v>1004</v>
-      </c>
-      <c r="I418" t="s">
-        <v>1037</v>
+        <v>879</v>
       </c>
     </row>
     <row r="419" spans="1:9">
@@ -9650,10 +9659,10 @@
         <v>428</v>
       </c>
       <c r="B419" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C419" t="s">
-        <v>877</v>
+        <v>880</v>
       </c>
     </row>
     <row r="420" spans="1:9">
@@ -9661,16 +9670,10 @@
         <v>429</v>
       </c>
       <c r="B420" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C420" t="s">
-        <v>878</v>
-      </c>
-      <c r="E420" t="s">
-        <v>878</v>
-      </c>
-      <c r="I420" t="s">
-        <v>1043</v>
+        <v>881</v>
       </c>
     </row>
     <row r="421" spans="1:9">
@@ -9678,13 +9681,19 @@
         <v>430</v>
       </c>
       <c r="B421" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C421" t="s">
-        <v>879</v>
+        <v>882</v>
       </c>
       <c r="E421" t="s">
-        <v>879</v>
+        <v>882</v>
+      </c>
+      <c r="G421" t="s">
+        <v>1010</v>
+      </c>
+      <c r="I421" t="s">
+        <v>1043</v>
       </c>
     </row>
     <row r="422" spans="1:9">
@@ -9692,19 +9701,10 @@
         <v>431</v>
       </c>
       <c r="B422" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C422" t="s">
-        <v>880</v>
-      </c>
-      <c r="E422" t="s">
-        <v>880</v>
-      </c>
-      <c r="G422" t="s">
-        <v>1005</v>
-      </c>
-      <c r="I422" t="s">
-        <v>1050</v>
+        <v>883</v>
       </c>
     </row>
     <row r="423" spans="1:9">
@@ -9712,13 +9712,16 @@
         <v>432</v>
       </c>
       <c r="B423" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C423" t="s">
-        <v>881</v>
+        <v>884</v>
       </c>
       <c r="E423" t="s">
-        <v>881</v>
+        <v>884</v>
+      </c>
+      <c r="I423" t="s">
+        <v>1049</v>
       </c>
     </row>
     <row r="424" spans="1:9">
@@ -9726,10 +9729,13 @@
         <v>433</v>
       </c>
       <c r="B424" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C424" t="s">
-        <v>882</v>
+        <v>885</v>
+      </c>
+      <c r="E424" t="s">
+        <v>885</v>
       </c>
     </row>
     <row r="425" spans="1:9">
@@ -9737,10 +9743,19 @@
         <v>434</v>
       </c>
       <c r="B425" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C425" t="s">
-        <v>883</v>
+        <v>886</v>
+      </c>
+      <c r="E425" t="s">
+        <v>886</v>
+      </c>
+      <c r="G425" t="s">
+        <v>1011</v>
+      </c>
+      <c r="I425" t="s">
+        <v>1056</v>
       </c>
     </row>
     <row r="426" spans="1:9">
@@ -9748,16 +9763,13 @@
         <v>435</v>
       </c>
       <c r="B426" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C426" t="s">
-        <v>884</v>
-      </c>
-      <c r="G426" t="s">
-        <v>1006</v>
-      </c>
-      <c r="I426" t="s">
-        <v>1050</v>
+        <v>887</v>
+      </c>
+      <c r="E426" t="s">
+        <v>887</v>
       </c>
     </row>
     <row r="427" spans="1:9">
@@ -9765,13 +9777,10 @@
         <v>436</v>
       </c>
       <c r="B427" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C427" t="s">
-        <v>885</v>
-      </c>
-      <c r="I427" t="s">
-        <v>1043</v>
+        <v>888</v>
       </c>
     </row>
     <row r="428" spans="1:9">
@@ -9779,22 +9788,10 @@
         <v>437</v>
       </c>
       <c r="B428" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C428" t="s">
-        <v>886</v>
-      </c>
-      <c r="E428" t="s">
-        <v>905</v>
-      </c>
-      <c r="G428" t="s">
-        <v>1007</v>
-      </c>
-      <c r="H428" t="s">
-        <v>1036</v>
-      </c>
-      <c r="I428" t="s">
-        <v>1041</v>
+        <v>889</v>
       </c>
     </row>
     <row r="429" spans="1:9">
@@ -9802,10 +9799,16 @@
         <v>438</v>
       </c>
       <c r="B429" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C429" t="s">
-        <v>887</v>
+        <v>890</v>
+      </c>
+      <c r="G429" t="s">
+        <v>1012</v>
+      </c>
+      <c r="I429" t="s">
+        <v>1056</v>
       </c>
     </row>
     <row r="430" spans="1:9">
@@ -9813,10 +9816,13 @@
         <v>439</v>
       </c>
       <c r="B430" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C430" t="s">
-        <v>888</v>
+        <v>891</v>
+      </c>
+      <c r="I430" t="s">
+        <v>1049</v>
       </c>
     </row>
     <row r="431" spans="1:9">
@@ -9824,10 +9830,22 @@
         <v>440</v>
       </c>
       <c r="B431" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C431" t="s">
-        <v>889</v>
+        <v>892</v>
+      </c>
+      <c r="E431" t="s">
+        <v>911</v>
+      </c>
+      <c r="G431" t="s">
+        <v>1013</v>
+      </c>
+      <c r="H431" t="s">
+        <v>1042</v>
+      </c>
+      <c r="I431" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="432" spans="1:9">
@@ -9835,10 +9853,43 @@
         <v>441</v>
       </c>
       <c r="B432" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C432" t="s">
-        <v>890</v>
+        <v>893</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3">
+      <c r="A433" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B433" t="s">
+        <v>462</v>
+      </c>
+      <c r="C433" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3">
+      <c r="A434" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B434" t="s">
+        <v>462</v>
+      </c>
+      <c r="C434" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3">
+      <c r="A435" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B435" t="s">
+        <v>462</v>
+      </c>
+      <c r="C435" t="s">
+        <v>896</v>
       </c>
     </row>
   </sheetData>

--- a/all_course.xlsx
+++ b/all_course.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1851" uniqueCount="1099">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1854" uniqueCount="1101">
   <si>
     <t>category</t>
   </si>
@@ -211,6 +211,9 @@
     <t>cc2995de</t>
   </si>
   <si>
+    <t>d6d87cbc</t>
+  </si>
+  <si>
     <t>fdf9ce42</t>
   </si>
   <si>
@@ -1604,6 +1607,9 @@
   </si>
   <si>
     <t>圣大解脱经讲解</t>
+  </si>
+  <si>
+    <t>地藏菩萨本愿经讲解</t>
   </si>
   <si>
     <t>大势至菩萨念佛圆通章讲解</t>
@@ -3668,7 +3674,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L449"/>
+  <dimension ref="A1:L450"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -3722,10 +3728,10 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C2" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -3733,19 +3739,19 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C3" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E3" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="G3" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="I3" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -3753,13 +3759,13 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C4" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="E4" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -3767,13 +3773,13 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C5" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="G5" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -3781,16 +3787,16 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C6" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E6" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="G6" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -3801,16 +3807,16 @@
         <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="E7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="J7" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -3821,10 +3827,10 @@
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C8" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -3832,13 +3838,13 @@
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C9" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="E9" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="L9">
         <v>1</v>
@@ -3849,19 +3855,19 @@
         <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C10" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="E10" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="G10" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="J10" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
       <c r="L10">
         <v>1</v>
@@ -3872,13 +3878,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C11" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H11" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -3886,10 +3892,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C12" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -3897,13 +3903,13 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C13" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H13" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -3911,10 +3917,10 @@
         <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C14" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -3922,13 +3928,13 @@
         <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C15" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E15" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -3936,19 +3942,19 @@
         <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C16" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="E16" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="G16" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="I16" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -3956,13 +3962,13 @@
         <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C17" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E17" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -3970,19 +3976,19 @@
         <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C18" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E18" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="G18" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="I18" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -3990,16 +3996,16 @@
         <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C19" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E19" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="J19" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="L19">
         <v>1</v>
@@ -4010,10 +4016,10 @@
         <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C20" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -4021,13 +4027,13 @@
         <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C21" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="E21" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -4035,10 +4041,10 @@
         <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C22" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -4046,16 +4052,16 @@
         <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C23" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="E23" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="G23" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -4063,10 +4069,10 @@
         <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C24" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -4074,10 +4080,10 @@
         <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C25" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -4085,10 +4091,10 @@
         <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C26" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -4096,10 +4102,10 @@
         <v>37</v>
       </c>
       <c r="B27" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C27" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -4107,10 +4113,10 @@
         <v>38</v>
       </c>
       <c r="B28" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C28" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="L28">
         <v>1</v>
@@ -4121,10 +4127,10 @@
         <v>39</v>
       </c>
       <c r="B29" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C29" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -4132,10 +4138,10 @@
         <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C30" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -4143,10 +4149,10 @@
         <v>41</v>
       </c>
       <c r="B31" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C31" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -4154,10 +4160,10 @@
         <v>42</v>
       </c>
       <c r="B32" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C32" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -4165,10 +4171,10 @@
         <v>43</v>
       </c>
       <c r="B33" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C33" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -4176,22 +4182,22 @@
         <v>44</v>
       </c>
       <c r="B34" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C34" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E34" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="G34" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="I34" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="J34" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -4199,16 +4205,16 @@
         <v>45</v>
       </c>
       <c r="B35" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C35" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="G35" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="I35" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -4216,10 +4222,10 @@
         <v>46</v>
       </c>
       <c r="B36" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C36" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -4227,10 +4233,10 @@
         <v>47</v>
       </c>
       <c r="B37" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C37" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -4238,10 +4244,10 @@
         <v>48</v>
       </c>
       <c r="B38" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C38" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -4249,10 +4255,10 @@
         <v>49</v>
       </c>
       <c r="B39" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C39" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -4260,10 +4266,10 @@
         <v>50</v>
       </c>
       <c r="B40" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C40" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -4271,10 +4277,10 @@
         <v>51</v>
       </c>
       <c r="B41" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C41" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -4282,19 +4288,19 @@
         <v>52</v>
       </c>
       <c r="B42" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C42" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="E42" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="G42" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="I42" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -4302,10 +4308,10 @@
         <v>53</v>
       </c>
       <c r="B43" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C43" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -4313,10 +4319,10 @@
         <v>54</v>
       </c>
       <c r="B44" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C44" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -4324,13 +4330,13 @@
         <v>55</v>
       </c>
       <c r="B45" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C45" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="J45" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="L45">
         <v>1</v>
@@ -4341,10 +4347,10 @@
         <v>56</v>
       </c>
       <c r="B46" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C46" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -4352,19 +4358,19 @@
         <v>57</v>
       </c>
       <c r="B47" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C47" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="E47" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G47" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="I47" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -4372,13 +4378,13 @@
         <v>58</v>
       </c>
       <c r="B48" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C48" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="E48" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="L48">
         <v>1</v>
@@ -4389,16 +4395,16 @@
         <v>59</v>
       </c>
       <c r="B49" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C49" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="E49" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H49" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -4406,19 +4412,19 @@
         <v>60</v>
       </c>
       <c r="B50" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C50" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E50" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H50" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="I50" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -4426,16 +4432,16 @@
         <v>61</v>
       </c>
       <c r="B51" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C51" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="E51" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H51" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -4443,13 +4449,13 @@
         <v>62</v>
       </c>
       <c r="B52" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C52" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E52" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -4457,10 +4463,10 @@
         <v>63</v>
       </c>
       <c r="B53" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C53" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -4468,10 +4474,10 @@
         <v>64</v>
       </c>
       <c r="B54" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C54" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -4479,10 +4485,10 @@
         <v>65</v>
       </c>
       <c r="B55" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C55" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -4490,13 +4496,10 @@
         <v>66</v>
       </c>
       <c r="B56" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C56" t="s">
-        <v>531</v>
-      </c>
-      <c r="E56" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -4504,22 +4507,13 @@
         <v>67</v>
       </c>
       <c r="B57" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C57" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E57" t="s">
-        <v>532</v>
-      </c>
-      <c r="G57" t="s">
-        <v>951</v>
-      </c>
-      <c r="H57" t="s">
-        <v>1045</v>
-      </c>
-      <c r="I57" t="s">
-        <v>1076</v>
+        <v>533</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -4527,13 +4521,22 @@
         <v>68</v>
       </c>
       <c r="B58" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C58" t="s">
-        <v>533</v>
+        <v>534</v>
+      </c>
+      <c r="E58" t="s">
+        <v>534</v>
+      </c>
+      <c r="G58" t="s">
+        <v>953</v>
       </c>
       <c r="H58" t="s">
-        <v>1045</v>
+        <v>1047</v>
+      </c>
+      <c r="I58" t="s">
+        <v>1078</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -4541,16 +4544,13 @@
         <v>69</v>
       </c>
       <c r="B59" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C59" t="s">
-        <v>534</v>
-      </c>
-      <c r="E59" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H59" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -4558,22 +4558,16 @@
         <v>70</v>
       </c>
       <c r="B60" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C60" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="E60" t="s">
-        <v>535</v>
-      </c>
-      <c r="G60" t="s">
-        <v>952</v>
+        <v>536</v>
       </c>
       <c r="H60" t="s">
-        <v>1045</v>
-      </c>
-      <c r="I60" t="s">
-        <v>1077</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -4581,19 +4575,22 @@
         <v>71</v>
       </c>
       <c r="B61" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C61" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E61" t="s">
-        <v>536</v>
+        <v>537</v>
+      </c>
+      <c r="G61" t="s">
+        <v>954</v>
       </c>
       <c r="H61" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="I61" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -4601,19 +4598,19 @@
         <v>72</v>
       </c>
       <c r="B62" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C62" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="E62" t="s">
-        <v>929</v>
+        <v>538</v>
       </c>
       <c r="H62" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="I62" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -4621,13 +4618,19 @@
         <v>73</v>
       </c>
       <c r="B63" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C63" t="s">
-        <v>538</v>
-      </c>
-      <c r="L63">
-        <v>1</v>
+        <v>539</v>
+      </c>
+      <c r="E63" t="s">
+        <v>931</v>
+      </c>
+      <c r="H63" t="s">
+        <v>1047</v>
+      </c>
+      <c r="I63" t="s">
+        <v>1081</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -4638,7 +4641,10 @@
         <v>464</v>
       </c>
       <c r="C64" t="s">
-        <v>539</v>
+        <v>540</v>
+      </c>
+      <c r="L64">
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -4646,16 +4652,10 @@
         <v>75</v>
       </c>
       <c r="B65" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C65" t="s">
-        <v>540</v>
-      </c>
-      <c r="E65" t="s">
-        <v>540</v>
-      </c>
-      <c r="I65" t="s">
-        <v>1080</v>
+        <v>541</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -4663,16 +4663,16 @@
         <v>76</v>
       </c>
       <c r="B66" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C66" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="E66" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="I66" t="s">
-        <v>1071</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -4680,19 +4680,16 @@
         <v>77</v>
       </c>
       <c r="B67" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C67" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="E67" t="s">
-        <v>542</v>
-      </c>
-      <c r="G67" t="s">
-        <v>953</v>
-      </c>
-      <c r="L67">
-        <v>1</v>
+        <v>543</v>
+      </c>
+      <c r="I67" t="s">
+        <v>1073</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -4700,19 +4697,19 @@
         <v>78</v>
       </c>
       <c r="B68" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C68" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="E68" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="G68" t="s">
-        <v>954</v>
-      </c>
-      <c r="I68" t="s">
-        <v>1071</v>
+        <v>955</v>
+      </c>
+      <c r="L68">
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -4723,10 +4720,16 @@
         <v>465</v>
       </c>
       <c r="C69" t="s">
-        <v>544</v>
+        <v>545</v>
+      </c>
+      <c r="E69" t="s">
+        <v>545</v>
+      </c>
+      <c r="G69" t="s">
+        <v>956</v>
       </c>
       <c r="I69" t="s">
-        <v>1081</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -4734,13 +4737,13 @@
         <v>80</v>
       </c>
       <c r="B70" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C70" t="s">
-        <v>545</v>
-      </c>
-      <c r="E70" t="s">
-        <v>545</v>
+        <v>546</v>
+      </c>
+      <c r="I70" t="s">
+        <v>1083</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -4748,13 +4751,13 @@
         <v>81</v>
       </c>
       <c r="B71" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C71" t="s">
-        <v>546</v>
-      </c>
-      <c r="I71" t="s">
-        <v>1081</v>
+        <v>547</v>
+      </c>
+      <c r="E71" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -4762,19 +4765,13 @@
         <v>82</v>
       </c>
       <c r="B72" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C72" t="s">
-        <v>547</v>
-      </c>
-      <c r="E72" t="s">
-        <v>547</v>
-      </c>
-      <c r="G72" t="s">
-        <v>955</v>
+        <v>548</v>
       </c>
       <c r="I72" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -4782,16 +4779,19 @@
         <v>83</v>
       </c>
       <c r="B73" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C73" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E73" t="s">
-        <v>548</v>
+        <v>549</v>
+      </c>
+      <c r="G73" t="s">
+        <v>957</v>
       </c>
       <c r="I73" t="s">
-        <v>1075</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -4799,16 +4799,13 @@
         <v>84</v>
       </c>
       <c r="B74" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C74" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="E74" t="s">
-        <v>549</v>
-      </c>
-      <c r="G74" t="s">
-        <v>956</v>
+        <v>550</v>
       </c>
       <c r="I74" t="s">
         <v>1077</v>
@@ -4819,16 +4816,19 @@
         <v>85</v>
       </c>
       <c r="B75" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C75" t="s">
-        <v>550</v>
+        <v>551</v>
+      </c>
+      <c r="E75" t="s">
+        <v>551</v>
       </c>
       <c r="G75" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="I75" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -4836,16 +4836,16 @@
         <v>86</v>
       </c>
       <c r="B76" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C76" t="s">
-        <v>551</v>
-      </c>
-      <c r="E76" t="s">
-        <v>551</v>
-      </c>
-      <c r="L76">
-        <v>1</v>
+        <v>552</v>
+      </c>
+      <c r="G76" t="s">
+        <v>959</v>
+      </c>
+      <c r="I76" t="s">
+        <v>1083</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -4853,19 +4853,13 @@
         <v>87</v>
       </c>
       <c r="B77" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C77" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="E77" t="s">
-        <v>552</v>
-      </c>
-      <c r="G77" t="s">
-        <v>957</v>
-      </c>
-      <c r="I77" t="s">
-        <v>1075</v>
+        <v>553</v>
       </c>
       <c r="L77">
         <v>1</v>
@@ -4879,16 +4873,19 @@
         <v>466</v>
       </c>
       <c r="C78" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="E78" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G78" t="s">
-        <v>958</v>
-      </c>
-      <c r="H78" t="s">
-        <v>1046</v>
+        <v>959</v>
+      </c>
+      <c r="I78" t="s">
+        <v>1077</v>
+      </c>
+      <c r="L78">
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -4896,19 +4893,19 @@
         <v>89</v>
       </c>
       <c r="B79" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C79" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E79" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="G79" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="H79" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -4916,19 +4913,19 @@
         <v>90</v>
       </c>
       <c r="B80" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C80" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="E80" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="G80" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="H80" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4936,19 +4933,19 @@
         <v>91</v>
       </c>
       <c r="B81" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C81" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E81" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="G81" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="H81" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4956,19 +4953,19 @@
         <v>92</v>
       </c>
       <c r="B82" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C82" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="E82" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="G82" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="H82" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4976,19 +4973,19 @@
         <v>93</v>
       </c>
       <c r="B83" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C83" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="E83" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="G83" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="H83" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4996,19 +4993,19 @@
         <v>94</v>
       </c>
       <c r="B84" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C84" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="E84" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="G84" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H84" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -5016,19 +5013,19 @@
         <v>95</v>
       </c>
       <c r="B85" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C85" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E85" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="G85" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="H85" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -5036,19 +5033,19 @@
         <v>96</v>
       </c>
       <c r="B86" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C86" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="E86" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="G86" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="H86" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -5056,19 +5053,19 @@
         <v>97</v>
       </c>
       <c r="B87" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C87" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="E87" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="G87" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="H87" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -5076,19 +5073,19 @@
         <v>98</v>
       </c>
       <c r="B88" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C88" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E88" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="G88" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="H88" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -5096,19 +5093,19 @@
         <v>99</v>
       </c>
       <c r="B89" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C89" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="E89" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="G89" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="H89" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -5116,19 +5113,19 @@
         <v>100</v>
       </c>
       <c r="B90" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C90" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="E90" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="G90" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="H90" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -5136,19 +5133,19 @@
         <v>101</v>
       </c>
       <c r="B91" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C91" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="E91" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="G91" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="H91" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -5156,19 +5153,19 @@
         <v>102</v>
       </c>
       <c r="B92" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C92" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="E92" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="G92" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="H92" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -5176,19 +5173,19 @@
         <v>103</v>
       </c>
       <c r="B93" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C93" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="E93" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="G93" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H93" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -5196,19 +5193,19 @@
         <v>104</v>
       </c>
       <c r="B94" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C94" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="E94" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="G94" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="H94" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -5216,19 +5213,19 @@
         <v>105</v>
       </c>
       <c r="B95" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C95" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="E95" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="G95" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="H95" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -5236,19 +5233,19 @@
         <v>106</v>
       </c>
       <c r="B96" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C96" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="E96" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="G96" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="H96" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -5256,19 +5253,19 @@
         <v>107</v>
       </c>
       <c r="B97" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C97" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="E97" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="G97" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="H97" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -5276,19 +5273,19 @@
         <v>108</v>
       </c>
       <c r="B98" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C98" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="E98" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="G98" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="H98" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -5296,19 +5293,19 @@
         <v>109</v>
       </c>
       <c r="B99" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C99" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="E99" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="G99" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H99" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -5316,19 +5313,19 @@
         <v>110</v>
       </c>
       <c r="B100" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C100" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="E100" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="G100" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H100" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -5336,19 +5333,19 @@
         <v>111</v>
       </c>
       <c r="B101" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C101" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="E101" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="G101" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H101" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="102" spans="1:12">
@@ -5356,19 +5353,19 @@
         <v>112</v>
       </c>
       <c r="B102" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C102" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="E102" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="G102" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="H102" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -5376,19 +5373,19 @@
         <v>113</v>
       </c>
       <c r="B103" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C103" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="E103" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="G103" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="H103" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="104" spans="1:12">
@@ -5396,19 +5393,19 @@
         <v>114</v>
       </c>
       <c r="B104" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C104" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="E104" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="G104" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="H104" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="105" spans="1:12">
@@ -5416,19 +5413,19 @@
         <v>115</v>
       </c>
       <c r="B105" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C105" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="E105" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="G105" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="H105" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="106" spans="1:12">
@@ -5436,19 +5433,19 @@
         <v>116</v>
       </c>
       <c r="B106" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C106" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="E106" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="G106" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="H106" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="107" spans="1:12">
@@ -5456,19 +5453,19 @@
         <v>117</v>
       </c>
       <c r="B107" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C107" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="E107" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="G107" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="H107" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="108" spans="1:12">
@@ -5476,19 +5473,19 @@
         <v>118</v>
       </c>
       <c r="B108" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C108" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="E108" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="G108" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="H108" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="109" spans="1:12">
@@ -5496,19 +5493,19 @@
         <v>119</v>
       </c>
       <c r="B109" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C109" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="E109" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="G109" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="H109" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="110" spans="1:12">
@@ -5516,16 +5513,19 @@
         <v>120</v>
       </c>
       <c r="B110" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C110" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="E110" t="s">
-        <v>585</v>
-      </c>
-      <c r="L110">
-        <v>1</v>
+        <v>586</v>
+      </c>
+      <c r="G110" t="s">
+        <v>991</v>
+      </c>
+      <c r="H110" t="s">
+        <v>1048</v>
       </c>
     </row>
     <row r="111" spans="1:12">
@@ -5533,19 +5533,16 @@
         <v>121</v>
       </c>
       <c r="B111" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C111" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="E111" t="s">
-        <v>586</v>
-      </c>
-      <c r="G111" t="s">
-        <v>990</v>
-      </c>
-      <c r="H111" t="s">
-        <v>1046</v>
+        <v>587</v>
+      </c>
+      <c r="L111">
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:12">
@@ -5553,19 +5550,19 @@
         <v>122</v>
       </c>
       <c r="B112" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C112" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E112" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="G112" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="H112" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="113" spans="1:12">
@@ -5573,19 +5570,19 @@
         <v>123</v>
       </c>
       <c r="B113" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C113" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="E113" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="G113" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="H113" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="114" spans="1:12">
@@ -5593,19 +5590,19 @@
         <v>124</v>
       </c>
       <c r="B114" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C114" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E114" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="G114" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="H114" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="115" spans="1:12">
@@ -5613,16 +5610,19 @@
         <v>125</v>
       </c>
       <c r="B115" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C115" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="E115" t="s">
-        <v>590</v>
-      </c>
-      <c r="L115">
-        <v>1</v>
+        <v>591</v>
+      </c>
+      <c r="G115" t="s">
+        <v>995</v>
+      </c>
+      <c r="H115" t="s">
+        <v>1048</v>
       </c>
     </row>
     <row r="116" spans="1:12">
@@ -5630,13 +5630,13 @@
         <v>126</v>
       </c>
       <c r="B116" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C116" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="E116" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="L116">
         <v>1</v>
@@ -5647,13 +5647,16 @@
         <v>127</v>
       </c>
       <c r="B117" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C117" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="E117" t="s">
-        <v>592</v>
+        <v>593</v>
+      </c>
+      <c r="L117">
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:12">
@@ -5661,13 +5664,13 @@
         <v>128</v>
       </c>
       <c r="B118" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C118" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="E118" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="119" spans="1:12">
@@ -5675,13 +5678,13 @@
         <v>129</v>
       </c>
       <c r="B119" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C119" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="E119" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="120" spans="1:12">
@@ -5689,13 +5692,13 @@
         <v>130</v>
       </c>
       <c r="B120" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C120" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="E120" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="121" spans="1:12">
@@ -5703,13 +5706,13 @@
         <v>131</v>
       </c>
       <c r="B121" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C121" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="E121" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="122" spans="1:12">
@@ -5717,13 +5720,13 @@
         <v>132</v>
       </c>
       <c r="B122" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C122" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="E122" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="123" spans="1:12">
@@ -5731,13 +5734,13 @@
         <v>133</v>
       </c>
       <c r="B123" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C123" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="E123" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="124" spans="1:12">
@@ -5745,13 +5748,13 @@
         <v>134</v>
       </c>
       <c r="B124" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C124" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="E124" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="125" spans="1:12">
@@ -5759,10 +5762,13 @@
         <v>135</v>
       </c>
       <c r="B125" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C125" t="s">
-        <v>600</v>
+        <v>601</v>
+      </c>
+      <c r="E125" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="126" spans="1:12">
@@ -5773,10 +5779,7 @@
         <v>467</v>
       </c>
       <c r="C126" t="s">
-        <v>601</v>
-      </c>
-      <c r="L126">
-        <v>1</v>
+        <v>602</v>
       </c>
     </row>
     <row r="127" spans="1:12">
@@ -5784,13 +5787,13 @@
         <v>137</v>
       </c>
       <c r="B127" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C127" t="s">
-        <v>602</v>
-      </c>
-      <c r="I127" t="s">
-        <v>1077</v>
+        <v>603</v>
+      </c>
+      <c r="L127">
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:12">
@@ -5798,13 +5801,13 @@
         <v>138</v>
       </c>
       <c r="B128" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C128" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="I128" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="129" spans="1:12">
@@ -5812,13 +5815,13 @@
         <v>139</v>
       </c>
       <c r="B129" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C129" t="s">
-        <v>604</v>
-      </c>
-      <c r="L129">
-        <v>1</v>
+        <v>605</v>
+      </c>
+      <c r="I129" t="s">
+        <v>1079</v>
       </c>
     </row>
     <row r="130" spans="1:12">
@@ -5826,10 +5829,13 @@
         <v>140</v>
       </c>
       <c r="B130" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C130" t="s">
-        <v>605</v>
+        <v>606</v>
+      </c>
+      <c r="L130">
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:12">
@@ -5837,10 +5843,10 @@
         <v>141</v>
       </c>
       <c r="B131" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C131" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="132" spans="1:12">
@@ -5848,10 +5854,10 @@
         <v>142</v>
       </c>
       <c r="B132" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C132" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="133" spans="1:12">
@@ -5859,10 +5865,10 @@
         <v>143</v>
       </c>
       <c r="B133" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C133" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="134" spans="1:12">
@@ -5870,10 +5876,10 @@
         <v>144</v>
       </c>
       <c r="B134" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C134" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="135" spans="1:12">
@@ -5881,16 +5887,10 @@
         <v>145</v>
       </c>
       <c r="B135" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C135" t="s">
-        <v>610</v>
-      </c>
-      <c r="E135" t="s">
-        <v>610</v>
-      </c>
-      <c r="H135" t="s">
-        <v>1047</v>
+        <v>611</v>
       </c>
     </row>
     <row r="136" spans="1:12">
@@ -5898,10 +5898,16 @@
         <v>146</v>
       </c>
       <c r="B136" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C136" t="s">
-        <v>611</v>
+        <v>612</v>
+      </c>
+      <c r="E136" t="s">
+        <v>612</v>
+      </c>
+      <c r="H136" t="s">
+        <v>1049</v>
       </c>
     </row>
     <row r="137" spans="1:12">
@@ -5909,10 +5915,10 @@
         <v>147</v>
       </c>
       <c r="B137" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C137" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="138" spans="1:12">
@@ -5920,16 +5926,10 @@
         <v>148</v>
       </c>
       <c r="B138" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C138" t="s">
-        <v>613</v>
-      </c>
-      <c r="G138" t="s">
-        <v>994</v>
-      </c>
-      <c r="I138" t="s">
-        <v>1083</v>
+        <v>614</v>
       </c>
     </row>
     <row r="139" spans="1:12">
@@ -5937,13 +5937,16 @@
         <v>149</v>
       </c>
       <c r="B139" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C139" t="s">
-        <v>614</v>
-      </c>
-      <c r="E139" t="s">
-        <v>614</v>
+        <v>615</v>
+      </c>
+      <c r="G139" t="s">
+        <v>996</v>
+      </c>
+      <c r="I139" t="s">
+        <v>1085</v>
       </c>
     </row>
     <row r="140" spans="1:12">
@@ -5951,10 +5954,13 @@
         <v>150</v>
       </c>
       <c r="B140" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C140" t="s">
-        <v>615</v>
+        <v>616</v>
+      </c>
+      <c r="E140" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="141" spans="1:12">
@@ -5962,19 +5968,10 @@
         <v>151</v>
       </c>
       <c r="B141" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C141" t="s">
-        <v>616</v>
-      </c>
-      <c r="E141" t="s">
-        <v>616</v>
-      </c>
-      <c r="G141" t="s">
-        <v>995</v>
-      </c>
-      <c r="I141" t="s">
-        <v>1084</v>
+        <v>617</v>
       </c>
     </row>
     <row r="142" spans="1:12">
@@ -5982,10 +5979,19 @@
         <v>152</v>
       </c>
       <c r="B142" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C142" t="s">
-        <v>617</v>
+        <v>618</v>
+      </c>
+      <c r="E142" t="s">
+        <v>618</v>
+      </c>
+      <c r="G142" t="s">
+        <v>997</v>
+      </c>
+      <c r="I142" t="s">
+        <v>1086</v>
       </c>
     </row>
     <row r="143" spans="1:12">
@@ -5993,10 +5999,10 @@
         <v>153</v>
       </c>
       <c r="B143" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C143" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="144" spans="1:12">
@@ -6004,16 +6010,10 @@
         <v>154</v>
       </c>
       <c r="B144" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C144" t="s">
-        <v>619</v>
-      </c>
-      <c r="E144" t="s">
-        <v>619</v>
-      </c>
-      <c r="I144" t="s">
-        <v>1075</v>
+        <v>620</v>
       </c>
     </row>
     <row r="145" spans="1:12">
@@ -6021,10 +6021,16 @@
         <v>155</v>
       </c>
       <c r="B145" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C145" t="s">
-        <v>620</v>
+        <v>621</v>
+      </c>
+      <c r="E145" t="s">
+        <v>621</v>
+      </c>
+      <c r="I145" t="s">
+        <v>1077</v>
       </c>
     </row>
     <row r="146" spans="1:12">
@@ -6032,10 +6038,10 @@
         <v>156</v>
       </c>
       <c r="B146" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C146" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="147" spans="1:12">
@@ -6043,10 +6049,10 @@
         <v>157</v>
       </c>
       <c r="B147" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C147" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="148" spans="1:12">
@@ -6054,10 +6060,10 @@
         <v>158</v>
       </c>
       <c r="B148" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C148" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="149" spans="1:12">
@@ -6065,16 +6071,10 @@
         <v>159</v>
       </c>
       <c r="B149" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C149" t="s">
-        <v>624</v>
-      </c>
-      <c r="E149" t="s">
-        <v>624</v>
-      </c>
-      <c r="I149" t="s">
-        <v>1085</v>
+        <v>625</v>
       </c>
     </row>
     <row r="150" spans="1:12">
@@ -6082,10 +6082,16 @@
         <v>160</v>
       </c>
       <c r="B150" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C150" t="s">
-        <v>625</v>
+        <v>626</v>
+      </c>
+      <c r="E150" t="s">
+        <v>626</v>
+      </c>
+      <c r="I150" t="s">
+        <v>1087</v>
       </c>
     </row>
     <row r="151" spans="1:12">
@@ -6093,19 +6099,10 @@
         <v>161</v>
       </c>
       <c r="B151" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C151" t="s">
-        <v>626</v>
-      </c>
-      <c r="E151" t="s">
-        <v>626</v>
-      </c>
-      <c r="G151" t="s">
-        <v>996</v>
-      </c>
-      <c r="I151" t="s">
-        <v>1077</v>
+        <v>627</v>
       </c>
     </row>
     <row r="152" spans="1:12">
@@ -6113,16 +6110,19 @@
         <v>162</v>
       </c>
       <c r="B152" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C152" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="E152" t="s">
-        <v>930</v>
-      </c>
-      <c r="H152" t="s">
-        <v>1048</v>
+        <v>628</v>
+      </c>
+      <c r="G152" t="s">
+        <v>998</v>
+      </c>
+      <c r="I152" t="s">
+        <v>1079</v>
       </c>
     </row>
     <row r="153" spans="1:12">
@@ -6130,13 +6130,16 @@
         <v>163</v>
       </c>
       <c r="B153" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C153" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="E153" t="s">
-        <v>627</v>
+        <v>932</v>
+      </c>
+      <c r="H153" t="s">
+        <v>1050</v>
       </c>
     </row>
     <row r="154" spans="1:12">
@@ -6144,13 +6147,13 @@
         <v>164</v>
       </c>
       <c r="B154" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C154" t="s">
+        <v>630</v>
+      </c>
+      <c r="E154" t="s">
         <v>629</v>
-      </c>
-      <c r="H154" t="s">
-        <v>1049</v>
       </c>
     </row>
     <row r="155" spans="1:12">
@@ -6158,13 +6161,13 @@
         <v>165</v>
       </c>
       <c r="B155" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C155" t="s">
-        <v>630</v>
-      </c>
-      <c r="E155" t="s">
-        <v>630</v>
+        <v>631</v>
+      </c>
+      <c r="H155" t="s">
+        <v>1051</v>
       </c>
     </row>
     <row r="156" spans="1:12">
@@ -6172,19 +6175,13 @@
         <v>166</v>
       </c>
       <c r="B156" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C156" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="E156" t="s">
-        <v>631</v>
-      </c>
-      <c r="G156" t="s">
-        <v>997</v>
-      </c>
-      <c r="I156" t="s">
-        <v>1083</v>
+        <v>632</v>
       </c>
     </row>
     <row r="157" spans="1:12">
@@ -6192,10 +6189,19 @@
         <v>167</v>
       </c>
       <c r="B157" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C157" t="s">
-        <v>632</v>
+        <v>633</v>
+      </c>
+      <c r="E157" t="s">
+        <v>633</v>
+      </c>
+      <c r="G157" t="s">
+        <v>999</v>
+      </c>
+      <c r="I157" t="s">
+        <v>1085</v>
       </c>
     </row>
     <row r="158" spans="1:12">
@@ -6203,10 +6209,10 @@
         <v>168</v>
       </c>
       <c r="B158" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C158" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="159" spans="1:12">
@@ -6214,13 +6220,10 @@
         <v>169</v>
       </c>
       <c r="B159" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C159" t="s">
-        <v>634</v>
-      </c>
-      <c r="L159">
-        <v>1</v>
+        <v>635</v>
       </c>
     </row>
     <row r="160" spans="1:12">
@@ -6228,16 +6231,13 @@
         <v>170</v>
       </c>
       <c r="B160" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C160" t="s">
-        <v>635</v>
-      </c>
-      <c r="E160" t="s">
-        <v>635</v>
-      </c>
-      <c r="I160" t="s">
-        <v>1077</v>
+        <v>636</v>
+      </c>
+      <c r="L160">
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:12">
@@ -6245,19 +6245,16 @@
         <v>171</v>
       </c>
       <c r="B161" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C161" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="E161" t="s">
-        <v>636</v>
-      </c>
-      <c r="G161" t="s">
-        <v>998</v>
+        <v>637</v>
       </c>
       <c r="I161" t="s">
-        <v>1071</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="162" spans="1:12">
@@ -6265,10 +6262,19 @@
         <v>172</v>
       </c>
       <c r="B162" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C162" t="s">
-        <v>637</v>
+        <v>638</v>
+      </c>
+      <c r="E162" t="s">
+        <v>638</v>
+      </c>
+      <c r="G162" t="s">
+        <v>1000</v>
+      </c>
+      <c r="I162" t="s">
+        <v>1073</v>
       </c>
     </row>
     <row r="163" spans="1:12">
@@ -6276,13 +6282,10 @@
         <v>173</v>
       </c>
       <c r="B163" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C163" t="s">
-        <v>638</v>
-      </c>
-      <c r="E163" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="164" spans="1:12">
@@ -6290,10 +6293,13 @@
         <v>174</v>
       </c>
       <c r="B164" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C164" t="s">
-        <v>639</v>
+        <v>640</v>
+      </c>
+      <c r="E164" t="s">
+        <v>640</v>
       </c>
     </row>
     <row r="165" spans="1:12">
@@ -6301,16 +6307,10 @@
         <v>175</v>
       </c>
       <c r="B165" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C165" t="s">
-        <v>640</v>
-      </c>
-      <c r="E165" t="s">
-        <v>640</v>
-      </c>
-      <c r="I165" t="s">
-        <v>1086</v>
+        <v>641</v>
       </c>
     </row>
     <row r="166" spans="1:12">
@@ -6318,13 +6318,16 @@
         <v>176</v>
       </c>
       <c r="B166" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C166" t="s">
-        <v>641</v>
-      </c>
-      <c r="L166">
-        <v>1</v>
+        <v>642</v>
+      </c>
+      <c r="E166" t="s">
+        <v>642</v>
+      </c>
+      <c r="I166" t="s">
+        <v>1088</v>
       </c>
     </row>
     <row r="167" spans="1:12">
@@ -6332,10 +6335,13 @@
         <v>177</v>
       </c>
       <c r="B167" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C167" t="s">
-        <v>642</v>
+        <v>643</v>
+      </c>
+      <c r="L167">
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:12">
@@ -6343,10 +6349,10 @@
         <v>178</v>
       </c>
       <c r="B168" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C168" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="169" spans="1:12">
@@ -6354,13 +6360,10 @@
         <v>179</v>
       </c>
       <c r="B169" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C169" t="s">
-        <v>644</v>
-      </c>
-      <c r="E169" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="170" spans="1:12">
@@ -6368,16 +6371,13 @@
         <v>180</v>
       </c>
       <c r="B170" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C170" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="E170" t="s">
-        <v>645</v>
-      </c>
-      <c r="I170" t="s">
-        <v>1085</v>
+        <v>646</v>
       </c>
     </row>
     <row r="171" spans="1:12">
@@ -6385,10 +6385,16 @@
         <v>181</v>
       </c>
       <c r="B171" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C171" t="s">
-        <v>646</v>
+        <v>647</v>
+      </c>
+      <c r="E171" t="s">
+        <v>647</v>
+      </c>
+      <c r="I171" t="s">
+        <v>1087</v>
       </c>
     </row>
     <row r="172" spans="1:12">
@@ -6396,10 +6402,10 @@
         <v>182</v>
       </c>
       <c r="B172" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C172" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="173" spans="1:12">
@@ -6407,10 +6413,10 @@
         <v>183</v>
       </c>
       <c r="B173" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C173" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="174" spans="1:12">
@@ -6418,10 +6424,10 @@
         <v>184</v>
       </c>
       <c r="B174" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C174" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="175" spans="1:12">
@@ -6429,10 +6435,10 @@
         <v>185</v>
       </c>
       <c r="B175" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C175" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="176" spans="1:12">
@@ -6440,10 +6446,10 @@
         <v>186</v>
       </c>
       <c r="B176" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C176" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="177" spans="1:9">
@@ -6451,19 +6457,10 @@
         <v>187</v>
       </c>
       <c r="B177" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C177" t="s">
-        <v>652</v>
-      </c>
-      <c r="E177" t="s">
-        <v>652</v>
-      </c>
-      <c r="G177" t="s">
-        <v>999</v>
-      </c>
-      <c r="I177" t="s">
-        <v>1071</v>
+        <v>653</v>
       </c>
     </row>
     <row r="178" spans="1:9">
@@ -6471,10 +6468,19 @@
         <v>188</v>
       </c>
       <c r="B178" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C178" t="s">
-        <v>653</v>
+        <v>654</v>
+      </c>
+      <c r="E178" t="s">
+        <v>654</v>
+      </c>
+      <c r="G178" t="s">
+        <v>1001</v>
+      </c>
+      <c r="I178" t="s">
+        <v>1073</v>
       </c>
     </row>
     <row r="179" spans="1:9">
@@ -6482,10 +6488,10 @@
         <v>189</v>
       </c>
       <c r="B179" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C179" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="180" spans="1:9">
@@ -6493,13 +6499,10 @@
         <v>190</v>
       </c>
       <c r="B180" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C180" t="s">
-        <v>655</v>
-      </c>
-      <c r="I180" t="s">
-        <v>1077</v>
+        <v>656</v>
       </c>
     </row>
     <row r="181" spans="1:9">
@@ -6507,16 +6510,13 @@
         <v>191</v>
       </c>
       <c r="B181" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C181" t="s">
-        <v>656</v>
-      </c>
-      <c r="G181" t="s">
-        <v>1000</v>
+        <v>657</v>
       </c>
       <c r="I181" t="s">
-        <v>1084</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="182" spans="1:9">
@@ -6524,10 +6524,16 @@
         <v>192</v>
       </c>
       <c r="B182" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C182" t="s">
-        <v>657</v>
+        <v>658</v>
+      </c>
+      <c r="G182" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I182" t="s">
+        <v>1086</v>
       </c>
     </row>
     <row r="183" spans="1:9">
@@ -6535,10 +6541,10 @@
         <v>193</v>
       </c>
       <c r="B183" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C183" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="184" spans="1:9">
@@ -6546,13 +6552,10 @@
         <v>194</v>
       </c>
       <c r="B184" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C184" t="s">
-        <v>659</v>
-      </c>
-      <c r="E184" t="s">
-        <v>931</v>
+        <v>660</v>
       </c>
     </row>
     <row r="185" spans="1:9">
@@ -6560,10 +6563,13 @@
         <v>195</v>
       </c>
       <c r="B185" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C185" t="s">
-        <v>660</v>
+        <v>661</v>
+      </c>
+      <c r="E185" t="s">
+        <v>933</v>
       </c>
     </row>
     <row r="186" spans="1:9">
@@ -6571,10 +6577,10 @@
         <v>196</v>
       </c>
       <c r="B186" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C186" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="187" spans="1:9">
@@ -6582,10 +6588,10 @@
         <v>197</v>
       </c>
       <c r="B187" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C187" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="188" spans="1:9">
@@ -6593,10 +6599,10 @@
         <v>198</v>
       </c>
       <c r="B188" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C188" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="189" spans="1:9">
@@ -6604,10 +6610,10 @@
         <v>199</v>
       </c>
       <c r="B189" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C189" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="190" spans="1:9">
@@ -6615,10 +6621,10 @@
         <v>200</v>
       </c>
       <c r="B190" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C190" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="191" spans="1:9">
@@ -6626,10 +6632,10 @@
         <v>201</v>
       </c>
       <c r="B191" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C191" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="192" spans="1:9">
@@ -6637,10 +6643,10 @@
         <v>202</v>
       </c>
       <c r="B192" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C192" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -6648,10 +6654,10 @@
         <v>203</v>
       </c>
       <c r="B193" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C193" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -6659,10 +6665,10 @@
         <v>204</v>
       </c>
       <c r="B194" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C194" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -6670,10 +6676,10 @@
         <v>205</v>
       </c>
       <c r="B195" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C195" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -6684,10 +6690,7 @@
         <v>468</v>
       </c>
       <c r="C196" t="s">
-        <v>671</v>
-      </c>
-      <c r="E196" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -6695,13 +6698,13 @@
         <v>207</v>
       </c>
       <c r="B197" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C197" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="E197" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -6709,13 +6712,13 @@
         <v>208</v>
       </c>
       <c r="B198" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C198" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="E198" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -6723,13 +6726,13 @@
         <v>209</v>
       </c>
       <c r="B199" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C199" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="E199" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -6737,13 +6740,13 @@
         <v>210</v>
       </c>
       <c r="B200" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C200" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="E200" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -6751,13 +6754,13 @@
         <v>211</v>
       </c>
       <c r="B201" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C201" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="E201" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -6765,13 +6768,13 @@
         <v>212</v>
       </c>
       <c r="B202" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C202" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="E202" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -6779,13 +6782,13 @@
         <v>213</v>
       </c>
       <c r="B203" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C203" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="E203" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -6793,13 +6796,13 @@
         <v>214</v>
       </c>
       <c r="B204" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C204" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="E204" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -6807,13 +6810,13 @@
         <v>215</v>
       </c>
       <c r="B205" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C205" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="E205" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -6821,13 +6824,13 @@
         <v>216</v>
       </c>
       <c r="B206" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C206" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="E206" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -6835,13 +6838,13 @@
         <v>217</v>
       </c>
       <c r="B207" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C207" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="E207" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -6849,13 +6852,13 @@
         <v>218</v>
       </c>
       <c r="B208" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C208" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="E208" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -6863,13 +6866,13 @@
         <v>219</v>
       </c>
       <c r="B209" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C209" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="E209" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -6877,13 +6880,13 @@
         <v>220</v>
       </c>
       <c r="B210" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C210" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="E210" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -6891,13 +6894,13 @@
         <v>221</v>
       </c>
       <c r="B211" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C211" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="E211" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="212" spans="1:7">
@@ -6905,10 +6908,13 @@
         <v>222</v>
       </c>
       <c r="B212" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C212" t="s">
-        <v>687</v>
+        <v>688</v>
+      </c>
+      <c r="E212" t="s">
+        <v>688</v>
       </c>
     </row>
     <row r="213" spans="1:7">
@@ -6916,10 +6922,10 @@
         <v>223</v>
       </c>
       <c r="B213" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C213" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -6927,10 +6933,10 @@
         <v>224</v>
       </c>
       <c r="B214" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C214" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -6938,10 +6944,10 @@
         <v>225</v>
       </c>
       <c r="B215" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C215" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="216" spans="1:7">
@@ -6949,10 +6955,10 @@
         <v>226</v>
       </c>
       <c r="B216" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C216" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="217" spans="1:7">
@@ -6963,7 +6969,7 @@
         <v>469</v>
       </c>
       <c r="C217" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="218" spans="1:7">
@@ -6971,10 +6977,10 @@
         <v>228</v>
       </c>
       <c r="B218" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C218" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="219" spans="1:7">
@@ -6982,10 +6988,10 @@
         <v>229</v>
       </c>
       <c r="B219" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C219" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="220" spans="1:7">
@@ -6993,10 +6999,10 @@
         <v>230</v>
       </c>
       <c r="B220" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C220" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="221" spans="1:7">
@@ -7004,10 +7010,10 @@
         <v>231</v>
       </c>
       <c r="B221" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C221" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="222" spans="1:7">
@@ -7015,16 +7021,10 @@
         <v>232</v>
       </c>
       <c r="B222" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C222" t="s">
-        <v>697</v>
-      </c>
-      <c r="E222" t="s">
-        <v>697</v>
-      </c>
-      <c r="G222" t="s">
-        <v>944</v>
+        <v>698</v>
       </c>
     </row>
     <row r="223" spans="1:7">
@@ -7032,13 +7032,16 @@
         <v>233</v>
       </c>
       <c r="B223" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C223" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="E223" t="s">
-        <v>932</v>
+        <v>699</v>
+      </c>
+      <c r="G223" t="s">
+        <v>946</v>
       </c>
     </row>
     <row r="224" spans="1:7">
@@ -7046,10 +7049,13 @@
         <v>234</v>
       </c>
       <c r="B224" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C224" t="s">
-        <v>699</v>
+        <v>700</v>
+      </c>
+      <c r="E224" t="s">
+        <v>934</v>
       </c>
     </row>
     <row r="225" spans="1:9">
@@ -7057,13 +7063,10 @@
         <v>235</v>
       </c>
       <c r="B225" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C225" t="s">
-        <v>700</v>
-      </c>
-      <c r="E225" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="226" spans="1:9">
@@ -7071,10 +7074,13 @@
         <v>236</v>
       </c>
       <c r="B226" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C226" t="s">
-        <v>701</v>
+        <v>702</v>
+      </c>
+      <c r="E226" t="s">
+        <v>702</v>
       </c>
     </row>
     <row r="227" spans="1:9">
@@ -7082,10 +7088,10 @@
         <v>237</v>
       </c>
       <c r="B227" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C227" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="228" spans="1:9">
@@ -7093,10 +7099,10 @@
         <v>238</v>
       </c>
       <c r="B228" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C228" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="229" spans="1:9">
@@ -7104,16 +7110,10 @@
         <v>239</v>
       </c>
       <c r="B229" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C229" t="s">
-        <v>704</v>
-      </c>
-      <c r="G229" t="s">
-        <v>1001</v>
-      </c>
-      <c r="I229" t="s">
-        <v>1075</v>
+        <v>705</v>
       </c>
     </row>
     <row r="230" spans="1:9">
@@ -7121,10 +7121,16 @@
         <v>240</v>
       </c>
       <c r="B230" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C230" t="s">
-        <v>705</v>
+        <v>706</v>
+      </c>
+      <c r="G230" t="s">
+        <v>1003</v>
+      </c>
+      <c r="I230" t="s">
+        <v>1077</v>
       </c>
     </row>
     <row r="231" spans="1:9">
@@ -7132,10 +7138,10 @@
         <v>241</v>
       </c>
       <c r="B231" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C231" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="232" spans="1:9">
@@ -7146,13 +7152,7 @@
         <v>470</v>
       </c>
       <c r="C232" t="s">
-        <v>707</v>
-      </c>
-      <c r="E232" t="s">
-        <v>707</v>
-      </c>
-      <c r="G232" t="s">
-        <v>1002</v>
+        <v>708</v>
       </c>
     </row>
     <row r="233" spans="1:9">
@@ -7163,16 +7163,13 @@
         <v>471</v>
       </c>
       <c r="C233" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="E233" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="G233" t="s">
-        <v>1003</v>
-      </c>
-      <c r="I233" t="s">
-        <v>1075</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="234" spans="1:9">
@@ -7180,13 +7177,19 @@
         <v>244</v>
       </c>
       <c r="B234" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C234" t="s">
-        <v>709</v>
+        <v>710</v>
+      </c>
+      <c r="E234" t="s">
+        <v>710</v>
       </c>
       <c r="G234" t="s">
-        <v>1003</v>
+        <v>1005</v>
+      </c>
+      <c r="I234" t="s">
+        <v>1077</v>
       </c>
     </row>
     <row r="235" spans="1:9">
@@ -7194,10 +7197,13 @@
         <v>245</v>
       </c>
       <c r="B235" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C235" t="s">
-        <v>710</v>
+        <v>711</v>
+      </c>
+      <c r="G235" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="236" spans="1:9">
@@ -7205,13 +7211,10 @@
         <v>246</v>
       </c>
       <c r="B236" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C236" t="s">
-        <v>711</v>
-      </c>
-      <c r="E236" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="237" spans="1:9">
@@ -7219,13 +7222,13 @@
         <v>247</v>
       </c>
       <c r="B237" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C237" t="s">
-        <v>712</v>
-      </c>
-      <c r="I237" t="s">
-        <v>1071</v>
+        <v>713</v>
+      </c>
+      <c r="E237" t="s">
+        <v>713</v>
       </c>
     </row>
     <row r="238" spans="1:9">
@@ -7233,13 +7236,13 @@
         <v>248</v>
       </c>
       <c r="B238" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C238" t="s">
-        <v>713</v>
-      </c>
-      <c r="E238" t="s">
-        <v>713</v>
+        <v>714</v>
+      </c>
+      <c r="I238" t="s">
+        <v>1073</v>
       </c>
     </row>
     <row r="239" spans="1:9">
@@ -7247,13 +7250,13 @@
         <v>249</v>
       </c>
       <c r="B239" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C239" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="E239" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="240" spans="1:9">
@@ -7261,13 +7264,13 @@
         <v>250</v>
       </c>
       <c r="B240" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C240" t="s">
-        <v>715</v>
-      </c>
-      <c r="I240" t="s">
-        <v>1087</v>
+        <v>716</v>
+      </c>
+      <c r="E240" t="s">
+        <v>716</v>
       </c>
     </row>
     <row r="241" spans="1:9">
@@ -7275,13 +7278,13 @@
         <v>251</v>
       </c>
       <c r="B241" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C241" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="I241" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="242" spans="1:9">
@@ -7289,13 +7292,13 @@
         <v>252</v>
       </c>
       <c r="B242" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C242" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="I242" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="243" spans="1:9">
@@ -7303,16 +7306,13 @@
         <v>253</v>
       </c>
       <c r="B243" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C243" t="s">
-        <v>718</v>
-      </c>
-      <c r="E243" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="I243" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="244" spans="1:9">
@@ -7320,13 +7320,16 @@
         <v>254</v>
       </c>
       <c r="B244" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C244" t="s">
-        <v>719</v>
+        <v>720</v>
+      </c>
+      <c r="E244" t="s">
+        <v>720</v>
       </c>
       <c r="I244" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="245" spans="1:9">
@@ -7334,13 +7337,13 @@
         <v>255</v>
       </c>
       <c r="B245" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C245" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="I245" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="246" spans="1:9">
@@ -7348,16 +7351,13 @@
         <v>256</v>
       </c>
       <c r="B246" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C246" t="s">
-        <v>721</v>
-      </c>
-      <c r="E246" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="I246" t="s">
-        <v>1075</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="247" spans="1:9">
@@ -7368,10 +7368,13 @@
         <v>472</v>
       </c>
       <c r="C247" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="E247" t="s">
-        <v>722</v>
+        <v>723</v>
+      </c>
+      <c r="I247" t="s">
+        <v>1077</v>
       </c>
     </row>
     <row r="248" spans="1:9">
@@ -7379,10 +7382,13 @@
         <v>258</v>
       </c>
       <c r="B248" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C248" t="s">
-        <v>723</v>
+        <v>724</v>
+      </c>
+      <c r="E248" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="249" spans="1:9">
@@ -7390,10 +7396,10 @@
         <v>259</v>
       </c>
       <c r="B249" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C249" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
     </row>
     <row r="250" spans="1:9">
@@ -7401,13 +7407,10 @@
         <v>260</v>
       </c>
       <c r="B250" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C250" t="s">
-        <v>725</v>
-      </c>
-      <c r="H250" t="s">
-        <v>1050</v>
+        <v>726</v>
       </c>
     </row>
     <row r="251" spans="1:9">
@@ -7415,10 +7418,13 @@
         <v>261</v>
       </c>
       <c r="B251" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C251" t="s">
-        <v>726</v>
+        <v>727</v>
+      </c>
+      <c r="H251" t="s">
+        <v>1052</v>
       </c>
     </row>
     <row r="252" spans="1:9">
@@ -7426,10 +7432,10 @@
         <v>262</v>
       </c>
       <c r="B252" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C252" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
     </row>
     <row r="253" spans="1:9">
@@ -7437,10 +7443,10 @@
         <v>263</v>
       </c>
       <c r="B253" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C253" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
     </row>
     <row r="254" spans="1:9">
@@ -7448,19 +7454,10 @@
         <v>264</v>
       </c>
       <c r="B254" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C254" t="s">
-        <v>729</v>
-      </c>
-      <c r="E254" t="s">
-        <v>729</v>
-      </c>
-      <c r="G254" t="s">
-        <v>1004</v>
-      </c>
-      <c r="I254" t="s">
-        <v>1088</v>
+        <v>730</v>
       </c>
     </row>
     <row r="255" spans="1:9">
@@ -7468,10 +7465,19 @@
         <v>265</v>
       </c>
       <c r="B255" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C255" t="s">
-        <v>730</v>
+        <v>731</v>
+      </c>
+      <c r="E255" t="s">
+        <v>731</v>
+      </c>
+      <c r="G255" t="s">
+        <v>1006</v>
+      </c>
+      <c r="I255" t="s">
+        <v>1090</v>
       </c>
     </row>
     <row r="256" spans="1:9">
@@ -7479,10 +7485,10 @@
         <v>266</v>
       </c>
       <c r="B256" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C256" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
     </row>
     <row r="257" spans="1:12">
@@ -7490,16 +7496,10 @@
         <v>267</v>
       </c>
       <c r="B257" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C257" t="s">
-        <v>732</v>
-      </c>
-      <c r="E257" t="s">
-        <v>732</v>
-      </c>
-      <c r="G257" t="s">
-        <v>1005</v>
+        <v>733</v>
       </c>
     </row>
     <row r="258" spans="1:12">
@@ -7507,13 +7507,16 @@
         <v>268</v>
       </c>
       <c r="B258" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C258" t="s">
-        <v>733</v>
-      </c>
-      <c r="L258">
-        <v>1</v>
+        <v>734</v>
+      </c>
+      <c r="E258" t="s">
+        <v>734</v>
+      </c>
+      <c r="G258" t="s">
+        <v>1007</v>
       </c>
     </row>
     <row r="259" spans="1:12">
@@ -7521,10 +7524,13 @@
         <v>269</v>
       </c>
       <c r="B259" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C259" t="s">
-        <v>734</v>
+        <v>735</v>
+      </c>
+      <c r="L259">
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:12">
@@ -7532,10 +7538,10 @@
         <v>270</v>
       </c>
       <c r="B260" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C260" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
     </row>
     <row r="261" spans="1:12">
@@ -7543,10 +7549,10 @@
         <v>271</v>
       </c>
       <c r="B261" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C261" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="262" spans="1:12">
@@ -7554,10 +7560,10 @@
         <v>272</v>
       </c>
       <c r="B262" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C262" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="263" spans="1:12">
@@ -7565,10 +7571,10 @@
         <v>273</v>
       </c>
       <c r="B263" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C263" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
     </row>
     <row r="264" spans="1:12">
@@ -7576,13 +7582,10 @@
         <v>274</v>
       </c>
       <c r="B264" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C264" t="s">
-        <v>739</v>
-      </c>
-      <c r="L264">
-        <v>1</v>
+        <v>740</v>
       </c>
     </row>
     <row r="265" spans="1:12">
@@ -7593,7 +7596,10 @@
         <v>473</v>
       </c>
       <c r="C265" t="s">
-        <v>740</v>
+        <v>741</v>
+      </c>
+      <c r="L265">
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:12">
@@ -7601,10 +7607,10 @@
         <v>276</v>
       </c>
       <c r="B266" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C266" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
     </row>
     <row r="267" spans="1:12">
@@ -7612,19 +7618,10 @@
         <v>277</v>
       </c>
       <c r="B267" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C267" t="s">
-        <v>742</v>
-      </c>
-      <c r="E267" t="s">
-        <v>742</v>
-      </c>
-      <c r="G267" t="s">
-        <v>1006</v>
-      </c>
-      <c r="I267" t="s">
-        <v>1082</v>
+        <v>743</v>
       </c>
     </row>
     <row r="268" spans="1:12">
@@ -7632,13 +7629,19 @@
         <v>278</v>
       </c>
       <c r="B268" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C268" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="E268" t="s">
-        <v>743</v>
+        <v>744</v>
+      </c>
+      <c r="G268" t="s">
+        <v>1008</v>
+      </c>
+      <c r="I268" t="s">
+        <v>1084</v>
       </c>
     </row>
     <row r="269" spans="1:12">
@@ -7646,10 +7649,13 @@
         <v>279</v>
       </c>
       <c r="B269" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C269" t="s">
-        <v>744</v>
+        <v>745</v>
+      </c>
+      <c r="E269" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="270" spans="1:12">
@@ -7657,19 +7663,10 @@
         <v>280</v>
       </c>
       <c r="B270" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C270" t="s">
-        <v>745</v>
-      </c>
-      <c r="E270" t="s">
-        <v>745</v>
-      </c>
-      <c r="G270" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I270" t="s">
-        <v>1082</v>
+        <v>746</v>
       </c>
     </row>
     <row r="271" spans="1:12">
@@ -7677,19 +7674,19 @@
         <v>281</v>
       </c>
       <c r="B271" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C271" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="E271" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="G271" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="I271" t="s">
-        <v>1077</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="272" spans="1:12">
@@ -7697,13 +7694,19 @@
         <v>282</v>
       </c>
       <c r="B272" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C272" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="E272" t="s">
-        <v>747</v>
+        <v>748</v>
+      </c>
+      <c r="G272" t="s">
+        <v>1010</v>
+      </c>
+      <c r="I272" t="s">
+        <v>1079</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -7714,10 +7717,10 @@
         <v>474</v>
       </c>
       <c r="C273" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="E273" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -7725,13 +7728,13 @@
         <v>284</v>
       </c>
       <c r="B274" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C274" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="E274" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -7739,13 +7742,13 @@
         <v>285</v>
       </c>
       <c r="B275" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C275" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="E275" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -7753,13 +7756,13 @@
         <v>286</v>
       </c>
       <c r="B276" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C276" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="E276" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -7767,13 +7770,13 @@
         <v>287</v>
       </c>
       <c r="B277" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C277" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="E277" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -7781,13 +7784,13 @@
         <v>288</v>
       </c>
       <c r="B278" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C278" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="E278" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -7795,13 +7798,13 @@
         <v>289</v>
       </c>
       <c r="B279" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C279" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="E279" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -7809,13 +7812,13 @@
         <v>290</v>
       </c>
       <c r="B280" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C280" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="E280" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -7823,13 +7826,13 @@
         <v>291</v>
       </c>
       <c r="B281" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C281" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="E281" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -7837,13 +7840,13 @@
         <v>292</v>
       </c>
       <c r="B282" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C282" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="E282" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -7851,13 +7854,13 @@
         <v>293</v>
       </c>
       <c r="B283" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C283" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="E283" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -7865,13 +7868,13 @@
         <v>294</v>
       </c>
       <c r="B284" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C284" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="E284" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -7879,13 +7882,13 @@
         <v>295</v>
       </c>
       <c r="B285" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C285" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="E285" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -7893,13 +7896,13 @@
         <v>296</v>
       </c>
       <c r="B286" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C286" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E286" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -7907,13 +7910,13 @@
         <v>297</v>
       </c>
       <c r="B287" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C287" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="E287" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -7921,13 +7924,13 @@
         <v>298</v>
       </c>
       <c r="B288" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C288" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="E288" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -7935,13 +7938,13 @@
         <v>299</v>
       </c>
       <c r="B289" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C289" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="E289" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -7949,13 +7952,13 @@
         <v>300</v>
       </c>
       <c r="B290" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C290" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="E290" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -7963,13 +7966,13 @@
         <v>301</v>
       </c>
       <c r="B291" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C291" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="E291" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -7977,13 +7980,13 @@
         <v>302</v>
       </c>
       <c r="B292" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C292" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="E292" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -7991,13 +7994,13 @@
         <v>303</v>
       </c>
       <c r="B293" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C293" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="E293" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -8005,13 +8008,13 @@
         <v>304</v>
       </c>
       <c r="B294" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C294" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="E294" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -8019,13 +8022,13 @@
         <v>305</v>
       </c>
       <c r="B295" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C295" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="E295" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -8033,10 +8036,13 @@
         <v>306</v>
       </c>
       <c r="B296" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C296" t="s">
-        <v>771</v>
+        <v>772</v>
+      </c>
+      <c r="E296" t="s">
+        <v>772</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -8044,13 +8050,10 @@
         <v>307</v>
       </c>
       <c r="B297" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C297" t="s">
-        <v>772</v>
-      </c>
-      <c r="E297" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -8058,13 +8061,13 @@
         <v>308</v>
       </c>
       <c r="B298" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C298" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="E298" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -8072,13 +8075,13 @@
         <v>309</v>
       </c>
       <c r="B299" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C299" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="E299" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -8086,13 +8089,13 @@
         <v>310</v>
       </c>
       <c r="B300" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C300" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="E300" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -8100,13 +8103,13 @@
         <v>311</v>
       </c>
       <c r="B301" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C301" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="E301" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -8114,10 +8117,13 @@
         <v>312</v>
       </c>
       <c r="B302" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C302" t="s">
-        <v>777</v>
+        <v>778</v>
+      </c>
+      <c r="E302" t="s">
+        <v>778</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -8125,13 +8131,10 @@
         <v>313</v>
       </c>
       <c r="B303" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C303" t="s">
-        <v>778</v>
-      </c>
-      <c r="E303" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -8139,13 +8142,13 @@
         <v>314</v>
       </c>
       <c r="B304" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C304" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="E304" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -8153,13 +8156,13 @@
         <v>315</v>
       </c>
       <c r="B305" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C305" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="E305" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -8167,13 +8170,13 @@
         <v>316</v>
       </c>
       <c r="B306" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C306" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="E306" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -8181,13 +8184,13 @@
         <v>317</v>
       </c>
       <c r="B307" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C307" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="E307" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -8195,13 +8198,13 @@
         <v>318</v>
       </c>
       <c r="B308" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C308" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="E308" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -8209,13 +8212,13 @@
         <v>319</v>
       </c>
       <c r="B309" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C309" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="E309" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -8223,13 +8226,13 @@
         <v>320</v>
       </c>
       <c r="B310" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C310" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="E310" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -8237,13 +8240,13 @@
         <v>321</v>
       </c>
       <c r="B311" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C311" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="E311" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -8251,10 +8254,13 @@
         <v>322</v>
       </c>
       <c r="B312" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C312" t="s">
-        <v>787</v>
+        <v>788</v>
+      </c>
+      <c r="E312" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -8262,13 +8268,10 @@
         <v>323</v>
       </c>
       <c r="B313" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C313" t="s">
-        <v>788</v>
-      </c>
-      <c r="E313" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -8276,13 +8279,13 @@
         <v>324</v>
       </c>
       <c r="B314" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C314" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="E314" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -8290,10 +8293,13 @@
         <v>325</v>
       </c>
       <c r="B315" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C315" t="s">
-        <v>790</v>
+        <v>791</v>
+      </c>
+      <c r="E315" t="s">
+        <v>791</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -8301,13 +8307,10 @@
         <v>326</v>
       </c>
       <c r="B316" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C316" t="s">
-        <v>791</v>
-      </c>
-      <c r="E316" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -8315,10 +8318,13 @@
         <v>327</v>
       </c>
       <c r="B317" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C317" t="s">
-        <v>792</v>
+        <v>793</v>
+      </c>
+      <c r="E317" t="s">
+        <v>793</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -8326,10 +8332,10 @@
         <v>328</v>
       </c>
       <c r="B318" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C318" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -8337,13 +8343,10 @@
         <v>329</v>
       </c>
       <c r="B319" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C319" t="s">
-        <v>794</v>
-      </c>
-      <c r="E319" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -8351,10 +8354,13 @@
         <v>330</v>
       </c>
       <c r="B320" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C320" t="s">
-        <v>795</v>
+        <v>796</v>
+      </c>
+      <c r="E320" t="s">
+        <v>796</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -8362,10 +8368,10 @@
         <v>331</v>
       </c>
       <c r="B321" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C321" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -8373,10 +8379,10 @@
         <v>332</v>
       </c>
       <c r="B322" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C322" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -8384,10 +8390,10 @@
         <v>333</v>
       </c>
       <c r="B323" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C323" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -8395,10 +8401,10 @@
         <v>334</v>
       </c>
       <c r="B324" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C324" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -8406,10 +8412,10 @@
         <v>335</v>
       </c>
       <c r="B325" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C325" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -8417,10 +8423,10 @@
         <v>336</v>
       </c>
       <c r="B326" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C326" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -8428,10 +8434,10 @@
         <v>337</v>
       </c>
       <c r="B327" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C327" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -8439,10 +8445,10 @@
         <v>338</v>
       </c>
       <c r="B328" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C328" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -8450,10 +8456,10 @@
         <v>339</v>
       </c>
       <c r="B329" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C329" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -8461,10 +8467,10 @@
         <v>340</v>
       </c>
       <c r="B330" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C330" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -8472,10 +8478,10 @@
         <v>341</v>
       </c>
       <c r="B331" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C331" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -8483,10 +8489,10 @@
         <v>342</v>
       </c>
       <c r="B332" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C332" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -8494,10 +8500,10 @@
         <v>343</v>
       </c>
       <c r="B333" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C333" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -8505,10 +8511,10 @@
         <v>344</v>
       </c>
       <c r="B334" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C334" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -8516,10 +8522,10 @@
         <v>345</v>
       </c>
       <c r="B335" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C335" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -8527,10 +8533,10 @@
         <v>346</v>
       </c>
       <c r="B336" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C336" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
     </row>
     <row r="337" spans="1:9">
@@ -8538,10 +8544,10 @@
         <v>347</v>
       </c>
       <c r="B337" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C337" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
     </row>
     <row r="338" spans="1:9">
@@ -8549,10 +8555,10 @@
         <v>348</v>
       </c>
       <c r="B338" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C338" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
     </row>
     <row r="339" spans="1:9">
@@ -8560,10 +8566,10 @@
         <v>349</v>
       </c>
       <c r="B339" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C339" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
     </row>
     <row r="340" spans="1:9">
@@ -8571,10 +8577,10 @@
         <v>350</v>
       </c>
       <c r="B340" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C340" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
     </row>
     <row r="341" spans="1:9">
@@ -8585,10 +8591,7 @@
         <v>475</v>
       </c>
       <c r="C341" t="s">
-        <v>816</v>
-      </c>
-      <c r="H341" t="s">
-        <v>1051</v>
+        <v>817</v>
       </c>
     </row>
     <row r="342" spans="1:9">
@@ -8596,10 +8599,13 @@
         <v>352</v>
       </c>
       <c r="B342" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C342" t="s">
-        <v>817</v>
+        <v>818</v>
+      </c>
+      <c r="H342" t="s">
+        <v>1053</v>
       </c>
     </row>
     <row r="343" spans="1:9">
@@ -8607,13 +8613,10 @@
         <v>353</v>
       </c>
       <c r="B343" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C343" t="s">
-        <v>818</v>
-      </c>
-      <c r="H343" t="s">
-        <v>1052</v>
+        <v>819</v>
       </c>
     </row>
     <row r="344" spans="1:9">
@@ -8621,13 +8624,13 @@
         <v>354</v>
       </c>
       <c r="B344" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C344" t="s">
-        <v>819</v>
-      </c>
-      <c r="I344" t="s">
-        <v>1075</v>
+        <v>820</v>
+      </c>
+      <c r="H344" t="s">
+        <v>1054</v>
       </c>
     </row>
     <row r="345" spans="1:9">
@@ -8635,13 +8638,13 @@
         <v>355</v>
       </c>
       <c r="B345" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C345" t="s">
-        <v>820</v>
-      </c>
-      <c r="H345" t="s">
-        <v>1053</v>
+        <v>821</v>
+      </c>
+      <c r="I345" t="s">
+        <v>1077</v>
       </c>
     </row>
     <row r="346" spans="1:9">
@@ -8649,10 +8652,13 @@
         <v>356</v>
       </c>
       <c r="B346" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C346" t="s">
-        <v>821</v>
+        <v>822</v>
+      </c>
+      <c r="H346" t="s">
+        <v>1055</v>
       </c>
     </row>
     <row r="347" spans="1:9">
@@ -8660,13 +8666,10 @@
         <v>357</v>
       </c>
       <c r="B347" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C347" t="s">
-        <v>822</v>
-      </c>
-      <c r="H347" t="s">
-        <v>1054</v>
+        <v>823</v>
       </c>
     </row>
     <row r="348" spans="1:9">
@@ -8674,10 +8677,13 @@
         <v>358</v>
       </c>
       <c r="B348" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C348" t="s">
-        <v>823</v>
+        <v>824</v>
+      </c>
+      <c r="H348" t="s">
+        <v>1056</v>
       </c>
     </row>
     <row r="349" spans="1:9">
@@ -8685,10 +8691,10 @@
         <v>359</v>
       </c>
       <c r="B349" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C349" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
     </row>
     <row r="350" spans="1:9">
@@ -8696,10 +8702,10 @@
         <v>360</v>
       </c>
       <c r="B350" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C350" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
     </row>
     <row r="351" spans="1:9">
@@ -8707,13 +8713,10 @@
         <v>361</v>
       </c>
       <c r="B351" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C351" t="s">
-        <v>826</v>
-      </c>
-      <c r="H351" t="s">
-        <v>1055</v>
+        <v>827</v>
       </c>
     </row>
     <row r="352" spans="1:9">
@@ -8721,16 +8724,13 @@
         <v>362</v>
       </c>
       <c r="B352" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C352" t="s">
-        <v>827</v>
-      </c>
-      <c r="G352" t="s">
-        <v>1009</v>
+        <v>828</v>
       </c>
       <c r="H352" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="353" spans="1:12">
@@ -8738,10 +8738,16 @@
         <v>363</v>
       </c>
       <c r="B353" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C353" t="s">
-        <v>828</v>
+        <v>829</v>
+      </c>
+      <c r="G353" t="s">
+        <v>1011</v>
+      </c>
+      <c r="H353" t="s">
+        <v>1058</v>
       </c>
     </row>
     <row r="354" spans="1:12">
@@ -8749,13 +8755,10 @@
         <v>364</v>
       </c>
       <c r="B354" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C354" t="s">
-        <v>829</v>
-      </c>
-      <c r="H354" t="s">
-        <v>1057</v>
+        <v>830</v>
       </c>
     </row>
     <row r="355" spans="1:12">
@@ -8763,10 +8766,13 @@
         <v>365</v>
       </c>
       <c r="B355" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C355" t="s">
-        <v>830</v>
+        <v>831</v>
+      </c>
+      <c r="H355" t="s">
+        <v>1059</v>
       </c>
     </row>
     <row r="356" spans="1:12">
@@ -8774,13 +8780,10 @@
         <v>366</v>
       </c>
       <c r="B356" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C356" t="s">
-        <v>831</v>
-      </c>
-      <c r="H356" t="s">
-        <v>1058</v>
+        <v>832</v>
       </c>
     </row>
     <row r="357" spans="1:12">
@@ -8788,13 +8791,13 @@
         <v>367</v>
       </c>
       <c r="B357" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C357" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="H357" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="358" spans="1:12">
@@ -8802,10 +8805,13 @@
         <v>368</v>
       </c>
       <c r="B358" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C358" t="s">
-        <v>833</v>
+        <v>834</v>
+      </c>
+      <c r="H358" t="s">
+        <v>1060</v>
       </c>
     </row>
     <row r="359" spans="1:12">
@@ -8813,10 +8819,10 @@
         <v>369</v>
       </c>
       <c r="B359" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C359" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
     </row>
     <row r="360" spans="1:12">
@@ -8824,13 +8830,10 @@
         <v>370</v>
       </c>
       <c r="B360" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C360" t="s">
-        <v>835</v>
-      </c>
-      <c r="L360">
-        <v>1</v>
+        <v>836</v>
       </c>
     </row>
     <row r="361" spans="1:12">
@@ -8838,16 +8841,13 @@
         <v>371</v>
       </c>
       <c r="B361" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C361" t="s">
-        <v>836</v>
-      </c>
-      <c r="G361" t="s">
-        <v>1010</v>
-      </c>
-      <c r="I361" t="s">
-        <v>1077</v>
+        <v>837</v>
+      </c>
+      <c r="L361">
+        <v>1</v>
       </c>
     </row>
     <row r="362" spans="1:12">
@@ -8855,16 +8855,16 @@
         <v>372</v>
       </c>
       <c r="B362" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C362" t="s">
-        <v>837</v>
-      </c>
-      <c r="E362" t="s">
-        <v>933</v>
-      </c>
-      <c r="L362">
-        <v>1</v>
+        <v>838</v>
+      </c>
+      <c r="G362" t="s">
+        <v>1012</v>
+      </c>
+      <c r="I362" t="s">
+        <v>1079</v>
       </c>
     </row>
     <row r="363" spans="1:12">
@@ -8872,10 +8872,16 @@
         <v>373</v>
       </c>
       <c r="B363" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C363" t="s">
-        <v>838</v>
+        <v>839</v>
+      </c>
+      <c r="E363" t="s">
+        <v>935</v>
+      </c>
+      <c r="L363">
+        <v>1</v>
       </c>
     </row>
     <row r="364" spans="1:12">
@@ -8883,19 +8889,10 @@
         <v>374</v>
       </c>
       <c r="B364" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C364" t="s">
-        <v>839</v>
-      </c>
-      <c r="E364" t="s">
-        <v>839</v>
-      </c>
-      <c r="G364" t="s">
-        <v>1011</v>
-      </c>
-      <c r="I364" t="s">
-        <v>1089</v>
+        <v>840</v>
       </c>
     </row>
     <row r="365" spans="1:12">
@@ -8903,13 +8900,19 @@
         <v>375</v>
       </c>
       <c r="B365" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C365" t="s">
-        <v>840</v>
+        <v>841</v>
+      </c>
+      <c r="E365" t="s">
+        <v>841</v>
       </c>
       <c r="G365" t="s">
-        <v>1012</v>
+        <v>1013</v>
+      </c>
+      <c r="I365" t="s">
+        <v>1091</v>
       </c>
     </row>
     <row r="366" spans="1:12">
@@ -8917,13 +8920,13 @@
         <v>376</v>
       </c>
       <c r="B366" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C366" t="s">
-        <v>841</v>
-      </c>
-      <c r="L366">
-        <v>1</v>
+        <v>842</v>
+      </c>
+      <c r="G366" t="s">
+        <v>1014</v>
       </c>
     </row>
     <row r="367" spans="1:12">
@@ -8931,10 +8934,13 @@
         <v>377</v>
       </c>
       <c r="B367" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C367" t="s">
-        <v>842</v>
+        <v>843</v>
+      </c>
+      <c r="L367">
+        <v>1</v>
       </c>
     </row>
     <row r="368" spans="1:12">
@@ -8942,10 +8948,10 @@
         <v>378</v>
       </c>
       <c r="B368" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C368" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
     </row>
     <row r="369" spans="1:12">
@@ -8953,13 +8959,10 @@
         <v>379</v>
       </c>
       <c r="B369" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C369" t="s">
-        <v>844</v>
-      </c>
-      <c r="L369">
-        <v>1</v>
+        <v>845</v>
       </c>
     </row>
     <row r="370" spans="1:12">
@@ -8967,13 +8970,13 @@
         <v>380</v>
       </c>
       <c r="B370" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C370" t="s">
-        <v>845</v>
-      </c>
-      <c r="E370" t="s">
-        <v>845</v>
+        <v>846</v>
+      </c>
+      <c r="L370">
+        <v>1</v>
       </c>
     </row>
     <row r="371" spans="1:12">
@@ -8981,13 +8984,13 @@
         <v>381</v>
       </c>
       <c r="B371" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C371" t="s">
-        <v>846</v>
-      </c>
-      <c r="H371" t="s">
-        <v>1058</v>
+        <v>847</v>
+      </c>
+      <c r="E371" t="s">
+        <v>847</v>
       </c>
     </row>
     <row r="372" spans="1:12">
@@ -8995,13 +8998,13 @@
         <v>382</v>
       </c>
       <c r="B372" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C372" t="s">
-        <v>847</v>
-      </c>
-      <c r="L372">
-        <v>1</v>
+        <v>848</v>
+      </c>
+      <c r="H372" t="s">
+        <v>1060</v>
       </c>
     </row>
     <row r="373" spans="1:12">
@@ -9009,10 +9012,13 @@
         <v>383</v>
       </c>
       <c r="B373" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C373" t="s">
-        <v>848</v>
+        <v>849</v>
+      </c>
+      <c r="L373">
+        <v>1</v>
       </c>
     </row>
     <row r="374" spans="1:12">
@@ -9020,10 +9026,10 @@
         <v>384</v>
       </c>
       <c r="B374" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C374" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
     </row>
     <row r="375" spans="1:12">
@@ -9031,10 +9037,10 @@
         <v>385</v>
       </c>
       <c r="B375" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C375" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
     </row>
     <row r="376" spans="1:12">
@@ -9042,10 +9048,10 @@
         <v>386</v>
       </c>
       <c r="B376" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C376" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
     </row>
     <row r="377" spans="1:12">
@@ -9053,13 +9059,10 @@
         <v>387</v>
       </c>
       <c r="B377" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C377" t="s">
-        <v>852</v>
-      </c>
-      <c r="E377" t="s">
-        <v>934</v>
+        <v>853</v>
       </c>
     </row>
     <row r="378" spans="1:12">
@@ -9067,10 +9070,13 @@
         <v>388</v>
       </c>
       <c r="B378" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C378" t="s">
-        <v>853</v>
+        <v>854</v>
+      </c>
+      <c r="E378" t="s">
+        <v>936</v>
       </c>
     </row>
     <row r="379" spans="1:12">
@@ -9078,10 +9084,10 @@
         <v>389</v>
       </c>
       <c r="B379" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C379" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
     </row>
     <row r="380" spans="1:12">
@@ -9089,13 +9095,10 @@
         <v>390</v>
       </c>
       <c r="B380" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C380" t="s">
-        <v>855</v>
-      </c>
-      <c r="I380" t="s">
-        <v>1077</v>
+        <v>856</v>
       </c>
     </row>
     <row r="381" spans="1:12">
@@ -9103,13 +9106,13 @@
         <v>391</v>
       </c>
       <c r="B381" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C381" t="s">
-        <v>856</v>
-      </c>
-      <c r="E381" t="s">
-        <v>856</v>
+        <v>857</v>
+      </c>
+      <c r="I381" t="s">
+        <v>1079</v>
       </c>
     </row>
     <row r="382" spans="1:12">
@@ -9117,13 +9120,13 @@
         <v>392</v>
       </c>
       <c r="B382" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C382" t="s">
-        <v>857</v>
-      </c>
-      <c r="L382">
-        <v>1</v>
+        <v>858</v>
+      </c>
+      <c r="E382" t="s">
+        <v>858</v>
       </c>
     </row>
     <row r="383" spans="1:12">
@@ -9131,13 +9134,13 @@
         <v>393</v>
       </c>
       <c r="B383" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C383" t="s">
-        <v>858</v>
-      </c>
-      <c r="I383" t="s">
-        <v>1088</v>
+        <v>859</v>
+      </c>
+      <c r="L383">
+        <v>1</v>
       </c>
     </row>
     <row r="384" spans="1:12">
@@ -9145,10 +9148,13 @@
         <v>394</v>
       </c>
       <c r="B384" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C384" t="s">
-        <v>859</v>
+        <v>860</v>
+      </c>
+      <c r="I384" t="s">
+        <v>1090</v>
       </c>
     </row>
     <row r="385" spans="1:9">
@@ -9159,7 +9165,7 @@
         <v>476</v>
       </c>
       <c r="C385" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
     </row>
     <row r="386" spans="1:9">
@@ -9167,19 +9173,10 @@
         <v>396</v>
       </c>
       <c r="B386" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C386" t="s">
-        <v>861</v>
-      </c>
-      <c r="E386" t="s">
-        <v>861</v>
-      </c>
-      <c r="G386" t="s">
-        <v>1013</v>
-      </c>
-      <c r="I386" t="s">
-        <v>1090</v>
+        <v>862</v>
       </c>
     </row>
     <row r="387" spans="1:9">
@@ -9187,19 +9184,19 @@
         <v>397</v>
       </c>
       <c r="B387" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C387" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="E387" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="G387" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="I387" t="s">
-        <v>1088</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="388" spans="1:9">
@@ -9207,10 +9204,19 @@
         <v>398</v>
       </c>
       <c r="B388" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C388" t="s">
-        <v>863</v>
+        <v>864</v>
+      </c>
+      <c r="E388" t="s">
+        <v>864</v>
+      </c>
+      <c r="G388" t="s">
+        <v>1016</v>
+      </c>
+      <c r="I388" t="s">
+        <v>1090</v>
       </c>
     </row>
     <row r="389" spans="1:9">
@@ -9218,10 +9224,10 @@
         <v>399</v>
       </c>
       <c r="B389" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C389" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
     </row>
     <row r="390" spans="1:9">
@@ -9229,10 +9235,10 @@
         <v>400</v>
       </c>
       <c r="B390" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C390" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
     </row>
     <row r="391" spans="1:9">
@@ -9240,19 +9246,10 @@
         <v>401</v>
       </c>
       <c r="B391" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C391" t="s">
-        <v>866</v>
-      </c>
-      <c r="E391" t="s">
-        <v>866</v>
-      </c>
-      <c r="G391" t="s">
-        <v>1015</v>
-      </c>
-      <c r="I391" t="s">
-        <v>1076</v>
+        <v>867</v>
       </c>
     </row>
     <row r="392" spans="1:9">
@@ -9260,19 +9257,19 @@
         <v>402</v>
       </c>
       <c r="B392" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C392" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="E392" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="G392" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="I392" t="s">
-        <v>1074</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="393" spans="1:9">
@@ -9280,10 +9277,19 @@
         <v>403</v>
       </c>
       <c r="B393" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C393" t="s">
-        <v>868</v>
+        <v>869</v>
+      </c>
+      <c r="E393" t="s">
+        <v>869</v>
+      </c>
+      <c r="G393" t="s">
+        <v>1018</v>
+      </c>
+      <c r="I393" t="s">
+        <v>1076</v>
       </c>
     </row>
     <row r="394" spans="1:9">
@@ -9291,19 +9297,10 @@
         <v>404</v>
       </c>
       <c r="B394" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C394" t="s">
-        <v>869</v>
-      </c>
-      <c r="E394" t="s">
-        <v>869</v>
-      </c>
-      <c r="G394" t="s">
-        <v>1017</v>
-      </c>
-      <c r="I394" t="s">
-        <v>1074</v>
+        <v>870</v>
       </c>
     </row>
     <row r="395" spans="1:9">
@@ -9311,16 +9308,19 @@
         <v>405</v>
       </c>
       <c r="B395" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C395" t="s">
-        <v>870</v>
+        <v>871</v>
+      </c>
+      <c r="E395" t="s">
+        <v>871</v>
       </c>
       <c r="G395" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="I395" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="396" spans="1:9">
@@ -9328,19 +9328,16 @@
         <v>406</v>
       </c>
       <c r="B396" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C396" t="s">
-        <v>871</v>
-      </c>
-      <c r="E396" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="G396" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="I396" t="s">
-        <v>1091</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="397" spans="1:9">
@@ -9348,13 +9345,19 @@
         <v>407</v>
       </c>
       <c r="B397" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C397" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="E397" t="s">
-        <v>872</v>
+        <v>873</v>
+      </c>
+      <c r="G397" t="s">
+        <v>1021</v>
+      </c>
+      <c r="I397" t="s">
+        <v>1093</v>
       </c>
     </row>
     <row r="398" spans="1:9">
@@ -9362,13 +9365,13 @@
         <v>408</v>
       </c>
       <c r="B398" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C398" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E398" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="399" spans="1:9">
@@ -9376,16 +9379,13 @@
         <v>409</v>
       </c>
       <c r="B399" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C399" t="s">
-        <v>874</v>
-      </c>
-      <c r="G399" t="s">
-        <v>1020</v>
-      </c>
-      <c r="I399" t="s">
-        <v>1074</v>
+        <v>875</v>
+      </c>
+      <c r="E399" t="s">
+        <v>875</v>
       </c>
     </row>
     <row r="400" spans="1:9">
@@ -9393,16 +9393,16 @@
         <v>410</v>
       </c>
       <c r="B400" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C400" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="G400" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="I400" t="s">
-        <v>1092</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="401" spans="1:12">
@@ -9410,19 +9410,16 @@
         <v>411</v>
       </c>
       <c r="B401" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C401" t="s">
-        <v>876</v>
-      </c>
-      <c r="E401" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="G401" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="I401" t="s">
-        <v>1090</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="402" spans="1:12">
@@ -9430,16 +9427,19 @@
         <v>412</v>
       </c>
       <c r="B402" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C402" t="s">
-        <v>877</v>
+        <v>878</v>
+      </c>
+      <c r="E402" t="s">
+        <v>878</v>
       </c>
       <c r="G402" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="I402" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="403" spans="1:12">
@@ -9447,16 +9447,13 @@
         <v>413</v>
       </c>
       <c r="B403" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C403" t="s">
-        <v>878</v>
-      </c>
-      <c r="E403" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="G403" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="I403" t="s">
         <v>1092</v>
@@ -9467,16 +9464,19 @@
         <v>414</v>
       </c>
       <c r="B404" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C404" t="s">
-        <v>879</v>
+        <v>880</v>
+      </c>
+      <c r="E404" t="s">
+        <v>880</v>
       </c>
       <c r="G404" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="I404" t="s">
-        <v>1076</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="405" spans="1:12">
@@ -9484,10 +9484,16 @@
         <v>415</v>
       </c>
       <c r="B405" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C405" t="s">
-        <v>880</v>
+        <v>881</v>
+      </c>
+      <c r="G405" t="s">
+        <v>1027</v>
+      </c>
+      <c r="I405" t="s">
+        <v>1078</v>
       </c>
     </row>
     <row r="406" spans="1:12">
@@ -9498,19 +9504,7 @@
         <v>477</v>
       </c>
       <c r="C406" t="s">
-        <v>881</v>
-      </c>
-      <c r="E406" t="s">
-        <v>881</v>
-      </c>
-      <c r="G406" t="s">
-        <v>1026</v>
-      </c>
-      <c r="H406" t="s">
-        <v>1059</v>
-      </c>
-      <c r="I406" t="s">
-        <v>1084</v>
+        <v>882</v>
       </c>
     </row>
     <row r="407" spans="1:12">
@@ -9518,16 +9512,22 @@
         <v>417</v>
       </c>
       <c r="B407" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C407" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="E407" t="s">
-        <v>882</v>
+        <v>883</v>
+      </c>
+      <c r="G407" t="s">
+        <v>1028</v>
       </c>
       <c r="H407" t="s">
-        <v>1060</v>
+        <v>1061</v>
+      </c>
+      <c r="I407" t="s">
+        <v>1086</v>
       </c>
     </row>
     <row r="408" spans="1:12">
@@ -9535,22 +9535,16 @@
         <v>418</v>
       </c>
       <c r="B408" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C408" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="E408" t="s">
-        <v>883</v>
-      </c>
-      <c r="G408" t="s">
-        <v>1027</v>
+        <v>884</v>
       </c>
       <c r="H408" t="s">
-        <v>1045</v>
-      </c>
-      <c r="I408" t="s">
-        <v>1075</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="409" spans="1:12">
@@ -9558,10 +9552,22 @@
         <v>419</v>
       </c>
       <c r="B409" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C409" t="s">
-        <v>884</v>
+        <v>885</v>
+      </c>
+      <c r="E409" t="s">
+        <v>885</v>
+      </c>
+      <c r="G409" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H409" t="s">
+        <v>1047</v>
+      </c>
+      <c r="I409" t="s">
+        <v>1077</v>
       </c>
     </row>
     <row r="410" spans="1:12">
@@ -9569,22 +9575,10 @@
         <v>420</v>
       </c>
       <c r="B410" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C410" t="s">
-        <v>885</v>
-      </c>
-      <c r="E410" t="s">
-        <v>885</v>
-      </c>
-      <c r="G410" t="s">
-        <v>1028</v>
-      </c>
-      <c r="H410" t="s">
-        <v>1061</v>
-      </c>
-      <c r="I410" t="s">
-        <v>1072</v>
+        <v>886</v>
       </c>
     </row>
     <row r="411" spans="1:12">
@@ -9592,13 +9586,22 @@
         <v>421</v>
       </c>
       <c r="B411" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C411" t="s">
-        <v>886</v>
-      </c>
-      <c r="L411">
-        <v>1</v>
+        <v>887</v>
+      </c>
+      <c r="E411" t="s">
+        <v>887</v>
+      </c>
+      <c r="G411" t="s">
+        <v>1030</v>
+      </c>
+      <c r="H411" t="s">
+        <v>1063</v>
+      </c>
+      <c r="I411" t="s">
+        <v>1074</v>
       </c>
     </row>
     <row r="412" spans="1:12">
@@ -9606,16 +9609,13 @@
         <v>422</v>
       </c>
       <c r="B412" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C412" t="s">
-        <v>887</v>
-      </c>
-      <c r="E412" t="s">
-        <v>935</v>
-      </c>
-      <c r="G412" t="s">
-        <v>1029</v>
+        <v>888</v>
+      </c>
+      <c r="L412">
+        <v>1</v>
       </c>
     </row>
     <row r="413" spans="1:12">
@@ -9623,16 +9623,16 @@
         <v>423</v>
       </c>
       <c r="B413" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C413" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="E413" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="G413" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="414" spans="1:12">
@@ -9640,22 +9640,16 @@
         <v>424</v>
       </c>
       <c r="B414" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C414" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="E414" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="G414" t="s">
-        <v>1031</v>
-      </c>
-      <c r="H414" t="s">
-        <v>1062</v>
-      </c>
-      <c r="I414" t="s">
-        <v>1093</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="415" spans="1:12">
@@ -9663,19 +9657,22 @@
         <v>425</v>
       </c>
       <c r="B415" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C415" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="E415" t="s">
-        <v>890</v>
+        <v>939</v>
+      </c>
+      <c r="G415" t="s">
+        <v>1033</v>
       </c>
       <c r="H415" t="s">
-        <v>1045</v>
+        <v>1064</v>
       </c>
       <c r="I415" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="416" spans="1:12">
@@ -9683,22 +9680,19 @@
         <v>426</v>
       </c>
       <c r="B416" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C416" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="E416" t="s">
-        <v>891</v>
-      </c>
-      <c r="G416" t="s">
-        <v>1032</v>
+        <v>892</v>
       </c>
       <c r="H416" t="s">
-        <v>1063</v>
+        <v>1047</v>
       </c>
       <c r="I416" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="417" spans="1:12">
@@ -9706,22 +9700,22 @@
         <v>427</v>
       </c>
       <c r="B417" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C417" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="E417" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="G417" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="H417" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="I417" t="s">
-        <v>1077</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="418" spans="1:12">
@@ -9729,16 +9723,22 @@
         <v>428</v>
       </c>
       <c r="B418" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C418" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="E418" t="s">
-        <v>893</v>
+        <v>894</v>
+      </c>
+      <c r="G418" t="s">
+        <v>1035</v>
       </c>
       <c r="H418" t="s">
-        <v>1065</v>
+        <v>1066</v>
+      </c>
+      <c r="I418" t="s">
+        <v>1079</v>
       </c>
     </row>
     <row r="419" spans="1:12">
@@ -9746,13 +9746,16 @@
         <v>429</v>
       </c>
       <c r="B419" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C419" t="s">
-        <v>894</v>
+        <v>895</v>
+      </c>
+      <c r="E419" t="s">
+        <v>895</v>
       </c>
       <c r="H419" t="s">
-        <v>1058</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="420" spans="1:12">
@@ -9760,13 +9763,13 @@
         <v>430</v>
       </c>
       <c r="B420" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C420" t="s">
-        <v>895</v>
-      </c>
-      <c r="E420" t="s">
-        <v>895</v>
+        <v>896</v>
+      </c>
+      <c r="H420" t="s">
+        <v>1060</v>
       </c>
     </row>
     <row r="421" spans="1:12">
@@ -9774,13 +9777,13 @@
         <v>431</v>
       </c>
       <c r="B421" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C421" t="s">
-        <v>896</v>
-      </c>
-      <c r="H421" t="s">
-        <v>1066</v>
+        <v>897</v>
+      </c>
+      <c r="E421" t="s">
+        <v>897</v>
       </c>
     </row>
     <row r="422" spans="1:12">
@@ -9788,13 +9791,13 @@
         <v>432</v>
       </c>
       <c r="B422" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C422" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="H422" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="423" spans="1:12">
@@ -9802,10 +9805,13 @@
         <v>433</v>
       </c>
       <c r="B423" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C423" t="s">
-        <v>898</v>
+        <v>899</v>
+      </c>
+      <c r="H423" t="s">
+        <v>1069</v>
       </c>
     </row>
     <row r="424" spans="1:12">
@@ -9813,22 +9819,10 @@
         <v>434</v>
       </c>
       <c r="B424" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C424" t="s">
-        <v>899</v>
-      </c>
-      <c r="E424" t="s">
-        <v>899</v>
-      </c>
-      <c r="G424" t="s">
-        <v>1034</v>
-      </c>
-      <c r="H424" t="s">
-        <v>1068</v>
-      </c>
-      <c r="L424">
-        <v>1</v>
+        <v>900</v>
       </c>
     </row>
     <row r="425" spans="1:12">
@@ -9836,25 +9830,22 @@
         <v>435</v>
       </c>
       <c r="B425" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C425" t="s">
-        <v>900</v>
-      </c>
-      <c r="D425" t="s">
-        <v>925</v>
+        <v>901</v>
       </c>
       <c r="E425" t="s">
-        <v>938</v>
+        <v>901</v>
       </c>
       <c r="G425" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="H425" t="s">
-        <v>1069</v>
-      </c>
-      <c r="I425" t="s">
-        <v>1096</v>
+        <v>1070</v>
+      </c>
+      <c r="L425">
+        <v>1</v>
       </c>
     </row>
     <row r="426" spans="1:12">
@@ -9862,19 +9853,25 @@
         <v>436</v>
       </c>
       <c r="B426" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C426" t="s">
-        <v>901</v>
+        <v>902</v>
+      </c>
+      <c r="D426" t="s">
+        <v>927</v>
       </c>
       <c r="E426" t="s">
-        <v>901</v>
+        <v>940</v>
       </c>
       <c r="G426" t="s">
-        <v>1010</v>
+        <v>1037</v>
+      </c>
+      <c r="H426" t="s">
+        <v>1071</v>
       </c>
       <c r="I426" t="s">
-        <v>1077</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="427" spans="1:12">
@@ -9882,19 +9879,19 @@
         <v>437</v>
       </c>
       <c r="B427" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C427" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="E427" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="G427" t="s">
-        <v>1036</v>
+        <v>1012</v>
       </c>
       <c r="I427" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="428" spans="1:12">
@@ -9902,16 +9899,19 @@
         <v>438</v>
       </c>
       <c r="B428" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C428" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="E428" t="s">
-        <v>903</v>
+        <v>904</v>
+      </c>
+      <c r="G428" t="s">
+        <v>1038</v>
       </c>
       <c r="I428" t="s">
-        <v>1071</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="429" spans="1:12">
@@ -9919,19 +9919,16 @@
         <v>439</v>
       </c>
       <c r="B429" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C429" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="E429" t="s">
-        <v>904</v>
-      </c>
-      <c r="G429" t="s">
-        <v>1011</v>
+        <v>905</v>
       </c>
       <c r="I429" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="430" spans="1:12">
@@ -9939,13 +9936,19 @@
         <v>440</v>
       </c>
       <c r="B430" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C430" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="E430" t="s">
-        <v>905</v>
+        <v>906</v>
+      </c>
+      <c r="G430" t="s">
+        <v>1013</v>
+      </c>
+      <c r="I430" t="s">
+        <v>1073</v>
       </c>
     </row>
     <row r="431" spans="1:12">
@@ -9953,16 +9956,13 @@
         <v>441</v>
       </c>
       <c r="B431" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C431" t="s">
-        <v>906</v>
-      </c>
-      <c r="G431" t="s">
-        <v>1037</v>
-      </c>
-      <c r="I431" t="s">
-        <v>1072</v>
+        <v>907</v>
+      </c>
+      <c r="E431" t="s">
+        <v>907</v>
       </c>
     </row>
     <row r="432" spans="1:12">
@@ -9970,13 +9970,16 @@
         <v>442</v>
       </c>
       <c r="B432" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C432" t="s">
-        <v>907</v>
-      </c>
-      <c r="E432" t="s">
-        <v>907</v>
+        <v>908</v>
+      </c>
+      <c r="G432" t="s">
+        <v>1039</v>
+      </c>
+      <c r="I432" t="s">
+        <v>1074</v>
       </c>
     </row>
     <row r="433" spans="1:12">
@@ -9984,10 +9987,13 @@
         <v>443</v>
       </c>
       <c r="B433" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C433" t="s">
-        <v>908</v>
+        <v>909</v>
+      </c>
+      <c r="E433" t="s">
+        <v>909</v>
       </c>
     </row>
     <row r="434" spans="1:12">
@@ -9995,10 +10001,10 @@
         <v>444</v>
       </c>
       <c r="B434" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C434" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
     </row>
     <row r="435" spans="1:12">
@@ -10006,19 +10012,10 @@
         <v>445</v>
       </c>
       <c r="B435" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C435" t="s">
-        <v>910</v>
-      </c>
-      <c r="E435" t="s">
-        <v>910</v>
-      </c>
-      <c r="G435" t="s">
-        <v>1038</v>
-      </c>
-      <c r="I435" t="s">
-        <v>1071</v>
+        <v>911</v>
       </c>
     </row>
     <row r="436" spans="1:12">
@@ -10026,10 +10023,19 @@
         <v>446</v>
       </c>
       <c r="B436" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C436" t="s">
-        <v>911</v>
+        <v>912</v>
+      </c>
+      <c r="E436" t="s">
+        <v>912</v>
+      </c>
+      <c r="G436" t="s">
+        <v>1040</v>
+      </c>
+      <c r="I436" t="s">
+        <v>1073</v>
       </c>
     </row>
     <row r="437" spans="1:12">
@@ -10037,16 +10043,10 @@
         <v>447</v>
       </c>
       <c r="B437" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C437" t="s">
-        <v>912</v>
-      </c>
-      <c r="E437" t="s">
-        <v>912</v>
-      </c>
-      <c r="I437" t="s">
-        <v>1077</v>
+        <v>913</v>
       </c>
     </row>
     <row r="438" spans="1:12">
@@ -10054,13 +10054,16 @@
         <v>448</v>
       </c>
       <c r="B438" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C438" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="E438" t="s">
-        <v>913</v>
+        <v>914</v>
+      </c>
+      <c r="I438" t="s">
+        <v>1079</v>
       </c>
     </row>
     <row r="439" spans="1:12">
@@ -10068,19 +10071,13 @@
         <v>449</v>
       </c>
       <c r="B439" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C439" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="E439" t="s">
-        <v>914</v>
-      </c>
-      <c r="G439" t="s">
-        <v>1039</v>
-      </c>
-      <c r="I439" t="s">
-        <v>1084</v>
+        <v>915</v>
       </c>
     </row>
     <row r="440" spans="1:12">
@@ -10088,13 +10085,19 @@
         <v>450</v>
       </c>
       <c r="B440" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C440" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="E440" t="s">
-        <v>915</v>
+        <v>916</v>
+      </c>
+      <c r="G440" t="s">
+        <v>1041</v>
+      </c>
+      <c r="I440" t="s">
+        <v>1086</v>
       </c>
     </row>
     <row r="441" spans="1:12">
@@ -10102,10 +10105,13 @@
         <v>451</v>
       </c>
       <c r="B441" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C441" t="s">
-        <v>916</v>
+        <v>917</v>
+      </c>
+      <c r="E441" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="442" spans="1:12">
@@ -10113,13 +10119,10 @@
         <v>452</v>
       </c>
       <c r="B442" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C442" t="s">
-        <v>917</v>
-      </c>
-      <c r="L442">
-        <v>1</v>
+        <v>918</v>
       </c>
     </row>
     <row r="443" spans="1:12">
@@ -10127,16 +10130,13 @@
         <v>453</v>
       </c>
       <c r="B443" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C443" t="s">
-        <v>918</v>
-      </c>
-      <c r="G443" t="s">
-        <v>1040</v>
-      </c>
-      <c r="I443" t="s">
-        <v>1084</v>
+        <v>919</v>
+      </c>
+      <c r="L443">
+        <v>1</v>
       </c>
     </row>
     <row r="444" spans="1:12">
@@ -10144,13 +10144,16 @@
         <v>454</v>
       </c>
       <c r="B444" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C444" t="s">
-        <v>919</v>
+        <v>920</v>
+      </c>
+      <c r="G444" t="s">
+        <v>1042</v>
       </c>
       <c r="I444" t="s">
-        <v>1077</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="445" spans="1:12">
@@ -10158,22 +10161,13 @@
         <v>455</v>
       </c>
       <c r="B445" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C445" t="s">
-        <v>920</v>
-      </c>
-      <c r="E445" t="s">
-        <v>939</v>
-      </c>
-      <c r="G445" t="s">
-        <v>1041</v>
-      </c>
-      <c r="H445" t="s">
-        <v>1070</v>
+        <v>921</v>
       </c>
       <c r="I445" t="s">
-        <v>1075</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="446" spans="1:12">
@@ -10181,10 +10175,22 @@
         <v>456</v>
       </c>
       <c r="B446" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C446" t="s">
-        <v>921</v>
+        <v>922</v>
+      </c>
+      <c r="E446" t="s">
+        <v>941</v>
+      </c>
+      <c r="G446" t="s">
+        <v>1043</v>
+      </c>
+      <c r="H446" t="s">
+        <v>1072</v>
+      </c>
+      <c r="I446" t="s">
+        <v>1077</v>
       </c>
     </row>
     <row r="447" spans="1:12">
@@ -10192,10 +10198,10 @@
         <v>457</v>
       </c>
       <c r="B447" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C447" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
     </row>
     <row r="448" spans="1:12">
@@ -10203,10 +10209,10 @@
         <v>458</v>
       </c>
       <c r="B448" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C448" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
     </row>
     <row r="449" spans="1:3">
@@ -10214,10 +10220,21 @@
         <v>459</v>
       </c>
       <c r="B449" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C449" t="s">
-        <v>924</v>
+        <v>925</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3">
+      <c r="A450" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B450" t="s">
+        <v>478</v>
+      </c>
+      <c r="C450" t="s">
+        <v>926</v>
       </c>
     </row>
   </sheetData>

--- a/all_course.xlsx
+++ b/all_course.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1905" uniqueCount="1136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1920" uniqueCount="1146">
   <si>
     <t>category</t>
   </si>
@@ -436,6 +436,9 @@
     <t>177fa680</t>
   </si>
   <si>
+    <t>885ee455</t>
+  </si>
+  <si>
     <t>27abc5d2</t>
   </si>
   <si>
@@ -874,6 +877,9 @@
     <t>45721e23</t>
   </si>
   <si>
+    <t>d28ac45f</t>
+  </si>
+  <si>
     <t>26cf6855</t>
   </si>
   <si>
@@ -1150,6 +1156,9 @@
     <t>ffd6977a</t>
   </si>
   <si>
+    <t>6f1ab829</t>
+  </si>
+  <si>
     <t>5fa8f7c9</t>
   </si>
   <si>
@@ -1180,6 +1189,9 @@
     <t>dfcf0ff5</t>
   </si>
   <si>
+    <t>f26a0633</t>
+  </si>
+  <si>
     <t>8741459e</t>
   </si>
   <si>
@@ -1258,6 +1270,9 @@
     <t>80b8d9e8</t>
   </si>
   <si>
+    <t>fb58c0f9</t>
+  </si>
+  <si>
     <t>423c7f3a</t>
   </si>
   <si>
@@ -1885,6 +1900,9 @@
     <t>三十忠告论要义简疏</t>
   </si>
   <si>
+    <t>上师供仪轨</t>
+  </si>
+  <si>
     <t>上师如意宝晋美彭措祈祷文</t>
   </si>
   <si>
@@ -2323,6 +2341,9 @@
     <t>祈祷上师•加持日光</t>
   </si>
   <si>
+    <t>空行法类</t>
+  </si>
+  <si>
     <t>窍诀宝藏海</t>
   </si>
   <si>
@@ -2599,6 +2620,9 @@
     <t>佛说无量寿经</t>
   </si>
   <si>
+    <t>佛说父母恩难报经</t>
+  </si>
+  <si>
     <t>佛说观无量寿佛经</t>
   </si>
   <si>
@@ -2629,6 +2653,9 @@
     <t>圣大解脱经</t>
   </si>
   <si>
+    <t>地藏菩萨本愿经</t>
+  </si>
+  <si>
     <t>大势至菩萨念佛圆通章</t>
   </si>
   <si>
@@ -2705,6 +2732,9 @@
   </si>
   <si>
     <t>金刚经</t>
+  </si>
+  <si>
+    <t>顺治皇帝出家偈</t>
   </si>
   <si>
     <t>不灭的明灯</t>
@@ -3779,7 +3809,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M467"/>
+  <dimension ref="A1:M472"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -3836,10 +3866,10 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="C2" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -3847,19 +3877,19 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="C3" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="E3" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="G3" t="s">
-        <v>977</v>
+        <v>987</v>
       </c>
       <c r="I3" t="s">
-        <v>1108</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -3867,13 +3897,13 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="C4" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="E4" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -3881,13 +3911,13 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="C5" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="G5" t="s">
-        <v>978</v>
+        <v>988</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -3895,16 +3925,16 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="C6" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="E6" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="G6" t="s">
-        <v>979</v>
+        <v>989</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -3915,16 +3945,16 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="C7" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="E7" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="J7" t="s">
-        <v>1134</v>
+        <v>1144</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -3935,10 +3965,10 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="C8" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -3946,13 +3976,13 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="C9" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="E9" t="s">
-        <v>963</v>
+        <v>973</v>
       </c>
       <c r="L9">
         <v>1</v>
@@ -3963,19 +3993,19 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="C10" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="E10" t="s">
-        <v>964</v>
+        <v>974</v>
       </c>
       <c r="G10" t="s">
-        <v>980</v>
+        <v>990</v>
       </c>
       <c r="J10" t="s">
-        <v>1134</v>
+        <v>1144</v>
       </c>
       <c r="L10">
         <v>1</v>
@@ -3986,13 +4016,13 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="C11" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="H11" t="s">
-        <v>1079</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -4000,10 +4030,10 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="C12" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -4011,13 +4041,13 @@
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="C13" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="H13" t="s">
-        <v>1080</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -4025,10 +4055,10 @@
         <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="C14" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -4036,13 +4066,13 @@
         <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="C15" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="E15" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -4050,19 +4080,19 @@
         <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="C16" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="E16" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="G16" t="s">
-        <v>981</v>
+        <v>991</v>
       </c>
       <c r="I16" t="s">
-        <v>1109</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -4070,13 +4100,13 @@
         <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="C17" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="E17" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -4084,19 +4114,19 @@
         <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="C18" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="E18" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="G18" t="s">
-        <v>982</v>
+        <v>992</v>
       </c>
       <c r="I18" t="s">
-        <v>1108</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -4104,16 +4134,16 @@
         <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="C19" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="E19" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="J19" t="s">
-        <v>1135</v>
+        <v>1145</v>
       </c>
       <c r="L19">
         <v>1</v>
@@ -4124,10 +4154,10 @@
         <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="C20" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -4135,13 +4165,13 @@
         <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="C21" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="E21" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -4149,10 +4179,10 @@
         <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="C22" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -4160,16 +4190,16 @@
         <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="C23" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="E23" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="G23" t="s">
-        <v>983</v>
+        <v>993</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -4177,10 +4207,10 @@
         <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="C24" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -4188,10 +4218,10 @@
         <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="C25" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -4199,10 +4229,10 @@
         <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="C26" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -4210,10 +4240,10 @@
         <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="C27" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -4221,10 +4251,10 @@
         <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="C28" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="L28">
         <v>1</v>
@@ -4235,10 +4265,10 @@
         <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="C29" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -4246,10 +4276,10 @@
         <v>41</v>
       </c>
       <c r="B30" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="C30" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -4257,10 +4287,10 @@
         <v>42</v>
       </c>
       <c r="B31" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="C31" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -4268,10 +4298,10 @@
         <v>43</v>
       </c>
       <c r="B32" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="C32" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -4279,10 +4309,10 @@
         <v>44</v>
       </c>
       <c r="B33" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="C33" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -4290,22 +4320,22 @@
         <v>45</v>
       </c>
       <c r="B34" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="C34" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="E34" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="G34" t="s">
-        <v>984</v>
+        <v>994</v>
       </c>
       <c r="I34" t="s">
-        <v>1110</v>
+        <v>1120</v>
       </c>
       <c r="J34" t="s">
-        <v>1135</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -4313,16 +4343,16 @@
         <v>46</v>
       </c>
       <c r="B35" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="C35" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="G35" t="s">
-        <v>985</v>
+        <v>995</v>
       </c>
       <c r="I35" t="s">
-        <v>1111</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -4330,10 +4360,10 @@
         <v>47</v>
       </c>
       <c r="B36" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="C36" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -4341,10 +4371,10 @@
         <v>48</v>
       </c>
       <c r="B37" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="C37" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -4352,10 +4382,10 @@
         <v>49</v>
       </c>
       <c r="B38" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="C38" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -4363,10 +4393,10 @@
         <v>50</v>
       </c>
       <c r="B39" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="C39" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -4374,10 +4404,10 @@
         <v>51</v>
       </c>
       <c r="B40" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="C40" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -4385,10 +4415,10 @@
         <v>52</v>
       </c>
       <c r="B41" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="C41" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -4396,19 +4426,19 @@
         <v>53</v>
       </c>
       <c r="B42" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="C42" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="E42" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="G42" t="s">
-        <v>986</v>
+        <v>996</v>
       </c>
       <c r="I42" t="s">
-        <v>1110</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -4416,10 +4446,10 @@
         <v>54</v>
       </c>
       <c r="B43" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="C43" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -4427,10 +4457,10 @@
         <v>55</v>
       </c>
       <c r="B44" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="C44" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -4438,13 +4468,13 @@
         <v>56</v>
       </c>
       <c r="B45" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="C45" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="J45" t="s">
-        <v>1135</v>
+        <v>1145</v>
       </c>
       <c r="L45">
         <v>1</v>
@@ -4455,10 +4485,10 @@
         <v>57</v>
       </c>
       <c r="B46" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="C46" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -4466,19 +4496,19 @@
         <v>58</v>
       </c>
       <c r="B47" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="C47" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="E47" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="G47" t="s">
-        <v>987</v>
+        <v>997</v>
       </c>
       <c r="I47" t="s">
-        <v>1110</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -4486,13 +4516,13 @@
         <v>59</v>
       </c>
       <c r="B48" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="C48" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="E48" t="s">
-        <v>965</v>
+        <v>975</v>
       </c>
       <c r="L48">
         <v>1</v>
@@ -4503,16 +4533,16 @@
         <v>60</v>
       </c>
       <c r="B49" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="C49" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="E49" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="H49" t="s">
-        <v>1081</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -4520,19 +4550,19 @@
         <v>61</v>
       </c>
       <c r="B50" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="C50" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="E50" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="H50" t="s">
-        <v>1082</v>
+        <v>1092</v>
       </c>
       <c r="I50" t="s">
-        <v>1112</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -4540,16 +4570,16 @@
         <v>62</v>
       </c>
       <c r="B51" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="C51" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="E51" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="H51" t="s">
-        <v>1082</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -4557,13 +4587,13 @@
         <v>63</v>
       </c>
       <c r="B52" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="C52" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="E52" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="M52">
         <v>1</v>
@@ -4574,10 +4604,10 @@
         <v>64</v>
       </c>
       <c r="B53" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="C53" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -4585,10 +4615,10 @@
         <v>65</v>
       </c>
       <c r="B54" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="C54" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -4596,10 +4626,10 @@
         <v>66</v>
       </c>
       <c r="B55" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="C55" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -4607,10 +4637,10 @@
         <v>67</v>
       </c>
       <c r="B56" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="C56" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -4618,13 +4648,13 @@
         <v>68</v>
       </c>
       <c r="B57" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="C57" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="E57" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -4632,22 +4662,22 @@
         <v>69</v>
       </c>
       <c r="B58" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="C58" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="E58" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="G58" t="s">
-        <v>988</v>
+        <v>998</v>
       </c>
       <c r="H58" t="s">
-        <v>1082</v>
+        <v>1092</v>
       </c>
       <c r="I58" t="s">
-        <v>1113</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -4655,16 +4685,16 @@
         <v>70</v>
       </c>
       <c r="B59" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="C59" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="E59" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="H59" t="s">
-        <v>1082</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -4672,22 +4702,22 @@
         <v>71</v>
       </c>
       <c r="B60" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="C60" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="E60" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="G60" t="s">
-        <v>989</v>
+        <v>999</v>
       </c>
       <c r="H60" t="s">
-        <v>1082</v>
+        <v>1092</v>
       </c>
       <c r="I60" t="s">
-        <v>1114</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -4695,19 +4725,19 @@
         <v>72</v>
       </c>
       <c r="B61" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="C61" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="E61" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="H61" t="s">
-        <v>1082</v>
+        <v>1092</v>
       </c>
       <c r="I61" t="s">
-        <v>1115</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -4715,19 +4745,19 @@
         <v>73</v>
       </c>
       <c r="B62" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="C62" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="E62" t="s">
-        <v>966</v>
+        <v>976</v>
       </c>
       <c r="H62" t="s">
-        <v>1082</v>
+        <v>1092</v>
       </c>
       <c r="I62" t="s">
-        <v>1116</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -4735,10 +4765,10 @@
         <v>74</v>
       </c>
       <c r="B63" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="C63" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="L63">
         <v>1</v>
@@ -4749,10 +4779,10 @@
         <v>75</v>
       </c>
       <c r="B64" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="C64" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -4760,16 +4790,16 @@
         <v>76</v>
       </c>
       <c r="B65" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="C65" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="E65" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="I65" t="s">
-        <v>1117</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -4777,16 +4807,16 @@
         <v>77</v>
       </c>
       <c r="B66" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="C66" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="E66" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="I66" t="s">
-        <v>1108</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -4794,16 +4824,16 @@
         <v>78</v>
       </c>
       <c r="B67" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="C67" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="E67" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="G67" t="s">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="L67">
         <v>1</v>
@@ -4814,19 +4844,19 @@
         <v>79</v>
       </c>
       <c r="B68" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="C68" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="E68" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="G68" t="s">
-        <v>991</v>
+        <v>1001</v>
       </c>
       <c r="I68" t="s">
-        <v>1108</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -4834,13 +4864,13 @@
         <v>80</v>
       </c>
       <c r="B69" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="C69" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="I69" t="s">
-        <v>1118</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -4848,13 +4878,13 @@
         <v>81</v>
       </c>
       <c r="B70" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="C70" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="E70" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -4862,13 +4892,13 @@
         <v>82</v>
       </c>
       <c r="B71" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="C71" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="I71" t="s">
-        <v>1118</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -4876,19 +4906,19 @@
         <v>83</v>
       </c>
       <c r="B72" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="C72" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="E72" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="G72" t="s">
-        <v>992</v>
+        <v>1002</v>
       </c>
       <c r="I72" t="s">
-        <v>1119</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -4896,16 +4926,16 @@
         <v>84</v>
       </c>
       <c r="B73" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="C73" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="E73" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="I73" t="s">
-        <v>1112</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -4913,19 +4943,19 @@
         <v>85</v>
       </c>
       <c r="B74" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="C74" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="E74" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="G74" t="s">
-        <v>993</v>
+        <v>1003</v>
       </c>
       <c r="I74" t="s">
-        <v>1114</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -4933,16 +4963,16 @@
         <v>86</v>
       </c>
       <c r="B75" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="C75" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="G75" t="s">
-        <v>994</v>
+        <v>1004</v>
       </c>
       <c r="I75" t="s">
-        <v>1118</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -4950,13 +4980,13 @@
         <v>87</v>
       </c>
       <c r="B76" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="C76" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="E76" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="L76">
         <v>1</v>
@@ -4967,19 +4997,19 @@
         <v>88</v>
       </c>
       <c r="B77" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="C77" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="E77" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="G77" t="s">
-        <v>994</v>
+        <v>1004</v>
       </c>
       <c r="I77" t="s">
-        <v>1112</v>
+        <v>1122</v>
       </c>
       <c r="L77">
         <v>1</v>
@@ -4990,19 +5020,19 @@
         <v>89</v>
       </c>
       <c r="B78" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="C78" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="E78" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="G78" t="s">
-        <v>995</v>
+        <v>1005</v>
       </c>
       <c r="H78" t="s">
-        <v>1083</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -5010,19 +5040,19 @@
         <v>90</v>
       </c>
       <c r="B79" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="C79" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="E79" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="G79" t="s">
-        <v>996</v>
+        <v>1006</v>
       </c>
       <c r="H79" t="s">
-        <v>1083</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -5030,19 +5060,19 @@
         <v>91</v>
       </c>
       <c r="B80" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="C80" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="E80" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="G80" t="s">
-        <v>997</v>
+        <v>1007</v>
       </c>
       <c r="H80" t="s">
-        <v>1083</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -5050,19 +5080,19 @@
         <v>92</v>
       </c>
       <c r="B81" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="C81" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="E81" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="G81" t="s">
-        <v>998</v>
+        <v>1008</v>
       </c>
       <c r="H81" t="s">
-        <v>1083</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -5070,19 +5100,19 @@
         <v>93</v>
       </c>
       <c r="B82" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="C82" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="E82" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="G82" t="s">
-        <v>999</v>
+        <v>1009</v>
       </c>
       <c r="H82" t="s">
-        <v>1083</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -5090,19 +5120,19 @@
         <v>94</v>
       </c>
       <c r="B83" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="C83" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="E83" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="G83" t="s">
-        <v>1000</v>
+        <v>1010</v>
       </c>
       <c r="H83" t="s">
-        <v>1083</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -5110,19 +5140,19 @@
         <v>95</v>
       </c>
       <c r="B84" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="C84" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="E84" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="G84" t="s">
-        <v>1001</v>
+        <v>1011</v>
       </c>
       <c r="H84" t="s">
-        <v>1083</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -5130,19 +5160,19 @@
         <v>96</v>
       </c>
       <c r="B85" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="C85" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="E85" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="G85" t="s">
-        <v>1002</v>
+        <v>1012</v>
       </c>
       <c r="H85" t="s">
-        <v>1083</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -5150,19 +5180,19 @@
         <v>97</v>
       </c>
       <c r="B86" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="C86" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="E86" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="G86" t="s">
-        <v>1003</v>
+        <v>1013</v>
       </c>
       <c r="H86" t="s">
-        <v>1083</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -5170,19 +5200,19 @@
         <v>98</v>
       </c>
       <c r="B87" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="C87" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="E87" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="G87" t="s">
-        <v>1004</v>
+        <v>1014</v>
       </c>
       <c r="H87" t="s">
-        <v>1083</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -5190,19 +5220,19 @@
         <v>99</v>
       </c>
       <c r="B88" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="C88" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="E88" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="G88" t="s">
-        <v>1005</v>
+        <v>1015</v>
       </c>
       <c r="H88" t="s">
-        <v>1083</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -5210,19 +5240,19 @@
         <v>100</v>
       </c>
       <c r="B89" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="C89" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="E89" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="G89" t="s">
-        <v>1006</v>
+        <v>1016</v>
       </c>
       <c r="H89" t="s">
-        <v>1083</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -5230,19 +5260,19 @@
         <v>101</v>
       </c>
       <c r="B90" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="C90" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="E90" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="G90" t="s">
-        <v>1007</v>
+        <v>1017</v>
       </c>
       <c r="H90" t="s">
-        <v>1083</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -5250,19 +5280,19 @@
         <v>102</v>
       </c>
       <c r="B91" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="C91" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="E91" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="G91" t="s">
-        <v>1008</v>
+        <v>1018</v>
       </c>
       <c r="H91" t="s">
-        <v>1083</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -5270,19 +5300,19 @@
         <v>103</v>
       </c>
       <c r="B92" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="C92" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="E92" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="G92" t="s">
-        <v>1009</v>
+        <v>1019</v>
       </c>
       <c r="H92" t="s">
-        <v>1083</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -5290,19 +5320,19 @@
         <v>104</v>
       </c>
       <c r="B93" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="C93" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="E93" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="G93" t="s">
-        <v>1010</v>
+        <v>1020</v>
       </c>
       <c r="H93" t="s">
-        <v>1083</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -5310,19 +5340,19 @@
         <v>105</v>
       </c>
       <c r="B94" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="C94" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="E94" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="G94" t="s">
-        <v>1011</v>
+        <v>1021</v>
       </c>
       <c r="H94" t="s">
-        <v>1083</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -5330,19 +5360,19 @@
         <v>106</v>
       </c>
       <c r="B95" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="C95" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="E95" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="G95" t="s">
-        <v>1012</v>
+        <v>1022</v>
       </c>
       <c r="H95" t="s">
-        <v>1083</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -5350,19 +5380,19 @@
         <v>107</v>
       </c>
       <c r="B96" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="C96" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="E96" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="G96" t="s">
-        <v>1013</v>
+        <v>1023</v>
       </c>
       <c r="H96" t="s">
-        <v>1083</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -5370,19 +5400,19 @@
         <v>108</v>
       </c>
       <c r="B97" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="C97" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="E97" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="G97" t="s">
-        <v>1014</v>
+        <v>1024</v>
       </c>
       <c r="H97" t="s">
-        <v>1083</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -5390,19 +5420,19 @@
         <v>109</v>
       </c>
       <c r="B98" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="C98" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="E98" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="G98" t="s">
-        <v>1015</v>
+        <v>1025</v>
       </c>
       <c r="H98" t="s">
-        <v>1083</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -5410,19 +5440,19 @@
         <v>110</v>
       </c>
       <c r="B99" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="C99" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="E99" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="G99" t="s">
-        <v>1016</v>
+        <v>1026</v>
       </c>
       <c r="H99" t="s">
-        <v>1083</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -5430,19 +5460,19 @@
         <v>111</v>
       </c>
       <c r="B100" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="C100" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="E100" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="G100" t="s">
-        <v>1017</v>
+        <v>1027</v>
       </c>
       <c r="H100" t="s">
-        <v>1083</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -5450,19 +5480,19 @@
         <v>112</v>
       </c>
       <c r="B101" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="C101" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="E101" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="G101" t="s">
-        <v>1018</v>
+        <v>1028</v>
       </c>
       <c r="H101" t="s">
-        <v>1083</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="102" spans="1:12">
@@ -5470,19 +5500,19 @@
         <v>113</v>
       </c>
       <c r="B102" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="C102" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="E102" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="G102" t="s">
-        <v>1019</v>
+        <v>1029</v>
       </c>
       <c r="H102" t="s">
-        <v>1083</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -5490,19 +5520,19 @@
         <v>114</v>
       </c>
       <c r="B103" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="C103" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="E103" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="G103" t="s">
-        <v>1020</v>
+        <v>1030</v>
       </c>
       <c r="H103" t="s">
-        <v>1083</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="104" spans="1:12">
@@ -5510,19 +5540,19 @@
         <v>115</v>
       </c>
       <c r="B104" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="C104" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="E104" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="G104" t="s">
-        <v>1021</v>
+        <v>1031</v>
       </c>
       <c r="H104" t="s">
-        <v>1083</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="105" spans="1:12">
@@ -5530,19 +5560,19 @@
         <v>116</v>
       </c>
       <c r="B105" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="C105" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="E105" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="G105" t="s">
-        <v>1022</v>
+        <v>1032</v>
       </c>
       <c r="H105" t="s">
-        <v>1083</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="106" spans="1:12">
@@ -5550,19 +5580,19 @@
         <v>117</v>
       </c>
       <c r="B106" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="C106" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="E106" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="G106" t="s">
-        <v>1023</v>
+        <v>1033</v>
       </c>
       <c r="H106" t="s">
-        <v>1083</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="107" spans="1:12">
@@ -5570,19 +5600,19 @@
         <v>118</v>
       </c>
       <c r="B107" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="C107" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="E107" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="G107" t="s">
-        <v>1024</v>
+        <v>1034</v>
       </c>
       <c r="H107" t="s">
-        <v>1083</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="108" spans="1:12">
@@ -5590,19 +5620,19 @@
         <v>119</v>
       </c>
       <c r="B108" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="C108" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="E108" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="G108" t="s">
-        <v>1025</v>
+        <v>1035</v>
       </c>
       <c r="H108" t="s">
-        <v>1083</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="109" spans="1:12">
@@ -5610,19 +5640,19 @@
         <v>120</v>
       </c>
       <c r="B109" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="C109" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="E109" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="G109" t="s">
-        <v>1026</v>
+        <v>1036</v>
       </c>
       <c r="H109" t="s">
-        <v>1083</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="110" spans="1:12">
@@ -5630,13 +5660,13 @@
         <v>121</v>
       </c>
       <c r="B110" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="C110" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="E110" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="L110">
         <v>1</v>
@@ -5647,19 +5677,19 @@
         <v>122</v>
       </c>
       <c r="B111" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="C111" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="E111" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="G111" t="s">
-        <v>1027</v>
+        <v>1037</v>
       </c>
       <c r="H111" t="s">
-        <v>1083</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="112" spans="1:12">
@@ -5667,19 +5697,19 @@
         <v>123</v>
       </c>
       <c r="B112" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="C112" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="E112" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="G112" t="s">
-        <v>1028</v>
+        <v>1038</v>
       </c>
       <c r="H112" t="s">
-        <v>1083</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="113" spans="1:12">
@@ -5687,19 +5717,19 @@
         <v>124</v>
       </c>
       <c r="B113" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="C113" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="E113" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="G113" t="s">
-        <v>1029</v>
+        <v>1039</v>
       </c>
       <c r="H113" t="s">
-        <v>1083</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="114" spans="1:12">
@@ -5707,19 +5737,19 @@
         <v>125</v>
       </c>
       <c r="B114" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="C114" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="E114" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="G114" t="s">
-        <v>1030</v>
+        <v>1040</v>
       </c>
       <c r="H114" t="s">
-        <v>1083</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="115" spans="1:12">
@@ -5727,13 +5757,13 @@
         <v>126</v>
       </c>
       <c r="B115" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="C115" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="E115" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="L115">
         <v>1</v>
@@ -5744,13 +5774,13 @@
         <v>127</v>
       </c>
       <c r="B116" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="C116" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="E116" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="L116">
         <v>1</v>
@@ -5761,13 +5791,13 @@
         <v>128</v>
       </c>
       <c r="B117" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="C117" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="E117" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
     </row>
     <row r="118" spans="1:12">
@@ -5775,13 +5805,13 @@
         <v>129</v>
       </c>
       <c r="B118" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="C118" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="E118" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
     </row>
     <row r="119" spans="1:12">
@@ -5789,13 +5819,13 @@
         <v>130</v>
       </c>
       <c r="B119" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="C119" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="E119" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
     </row>
     <row r="120" spans="1:12">
@@ -5803,13 +5833,13 @@
         <v>131</v>
       </c>
       <c r="B120" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="C120" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="E120" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
     </row>
     <row r="121" spans="1:12">
@@ -5817,13 +5847,13 @@
         <v>132</v>
       </c>
       <c r="B121" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="C121" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="E121" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
     </row>
     <row r="122" spans="1:12">
@@ -5831,13 +5861,13 @@
         <v>133</v>
       </c>
       <c r="B122" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="C122" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="E122" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
     </row>
     <row r="123" spans="1:12">
@@ -5845,13 +5875,13 @@
         <v>134</v>
       </c>
       <c r="B123" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="C123" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="E123" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
     </row>
     <row r="124" spans="1:12">
@@ -5859,13 +5889,13 @@
         <v>135</v>
       </c>
       <c r="B124" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="C124" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="E124" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
     </row>
     <row r="125" spans="1:12">
@@ -5873,10 +5903,10 @@
         <v>136</v>
       </c>
       <c r="B125" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="C125" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
     </row>
     <row r="126" spans="1:12">
@@ -5884,10 +5914,10 @@
         <v>137</v>
       </c>
       <c r="B126" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="C126" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="L126">
         <v>1</v>
@@ -5898,13 +5928,13 @@
         <v>138</v>
       </c>
       <c r="B127" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="C127" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="I127" t="s">
-        <v>1114</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="128" spans="1:12">
@@ -5912,13 +5942,13 @@
         <v>139</v>
       </c>
       <c r="B128" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="C128" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="I128" t="s">
-        <v>1114</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="129" spans="1:12">
@@ -5926,10 +5956,10 @@
         <v>140</v>
       </c>
       <c r="B129" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="C129" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="L129">
         <v>1</v>
@@ -5940,10 +5970,13 @@
         <v>141</v>
       </c>
       <c r="B130" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="C130" t="s">
-        <v>624</v>
+        <v>629</v>
+      </c>
+      <c r="L130">
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:12">
@@ -5951,10 +5984,10 @@
         <v>142</v>
       </c>
       <c r="B131" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="C131" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
     </row>
     <row r="132" spans="1:12">
@@ -5962,10 +5995,10 @@
         <v>143</v>
       </c>
       <c r="B132" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="C132" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
     </row>
     <row r="133" spans="1:12">
@@ -5973,10 +6006,10 @@
         <v>144</v>
       </c>
       <c r="B133" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="C133" t="s">
-        <v>627</v>
+        <v>632</v>
       </c>
     </row>
     <row r="134" spans="1:12">
@@ -5984,10 +6017,10 @@
         <v>145</v>
       </c>
       <c r="B134" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="C134" t="s">
-        <v>628</v>
+        <v>633</v>
       </c>
     </row>
     <row r="135" spans="1:12">
@@ -5995,16 +6028,10 @@
         <v>146</v>
       </c>
       <c r="B135" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="C135" t="s">
-        <v>629</v>
-      </c>
-      <c r="E135" t="s">
-        <v>629</v>
-      </c>
-      <c r="H135" t="s">
-        <v>1084</v>
+        <v>634</v>
       </c>
     </row>
     <row r="136" spans="1:12">
@@ -6012,10 +6039,16 @@
         <v>147</v>
       </c>
       <c r="B136" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="C136" t="s">
-        <v>630</v>
+        <v>635</v>
+      </c>
+      <c r="E136" t="s">
+        <v>635</v>
+      </c>
+      <c r="H136" t="s">
+        <v>1094</v>
       </c>
     </row>
     <row r="137" spans="1:12">
@@ -6023,10 +6056,10 @@
         <v>148</v>
       </c>
       <c r="B137" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="C137" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
     </row>
     <row r="138" spans="1:12">
@@ -6034,16 +6067,10 @@
         <v>149</v>
       </c>
       <c r="B138" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="C138" t="s">
-        <v>632</v>
-      </c>
-      <c r="G138" t="s">
-        <v>1031</v>
-      </c>
-      <c r="I138" t="s">
-        <v>1120</v>
+        <v>637</v>
       </c>
     </row>
     <row r="139" spans="1:12">
@@ -6051,13 +6078,16 @@
         <v>150</v>
       </c>
       <c r="B139" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="C139" t="s">
-        <v>633</v>
-      </c>
-      <c r="E139" t="s">
-        <v>633</v>
+        <v>638</v>
+      </c>
+      <c r="G139" t="s">
+        <v>1041</v>
+      </c>
+      <c r="I139" t="s">
+        <v>1130</v>
       </c>
     </row>
     <row r="140" spans="1:12">
@@ -6065,10 +6095,13 @@
         <v>151</v>
       </c>
       <c r="B140" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="C140" t="s">
-        <v>634</v>
+        <v>639</v>
+      </c>
+      <c r="E140" t="s">
+        <v>639</v>
       </c>
     </row>
     <row r="141" spans="1:12">
@@ -6076,19 +6109,10 @@
         <v>152</v>
       </c>
       <c r="B141" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="C141" t="s">
-        <v>635</v>
-      </c>
-      <c r="E141" t="s">
-        <v>635</v>
-      </c>
-      <c r="G141" t="s">
-        <v>1032</v>
-      </c>
-      <c r="I141" t="s">
-        <v>1121</v>
+        <v>640</v>
       </c>
     </row>
     <row r="142" spans="1:12">
@@ -6096,10 +6120,19 @@
         <v>153</v>
       </c>
       <c r="B142" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="C142" t="s">
-        <v>636</v>
+        <v>641</v>
+      </c>
+      <c r="E142" t="s">
+        <v>641</v>
+      </c>
+      <c r="G142" t="s">
+        <v>1042</v>
+      </c>
+      <c r="I142" t="s">
+        <v>1131</v>
       </c>
     </row>
     <row r="143" spans="1:12">
@@ -6107,10 +6140,10 @@
         <v>154</v>
       </c>
       <c r="B143" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="C143" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
     </row>
     <row r="144" spans="1:12">
@@ -6118,16 +6151,10 @@
         <v>155</v>
       </c>
       <c r="B144" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="C144" t="s">
-        <v>638</v>
-      </c>
-      <c r="E144" t="s">
-        <v>638</v>
-      </c>
-      <c r="I144" t="s">
-        <v>1112</v>
+        <v>643</v>
       </c>
     </row>
     <row r="145" spans="1:12">
@@ -6135,10 +6162,16 @@
         <v>156</v>
       </c>
       <c r="B145" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="C145" t="s">
-        <v>639</v>
+        <v>644</v>
+      </c>
+      <c r="E145" t="s">
+        <v>644</v>
+      </c>
+      <c r="I145" t="s">
+        <v>1122</v>
       </c>
     </row>
     <row r="146" spans="1:12">
@@ -6146,10 +6179,10 @@
         <v>157</v>
       </c>
       <c r="B146" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="C146" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
     </row>
     <row r="147" spans="1:12">
@@ -6157,10 +6190,10 @@
         <v>158</v>
       </c>
       <c r="B147" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="C147" t="s">
-        <v>641</v>
+        <v>646</v>
       </c>
     </row>
     <row r="148" spans="1:12">
@@ -6168,10 +6201,10 @@
         <v>159</v>
       </c>
       <c r="B148" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="C148" t="s">
-        <v>642</v>
+        <v>647</v>
       </c>
     </row>
     <row r="149" spans="1:12">
@@ -6179,16 +6212,10 @@
         <v>160</v>
       </c>
       <c r="B149" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="C149" t="s">
-        <v>643</v>
-      </c>
-      <c r="E149" t="s">
-        <v>643</v>
-      </c>
-      <c r="I149" t="s">
-        <v>1122</v>
+        <v>648</v>
       </c>
     </row>
     <row r="150" spans="1:12">
@@ -6196,10 +6223,16 @@
         <v>161</v>
       </c>
       <c r="B150" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="C150" t="s">
-        <v>644</v>
+        <v>649</v>
+      </c>
+      <c r="E150" t="s">
+        <v>649</v>
+      </c>
+      <c r="I150" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="151" spans="1:12">
@@ -6207,19 +6240,10 @@
         <v>162</v>
       </c>
       <c r="B151" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="C151" t="s">
-        <v>645</v>
-      </c>
-      <c r="E151" t="s">
-        <v>645</v>
-      </c>
-      <c r="G151" t="s">
-        <v>1033</v>
-      </c>
-      <c r="I151" t="s">
-        <v>1114</v>
+        <v>650</v>
       </c>
     </row>
     <row r="152" spans="1:12">
@@ -6227,16 +6251,19 @@
         <v>163</v>
       </c>
       <c r="B152" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="C152" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="E152" t="s">
-        <v>967</v>
-      </c>
-      <c r="H152" t="s">
-        <v>1085</v>
+        <v>651</v>
+      </c>
+      <c r="G152" t="s">
+        <v>1043</v>
+      </c>
+      <c r="I152" t="s">
+        <v>1124</v>
       </c>
     </row>
     <row r="153" spans="1:12">
@@ -6244,13 +6271,16 @@
         <v>164</v>
       </c>
       <c r="B153" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="C153" t="s">
-        <v>647</v>
+        <v>652</v>
       </c>
       <c r="E153" t="s">
-        <v>646</v>
+        <v>977</v>
+      </c>
+      <c r="H153" t="s">
+        <v>1095</v>
       </c>
     </row>
     <row r="154" spans="1:12">
@@ -6258,13 +6288,13 @@
         <v>165</v>
       </c>
       <c r="B154" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="C154" t="s">
-        <v>648</v>
-      </c>
-      <c r="H154" t="s">
-        <v>1086</v>
+        <v>653</v>
+      </c>
+      <c r="E154" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="155" spans="1:12">
@@ -6272,13 +6302,13 @@
         <v>166</v>
       </c>
       <c r="B155" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="C155" t="s">
-        <v>649</v>
-      </c>
-      <c r="E155" t="s">
-        <v>649</v>
+        <v>654</v>
+      </c>
+      <c r="H155" t="s">
+        <v>1096</v>
       </c>
     </row>
     <row r="156" spans="1:12">
@@ -6286,19 +6316,13 @@
         <v>167</v>
       </c>
       <c r="B156" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="C156" t="s">
-        <v>650</v>
+        <v>655</v>
       </c>
       <c r="E156" t="s">
-        <v>650</v>
-      </c>
-      <c r="G156" t="s">
-        <v>1034</v>
-      </c>
-      <c r="I156" t="s">
-        <v>1120</v>
+        <v>655</v>
       </c>
     </row>
     <row r="157" spans="1:12">
@@ -6306,10 +6330,19 @@
         <v>168</v>
       </c>
       <c r="B157" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="C157" t="s">
-        <v>651</v>
+        <v>656</v>
+      </c>
+      <c r="E157" t="s">
+        <v>656</v>
+      </c>
+      <c r="G157" t="s">
+        <v>1044</v>
+      </c>
+      <c r="I157" t="s">
+        <v>1130</v>
       </c>
     </row>
     <row r="158" spans="1:12">
@@ -6317,10 +6350,10 @@
         <v>169</v>
       </c>
       <c r="B158" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="C158" t="s">
-        <v>652</v>
+        <v>657</v>
       </c>
     </row>
     <row r="159" spans="1:12">
@@ -6328,13 +6361,10 @@
         <v>170</v>
       </c>
       <c r="B159" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="C159" t="s">
-        <v>653</v>
-      </c>
-      <c r="L159">
-        <v>1</v>
+        <v>658</v>
       </c>
     </row>
     <row r="160" spans="1:12">
@@ -6342,16 +6372,13 @@
         <v>171</v>
       </c>
       <c r="B160" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="C160" t="s">
-        <v>654</v>
-      </c>
-      <c r="E160" t="s">
-        <v>654</v>
-      </c>
-      <c r="I160" t="s">
-        <v>1114</v>
+        <v>659</v>
+      </c>
+      <c r="L160">
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:12">
@@ -6359,19 +6386,16 @@
         <v>172</v>
       </c>
       <c r="B161" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="C161" t="s">
-        <v>655</v>
+        <v>660</v>
       </c>
       <c r="E161" t="s">
-        <v>655</v>
-      </c>
-      <c r="G161" t="s">
-        <v>1035</v>
+        <v>660</v>
       </c>
       <c r="I161" t="s">
-        <v>1108</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="162" spans="1:12">
@@ -6379,10 +6403,19 @@
         <v>173</v>
       </c>
       <c r="B162" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="C162" t="s">
-        <v>656</v>
+        <v>661</v>
+      </c>
+      <c r="E162" t="s">
+        <v>661</v>
+      </c>
+      <c r="G162" t="s">
+        <v>1045</v>
+      </c>
+      <c r="I162" t="s">
+        <v>1118</v>
       </c>
     </row>
     <row r="163" spans="1:12">
@@ -6390,13 +6423,10 @@
         <v>174</v>
       </c>
       <c r="B163" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="C163" t="s">
-        <v>657</v>
-      </c>
-      <c r="E163" t="s">
-        <v>657</v>
+        <v>662</v>
       </c>
     </row>
     <row r="164" spans="1:12">
@@ -6404,10 +6434,13 @@
         <v>175</v>
       </c>
       <c r="B164" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="C164" t="s">
-        <v>658</v>
+        <v>663</v>
+      </c>
+      <c r="E164" t="s">
+        <v>663</v>
       </c>
     </row>
     <row r="165" spans="1:12">
@@ -6415,16 +6448,10 @@
         <v>176</v>
       </c>
       <c r="B165" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="C165" t="s">
-        <v>659</v>
-      </c>
-      <c r="E165" t="s">
-        <v>659</v>
-      </c>
-      <c r="I165" t="s">
-        <v>1123</v>
+        <v>664</v>
       </c>
     </row>
     <row r="166" spans="1:12">
@@ -6432,13 +6459,16 @@
         <v>177</v>
       </c>
       <c r="B166" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="C166" t="s">
-        <v>660</v>
-      </c>
-      <c r="L166">
-        <v>1</v>
+        <v>665</v>
+      </c>
+      <c r="E166" t="s">
+        <v>665</v>
+      </c>
+      <c r="I166" t="s">
+        <v>1133</v>
       </c>
     </row>
     <row r="167" spans="1:12">
@@ -6446,10 +6476,13 @@
         <v>178</v>
       </c>
       <c r="B167" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="C167" t="s">
-        <v>661</v>
+        <v>666</v>
+      </c>
+      <c r="L167">
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:12">
@@ -6457,10 +6490,10 @@
         <v>179</v>
       </c>
       <c r="B168" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="C168" t="s">
-        <v>662</v>
+        <v>667</v>
       </c>
     </row>
     <row r="169" spans="1:12">
@@ -6468,13 +6501,10 @@
         <v>180</v>
       </c>
       <c r="B169" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="C169" t="s">
-        <v>663</v>
-      </c>
-      <c r="E169" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
     </row>
     <row r="170" spans="1:12">
@@ -6482,16 +6512,13 @@
         <v>181</v>
       </c>
       <c r="B170" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="C170" t="s">
-        <v>664</v>
+        <v>669</v>
       </c>
       <c r="E170" t="s">
-        <v>664</v>
-      </c>
-      <c r="I170" t="s">
-        <v>1122</v>
+        <v>669</v>
       </c>
     </row>
     <row r="171" spans="1:12">
@@ -6499,10 +6526,16 @@
         <v>182</v>
       </c>
       <c r="B171" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="C171" t="s">
-        <v>665</v>
+        <v>670</v>
+      </c>
+      <c r="E171" t="s">
+        <v>670</v>
+      </c>
+      <c r="I171" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="172" spans="1:12">
@@ -6510,10 +6543,10 @@
         <v>183</v>
       </c>
       <c r="B172" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="C172" t="s">
-        <v>666</v>
+        <v>671</v>
       </c>
     </row>
     <row r="173" spans="1:12">
@@ -6521,10 +6554,10 @@
         <v>184</v>
       </c>
       <c r="B173" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="C173" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
     </row>
     <row r="174" spans="1:12">
@@ -6532,10 +6565,10 @@
         <v>185</v>
       </c>
       <c r="B174" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="C174" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
     </row>
     <row r="175" spans="1:12">
@@ -6543,10 +6576,10 @@
         <v>186</v>
       </c>
       <c r="B175" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="C175" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
     </row>
     <row r="176" spans="1:12">
@@ -6554,10 +6587,10 @@
         <v>187</v>
       </c>
       <c r="B176" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="C176" t="s">
-        <v>670</v>
+        <v>675</v>
       </c>
     </row>
     <row r="177" spans="1:9">
@@ -6565,19 +6598,10 @@
         <v>188</v>
       </c>
       <c r="B177" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="C177" t="s">
-        <v>671</v>
-      </c>
-      <c r="E177" t="s">
-        <v>671</v>
-      </c>
-      <c r="G177" t="s">
-        <v>1036</v>
-      </c>
-      <c r="I177" t="s">
-        <v>1108</v>
+        <v>676</v>
       </c>
     </row>
     <row r="178" spans="1:9">
@@ -6585,10 +6609,19 @@
         <v>189</v>
       </c>
       <c r="B178" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="C178" t="s">
-        <v>672</v>
+        <v>677</v>
+      </c>
+      <c r="E178" t="s">
+        <v>677</v>
+      </c>
+      <c r="G178" t="s">
+        <v>1046</v>
+      </c>
+      <c r="I178" t="s">
+        <v>1118</v>
       </c>
     </row>
     <row r="179" spans="1:9">
@@ -6596,10 +6629,10 @@
         <v>190</v>
       </c>
       <c r="B179" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="C179" t="s">
-        <v>673</v>
+        <v>678</v>
       </c>
     </row>
     <row r="180" spans="1:9">
@@ -6607,13 +6640,10 @@
         <v>191</v>
       </c>
       <c r="B180" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="C180" t="s">
-        <v>674</v>
-      </c>
-      <c r="I180" t="s">
-        <v>1114</v>
+        <v>679</v>
       </c>
     </row>
     <row r="181" spans="1:9">
@@ -6621,16 +6651,13 @@
         <v>192</v>
       </c>
       <c r="B181" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="C181" t="s">
-        <v>675</v>
-      </c>
-      <c r="G181" t="s">
-        <v>1037</v>
+        <v>680</v>
       </c>
       <c r="I181" t="s">
-        <v>1121</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="182" spans="1:9">
@@ -6638,10 +6665,16 @@
         <v>193</v>
       </c>
       <c r="B182" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="C182" t="s">
-        <v>676</v>
+        <v>681</v>
+      </c>
+      <c r="G182" t="s">
+        <v>1047</v>
+      </c>
+      <c r="I182" t="s">
+        <v>1131</v>
       </c>
     </row>
     <row r="183" spans="1:9">
@@ -6649,10 +6682,10 @@
         <v>194</v>
       </c>
       <c r="B183" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="C183" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
     </row>
     <row r="184" spans="1:9">
@@ -6660,13 +6693,10 @@
         <v>195</v>
       </c>
       <c r="B184" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="C184" t="s">
-        <v>678</v>
-      </c>
-      <c r="E184" t="s">
-        <v>968</v>
+        <v>683</v>
       </c>
     </row>
     <row r="185" spans="1:9">
@@ -6674,10 +6704,13 @@
         <v>196</v>
       </c>
       <c r="B185" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="C185" t="s">
-        <v>679</v>
+        <v>684</v>
+      </c>
+      <c r="E185" t="s">
+        <v>978</v>
       </c>
     </row>
     <row r="186" spans="1:9">
@@ -6685,10 +6718,10 @@
         <v>197</v>
       </c>
       <c r="B186" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="C186" t="s">
-        <v>680</v>
+        <v>685</v>
       </c>
     </row>
     <row r="187" spans="1:9">
@@ -6696,10 +6729,10 @@
         <v>198</v>
       </c>
       <c r="B187" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="C187" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
     </row>
     <row r="188" spans="1:9">
@@ -6707,10 +6740,10 @@
         <v>199</v>
       </c>
       <c r="B188" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="C188" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
     </row>
     <row r="189" spans="1:9">
@@ -6718,10 +6751,10 @@
         <v>200</v>
       </c>
       <c r="B189" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="C189" t="s">
-        <v>683</v>
+        <v>688</v>
       </c>
     </row>
     <row r="190" spans="1:9">
@@ -6729,10 +6762,10 @@
         <v>201</v>
       </c>
       <c r="B190" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="C190" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
     </row>
     <row r="191" spans="1:9">
@@ -6740,10 +6773,10 @@
         <v>202</v>
       </c>
       <c r="B191" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="C191" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
     </row>
     <row r="192" spans="1:9">
@@ -6751,10 +6784,10 @@
         <v>203</v>
       </c>
       <c r="B192" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="C192" t="s">
-        <v>686</v>
+        <v>691</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -6762,10 +6795,10 @@
         <v>204</v>
       </c>
       <c r="B193" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="C193" t="s">
-        <v>687</v>
+        <v>692</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -6773,10 +6806,10 @@
         <v>205</v>
       </c>
       <c r="B194" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="C194" t="s">
-        <v>688</v>
+        <v>693</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -6784,10 +6817,10 @@
         <v>206</v>
       </c>
       <c r="B195" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="C195" t="s">
-        <v>689</v>
+        <v>694</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -6795,13 +6828,10 @@
         <v>207</v>
       </c>
       <c r="B196" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="C196" t="s">
-        <v>690</v>
-      </c>
-      <c r="E196" t="s">
-        <v>690</v>
+        <v>695</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -6809,13 +6839,13 @@
         <v>208</v>
       </c>
       <c r="B197" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="C197" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
       <c r="E197" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -6823,13 +6853,13 @@
         <v>209</v>
       </c>
       <c r="B198" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="C198" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
       <c r="E198" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -6837,13 +6867,13 @@
         <v>210</v>
       </c>
       <c r="B199" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="C199" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
       <c r="E199" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -6851,13 +6881,13 @@
         <v>211</v>
       </c>
       <c r="B200" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="C200" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="E200" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -6865,13 +6895,13 @@
         <v>212</v>
       </c>
       <c r="B201" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="C201" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="E201" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -6879,13 +6909,13 @@
         <v>213</v>
       </c>
       <c r="B202" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="C202" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
       <c r="E202" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -6893,13 +6923,13 @@
         <v>214</v>
       </c>
       <c r="B203" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="C203" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="E203" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -6907,13 +6937,13 @@
         <v>215</v>
       </c>
       <c r="B204" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="C204" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
       <c r="E204" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -6921,13 +6951,13 @@
         <v>216</v>
       </c>
       <c r="B205" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="C205" t="s">
-        <v>699</v>
+        <v>704</v>
       </c>
       <c r="E205" t="s">
-        <v>699</v>
+        <v>704</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -6935,13 +6965,13 @@
         <v>217</v>
       </c>
       <c r="B206" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="C206" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="E206" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -6949,13 +6979,13 @@
         <v>218</v>
       </c>
       <c r="B207" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="C207" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
       <c r="E207" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -6963,13 +6993,13 @@
         <v>219</v>
       </c>
       <c r="B208" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="C208" t="s">
-        <v>702</v>
+        <v>707</v>
       </c>
       <c r="E208" t="s">
-        <v>702</v>
+        <v>707</v>
       </c>
     </row>
     <row r="209" spans="1:13">
@@ -6977,13 +7007,13 @@
         <v>220</v>
       </c>
       <c r="B209" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="C209" t="s">
-        <v>703</v>
+        <v>708</v>
       </c>
       <c r="E209" t="s">
-        <v>703</v>
+        <v>708</v>
       </c>
     </row>
     <row r="210" spans="1:13">
@@ -6991,13 +7021,13 @@
         <v>221</v>
       </c>
       <c r="B210" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="C210" t="s">
-        <v>704</v>
+        <v>709</v>
       </c>
       <c r="E210" t="s">
-        <v>704</v>
+        <v>709</v>
       </c>
     </row>
     <row r="211" spans="1:13">
@@ -7005,13 +7035,13 @@
         <v>222</v>
       </c>
       <c r="B211" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="C211" t="s">
-        <v>705</v>
+        <v>710</v>
       </c>
       <c r="E211" t="s">
-        <v>705</v>
+        <v>710</v>
       </c>
     </row>
     <row r="212" spans="1:13">
@@ -7019,10 +7049,13 @@
         <v>223</v>
       </c>
       <c r="B212" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="C212" t="s">
-        <v>706</v>
+        <v>711</v>
+      </c>
+      <c r="E212" t="s">
+        <v>711</v>
       </c>
     </row>
     <row r="213" spans="1:13">
@@ -7030,10 +7063,10 @@
         <v>224</v>
       </c>
       <c r="B213" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="C213" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
     </row>
     <row r="214" spans="1:13">
@@ -7041,10 +7074,10 @@
         <v>225</v>
       </c>
       <c r="B214" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="C214" t="s">
-        <v>708</v>
+        <v>713</v>
       </c>
     </row>
     <row r="215" spans="1:13">
@@ -7052,10 +7085,10 @@
         <v>226</v>
       </c>
       <c r="B215" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="C215" t="s">
-        <v>709</v>
+        <v>714</v>
       </c>
     </row>
     <row r="216" spans="1:13">
@@ -7063,10 +7096,10 @@
         <v>227</v>
       </c>
       <c r="B216" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="C216" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
     </row>
     <row r="217" spans="1:13">
@@ -7074,13 +7107,10 @@
         <v>228</v>
       </c>
       <c r="B217" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="C217" t="s">
-        <v>711</v>
-      </c>
-      <c r="M217">
-        <v>1</v>
+        <v>716</v>
       </c>
     </row>
     <row r="218" spans="1:13">
@@ -7088,10 +7118,13 @@
         <v>229</v>
       </c>
       <c r="B218" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="C218" t="s">
-        <v>712</v>
+        <v>717</v>
+      </c>
+      <c r="M218">
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:13">
@@ -7099,10 +7132,10 @@
         <v>230</v>
       </c>
       <c r="B219" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="C219" t="s">
-        <v>713</v>
+        <v>718</v>
       </c>
     </row>
     <row r="220" spans="1:13">
@@ -7110,10 +7143,10 @@
         <v>231</v>
       </c>
       <c r="B220" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="C220" t="s">
-        <v>714</v>
+        <v>719</v>
       </c>
     </row>
     <row r="221" spans="1:13">
@@ -7121,10 +7154,10 @@
         <v>232</v>
       </c>
       <c r="B221" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="C221" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
     </row>
     <row r="222" spans="1:13">
@@ -7132,10 +7165,10 @@
         <v>233</v>
       </c>
       <c r="B222" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="C222" t="s">
-        <v>716</v>
+        <v>721</v>
       </c>
     </row>
     <row r="223" spans="1:13">
@@ -7143,10 +7176,10 @@
         <v>234</v>
       </c>
       <c r="B223" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="C223" t="s">
-        <v>717</v>
+        <v>722</v>
       </c>
     </row>
     <row r="224" spans="1:13">
@@ -7154,10 +7187,10 @@
         <v>235</v>
       </c>
       <c r="B224" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="C224" t="s">
-        <v>718</v>
+        <v>723</v>
       </c>
     </row>
     <row r="225" spans="1:7">
@@ -7165,10 +7198,10 @@
         <v>236</v>
       </c>
       <c r="B225" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="C225" t="s">
-        <v>719</v>
+        <v>724</v>
       </c>
     </row>
     <row r="226" spans="1:7">
@@ -7176,10 +7209,10 @@
         <v>237</v>
       </c>
       <c r="B226" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="C226" t="s">
-        <v>720</v>
+        <v>725</v>
       </c>
     </row>
     <row r="227" spans="1:7">
@@ -7187,10 +7220,10 @@
         <v>238</v>
       </c>
       <c r="B227" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="C227" t="s">
-        <v>721</v>
+        <v>726</v>
       </c>
     </row>
     <row r="228" spans="1:7">
@@ -7198,10 +7231,10 @@
         <v>239</v>
       </c>
       <c r="B228" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="C228" t="s">
-        <v>722</v>
+        <v>727</v>
       </c>
     </row>
     <row r="229" spans="1:7">
@@ -7209,10 +7242,10 @@
         <v>240</v>
       </c>
       <c r="B229" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="C229" t="s">
-        <v>723</v>
+        <v>728</v>
       </c>
     </row>
     <row r="230" spans="1:7">
@@ -7220,10 +7253,10 @@
         <v>241</v>
       </c>
       <c r="B230" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="C230" t="s">
-        <v>724</v>
+        <v>729</v>
       </c>
     </row>
     <row r="231" spans="1:7">
@@ -7231,10 +7264,10 @@
         <v>242</v>
       </c>
       <c r="B231" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="C231" t="s">
-        <v>725</v>
+        <v>730</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -7242,10 +7275,10 @@
         <v>243</v>
       </c>
       <c r="B232" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="C232" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
     </row>
     <row r="233" spans="1:7">
@@ -7253,10 +7286,10 @@
         <v>244</v>
       </c>
       <c r="B233" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="C233" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
     </row>
     <row r="234" spans="1:7">
@@ -7264,13 +7297,10 @@
         <v>245</v>
       </c>
       <c r="B234" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="C234" t="s">
-        <v>728</v>
-      </c>
-      <c r="E234" t="s">
-        <v>969</v>
+        <v>733</v>
       </c>
     </row>
     <row r="235" spans="1:7">
@@ -7278,16 +7308,13 @@
         <v>246</v>
       </c>
       <c r="B235" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="C235" t="s">
-        <v>729</v>
+        <v>734</v>
       </c>
       <c r="E235" t="s">
-        <v>729</v>
-      </c>
-      <c r="G235" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="236" spans="1:7">
@@ -7295,10 +7322,16 @@
         <v>247</v>
       </c>
       <c r="B236" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="C236" t="s">
-        <v>730</v>
+        <v>735</v>
+      </c>
+      <c r="E236" t="s">
+        <v>735</v>
+      </c>
+      <c r="G236" t="s">
+        <v>991</v>
       </c>
     </row>
     <row r="237" spans="1:7">
@@ -7306,10 +7339,10 @@
         <v>248</v>
       </c>
       <c r="B237" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="C237" t="s">
-        <v>731</v>
+        <v>736</v>
       </c>
     </row>
     <row r="238" spans="1:7">
@@ -7317,10 +7350,10 @@
         <v>249</v>
       </c>
       <c r="B238" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="C238" t="s">
-        <v>732</v>
+        <v>737</v>
       </c>
     </row>
     <row r="239" spans="1:7">
@@ -7328,10 +7361,10 @@
         <v>250</v>
       </c>
       <c r="B239" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="C239" t="s">
-        <v>733</v>
+        <v>738</v>
       </c>
     </row>
     <row r="240" spans="1:7">
@@ -7339,10 +7372,10 @@
         <v>251</v>
       </c>
       <c r="B240" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="C240" t="s">
-        <v>734</v>
+        <v>739</v>
       </c>
     </row>
     <row r="241" spans="1:9">
@@ -7350,10 +7383,10 @@
         <v>252</v>
       </c>
       <c r="B241" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="C241" t="s">
-        <v>735</v>
+        <v>740</v>
       </c>
     </row>
     <row r="242" spans="1:9">
@@ -7361,13 +7394,10 @@
         <v>253</v>
       </c>
       <c r="B242" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="C242" t="s">
-        <v>736</v>
-      </c>
-      <c r="E242" t="s">
-        <v>736</v>
+        <v>741</v>
       </c>
     </row>
     <row r="243" spans="1:9">
@@ -7375,10 +7405,13 @@
         <v>254</v>
       </c>
       <c r="B243" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="C243" t="s">
-        <v>737</v>
+        <v>742</v>
+      </c>
+      <c r="E243" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="244" spans="1:9">
@@ -7386,10 +7419,10 @@
         <v>255</v>
       </c>
       <c r="B244" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="C244" t="s">
-        <v>738</v>
+        <v>743</v>
       </c>
     </row>
     <row r="245" spans="1:9">
@@ -7397,16 +7430,10 @@
         <v>256</v>
       </c>
       <c r="B245" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="C245" t="s">
-        <v>739</v>
-      </c>
-      <c r="G245" t="s">
-        <v>1038</v>
-      </c>
-      <c r="I245" t="s">
-        <v>1112</v>
+        <v>744</v>
       </c>
     </row>
     <row r="246" spans="1:9">
@@ -7414,10 +7441,16 @@
         <v>257</v>
       </c>
       <c r="B246" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="C246" t="s">
-        <v>740</v>
+        <v>745</v>
+      </c>
+      <c r="G246" t="s">
+        <v>1048</v>
+      </c>
+      <c r="I246" t="s">
+        <v>1122</v>
       </c>
     </row>
     <row r="247" spans="1:9">
@@ -7425,10 +7458,10 @@
         <v>258</v>
       </c>
       <c r="B247" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="C247" t="s">
-        <v>741</v>
+        <v>746</v>
       </c>
     </row>
     <row r="248" spans="1:9">
@@ -7436,10 +7469,10 @@
         <v>259</v>
       </c>
       <c r="B248" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="C248" t="s">
-        <v>742</v>
+        <v>747</v>
       </c>
     </row>
     <row r="249" spans="1:9">
@@ -7447,16 +7480,10 @@
         <v>260</v>
       </c>
       <c r="B249" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="C249" t="s">
-        <v>743</v>
-      </c>
-      <c r="E249" t="s">
-        <v>743</v>
-      </c>
-      <c r="G249" t="s">
-        <v>1039</v>
+        <v>748</v>
       </c>
     </row>
     <row r="250" spans="1:9">
@@ -7464,19 +7491,16 @@
         <v>261</v>
       </c>
       <c r="B250" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="C250" t="s">
-        <v>744</v>
+        <v>749</v>
       </c>
       <c r="E250" t="s">
-        <v>744</v>
+        <v>749</v>
       </c>
       <c r="G250" t="s">
-        <v>1040</v>
-      </c>
-      <c r="I250" t="s">
-        <v>1112</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="251" spans="1:9">
@@ -7484,13 +7508,19 @@
         <v>262</v>
       </c>
       <c r="B251" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="C251" t="s">
-        <v>745</v>
+        <v>750</v>
+      </c>
+      <c r="E251" t="s">
+        <v>750</v>
       </c>
       <c r="G251" t="s">
-        <v>1040</v>
+        <v>1050</v>
+      </c>
+      <c r="I251" t="s">
+        <v>1122</v>
       </c>
     </row>
     <row r="252" spans="1:9">
@@ -7498,10 +7528,13 @@
         <v>263</v>
       </c>
       <c r="B252" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="C252" t="s">
-        <v>746</v>
+        <v>751</v>
+      </c>
+      <c r="G252" t="s">
+        <v>1050</v>
       </c>
     </row>
     <row r="253" spans="1:9">
@@ -7509,13 +7542,10 @@
         <v>264</v>
       </c>
       <c r="B253" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="C253" t="s">
-        <v>747</v>
-      </c>
-      <c r="E253" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
     </row>
     <row r="254" spans="1:9">
@@ -7523,13 +7553,13 @@
         <v>265</v>
       </c>
       <c r="B254" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="C254" t="s">
-        <v>748</v>
-      </c>
-      <c r="I254" t="s">
-        <v>1108</v>
+        <v>753</v>
+      </c>
+      <c r="E254" t="s">
+        <v>753</v>
       </c>
     </row>
     <row r="255" spans="1:9">
@@ -7537,13 +7567,13 @@
         <v>266</v>
       </c>
       <c r="B255" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="C255" t="s">
-        <v>749</v>
-      </c>
-      <c r="E255" t="s">
-        <v>749</v>
+        <v>754</v>
+      </c>
+      <c r="I255" t="s">
+        <v>1118</v>
       </c>
     </row>
     <row r="256" spans="1:9">
@@ -7551,13 +7581,13 @@
         <v>267</v>
       </c>
       <c r="B256" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="C256" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="E256" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
     </row>
     <row r="257" spans="1:9">
@@ -7565,13 +7595,13 @@
         <v>268</v>
       </c>
       <c r="B257" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="C257" t="s">
-        <v>751</v>
-      </c>
-      <c r="I257" t="s">
-        <v>1124</v>
+        <v>756</v>
+      </c>
+      <c r="E257" t="s">
+        <v>756</v>
       </c>
     </row>
     <row r="258" spans="1:9">
@@ -7579,13 +7609,13 @@
         <v>269</v>
       </c>
       <c r="B258" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="C258" t="s">
-        <v>752</v>
+        <v>757</v>
       </c>
       <c r="I258" t="s">
-        <v>1124</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="259" spans="1:9">
@@ -7593,13 +7623,13 @@
         <v>270</v>
       </c>
       <c r="B259" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="C259" t="s">
-        <v>753</v>
+        <v>758</v>
       </c>
       <c r="I259" t="s">
-        <v>1124</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="260" spans="1:9">
@@ -7607,16 +7637,13 @@
         <v>271</v>
       </c>
       <c r="B260" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="C260" t="s">
-        <v>754</v>
-      </c>
-      <c r="E260" t="s">
-        <v>754</v>
+        <v>759</v>
       </c>
       <c r="I260" t="s">
-        <v>1124</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="261" spans="1:9">
@@ -7624,13 +7651,16 @@
         <v>272</v>
       </c>
       <c r="B261" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="C261" t="s">
-        <v>755</v>
+        <v>760</v>
+      </c>
+      <c r="E261" t="s">
+        <v>760</v>
       </c>
       <c r="I261" t="s">
-        <v>1124</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="262" spans="1:9">
@@ -7638,13 +7668,13 @@
         <v>273</v>
       </c>
       <c r="B262" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="C262" t="s">
-        <v>756</v>
+        <v>761</v>
       </c>
       <c r="I262" t="s">
-        <v>1124</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="263" spans="1:9">
@@ -7652,16 +7682,13 @@
         <v>274</v>
       </c>
       <c r="B263" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="C263" t="s">
-        <v>757</v>
-      </c>
-      <c r="E263" t="s">
-        <v>757</v>
+        <v>762</v>
       </c>
       <c r="I263" t="s">
-        <v>1112</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="264" spans="1:9">
@@ -7669,13 +7696,16 @@
         <v>275</v>
       </c>
       <c r="B264" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="C264" t="s">
-        <v>758</v>
+        <v>763</v>
       </c>
       <c r="E264" t="s">
-        <v>758</v>
+        <v>763</v>
+      </c>
+      <c r="I264" t="s">
+        <v>1122</v>
       </c>
     </row>
     <row r="265" spans="1:9">
@@ -7683,10 +7713,13 @@
         <v>276</v>
       </c>
       <c r="B265" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="C265" t="s">
-        <v>759</v>
+        <v>764</v>
+      </c>
+      <c r="E265" t="s">
+        <v>764</v>
       </c>
     </row>
     <row r="266" spans="1:9">
@@ -7694,10 +7727,10 @@
         <v>277</v>
       </c>
       <c r="B266" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="C266" t="s">
-        <v>760</v>
+        <v>765</v>
       </c>
     </row>
     <row r="267" spans="1:9">
@@ -7705,10 +7738,10 @@
         <v>278</v>
       </c>
       <c r="B267" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="C267" t="s">
-        <v>761</v>
+        <v>766</v>
       </c>
     </row>
     <row r="268" spans="1:9">
@@ -7716,13 +7749,10 @@
         <v>279</v>
       </c>
       <c r="B268" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="C268" t="s">
-        <v>762</v>
-      </c>
-      <c r="H268" t="s">
-        <v>1087</v>
+        <v>767</v>
       </c>
     </row>
     <row r="269" spans="1:9">
@@ -7730,10 +7760,13 @@
         <v>280</v>
       </c>
       <c r="B269" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="C269" t="s">
-        <v>763</v>
+        <v>768</v>
+      </c>
+      <c r="H269" t="s">
+        <v>1097</v>
       </c>
     </row>
     <row r="270" spans="1:9">
@@ -7741,10 +7774,10 @@
         <v>281</v>
       </c>
       <c r="B270" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="C270" t="s">
-        <v>764</v>
+        <v>769</v>
       </c>
     </row>
     <row r="271" spans="1:9">
@@ -7752,10 +7785,10 @@
         <v>282</v>
       </c>
       <c r="B271" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="C271" t="s">
-        <v>765</v>
+        <v>770</v>
       </c>
     </row>
     <row r="272" spans="1:9">
@@ -7763,19 +7796,10 @@
         <v>283</v>
       </c>
       <c r="B272" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="C272" t="s">
-        <v>766</v>
-      </c>
-      <c r="E272" t="s">
-        <v>766</v>
-      </c>
-      <c r="G272" t="s">
-        <v>1041</v>
-      </c>
-      <c r="I272" t="s">
-        <v>1125</v>
+        <v>771</v>
       </c>
     </row>
     <row r="273" spans="1:12">
@@ -7783,10 +7807,19 @@
         <v>284</v>
       </c>
       <c r="B273" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="C273" t="s">
-        <v>767</v>
+        <v>772</v>
+      </c>
+      <c r="E273" t="s">
+        <v>772</v>
+      </c>
+      <c r="G273" t="s">
+        <v>1051</v>
+      </c>
+      <c r="I273" t="s">
+        <v>1135</v>
       </c>
     </row>
     <row r="274" spans="1:12">
@@ -7794,10 +7827,10 @@
         <v>285</v>
       </c>
       <c r="B274" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="C274" t="s">
-        <v>768</v>
+        <v>773</v>
       </c>
     </row>
     <row r="275" spans="1:12">
@@ -7805,16 +7838,10 @@
         <v>286</v>
       </c>
       <c r="B275" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="C275" t="s">
-        <v>769</v>
-      </c>
-      <c r="E275" t="s">
-        <v>769</v>
-      </c>
-      <c r="G275" t="s">
-        <v>1042</v>
+        <v>774</v>
       </c>
     </row>
     <row r="276" spans="1:12">
@@ -7822,10 +7849,10 @@
         <v>287</v>
       </c>
       <c r="B276" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="C276" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="L276">
         <v>1</v>
@@ -7836,10 +7863,16 @@
         <v>288</v>
       </c>
       <c r="B277" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="C277" t="s">
-        <v>771</v>
+        <v>776</v>
+      </c>
+      <c r="E277" t="s">
+        <v>776</v>
+      </c>
+      <c r="G277" t="s">
+        <v>1052</v>
       </c>
     </row>
     <row r="278" spans="1:12">
@@ -7847,10 +7880,13 @@
         <v>289</v>
       </c>
       <c r="B278" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="C278" t="s">
-        <v>772</v>
+        <v>777</v>
+      </c>
+      <c r="L278">
+        <v>1</v>
       </c>
     </row>
     <row r="279" spans="1:12">
@@ -7858,10 +7894,10 @@
         <v>290</v>
       </c>
       <c r="B279" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="C279" t="s">
-        <v>773</v>
+        <v>778</v>
       </c>
     </row>
     <row r="280" spans="1:12">
@@ -7869,10 +7905,10 @@
         <v>291</v>
       </c>
       <c r="B280" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="C280" t="s">
-        <v>774</v>
+        <v>779</v>
       </c>
     </row>
     <row r="281" spans="1:12">
@@ -7880,10 +7916,10 @@
         <v>292</v>
       </c>
       <c r="B281" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="C281" t="s">
-        <v>775</v>
+        <v>780</v>
       </c>
     </row>
     <row r="282" spans="1:12">
@@ -7891,13 +7927,10 @@
         <v>293</v>
       </c>
       <c r="B282" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="C282" t="s">
-        <v>776</v>
-      </c>
-      <c r="L282">
-        <v>1</v>
+        <v>781</v>
       </c>
     </row>
     <row r="283" spans="1:12">
@@ -7905,10 +7938,10 @@
         <v>294</v>
       </c>
       <c r="B283" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="C283" t="s">
-        <v>777</v>
+        <v>782</v>
       </c>
     </row>
     <row r="284" spans="1:12">
@@ -7916,10 +7949,13 @@
         <v>295</v>
       </c>
       <c r="B284" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="C284" t="s">
-        <v>778</v>
+        <v>783</v>
+      </c>
+      <c r="L284">
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:12">
@@ -7927,19 +7963,10 @@
         <v>296</v>
       </c>
       <c r="B285" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="C285" t="s">
-        <v>779</v>
-      </c>
-      <c r="E285" t="s">
-        <v>779</v>
-      </c>
-      <c r="G285" t="s">
-        <v>1043</v>
-      </c>
-      <c r="I285" t="s">
-        <v>1119</v>
+        <v>784</v>
       </c>
     </row>
     <row r="286" spans="1:12">
@@ -7947,13 +7974,10 @@
         <v>297</v>
       </c>
       <c r="B286" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="C286" t="s">
-        <v>780</v>
-      </c>
-      <c r="E286" t="s">
-        <v>780</v>
+        <v>785</v>
       </c>
     </row>
     <row r="287" spans="1:12">
@@ -7961,10 +7985,19 @@
         <v>298</v>
       </c>
       <c r="B287" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="C287" t="s">
-        <v>781</v>
+        <v>786</v>
+      </c>
+      <c r="E287" t="s">
+        <v>786</v>
+      </c>
+      <c r="G287" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I287" t="s">
+        <v>1129</v>
       </c>
     </row>
     <row r="288" spans="1:12">
@@ -7972,19 +8005,13 @@
         <v>299</v>
       </c>
       <c r="B288" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="C288" t="s">
-        <v>782</v>
+        <v>787</v>
       </c>
       <c r="E288" t="s">
-        <v>782</v>
-      </c>
-      <c r="G288" t="s">
-        <v>1044</v>
-      </c>
-      <c r="I288" t="s">
-        <v>1119</v>
+        <v>787</v>
       </c>
     </row>
     <row r="289" spans="1:9">
@@ -7992,19 +8019,10 @@
         <v>300</v>
       </c>
       <c r="B289" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="C289" t="s">
-        <v>783</v>
-      </c>
-      <c r="E289" t="s">
-        <v>783</v>
-      </c>
-      <c r="G289" t="s">
-        <v>1045</v>
-      </c>
-      <c r="I289" t="s">
-        <v>1114</v>
+        <v>788</v>
       </c>
     </row>
     <row r="290" spans="1:9">
@@ -8012,13 +8030,19 @@
         <v>301</v>
       </c>
       <c r="B290" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="C290" t="s">
-        <v>784</v>
+        <v>789</v>
       </c>
       <c r="E290" t="s">
-        <v>784</v>
+        <v>789</v>
+      </c>
+      <c r="G290" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I290" t="s">
+        <v>1129</v>
       </c>
     </row>
     <row r="291" spans="1:9">
@@ -8026,13 +8050,19 @@
         <v>302</v>
       </c>
       <c r="B291" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="C291" t="s">
-        <v>785</v>
+        <v>790</v>
       </c>
       <c r="E291" t="s">
-        <v>785</v>
+        <v>790</v>
+      </c>
+      <c r="G291" t="s">
+        <v>1055</v>
+      </c>
+      <c r="I291" t="s">
+        <v>1124</v>
       </c>
     </row>
     <row r="292" spans="1:9">
@@ -8040,13 +8070,13 @@
         <v>303</v>
       </c>
       <c r="B292" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="C292" t="s">
-        <v>786</v>
+        <v>791</v>
       </c>
       <c r="E292" t="s">
-        <v>786</v>
+        <v>791</v>
       </c>
     </row>
     <row r="293" spans="1:9">
@@ -8054,13 +8084,13 @@
         <v>304</v>
       </c>
       <c r="B293" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="C293" t="s">
-        <v>787</v>
+        <v>792</v>
       </c>
       <c r="E293" t="s">
-        <v>787</v>
+        <v>792</v>
       </c>
     </row>
     <row r="294" spans="1:9">
@@ -8068,13 +8098,13 @@
         <v>305</v>
       </c>
       <c r="B294" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="C294" t="s">
-        <v>788</v>
+        <v>793</v>
       </c>
       <c r="E294" t="s">
-        <v>788</v>
+        <v>793</v>
       </c>
     </row>
     <row r="295" spans="1:9">
@@ -8082,13 +8112,13 @@
         <v>306</v>
       </c>
       <c r="B295" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="C295" t="s">
-        <v>789</v>
+        <v>794</v>
       </c>
       <c r="E295" t="s">
-        <v>789</v>
+        <v>794</v>
       </c>
     </row>
     <row r="296" spans="1:9">
@@ -8096,13 +8126,13 @@
         <v>307</v>
       </c>
       <c r="B296" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="C296" t="s">
-        <v>790</v>
+        <v>795</v>
       </c>
       <c r="E296" t="s">
-        <v>790</v>
+        <v>795</v>
       </c>
     </row>
     <row r="297" spans="1:9">
@@ -8110,13 +8140,13 @@
         <v>308</v>
       </c>
       <c r="B297" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="C297" t="s">
-        <v>791</v>
+        <v>796</v>
       </c>
       <c r="E297" t="s">
-        <v>791</v>
+        <v>796</v>
       </c>
     </row>
     <row r="298" spans="1:9">
@@ -8124,13 +8154,13 @@
         <v>309</v>
       </c>
       <c r="B298" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="C298" t="s">
-        <v>792</v>
+        <v>797</v>
       </c>
       <c r="E298" t="s">
-        <v>792</v>
+        <v>797</v>
       </c>
     </row>
     <row r="299" spans="1:9">
@@ -8138,13 +8168,13 @@
         <v>310</v>
       </c>
       <c r="B299" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="C299" t="s">
-        <v>793</v>
+        <v>798</v>
       </c>
       <c r="E299" t="s">
-        <v>793</v>
+        <v>798</v>
       </c>
     </row>
     <row r="300" spans="1:9">
@@ -8152,13 +8182,13 @@
         <v>311</v>
       </c>
       <c r="B300" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="C300" t="s">
-        <v>794</v>
+        <v>799</v>
       </c>
       <c r="E300" t="s">
-        <v>794</v>
+        <v>799</v>
       </c>
     </row>
     <row r="301" spans="1:9">
@@ -8166,13 +8196,13 @@
         <v>312</v>
       </c>
       <c r="B301" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="C301" t="s">
-        <v>795</v>
+        <v>800</v>
       </c>
       <c r="E301" t="s">
-        <v>795</v>
+        <v>800</v>
       </c>
     </row>
     <row r="302" spans="1:9">
@@ -8180,13 +8210,13 @@
         <v>313</v>
       </c>
       <c r="B302" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="C302" t="s">
-        <v>796</v>
+        <v>801</v>
       </c>
       <c r="E302" t="s">
-        <v>796</v>
+        <v>801</v>
       </c>
     </row>
     <row r="303" spans="1:9">
@@ -8194,13 +8224,13 @@
         <v>314</v>
       </c>
       <c r="B303" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="C303" t="s">
-        <v>797</v>
+        <v>802</v>
       </c>
       <c r="E303" t="s">
-        <v>797</v>
+        <v>802</v>
       </c>
     </row>
     <row r="304" spans="1:9">
@@ -8208,13 +8238,13 @@
         <v>315</v>
       </c>
       <c r="B304" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="C304" t="s">
-        <v>798</v>
+        <v>803</v>
       </c>
       <c r="E304" t="s">
-        <v>798</v>
+        <v>803</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -8222,13 +8252,13 @@
         <v>316</v>
       </c>
       <c r="B305" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="C305" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
       <c r="E305" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -8236,13 +8266,13 @@
         <v>317</v>
       </c>
       <c r="B306" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="C306" t="s">
-        <v>800</v>
+        <v>805</v>
       </c>
       <c r="E306" t="s">
-        <v>800</v>
+        <v>805</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -8250,13 +8280,13 @@
         <v>318</v>
       </c>
       <c r="B307" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="C307" t="s">
-        <v>801</v>
+        <v>806</v>
       </c>
       <c r="E307" t="s">
-        <v>801</v>
+        <v>806</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -8264,13 +8294,13 @@
         <v>319</v>
       </c>
       <c r="B308" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="C308" t="s">
-        <v>802</v>
+        <v>807</v>
       </c>
       <c r="E308" t="s">
-        <v>802</v>
+        <v>807</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -8278,13 +8308,13 @@
         <v>320</v>
       </c>
       <c r="B309" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="C309" t="s">
-        <v>803</v>
+        <v>808</v>
       </c>
       <c r="E309" t="s">
-        <v>803</v>
+        <v>808</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -8292,13 +8322,13 @@
         <v>321</v>
       </c>
       <c r="B310" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="C310" t="s">
-        <v>804</v>
+        <v>809</v>
       </c>
       <c r="E310" t="s">
-        <v>804</v>
+        <v>809</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -8306,13 +8336,13 @@
         <v>322</v>
       </c>
       <c r="B311" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="C311" t="s">
-        <v>805</v>
+        <v>810</v>
       </c>
       <c r="E311" t="s">
-        <v>805</v>
+        <v>810</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -8320,13 +8350,13 @@
         <v>323</v>
       </c>
       <c r="B312" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="C312" t="s">
-        <v>806</v>
+        <v>811</v>
       </c>
       <c r="E312" t="s">
-        <v>806</v>
+        <v>811</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -8334,13 +8364,13 @@
         <v>324</v>
       </c>
       <c r="B313" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="C313" t="s">
-        <v>807</v>
+        <v>812</v>
       </c>
       <c r="E313" t="s">
-        <v>807</v>
+        <v>812</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -8348,10 +8378,13 @@
         <v>325</v>
       </c>
       <c r="B314" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="C314" t="s">
-        <v>808</v>
+        <v>813</v>
+      </c>
+      <c r="E314" t="s">
+        <v>813</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -8359,13 +8392,13 @@
         <v>326</v>
       </c>
       <c r="B315" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="C315" t="s">
-        <v>809</v>
+        <v>814</v>
       </c>
       <c r="E315" t="s">
-        <v>809</v>
+        <v>814</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -8373,13 +8406,10 @@
         <v>327</v>
       </c>
       <c r="B316" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="C316" t="s">
-        <v>810</v>
-      </c>
-      <c r="E316" t="s">
-        <v>810</v>
+        <v>815</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -8387,13 +8417,13 @@
         <v>328</v>
       </c>
       <c r="B317" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="C317" t="s">
-        <v>811</v>
+        <v>816</v>
       </c>
       <c r="E317" t="s">
-        <v>811</v>
+        <v>816</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -8401,13 +8431,13 @@
         <v>329</v>
       </c>
       <c r="B318" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="C318" t="s">
-        <v>812</v>
+        <v>817</v>
       </c>
       <c r="E318" t="s">
-        <v>812</v>
+        <v>817</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -8415,13 +8445,13 @@
         <v>330</v>
       </c>
       <c r="B319" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="C319" t="s">
-        <v>813</v>
+        <v>818</v>
       </c>
       <c r="E319" t="s">
-        <v>813</v>
+        <v>818</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -8429,10 +8459,13 @@
         <v>331</v>
       </c>
       <c r="B320" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="C320" t="s">
-        <v>814</v>
+        <v>819</v>
+      </c>
+      <c r="E320" t="s">
+        <v>819</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -8440,13 +8473,13 @@
         <v>332</v>
       </c>
       <c r="B321" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="C321" t="s">
-        <v>815</v>
+        <v>820</v>
       </c>
       <c r="E321" t="s">
-        <v>815</v>
+        <v>820</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -8454,13 +8487,10 @@
         <v>333</v>
       </c>
       <c r="B322" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="C322" t="s">
-        <v>816</v>
-      </c>
-      <c r="E322" t="s">
-        <v>816</v>
+        <v>821</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -8468,13 +8498,13 @@
         <v>334</v>
       </c>
       <c r="B323" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="C323" t="s">
-        <v>817</v>
+        <v>822</v>
       </c>
       <c r="E323" t="s">
-        <v>817</v>
+        <v>822</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -8482,13 +8512,13 @@
         <v>335</v>
       </c>
       <c r="B324" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="C324" t="s">
-        <v>818</v>
+        <v>823</v>
       </c>
       <c r="E324" t="s">
-        <v>818</v>
+        <v>823</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -8496,13 +8526,13 @@
         <v>336</v>
       </c>
       <c r="B325" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="C325" t="s">
-        <v>819</v>
+        <v>824</v>
       </c>
       <c r="E325" t="s">
-        <v>819</v>
+        <v>824</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -8510,13 +8540,13 @@
         <v>337</v>
       </c>
       <c r="B326" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="C326" t="s">
-        <v>820</v>
+        <v>825</v>
       </c>
       <c r="E326" t="s">
-        <v>820</v>
+        <v>825</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -8524,13 +8554,13 @@
         <v>338</v>
       </c>
       <c r="B327" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="C327" t="s">
-        <v>821</v>
+        <v>826</v>
       </c>
       <c r="E327" t="s">
-        <v>821</v>
+        <v>826</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -8538,13 +8568,13 @@
         <v>339</v>
       </c>
       <c r="B328" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="C328" t="s">
-        <v>822</v>
+        <v>827</v>
       </c>
       <c r="E328" t="s">
-        <v>822</v>
+        <v>827</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -8552,13 +8582,13 @@
         <v>340</v>
       </c>
       <c r="B329" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="C329" t="s">
-        <v>823</v>
+        <v>828</v>
       </c>
       <c r="E329" t="s">
-        <v>823</v>
+        <v>828</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -8566,10 +8596,13 @@
         <v>341</v>
       </c>
       <c r="B330" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="C330" t="s">
-        <v>824</v>
+        <v>829</v>
+      </c>
+      <c r="E330" t="s">
+        <v>829</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -8577,13 +8610,13 @@
         <v>342</v>
       </c>
       <c r="B331" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="C331" t="s">
-        <v>825</v>
+        <v>830</v>
       </c>
       <c r="E331" t="s">
-        <v>825</v>
+        <v>830</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -8591,13 +8624,10 @@
         <v>343</v>
       </c>
       <c r="B332" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="C332" t="s">
-        <v>826</v>
-      </c>
-      <c r="E332" t="s">
-        <v>826</v>
+        <v>831</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -8605,10 +8635,13 @@
         <v>344</v>
       </c>
       <c r="B333" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="C333" t="s">
-        <v>827</v>
+        <v>832</v>
+      </c>
+      <c r="E333" t="s">
+        <v>832</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -8616,13 +8649,13 @@
         <v>345</v>
       </c>
       <c r="B334" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="C334" t="s">
-        <v>828</v>
+        <v>833</v>
       </c>
       <c r="E334" t="s">
-        <v>828</v>
+        <v>833</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -8630,10 +8663,10 @@
         <v>346</v>
       </c>
       <c r="B335" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="C335" t="s">
-        <v>829</v>
+        <v>834</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -8641,10 +8674,13 @@
         <v>347</v>
       </c>
       <c r="B336" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="C336" t="s">
-        <v>830</v>
+        <v>835</v>
+      </c>
+      <c r="E336" t="s">
+        <v>835</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -8652,13 +8688,10 @@
         <v>348</v>
       </c>
       <c r="B337" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="C337" t="s">
-        <v>831</v>
-      </c>
-      <c r="E337" t="s">
-        <v>831</v>
+        <v>836</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -8666,10 +8699,10 @@
         <v>349</v>
       </c>
       <c r="B338" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="C338" t="s">
-        <v>832</v>
+        <v>837</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -8677,10 +8710,13 @@
         <v>350</v>
       </c>
       <c r="B339" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="C339" t="s">
-        <v>833</v>
+        <v>838</v>
+      </c>
+      <c r="E339" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -8688,10 +8724,10 @@
         <v>351</v>
       </c>
       <c r="B340" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="C340" t="s">
-        <v>834</v>
+        <v>839</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -8699,10 +8735,10 @@
         <v>352</v>
       </c>
       <c r="B341" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="C341" t="s">
-        <v>835</v>
+        <v>840</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -8710,10 +8746,10 @@
         <v>353</v>
       </c>
       <c r="B342" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="C342" t="s">
-        <v>836</v>
+        <v>841</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -8721,10 +8757,10 @@
         <v>354</v>
       </c>
       <c r="B343" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="C343" t="s">
-        <v>837</v>
+        <v>842</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -8732,10 +8768,10 @@
         <v>355</v>
       </c>
       <c r="B344" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="C344" t="s">
-        <v>838</v>
+        <v>843</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -8743,10 +8779,10 @@
         <v>356</v>
       </c>
       <c r="B345" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="C345" t="s">
-        <v>839</v>
+        <v>844</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -8754,10 +8790,10 @@
         <v>357</v>
       </c>
       <c r="B346" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="C346" t="s">
-        <v>840</v>
+        <v>845</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -8765,10 +8801,10 @@
         <v>358</v>
       </c>
       <c r="B347" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="C347" t="s">
-        <v>841</v>
+        <v>846</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -8776,10 +8812,10 @@
         <v>359</v>
       </c>
       <c r="B348" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="C348" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -8787,10 +8823,10 @@
         <v>360</v>
       </c>
       <c r="B349" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="C349" t="s">
-        <v>843</v>
+        <v>848</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -8798,10 +8834,10 @@
         <v>361</v>
       </c>
       <c r="B350" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="C350" t="s">
-        <v>844</v>
+        <v>849</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -8809,10 +8845,10 @@
         <v>362</v>
       </c>
       <c r="B351" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="C351" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -8820,10 +8856,10 @@
         <v>363</v>
       </c>
       <c r="B352" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="C352" t="s">
-        <v>846</v>
+        <v>851</v>
       </c>
     </row>
     <row r="353" spans="1:9">
@@ -8831,10 +8867,10 @@
         <v>364</v>
       </c>
       <c r="B353" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="C353" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
     </row>
     <row r="354" spans="1:9">
@@ -8842,10 +8878,10 @@
         <v>365</v>
       </c>
       <c r="B354" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="C354" t="s">
-        <v>848</v>
+        <v>853</v>
       </c>
     </row>
     <row r="355" spans="1:9">
@@ -8853,10 +8889,10 @@
         <v>366</v>
       </c>
       <c r="B355" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="C355" t="s">
-        <v>849</v>
+        <v>854</v>
       </c>
     </row>
     <row r="356" spans="1:9">
@@ -8864,10 +8900,10 @@
         <v>367</v>
       </c>
       <c r="B356" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="C356" t="s">
-        <v>850</v>
+        <v>855</v>
       </c>
     </row>
     <row r="357" spans="1:9">
@@ -8875,10 +8911,10 @@
         <v>368</v>
       </c>
       <c r="B357" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="C357" t="s">
-        <v>851</v>
+        <v>856</v>
       </c>
     </row>
     <row r="358" spans="1:9">
@@ -8886,10 +8922,10 @@
         <v>369</v>
       </c>
       <c r="B358" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="C358" t="s">
-        <v>852</v>
+        <v>857</v>
       </c>
     </row>
     <row r="359" spans="1:9">
@@ -8897,13 +8933,10 @@
         <v>370</v>
       </c>
       <c r="B359" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="C359" t="s">
-        <v>853</v>
-      </c>
-      <c r="H359" t="s">
-        <v>1088</v>
+        <v>858</v>
       </c>
     </row>
     <row r="360" spans="1:9">
@@ -8911,10 +8944,10 @@
         <v>371</v>
       </c>
       <c r="B360" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="C360" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
     </row>
     <row r="361" spans="1:9">
@@ -8922,13 +8955,13 @@
         <v>372</v>
       </c>
       <c r="B361" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="C361" t="s">
-        <v>855</v>
+        <v>860</v>
       </c>
       <c r="H361" t="s">
-        <v>1089</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="362" spans="1:9">
@@ -8936,13 +8969,10 @@
         <v>373</v>
       </c>
       <c r="B362" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="C362" t="s">
-        <v>856</v>
-      </c>
-      <c r="I362" t="s">
-        <v>1112</v>
+        <v>861</v>
       </c>
     </row>
     <row r="363" spans="1:9">
@@ -8950,13 +8980,13 @@
         <v>374</v>
       </c>
       <c r="B363" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="C363" t="s">
-        <v>857</v>
+        <v>862</v>
       </c>
       <c r="H363" t="s">
-        <v>1090</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="364" spans="1:9">
@@ -8964,10 +8994,13 @@
         <v>375</v>
       </c>
       <c r="B364" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="C364" t="s">
-        <v>858</v>
+        <v>863</v>
+      </c>
+      <c r="I364" t="s">
+        <v>1122</v>
       </c>
     </row>
     <row r="365" spans="1:9">
@@ -8975,13 +9008,13 @@
         <v>376</v>
       </c>
       <c r="B365" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="C365" t="s">
-        <v>859</v>
+        <v>864</v>
       </c>
       <c r="H365" t="s">
-        <v>1091</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="366" spans="1:9">
@@ -8989,10 +9022,10 @@
         <v>377</v>
       </c>
       <c r="B366" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="C366" t="s">
-        <v>860</v>
+        <v>865</v>
       </c>
     </row>
     <row r="367" spans="1:9">
@@ -9000,10 +9033,13 @@
         <v>378</v>
       </c>
       <c r="B367" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="C367" t="s">
-        <v>861</v>
+        <v>866</v>
+      </c>
+      <c r="H367" t="s">
+        <v>1101</v>
       </c>
     </row>
     <row r="368" spans="1:9">
@@ -9011,10 +9047,10 @@
         <v>379</v>
       </c>
       <c r="B368" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="C368" t="s">
-        <v>862</v>
+        <v>867</v>
       </c>
     </row>
     <row r="369" spans="1:12">
@@ -9022,13 +9058,10 @@
         <v>380</v>
       </c>
       <c r="B369" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="C369" t="s">
-        <v>863</v>
-      </c>
-      <c r="H369" t="s">
-        <v>1092</v>
+        <v>868</v>
       </c>
     </row>
     <row r="370" spans="1:12">
@@ -9036,16 +9069,10 @@
         <v>381</v>
       </c>
       <c r="B370" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="C370" t="s">
-        <v>864</v>
-      </c>
-      <c r="G370" t="s">
-        <v>1046</v>
-      </c>
-      <c r="H370" t="s">
-        <v>1093</v>
+        <v>869</v>
       </c>
     </row>
     <row r="371" spans="1:12">
@@ -9053,10 +9080,10 @@
         <v>382</v>
       </c>
       <c r="B371" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="C371" t="s">
-        <v>865</v>
+        <v>870</v>
       </c>
     </row>
     <row r="372" spans="1:12">
@@ -9064,13 +9091,13 @@
         <v>383</v>
       </c>
       <c r="B372" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="C372" t="s">
-        <v>866</v>
+        <v>871</v>
       </c>
       <c r="H372" t="s">
-        <v>1094</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="373" spans="1:12">
@@ -9078,10 +9105,16 @@
         <v>384</v>
       </c>
       <c r="B373" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="C373" t="s">
-        <v>867</v>
+        <v>872</v>
+      </c>
+      <c r="G373" t="s">
+        <v>1056</v>
+      </c>
+      <c r="H373" t="s">
+        <v>1103</v>
       </c>
     </row>
     <row r="374" spans="1:12">
@@ -9089,13 +9122,10 @@
         <v>385</v>
       </c>
       <c r="B374" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="C374" t="s">
-        <v>868</v>
-      </c>
-      <c r="H374" t="s">
-        <v>1095</v>
+        <v>873</v>
       </c>
     </row>
     <row r="375" spans="1:12">
@@ -9103,13 +9133,13 @@
         <v>386</v>
       </c>
       <c r="B375" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="C375" t="s">
-        <v>869</v>
+        <v>874</v>
       </c>
       <c r="H375" t="s">
-        <v>1095</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="376" spans="1:12">
@@ -9117,10 +9147,10 @@
         <v>387</v>
       </c>
       <c r="B376" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="C376" t="s">
-        <v>870</v>
+        <v>875</v>
       </c>
     </row>
     <row r="377" spans="1:12">
@@ -9128,10 +9158,13 @@
         <v>388</v>
       </c>
       <c r="B377" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="C377" t="s">
-        <v>871</v>
+        <v>876</v>
+      </c>
+      <c r="H377" t="s">
+        <v>1105</v>
       </c>
     </row>
     <row r="378" spans="1:12">
@@ -9139,13 +9172,13 @@
         <v>389</v>
       </c>
       <c r="B378" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="C378" t="s">
-        <v>872</v>
-      </c>
-      <c r="L378">
-        <v>1</v>
+        <v>877</v>
+      </c>
+      <c r="H378" t="s">
+        <v>1105</v>
       </c>
     </row>
     <row r="379" spans="1:12">
@@ -9153,16 +9186,10 @@
         <v>390</v>
       </c>
       <c r="B379" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="C379" t="s">
-        <v>873</v>
-      </c>
-      <c r="G379" t="s">
-        <v>1047</v>
-      </c>
-      <c r="I379" t="s">
-        <v>1114</v>
+        <v>878</v>
       </c>
     </row>
     <row r="380" spans="1:12">
@@ -9170,16 +9197,10 @@
         <v>391</v>
       </c>
       <c r="B380" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="C380" t="s">
-        <v>874</v>
-      </c>
-      <c r="E380" t="s">
-        <v>970</v>
-      </c>
-      <c r="L380">
-        <v>1</v>
+        <v>879</v>
       </c>
     </row>
     <row r="381" spans="1:12">
@@ -9187,10 +9208,10 @@
         <v>392</v>
       </c>
       <c r="B381" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="C381" t="s">
-        <v>875</v>
+        <v>880</v>
       </c>
     </row>
     <row r="382" spans="1:12">
@@ -9198,19 +9219,13 @@
         <v>393</v>
       </c>
       <c r="B382" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="C382" t="s">
-        <v>876</v>
-      </c>
-      <c r="E382" t="s">
-        <v>876</v>
-      </c>
-      <c r="G382" t="s">
-        <v>1048</v>
-      </c>
-      <c r="I382" t="s">
-        <v>1126</v>
+        <v>881</v>
+      </c>
+      <c r="L382">
+        <v>1</v>
       </c>
     </row>
     <row r="383" spans="1:12">
@@ -9218,13 +9233,16 @@
         <v>394</v>
       </c>
       <c r="B383" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="C383" t="s">
-        <v>877</v>
+        <v>882</v>
       </c>
       <c r="G383" t="s">
-        <v>1049</v>
+        <v>1057</v>
+      </c>
+      <c r="I383" t="s">
+        <v>1124</v>
       </c>
     </row>
     <row r="384" spans="1:12">
@@ -9232,10 +9250,13 @@
         <v>395</v>
       </c>
       <c r="B384" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="C384" t="s">
-        <v>878</v>
+        <v>883</v>
+      </c>
+      <c r="E384" t="s">
+        <v>980</v>
       </c>
       <c r="L384">
         <v>1</v>
@@ -9246,10 +9267,10 @@
         <v>396</v>
       </c>
       <c r="B385" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="C385" t="s">
-        <v>879</v>
+        <v>884</v>
       </c>
     </row>
     <row r="386" spans="1:12">
@@ -9257,10 +9278,19 @@
         <v>397</v>
       </c>
       <c r="B386" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="C386" t="s">
-        <v>880</v>
+        <v>885</v>
+      </c>
+      <c r="E386" t="s">
+        <v>885</v>
+      </c>
+      <c r="G386" t="s">
+        <v>1058</v>
+      </c>
+      <c r="I386" t="s">
+        <v>1136</v>
       </c>
     </row>
     <row r="387" spans="1:12">
@@ -9268,13 +9298,13 @@
         <v>398</v>
       </c>
       <c r="B387" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="C387" t="s">
-        <v>881</v>
-      </c>
-      <c r="L387">
-        <v>1</v>
+        <v>886</v>
+      </c>
+      <c r="G387" t="s">
+        <v>1059</v>
       </c>
     </row>
     <row r="388" spans="1:12">
@@ -9282,13 +9312,13 @@
         <v>399</v>
       </c>
       <c r="B388" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="C388" t="s">
-        <v>882</v>
-      </c>
-      <c r="E388" t="s">
-        <v>882</v>
+        <v>887</v>
+      </c>
+      <c r="L388">
+        <v>1</v>
       </c>
     </row>
     <row r="389" spans="1:12">
@@ -9296,13 +9326,10 @@
         <v>400</v>
       </c>
       <c r="B389" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="C389" t="s">
-        <v>883</v>
-      </c>
-      <c r="H389" t="s">
-        <v>1095</v>
+        <v>888</v>
       </c>
     </row>
     <row r="390" spans="1:12">
@@ -9310,13 +9337,10 @@
         <v>401</v>
       </c>
       <c r="B390" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="C390" t="s">
-        <v>884</v>
-      </c>
-      <c r="L390">
-        <v>1</v>
+        <v>889</v>
       </c>
     </row>
     <row r="391" spans="1:12">
@@ -9324,10 +9348,13 @@
         <v>402</v>
       </c>
       <c r="B391" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="C391" t="s">
-        <v>885</v>
+        <v>890</v>
+      </c>
+      <c r="L391">
+        <v>1</v>
       </c>
     </row>
     <row r="392" spans="1:12">
@@ -9335,10 +9362,13 @@
         <v>403</v>
       </c>
       <c r="B392" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="C392" t="s">
-        <v>886</v>
+        <v>891</v>
+      </c>
+      <c r="E392" t="s">
+        <v>891</v>
       </c>
     </row>
     <row r="393" spans="1:12">
@@ -9346,10 +9376,13 @@
         <v>404</v>
       </c>
       <c r="B393" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="C393" t="s">
-        <v>887</v>
+        <v>892</v>
+      </c>
+      <c r="H393" t="s">
+        <v>1105</v>
       </c>
     </row>
     <row r="394" spans="1:12">
@@ -9357,10 +9390,13 @@
         <v>405</v>
       </c>
       <c r="B394" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="C394" t="s">
-        <v>888</v>
+        <v>893</v>
+      </c>
+      <c r="L394">
+        <v>1</v>
       </c>
     </row>
     <row r="395" spans="1:12">
@@ -9368,13 +9404,10 @@
         <v>406</v>
       </c>
       <c r="B395" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="C395" t="s">
-        <v>889</v>
-      </c>
-      <c r="E395" t="s">
-        <v>971</v>
+        <v>894</v>
       </c>
     </row>
     <row r="396" spans="1:12">
@@ -9382,10 +9415,10 @@
         <v>407</v>
       </c>
       <c r="B396" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="C396" t="s">
-        <v>890</v>
+        <v>895</v>
       </c>
     </row>
     <row r="397" spans="1:12">
@@ -9393,10 +9426,10 @@
         <v>408</v>
       </c>
       <c r="B397" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="C397" t="s">
-        <v>891</v>
+        <v>896</v>
       </c>
     </row>
     <row r="398" spans="1:12">
@@ -9404,13 +9437,10 @@
         <v>409</v>
       </c>
       <c r="B398" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="C398" t="s">
-        <v>892</v>
-      </c>
-      <c r="I398" t="s">
-        <v>1114</v>
+        <v>897</v>
       </c>
     </row>
     <row r="399" spans="1:12">
@@ -9418,13 +9448,13 @@
         <v>410</v>
       </c>
       <c r="B399" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="C399" t="s">
-        <v>893</v>
+        <v>898</v>
       </c>
       <c r="E399" t="s">
-        <v>893</v>
+        <v>981</v>
       </c>
     </row>
     <row r="400" spans="1:12">
@@ -9432,1110 +9462,1171 @@
         <v>411</v>
       </c>
       <c r="B400" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="C400" t="s">
-        <v>894</v>
-      </c>
-      <c r="L400">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="401" spans="1:9">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="401" spans="1:12">
       <c r="A401" s="1" t="s">
         <v>412</v>
       </c>
       <c r="B401" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="C401" t="s">
-        <v>895</v>
-      </c>
-      <c r="I401" t="s">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="402" spans="1:9">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="402" spans="1:12">
       <c r="A402" s="1" t="s">
         <v>413</v>
       </c>
       <c r="B402" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="C402" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="403" spans="1:9">
+        <v>901</v>
+      </c>
+      <c r="I402" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="403" spans="1:12">
       <c r="A403" s="1" t="s">
         <v>414</v>
       </c>
       <c r="B403" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="C403" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="404" spans="1:9">
+        <v>902</v>
+      </c>
+      <c r="E403" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="404" spans="1:12">
       <c r="A404" s="1" t="s">
         <v>415</v>
       </c>
       <c r="B404" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="C404" t="s">
-        <v>898</v>
-      </c>
-      <c r="E404" t="s">
-        <v>898</v>
-      </c>
-      <c r="G404" t="s">
-        <v>1050</v>
-      </c>
-      <c r="I404" t="s">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="405" spans="1:9">
+        <v>903</v>
+      </c>
+      <c r="L404">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405" spans="1:12">
       <c r="A405" s="1" t="s">
         <v>416</v>
       </c>
       <c r="B405" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="C405" t="s">
-        <v>899</v>
-      </c>
-      <c r="E405" t="s">
-        <v>899</v>
-      </c>
-      <c r="G405" t="s">
-        <v>1051</v>
+        <v>904</v>
       </c>
       <c r="I405" t="s">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="406" spans="1:9">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="406" spans="1:12">
       <c r="A406" s="1" t="s">
         <v>417</v>
       </c>
       <c r="B406" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="C406" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="407" spans="1:9">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="407" spans="1:12">
       <c r="A407" s="1" t="s">
         <v>418</v>
       </c>
       <c r="B407" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="C407" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="408" spans="1:9">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="408" spans="1:12">
       <c r="A408" s="1" t="s">
         <v>419</v>
       </c>
       <c r="B408" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="C408" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="409" spans="1:9">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="409" spans="1:12">
       <c r="A409" s="1" t="s">
         <v>420</v>
       </c>
       <c r="B409" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="C409" t="s">
-        <v>903</v>
+        <v>908</v>
       </c>
       <c r="E409" t="s">
-        <v>903</v>
+        <v>908</v>
       </c>
       <c r="G409" t="s">
-        <v>1052</v>
+        <v>1060</v>
       </c>
       <c r="I409" t="s">
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="410" spans="1:9">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="410" spans="1:12">
       <c r="A410" s="1" t="s">
         <v>421</v>
       </c>
       <c r="B410" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="C410" t="s">
-        <v>904</v>
+        <v>909</v>
       </c>
       <c r="E410" t="s">
-        <v>904</v>
+        <v>909</v>
       </c>
       <c r="G410" t="s">
-        <v>1053</v>
+        <v>1061</v>
       </c>
       <c r="I410" t="s">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="411" spans="1:9">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="411" spans="1:12">
       <c r="A411" s="1" t="s">
         <v>422</v>
       </c>
       <c r="B411" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="C411" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="412" spans="1:9">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="412" spans="1:12">
       <c r="A412" s="1" t="s">
         <v>423</v>
       </c>
       <c r="B412" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="C412" t="s">
-        <v>906</v>
-      </c>
-      <c r="E412" t="s">
-        <v>906</v>
-      </c>
-      <c r="G412" t="s">
-        <v>1054</v>
-      </c>
-      <c r="I412" t="s">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="413" spans="1:9">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="413" spans="1:12">
       <c r="A413" s="1" t="s">
         <v>424</v>
       </c>
       <c r="B413" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="C413" t="s">
-        <v>907</v>
-      </c>
-      <c r="G413" t="s">
-        <v>1055</v>
-      </c>
-      <c r="I413" t="s">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="414" spans="1:9">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="414" spans="1:12">
       <c r="A414" s="1" t="s">
         <v>425</v>
       </c>
       <c r="B414" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="C414" t="s">
-        <v>908</v>
+        <v>913</v>
       </c>
       <c r="E414" t="s">
-        <v>908</v>
+        <v>913</v>
       </c>
       <c r="G414" t="s">
-        <v>1056</v>
+        <v>1062</v>
       </c>
       <c r="I414" t="s">
-        <v>1128</v>
-      </c>
-    </row>
-    <row r="415" spans="1:9">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="415" spans="1:12">
       <c r="A415" s="1" t="s">
         <v>426</v>
       </c>
       <c r="B415" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="C415" t="s">
-        <v>909</v>
+        <v>914</v>
       </c>
       <c r="E415" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="416" spans="1:9">
+        <v>914</v>
+      </c>
+      <c r="G415" t="s">
+        <v>1063</v>
+      </c>
+      <c r="I415" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="416" spans="1:12">
       <c r="A416" s="1" t="s">
         <v>427</v>
       </c>
       <c r="B416" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="C416" t="s">
-        <v>910</v>
-      </c>
-      <c r="G416" t="s">
-        <v>1057</v>
-      </c>
-      <c r="I416" t="s">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="417" spans="1:12">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="417" spans="1:9">
       <c r="A417" s="1" t="s">
         <v>428</v>
       </c>
       <c r="B417" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="C417" t="s">
-        <v>911</v>
+        <v>916</v>
+      </c>
+      <c r="E417" t="s">
+        <v>916</v>
       </c>
       <c r="G417" t="s">
-        <v>1058</v>
+        <v>1064</v>
       </c>
       <c r="I417" t="s">
-        <v>1129</v>
-      </c>
-    </row>
-    <row r="418" spans="1:12">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="418" spans="1:9">
       <c r="A418" s="1" t="s">
         <v>429</v>
       </c>
       <c r="B418" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="C418" t="s">
-        <v>912</v>
-      </c>
-      <c r="E418" t="s">
-        <v>912</v>
+        <v>917</v>
       </c>
       <c r="G418" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="I418" t="s">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="419" spans="1:12">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="419" spans="1:9">
       <c r="A419" s="1" t="s">
         <v>430</v>
       </c>
       <c r="B419" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="C419" t="s">
-        <v>913</v>
+        <v>918</v>
+      </c>
+      <c r="E419" t="s">
+        <v>918</v>
       </c>
       <c r="G419" t="s">
-        <v>1060</v>
+        <v>1066</v>
       </c>
       <c r="I419" t="s">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="420" spans="1:12">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="420" spans="1:9">
       <c r="A420" s="1" t="s">
         <v>431</v>
       </c>
       <c r="B420" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="C420" t="s">
-        <v>914</v>
+        <v>919</v>
       </c>
       <c r="E420" t="s">
-        <v>914</v>
-      </c>
-      <c r="G420" t="s">
-        <v>1061</v>
-      </c>
-      <c r="I420" t="s">
-        <v>1129</v>
-      </c>
-    </row>
-    <row r="421" spans="1:12">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="421" spans="1:9">
       <c r="A421" s="1" t="s">
         <v>432</v>
       </c>
       <c r="B421" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="C421" t="s">
-        <v>915</v>
+        <v>920</v>
       </c>
       <c r="G421" t="s">
-        <v>1062</v>
+        <v>1067</v>
       </c>
       <c r="I421" t="s">
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="422" spans="1:12">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="422" spans="1:9">
       <c r="A422" s="1" t="s">
         <v>433</v>
       </c>
       <c r="B422" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="C422" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="423" spans="1:12">
+        <v>921</v>
+      </c>
+      <c r="G422" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I422" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="423" spans="1:9">
       <c r="A423" s="1" t="s">
         <v>434</v>
       </c>
       <c r="B423" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="C423" t="s">
-        <v>917</v>
+        <v>922</v>
       </c>
       <c r="E423" t="s">
-        <v>917</v>
+        <v>922</v>
       </c>
       <c r="G423" t="s">
-        <v>1063</v>
-      </c>
-      <c r="H423" t="s">
-        <v>1096</v>
+        <v>1069</v>
       </c>
       <c r="I423" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="424" spans="1:12">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="424" spans="1:9">
       <c r="A424" s="1" t="s">
         <v>435</v>
       </c>
       <c r="B424" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="C424" t="s">
-        <v>918</v>
-      </c>
-      <c r="E424" t="s">
-        <v>918</v>
-      </c>
-      <c r="H424" t="s">
-        <v>1097</v>
-      </c>
-    </row>
-    <row r="425" spans="1:12">
+        <v>923</v>
+      </c>
+      <c r="G424" t="s">
+        <v>1070</v>
+      </c>
+      <c r="I424" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="425" spans="1:9">
       <c r="A425" s="1" t="s">
         <v>436</v>
       </c>
       <c r="B425" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="C425" t="s">
-        <v>919</v>
+        <v>924</v>
       </c>
       <c r="E425" t="s">
-        <v>919</v>
+        <v>924</v>
       </c>
       <c r="G425" t="s">
-        <v>1064</v>
-      </c>
-      <c r="H425" t="s">
-        <v>1082</v>
+        <v>1071</v>
       </c>
       <c r="I425" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="426" spans="1:12">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="426" spans="1:9">
       <c r="A426" s="1" t="s">
         <v>437</v>
       </c>
       <c r="B426" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="C426" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="427" spans="1:12">
+        <v>925</v>
+      </c>
+      <c r="G426" t="s">
+        <v>1072</v>
+      </c>
+      <c r="I426" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="427" spans="1:9">
       <c r="A427" s="1" t="s">
         <v>438</v>
       </c>
       <c r="B427" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="C427" t="s">
-        <v>921</v>
-      </c>
-      <c r="E427" t="s">
-        <v>921</v>
-      </c>
-      <c r="G427" t="s">
-        <v>1065</v>
-      </c>
-      <c r="H427" t="s">
-        <v>1098</v>
-      </c>
-      <c r="I427" t="s">
-        <v>1109</v>
-      </c>
-    </row>
-    <row r="428" spans="1:12">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="428" spans="1:9">
       <c r="A428" s="1" t="s">
         <v>439</v>
       </c>
       <c r="B428" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="C428" t="s">
-        <v>922</v>
-      </c>
-      <c r="L428">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="429" spans="1:12">
+        <v>927</v>
+      </c>
+      <c r="E428" t="s">
+        <v>927</v>
+      </c>
+      <c r="G428" t="s">
+        <v>1073</v>
+      </c>
+      <c r="H428" t="s">
+        <v>1106</v>
+      </c>
+      <c r="I428" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="429" spans="1:9">
       <c r="A429" s="1" t="s">
         <v>440</v>
       </c>
       <c r="B429" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="C429" t="s">
-        <v>923</v>
+        <v>928</v>
       </c>
       <c r="E429" t="s">
-        <v>972</v>
-      </c>
-      <c r="G429" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="430" spans="1:12">
+        <v>928</v>
+      </c>
+      <c r="H429" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="430" spans="1:9">
       <c r="A430" s="1" t="s">
         <v>441</v>
       </c>
       <c r="B430" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="C430" t="s">
-        <v>924</v>
+        <v>929</v>
       </c>
       <c r="E430" t="s">
-        <v>973</v>
+        <v>929</v>
       </c>
       <c r="G430" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="431" spans="1:12">
+        <v>1074</v>
+      </c>
+      <c r="H430" t="s">
+        <v>1092</v>
+      </c>
+      <c r="I430" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="431" spans="1:9">
       <c r="A431" s="1" t="s">
         <v>442</v>
       </c>
       <c r="B431" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="C431" t="s">
-        <v>925</v>
-      </c>
-      <c r="E431" t="s">
-        <v>974</v>
-      </c>
-      <c r="G431" t="s">
-        <v>1068</v>
-      </c>
-      <c r="H431" t="s">
-        <v>1099</v>
-      </c>
-      <c r="I431" t="s">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="432" spans="1:12">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="432" spans="1:9">
       <c r="A432" s="1" t="s">
         <v>443</v>
       </c>
       <c r="B432" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="C432" t="s">
-        <v>926</v>
+        <v>931</v>
       </c>
       <c r="E432" t="s">
-        <v>926</v>
+        <v>931</v>
+      </c>
+      <c r="G432" t="s">
+        <v>1075</v>
       </c>
       <c r="H432" t="s">
-        <v>1082</v>
+        <v>1108</v>
       </c>
       <c r="I432" t="s">
-        <v>1131</v>
-      </c>
-    </row>
-    <row r="433" spans="1:13">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="433" spans="1:12">
       <c r="A433" s="1" t="s">
         <v>444</v>
       </c>
       <c r="B433" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="C433" t="s">
-        <v>927</v>
-      </c>
-      <c r="E433" t="s">
-        <v>927</v>
-      </c>
-      <c r="G433" t="s">
-        <v>1069</v>
-      </c>
-      <c r="H433" t="s">
-        <v>1100</v>
-      </c>
-      <c r="I433" t="s">
-        <v>1132</v>
-      </c>
-    </row>
-    <row r="434" spans="1:13">
+        <v>932</v>
+      </c>
+      <c r="L433">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434" spans="1:12">
       <c r="A434" s="1" t="s">
         <v>445</v>
       </c>
       <c r="B434" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="C434" t="s">
-        <v>928</v>
+        <v>933</v>
       </c>
       <c r="E434" t="s">
-        <v>928</v>
+        <v>982</v>
       </c>
       <c r="G434" t="s">
-        <v>1070</v>
-      </c>
-      <c r="H434" t="s">
-        <v>1101</v>
-      </c>
-      <c r="I434" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="435" spans="1:13">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="435" spans="1:12">
       <c r="A435" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B435" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="C435" t="s">
-        <v>929</v>
+        <v>934</v>
       </c>
       <c r="E435" t="s">
-        <v>929</v>
-      </c>
-      <c r="H435" t="s">
-        <v>1102</v>
-      </c>
-    </row>
-    <row r="436" spans="1:13">
+        <v>983</v>
+      </c>
+      <c r="G435" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="436" spans="1:12">
       <c r="A436" s="1" t="s">
         <v>447</v>
       </c>
       <c r="B436" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="C436" t="s">
-        <v>930</v>
+        <v>935</v>
+      </c>
+      <c r="E436" t="s">
+        <v>984</v>
+      </c>
+      <c r="G436" t="s">
+        <v>1078</v>
       </c>
       <c r="H436" t="s">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="437" spans="1:13">
+        <v>1109</v>
+      </c>
+      <c r="I436" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="437" spans="1:12">
       <c r="A437" s="1" t="s">
         <v>448</v>
       </c>
       <c r="B437" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="C437" t="s">
-        <v>931</v>
+        <v>936</v>
       </c>
       <c r="E437" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="438" spans="1:13">
+        <v>936</v>
+      </c>
+      <c r="H437" t="s">
+        <v>1092</v>
+      </c>
+      <c r="I437" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="438" spans="1:12">
       <c r="A438" s="1" t="s">
         <v>449</v>
       </c>
       <c r="B438" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="C438" t="s">
-        <v>932</v>
+        <v>937</v>
+      </c>
+      <c r="E438" t="s">
+        <v>937</v>
+      </c>
+      <c r="G438" t="s">
+        <v>1079</v>
       </c>
       <c r="H438" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="439" spans="1:13">
+        <v>1110</v>
+      </c>
+      <c r="I438" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="439" spans="1:12">
       <c r="A439" s="1" t="s">
         <v>450</v>
       </c>
       <c r="B439" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="C439" t="s">
-        <v>933</v>
+        <v>938</v>
+      </c>
+      <c r="E439" t="s">
+        <v>938</v>
+      </c>
+      <c r="G439" t="s">
+        <v>1080</v>
       </c>
       <c r="H439" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="440" spans="1:13">
+        <v>1111</v>
+      </c>
+      <c r="I439" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="440" spans="1:12">
       <c r="A440" s="1" t="s">
         <v>451</v>
       </c>
       <c r="B440" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="C440" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="441" spans="1:13">
+        <v>939</v>
+      </c>
+      <c r="E440" t="s">
+        <v>939</v>
+      </c>
+      <c r="H440" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="441" spans="1:12">
       <c r="A441" s="1" t="s">
         <v>452</v>
       </c>
       <c r="B441" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="C441" t="s">
-        <v>935</v>
-      </c>
-      <c r="E441" t="s">
-        <v>935</v>
-      </c>
-      <c r="G441" t="s">
-        <v>1071</v>
+        <v>940</v>
       </c>
       <c r="H441" t="s">
         <v>1105</v>
       </c>
-      <c r="L441">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="442" spans="1:13">
+    </row>
+    <row r="442" spans="1:12">
       <c r="A442" s="1" t="s">
         <v>453</v>
       </c>
       <c r="B442" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="C442" t="s">
-        <v>936</v>
-      </c>
-      <c r="D442" t="s">
-        <v>962</v>
+        <v>941</v>
       </c>
       <c r="E442" t="s">
-        <v>975</v>
-      </c>
-      <c r="G442" t="s">
-        <v>1072</v>
-      </c>
-      <c r="H442" t="s">
-        <v>1106</v>
-      </c>
-      <c r="I442" t="s">
-        <v>1133</v>
-      </c>
-    </row>
-    <row r="443" spans="1:13">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="443" spans="1:12">
       <c r="A443" s="1" t="s">
         <v>454</v>
       </c>
       <c r="B443" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="C443" t="s">
-        <v>937</v>
-      </c>
-      <c r="E443" t="s">
-        <v>937</v>
-      </c>
-      <c r="G443" t="s">
-        <v>1047</v>
-      </c>
-      <c r="I443" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="444" spans="1:13">
+        <v>942</v>
+      </c>
+      <c r="H443" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="444" spans="1:12">
       <c r="A444" s="1" t="s">
         <v>455</v>
       </c>
       <c r="B444" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="C444" t="s">
-        <v>938</v>
-      </c>
-      <c r="E444" t="s">
-        <v>938</v>
-      </c>
-      <c r="G444" t="s">
-        <v>1073</v>
-      </c>
-      <c r="I444" t="s">
-        <v>1126</v>
-      </c>
-    </row>
-    <row r="445" spans="1:13">
+        <v>943</v>
+      </c>
+      <c r="H444" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="445" spans="1:12">
       <c r="A445" s="1" t="s">
         <v>456</v>
       </c>
       <c r="B445" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="C445" t="s">
-        <v>939</v>
-      </c>
-      <c r="E445" t="s">
-        <v>939</v>
-      </c>
-      <c r="I445" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="446" spans="1:13">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="446" spans="1:12">
       <c r="A446" s="1" t="s">
         <v>457</v>
       </c>
       <c r="B446" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="C446" t="s">
-        <v>940</v>
+        <v>945</v>
       </c>
       <c r="E446" t="s">
-        <v>940</v>
+        <v>945</v>
       </c>
       <c r="G446" t="s">
-        <v>1048</v>
-      </c>
-      <c r="I446" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="447" spans="1:13">
+        <v>1081</v>
+      </c>
+      <c r="H446" t="s">
+        <v>1115</v>
+      </c>
+      <c r="L446">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="447" spans="1:12">
       <c r="A447" s="1" t="s">
         <v>458</v>
       </c>
       <c r="B447" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="C447" t="s">
-        <v>941</v>
+        <v>946</v>
+      </c>
+      <c r="D447" t="s">
+        <v>972</v>
       </c>
       <c r="E447" t="s">
-        <v>941</v>
-      </c>
-      <c r="M447">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="448" spans="1:13">
+        <v>985</v>
+      </c>
+      <c r="G447" t="s">
+        <v>1082</v>
+      </c>
+      <c r="H447" t="s">
+        <v>1116</v>
+      </c>
+      <c r="I447" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="448" spans="1:12">
       <c r="A448" s="1" t="s">
         <v>459</v>
       </c>
       <c r="B448" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="C448" t="s">
-        <v>942</v>
+        <v>947</v>
+      </c>
+      <c r="E448" t="s">
+        <v>947</v>
       </c>
       <c r="G448" t="s">
-        <v>1074</v>
+        <v>1057</v>
       </c>
       <c r="I448" t="s">
-        <v>1109</v>
-      </c>
-    </row>
-    <row r="449" spans="1:12">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="449" spans="1:13">
       <c r="A449" s="1" t="s">
         <v>460</v>
       </c>
       <c r="B449" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="C449" t="s">
-        <v>943</v>
+        <v>948</v>
       </c>
       <c r="E449" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="450" spans="1:12">
+        <v>948</v>
+      </c>
+      <c r="G449" t="s">
+        <v>1083</v>
+      </c>
+      <c r="I449" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="450" spans="1:13">
       <c r="A450" s="1" t="s">
         <v>461</v>
       </c>
       <c r="B450" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="C450" t="s">
-        <v>944</v>
-      </c>
-      <c r="H450" t="s">
-        <v>1082</v>
-      </c>
-    </row>
-    <row r="451" spans="1:12">
+        <v>949</v>
+      </c>
+      <c r="E450" t="s">
+        <v>949</v>
+      </c>
+      <c r="I450" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="451" spans="1:13">
       <c r="A451" s="1" t="s">
         <v>462</v>
       </c>
       <c r="B451" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="C451" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="452" spans="1:12">
+        <v>950</v>
+      </c>
+      <c r="E451" t="s">
+        <v>950</v>
+      </c>
+      <c r="G451" t="s">
+        <v>1058</v>
+      </c>
+      <c r="I451" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="452" spans="1:13">
       <c r="A452" s="1" t="s">
         <v>463</v>
       </c>
       <c r="B452" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="C452" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="453" spans="1:12">
+        <v>951</v>
+      </c>
+      <c r="E452" t="s">
+        <v>951</v>
+      </c>
+      <c r="M452">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453" spans="1:13">
       <c r="A453" s="1" t="s">
         <v>464</v>
       </c>
       <c r="B453" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="C453" t="s">
-        <v>947</v>
-      </c>
-      <c r="E453" t="s">
-        <v>947</v>
+        <v>952</v>
       </c>
       <c r="G453" t="s">
-        <v>1075</v>
+        <v>1084</v>
       </c>
       <c r="I453" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="454" spans="1:12">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="454" spans="1:13">
       <c r="A454" s="1" t="s">
         <v>465</v>
       </c>
       <c r="B454" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="C454" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="455" spans="1:12">
+        <v>953</v>
+      </c>
+      <c r="E454" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="455" spans="1:13">
       <c r="A455" s="1" t="s">
         <v>466</v>
       </c>
       <c r="B455" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="C455" t="s">
-        <v>949</v>
-      </c>
-      <c r="E455" t="s">
-        <v>949</v>
-      </c>
-      <c r="I455" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="456" spans="1:12">
+        <v>954</v>
+      </c>
+      <c r="H455" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="456" spans="1:13">
       <c r="A456" s="1" t="s">
         <v>467</v>
       </c>
       <c r="B456" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="C456" t="s">
-        <v>950</v>
-      </c>
-      <c r="E456" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="457" spans="1:12">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="457" spans="1:13">
       <c r="A457" s="1" t="s">
         <v>468</v>
       </c>
       <c r="B457" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="C457" t="s">
-        <v>951</v>
-      </c>
-      <c r="E457" t="s">
-        <v>951</v>
-      </c>
-      <c r="G457" t="s">
-        <v>1076</v>
-      </c>
-      <c r="I457" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="458" spans="1:12">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="458" spans="1:13">
       <c r="A458" s="1" t="s">
         <v>469</v>
       </c>
       <c r="B458" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="C458" t="s">
-        <v>952</v>
+        <v>957</v>
       </c>
       <c r="E458" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="459" spans="1:12">
+        <v>957</v>
+      </c>
+      <c r="G458" t="s">
+        <v>1085</v>
+      </c>
+      <c r="I458" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="459" spans="1:13">
       <c r="A459" s="1" t="s">
         <v>470</v>
       </c>
       <c r="B459" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="C459" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="460" spans="1:12">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="460" spans="1:13">
       <c r="A460" s="1" t="s">
         <v>471</v>
       </c>
       <c r="B460" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="C460" t="s">
-        <v>954</v>
-      </c>
-      <c r="L460">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="461" spans="1:12">
+        <v>959</v>
+      </c>
+      <c r="E460" t="s">
+        <v>959</v>
+      </c>
+      <c r="I460" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="461" spans="1:13">
       <c r="A461" s="1" t="s">
         <v>472</v>
       </c>
       <c r="B461" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="C461" t="s">
-        <v>955</v>
-      </c>
-      <c r="G461" t="s">
-        <v>1077</v>
-      </c>
-      <c r="I461" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="462" spans="1:12">
+        <v>960</v>
+      </c>
+      <c r="E461" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="462" spans="1:13">
       <c r="A462" s="1" t="s">
         <v>473</v>
       </c>
       <c r="B462" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="C462" t="s">
-        <v>956</v>
+        <v>961</v>
+      </c>
+      <c r="E462" t="s">
+        <v>961</v>
+      </c>
+      <c r="G462" t="s">
+        <v>1086</v>
       </c>
       <c r="I462" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="463" spans="1:12">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="463" spans="1:13">
       <c r="A463" s="1" t="s">
         <v>474</v>
       </c>
       <c r="B463" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="C463" t="s">
-        <v>957</v>
+        <v>962</v>
       </c>
       <c r="E463" t="s">
-        <v>976</v>
-      </c>
-      <c r="G463" t="s">
-        <v>1078</v>
-      </c>
-      <c r="H463" t="s">
-        <v>1107</v>
-      </c>
-      <c r="I463" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="464" spans="1:12">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="464" spans="1:13">
       <c r="A464" s="1" t="s">
         <v>475</v>
       </c>
       <c r="B464" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="C464" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="465" spans="1:3">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="465" spans="1:12">
       <c r="A465" s="1" t="s">
         <v>476</v>
       </c>
       <c r="B465" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="C465" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="466" spans="1:3">
+        <v>964</v>
+      </c>
+      <c r="L465">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466" spans="1:12">
       <c r="A466" s="1" t="s">
         <v>477</v>
       </c>
       <c r="B466" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="C466" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="467" spans="1:3">
+        <v>965</v>
+      </c>
+      <c r="G466" t="s">
+        <v>1087</v>
+      </c>
+      <c r="I466" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="467" spans="1:12">
       <c r="A467" s="1" t="s">
         <v>478</v>
       </c>
       <c r="B467" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="C467" t="s">
-        <v>961</v>
+        <v>966</v>
+      </c>
+      <c r="I467" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="468" spans="1:12">
+      <c r="A468" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B468" t="s">
+        <v>501</v>
+      </c>
+      <c r="C468" t="s">
+        <v>967</v>
+      </c>
+      <c r="E468" t="s">
+        <v>986</v>
+      </c>
+      <c r="G468" t="s">
+        <v>1088</v>
+      </c>
+      <c r="H468" t="s">
+        <v>1117</v>
+      </c>
+      <c r="I468" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="469" spans="1:12">
+      <c r="A469" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="B469" t="s">
+        <v>501</v>
+      </c>
+      <c r="C469" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="470" spans="1:12">
+      <c r="A470" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B470" t="s">
+        <v>501</v>
+      </c>
+      <c r="C470" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="471" spans="1:12">
+      <c r="A471" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B471" t="s">
+        <v>501</v>
+      </c>
+      <c r="C471" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="472" spans="1:12">
+      <c r="A472" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="B472" t="s">
+        <v>501</v>
+      </c>
+      <c r="C472" t="s">
+        <v>971</v>
       </c>
     </row>
   </sheetData>

--- a/all_course.xlsx
+++ b/all_course.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\yuanzhi\Projects\mingguang-web\lamatxt\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5283A100-7E48-405E-831E-173FE081F374}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-107" yWindow="-107" windowWidth="20847" windowHeight="11186" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -3508,12 +3514,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3521,8 +3527,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -3568,15 +3581,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3618,7 +3639,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3650,9 +3671,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3684,6 +3723,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3859,19 +3916,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M480"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B118" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="L131" sqref="L131"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -3912,7 +3969,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -3923,7 +3980,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -3943,7 +4000,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -3957,7 +4014,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -3971,7 +4028,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -3991,7 +4048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -4011,7 +4068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -4022,7 +4079,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -4039,7 +4096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -4062,7 +4119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
@@ -4076,7 +4133,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
@@ -4087,7 +4144,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -4101,7 +4158,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
@@ -4112,7 +4169,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
@@ -4126,7 +4183,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
@@ -4146,7 +4203,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
@@ -4160,7 +4217,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
@@ -4180,7 +4237,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>30</v>
       </c>
@@ -4200,7 +4257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>31</v>
       </c>
@@ -4214,7 +4271,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
@@ -4225,7 +4282,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>33</v>
       </c>
@@ -4242,7 +4299,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>34</v>
       </c>
@@ -4253,7 +4310,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>35</v>
       </c>
@@ -4263,8 +4320,11 @@
       <c r="C24" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="L24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>36</v>
       </c>
@@ -4275,7 +4335,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>37</v>
       </c>
@@ -4286,7 +4346,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>38</v>
       </c>
@@ -4297,7 +4357,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>39</v>
       </c>
@@ -4311,7 +4371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>40</v>
       </c>
@@ -4322,7 +4382,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>41</v>
       </c>
@@ -4332,8 +4392,11 @@
       <c r="C30" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="31" spans="1:12">
+      <c r="L30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>42</v>
       </c>
@@ -4344,7 +4407,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>43</v>
       </c>
@@ -4355,7 +4418,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>44</v>
       </c>
@@ -4366,7 +4429,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>45</v>
       </c>
@@ -4377,7 +4440,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>46</v>
       </c>
@@ -4400,7 +4463,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>47</v>
       </c>
@@ -4417,7 +4480,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>48</v>
       </c>
@@ -4428,7 +4491,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>49</v>
       </c>
@@ -4439,7 +4502,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>50</v>
       </c>
@@ -4450,7 +4513,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>51</v>
       </c>
@@ -4461,7 +4524,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>52</v>
       </c>
@@ -4475,7 +4538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>53</v>
       </c>
@@ -4486,7 +4549,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>54</v>
       </c>
@@ -4497,7 +4560,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>55</v>
       </c>
@@ -4517,7 +4580,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>56</v>
       </c>
@@ -4528,7 +4591,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>57</v>
       </c>
@@ -4539,7 +4602,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>58</v>
       </c>
@@ -4556,7 +4619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>59</v>
       </c>
@@ -4567,7 +4630,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>60</v>
       </c>
@@ -4587,7 +4650,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>61</v>
       </c>
@@ -4604,7 +4667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>62</v>
       </c>
@@ -4621,7 +4684,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>63</v>
       </c>
@@ -4641,7 +4704,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>64</v>
       </c>
@@ -4652,7 +4715,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>65</v>
       </c>
@@ -4669,7 +4732,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>66</v>
       </c>
@@ -4686,7 +4749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>67</v>
       </c>
@@ -4697,7 +4760,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>68</v>
       </c>
@@ -4708,7 +4771,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>69</v>
       </c>
@@ -4719,7 +4782,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>70</v>
       </c>
@@ -4730,7 +4793,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>71</v>
       </c>
@@ -4744,7 +4807,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>72</v>
       </c>
@@ -4767,7 +4830,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>73</v>
       </c>
@@ -4784,7 +4847,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>74</v>
       </c>
@@ -4807,7 +4870,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>75</v>
       </c>
@@ -4827,7 +4890,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>76</v>
       </c>
@@ -4847,7 +4910,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>77</v>
       </c>
@@ -4858,7 +4921,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>78</v>
       </c>
@@ -4872,7 +4935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:12">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>79</v>
       </c>
@@ -4883,7 +4946,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>80</v>
       </c>
@@ -4900,7 +4963,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="70" spans="1:12">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>81</v>
       </c>
@@ -4917,7 +4980,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>82</v>
       </c>
@@ -4937,7 +5000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>83</v>
       </c>
@@ -4957,7 +5020,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>84</v>
       </c>
@@ -4971,7 +5034,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="74" spans="1:12">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>85</v>
       </c>
@@ -4985,7 +5048,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="75" spans="1:12">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>86</v>
       </c>
@@ -4999,7 +5062,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>87</v>
       </c>
@@ -5019,7 +5082,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="77" spans="1:12">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>88</v>
       </c>
@@ -5036,7 +5099,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="78" spans="1:12">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>89</v>
       </c>
@@ -5056,7 +5119,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="79" spans="1:12">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>90</v>
       </c>
@@ -5073,7 +5136,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="80" spans="1:12">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>91</v>
       </c>
@@ -5090,7 +5153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:12">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>92</v>
       </c>
@@ -5113,7 +5176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:12">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>93</v>
       </c>
@@ -5133,7 +5196,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="83" spans="1:12">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>94</v>
       </c>
@@ -5153,7 +5216,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="84" spans="1:12">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>95</v>
       </c>
@@ -5173,7 +5236,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="85" spans="1:12">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>96</v>
       </c>
@@ -5193,7 +5256,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="86" spans="1:12">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>97</v>
       </c>
@@ -5213,7 +5276,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="87" spans="1:12">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>98</v>
       </c>
@@ -5233,7 +5296,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="88" spans="1:12">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>99</v>
       </c>
@@ -5253,7 +5316,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="89" spans="1:12">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>100</v>
       </c>
@@ -5273,7 +5336,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="90" spans="1:12">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>101</v>
       </c>
@@ -5293,7 +5356,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="91" spans="1:12">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>102</v>
       </c>
@@ -5313,7 +5376,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="92" spans="1:12">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>103</v>
       </c>
@@ -5333,7 +5396,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="93" spans="1:12">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>104</v>
       </c>
@@ -5353,7 +5416,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="94" spans="1:12">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>105</v>
       </c>
@@ -5373,7 +5436,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="95" spans="1:12">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>106</v>
       </c>
@@ -5393,7 +5456,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="96" spans="1:12">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>107</v>
       </c>
@@ -5413,7 +5476,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>108</v>
       </c>
@@ -5433,7 +5496,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>109</v>
       </c>
@@ -5453,7 +5516,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>110</v>
       </c>
@@ -5473,7 +5536,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>111</v>
       </c>
@@ -5493,7 +5556,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>112</v>
       </c>
@@ -5513,7 +5576,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>113</v>
       </c>
@@ -5533,7 +5596,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>114</v>
       </c>
@@ -5553,7 +5616,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>115</v>
       </c>
@@ -5573,7 +5636,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>116</v>
       </c>
@@ -5593,7 +5656,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>117</v>
       </c>
@@ -5613,7 +5676,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>118</v>
       </c>
@@ -5633,7 +5696,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>119</v>
       </c>
@@ -5653,7 +5716,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>120</v>
       </c>
@@ -5673,7 +5736,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>121</v>
       </c>
@@ -5693,7 +5756,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>122</v>
       </c>
@@ -5713,7 +5776,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>123</v>
       </c>
@@ -5733,7 +5796,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="113" spans="1:12">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>124</v>
       </c>
@@ -5753,7 +5816,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="114" spans="1:12">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>125</v>
       </c>
@@ -5770,7 +5833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:12">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>126</v>
       </c>
@@ -5790,7 +5853,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="116" spans="1:12">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>127</v>
       </c>
@@ -5810,7 +5873,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="117" spans="1:12">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>128</v>
       </c>
@@ -5830,7 +5893,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="118" spans="1:12">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>129</v>
       </c>
@@ -5850,7 +5913,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="119" spans="1:12">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>130</v>
       </c>
@@ -5867,7 +5930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:12">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>131</v>
       </c>
@@ -5884,7 +5947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:12">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>132</v>
       </c>
@@ -5898,7 +5961,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="122" spans="1:12">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>133</v>
       </c>
@@ -5912,7 +5975,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="123" spans="1:12">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>134</v>
       </c>
@@ -5926,7 +5989,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="124" spans="1:12">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>135</v>
       </c>
@@ -5940,7 +6003,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="125" spans="1:12">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>136</v>
       </c>
@@ -5954,7 +6017,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="126" spans="1:12">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>137</v>
       </c>
@@ -5968,7 +6031,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="127" spans="1:12">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>138</v>
       </c>
@@ -5982,7 +6045,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="128" spans="1:12">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>139</v>
       </c>
@@ -5996,7 +6059,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="129" spans="1:12">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>140</v>
       </c>
@@ -6007,7 +6070,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="130" spans="1:12">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>141</v>
       </c>
@@ -6017,8 +6080,11 @@
       <c r="C130" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="131" spans="1:12">
+      <c r="L130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>142</v>
       </c>
@@ -6032,7 +6098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:12">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>143</v>
       </c>
@@ -6046,7 +6112,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="133" spans="1:12">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>144</v>
       </c>
@@ -6060,7 +6126,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="134" spans="1:12">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>145</v>
       </c>
@@ -6074,7 +6140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:12">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>146</v>
       </c>
@@ -6088,7 +6154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:12">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>147</v>
       </c>
@@ -6099,7 +6165,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="137" spans="1:12">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>148</v>
       </c>
@@ -6110,7 +6176,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="138" spans="1:12">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>149</v>
       </c>
@@ -6121,7 +6187,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="139" spans="1:12">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>150</v>
       </c>
@@ -6132,7 +6198,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="140" spans="1:12">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>151</v>
       </c>
@@ -6143,7 +6209,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="141" spans="1:12">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>152</v>
       </c>
@@ -6160,7 +6226,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="142" spans="1:12">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>153</v>
       </c>
@@ -6171,7 +6237,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="143" spans="1:12">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>154</v>
       </c>
@@ -6182,7 +6248,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="144" spans="1:12">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>155</v>
       </c>
@@ -6199,7 +6265,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="145" spans="1:9">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>156</v>
       </c>
@@ -6213,7 +6279,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="146" spans="1:9">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>157</v>
       </c>
@@ -6224,7 +6290,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="147" spans="1:9">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>158</v>
       </c>
@@ -6244,7 +6310,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="148" spans="1:9">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>159</v>
       </c>
@@ -6255,7 +6321,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="149" spans="1:9">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>160</v>
       </c>
@@ -6266,7 +6332,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="150" spans="1:9">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>161</v>
       </c>
@@ -6283,7 +6349,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="151" spans="1:9">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>162</v>
       </c>
@@ -6294,7 +6360,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="152" spans="1:9">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>163</v>
       </c>
@@ -6305,7 +6371,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="153" spans="1:9">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>164</v>
       </c>
@@ -6316,7 +6382,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="154" spans="1:9">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>165</v>
       </c>
@@ -6327,7 +6393,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="155" spans="1:9">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>166</v>
       </c>
@@ -6344,7 +6410,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="156" spans="1:9">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>167</v>
       </c>
@@ -6355,7 +6421,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="157" spans="1:9">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>168</v>
       </c>
@@ -6375,7 +6441,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="158" spans="1:9">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>169</v>
       </c>
@@ -6392,7 +6458,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="159" spans="1:9">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>170</v>
       </c>
@@ -6406,7 +6472,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="160" spans="1:9">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>171</v>
       </c>
@@ -6420,7 +6486,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="161" spans="1:12">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>172</v>
       </c>
@@ -6434,7 +6500,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="162" spans="1:12">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>173</v>
       </c>
@@ -6454,7 +6520,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="163" spans="1:12">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>174</v>
       </c>
@@ -6465,7 +6531,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="164" spans="1:12">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>175</v>
       </c>
@@ -6476,7 +6542,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="165" spans="1:12">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>176</v>
       </c>
@@ -6490,7 +6556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:12">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>177</v>
       </c>
@@ -6507,7 +6573,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="167" spans="1:12">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>178</v>
       </c>
@@ -6527,7 +6593,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="168" spans="1:12">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>179</v>
       </c>
@@ -6538,7 +6604,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="169" spans="1:12">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>180</v>
       </c>
@@ -6552,7 +6618,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="170" spans="1:12">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>181</v>
       </c>
@@ -6563,7 +6629,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="171" spans="1:12">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>182</v>
       </c>
@@ -6580,7 +6646,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="172" spans="1:12">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>183</v>
       </c>
@@ -6594,7 +6660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:12">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>184</v>
       </c>
@@ -6605,7 +6671,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="174" spans="1:12">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>185</v>
       </c>
@@ -6616,7 +6682,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="175" spans="1:12">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>186</v>
       </c>
@@ -6630,7 +6696,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="176" spans="1:12">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>187</v>
       </c>
@@ -6647,7 +6713,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="177" spans="1:9">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>188</v>
       </c>
@@ -6658,7 +6724,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="178" spans="1:9">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>189</v>
       </c>
@@ -6669,7 +6735,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="179" spans="1:9">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>190</v>
       </c>
@@ -6680,7 +6746,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="180" spans="1:9">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>191</v>
       </c>
@@ -6691,7 +6757,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="181" spans="1:9">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>192</v>
       </c>
@@ -6702,7 +6768,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="182" spans="1:9">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>193</v>
       </c>
@@ -6713,7 +6779,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="183" spans="1:9">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>194</v>
       </c>
@@ -6733,7 +6799,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="184" spans="1:9">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>195</v>
       </c>
@@ -6744,7 +6810,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="185" spans="1:9">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>196</v>
       </c>
@@ -6755,7 +6821,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="186" spans="1:9">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>197</v>
       </c>
@@ -6769,7 +6835,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="187" spans="1:9">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>198</v>
       </c>
@@ -6786,7 +6852,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="188" spans="1:9">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>199</v>
       </c>
@@ -6797,7 +6863,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="189" spans="1:9">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>200</v>
       </c>
@@ -6808,7 +6874,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="190" spans="1:9">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>201</v>
       </c>
@@ -6822,7 +6888,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="191" spans="1:9">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>202</v>
       </c>
@@ -6833,7 +6899,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="192" spans="1:9">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>203</v>
       </c>
@@ -6844,7 +6910,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="193" spans="1:5">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>204</v>
       </c>
@@ -6855,7 +6921,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="194" spans="1:5">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>205</v>
       </c>
@@ -6866,7 +6932,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="195" spans="1:5">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>206</v>
       </c>
@@ -6877,7 +6943,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="196" spans="1:5">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>207</v>
       </c>
@@ -6888,7 +6954,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="197" spans="1:5">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>208</v>
       </c>
@@ -6899,7 +6965,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>209</v>
       </c>
@@ -6910,7 +6976,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>210</v>
       </c>
@@ -6921,7 +6987,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="200" spans="1:5">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>211</v>
       </c>
@@ -6932,7 +6998,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="201" spans="1:5">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>212</v>
       </c>
@@ -6943,7 +7009,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="202" spans="1:5">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>213</v>
       </c>
@@ -6957,7 +7023,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="203" spans="1:5">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>214</v>
       </c>
@@ -6971,7 +7037,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="204" spans="1:5">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>215</v>
       </c>
@@ -6985,7 +7051,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="205" spans="1:5">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>216</v>
       </c>
@@ -6999,7 +7065,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="206" spans="1:5">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>217</v>
       </c>
@@ -7013,7 +7079,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="207" spans="1:5">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>218</v>
       </c>
@@ -7027,7 +7093,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="208" spans="1:5">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>219</v>
       </c>
@@ -7041,7 +7107,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="209" spans="1:13">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>220</v>
       </c>
@@ -7055,7 +7121,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="210" spans="1:13">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>221</v>
       </c>
@@ -7069,7 +7135,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="211" spans="1:13">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>222</v>
       </c>
@@ -7083,7 +7149,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="212" spans="1:13">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>223</v>
       </c>
@@ -7097,7 +7163,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="213" spans="1:13">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>224</v>
       </c>
@@ -7111,7 +7177,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="214" spans="1:13">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>225</v>
       </c>
@@ -7125,7 +7191,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="215" spans="1:13">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>226</v>
       </c>
@@ -7139,7 +7205,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="216" spans="1:13">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>227</v>
       </c>
@@ -7153,7 +7219,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="217" spans="1:13">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>228</v>
       </c>
@@ -7167,7 +7233,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="218" spans="1:13">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>229</v>
       </c>
@@ -7178,7 +7244,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="219" spans="1:13">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>230</v>
       </c>
@@ -7189,7 +7255,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="220" spans="1:13">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>231</v>
       </c>
@@ -7200,7 +7266,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="221" spans="1:13">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>232</v>
       </c>
@@ -7211,7 +7277,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="222" spans="1:13">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>233</v>
       </c>
@@ -7222,7 +7288,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="223" spans="1:13">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>234</v>
       </c>
@@ -7236,7 +7302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:13">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>235</v>
       </c>
@@ -7247,7 +7313,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="225" spans="1:5">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>236</v>
       </c>
@@ -7258,7 +7324,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="226" spans="1:5">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>237</v>
       </c>
@@ -7269,7 +7335,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="227" spans="1:5">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>238</v>
       </c>
@@ -7280,7 +7346,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="228" spans="1:5">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>239</v>
       </c>
@@ -7291,7 +7357,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="229" spans="1:5">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>240</v>
       </c>
@@ -7302,7 +7368,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="230" spans="1:5">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>241</v>
       </c>
@@ -7313,7 +7379,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="231" spans="1:5">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>242</v>
       </c>
@@ -7324,7 +7390,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="232" spans="1:5">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>243</v>
       </c>
@@ -7335,7 +7401,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="233" spans="1:5">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>244</v>
       </c>
@@ -7346,7 +7412,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="234" spans="1:5">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>245</v>
       </c>
@@ -7357,7 +7423,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="235" spans="1:5">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>246</v>
       </c>
@@ -7368,7 +7434,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="236" spans="1:5">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>247</v>
       </c>
@@ -7379,7 +7445,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="237" spans="1:5">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>248</v>
       </c>
@@ -7390,7 +7456,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="238" spans="1:5">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>249</v>
       </c>
@@ -7401,7 +7467,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="239" spans="1:5">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>250</v>
       </c>
@@ -7412,7 +7478,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="240" spans="1:5">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>251</v>
       </c>
@@ -7426,7 +7492,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="241" spans="1:9">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>252</v>
       </c>
@@ -7443,7 +7509,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="242" spans="1:9">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>253</v>
       </c>
@@ -7454,7 +7520,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="243" spans="1:9">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>254</v>
       </c>
@@ -7465,7 +7531,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="244" spans="1:9">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>255</v>
       </c>
@@ -7476,7 +7542,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="245" spans="1:9">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>256</v>
       </c>
@@ -7487,7 +7553,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="246" spans="1:9">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>257</v>
       </c>
@@ -7498,7 +7564,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="247" spans="1:9">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>258</v>
       </c>
@@ -7509,7 +7575,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="248" spans="1:9">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>259</v>
       </c>
@@ -7523,7 +7589,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="249" spans="1:9">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>260</v>
       </c>
@@ -7534,7 +7600,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="250" spans="1:9">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>261</v>
       </c>
@@ -7545,7 +7611,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="251" spans="1:9">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>262</v>
       </c>
@@ -7562,7 +7628,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="252" spans="1:9">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>263</v>
       </c>
@@ -7573,7 +7639,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="253" spans="1:9">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>264</v>
       </c>
@@ -7584,7 +7650,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="254" spans="1:9">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>265</v>
       </c>
@@ -7595,7 +7661,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="255" spans="1:9">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>266</v>
       </c>
@@ -7612,7 +7678,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="256" spans="1:9">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>267</v>
       </c>
@@ -7632,7 +7698,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="257" spans="1:9">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>268</v>
       </c>
@@ -7646,7 +7712,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="258" spans="1:9">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>269</v>
       </c>
@@ -7657,7 +7723,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="259" spans="1:9">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>270</v>
       </c>
@@ -7671,7 +7737,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="260" spans="1:9">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>271</v>
       </c>
@@ -7685,7 +7751,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="261" spans="1:9">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>272</v>
       </c>
@@ -7699,7 +7765,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="262" spans="1:9">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>273</v>
       </c>
@@ -7713,7 +7779,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="263" spans="1:9">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>274</v>
       </c>
@@ -7727,7 +7793,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="264" spans="1:9">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>275</v>
       </c>
@@ -7741,7 +7807,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="265" spans="1:9">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>276</v>
       </c>
@@ -7755,7 +7821,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="266" spans="1:9">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>277</v>
       </c>
@@ -7772,7 +7838,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="267" spans="1:9">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>278</v>
       </c>
@@ -7786,7 +7852,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="268" spans="1:9">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>279</v>
       </c>
@@ -7800,7 +7866,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="269" spans="1:9">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>280</v>
       </c>
@@ -7817,7 +7883,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="270" spans="1:9">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>281</v>
       </c>
@@ -7831,7 +7897,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="271" spans="1:9">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>282</v>
       </c>
@@ -7842,7 +7908,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="272" spans="1:9">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>283</v>
       </c>
@@ -7853,7 +7919,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="273" spans="1:12">
+    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>284</v>
       </c>
@@ -7864,7 +7930,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="274" spans="1:12">
+    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
         <v>285</v>
       </c>
@@ -7878,7 +7944,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="275" spans="1:12">
+    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
         <v>286</v>
       </c>
@@ -7889,7 +7955,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="276" spans="1:12">
+    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>287</v>
       </c>
@@ -7900,7 +7966,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="277" spans="1:12">
+    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>288</v>
       </c>
@@ -7911,7 +7977,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="278" spans="1:12">
+    <row r="278" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>289</v>
       </c>
@@ -7931,7 +7997,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="279" spans="1:12">
+    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>290</v>
       </c>
@@ -7942,7 +8008,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="280" spans="1:12">
+    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>291</v>
       </c>
@@ -7953,7 +8019,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="281" spans="1:12">
+    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>292</v>
       </c>
@@ -7967,7 +8033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:12">
+    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>293</v>
       </c>
@@ -7984,7 +8050,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="283" spans="1:12">
+    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>294</v>
       </c>
@@ -7998,7 +8064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:12">
+    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>295</v>
       </c>
@@ -8009,7 +8075,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="285" spans="1:12">
+    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>296</v>
       </c>
@@ -8020,7 +8086,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="286" spans="1:12">
+    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>297</v>
       </c>
@@ -8031,7 +8097,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="287" spans="1:12">
+    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>298</v>
       </c>
@@ -8042,7 +8108,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="288" spans="1:12">
+    <row r="288" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>299</v>
       </c>
@@ -8053,7 +8119,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="289" spans="1:12">
+    <row r="289" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>300</v>
       </c>
@@ -8067,7 +8133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:12">
+    <row r="290" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
         <v>301</v>
       </c>
@@ -8078,7 +8144,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="291" spans="1:12">
+    <row r="291" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>302</v>
       </c>
@@ -8089,7 +8155,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="292" spans="1:12">
+    <row r="292" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>303</v>
       </c>
@@ -8109,7 +8175,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="293" spans="1:12">
+    <row r="293" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>304</v>
       </c>
@@ -8123,7 +8189,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="294" spans="1:12">
+    <row r="294" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>305</v>
       </c>
@@ -8134,7 +8200,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="295" spans="1:12">
+    <row r="295" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>306</v>
       </c>
@@ -8154,7 +8220,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="296" spans="1:12">
+    <row r="296" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>307</v>
       </c>
@@ -8174,7 +8240,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="297" spans="1:12">
+    <row r="297" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
         <v>308</v>
       </c>
@@ -8188,7 +8254,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="298" spans="1:12">
+    <row r="298" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>309</v>
       </c>
@@ -8202,7 +8268,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="299" spans="1:12">
+    <row r="299" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>310</v>
       </c>
@@ -8216,7 +8282,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="300" spans="1:12">
+    <row r="300" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>311</v>
       </c>
@@ -8230,7 +8296,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="301" spans="1:12">
+    <row r="301" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
         <v>312</v>
       </c>
@@ -8244,7 +8310,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="302" spans="1:12">
+    <row r="302" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
         <v>313</v>
       </c>
@@ -8258,7 +8324,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="303" spans="1:12">
+    <row r="303" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
         <v>314</v>
       </c>
@@ -8272,7 +8338,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="304" spans="1:12">
+    <row r="304" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
         <v>315</v>
       </c>
@@ -8286,7 +8352,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="305" spans="1:5">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
         <v>316</v>
       </c>
@@ -8300,7 +8366,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="306" spans="1:5">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
         <v>317</v>
       </c>
@@ -8314,7 +8380,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="307" spans="1:5">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
         <v>318</v>
       </c>
@@ -8328,7 +8394,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="308" spans="1:5">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
         <v>319</v>
       </c>
@@ -8342,7 +8408,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="309" spans="1:5">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
         <v>320</v>
       </c>
@@ -8356,7 +8422,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="310" spans="1:5">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
         <v>321</v>
       </c>
@@ -8370,7 +8436,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="311" spans="1:5">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
         <v>322</v>
       </c>
@@ -8384,7 +8450,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="312" spans="1:5">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
         <v>323</v>
       </c>
@@ -8398,7 +8464,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="313" spans="1:5">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
         <v>324</v>
       </c>
@@ -8412,7 +8478,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="314" spans="1:5">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
         <v>325</v>
       </c>
@@ -8426,7 +8492,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="315" spans="1:5">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
         <v>326</v>
       </c>
@@ -8440,7 +8506,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="316" spans="1:5">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
         <v>327</v>
       </c>
@@ -8454,7 +8520,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="317" spans="1:5">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
         <v>328</v>
       </c>
@@ -8468,7 +8534,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="318" spans="1:5">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
         <v>329</v>
       </c>
@@ -8482,7 +8548,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="319" spans="1:5">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
         <v>330</v>
       </c>
@@ -8496,7 +8562,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="320" spans="1:5">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
         <v>331</v>
       </c>
@@ -8510,7 +8576,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="321" spans="1:5">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
         <v>332</v>
       </c>
@@ -8521,7 +8587,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="322" spans="1:5">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
         <v>333</v>
       </c>
@@ -8535,7 +8601,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="323" spans="1:5">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
         <v>334</v>
       </c>
@@ -8549,7 +8615,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="324" spans="1:5">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
         <v>335</v>
       </c>
@@ -8563,7 +8629,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="325" spans="1:5">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
         <v>336</v>
       </c>
@@ -8577,7 +8643,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="326" spans="1:5">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
         <v>337</v>
       </c>
@@ -8591,7 +8657,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="327" spans="1:5">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
         <v>338</v>
       </c>
@@ -8602,7 +8668,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="328" spans="1:5">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
         <v>339</v>
       </c>
@@ -8616,7 +8682,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="329" spans="1:5">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
         <v>340</v>
       </c>
@@ -8630,7 +8696,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="330" spans="1:5">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
         <v>341</v>
       </c>
@@ -8644,7 +8710,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="331" spans="1:5">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
         <v>342</v>
       </c>
@@ -8658,7 +8724,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="332" spans="1:5">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
         <v>343</v>
       </c>
@@ -8672,7 +8738,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="333" spans="1:5">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
         <v>344</v>
       </c>
@@ -8686,7 +8752,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="334" spans="1:5">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
         <v>345</v>
       </c>
@@ -8700,7 +8766,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="335" spans="1:5">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
         <v>346</v>
       </c>
@@ -8714,7 +8780,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="336" spans="1:5">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
         <v>347</v>
       </c>
@@ -8728,7 +8794,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="337" spans="1:5">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
         <v>348</v>
       </c>
@@ -8739,7 +8805,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="338" spans="1:5">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
         <v>349</v>
       </c>
@@ -8753,7 +8819,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="339" spans="1:5">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
         <v>350</v>
       </c>
@@ -8767,7 +8833,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="340" spans="1:5">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
         <v>351</v>
       </c>
@@ -8778,7 +8844,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="341" spans="1:5">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
         <v>352</v>
       </c>
@@ -8792,7 +8858,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="342" spans="1:5">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
         <v>353</v>
       </c>
@@ -8803,7 +8869,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="343" spans="1:5">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
         <v>354</v>
       </c>
@@ -8814,7 +8880,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="344" spans="1:5">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
         <v>355</v>
       </c>
@@ -8828,7 +8894,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="345" spans="1:5">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
         <v>356</v>
       </c>
@@ -8839,7 +8905,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="346" spans="1:5">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
         <v>357</v>
       </c>
@@ -8850,7 +8916,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="347" spans="1:5">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
         <v>358</v>
       </c>
@@ -8861,7 +8927,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="348" spans="1:5">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
         <v>359</v>
       </c>
@@ -8872,7 +8938,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="349" spans="1:5">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
         <v>360</v>
       </c>
@@ -8883,7 +8949,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="350" spans="1:5">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
         <v>361</v>
       </c>
@@ -8894,7 +8960,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="351" spans="1:5">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
         <v>362</v>
       </c>
@@ -8905,7 +8971,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="352" spans="1:5">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
         <v>363</v>
       </c>
@@ -8916,7 +8982,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="353" spans="1:8">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
         <v>364</v>
       </c>
@@ -8927,7 +8993,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="354" spans="1:8">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
         <v>365</v>
       </c>
@@ -8938,7 +9004,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="355" spans="1:8">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
         <v>366</v>
       </c>
@@ -8949,7 +9015,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="356" spans="1:8">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
         <v>367</v>
       </c>
@@ -8960,7 +9026,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="357" spans="1:8">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
         <v>368</v>
       </c>
@@ -8971,7 +9037,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="358" spans="1:8">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
         <v>369</v>
       </c>
@@ -8982,7 +9048,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="359" spans="1:8">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
         <v>370</v>
       </c>
@@ -8993,7 +9059,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="360" spans="1:8">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
         <v>371</v>
       </c>
@@ -9004,7 +9070,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="361" spans="1:8">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
         <v>372</v>
       </c>
@@ -9015,7 +9081,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="362" spans="1:8">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
         <v>373</v>
       </c>
@@ -9026,7 +9092,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="363" spans="1:8">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
         <v>374</v>
       </c>
@@ -9037,7 +9103,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="364" spans="1:8">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
         <v>375</v>
       </c>
@@ -9048,7 +9114,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="365" spans="1:8">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
         <v>376</v>
       </c>
@@ -9059,7 +9125,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="366" spans="1:8">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
         <v>377</v>
       </c>
@@ -9073,7 +9139,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="367" spans="1:8">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
         <v>378</v>
       </c>
@@ -9084,7 +9150,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="368" spans="1:8">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
         <v>379</v>
       </c>
@@ -9095,7 +9161,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="369" spans="1:9">
+    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
         <v>380</v>
       </c>
@@ -9109,7 +9175,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="370" spans="1:9">
+    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
         <v>381</v>
       </c>
@@ -9123,7 +9189,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="371" spans="1:9">
+    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
         <v>382</v>
       </c>
@@ -9137,7 +9203,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="372" spans="1:9">
+    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
         <v>383</v>
       </c>
@@ -9148,7 +9214,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="373" spans="1:9">
+    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
         <v>384</v>
       </c>
@@ -9162,7 +9228,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="374" spans="1:9">
+    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
         <v>385</v>
       </c>
@@ -9173,7 +9239,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="375" spans="1:9">
+    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
         <v>386</v>
       </c>
@@ -9184,7 +9250,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="376" spans="1:9">
+    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
         <v>387</v>
       </c>
@@ -9195,7 +9261,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="377" spans="1:9">
+    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
         <v>388</v>
       </c>
@@ -9209,7 +9275,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="378" spans="1:9">
+    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
         <v>389</v>
       </c>
@@ -9226,7 +9292,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="379" spans="1:9">
+    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
         <v>390</v>
       </c>
@@ -9237,7 +9303,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="380" spans="1:9">
+    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
         <v>391</v>
       </c>
@@ -9251,7 +9317,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="381" spans="1:9">
+    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
         <v>392</v>
       </c>
@@ -9262,7 +9328,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="382" spans="1:9">
+    <row r="382" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
         <v>393</v>
       </c>
@@ -9276,7 +9342,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="383" spans="1:9">
+    <row r="383" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
         <v>394</v>
       </c>
@@ -9290,7 +9356,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="384" spans="1:9">
+    <row r="384" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
         <v>395</v>
       </c>
@@ -9301,7 +9367,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="385" spans="1:12">
+    <row r="385" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
         <v>396</v>
       </c>
@@ -9312,7 +9378,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="386" spans="1:12">
+    <row r="386" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
         <v>397</v>
       </c>
@@ -9323,7 +9389,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="387" spans="1:12">
+    <row r="387" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
         <v>398</v>
       </c>
@@ -9337,7 +9403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:12">
+    <row r="388" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
         <v>399</v>
       </c>
@@ -9354,7 +9420,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="389" spans="1:12">
+    <row r="389" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
         <v>400</v>
       </c>
@@ -9371,7 +9437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:12">
+    <row r="390" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
         <v>401</v>
       </c>
@@ -9382,7 +9448,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="391" spans="1:12">
+    <row r="391" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
         <v>402</v>
       </c>
@@ -9402,7 +9468,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="392" spans="1:12">
+    <row r="392" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
         <v>403</v>
       </c>
@@ -9416,7 +9482,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="393" spans="1:12">
+    <row r="393" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
         <v>404</v>
       </c>
@@ -9430,7 +9496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:12">
+    <row r="394" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
         <v>405</v>
       </c>
@@ -9441,7 +9507,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="395" spans="1:12">
+    <row r="395" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
         <v>406</v>
       </c>
@@ -9452,7 +9518,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="396" spans="1:12">
+    <row r="396" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
         <v>407</v>
       </c>
@@ -9463,7 +9529,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="397" spans="1:12">
+    <row r="397" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
         <v>408</v>
       </c>
@@ -9477,7 +9543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:12">
+    <row r="398" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
         <v>409</v>
       </c>
@@ -9491,7 +9557,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="399" spans="1:12">
+    <row r="399" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
         <v>410</v>
       </c>
@@ -9505,7 +9571,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="400" spans="1:12">
+    <row r="400" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
         <v>411</v>
       </c>
@@ -9519,7 +9585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:12">
+    <row r="401" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
         <v>412</v>
       </c>
@@ -9530,7 +9596,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="402" spans="1:12">
+    <row r="402" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
         <v>413</v>
       </c>
@@ -9541,7 +9607,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="403" spans="1:12">
+    <row r="403" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
         <v>414</v>
       </c>
@@ -9552,7 +9618,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="404" spans="1:12">
+    <row r="404" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
         <v>415</v>
       </c>
@@ -9563,7 +9629,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="405" spans="1:12">
+    <row r="405" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
         <v>416</v>
       </c>
@@ -9577,7 +9643,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="406" spans="1:12">
+    <row r="406" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
         <v>417</v>
       </c>
@@ -9588,7 +9654,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="407" spans="1:12">
+    <row r="407" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
         <v>418</v>
       </c>
@@ -9599,7 +9665,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="408" spans="1:12">
+    <row r="408" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
         <v>419</v>
       </c>
@@ -9613,7 +9679,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="409" spans="1:12">
+    <row r="409" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
         <v>420</v>
       </c>
@@ -9627,7 +9693,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="410" spans="1:12">
+    <row r="410" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
         <v>421</v>
       </c>
@@ -9641,7 +9707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:12">
+    <row r="411" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
         <v>422</v>
       </c>
@@ -9652,7 +9718,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="412" spans="1:12">
+    <row r="412" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
         <v>423</v>
       </c>
@@ -9666,7 +9732,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="413" spans="1:12">
+    <row r="413" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
         <v>424</v>
       </c>
@@ -9677,7 +9743,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="414" spans="1:12">
+    <row r="414" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
         <v>425</v>
       </c>
@@ -9688,7 +9754,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="415" spans="1:12">
+    <row r="415" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
         <v>426</v>
       </c>
@@ -9699,7 +9765,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="416" spans="1:12">
+    <row r="416" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
         <v>427</v>
       </c>
@@ -9719,7 +9785,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="417" spans="1:9">
+    <row r="417" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A417" s="1" t="s">
         <v>428</v>
       </c>
@@ -9739,7 +9805,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="418" spans="1:9">
+    <row r="418" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
         <v>429</v>
       </c>
@@ -9750,7 +9816,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="419" spans="1:9">
+    <row r="419" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
         <v>430</v>
       </c>
@@ -9761,7 +9827,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="420" spans="1:9">
+    <row r="420" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
         <v>431</v>
       </c>
@@ -9772,7 +9838,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="421" spans="1:9">
+    <row r="421" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
         <v>432</v>
       </c>
@@ -9792,7 +9858,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="422" spans="1:9">
+    <row r="422" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
         <v>433</v>
       </c>
@@ -9812,7 +9878,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="423" spans="1:9">
+    <row r="423" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
         <v>434</v>
       </c>
@@ -9823,7 +9889,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="424" spans="1:9">
+    <row r="424" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
         <v>435</v>
       </c>
@@ -9843,7 +9909,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="425" spans="1:9">
+    <row r="425" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
         <v>436</v>
       </c>
@@ -9860,7 +9926,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="426" spans="1:9">
+    <row r="426" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
         <v>437</v>
       </c>
@@ -9880,7 +9946,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="427" spans="1:9">
+    <row r="427" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
         <v>438</v>
       </c>
@@ -9894,7 +9960,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="428" spans="1:9">
+    <row r="428" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
         <v>439</v>
       </c>
@@ -9911,7 +9977,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="429" spans="1:9">
+    <row r="429" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A429" s="1" t="s">
         <v>440</v>
       </c>
@@ -9928,7 +9994,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="430" spans="1:9">
+    <row r="430" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
         <v>441</v>
       </c>
@@ -9948,7 +10014,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="431" spans="1:9">
+    <row r="431" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
         <v>442</v>
       </c>
@@ -9965,7 +10031,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="432" spans="1:9">
+    <row r="432" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A432" s="1" t="s">
         <v>443</v>
       </c>
@@ -9985,7 +10051,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="433" spans="1:12">
+    <row r="433" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A433" s="1" t="s">
         <v>444</v>
       </c>
@@ -10002,7 +10068,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="434" spans="1:12">
+    <row r="434" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
         <v>445</v>
       </c>
@@ -10013,7 +10079,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="435" spans="1:12">
+    <row r="435" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A435" s="1" t="s">
         <v>446</v>
       </c>
@@ -10036,7 +10102,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="436" spans="1:12">
+    <row r="436" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
         <v>447</v>
       </c>
@@ -10050,7 +10116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="1:12">
+    <row r="437" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A437" s="1" t="s">
         <v>448</v>
       </c>
@@ -10067,7 +10133,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="438" spans="1:12">
+    <row r="438" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A438" s="1" t="s">
         <v>449</v>
       </c>
@@ -10090,7 +10156,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="439" spans="1:12">
+    <row r="439" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
         <v>450</v>
       </c>
@@ -10101,7 +10167,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="440" spans="1:12">
+    <row r="440" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
         <v>451</v>
       </c>
@@ -10124,7 +10190,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="441" spans="1:12">
+    <row r="441" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A441" s="1" t="s">
         <v>452</v>
       </c>
@@ -10138,7 +10204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:12">
+    <row r="442" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A442" s="1" t="s">
         <v>453</v>
       </c>
@@ -10155,7 +10221,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="443" spans="1:12">
+    <row r="443" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A443" s="1" t="s">
         <v>454</v>
       </c>
@@ -10172,7 +10238,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="444" spans="1:12">
+    <row r="444" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A444" s="1" t="s">
         <v>455</v>
       </c>
@@ -10195,7 +10261,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="445" spans="1:12">
+    <row r="445" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A445" s="1" t="s">
         <v>456</v>
       </c>
@@ -10215,7 +10281,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="446" spans="1:12">
+    <row r="446" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A446" s="1" t="s">
         <v>457</v>
       </c>
@@ -10238,7 +10304,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="447" spans="1:12">
+    <row r="447" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A447" s="1" t="s">
         <v>458</v>
       </c>
@@ -10261,7 +10327,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="448" spans="1:12">
+    <row r="448" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
         <v>459</v>
       </c>
@@ -10278,7 +10344,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="449" spans="1:13">
+    <row r="449" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A449" s="1" t="s">
         <v>460</v>
       </c>
@@ -10292,7 +10358,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="450" spans="1:13">
+    <row r="450" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A450" s="1" t="s">
         <v>461</v>
       </c>
@@ -10306,7 +10372,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="451" spans="1:13">
+    <row r="451" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A451" s="1" t="s">
         <v>462</v>
       </c>
@@ -10320,7 +10386,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="452" spans="1:13">
+    <row r="452" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A452" s="1" t="s">
         <v>463</v>
       </c>
@@ -10334,7 +10400,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="453" spans="1:13">
+    <row r="453" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A453" s="1" t="s">
         <v>464</v>
       </c>
@@ -10345,7 +10411,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="454" spans="1:13">
+    <row r="454" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A454" s="1" t="s">
         <v>465</v>
       </c>
@@ -10368,7 +10434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="455" spans="1:13">
+    <row r="455" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A455" s="1" t="s">
         <v>466</v>
       </c>
@@ -10394,7 +10460,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="456" spans="1:13">
+    <row r="456" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A456" s="1" t="s">
         <v>467</v>
       </c>
@@ -10414,7 +10480,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="457" spans="1:13">
+    <row r="457" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A457" s="1" t="s">
         <v>468</v>
       </c>
@@ -10434,7 +10500,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="458" spans="1:13">
+    <row r="458" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A458" s="1" t="s">
         <v>469</v>
       </c>
@@ -10451,7 +10517,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="459" spans="1:13">
+    <row r="459" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A459" s="1" t="s">
         <v>470</v>
       </c>
@@ -10471,7 +10537,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="460" spans="1:13">
+    <row r="460" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A460" s="1" t="s">
         <v>471</v>
       </c>
@@ -10488,7 +10554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="461" spans="1:13">
+    <row r="461" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A461" s="1" t="s">
         <v>472</v>
       </c>
@@ -10505,7 +10571,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="462" spans="1:13">
+    <row r="462" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A462" s="1" t="s">
         <v>473</v>
       </c>
@@ -10519,7 +10585,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="463" spans="1:13">
+    <row r="463" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A463" s="1" t="s">
         <v>474</v>
       </c>
@@ -10533,7 +10599,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="464" spans="1:13">
+    <row r="464" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A464" s="1" t="s">
         <v>475</v>
       </c>
@@ -10544,7 +10610,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="465" spans="1:12">
+    <row r="465" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A465" s="1" t="s">
         <v>476</v>
       </c>
@@ -10554,8 +10620,11 @@
       <c r="C465" t="s">
         <v>973</v>
       </c>
-    </row>
-    <row r="466" spans="1:12">
+      <c r="L465">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A466" s="1" t="s">
         <v>477</v>
       </c>
@@ -10575,7 +10644,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="467" spans="1:12">
+    <row r="467" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A467" s="1" t="s">
         <v>478</v>
       </c>
@@ -10586,7 +10655,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="468" spans="1:12">
+    <row r="468" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A468" s="1" t="s">
         <v>479</v>
       </c>
@@ -10603,7 +10672,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="469" spans="1:12">
+    <row r="469" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A469" s="1" t="s">
         <v>480</v>
       </c>
@@ -10617,7 +10686,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="470" spans="1:12">
+    <row r="470" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A470" s="1" t="s">
         <v>481</v>
       </c>
@@ -10637,7 +10706,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="471" spans="1:12">
+    <row r="471" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A471" s="1" t="s">
         <v>482</v>
       </c>
@@ -10651,7 +10720,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="472" spans="1:12">
+    <row r="472" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A472" s="1" t="s">
         <v>483</v>
       </c>
@@ -10662,7 +10731,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="473" spans="1:12">
+    <row r="473" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A473" s="1" t="s">
         <v>484</v>
       </c>
@@ -10676,7 +10745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="1:12">
+    <row r="474" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A474" s="1" t="s">
         <v>485</v>
       </c>
@@ -10693,7 +10762,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="475" spans="1:12">
+    <row r="475" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A475" s="1" t="s">
         <v>486</v>
       </c>
@@ -10707,7 +10776,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="476" spans="1:12">
+    <row r="476" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A476" s="1" t="s">
         <v>487</v>
       </c>
@@ -10730,7 +10799,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="477" spans="1:12">
+    <row r="477" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A477" s="1" t="s">
         <v>488</v>
       </c>
@@ -10741,7 +10810,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="478" spans="1:12">
+    <row r="478" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A478" s="1" t="s">
         <v>489</v>
       </c>
@@ -10752,7 +10821,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="479" spans="1:12">
+    <row r="479" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A479" s="1" t="s">
         <v>490</v>
       </c>
@@ -10763,7 +10832,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="480" spans="1:12">
+    <row r="480" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A480" s="1" t="s">
         <v>491</v>
       </c>
@@ -10775,6 +10844,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/all_course.xlsx
+++ b/all_course.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\yuanzhi\Projects\mingguang-web\lamatxt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitrepo\lamatxt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5283A100-7E48-405E-831E-173FE081F374}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC292EDC-720C-408E-870D-5F611C2610BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-107" yWindow="-107" windowWidth="20847" windowHeight="11186" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3204" yWindow="2268" windowWidth="16584" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1944" uniqueCount="1163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1945" uniqueCount="1164">
   <si>
     <t>category</t>
   </si>
@@ -3509,6 +3509,9 @@
   </si>
   <si>
     <t>三大宝库</t>
+  </si>
+  <si>
+    <t>胜道宝鬘论</t>
   </si>
 </sst>
 </file>
@@ -3920,13 +3923,13 @@
   <dimension ref="A1:M480"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B118" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B180" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L131" sqref="L131"/>
+      <selection pane="bottomRight" activeCell="E189" sqref="E189"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -6861,6 +6864,9 @@
       </c>
       <c r="C188" t="s">
         <v>696</v>
+      </c>
+      <c r="E188" t="s">
+        <v>1163</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">

--- a/all_course.xlsx
+++ b/all_course.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitrepo\lamatxt\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC292EDC-720C-408E-870D-5F611C2610BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3204" yWindow="2268" windowWidth="16584" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1945" uniqueCount="1164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1742" uniqueCount="1163">
   <si>
     <t>category</t>
   </si>
@@ -3088,7 +3082,7 @@
     <t>依靠学习本论中因明的逻辑推理，可以增长我们的智慧，尤其能遣除对佛教的成见、邪见、怀疑等恶念，从而树立起对三宝的正知正见和不退信心。</t>
   </si>
   <si>
-    <t>放生利众勤修佛法-河北万佛禅寺、佛教空性观-北京大学、关于慈善的思考-第四届“国际公益慈善论坛”、信仰与人生-北京大学、藏文化的修心养生观-清华大学、藏文化的修心养生观-清华大学</t>
+    <t>放生利众勤修佛法-河北万佛禅寺、佛教空性观-北京大学、关于慈善的思考-第四届“国际公益慈善论坛”、信仰与人生-北京大学、藏文化的修心养生观-清华大学</t>
   </si>
   <si>
     <t>藏传佛教的思想与现实生活-中国人民大学、佛法的生命科学观-南京大学、佛教眼中的物质世界-复旦大学、红尘苦海 有爱共渡-慈慧公益基金会</t>
@@ -3509,20 +3503,17 @@
   </si>
   <si>
     <t>三大宝库</t>
-  </si>
-  <si>
-    <t>胜道宝鬘论</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3530,15 +3521,8 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -3584,23 +3568,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3642,7 +3618,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3674,27 +3650,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3726,24 +3684,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3919,19 +3859,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M480"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B180" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E189" sqref="E189"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -3972,7 +3912,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -3983,7 +3923,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -3993,9 +3933,6 @@
       <c r="C3" t="s">
         <v>511</v>
       </c>
-      <c r="E3" t="s">
-        <v>511</v>
-      </c>
       <c r="G3" t="s">
         <v>1004</v>
       </c>
@@ -4003,7 +3940,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -4013,11 +3950,8 @@
       <c r="C4" t="s">
         <v>512</v>
       </c>
-      <c r="E4" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -4031,7 +3965,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -4041,9 +3975,6 @@
       <c r="C6" t="s">
         <v>514</v>
       </c>
-      <c r="E6" t="s">
-        <v>514</v>
-      </c>
       <c r="G6" t="s">
         <v>1006</v>
       </c>
@@ -4051,7 +3982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -4061,9 +3992,6 @@
       <c r="C7" t="s">
         <v>515</v>
       </c>
-      <c r="E7" t="s">
-        <v>515</v>
-      </c>
       <c r="J7" t="s">
         <v>1161</v>
       </c>
@@ -4071,7 +3999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -4082,7 +4010,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -4099,7 +4027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -4122,7 +4050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
@@ -4136,7 +4064,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
@@ -4147,7 +4075,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -4161,7 +4089,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
@@ -4172,7 +4100,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
@@ -4182,11 +4110,8 @@
       <c r="C15" t="s">
         <v>523</v>
       </c>
-      <c r="E15" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
@@ -4196,9 +4121,6 @@
       <c r="C16" t="s">
         <v>524</v>
       </c>
-      <c r="E16" t="s">
-        <v>524</v>
-      </c>
       <c r="G16" t="s">
         <v>1008</v>
       </c>
@@ -4206,7 +4128,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
@@ -4216,11 +4138,8 @@
       <c r="C17" t="s">
         <v>525</v>
       </c>
-      <c r="E17" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
@@ -4230,9 +4149,6 @@
       <c r="C18" t="s">
         <v>526</v>
       </c>
-      <c r="E18" t="s">
-        <v>526</v>
-      </c>
       <c r="G18" t="s">
         <v>1009</v>
       </c>
@@ -4240,7 +4156,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
         <v>30</v>
       </c>
@@ -4250,9 +4166,6 @@
       <c r="C19" t="s">
         <v>527</v>
       </c>
-      <c r="E19" t="s">
-        <v>527</v>
-      </c>
       <c r="J19" t="s">
         <v>1162</v>
       </c>
@@ -4260,7 +4173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12">
       <c r="A20" s="1" t="s">
         <v>31</v>
       </c>
@@ -4270,11 +4183,8 @@
       <c r="C20" t="s">
         <v>528</v>
       </c>
-      <c r="E20" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
@@ -4285,7 +4195,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12">
       <c r="A22" s="1" t="s">
         <v>33</v>
       </c>
@@ -4295,14 +4205,11 @@
       <c r="C22" t="s">
         <v>530</v>
       </c>
-      <c r="E22" t="s">
-        <v>530</v>
-      </c>
       <c r="G22" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12">
       <c r="A23" s="1" t="s">
         <v>34</v>
       </c>
@@ -4313,7 +4220,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12">
       <c r="A24" s="1" t="s">
         <v>35</v>
       </c>
@@ -4327,7 +4234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12">
       <c r="A25" s="1" t="s">
         <v>36</v>
       </c>
@@ -4338,7 +4245,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12">
       <c r="A26" s="1" t="s">
         <v>37</v>
       </c>
@@ -4349,7 +4256,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12">
       <c r="A27" s="1" t="s">
         <v>38</v>
       </c>
@@ -4360,7 +4267,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12">
       <c r="A28" s="1" t="s">
         <v>39</v>
       </c>
@@ -4374,7 +4281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12">
       <c r="A29" s="1" t="s">
         <v>40</v>
       </c>
@@ -4385,7 +4292,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12">
       <c r="A30" s="1" t="s">
         <v>41</v>
       </c>
@@ -4399,7 +4306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12">
       <c r="A31" s="1" t="s">
         <v>42</v>
       </c>
@@ -4410,7 +4317,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12">
       <c r="A32" s="1" t="s">
         <v>43</v>
       </c>
@@ -4421,7 +4328,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12">
       <c r="A33" s="1" t="s">
         <v>44</v>
       </c>
@@ -4432,7 +4339,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12">
       <c r="A34" s="1" t="s">
         <v>45</v>
       </c>
@@ -4443,7 +4350,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12">
       <c r="A35" s="1" t="s">
         <v>46</v>
       </c>
@@ -4453,9 +4360,6 @@
       <c r="C35" t="s">
         <v>543</v>
       </c>
-      <c r="E35" t="s">
-        <v>543</v>
-      </c>
       <c r="G35" t="s">
         <v>1011</v>
       </c>
@@ -4466,7 +4370,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12">
       <c r="A36" s="1" t="s">
         <v>47</v>
       </c>
@@ -4483,7 +4387,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12">
       <c r="A37" s="1" t="s">
         <v>48</v>
       </c>
@@ -4494,7 +4398,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12">
       <c r="A38" s="1" t="s">
         <v>49</v>
       </c>
@@ -4505,7 +4409,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12">
       <c r="A39" s="1" t="s">
         <v>50</v>
       </c>
@@ -4516,7 +4420,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12">
       <c r="A40" s="1" t="s">
         <v>51</v>
       </c>
@@ -4527,7 +4431,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12">
       <c r="A41" s="1" t="s">
         <v>52</v>
       </c>
@@ -4541,7 +4445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12">
       <c r="A42" s="1" t="s">
         <v>53</v>
       </c>
@@ -4552,7 +4456,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12">
       <c r="A43" s="1" t="s">
         <v>54</v>
       </c>
@@ -4563,7 +4467,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12">
       <c r="A44" s="1" t="s">
         <v>55</v>
       </c>
@@ -4573,9 +4477,6 @@
       <c r="C44" t="s">
         <v>552</v>
       </c>
-      <c r="E44" t="s">
-        <v>552</v>
-      </c>
       <c r="G44" t="s">
         <v>1013</v>
       </c>
@@ -4583,7 +4484,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12">
       <c r="A45" s="1" t="s">
         <v>56</v>
       </c>
@@ -4594,7 +4495,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12">
       <c r="A46" s="1" t="s">
         <v>57</v>
       </c>
@@ -4605,7 +4506,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12">
       <c r="A47" s="1" t="s">
         <v>58</v>
       </c>
@@ -4622,7 +4523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12">
       <c r="A48" s="1" t="s">
         <v>59</v>
       </c>
@@ -4633,7 +4534,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13">
       <c r="A49" s="1" t="s">
         <v>60</v>
       </c>
@@ -4643,9 +4544,6 @@
       <c r="C49" t="s">
         <v>557</v>
       </c>
-      <c r="E49" t="s">
-        <v>557</v>
-      </c>
       <c r="G49" t="s">
         <v>1014</v>
       </c>
@@ -4653,7 +4551,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13">
       <c r="A50" s="1" t="s">
         <v>61</v>
       </c>
@@ -4670,7 +4568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13">
       <c r="A51" s="1" t="s">
         <v>62</v>
       </c>
@@ -4680,14 +4578,11 @@
       <c r="C51" t="s">
         <v>559</v>
       </c>
-      <c r="E51" t="s">
-        <v>559</v>
-      </c>
       <c r="H51" t="s">
         <v>1108</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13">
       <c r="A52" s="1" t="s">
         <v>63</v>
       </c>
@@ -4697,9 +4592,6 @@
       <c r="C52" t="s">
         <v>560</v>
       </c>
-      <c r="E52" t="s">
-        <v>560</v>
-      </c>
       <c r="H52" t="s">
         <v>1109</v>
       </c>
@@ -4707,7 +4599,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13">
       <c r="A53" s="1" t="s">
         <v>64</v>
       </c>
@@ -4718,7 +4610,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13">
       <c r="A54" s="1" t="s">
         <v>65</v>
       </c>
@@ -4728,14 +4620,11 @@
       <c r="C54" t="s">
         <v>562</v>
       </c>
-      <c r="E54" t="s">
-        <v>562</v>
-      </c>
       <c r="H54" t="s">
         <v>1109</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13">
       <c r="A55" s="1" t="s">
         <v>66</v>
       </c>
@@ -4745,14 +4634,11 @@
       <c r="C55" t="s">
         <v>563</v>
       </c>
-      <c r="E55" t="s">
-        <v>563</v>
-      </c>
       <c r="M55">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13">
       <c r="A56" s="1" t="s">
         <v>67</v>
       </c>
@@ -4763,7 +4649,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13">
       <c r="A57" s="1" t="s">
         <v>68</v>
       </c>
@@ -4774,7 +4660,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13">
       <c r="A58" s="1" t="s">
         <v>69</v>
       </c>
@@ -4785,7 +4671,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13">
       <c r="A59" s="1" t="s">
         <v>70</v>
       </c>
@@ -4796,7 +4682,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13">
       <c r="A60" s="1" t="s">
         <v>71</v>
       </c>
@@ -4806,11 +4692,8 @@
       <c r="C60" t="s">
         <v>568</v>
       </c>
-      <c r="E60" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" s="1" t="s">
         <v>72</v>
       </c>
@@ -4820,9 +4703,6 @@
       <c r="C61" t="s">
         <v>569</v>
       </c>
-      <c r="E61" t="s">
-        <v>569</v>
-      </c>
       <c r="G61" t="s">
         <v>1015</v>
       </c>
@@ -4833,7 +4713,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13">
       <c r="A62" s="1" t="s">
         <v>73</v>
       </c>
@@ -4843,14 +4723,11 @@
       <c r="C62" t="s">
         <v>570</v>
       </c>
-      <c r="E62" t="s">
-        <v>570</v>
-      </c>
       <c r="H62" t="s">
         <v>1109</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13">
       <c r="A63" s="1" t="s">
         <v>74</v>
       </c>
@@ -4860,9 +4737,6 @@
       <c r="C63" t="s">
         <v>571</v>
       </c>
-      <c r="E63" t="s">
-        <v>571</v>
-      </c>
       <c r="G63" t="s">
         <v>1016</v>
       </c>
@@ -4873,7 +4747,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13">
       <c r="A64" s="1" t="s">
         <v>75</v>
       </c>
@@ -4883,9 +4757,6 @@
       <c r="C64" t="s">
         <v>572</v>
       </c>
-      <c r="E64" t="s">
-        <v>572</v>
-      </c>
       <c r="H64" t="s">
         <v>1109</v>
       </c>
@@ -4893,7 +4764,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12">
       <c r="A65" s="1" t="s">
         <v>76</v>
       </c>
@@ -4913,7 +4784,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12">
       <c r="A66" s="1" t="s">
         <v>77</v>
       </c>
@@ -4924,7 +4795,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12">
       <c r="A67" s="1" t="s">
         <v>78</v>
       </c>
@@ -4938,7 +4809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12">
       <c r="A68" s="1" t="s">
         <v>79</v>
       </c>
@@ -4949,7 +4820,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12">
       <c r="A69" s="1" t="s">
         <v>80</v>
       </c>
@@ -4959,14 +4830,11 @@
       <c r="C69" t="s">
         <v>577</v>
       </c>
-      <c r="E69" t="s">
-        <v>577</v>
-      </c>
       <c r="I69" t="s">
         <v>1144</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12">
       <c r="A70" s="1" t="s">
         <v>81</v>
       </c>
@@ -4976,14 +4844,11 @@
       <c r="C70" t="s">
         <v>578</v>
       </c>
-      <c r="E70" t="s">
-        <v>578</v>
-      </c>
       <c r="I70" t="s">
         <v>1135</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12">
       <c r="A71" s="1" t="s">
         <v>82</v>
       </c>
@@ -4993,9 +4858,6 @@
       <c r="C71" t="s">
         <v>579</v>
       </c>
-      <c r="E71" t="s">
-        <v>579</v>
-      </c>
       <c r="G71" t="s">
         <v>1017</v>
       </c>
@@ -5003,7 +4865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12">
       <c r="A72" s="1" t="s">
         <v>83</v>
       </c>
@@ -5013,9 +4875,6 @@
       <c r="C72" t="s">
         <v>580</v>
       </c>
-      <c r="E72" t="s">
-        <v>580</v>
-      </c>
       <c r="G72" t="s">
         <v>1018</v>
       </c>
@@ -5023,7 +4882,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12">
       <c r="A73" s="1" t="s">
         <v>84</v>
       </c>
@@ -5037,7 +4896,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12">
       <c r="A74" s="1" t="s">
         <v>85</v>
       </c>
@@ -5047,11 +4906,8 @@
       <c r="C74" t="s">
         <v>582</v>
       </c>
-      <c r="E74" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:12">
       <c r="A75" s="1" t="s">
         <v>86</v>
       </c>
@@ -5065,7 +4921,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12">
       <c r="A76" s="1" t="s">
         <v>87</v>
       </c>
@@ -5075,9 +4931,6 @@
       <c r="C76" t="s">
         <v>584</v>
       </c>
-      <c r="E76" t="s">
-        <v>584</v>
-      </c>
       <c r="G76" t="s">
         <v>1019</v>
       </c>
@@ -5085,7 +4938,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12">
       <c r="A77" s="1" t="s">
         <v>88</v>
       </c>
@@ -5095,14 +4948,11 @@
       <c r="C77" t="s">
         <v>585</v>
       </c>
-      <c r="E77" t="s">
-        <v>585</v>
-      </c>
       <c r="I77" t="s">
         <v>1139</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12">
       <c r="A78" s="1" t="s">
         <v>89</v>
       </c>
@@ -5112,9 +4962,6 @@
       <c r="C78" t="s">
         <v>586</v>
       </c>
-      <c r="E78" t="s">
-        <v>586</v>
-      </c>
       <c r="G78" t="s">
         <v>1020</v>
       </c>
@@ -5122,7 +4969,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12">
       <c r="A79" s="1" t="s">
         <v>90</v>
       </c>
@@ -5139,7 +4986,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12">
       <c r="A80" s="1" t="s">
         <v>91</v>
       </c>
@@ -5149,14 +4996,11 @@
       <c r="C80" t="s">
         <v>588</v>
       </c>
-      <c r="E80" t="s">
-        <v>588</v>
-      </c>
       <c r="L80">
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12">
       <c r="A81" s="1" t="s">
         <v>92</v>
       </c>
@@ -5166,9 +5010,6 @@
       <c r="C81" t="s">
         <v>589</v>
       </c>
-      <c r="E81" t="s">
-        <v>589</v>
-      </c>
       <c r="G81" t="s">
         <v>1021</v>
       </c>
@@ -5179,7 +5020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12">
       <c r="A82" s="1" t="s">
         <v>93</v>
       </c>
@@ -5189,9 +5030,6 @@
       <c r="C82" t="s">
         <v>590</v>
       </c>
-      <c r="E82" t="s">
-        <v>590</v>
-      </c>
       <c r="G82" t="s">
         <v>1022</v>
       </c>
@@ -5199,7 +5037,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12">
       <c r="A83" s="1" t="s">
         <v>94</v>
       </c>
@@ -5209,9 +5047,6 @@
       <c r="C83" t="s">
         <v>591</v>
       </c>
-      <c r="E83" t="s">
-        <v>591</v>
-      </c>
       <c r="G83" t="s">
         <v>1023</v>
       </c>
@@ -5219,7 +5054,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12">
       <c r="A84" s="1" t="s">
         <v>95</v>
       </c>
@@ -5229,9 +5064,6 @@
       <c r="C84" t="s">
         <v>592</v>
       </c>
-      <c r="E84" t="s">
-        <v>592</v>
-      </c>
       <c r="G84" t="s">
         <v>1024</v>
       </c>
@@ -5239,7 +5071,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12">
       <c r="A85" s="1" t="s">
         <v>96</v>
       </c>
@@ -5249,9 +5081,6 @@
       <c r="C85" t="s">
         <v>593</v>
       </c>
-      <c r="E85" t="s">
-        <v>593</v>
-      </c>
       <c r="G85" t="s">
         <v>1025</v>
       </c>
@@ -5259,7 +5088,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12">
       <c r="A86" s="1" t="s">
         <v>97</v>
       </c>
@@ -5269,9 +5098,6 @@
       <c r="C86" t="s">
         <v>594</v>
       </c>
-      <c r="E86" t="s">
-        <v>594</v>
-      </c>
       <c r="G86" t="s">
         <v>1026</v>
       </c>
@@ -5279,7 +5105,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12">
       <c r="A87" s="1" t="s">
         <v>98</v>
       </c>
@@ -5289,9 +5115,6 @@
       <c r="C87" t="s">
         <v>595</v>
       </c>
-      <c r="E87" t="s">
-        <v>595</v>
-      </c>
       <c r="G87" t="s">
         <v>1027</v>
       </c>
@@ -5299,7 +5122,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12">
       <c r="A88" s="1" t="s">
         <v>99</v>
       </c>
@@ -5309,9 +5132,6 @@
       <c r="C88" t="s">
         <v>596</v>
       </c>
-      <c r="E88" t="s">
-        <v>596</v>
-      </c>
       <c r="G88" t="s">
         <v>1028</v>
       </c>
@@ -5319,7 +5139,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12">
       <c r="A89" s="1" t="s">
         <v>100</v>
       </c>
@@ -5329,9 +5149,6 @@
       <c r="C89" t="s">
         <v>597</v>
       </c>
-      <c r="E89" t="s">
-        <v>597</v>
-      </c>
       <c r="G89" t="s">
         <v>1029</v>
       </c>
@@ -5339,7 +5156,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12">
       <c r="A90" s="1" t="s">
         <v>101</v>
       </c>
@@ -5349,9 +5166,6 @@
       <c r="C90" t="s">
         <v>598</v>
       </c>
-      <c r="E90" t="s">
-        <v>598</v>
-      </c>
       <c r="G90" t="s">
         <v>1030</v>
       </c>
@@ -5359,7 +5173,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12">
       <c r="A91" s="1" t="s">
         <v>102</v>
       </c>
@@ -5369,9 +5183,6 @@
       <c r="C91" t="s">
         <v>599</v>
       </c>
-      <c r="E91" t="s">
-        <v>599</v>
-      </c>
       <c r="G91" t="s">
         <v>1031</v>
       </c>
@@ -5379,7 +5190,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12">
       <c r="A92" s="1" t="s">
         <v>103</v>
       </c>
@@ -5389,9 +5200,6 @@
       <c r="C92" t="s">
         <v>600</v>
       </c>
-      <c r="E92" t="s">
-        <v>600</v>
-      </c>
       <c r="G92" t="s">
         <v>1032</v>
       </c>
@@ -5399,7 +5207,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12">
       <c r="A93" s="1" t="s">
         <v>104</v>
       </c>
@@ -5409,9 +5217,6 @@
       <c r="C93" t="s">
         <v>601</v>
       </c>
-      <c r="E93" t="s">
-        <v>601</v>
-      </c>
       <c r="G93" t="s">
         <v>1033</v>
       </c>
@@ -5419,7 +5224,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12">
       <c r="A94" s="1" t="s">
         <v>105</v>
       </c>
@@ -5429,9 +5234,6 @@
       <c r="C94" t="s">
         <v>602</v>
       </c>
-      <c r="E94" t="s">
-        <v>602</v>
-      </c>
       <c r="G94" t="s">
         <v>1034</v>
       </c>
@@ -5439,7 +5241,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12">
       <c r="A95" s="1" t="s">
         <v>106</v>
       </c>
@@ -5449,9 +5251,6 @@
       <c r="C95" t="s">
         <v>603</v>
       </c>
-      <c r="E95" t="s">
-        <v>603</v>
-      </c>
       <c r="G95" t="s">
         <v>1035</v>
       </c>
@@ -5459,7 +5258,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12">
       <c r="A96" s="1" t="s">
         <v>107</v>
       </c>
@@ -5469,9 +5268,6 @@
       <c r="C96" t="s">
         <v>604</v>
       </c>
-      <c r="E96" t="s">
-        <v>604</v>
-      </c>
       <c r="G96" t="s">
         <v>1036</v>
       </c>
@@ -5479,7 +5275,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
         <v>108</v>
       </c>
@@ -5489,9 +5285,6 @@
       <c r="C97" t="s">
         <v>605</v>
       </c>
-      <c r="E97" t="s">
-        <v>605</v>
-      </c>
       <c r="G97" t="s">
         <v>1037</v>
       </c>
@@ -5499,7 +5292,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
         <v>109</v>
       </c>
@@ -5509,9 +5302,6 @@
       <c r="C98" t="s">
         <v>606</v>
       </c>
-      <c r="E98" t="s">
-        <v>606</v>
-      </c>
       <c r="G98" t="s">
         <v>1038</v>
       </c>
@@ -5519,7 +5309,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
         <v>110</v>
       </c>
@@ -5529,9 +5319,6 @@
       <c r="C99" t="s">
         <v>607</v>
       </c>
-      <c r="E99" t="s">
-        <v>607</v>
-      </c>
       <c r="G99" t="s">
         <v>1039</v>
       </c>
@@ -5539,7 +5326,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
         <v>111</v>
       </c>
@@ -5549,9 +5336,6 @@
       <c r="C100" t="s">
         <v>608</v>
       </c>
-      <c r="E100" t="s">
-        <v>608</v>
-      </c>
       <c r="G100" t="s">
         <v>1040</v>
       </c>
@@ -5559,7 +5343,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
         <v>112</v>
       </c>
@@ -5569,9 +5353,6 @@
       <c r="C101" t="s">
         <v>609</v>
       </c>
-      <c r="E101" t="s">
-        <v>609</v>
-      </c>
       <c r="G101" t="s">
         <v>1041</v>
       </c>
@@ -5579,7 +5360,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
         <v>113</v>
       </c>
@@ -5589,9 +5370,6 @@
       <c r="C102" t="s">
         <v>610</v>
       </c>
-      <c r="E102" t="s">
-        <v>610</v>
-      </c>
       <c r="G102" t="s">
         <v>1042</v>
       </c>
@@ -5599,7 +5377,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
         <v>114</v>
       </c>
@@ -5609,9 +5387,6 @@
       <c r="C103" t="s">
         <v>611</v>
       </c>
-      <c r="E103" t="s">
-        <v>611</v>
-      </c>
       <c r="G103" t="s">
         <v>1043</v>
       </c>
@@ -5619,7 +5394,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
         <v>115</v>
       </c>
@@ -5629,9 +5404,6 @@
       <c r="C104" t="s">
         <v>612</v>
       </c>
-      <c r="E104" t="s">
-        <v>612</v>
-      </c>
       <c r="G104" t="s">
         <v>1044</v>
       </c>
@@ -5639,7 +5411,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8">
       <c r="A105" s="1" t="s">
         <v>116</v>
       </c>
@@ -5649,9 +5421,6 @@
       <c r="C105" t="s">
         <v>613</v>
       </c>
-      <c r="E105" t="s">
-        <v>613</v>
-      </c>
       <c r="G105" t="s">
         <v>1045</v>
       </c>
@@ -5659,7 +5428,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8">
       <c r="A106" s="1" t="s">
         <v>117</v>
       </c>
@@ -5669,9 +5438,6 @@
       <c r="C106" t="s">
         <v>614</v>
       </c>
-      <c r="E106" t="s">
-        <v>614</v>
-      </c>
       <c r="G106" t="s">
         <v>1046</v>
       </c>
@@ -5679,7 +5445,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8">
       <c r="A107" s="1" t="s">
         <v>118</v>
       </c>
@@ -5689,9 +5455,6 @@
       <c r="C107" t="s">
         <v>615</v>
       </c>
-      <c r="E107" t="s">
-        <v>615</v>
-      </c>
       <c r="G107" t="s">
         <v>1047</v>
       </c>
@@ -5699,7 +5462,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8">
       <c r="A108" s="1" t="s">
         <v>119</v>
       </c>
@@ -5709,9 +5472,6 @@
       <c r="C108" t="s">
         <v>616</v>
       </c>
-      <c r="E108" t="s">
-        <v>616</v>
-      </c>
       <c r="G108" t="s">
         <v>1048</v>
       </c>
@@ -5719,7 +5479,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8">
       <c r="A109" s="1" t="s">
         <v>120</v>
       </c>
@@ -5729,9 +5489,6 @@
       <c r="C109" t="s">
         <v>617</v>
       </c>
-      <c r="E109" t="s">
-        <v>617</v>
-      </c>
       <c r="G109" t="s">
         <v>1049</v>
       </c>
@@ -5739,7 +5496,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8">
       <c r="A110" s="1" t="s">
         <v>121</v>
       </c>
@@ -5749,9 +5506,6 @@
       <c r="C110" t="s">
         <v>618</v>
       </c>
-      <c r="E110" t="s">
-        <v>618</v>
-      </c>
       <c r="G110" t="s">
         <v>1050</v>
       </c>
@@ -5759,7 +5513,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8">
       <c r="A111" s="1" t="s">
         <v>122</v>
       </c>
@@ -5769,9 +5523,6 @@
       <c r="C111" t="s">
         <v>619</v>
       </c>
-      <c r="E111" t="s">
-        <v>619</v>
-      </c>
       <c r="G111" t="s">
         <v>1051</v>
       </c>
@@ -5779,7 +5530,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8">
       <c r="A112" s="1" t="s">
         <v>123</v>
       </c>
@@ -5789,9 +5540,6 @@
       <c r="C112" t="s">
         <v>620</v>
       </c>
-      <c r="E112" t="s">
-        <v>620</v>
-      </c>
       <c r="G112" t="s">
         <v>1052</v>
       </c>
@@ -5799,7 +5547,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12">
       <c r="A113" s="1" t="s">
         <v>124</v>
       </c>
@@ -5809,9 +5557,6 @@
       <c r="C113" t="s">
         <v>621</v>
       </c>
-      <c r="E113" t="s">
-        <v>621</v>
-      </c>
       <c r="G113" t="s">
         <v>1053</v>
       </c>
@@ -5819,7 +5564,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12">
       <c r="A114" s="1" t="s">
         <v>125</v>
       </c>
@@ -5829,14 +5574,11 @@
       <c r="C114" t="s">
         <v>622</v>
       </c>
-      <c r="E114" t="s">
-        <v>622</v>
-      </c>
       <c r="L114">
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12">
       <c r="A115" s="1" t="s">
         <v>126</v>
       </c>
@@ -5846,9 +5588,6 @@
       <c r="C115" t="s">
         <v>623</v>
       </c>
-      <c r="E115" t="s">
-        <v>623</v>
-      </c>
       <c r="G115" t="s">
         <v>1054</v>
       </c>
@@ -5856,7 +5595,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12">
       <c r="A116" s="1" t="s">
         <v>127</v>
       </c>
@@ -5866,9 +5605,6 @@
       <c r="C116" t="s">
         <v>624</v>
       </c>
-      <c r="E116" t="s">
-        <v>624</v>
-      </c>
       <c r="G116" t="s">
         <v>1055</v>
       </c>
@@ -5876,7 +5612,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12">
       <c r="A117" s="1" t="s">
         <v>128</v>
       </c>
@@ -5886,9 +5622,6 @@
       <c r="C117" t="s">
         <v>625</v>
       </c>
-      <c r="E117" t="s">
-        <v>625</v>
-      </c>
       <c r="G117" t="s">
         <v>1056</v>
       </c>
@@ -5896,7 +5629,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12">
       <c r="A118" s="1" t="s">
         <v>129</v>
       </c>
@@ -5906,9 +5639,6 @@
       <c r="C118" t="s">
         <v>626</v>
       </c>
-      <c r="E118" t="s">
-        <v>626</v>
-      </c>
       <c r="G118" t="s">
         <v>1057</v>
       </c>
@@ -5916,7 +5646,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12">
       <c r="A119" s="1" t="s">
         <v>130</v>
       </c>
@@ -5926,14 +5656,11 @@
       <c r="C119" t="s">
         <v>627</v>
       </c>
-      <c r="E119" t="s">
-        <v>627</v>
-      </c>
       <c r="L119">
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12">
       <c r="A120" s="1" t="s">
         <v>131</v>
       </c>
@@ -5943,14 +5670,11 @@
       <c r="C120" t="s">
         <v>628</v>
       </c>
-      <c r="E120" t="s">
-        <v>628</v>
-      </c>
       <c r="L120">
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12">
       <c r="A121" s="1" t="s">
         <v>132</v>
       </c>
@@ -5960,11 +5684,8 @@
       <c r="C121" t="s">
         <v>629</v>
       </c>
-      <c r="E121" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:12">
       <c r="A122" s="1" t="s">
         <v>133</v>
       </c>
@@ -5974,11 +5695,8 @@
       <c r="C122" t="s">
         <v>630</v>
       </c>
-      <c r="E122" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:12">
       <c r="A123" s="1" t="s">
         <v>134</v>
       </c>
@@ -5988,11 +5706,8 @@
       <c r="C123" t="s">
         <v>631</v>
       </c>
-      <c r="E123" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="1:12">
       <c r="A124" s="1" t="s">
         <v>135</v>
       </c>
@@ -6002,11 +5717,8 @@
       <c r="C124" t="s">
         <v>632</v>
       </c>
-      <c r="E124" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="1:12">
       <c r="A125" s="1" t="s">
         <v>136</v>
       </c>
@@ -6016,11 +5728,8 @@
       <c r="C125" t="s">
         <v>633</v>
       </c>
-      <c r="E125" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:12">
       <c r="A126" s="1" t="s">
         <v>137</v>
       </c>
@@ -6030,11 +5739,8 @@
       <c r="C126" t="s">
         <v>634</v>
       </c>
-      <c r="E126" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:12">
       <c r="A127" s="1" t="s">
         <v>138</v>
       </c>
@@ -6044,11 +5750,8 @@
       <c r="C127" t="s">
         <v>635</v>
       </c>
-      <c r="E127" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="1:12">
       <c r="A128" s="1" t="s">
         <v>139</v>
       </c>
@@ -6058,11 +5761,8 @@
       <c r="C128" t="s">
         <v>636</v>
       </c>
-      <c r="E128" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="1:12">
       <c r="A129" s="1" t="s">
         <v>140</v>
       </c>
@@ -6073,7 +5773,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12">
       <c r="A130" s="1" t="s">
         <v>141</v>
       </c>
@@ -6087,7 +5787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12">
       <c r="A131" s="1" t="s">
         <v>142</v>
       </c>
@@ -6101,7 +5801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12">
       <c r="A132" s="1" t="s">
         <v>143</v>
       </c>
@@ -6115,7 +5815,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12">
       <c r="A133" s="1" t="s">
         <v>144</v>
       </c>
@@ -6129,7 +5829,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12">
       <c r="A134" s="1" t="s">
         <v>145</v>
       </c>
@@ -6143,7 +5843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12">
       <c r="A135" s="1" t="s">
         <v>146</v>
       </c>
@@ -6157,7 +5857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12">
       <c r="A136" s="1" t="s">
         <v>147</v>
       </c>
@@ -6168,7 +5868,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12">
       <c r="A137" s="1" t="s">
         <v>148</v>
       </c>
@@ -6179,7 +5879,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12">
       <c r="A138" s="1" t="s">
         <v>149</v>
       </c>
@@ -6190,7 +5890,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12">
       <c r="A139" s="1" t="s">
         <v>150</v>
       </c>
@@ -6201,7 +5901,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12">
       <c r="A140" s="1" t="s">
         <v>151</v>
       </c>
@@ -6212,7 +5912,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12">
       <c r="A141" s="1" t="s">
         <v>152</v>
       </c>
@@ -6222,14 +5922,11 @@
       <c r="C141" t="s">
         <v>649</v>
       </c>
-      <c r="E141" t="s">
-        <v>649</v>
-      </c>
       <c r="H141" t="s">
         <v>1111</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12">
       <c r="A142" s="1" t="s">
         <v>153</v>
       </c>
@@ -6240,7 +5937,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12">
       <c r="A143" s="1" t="s">
         <v>154</v>
       </c>
@@ -6251,7 +5948,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12">
       <c r="A144" s="1" t="s">
         <v>155</v>
       </c>
@@ -6268,7 +5965,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="s">
         <v>156</v>
       </c>
@@ -6278,11 +5975,8 @@
       <c r="C145" t="s">
         <v>653</v>
       </c>
-      <c r="E145" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="s">
         <v>157</v>
       </c>
@@ -6293,7 +5987,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="s">
         <v>158</v>
       </c>
@@ -6303,9 +5997,6 @@
       <c r="C147" t="s">
         <v>655</v>
       </c>
-      <c r="E147" t="s">
-        <v>655</v>
-      </c>
       <c r="G147" t="s">
         <v>1059</v>
       </c>
@@ -6313,7 +6004,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="s">
         <v>159</v>
       </c>
@@ -6324,7 +6015,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9">
       <c r="A149" s="1" t="s">
         <v>160</v>
       </c>
@@ -6335,7 +6026,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9">
       <c r="A150" s="1" t="s">
         <v>161</v>
       </c>
@@ -6345,14 +6036,11 @@
       <c r="C150" t="s">
         <v>658</v>
       </c>
-      <c r="E150" t="s">
-        <v>658</v>
-      </c>
       <c r="I150" t="s">
         <v>1139</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9">
       <c r="A151" s="1" t="s">
         <v>162</v>
       </c>
@@ -6363,7 +6051,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9">
       <c r="A152" s="1" t="s">
         <v>163</v>
       </c>
@@ -6374,7 +6062,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9">
       <c r="A153" s="1" t="s">
         <v>164</v>
       </c>
@@ -6385,7 +6073,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9">
       <c r="A154" s="1" t="s">
         <v>165</v>
       </c>
@@ -6396,7 +6084,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9">
       <c r="A155" s="1" t="s">
         <v>166</v>
       </c>
@@ -6406,14 +6094,11 @@
       <c r="C155" t="s">
         <v>663</v>
       </c>
-      <c r="E155" t="s">
-        <v>663</v>
-      </c>
       <c r="I155" t="s">
         <v>1149</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9">
       <c r="A156" s="1" t="s">
         <v>167</v>
       </c>
@@ -6424,7 +6109,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9">
       <c r="A157" s="1" t="s">
         <v>168</v>
       </c>
@@ -6434,9 +6119,6 @@
       <c r="C157" t="s">
         <v>665</v>
       </c>
-      <c r="E157" t="s">
-        <v>665</v>
-      </c>
       <c r="G157" t="s">
         <v>1060</v>
       </c>
@@ -6444,7 +6126,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9">
       <c r="A158" s="1" t="s">
         <v>169</v>
       </c>
@@ -6461,7 +6143,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9">
       <c r="A159" s="1" t="s">
         <v>170</v>
       </c>
@@ -6475,7 +6157,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9">
       <c r="A160" s="1" t="s">
         <v>171</v>
       </c>
@@ -6489,7 +6171,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12">
       <c r="A161" s="1" t="s">
         <v>172</v>
       </c>
@@ -6499,11 +6181,8 @@
       <c r="C161" t="s">
         <v>669</v>
       </c>
-      <c r="E161" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="162" spans="1:12">
       <c r="A162" s="1" t="s">
         <v>173</v>
       </c>
@@ -6513,9 +6192,6 @@
       <c r="C162" t="s">
         <v>670</v>
       </c>
-      <c r="E162" t="s">
-        <v>670</v>
-      </c>
       <c r="G162" t="s">
         <v>1061</v>
       </c>
@@ -6523,7 +6199,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12">
       <c r="A163" s="1" t="s">
         <v>174</v>
       </c>
@@ -6534,7 +6210,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12">
       <c r="A164" s="1" t="s">
         <v>175</v>
       </c>
@@ -6545,7 +6221,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12">
       <c r="A165" s="1" t="s">
         <v>176</v>
       </c>
@@ -6559,7 +6235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12">
       <c r="A166" s="1" t="s">
         <v>177</v>
       </c>
@@ -6569,14 +6245,11 @@
       <c r="C166" t="s">
         <v>674</v>
       </c>
-      <c r="E166" t="s">
-        <v>674</v>
-      </c>
       <c r="I166" t="s">
         <v>1141</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12">
       <c r="A167" s="1" t="s">
         <v>178</v>
       </c>
@@ -6586,9 +6259,6 @@
       <c r="C167" t="s">
         <v>675</v>
       </c>
-      <c r="E167" t="s">
-        <v>675</v>
-      </c>
       <c r="G167" t="s">
         <v>1062</v>
       </c>
@@ -6596,7 +6266,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12">
       <c r="A168" s="1" t="s">
         <v>179</v>
       </c>
@@ -6607,7 +6277,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12">
       <c r="A169" s="1" t="s">
         <v>180</v>
       </c>
@@ -6617,11 +6287,8 @@
       <c r="C169" t="s">
         <v>677</v>
       </c>
-      <c r="E169" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="170" spans="1:12">
       <c r="A170" s="1" t="s">
         <v>181</v>
       </c>
@@ -6632,7 +6299,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12">
       <c r="A171" s="1" t="s">
         <v>182</v>
       </c>
@@ -6642,14 +6309,11 @@
       <c r="C171" t="s">
         <v>679</v>
       </c>
-      <c r="E171" t="s">
-        <v>679</v>
-      </c>
       <c r="I171" t="s">
         <v>1150</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12">
       <c r="A172" s="1" t="s">
         <v>183</v>
       </c>
@@ -6663,7 +6327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12">
       <c r="A173" s="1" t="s">
         <v>184</v>
       </c>
@@ -6674,7 +6338,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12">
       <c r="A174" s="1" t="s">
         <v>185</v>
       </c>
@@ -6685,7 +6349,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12">
       <c r="A175" s="1" t="s">
         <v>186</v>
       </c>
@@ -6695,11 +6359,8 @@
       <c r="C175" t="s">
         <v>683</v>
       </c>
-      <c r="E175" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="176" spans="1:12">
       <c r="A176" s="1" t="s">
         <v>187</v>
       </c>
@@ -6709,14 +6370,11 @@
       <c r="C176" t="s">
         <v>684</v>
       </c>
-      <c r="E176" t="s">
-        <v>684</v>
-      </c>
       <c r="I176" t="s">
         <v>1149</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9">
       <c r="A177" s="1" t="s">
         <v>188</v>
       </c>
@@ -6727,7 +6385,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9">
       <c r="A178" s="1" t="s">
         <v>189</v>
       </c>
@@ -6738,7 +6396,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9">
       <c r="A179" s="1" t="s">
         <v>190</v>
       </c>
@@ -6749,7 +6407,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9">
       <c r="A180" s="1" t="s">
         <v>191</v>
       </c>
@@ -6760,7 +6418,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9">
       <c r="A181" s="1" t="s">
         <v>192</v>
       </c>
@@ -6771,7 +6429,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9">
       <c r="A182" s="1" t="s">
         <v>193</v>
       </c>
@@ -6782,7 +6440,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9">
       <c r="A183" s="1" t="s">
         <v>194</v>
       </c>
@@ -6792,9 +6450,6 @@
       <c r="C183" t="s">
         <v>691</v>
       </c>
-      <c r="E183" t="s">
-        <v>691</v>
-      </c>
       <c r="G183" t="s">
         <v>1063</v>
       </c>
@@ -6802,7 +6457,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9">
       <c r="A184" s="1" t="s">
         <v>195</v>
       </c>
@@ -6813,7 +6468,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9">
       <c r="A185" s="1" t="s">
         <v>196</v>
       </c>
@@ -6824,7 +6479,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9">
       <c r="A186" s="1" t="s">
         <v>197</v>
       </c>
@@ -6838,7 +6493,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9">
       <c r="A187" s="1" t="s">
         <v>198</v>
       </c>
@@ -6855,7 +6510,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9">
       <c r="A188" s="1" t="s">
         <v>199</v>
       </c>
@@ -6865,11 +6520,8 @@
       <c r="C188" t="s">
         <v>696</v>
       </c>
-      <c r="E188" t="s">
-        <v>1163</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="189" spans="1:9">
       <c r="A189" s="1" t="s">
         <v>200</v>
       </c>
@@ -6880,7 +6532,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9">
       <c r="A190" s="1" t="s">
         <v>201</v>
       </c>
@@ -6894,7 +6546,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9">
       <c r="A191" s="1" t="s">
         <v>202</v>
       </c>
@@ -6905,7 +6557,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9">
       <c r="A192" s="1" t="s">
         <v>203</v>
       </c>
@@ -6916,7 +6568,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3">
       <c r="A193" s="1" t="s">
         <v>204</v>
       </c>
@@ -6927,7 +6579,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3">
       <c r="A194" s="1" t="s">
         <v>205</v>
       </c>
@@ -6938,7 +6590,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3">
       <c r="A195" s="1" t="s">
         <v>206</v>
       </c>
@@ -6949,7 +6601,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3">
       <c r="A196" s="1" t="s">
         <v>207</v>
       </c>
@@ -6960,7 +6612,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3">
       <c r="A197" s="1" t="s">
         <v>208</v>
       </c>
@@ -6971,7 +6623,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3">
       <c r="A198" s="1" t="s">
         <v>209</v>
       </c>
@@ -6982,7 +6634,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3">
       <c r="A199" s="1" t="s">
         <v>210</v>
       </c>
@@ -6993,7 +6645,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3">
       <c r="A200" s="1" t="s">
         <v>211</v>
       </c>
@@ -7004,7 +6656,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3">
       <c r="A201" s="1" t="s">
         <v>212</v>
       </c>
@@ -7015,7 +6667,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3">
       <c r="A202" s="1" t="s">
         <v>213</v>
       </c>
@@ -7025,11 +6677,8 @@
       <c r="C202" t="s">
         <v>710</v>
       </c>
-      <c r="E202" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="203" spans="1:3">
       <c r="A203" s="1" t="s">
         <v>214</v>
       </c>
@@ -7039,11 +6688,8 @@
       <c r="C203" t="s">
         <v>711</v>
       </c>
-      <c r="E203" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="204" spans="1:3">
       <c r="A204" s="1" t="s">
         <v>215</v>
       </c>
@@ -7053,11 +6699,8 @@
       <c r="C204" t="s">
         <v>712</v>
       </c>
-      <c r="E204" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="205" spans="1:3">
       <c r="A205" s="1" t="s">
         <v>216</v>
       </c>
@@ -7067,11 +6710,8 @@
       <c r="C205" t="s">
         <v>713</v>
       </c>
-      <c r="E205" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="206" spans="1:3">
       <c r="A206" s="1" t="s">
         <v>217</v>
       </c>
@@ -7081,11 +6721,8 @@
       <c r="C206" t="s">
         <v>714</v>
       </c>
-      <c r="E206" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="207" spans="1:3">
       <c r="A207" s="1" t="s">
         <v>218</v>
       </c>
@@ -7095,11 +6732,8 @@
       <c r="C207" t="s">
         <v>715</v>
       </c>
-      <c r="E207" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="208" spans="1:3">
       <c r="A208" s="1" t="s">
         <v>219</v>
       </c>
@@ -7109,11 +6743,8 @@
       <c r="C208" t="s">
         <v>716</v>
       </c>
-      <c r="E208" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="209" spans="1:13">
       <c r="A209" s="1" t="s">
         <v>220</v>
       </c>
@@ -7123,11 +6754,8 @@
       <c r="C209" t="s">
         <v>717</v>
       </c>
-      <c r="E209" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="210" spans="1:13">
       <c r="A210" s="1" t="s">
         <v>221</v>
       </c>
@@ -7137,11 +6765,8 @@
       <c r="C210" t="s">
         <v>718</v>
       </c>
-      <c r="E210" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="211" spans="1:13">
       <c r="A211" s="1" t="s">
         <v>222</v>
       </c>
@@ -7151,11 +6776,8 @@
       <c r="C211" t="s">
         <v>719</v>
       </c>
-      <c r="E211" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="212" spans="1:13">
       <c r="A212" s="1" t="s">
         <v>223</v>
       </c>
@@ -7165,11 +6787,8 @@
       <c r="C212" t="s">
         <v>720</v>
       </c>
-      <c r="E212" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="213" spans="1:13">
       <c r="A213" s="1" t="s">
         <v>224</v>
       </c>
@@ -7179,11 +6798,8 @@
       <c r="C213" t="s">
         <v>721</v>
       </c>
-      <c r="E213" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="214" spans="1:13">
       <c r="A214" s="1" t="s">
         <v>225</v>
       </c>
@@ -7193,11 +6809,8 @@
       <c r="C214" t="s">
         <v>722</v>
       </c>
-      <c r="E214" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="215" spans="1:13">
       <c r="A215" s="1" t="s">
         <v>226</v>
       </c>
@@ -7207,11 +6820,8 @@
       <c r="C215" t="s">
         <v>723</v>
       </c>
-      <c r="E215" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="216" spans="1:13">
       <c r="A216" s="1" t="s">
         <v>227</v>
       </c>
@@ -7221,11 +6831,8 @@
       <c r="C216" t="s">
         <v>724</v>
       </c>
-      <c r="E216" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="217" spans="1:13">
       <c r="A217" s="1" t="s">
         <v>228</v>
       </c>
@@ -7235,11 +6842,8 @@
       <c r="C217" t="s">
         <v>725</v>
       </c>
-      <c r="E217" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="218" spans="1:13">
       <c r="A218" s="1" t="s">
         <v>229</v>
       </c>
@@ -7250,7 +6854,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:13">
       <c r="A219" s="1" t="s">
         <v>230</v>
       </c>
@@ -7261,7 +6865,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:13">
       <c r="A220" s="1" t="s">
         <v>231</v>
       </c>
@@ -7272,7 +6876,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:13">
       <c r="A221" s="1" t="s">
         <v>232</v>
       </c>
@@ -7283,7 +6887,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:13">
       <c r="A222" s="1" t="s">
         <v>233</v>
       </c>
@@ -7294,7 +6898,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:13">
       <c r="A223" s="1" t="s">
         <v>234</v>
       </c>
@@ -7308,7 +6912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:13">
       <c r="A224" s="1" t="s">
         <v>235</v>
       </c>
@@ -7319,7 +6923,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5">
       <c r="A225" s="1" t="s">
         <v>236</v>
       </c>
@@ -7330,7 +6934,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5">
       <c r="A226" s="1" t="s">
         <v>237</v>
       </c>
@@ -7341,7 +6945,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5">
       <c r="A227" s="1" t="s">
         <v>238</v>
       </c>
@@ -7352,7 +6956,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5">
       <c r="A228" s="1" t="s">
         <v>239</v>
       </c>
@@ -7363,7 +6967,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5">
       <c r="A229" s="1" t="s">
         <v>240</v>
       </c>
@@ -7374,7 +6978,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5">
       <c r="A230" s="1" t="s">
         <v>241</v>
       </c>
@@ -7385,7 +6989,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5">
       <c r="A231" s="1" t="s">
         <v>242</v>
       </c>
@@ -7396,7 +7000,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5">
       <c r="A232" s="1" t="s">
         <v>243</v>
       </c>
@@ -7407,7 +7011,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5">
       <c r="A233" s="1" t="s">
         <v>244</v>
       </c>
@@ -7418,7 +7022,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5">
       <c r="A234" s="1" t="s">
         <v>245</v>
       </c>
@@ -7429,7 +7033,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5">
       <c r="A235" s="1" t="s">
         <v>246</v>
       </c>
@@ -7440,7 +7044,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5">
       <c r="A236" s="1" t="s">
         <v>247</v>
       </c>
@@ -7451,7 +7055,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5">
       <c r="A237" s="1" t="s">
         <v>248</v>
       </c>
@@ -7462,7 +7066,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5">
       <c r="A238" s="1" t="s">
         <v>249</v>
       </c>
@@ -7473,7 +7077,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5">
       <c r="A239" s="1" t="s">
         <v>250</v>
       </c>
@@ -7484,7 +7088,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5">
       <c r="A240" s="1" t="s">
         <v>251</v>
       </c>
@@ -7498,7 +7102,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9">
       <c r="A241" s="1" t="s">
         <v>252</v>
       </c>
@@ -7508,14 +7112,11 @@
       <c r="C241" t="s">
         <v>749</v>
       </c>
-      <c r="E241" t="s">
-        <v>749</v>
-      </c>
       <c r="G241" t="s">
         <v>1008</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9">
       <c r="A242" s="1" t="s">
         <v>253</v>
       </c>
@@ -7526,7 +7127,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9">
       <c r="A243" s="1" t="s">
         <v>254</v>
       </c>
@@ -7537,7 +7138,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9">
       <c r="A244" s="1" t="s">
         <v>255</v>
       </c>
@@ -7548,7 +7149,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9">
       <c r="A245" s="1" t="s">
         <v>256</v>
       </c>
@@ -7559,7 +7160,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9">
       <c r="A246" s="1" t="s">
         <v>257</v>
       </c>
@@ -7570,7 +7171,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9">
       <c r="A247" s="1" t="s">
         <v>258</v>
       </c>
@@ -7581,7 +7182,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9">
       <c r="A248" s="1" t="s">
         <v>259</v>
       </c>
@@ -7591,11 +7192,8 @@
       <c r="C248" t="s">
         <v>756</v>
       </c>
-      <c r="E248" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="249" spans="1:9">
       <c r="A249" s="1" t="s">
         <v>260</v>
       </c>
@@ -7606,7 +7204,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9">
       <c r="A250" s="1" t="s">
         <v>261</v>
       </c>
@@ -7617,7 +7215,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9">
       <c r="A251" s="1" t="s">
         <v>262</v>
       </c>
@@ -7634,7 +7232,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9">
       <c r="A252" s="1" t="s">
         <v>263</v>
       </c>
@@ -7645,7 +7243,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9">
       <c r="A253" s="1" t="s">
         <v>264</v>
       </c>
@@ -7656,7 +7254,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9">
       <c r="A254" s="1" t="s">
         <v>265</v>
       </c>
@@ -7667,7 +7265,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9">
       <c r="A255" s="1" t="s">
         <v>266</v>
       </c>
@@ -7677,14 +7275,11 @@
       <c r="C255" t="s">
         <v>763</v>
       </c>
-      <c r="E255" t="s">
-        <v>763</v>
-      </c>
       <c r="G255" t="s">
         <v>1066</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9">
       <c r="A256" s="1" t="s">
         <v>267</v>
       </c>
@@ -7694,9 +7289,6 @@
       <c r="C256" t="s">
         <v>764</v>
       </c>
-      <c r="E256" t="s">
-        <v>764</v>
-      </c>
       <c r="G256" t="s">
         <v>1067</v>
       </c>
@@ -7704,7 +7296,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9">
       <c r="A257" s="1" t="s">
         <v>268</v>
       </c>
@@ -7718,7 +7310,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9">
       <c r="A258" s="1" t="s">
         <v>269</v>
       </c>
@@ -7729,7 +7321,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9">
       <c r="A259" s="1" t="s">
         <v>270</v>
       </c>
@@ -7739,11 +7331,8 @@
       <c r="C259" t="s">
         <v>767</v>
       </c>
-      <c r="E259" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="260" spans="1:9">
       <c r="A260" s="1" t="s">
         <v>271</v>
       </c>
@@ -7757,7 +7346,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9">
       <c r="A261" s="1" t="s">
         <v>272</v>
       </c>
@@ -7767,11 +7356,8 @@
       <c r="C261" t="s">
         <v>769</v>
       </c>
-      <c r="E261" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="262" spans="1:9">
       <c r="A262" s="1" t="s">
         <v>273</v>
       </c>
@@ -7781,11 +7367,8 @@
       <c r="C262" t="s">
         <v>770</v>
       </c>
-      <c r="E262" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="263" spans="1:9">
       <c r="A263" s="1" t="s">
         <v>274</v>
       </c>
@@ -7799,7 +7382,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9">
       <c r="A264" s="1" t="s">
         <v>275</v>
       </c>
@@ -7813,7 +7396,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9">
       <c r="A265" s="1" t="s">
         <v>276</v>
       </c>
@@ -7827,7 +7410,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9">
       <c r="A266" s="1" t="s">
         <v>277</v>
       </c>
@@ -7837,14 +7420,11 @@
       <c r="C266" t="s">
         <v>774</v>
       </c>
-      <c r="E266" t="s">
-        <v>774</v>
-      </c>
       <c r="I266" t="s">
         <v>1151</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9">
       <c r="A267" s="1" t="s">
         <v>278</v>
       </c>
@@ -7858,7 +7438,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9">
       <c r="A268" s="1" t="s">
         <v>279</v>
       </c>
@@ -7872,7 +7452,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9">
       <c r="A269" s="1" t="s">
         <v>280</v>
       </c>
@@ -7882,14 +7462,11 @@
       <c r="C269" t="s">
         <v>777</v>
       </c>
-      <c r="E269" t="s">
-        <v>777</v>
-      </c>
       <c r="I269" t="s">
         <v>1139</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9">
       <c r="A270" s="1" t="s">
         <v>281</v>
       </c>
@@ -7899,11 +7476,8 @@
       <c r="C270" t="s">
         <v>778</v>
       </c>
-      <c r="E270" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="271" spans="1:9">
       <c r="A271" s="1" t="s">
         <v>282</v>
       </c>
@@ -7914,7 +7488,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9">
       <c r="A272" s="1" t="s">
         <v>283</v>
       </c>
@@ -7925,7 +7499,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:12">
       <c r="A273" s="1" t="s">
         <v>284</v>
       </c>
@@ -7936,7 +7510,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:12">
       <c r="A274" s="1" t="s">
         <v>285</v>
       </c>
@@ -7950,7 +7524,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:12">
       <c r="A275" s="1" t="s">
         <v>286</v>
       </c>
@@ -7961,7 +7535,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:12">
       <c r="A276" s="1" t="s">
         <v>287</v>
       </c>
@@ -7972,7 +7546,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:12">
       <c r="A277" s="1" t="s">
         <v>288</v>
       </c>
@@ -7983,7 +7557,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:12">
       <c r="A278" s="1" t="s">
         <v>289</v>
       </c>
@@ -7993,9 +7567,6 @@
       <c r="C278" t="s">
         <v>786</v>
       </c>
-      <c r="E278" t="s">
-        <v>786</v>
-      </c>
       <c r="G278" t="s">
         <v>1068</v>
       </c>
@@ -8003,7 +7574,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:12">
       <c r="A279" s="1" t="s">
         <v>290</v>
       </c>
@@ -8014,7 +7585,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:12">
       <c r="A280" s="1" t="s">
         <v>291</v>
       </c>
@@ -8025,7 +7596,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:12">
       <c r="A281" s="1" t="s">
         <v>292</v>
       </c>
@@ -8039,7 +7610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:12">
       <c r="A282" s="1" t="s">
         <v>293</v>
       </c>
@@ -8049,14 +7620,11 @@
       <c r="C282" t="s">
         <v>790</v>
       </c>
-      <c r="E282" t="s">
-        <v>790</v>
-      </c>
       <c r="G282" t="s">
         <v>1069</v>
       </c>
     </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:12">
       <c r="A283" s="1" t="s">
         <v>294</v>
       </c>
@@ -8070,7 +7638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:12">
       <c r="A284" s="1" t="s">
         <v>295</v>
       </c>
@@ -8081,7 +7649,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:12">
       <c r="A285" s="1" t="s">
         <v>296</v>
       </c>
@@ -8092,7 +7660,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:12">
       <c r="A286" s="1" t="s">
         <v>297</v>
       </c>
@@ -8103,7 +7671,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:12">
       <c r="A287" s="1" t="s">
         <v>298</v>
       </c>
@@ -8114,7 +7682,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:12">
       <c r="A288" s="1" t="s">
         <v>299</v>
       </c>
@@ -8125,7 +7693,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:12">
       <c r="A289" s="1" t="s">
         <v>300</v>
       </c>
@@ -8139,7 +7707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:12">
       <c r="A290" s="1" t="s">
         <v>301</v>
       </c>
@@ -8150,7 +7718,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:12">
       <c r="A291" s="1" t="s">
         <v>302</v>
       </c>
@@ -8161,7 +7729,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:12">
       <c r="A292" s="1" t="s">
         <v>303</v>
       </c>
@@ -8171,9 +7739,6 @@
       <c r="C292" t="s">
         <v>800</v>
       </c>
-      <c r="E292" t="s">
-        <v>800</v>
-      </c>
       <c r="G292" t="s">
         <v>1070</v>
       </c>
@@ -8181,7 +7746,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:12">
       <c r="A293" s="1" t="s">
         <v>304</v>
       </c>
@@ -8191,11 +7756,8 @@
       <c r="C293" t="s">
         <v>801</v>
       </c>
-      <c r="E293" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="294" spans="1:12">
       <c r="A294" s="1" t="s">
         <v>305</v>
       </c>
@@ -8206,7 +7768,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:12">
       <c r="A295" s="1" t="s">
         <v>306</v>
       </c>
@@ -8216,9 +7778,6 @@
       <c r="C295" t="s">
         <v>803</v>
       </c>
-      <c r="E295" t="s">
-        <v>803</v>
-      </c>
       <c r="G295" t="s">
         <v>1071</v>
       </c>
@@ -8226,7 +7785,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:12">
       <c r="A296" s="1" t="s">
         <v>307</v>
       </c>
@@ -8236,9 +7795,6 @@
       <c r="C296" t="s">
         <v>804</v>
       </c>
-      <c r="E296" t="s">
-        <v>804</v>
-      </c>
       <c r="G296" t="s">
         <v>1072</v>
       </c>
@@ -8246,7 +7802,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:12">
       <c r="A297" s="1" t="s">
         <v>308</v>
       </c>
@@ -8256,11 +7812,8 @@
       <c r="C297" t="s">
         <v>805</v>
       </c>
-      <c r="E297" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="298" spans="1:12">
       <c r="A298" s="1" t="s">
         <v>309</v>
       </c>
@@ -8270,11 +7823,8 @@
       <c r="C298" t="s">
         <v>806</v>
       </c>
-      <c r="E298" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="299" spans="1:12">
       <c r="A299" s="1" t="s">
         <v>310</v>
       </c>
@@ -8284,11 +7834,8 @@
       <c r="C299" t="s">
         <v>807</v>
       </c>
-      <c r="E299" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="300" spans="1:12">
       <c r="A300" s="1" t="s">
         <v>311</v>
       </c>
@@ -8298,11 +7845,8 @@
       <c r="C300" t="s">
         <v>808</v>
       </c>
-      <c r="E300" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="301" spans="1:12">
       <c r="A301" s="1" t="s">
         <v>312</v>
       </c>
@@ -8312,11 +7856,8 @@
       <c r="C301" t="s">
         <v>809</v>
       </c>
-      <c r="E301" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="302" spans="1:12">
       <c r="A302" s="1" t="s">
         <v>313</v>
       </c>
@@ -8326,11 +7867,8 @@
       <c r="C302" t="s">
         <v>810</v>
       </c>
-      <c r="E302" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="303" spans="1:12">
       <c r="A303" s="1" t="s">
         <v>314</v>
       </c>
@@ -8340,11 +7878,8 @@
       <c r="C303" t="s">
         <v>811</v>
       </c>
-      <c r="E303" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="304" spans="1:12">
       <c r="A304" s="1" t="s">
         <v>315</v>
       </c>
@@ -8354,11 +7889,8 @@
       <c r="C304" t="s">
         <v>812</v>
       </c>
-      <c r="E304" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="305" spans="1:3">
       <c r="A305" s="1" t="s">
         <v>316</v>
       </c>
@@ -8368,11 +7900,8 @@
       <c r="C305" t="s">
         <v>813</v>
       </c>
-      <c r="E305" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="306" spans="1:3">
       <c r="A306" s="1" t="s">
         <v>317</v>
       </c>
@@ -8382,11 +7911,8 @@
       <c r="C306" t="s">
         <v>814</v>
       </c>
-      <c r="E306" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="307" spans="1:3">
       <c r="A307" s="1" t="s">
         <v>318</v>
       </c>
@@ -8396,11 +7922,8 @@
       <c r="C307" t="s">
         <v>815</v>
       </c>
-      <c r="E307" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="308" spans="1:3">
       <c r="A308" s="1" t="s">
         <v>319</v>
       </c>
@@ -8410,11 +7933,8 @@
       <c r="C308" t="s">
         <v>816</v>
       </c>
-      <c r="E308" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="309" spans="1:3">
       <c r="A309" s="1" t="s">
         <v>320</v>
       </c>
@@ -8424,11 +7944,8 @@
       <c r="C309" t="s">
         <v>817</v>
       </c>
-      <c r="E309" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="310" spans="1:3">
       <c r="A310" s="1" t="s">
         <v>321</v>
       </c>
@@ -8438,11 +7955,8 @@
       <c r="C310" t="s">
         <v>818</v>
       </c>
-      <c r="E310" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="311" spans="1:3">
       <c r="A311" s="1" t="s">
         <v>322</v>
       </c>
@@ -8452,11 +7966,8 @@
       <c r="C311" t="s">
         <v>819</v>
       </c>
-      <c r="E311" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="312" spans="1:3">
       <c r="A312" s="1" t="s">
         <v>323</v>
       </c>
@@ -8466,11 +7977,8 @@
       <c r="C312" t="s">
         <v>820</v>
       </c>
-      <c r="E312" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="313" spans="1:3">
       <c r="A313" s="1" t="s">
         <v>324</v>
       </c>
@@ -8480,11 +7988,8 @@
       <c r="C313" t="s">
         <v>821</v>
       </c>
-      <c r="E313" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="314" spans="1:3">
       <c r="A314" s="1" t="s">
         <v>325</v>
       </c>
@@ -8494,11 +7999,8 @@
       <c r="C314" t="s">
         <v>822</v>
       </c>
-      <c r="E314" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="315" spans="1:3">
       <c r="A315" s="1" t="s">
         <v>326</v>
       </c>
@@ -8508,11 +8010,8 @@
       <c r="C315" t="s">
         <v>823</v>
       </c>
-      <c r="E315" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="316" spans="1:3">
       <c r="A316" s="1" t="s">
         <v>327</v>
       </c>
@@ -8522,11 +8021,8 @@
       <c r="C316" t="s">
         <v>824</v>
       </c>
-      <c r="E316" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="317" spans="1:3">
       <c r="A317" s="1" t="s">
         <v>328</v>
       </c>
@@ -8536,11 +8032,8 @@
       <c r="C317" t="s">
         <v>825</v>
       </c>
-      <c r="E317" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="318" spans="1:3">
       <c r="A318" s="1" t="s">
         <v>329</v>
       </c>
@@ -8550,11 +8043,8 @@
       <c r="C318" t="s">
         <v>826</v>
       </c>
-      <c r="E318" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="319" spans="1:3">
       <c r="A319" s="1" t="s">
         <v>330</v>
       </c>
@@ -8564,11 +8054,8 @@
       <c r="C319" t="s">
         <v>827</v>
       </c>
-      <c r="E319" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="320" spans="1:3">
       <c r="A320" s="1" t="s">
         <v>331</v>
       </c>
@@ -8578,11 +8065,8 @@
       <c r="C320" t="s">
         <v>828</v>
       </c>
-      <c r="E320" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="321" spans="1:3">
       <c r="A321" s="1" t="s">
         <v>332</v>
       </c>
@@ -8593,7 +8077,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:3">
       <c r="A322" s="1" t="s">
         <v>333</v>
       </c>
@@ -8603,11 +8087,8 @@
       <c r="C322" t="s">
         <v>830</v>
       </c>
-      <c r="E322" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="323" spans="1:3">
       <c r="A323" s="1" t="s">
         <v>334</v>
       </c>
@@ -8617,11 +8098,8 @@
       <c r="C323" t="s">
         <v>831</v>
       </c>
-      <c r="E323" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="324" spans="1:3">
       <c r="A324" s="1" t="s">
         <v>335</v>
       </c>
@@ -8631,11 +8109,8 @@
       <c r="C324" t="s">
         <v>832</v>
       </c>
-      <c r="E324" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="325" spans="1:3">
       <c r="A325" s="1" t="s">
         <v>336</v>
       </c>
@@ -8645,11 +8120,8 @@
       <c r="C325" t="s">
         <v>833</v>
       </c>
-      <c r="E325" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="326" spans="1:3">
       <c r="A326" s="1" t="s">
         <v>337</v>
       </c>
@@ -8659,11 +8131,8 @@
       <c r="C326" t="s">
         <v>834</v>
       </c>
-      <c r="E326" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="327" spans="1:3">
       <c r="A327" s="1" t="s">
         <v>338</v>
       </c>
@@ -8674,7 +8143,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:3">
       <c r="A328" s="1" t="s">
         <v>339</v>
       </c>
@@ -8684,11 +8153,8 @@
       <c r="C328" t="s">
         <v>836</v>
       </c>
-      <c r="E328" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="329" spans="1:3">
       <c r="A329" s="1" t="s">
         <v>340</v>
       </c>
@@ -8698,11 +8164,8 @@
       <c r="C329" t="s">
         <v>837</v>
       </c>
-      <c r="E329" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="330" spans="1:3">
       <c r="A330" s="1" t="s">
         <v>341</v>
       </c>
@@ -8712,11 +8175,8 @@
       <c r="C330" t="s">
         <v>838</v>
       </c>
-      <c r="E330" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="331" spans="1:3">
       <c r="A331" s="1" t="s">
         <v>342</v>
       </c>
@@ -8726,11 +8186,8 @@
       <c r="C331" t="s">
         <v>839</v>
       </c>
-      <c r="E331" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="332" spans="1:3">
       <c r="A332" s="1" t="s">
         <v>343</v>
       </c>
@@ -8740,11 +8197,8 @@
       <c r="C332" t="s">
         <v>840</v>
       </c>
-      <c r="E332" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="333" spans="1:3">
       <c r="A333" s="1" t="s">
         <v>344</v>
       </c>
@@ -8754,11 +8208,8 @@
       <c r="C333" t="s">
         <v>841</v>
       </c>
-      <c r="E333" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="334" spans="1:3">
       <c r="A334" s="1" t="s">
         <v>345</v>
       </c>
@@ -8768,11 +8219,8 @@
       <c r="C334" t="s">
         <v>842</v>
       </c>
-      <c r="E334" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="335" spans="1:3">
       <c r="A335" s="1" t="s">
         <v>346</v>
       </c>
@@ -8782,11 +8230,8 @@
       <c r="C335" t="s">
         <v>843</v>
       </c>
-      <c r="E335" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="336" spans="1:3">
       <c r="A336" s="1" t="s">
         <v>347</v>
       </c>
@@ -8796,11 +8241,8 @@
       <c r="C336" t="s">
         <v>844</v>
       </c>
-      <c r="E336" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="337" spans="1:3">
       <c r="A337" s="1" t="s">
         <v>348</v>
       </c>
@@ -8811,7 +8253,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:3">
       <c r="A338" s="1" t="s">
         <v>349</v>
       </c>
@@ -8821,11 +8263,8 @@
       <c r="C338" t="s">
         <v>846</v>
       </c>
-      <c r="E338" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="339" spans="1:3">
       <c r="A339" s="1" t="s">
         <v>350</v>
       </c>
@@ -8835,11 +8274,8 @@
       <c r="C339" t="s">
         <v>847</v>
       </c>
-      <c r="E339" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="340" spans="1:3">
       <c r="A340" s="1" t="s">
         <v>351</v>
       </c>
@@ -8850,7 +8286,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:3">
       <c r="A341" s="1" t="s">
         <v>352</v>
       </c>
@@ -8860,11 +8296,8 @@
       <c r="C341" t="s">
         <v>849</v>
       </c>
-      <c r="E341" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="342" spans="1:3">
       <c r="A342" s="1" t="s">
         <v>353</v>
       </c>
@@ -8875,7 +8308,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:3">
       <c r="A343" s="1" t="s">
         <v>354</v>
       </c>
@@ -8886,7 +8319,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:3">
       <c r="A344" s="1" t="s">
         <v>355</v>
       </c>
@@ -8896,11 +8329,8 @@
       <c r="C344" t="s">
         <v>852</v>
       </c>
-      <c r="E344" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="345" spans="1:3">
       <c r="A345" s="1" t="s">
         <v>356</v>
       </c>
@@ -8911,7 +8341,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:3">
       <c r="A346" s="1" t="s">
         <v>357</v>
       </c>
@@ -8922,7 +8352,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:3">
       <c r="A347" s="1" t="s">
         <v>358</v>
       </c>
@@ -8933,7 +8363,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:3">
       <c r="A348" s="1" t="s">
         <v>359</v>
       </c>
@@ -8944,7 +8374,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:3">
       <c r="A349" s="1" t="s">
         <v>360</v>
       </c>
@@ -8955,7 +8385,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:3">
       <c r="A350" s="1" t="s">
         <v>361</v>
       </c>
@@ -8966,7 +8396,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:3">
       <c r="A351" s="1" t="s">
         <v>362</v>
       </c>
@@ -8977,7 +8407,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:3">
       <c r="A352" s="1" t="s">
         <v>363</v>
       </c>
@@ -8988,7 +8418,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:8">
       <c r="A353" s="1" t="s">
         <v>364</v>
       </c>
@@ -8999,7 +8429,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:8">
       <c r="A354" s="1" t="s">
         <v>365</v>
       </c>
@@ -9010,7 +8440,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:8">
       <c r="A355" s="1" t="s">
         <v>366</v>
       </c>
@@ -9021,7 +8451,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:8">
       <c r="A356" s="1" t="s">
         <v>367</v>
       </c>
@@ -9032,7 +8462,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:8">
       <c r="A357" s="1" t="s">
         <v>368</v>
       </c>
@@ -9043,7 +8473,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:8">
       <c r="A358" s="1" t="s">
         <v>369</v>
       </c>
@@ -9054,7 +8484,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:8">
       <c r="A359" s="1" t="s">
         <v>370</v>
       </c>
@@ -9065,7 +8495,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:8">
       <c r="A360" s="1" t="s">
         <v>371</v>
       </c>
@@ -9076,7 +8506,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:8">
       <c r="A361" s="1" t="s">
         <v>372</v>
       </c>
@@ -9087,7 +8517,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:8">
       <c r="A362" s="1" t="s">
         <v>373</v>
       </c>
@@ -9098,7 +8528,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:8">
       <c r="A363" s="1" t="s">
         <v>374</v>
       </c>
@@ -9109,7 +8539,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:8">
       <c r="A364" s="1" t="s">
         <v>375</v>
       </c>
@@ -9120,7 +8550,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:8">
       <c r="A365" s="1" t="s">
         <v>376</v>
       </c>
@@ -9131,7 +8561,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:8">
       <c r="A366" s="1" t="s">
         <v>377</v>
       </c>
@@ -9145,7 +8575,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:8">
       <c r="A367" s="1" t="s">
         <v>378</v>
       </c>
@@ -9156,7 +8586,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:8">
       <c r="A368" s="1" t="s">
         <v>379</v>
       </c>
@@ -9167,7 +8597,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:9">
       <c r="A369" s="1" t="s">
         <v>380</v>
       </c>
@@ -9181,7 +8611,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:9">
       <c r="A370" s="1" t="s">
         <v>381</v>
       </c>
@@ -9195,7 +8625,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:9">
       <c r="A371" s="1" t="s">
         <v>382</v>
       </c>
@@ -9209,7 +8639,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:9">
       <c r="A372" s="1" t="s">
         <v>383</v>
       </c>
@@ -9220,7 +8650,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:9">
       <c r="A373" s="1" t="s">
         <v>384</v>
       </c>
@@ -9234,7 +8664,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:9">
       <c r="A374" s="1" t="s">
         <v>385</v>
       </c>
@@ -9245,7 +8675,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:9">
       <c r="A375" s="1" t="s">
         <v>386</v>
       </c>
@@ -9256,7 +8686,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:9">
       <c r="A376" s="1" t="s">
         <v>387</v>
       </c>
@@ -9267,7 +8697,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:9">
       <c r="A377" s="1" t="s">
         <v>388</v>
       </c>
@@ -9281,7 +8711,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:9">
       <c r="A378" s="1" t="s">
         <v>389</v>
       </c>
@@ -9298,7 +8728,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:9">
       <c r="A379" s="1" t="s">
         <v>390</v>
       </c>
@@ -9309,7 +8739,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:9">
       <c r="A380" s="1" t="s">
         <v>391</v>
       </c>
@@ -9323,7 +8753,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:9">
       <c r="A381" s="1" t="s">
         <v>392</v>
       </c>
@@ -9334,7 +8764,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:9">
       <c r="A382" s="1" t="s">
         <v>393</v>
       </c>
@@ -9348,7 +8778,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:9">
       <c r="A383" s="1" t="s">
         <v>394</v>
       </c>
@@ -9362,7 +8792,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:9">
       <c r="A384" s="1" t="s">
         <v>395</v>
       </c>
@@ -9373,7 +8803,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="385" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:12">
       <c r="A385" s="1" t="s">
         <v>396</v>
       </c>
@@ -9384,7 +8814,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="386" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:12">
       <c r="A386" s="1" t="s">
         <v>397</v>
       </c>
@@ -9395,7 +8825,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="387" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:12">
       <c r="A387" s="1" t="s">
         <v>398</v>
       </c>
@@ -9409,7 +8839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:12">
       <c r="A388" s="1" t="s">
         <v>399</v>
       </c>
@@ -9426,7 +8856,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="389" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:12">
       <c r="A389" s="1" t="s">
         <v>400</v>
       </c>
@@ -9443,7 +8873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:12">
       <c r="A390" s="1" t="s">
         <v>401</v>
       </c>
@@ -9454,7 +8884,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="391" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:12">
       <c r="A391" s="1" t="s">
         <v>402</v>
       </c>
@@ -9464,9 +8894,6 @@
       <c r="C391" t="s">
         <v>899</v>
       </c>
-      <c r="E391" t="s">
-        <v>899</v>
-      </c>
       <c r="G391" t="s">
         <v>1075</v>
       </c>
@@ -9474,7 +8901,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="392" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:12">
       <c r="A392" s="1" t="s">
         <v>403</v>
       </c>
@@ -9488,7 +8915,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="393" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:12">
       <c r="A393" s="1" t="s">
         <v>404</v>
       </c>
@@ -9502,7 +8929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:12">
       <c r="A394" s="1" t="s">
         <v>405</v>
       </c>
@@ -9513,7 +8940,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="395" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:12">
       <c r="A395" s="1" t="s">
         <v>406</v>
       </c>
@@ -9524,7 +8951,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="396" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:12">
       <c r="A396" s="1" t="s">
         <v>407</v>
       </c>
@@ -9535,7 +8962,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="397" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:12">
       <c r="A397" s="1" t="s">
         <v>408</v>
       </c>
@@ -9549,7 +8976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:12">
       <c r="A398" s="1" t="s">
         <v>409</v>
       </c>
@@ -9559,11 +8986,8 @@
       <c r="C398" t="s">
         <v>906</v>
       </c>
-      <c r="E398" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="399" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="399" spans="1:12">
       <c r="A399" s="1" t="s">
         <v>410</v>
       </c>
@@ -9577,7 +9001,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="400" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:12">
       <c r="A400" s="1" t="s">
         <v>411</v>
       </c>
@@ -9591,7 +9015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:12">
       <c r="A401" s="1" t="s">
         <v>412</v>
       </c>
@@ -9602,7 +9026,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="402" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:12">
       <c r="A402" s="1" t="s">
         <v>413</v>
       </c>
@@ -9613,7 +9037,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="403" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:12">
       <c r="A403" s="1" t="s">
         <v>414</v>
       </c>
@@ -9624,7 +9048,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="404" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:12">
       <c r="A404" s="1" t="s">
         <v>415</v>
       </c>
@@ -9635,7 +9059,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="405" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:12">
       <c r="A405" s="1" t="s">
         <v>416</v>
       </c>
@@ -9649,7 +9073,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="406" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:12">
       <c r="A406" s="1" t="s">
         <v>417</v>
       </c>
@@ -9660,7 +9084,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="407" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:12">
       <c r="A407" s="1" t="s">
         <v>418</v>
       </c>
@@ -9671,7 +9095,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="408" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:12">
       <c r="A408" s="1" t="s">
         <v>419</v>
       </c>
@@ -9685,7 +9109,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="409" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:12">
       <c r="A409" s="1" t="s">
         <v>420</v>
       </c>
@@ -9695,11 +9119,8 @@
       <c r="C409" t="s">
         <v>917</v>
       </c>
-      <c r="E409" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="410" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="410" spans="1:12">
       <c r="A410" s="1" t="s">
         <v>421</v>
       </c>
@@ -9713,7 +9134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:12">
       <c r="A411" s="1" t="s">
         <v>422</v>
       </c>
@@ -9724,7 +9145,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="412" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:12">
       <c r="A412" s="1" t="s">
         <v>423</v>
       </c>
@@ -9738,7 +9159,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="413" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:12">
       <c r="A413" s="1" t="s">
         <v>424</v>
       </c>
@@ -9749,7 +9170,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="414" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:12">
       <c r="A414" s="1" t="s">
         <v>425</v>
       </c>
@@ -9760,7 +9181,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="415" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:12">
       <c r="A415" s="1" t="s">
         <v>426</v>
       </c>
@@ -9771,7 +9192,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="416" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:12">
       <c r="A416" s="1" t="s">
         <v>427</v>
       </c>
@@ -9781,9 +9202,6 @@
       <c r="C416" t="s">
         <v>924</v>
       </c>
-      <c r="E416" t="s">
-        <v>924</v>
-      </c>
       <c r="G416" t="s">
         <v>1077</v>
       </c>
@@ -9791,7 +9209,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:9">
       <c r="A417" s="1" t="s">
         <v>428</v>
       </c>
@@ -9801,9 +9219,6 @@
       <c r="C417" t="s">
         <v>925</v>
       </c>
-      <c r="E417" t="s">
-        <v>925</v>
-      </c>
       <c r="G417" t="s">
         <v>1078</v>
       </c>
@@ -9811,7 +9226,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:9">
       <c r="A418" s="1" t="s">
         <v>429</v>
       </c>
@@ -9822,7 +9237,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:9">
       <c r="A419" s="1" t="s">
         <v>430</v>
       </c>
@@ -9833,7 +9248,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:9">
       <c r="A420" s="1" t="s">
         <v>431</v>
       </c>
@@ -9844,7 +9259,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:9">
       <c r="A421" s="1" t="s">
         <v>432</v>
       </c>
@@ -9854,9 +9269,6 @@
       <c r="C421" t="s">
         <v>929</v>
       </c>
-      <c r="E421" t="s">
-        <v>929</v>
-      </c>
       <c r="G421" t="s">
         <v>1079</v>
       </c>
@@ -9864,7 +9276,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:9">
       <c r="A422" s="1" t="s">
         <v>433</v>
       </c>
@@ -9874,9 +9286,6 @@
       <c r="C422" t="s">
         <v>930</v>
       </c>
-      <c r="E422" t="s">
-        <v>930</v>
-      </c>
       <c r="G422" t="s">
         <v>1080</v>
       </c>
@@ -9884,7 +9293,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:9">
       <c r="A423" s="1" t="s">
         <v>434</v>
       </c>
@@ -9895,7 +9304,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:9">
       <c r="A424" s="1" t="s">
         <v>435</v>
       </c>
@@ -9905,9 +9314,6 @@
       <c r="C424" t="s">
         <v>932</v>
       </c>
-      <c r="E424" t="s">
-        <v>932</v>
-      </c>
       <c r="G424" t="s">
         <v>1081</v>
       </c>
@@ -9915,7 +9321,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:9">
       <c r="A425" s="1" t="s">
         <v>436</v>
       </c>
@@ -9932,7 +9338,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:9">
       <c r="A426" s="1" t="s">
         <v>437</v>
       </c>
@@ -9942,9 +9348,6 @@
       <c r="C426" t="s">
         <v>934</v>
       </c>
-      <c r="E426" t="s">
-        <v>934</v>
-      </c>
       <c r="G426" t="s">
         <v>1083</v>
       </c>
@@ -9952,7 +9355,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:9">
       <c r="A427" s="1" t="s">
         <v>438</v>
       </c>
@@ -9962,11 +9365,8 @@
       <c r="C427" t="s">
         <v>935</v>
       </c>
-      <c r="E427" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="428" spans="1:9">
       <c r="A428" s="1" t="s">
         <v>439</v>
       </c>
@@ -9983,7 +9383,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:9">
       <c r="A429" s="1" t="s">
         <v>440</v>
       </c>
@@ -10000,7 +9400,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:9">
       <c r="A430" s="1" t="s">
         <v>441</v>
       </c>
@@ -10010,9 +9410,6 @@
       <c r="C430" t="s">
         <v>938</v>
       </c>
-      <c r="E430" t="s">
-        <v>938</v>
-      </c>
       <c r="G430" t="s">
         <v>1086</v>
       </c>
@@ -10020,7 +9417,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:9">
       <c r="A431" s="1" t="s">
         <v>442</v>
       </c>
@@ -10037,7 +9434,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="432" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:9">
       <c r="A432" s="1" t="s">
         <v>443</v>
       </c>
@@ -10047,9 +9444,6 @@
       <c r="C432" t="s">
         <v>940</v>
       </c>
-      <c r="E432" t="s">
-        <v>940</v>
-      </c>
       <c r="G432" t="s">
         <v>1088</v>
       </c>
@@ -10057,7 +9451,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="433" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:12">
       <c r="A433" s="1" t="s">
         <v>444</v>
       </c>
@@ -10074,7 +9468,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="434" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:12">
       <c r="A434" s="1" t="s">
         <v>445</v>
       </c>
@@ -10085,7 +9479,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="435" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:12">
       <c r="A435" s="1" t="s">
         <v>446</v>
       </c>
@@ -10095,9 +9489,6 @@
       <c r="C435" t="s">
         <v>943</v>
       </c>
-      <c r="E435" t="s">
-        <v>943</v>
-      </c>
       <c r="G435" t="s">
         <v>1090</v>
       </c>
@@ -10108,7 +9499,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="436" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:12">
       <c r="A436" s="1" t="s">
         <v>447</v>
       </c>
@@ -10122,7 +9513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:12">
       <c r="A437" s="1" t="s">
         <v>448</v>
       </c>
@@ -10132,14 +9523,11 @@
       <c r="C437" t="s">
         <v>945</v>
       </c>
-      <c r="E437" t="s">
-        <v>945</v>
-      </c>
       <c r="H437" t="s">
         <v>1124</v>
       </c>
     </row>
-    <row r="438" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:12">
       <c r="A438" s="1" t="s">
         <v>449</v>
       </c>
@@ -10149,9 +9537,6 @@
       <c r="C438" t="s">
         <v>946</v>
       </c>
-      <c r="E438" t="s">
-        <v>946</v>
-      </c>
       <c r="G438" t="s">
         <v>1091</v>
       </c>
@@ -10162,7 +9547,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="439" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:12">
       <c r="A439" s="1" t="s">
         <v>450</v>
       </c>
@@ -10173,7 +9558,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="440" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:12">
       <c r="A440" s="1" t="s">
         <v>451</v>
       </c>
@@ -10183,9 +9568,6 @@
       <c r="C440" t="s">
         <v>948</v>
       </c>
-      <c r="E440" t="s">
-        <v>948</v>
-      </c>
       <c r="G440" t="s">
         <v>1092</v>
       </c>
@@ -10196,7 +9578,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="441" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:12">
       <c r="A441" s="1" t="s">
         <v>452</v>
       </c>
@@ -10210,7 +9592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:12">
       <c r="A442" s="1" t="s">
         <v>453</v>
       </c>
@@ -10227,7 +9609,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="443" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:12">
       <c r="A443" s="1" t="s">
         <v>454</v>
       </c>
@@ -10244,7 +9626,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="444" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:12">
       <c r="A444" s="1" t="s">
         <v>455</v>
       </c>
@@ -10267,7 +9649,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="445" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:12">
       <c r="A445" s="1" t="s">
         <v>456</v>
       </c>
@@ -10277,9 +9659,6 @@
       <c r="C445" t="s">
         <v>953</v>
       </c>
-      <c r="E445" t="s">
-        <v>953</v>
-      </c>
       <c r="H445" t="s">
         <v>1109</v>
       </c>
@@ -10287,7 +9666,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="446" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:12">
       <c r="A446" s="1" t="s">
         <v>457</v>
       </c>
@@ -10297,9 +9676,6 @@
       <c r="C446" t="s">
         <v>954</v>
       </c>
-      <c r="E446" t="s">
-        <v>954</v>
-      </c>
       <c r="G446" t="s">
         <v>1096</v>
       </c>
@@ -10310,7 +9686,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="447" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:12">
       <c r="A447" s="1" t="s">
         <v>458</v>
       </c>
@@ -10320,9 +9696,6 @@
       <c r="C447" t="s">
         <v>955</v>
       </c>
-      <c r="E447" t="s">
-        <v>955</v>
-      </c>
       <c r="G447" t="s">
         <v>1097</v>
       </c>
@@ -10333,7 +9706,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="448" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:12">
       <c r="A448" s="1" t="s">
         <v>459</v>
       </c>
@@ -10343,14 +9716,11 @@
       <c r="C448" t="s">
         <v>956</v>
       </c>
-      <c r="E448" t="s">
-        <v>956</v>
-      </c>
       <c r="H448" t="s">
         <v>1129</v>
       </c>
     </row>
-    <row r="449" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:13">
       <c r="A449" s="1" t="s">
         <v>460</v>
       </c>
@@ -10364,7 +9734,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="450" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:13">
       <c r="A450" s="1" t="s">
         <v>461</v>
       </c>
@@ -10374,11 +9744,8 @@
       <c r="C450" t="s">
         <v>958</v>
       </c>
-      <c r="E450" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="451" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="451" spans="1:13">
       <c r="A451" s="1" t="s">
         <v>462</v>
       </c>
@@ -10392,7 +9759,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="452" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:13">
       <c r="A452" s="1" t="s">
         <v>463</v>
       </c>
@@ -10406,7 +9773,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="453" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:13">
       <c r="A453" s="1" t="s">
         <v>464</v>
       </c>
@@ -10417,7 +9784,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="454" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:13">
       <c r="A454" s="1" t="s">
         <v>465</v>
       </c>
@@ -10427,9 +9794,6 @@
       <c r="C454" t="s">
         <v>962</v>
       </c>
-      <c r="E454" t="s">
-        <v>962</v>
-      </c>
       <c r="G454" t="s">
         <v>1098</v>
       </c>
@@ -10440,7 +9804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="455" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:13">
       <c r="A455" s="1" t="s">
         <v>466</v>
       </c>
@@ -10466,7 +9830,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="456" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:13">
       <c r="A456" s="1" t="s">
         <v>467</v>
       </c>
@@ -10476,9 +9840,6 @@
       <c r="C456" t="s">
         <v>964</v>
       </c>
-      <c r="E456" t="s">
-        <v>964</v>
-      </c>
       <c r="G456" t="s">
         <v>1074</v>
       </c>
@@ -10486,7 +9847,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="457" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:13">
       <c r="A457" s="1" t="s">
         <v>468</v>
       </c>
@@ -10496,9 +9857,6 @@
       <c r="C457" t="s">
         <v>965</v>
       </c>
-      <c r="E457" t="s">
-        <v>965</v>
-      </c>
       <c r="G457" t="s">
         <v>1100</v>
       </c>
@@ -10506,7 +9864,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="458" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:13">
       <c r="A458" s="1" t="s">
         <v>469</v>
       </c>
@@ -10516,14 +9874,11 @@
       <c r="C458" t="s">
         <v>966</v>
       </c>
-      <c r="E458" t="s">
-        <v>966</v>
-      </c>
       <c r="I458" t="s">
         <v>1135</v>
       </c>
     </row>
-    <row r="459" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:13">
       <c r="A459" s="1" t="s">
         <v>470</v>
       </c>
@@ -10533,9 +9888,6 @@
       <c r="C459" t="s">
         <v>967</v>
       </c>
-      <c r="E459" t="s">
-        <v>967</v>
-      </c>
       <c r="G459" t="s">
         <v>1075</v>
       </c>
@@ -10543,7 +9895,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="460" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:13">
       <c r="A460" s="1" t="s">
         <v>471</v>
       </c>
@@ -10553,14 +9905,11 @@
       <c r="C460" t="s">
         <v>968</v>
       </c>
-      <c r="E460" t="s">
-        <v>968</v>
-      </c>
       <c r="M460">
         <v>1</v>
       </c>
     </row>
-    <row r="461" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:13">
       <c r="A461" s="1" t="s">
         <v>472</v>
       </c>
@@ -10577,7 +9926,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="462" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:13">
       <c r="A462" s="1" t="s">
         <v>473</v>
       </c>
@@ -10587,11 +9936,8 @@
       <c r="C462" t="s">
         <v>970</v>
       </c>
-      <c r="E462" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="463" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="463" spans="1:13">
       <c r="A463" s="1" t="s">
         <v>474</v>
       </c>
@@ -10605,7 +9951,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="464" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:13">
       <c r="A464" s="1" t="s">
         <v>475</v>
       </c>
@@ -10616,7 +9962,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="465" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:12">
       <c r="A465" s="1" t="s">
         <v>476</v>
       </c>
@@ -10630,7 +9976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:12">
       <c r="A466" s="1" t="s">
         <v>477</v>
       </c>
@@ -10640,9 +9986,6 @@
       <c r="C466" t="s">
         <v>974</v>
       </c>
-      <c r="E466" t="s">
-        <v>974</v>
-      </c>
       <c r="G466" t="s">
         <v>1102</v>
       </c>
@@ -10650,7 +9993,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="467" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:12">
       <c r="A467" s="1" t="s">
         <v>478</v>
       </c>
@@ -10661,7 +10004,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="468" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:12">
       <c r="A468" s="1" t="s">
         <v>479</v>
       </c>
@@ -10671,14 +10014,11 @@
       <c r="C468" t="s">
         <v>976</v>
       </c>
-      <c r="E468" t="s">
-        <v>976</v>
-      </c>
       <c r="I468" t="s">
         <v>1141</v>
       </c>
     </row>
-    <row r="469" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:12">
       <c r="A469" s="1" t="s">
         <v>480</v>
       </c>
@@ -10688,11 +10028,8 @@
       <c r="C469" t="s">
         <v>977</v>
       </c>
-      <c r="E469" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="470" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="470" spans="1:12">
       <c r="A470" s="1" t="s">
         <v>481</v>
       </c>
@@ -10702,9 +10039,6 @@
       <c r="C470" t="s">
         <v>978</v>
       </c>
-      <c r="E470" t="s">
-        <v>978</v>
-      </c>
       <c r="G470" t="s">
         <v>1103</v>
       </c>
@@ -10712,7 +10046,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="471" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:12">
       <c r="A471" s="1" t="s">
         <v>482</v>
       </c>
@@ -10722,11 +10056,8 @@
       <c r="C471" t="s">
         <v>979</v>
       </c>
-      <c r="E471" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="472" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="472" spans="1:12">
       <c r="A472" s="1" t="s">
         <v>483</v>
       </c>
@@ -10737,7 +10068,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="473" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:12">
       <c r="A473" s="1" t="s">
         <v>484</v>
       </c>
@@ -10751,7 +10082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:12">
       <c r="A474" s="1" t="s">
         <v>485</v>
       </c>
@@ -10768,7 +10099,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="475" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:12">
       <c r="A475" s="1" t="s">
         <v>486</v>
       </c>
@@ -10782,7 +10113,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="476" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:12">
       <c r="A476" s="1" t="s">
         <v>487</v>
       </c>
@@ -10805,7 +10136,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="477" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:12">
       <c r="A477" s="1" t="s">
         <v>488</v>
       </c>
@@ -10816,7 +10147,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="478" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:12">
       <c r="A478" s="1" t="s">
         <v>489</v>
       </c>
@@ -10827,7 +10158,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="479" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:12">
       <c r="A479" s="1" t="s">
         <v>490</v>
       </c>
@@ -10838,7 +10169,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="480" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:12">
       <c r="A480" s="1" t="s">
         <v>491</v>
       </c>
@@ -10850,8 +10181,6 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/all_course.xlsx
+++ b/all_course.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1742" uniqueCount="1163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1748" uniqueCount="1167">
   <si>
     <t>category</t>
   </si>
@@ -874,6 +874,9 @@
     <t>cfa6d506</t>
   </si>
   <si>
+    <t>2b031a87</t>
+  </si>
+  <si>
     <t>43d90710</t>
   </si>
   <si>
@@ -1348,6 +1351,9 @@
     <t>9eb9f24d</t>
   </si>
   <si>
+    <t>83fbfafb</t>
+  </si>
+  <si>
     <t>af9da37f</t>
   </si>
   <si>
@@ -2365,6 +2371,9 @@
     <t>厌世歌•杜鹃妙音</t>
   </si>
   <si>
+    <t>后记</t>
+  </si>
+  <si>
     <t>师徒欢喜之歌•无改心之自相</t>
   </si>
   <si>
@@ -2837,6 +2846,9 @@
   </si>
   <si>
     <t>藏密问答录</t>
+  </si>
+  <si>
+    <t>警钟</t>
   </si>
   <si>
     <t>顺治皇帝出家偈浅释</t>
@@ -3860,7 +3872,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M480"/>
+  <dimension ref="A1:M482"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -3917,10 +3929,10 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="C2" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -3928,16 +3940,16 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="C3" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="G3" t="s">
-        <v>1004</v>
+        <v>1008</v>
       </c>
       <c r="I3" t="s">
-        <v>1135</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -3945,10 +3957,10 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="C4" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -3956,13 +3968,13 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="C5" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="G5" t="s">
-        <v>1005</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -3970,13 +3982,13 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="C6" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="G6" t="s">
-        <v>1006</v>
+        <v>1010</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -3987,13 +3999,13 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="C7" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="J7" t="s">
-        <v>1161</v>
+        <v>1165</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -4004,10 +4016,10 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="C8" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -4015,13 +4027,13 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="C9" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="E9" t="s">
-        <v>990</v>
+        <v>994</v>
       </c>
       <c r="L9">
         <v>1</v>
@@ -4032,19 +4044,19 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="C10" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="E10" t="s">
-        <v>991</v>
+        <v>995</v>
       </c>
       <c r="G10" t="s">
-        <v>1007</v>
+        <v>1011</v>
       </c>
       <c r="J10" t="s">
-        <v>1161</v>
+        <v>1165</v>
       </c>
       <c r="L10">
         <v>1</v>
@@ -4055,13 +4067,13 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="C11" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="H11" t="s">
-        <v>1106</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -4069,10 +4081,10 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="C12" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -4080,13 +4092,13 @@
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="C13" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="H13" t="s">
-        <v>1107</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -4094,10 +4106,10 @@
         <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="C14" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -4105,10 +4117,10 @@
         <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="C15" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -4116,16 +4128,16 @@
         <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="C16" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="G16" t="s">
-        <v>1008</v>
+        <v>1012</v>
       </c>
       <c r="I16" t="s">
-        <v>1136</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -4133,10 +4145,10 @@
         <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="C17" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -4144,16 +4156,16 @@
         <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="C18" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="G18" t="s">
-        <v>1009</v>
+        <v>1013</v>
       </c>
       <c r="I18" t="s">
-        <v>1135</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -4161,13 +4173,13 @@
         <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="C19" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="J19" t="s">
-        <v>1162</v>
+        <v>1166</v>
       </c>
       <c r="L19">
         <v>1</v>
@@ -4178,10 +4190,10 @@
         <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="C20" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -4189,10 +4201,10 @@
         <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="C21" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -4200,13 +4212,13 @@
         <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="C22" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="G22" t="s">
-        <v>1010</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -4214,10 +4226,10 @@
         <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="C23" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -4225,10 +4237,10 @@
         <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="C24" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="L24">
         <v>1</v>
@@ -4239,10 +4251,10 @@
         <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="C25" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -4250,10 +4262,10 @@
         <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="C26" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -4261,10 +4273,10 @@
         <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="C27" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -4272,10 +4284,10 @@
         <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="C28" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="L28">
         <v>1</v>
@@ -4286,10 +4298,10 @@
         <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="C29" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -4297,10 +4309,10 @@
         <v>41</v>
       </c>
       <c r="B30" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="C30" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="L30">
         <v>1</v>
@@ -4311,10 +4323,10 @@
         <v>42</v>
       </c>
       <c r="B31" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="C31" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -4322,10 +4334,10 @@
         <v>43</v>
       </c>
       <c r="B32" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="C32" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -4333,10 +4345,10 @@
         <v>44</v>
       </c>
       <c r="B33" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="C33" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -4344,10 +4356,10 @@
         <v>45</v>
       </c>
       <c r="B34" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="C34" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -4355,19 +4367,19 @@
         <v>46</v>
       </c>
       <c r="B35" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="C35" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="G35" t="s">
-        <v>1011</v>
+        <v>1015</v>
       </c>
       <c r="I35" t="s">
-        <v>1137</v>
+        <v>1141</v>
       </c>
       <c r="J35" t="s">
-        <v>1162</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -4375,16 +4387,16 @@
         <v>47</v>
       </c>
       <c r="B36" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="C36" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="G36" t="s">
-        <v>1012</v>
+        <v>1016</v>
       </c>
       <c r="I36" t="s">
-        <v>1138</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -4392,10 +4404,10 @@
         <v>48</v>
       </c>
       <c r="B37" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="C37" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -4403,10 +4415,10 @@
         <v>49</v>
       </c>
       <c r="B38" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="C38" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -4414,10 +4426,10 @@
         <v>50</v>
       </c>
       <c r="B39" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="C39" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -4425,10 +4437,10 @@
         <v>51</v>
       </c>
       <c r="B40" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="C40" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -4436,10 +4448,10 @@
         <v>52</v>
       </c>
       <c r="B41" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="C41" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="L41">
         <v>1</v>
@@ -4450,10 +4462,10 @@
         <v>53</v>
       </c>
       <c r="B42" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="C42" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -4461,10 +4473,10 @@
         <v>54</v>
       </c>
       <c r="B43" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="C43" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -4472,16 +4484,16 @@
         <v>55</v>
       </c>
       <c r="B44" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="C44" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="G44" t="s">
-        <v>1013</v>
+        <v>1017</v>
       </c>
       <c r="I44" t="s">
-        <v>1137</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -4489,10 +4501,10 @@
         <v>56</v>
       </c>
       <c r="B45" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="C45" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -4500,10 +4512,10 @@
         <v>57</v>
       </c>
       <c r="B46" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="C46" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -4511,13 +4523,13 @@
         <v>58</v>
       </c>
       <c r="B47" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="C47" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="J47" t="s">
-        <v>1162</v>
+        <v>1166</v>
       </c>
       <c r="L47">
         <v>1</v>
@@ -4528,10 +4540,10 @@
         <v>59</v>
       </c>
       <c r="B48" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="C48" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -4539,16 +4551,16 @@
         <v>60</v>
       </c>
       <c r="B49" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="C49" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="G49" t="s">
-        <v>1014</v>
+        <v>1018</v>
       </c>
       <c r="I49" t="s">
-        <v>1137</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -4556,13 +4568,13 @@
         <v>61</v>
       </c>
       <c r="B50" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C50" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="E50" t="s">
-        <v>992</v>
+        <v>996</v>
       </c>
       <c r="L50">
         <v>1</v>
@@ -4573,13 +4585,13 @@
         <v>62</v>
       </c>
       <c r="B51" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C51" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="H51" t="s">
-        <v>1108</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -4587,16 +4599,16 @@
         <v>63</v>
       </c>
       <c r="B52" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C52" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="H52" t="s">
-        <v>1109</v>
+        <v>1113</v>
       </c>
       <c r="I52" t="s">
-        <v>1139</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -4604,10 +4616,10 @@
         <v>64</v>
       </c>
       <c r="B53" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C53" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -4615,13 +4627,13 @@
         <v>65</v>
       </c>
       <c r="B54" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C54" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="H54" t="s">
-        <v>1109</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -4629,10 +4641,10 @@
         <v>66</v>
       </c>
       <c r="B55" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C55" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="M55">
         <v>1</v>
@@ -4643,10 +4655,10 @@
         <v>67</v>
       </c>
       <c r="B56" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C56" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -4654,10 +4666,10 @@
         <v>68</v>
       </c>
       <c r="B57" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C57" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -4665,10 +4677,10 @@
         <v>69</v>
       </c>
       <c r="B58" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C58" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -4676,10 +4688,10 @@
         <v>70</v>
       </c>
       <c r="B59" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C59" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -4687,10 +4699,10 @@
         <v>71</v>
       </c>
       <c r="B60" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C60" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -4698,19 +4710,19 @@
         <v>72</v>
       </c>
       <c r="B61" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C61" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="G61" t="s">
-        <v>1015</v>
+        <v>1019</v>
       </c>
       <c r="H61" t="s">
-        <v>1109</v>
+        <v>1113</v>
       </c>
       <c r="I61" t="s">
-        <v>1140</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -4718,13 +4730,13 @@
         <v>73</v>
       </c>
       <c r="B62" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C62" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="H62" t="s">
-        <v>1109</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -4732,19 +4744,19 @@
         <v>74</v>
       </c>
       <c r="B63" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C63" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="G63" t="s">
-        <v>1016</v>
+        <v>1020</v>
       </c>
       <c r="H63" t="s">
-        <v>1109</v>
+        <v>1113</v>
       </c>
       <c r="I63" t="s">
-        <v>1141</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -4752,16 +4764,16 @@
         <v>75</v>
       </c>
       <c r="B64" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C64" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="H64" t="s">
-        <v>1109</v>
+        <v>1113</v>
       </c>
       <c r="I64" t="s">
-        <v>1142</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -4769,19 +4781,19 @@
         <v>76</v>
       </c>
       <c r="B65" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C65" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="E65" t="s">
-        <v>993</v>
+        <v>997</v>
       </c>
       <c r="H65" t="s">
-        <v>1109</v>
+        <v>1113</v>
       </c>
       <c r="I65" t="s">
-        <v>1143</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -4789,10 +4801,10 @@
         <v>77</v>
       </c>
       <c r="B66" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C66" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -4800,10 +4812,10 @@
         <v>78</v>
       </c>
       <c r="B67" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C67" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="L67">
         <v>1</v>
@@ -4814,10 +4826,10 @@
         <v>79</v>
       </c>
       <c r="B68" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="C68" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -4825,13 +4837,13 @@
         <v>80</v>
       </c>
       <c r="B69" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="C69" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="I69" t="s">
-        <v>1144</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -4839,13 +4851,13 @@
         <v>81</v>
       </c>
       <c r="B70" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="C70" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="I70" t="s">
-        <v>1135</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -4853,13 +4865,13 @@
         <v>82</v>
       </c>
       <c r="B71" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="C71" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="G71" t="s">
-        <v>1017</v>
+        <v>1021</v>
       </c>
       <c r="L71">
         <v>1</v>
@@ -4870,16 +4882,16 @@
         <v>83</v>
       </c>
       <c r="B72" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="C72" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="G72" t="s">
-        <v>1018</v>
+        <v>1022</v>
       </c>
       <c r="I72" t="s">
-        <v>1135</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -4887,13 +4899,13 @@
         <v>84</v>
       </c>
       <c r="B73" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="C73" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="I73" t="s">
-        <v>1145</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -4901,10 +4913,10 @@
         <v>85</v>
       </c>
       <c r="B74" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="C74" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -4912,13 +4924,13 @@
         <v>86</v>
       </c>
       <c r="B75" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="C75" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="I75" t="s">
-        <v>1145</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -4926,16 +4938,16 @@
         <v>87</v>
       </c>
       <c r="B76" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="C76" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="G76" t="s">
-        <v>1019</v>
+        <v>1023</v>
       </c>
       <c r="I76" t="s">
-        <v>1146</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -4943,13 +4955,13 @@
         <v>88</v>
       </c>
       <c r="B77" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="C77" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="I77" t="s">
-        <v>1139</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -4957,16 +4969,16 @@
         <v>89</v>
       </c>
       <c r="B78" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="C78" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="G78" t="s">
-        <v>1020</v>
+        <v>1024</v>
       </c>
       <c r="I78" t="s">
-        <v>1141</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -4974,16 +4986,16 @@
         <v>90</v>
       </c>
       <c r="B79" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="C79" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="G79" t="s">
-        <v>1021</v>
+        <v>1025</v>
       </c>
       <c r="I79" t="s">
-        <v>1145</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -4991,10 +5003,10 @@
         <v>91</v>
       </c>
       <c r="B80" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="C80" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="L80">
         <v>1</v>
@@ -5005,16 +5017,16 @@
         <v>92</v>
       </c>
       <c r="B81" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="C81" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="G81" t="s">
-        <v>1021</v>
+        <v>1025</v>
       </c>
       <c r="I81" t="s">
-        <v>1139</v>
+        <v>1143</v>
       </c>
       <c r="L81">
         <v>1</v>
@@ -5025,16 +5037,16 @@
         <v>93</v>
       </c>
       <c r="B82" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C82" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="G82" t="s">
-        <v>1022</v>
+        <v>1026</v>
       </c>
       <c r="H82" t="s">
-        <v>1110</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -5042,16 +5054,16 @@
         <v>94</v>
       </c>
       <c r="B83" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C83" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="G83" t="s">
-        <v>1023</v>
+        <v>1027</v>
       </c>
       <c r="H83" t="s">
-        <v>1110</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -5059,16 +5071,16 @@
         <v>95</v>
       </c>
       <c r="B84" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C84" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="G84" t="s">
-        <v>1024</v>
+        <v>1028</v>
       </c>
       <c r="H84" t="s">
-        <v>1110</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -5076,16 +5088,16 @@
         <v>96</v>
       </c>
       <c r="B85" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C85" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="G85" t="s">
-        <v>1025</v>
+        <v>1029</v>
       </c>
       <c r="H85" t="s">
-        <v>1110</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -5093,16 +5105,16 @@
         <v>97</v>
       </c>
       <c r="B86" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C86" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="G86" t="s">
-        <v>1026</v>
+        <v>1030</v>
       </c>
       <c r="H86" t="s">
-        <v>1110</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -5110,16 +5122,16 @@
         <v>98</v>
       </c>
       <c r="B87" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C87" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="G87" t="s">
-        <v>1027</v>
+        <v>1031</v>
       </c>
       <c r="H87" t="s">
-        <v>1110</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -5127,16 +5139,16 @@
         <v>99</v>
       </c>
       <c r="B88" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C88" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="G88" t="s">
-        <v>1028</v>
+        <v>1032</v>
       </c>
       <c r="H88" t="s">
-        <v>1110</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -5144,16 +5156,16 @@
         <v>100</v>
       </c>
       <c r="B89" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C89" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="G89" t="s">
-        <v>1029</v>
+        <v>1033</v>
       </c>
       <c r="H89" t="s">
-        <v>1110</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -5161,16 +5173,16 @@
         <v>101</v>
       </c>
       <c r="B90" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C90" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="G90" t="s">
-        <v>1030</v>
+        <v>1034</v>
       </c>
       <c r="H90" t="s">
-        <v>1110</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -5178,16 +5190,16 @@
         <v>102</v>
       </c>
       <c r="B91" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C91" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="G91" t="s">
-        <v>1031</v>
+        <v>1035</v>
       </c>
       <c r="H91" t="s">
-        <v>1110</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -5195,16 +5207,16 @@
         <v>103</v>
       </c>
       <c r="B92" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C92" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="G92" t="s">
-        <v>1032</v>
+        <v>1036</v>
       </c>
       <c r="H92" t="s">
-        <v>1110</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -5212,16 +5224,16 @@
         <v>104</v>
       </c>
       <c r="B93" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C93" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="G93" t="s">
-        <v>1033</v>
+        <v>1037</v>
       </c>
       <c r="H93" t="s">
-        <v>1110</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -5229,16 +5241,16 @@
         <v>105</v>
       </c>
       <c r="B94" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C94" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="G94" t="s">
-        <v>1034</v>
+        <v>1038</v>
       </c>
       <c r="H94" t="s">
-        <v>1110</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -5246,16 +5258,16 @@
         <v>106</v>
       </c>
       <c r="B95" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C95" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="G95" t="s">
-        <v>1035</v>
+        <v>1039</v>
       </c>
       <c r="H95" t="s">
-        <v>1110</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -5263,16 +5275,16 @@
         <v>107</v>
       </c>
       <c r="B96" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C96" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="G96" t="s">
-        <v>1036</v>
+        <v>1040</v>
       </c>
       <c r="H96" t="s">
-        <v>1110</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -5280,16 +5292,16 @@
         <v>108</v>
       </c>
       <c r="B97" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C97" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="G97" t="s">
-        <v>1037</v>
+        <v>1041</v>
       </c>
       <c r="H97" t="s">
-        <v>1110</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -5297,16 +5309,16 @@
         <v>109</v>
       </c>
       <c r="B98" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C98" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="G98" t="s">
-        <v>1038</v>
+        <v>1042</v>
       </c>
       <c r="H98" t="s">
-        <v>1110</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -5314,16 +5326,16 @@
         <v>110</v>
       </c>
       <c r="B99" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C99" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="G99" t="s">
-        <v>1039</v>
+        <v>1043</v>
       </c>
       <c r="H99" t="s">
-        <v>1110</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -5331,16 +5343,16 @@
         <v>111</v>
       </c>
       <c r="B100" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C100" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="G100" t="s">
-        <v>1040</v>
+        <v>1044</v>
       </c>
       <c r="H100" t="s">
-        <v>1110</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -5348,16 +5360,16 @@
         <v>112</v>
       </c>
       <c r="B101" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C101" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="G101" t="s">
-        <v>1041</v>
+        <v>1045</v>
       </c>
       <c r="H101" t="s">
-        <v>1110</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -5365,16 +5377,16 @@
         <v>113</v>
       </c>
       <c r="B102" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C102" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="G102" t="s">
-        <v>1042</v>
+        <v>1046</v>
       </c>
       <c r="H102" t="s">
-        <v>1110</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -5382,16 +5394,16 @@
         <v>114</v>
       </c>
       <c r="B103" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C103" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="G103" t="s">
-        <v>1043</v>
+        <v>1047</v>
       </c>
       <c r="H103" t="s">
-        <v>1110</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -5399,16 +5411,16 @@
         <v>115</v>
       </c>
       <c r="B104" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C104" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="G104" t="s">
-        <v>1044</v>
+        <v>1048</v>
       </c>
       <c r="H104" t="s">
-        <v>1110</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -5416,16 +5428,16 @@
         <v>116</v>
       </c>
       <c r="B105" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C105" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="G105" t="s">
-        <v>1045</v>
+        <v>1049</v>
       </c>
       <c r="H105" t="s">
-        <v>1110</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -5433,16 +5445,16 @@
         <v>117</v>
       </c>
       <c r="B106" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C106" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="G106" t="s">
-        <v>1046</v>
+        <v>1050</v>
       </c>
       <c r="H106" t="s">
-        <v>1110</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -5450,16 +5462,16 @@
         <v>118</v>
       </c>
       <c r="B107" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C107" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="G107" t="s">
-        <v>1047</v>
+        <v>1051</v>
       </c>
       <c r="H107" t="s">
-        <v>1110</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -5467,16 +5479,16 @@
         <v>119</v>
       </c>
       <c r="B108" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C108" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="G108" t="s">
-        <v>1048</v>
+        <v>1052</v>
       </c>
       <c r="H108" t="s">
-        <v>1110</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -5484,16 +5496,16 @@
         <v>120</v>
       </c>
       <c r="B109" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C109" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="G109" t="s">
-        <v>1049</v>
+        <v>1053</v>
       </c>
       <c r="H109" t="s">
-        <v>1110</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -5501,16 +5513,16 @@
         <v>121</v>
       </c>
       <c r="B110" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C110" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="G110" t="s">
-        <v>1050</v>
+        <v>1054</v>
       </c>
       <c r="H110" t="s">
-        <v>1110</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -5518,16 +5530,16 @@
         <v>122</v>
       </c>
       <c r="B111" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C111" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="G111" t="s">
-        <v>1051</v>
+        <v>1055</v>
       </c>
       <c r="H111" t="s">
-        <v>1110</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -5535,16 +5547,16 @@
         <v>123</v>
       </c>
       <c r="B112" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C112" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="G112" t="s">
-        <v>1052</v>
+        <v>1056</v>
       </c>
       <c r="H112" t="s">
-        <v>1110</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="113" spans="1:12">
@@ -5552,16 +5564,16 @@
         <v>124</v>
       </c>
       <c r="B113" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C113" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="G113" t="s">
-        <v>1053</v>
+        <v>1057</v>
       </c>
       <c r="H113" t="s">
-        <v>1110</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="114" spans="1:12">
@@ -5569,10 +5581,10 @@
         <v>125</v>
       </c>
       <c r="B114" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C114" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="L114">
         <v>1</v>
@@ -5583,16 +5595,16 @@
         <v>126</v>
       </c>
       <c r="B115" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C115" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="G115" t="s">
-        <v>1054</v>
+        <v>1058</v>
       </c>
       <c r="H115" t="s">
-        <v>1110</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="116" spans="1:12">
@@ -5600,16 +5612,16 @@
         <v>127</v>
       </c>
       <c r="B116" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C116" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="G116" t="s">
-        <v>1055</v>
+        <v>1059</v>
       </c>
       <c r="H116" t="s">
-        <v>1110</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="117" spans="1:12">
@@ -5617,16 +5629,16 @@
         <v>128</v>
       </c>
       <c r="B117" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C117" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="G117" t="s">
-        <v>1056</v>
+        <v>1060</v>
       </c>
       <c r="H117" t="s">
-        <v>1110</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="118" spans="1:12">
@@ -5634,16 +5646,16 @@
         <v>129</v>
       </c>
       <c r="B118" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C118" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="G118" t="s">
-        <v>1057</v>
+        <v>1061</v>
       </c>
       <c r="H118" t="s">
-        <v>1110</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="119" spans="1:12">
@@ -5651,10 +5663,10 @@
         <v>130</v>
       </c>
       <c r="B119" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C119" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="L119">
         <v>1</v>
@@ -5665,10 +5677,10 @@
         <v>131</v>
       </c>
       <c r="B120" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C120" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="L120">
         <v>1</v>
@@ -5679,10 +5691,10 @@
         <v>132</v>
       </c>
       <c r="B121" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C121" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
     </row>
     <row r="122" spans="1:12">
@@ -5690,10 +5702,10 @@
         <v>133</v>
       </c>
       <c r="B122" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C122" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
     </row>
     <row r="123" spans="1:12">
@@ -5701,10 +5713,10 @@
         <v>134</v>
       </c>
       <c r="B123" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C123" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
     </row>
     <row r="124" spans="1:12">
@@ -5712,10 +5724,10 @@
         <v>135</v>
       </c>
       <c r="B124" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C124" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
     </row>
     <row r="125" spans="1:12">
@@ -5723,10 +5735,10 @@
         <v>136</v>
       </c>
       <c r="B125" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C125" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
     </row>
     <row r="126" spans="1:12">
@@ -5734,10 +5746,10 @@
         <v>137</v>
       </c>
       <c r="B126" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C126" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
     </row>
     <row r="127" spans="1:12">
@@ -5745,10 +5757,10 @@
         <v>138</v>
       </c>
       <c r="B127" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C127" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="128" spans="1:12">
@@ -5756,10 +5768,10 @@
         <v>139</v>
       </c>
       <c r="B128" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C128" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
     </row>
     <row r="129" spans="1:12">
@@ -5767,10 +5779,10 @@
         <v>140</v>
       </c>
       <c r="B129" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C129" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="130" spans="1:12">
@@ -5778,10 +5790,10 @@
         <v>141</v>
       </c>
       <c r="B130" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C130" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="L130">
         <v>1</v>
@@ -5792,10 +5804,10 @@
         <v>142</v>
       </c>
       <c r="B131" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C131" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="L131">
         <v>1</v>
@@ -5806,13 +5818,13 @@
         <v>143</v>
       </c>
       <c r="B132" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C132" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="I132" t="s">
-        <v>1141</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="133" spans="1:12">
@@ -5820,13 +5832,13 @@
         <v>144</v>
       </c>
       <c r="B133" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C133" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="I133" t="s">
-        <v>1141</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="134" spans="1:12">
@@ -5834,10 +5846,10 @@
         <v>145</v>
       </c>
       <c r="B134" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C134" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="L134">
         <v>1</v>
@@ -5848,10 +5860,10 @@
         <v>146</v>
       </c>
       <c r="B135" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C135" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="L135">
         <v>1</v>
@@ -5862,10 +5874,10 @@
         <v>147</v>
       </c>
       <c r="B136" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C136" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
     </row>
     <row r="137" spans="1:12">
@@ -5873,10 +5885,10 @@
         <v>148</v>
       </c>
       <c r="B137" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C137" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
     </row>
     <row r="138" spans="1:12">
@@ -5884,10 +5896,10 @@
         <v>149</v>
       </c>
       <c r="B138" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C138" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
     </row>
     <row r="139" spans="1:12">
@@ -5895,10 +5907,10 @@
         <v>150</v>
       </c>
       <c r="B139" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C139" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
     </row>
     <row r="140" spans="1:12">
@@ -5906,10 +5918,10 @@
         <v>151</v>
       </c>
       <c r="B140" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C140" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
     </row>
     <row r="141" spans="1:12">
@@ -5917,13 +5929,13 @@
         <v>152</v>
       </c>
       <c r="B141" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C141" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="H141" t="s">
-        <v>1111</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="142" spans="1:12">
@@ -5931,10 +5943,10 @@
         <v>153</v>
       </c>
       <c r="B142" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C142" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
     </row>
     <row r="143" spans="1:12">
@@ -5942,10 +5954,10 @@
         <v>154</v>
       </c>
       <c r="B143" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C143" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
     </row>
     <row r="144" spans="1:12">
@@ -5953,16 +5965,16 @@
         <v>155</v>
       </c>
       <c r="B144" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C144" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="G144" t="s">
-        <v>1058</v>
+        <v>1062</v>
       </c>
       <c r="I144" t="s">
-        <v>1147</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -5970,10 +5982,10 @@
         <v>156</v>
       </c>
       <c r="B145" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C145" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -5981,10 +5993,10 @@
         <v>157</v>
       </c>
       <c r="B146" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C146" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -5992,16 +6004,16 @@
         <v>158</v>
       </c>
       <c r="B147" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C147" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="G147" t="s">
-        <v>1059</v>
+        <v>1063</v>
       </c>
       <c r="I147" t="s">
-        <v>1148</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -6009,10 +6021,10 @@
         <v>159</v>
       </c>
       <c r="B148" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C148" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -6020,10 +6032,10 @@
         <v>160</v>
       </c>
       <c r="B149" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C149" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -6031,13 +6043,13 @@
         <v>161</v>
       </c>
       <c r="B150" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C150" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="I150" t="s">
-        <v>1139</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -6045,10 +6057,10 @@
         <v>162</v>
       </c>
       <c r="B151" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C151" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -6056,10 +6068,10 @@
         <v>163</v>
       </c>
       <c r="B152" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C152" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -6067,10 +6079,10 @@
         <v>164</v>
       </c>
       <c r="B153" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C153" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -6078,10 +6090,10 @@
         <v>165</v>
       </c>
       <c r="B154" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C154" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -6089,13 +6101,13 @@
         <v>166</v>
       </c>
       <c r="B155" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C155" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="I155" t="s">
-        <v>1149</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -6103,10 +6115,10 @@
         <v>167</v>
       </c>
       <c r="B156" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C156" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -6114,16 +6126,16 @@
         <v>168</v>
       </c>
       <c r="B157" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C157" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="G157" t="s">
-        <v>1060</v>
+        <v>1064</v>
       </c>
       <c r="I157" t="s">
-        <v>1141</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="158" spans="1:9">
@@ -6131,16 +6143,16 @@
         <v>169</v>
       </c>
       <c r="B158" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C158" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="E158" t="s">
-        <v>994</v>
+        <v>998</v>
       </c>
       <c r="H158" t="s">
-        <v>1112</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -6148,13 +6160,13 @@
         <v>170</v>
       </c>
       <c r="B159" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C159" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="E159" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -6162,13 +6174,13 @@
         <v>171</v>
       </c>
       <c r="B160" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C160" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="H160" t="s">
-        <v>1113</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="161" spans="1:12">
@@ -6176,10 +6188,10 @@
         <v>172</v>
       </c>
       <c r="B161" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C161" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
     </row>
     <row r="162" spans="1:12">
@@ -6187,16 +6199,16 @@
         <v>173</v>
       </c>
       <c r="B162" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C162" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="G162" t="s">
-        <v>1061</v>
+        <v>1065</v>
       </c>
       <c r="I162" t="s">
-        <v>1147</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="163" spans="1:12">
@@ -6204,10 +6216,10 @@
         <v>174</v>
       </c>
       <c r="B163" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C163" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
     </row>
     <row r="164" spans="1:12">
@@ -6215,10 +6227,10 @@
         <v>175</v>
       </c>
       <c r="B164" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C164" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
     </row>
     <row r="165" spans="1:12">
@@ -6226,10 +6238,10 @@
         <v>176</v>
       </c>
       <c r="B165" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C165" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="L165">
         <v>1</v>
@@ -6240,13 +6252,13 @@
         <v>177</v>
       </c>
       <c r="B166" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C166" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="I166" t="s">
-        <v>1141</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="167" spans="1:12">
@@ -6254,16 +6266,16 @@
         <v>178</v>
       </c>
       <c r="B167" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C167" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="G167" t="s">
-        <v>1062</v>
+        <v>1066</v>
       </c>
       <c r="I167" t="s">
-        <v>1135</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="168" spans="1:12">
@@ -6271,10 +6283,10 @@
         <v>179</v>
       </c>
       <c r="B168" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C168" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
     </row>
     <row r="169" spans="1:12">
@@ -6282,10 +6294,10 @@
         <v>180</v>
       </c>
       <c r="B169" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C169" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
     </row>
     <row r="170" spans="1:12">
@@ -6293,10 +6305,10 @@
         <v>181</v>
       </c>
       <c r="B170" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C170" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
     </row>
     <row r="171" spans="1:12">
@@ -6304,13 +6316,13 @@
         <v>182</v>
       </c>
       <c r="B171" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C171" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="I171" t="s">
-        <v>1150</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="172" spans="1:12">
@@ -6318,10 +6330,10 @@
         <v>183</v>
       </c>
       <c r="B172" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C172" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="L172">
         <v>1</v>
@@ -6332,10 +6344,10 @@
         <v>184</v>
       </c>
       <c r="B173" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C173" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
     </row>
     <row r="174" spans="1:12">
@@ -6343,10 +6355,10 @@
         <v>185</v>
       </c>
       <c r="B174" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C174" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
     </row>
     <row r="175" spans="1:12">
@@ -6354,10 +6366,10 @@
         <v>186</v>
       </c>
       <c r="B175" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C175" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
     </row>
     <row r="176" spans="1:12">
@@ -6365,13 +6377,13 @@
         <v>187</v>
       </c>
       <c r="B176" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C176" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="I176" t="s">
-        <v>1149</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="177" spans="1:9">
@@ -6379,10 +6391,10 @@
         <v>188</v>
       </c>
       <c r="B177" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C177" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
     </row>
     <row r="178" spans="1:9">
@@ -6390,10 +6402,10 @@
         <v>189</v>
       </c>
       <c r="B178" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C178" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
     </row>
     <row r="179" spans="1:9">
@@ -6401,10 +6413,10 @@
         <v>190</v>
       </c>
       <c r="B179" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C179" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
     </row>
     <row r="180" spans="1:9">
@@ -6412,10 +6424,10 @@
         <v>191</v>
       </c>
       <c r="B180" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C180" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
     </row>
     <row r="181" spans="1:9">
@@ -6423,10 +6435,10 @@
         <v>192</v>
       </c>
       <c r="B181" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C181" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
     </row>
     <row r="182" spans="1:9">
@@ -6434,10 +6446,10 @@
         <v>193</v>
       </c>
       <c r="B182" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C182" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="183" spans="1:9">
@@ -6445,16 +6457,16 @@
         <v>194</v>
       </c>
       <c r="B183" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C183" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="G183" t="s">
-        <v>1063</v>
+        <v>1067</v>
       </c>
       <c r="I183" t="s">
-        <v>1135</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="184" spans="1:9">
@@ -6462,10 +6474,10 @@
         <v>195</v>
       </c>
       <c r="B184" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C184" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="185" spans="1:9">
@@ -6473,10 +6485,10 @@
         <v>196</v>
       </c>
       <c r="B185" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C185" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
     </row>
     <row r="186" spans="1:9">
@@ -6484,13 +6496,13 @@
         <v>197</v>
       </c>
       <c r="B186" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C186" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="I186" t="s">
-        <v>1141</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="187" spans="1:9">
@@ -6498,16 +6510,16 @@
         <v>198</v>
       </c>
       <c r="B187" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C187" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="G187" t="s">
-        <v>1064</v>
+        <v>1068</v>
       </c>
       <c r="I187" t="s">
-        <v>1148</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="188" spans="1:9">
@@ -6515,10 +6527,10 @@
         <v>199</v>
       </c>
       <c r="B188" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C188" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
     </row>
     <row r="189" spans="1:9">
@@ -6526,10 +6538,10 @@
         <v>200</v>
       </c>
       <c r="B189" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C189" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
     </row>
     <row r="190" spans="1:9">
@@ -6537,13 +6549,13 @@
         <v>201</v>
       </c>
       <c r="B190" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C190" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="E190" t="s">
-        <v>995</v>
+        <v>999</v>
       </c>
     </row>
     <row r="191" spans="1:9">
@@ -6551,10 +6563,10 @@
         <v>202</v>
       </c>
       <c r="B191" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C191" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
     </row>
     <row r="192" spans="1:9">
@@ -6562,10 +6574,10 @@
         <v>203</v>
       </c>
       <c r="B192" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C192" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -6573,10 +6585,10 @@
         <v>204</v>
       </c>
       <c r="B193" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C193" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -6584,10 +6596,10 @@
         <v>205</v>
       </c>
       <c r="B194" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C194" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -6595,10 +6607,10 @@
         <v>206</v>
       </c>
       <c r="B195" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C195" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -6606,10 +6618,10 @@
         <v>207</v>
       </c>
       <c r="B196" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C196" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -6617,10 +6629,10 @@
         <v>208</v>
       </c>
       <c r="B197" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C197" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -6628,10 +6640,10 @@
         <v>209</v>
       </c>
       <c r="B198" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C198" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -6639,10 +6651,10 @@
         <v>210</v>
       </c>
       <c r="B199" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C199" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -6650,10 +6662,10 @@
         <v>211</v>
       </c>
       <c r="B200" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C200" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -6661,10 +6673,10 @@
         <v>212</v>
       </c>
       <c r="B201" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C201" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -6672,10 +6684,10 @@
         <v>213</v>
       </c>
       <c r="B202" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="C202" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -6683,10 +6695,10 @@
         <v>214</v>
       </c>
       <c r="B203" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="C203" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -6694,10 +6706,10 @@
         <v>215</v>
       </c>
       <c r="B204" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="C204" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -6705,10 +6717,10 @@
         <v>216</v>
       </c>
       <c r="B205" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="C205" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -6716,10 +6728,10 @@
         <v>217</v>
       </c>
       <c r="B206" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="C206" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -6727,10 +6739,10 @@
         <v>218</v>
       </c>
       <c r="B207" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="C207" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -6738,10 +6750,10 @@
         <v>219</v>
       </c>
       <c r="B208" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="C208" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
     </row>
     <row r="209" spans="1:13">
@@ -6749,10 +6761,10 @@
         <v>220</v>
       </c>
       <c r="B209" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="C209" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
     </row>
     <row r="210" spans="1:13">
@@ -6760,10 +6772,10 @@
         <v>221</v>
       </c>
       <c r="B210" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="C210" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
     </row>
     <row r="211" spans="1:13">
@@ -6771,10 +6783,10 @@
         <v>222</v>
       </c>
       <c r="B211" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="C211" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
     </row>
     <row r="212" spans="1:13">
@@ -6782,10 +6794,10 @@
         <v>223</v>
       </c>
       <c r="B212" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="C212" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
     </row>
     <row r="213" spans="1:13">
@@ -6793,10 +6805,10 @@
         <v>224</v>
       </c>
       <c r="B213" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="C213" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
     </row>
     <row r="214" spans="1:13">
@@ -6804,10 +6816,10 @@
         <v>225</v>
       </c>
       <c r="B214" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="C214" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
     </row>
     <row r="215" spans="1:13">
@@ -6815,10 +6827,10 @@
         <v>226</v>
       </c>
       <c r="B215" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="C215" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
     </row>
     <row r="216" spans="1:13">
@@ -6826,10 +6838,10 @@
         <v>227</v>
       </c>
       <c r="B216" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="C216" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
     </row>
     <row r="217" spans="1:13">
@@ -6837,10 +6849,10 @@
         <v>228</v>
       </c>
       <c r="B217" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="C217" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
     </row>
     <row r="218" spans="1:13">
@@ -6848,10 +6860,10 @@
         <v>229</v>
       </c>
       <c r="B218" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="C218" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
     </row>
     <row r="219" spans="1:13">
@@ -6859,10 +6871,10 @@
         <v>230</v>
       </c>
       <c r="B219" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="C219" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
     </row>
     <row r="220" spans="1:13">
@@ -6870,10 +6882,10 @@
         <v>231</v>
       </c>
       <c r="B220" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="C220" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
     </row>
     <row r="221" spans="1:13">
@@ -6881,10 +6893,10 @@
         <v>232</v>
       </c>
       <c r="B221" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="C221" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
     </row>
     <row r="222" spans="1:13">
@@ -6892,10 +6904,10 @@
         <v>233</v>
       </c>
       <c r="B222" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="C222" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
     </row>
     <row r="223" spans="1:13">
@@ -6903,10 +6915,10 @@
         <v>234</v>
       </c>
       <c r="B223" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C223" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="M223">
         <v>1</v>
@@ -6917,10 +6929,10 @@
         <v>235</v>
       </c>
       <c r="B224" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C224" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -6928,10 +6940,10 @@
         <v>236</v>
       </c>
       <c r="B225" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C225" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -6939,10 +6951,10 @@
         <v>237</v>
       </c>
       <c r="B226" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C226" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -6950,10 +6962,10 @@
         <v>238</v>
       </c>
       <c r="B227" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C227" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -6961,10 +6973,10 @@
         <v>239</v>
       </c>
       <c r="B228" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C228" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -6972,10 +6984,10 @@
         <v>240</v>
       </c>
       <c r="B229" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C229" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -6983,10 +6995,10 @@
         <v>241</v>
       </c>
       <c r="B230" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C230" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -6994,10 +7006,10 @@
         <v>242</v>
       </c>
       <c r="B231" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C231" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -7005,10 +7017,10 @@
         <v>243</v>
       </c>
       <c r="B232" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C232" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -7016,10 +7028,10 @@
         <v>244</v>
       </c>
       <c r="B233" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C233" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -7027,10 +7039,10 @@
         <v>245</v>
       </c>
       <c r="B234" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C234" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -7038,10 +7050,10 @@
         <v>246</v>
       </c>
       <c r="B235" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C235" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -7049,10 +7061,10 @@
         <v>247</v>
       </c>
       <c r="B236" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C236" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -7060,10 +7072,10 @@
         <v>248</v>
       </c>
       <c r="B237" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C237" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -7071,10 +7083,10 @@
         <v>249</v>
       </c>
       <c r="B238" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C238" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -7082,10 +7094,10 @@
         <v>250</v>
       </c>
       <c r="B239" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C239" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -7093,13 +7105,13 @@
         <v>251</v>
       </c>
       <c r="B240" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C240" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="E240" t="s">
-        <v>996</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="241" spans="1:9">
@@ -7107,13 +7119,13 @@
         <v>252</v>
       </c>
       <c r="B241" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C241" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="G241" t="s">
-        <v>1008</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="242" spans="1:9">
@@ -7121,10 +7133,10 @@
         <v>253</v>
       </c>
       <c r="B242" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C242" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
     </row>
     <row r="243" spans="1:9">
@@ -7132,10 +7144,10 @@
         <v>254</v>
       </c>
       <c r="B243" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C243" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
     </row>
     <row r="244" spans="1:9">
@@ -7143,10 +7155,10 @@
         <v>255</v>
       </c>
       <c r="B244" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C244" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
     </row>
     <row r="245" spans="1:9">
@@ -7154,10 +7166,10 @@
         <v>256</v>
       </c>
       <c r="B245" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C245" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
     </row>
     <row r="246" spans="1:9">
@@ -7165,10 +7177,10 @@
         <v>257</v>
       </c>
       <c r="B246" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C246" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
     </row>
     <row r="247" spans="1:9">
@@ -7176,10 +7188,10 @@
         <v>258</v>
       </c>
       <c r="B247" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C247" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
     </row>
     <row r="248" spans="1:9">
@@ -7187,10 +7199,10 @@
         <v>259</v>
       </c>
       <c r="B248" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C248" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
     </row>
     <row r="249" spans="1:9">
@@ -7198,10 +7210,10 @@
         <v>260</v>
       </c>
       <c r="B249" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C249" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
     </row>
     <row r="250" spans="1:9">
@@ -7209,10 +7221,10 @@
         <v>261</v>
       </c>
       <c r="B250" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C250" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
     </row>
     <row r="251" spans="1:9">
@@ -7220,16 +7232,16 @@
         <v>262</v>
       </c>
       <c r="B251" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C251" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="G251" t="s">
-        <v>1065</v>
+        <v>1069</v>
       </c>
       <c r="I251" t="s">
-        <v>1139</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="252" spans="1:9">
@@ -7237,10 +7249,10 @@
         <v>263</v>
       </c>
       <c r="B252" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C252" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
     </row>
     <row r="253" spans="1:9">
@@ -7248,10 +7260,10 @@
         <v>264</v>
       </c>
       <c r="B253" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C253" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
     <row r="254" spans="1:9">
@@ -7259,10 +7271,10 @@
         <v>265</v>
       </c>
       <c r="B254" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C254" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
     </row>
     <row r="255" spans="1:9">
@@ -7270,13 +7282,13 @@
         <v>266</v>
       </c>
       <c r="B255" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C255" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="G255" t="s">
-        <v>1066</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="256" spans="1:9">
@@ -7284,16 +7296,16 @@
         <v>267</v>
       </c>
       <c r="B256" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C256" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="G256" t="s">
-        <v>1067</v>
+        <v>1071</v>
       </c>
       <c r="I256" t="s">
-        <v>1139</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="257" spans="1:9">
@@ -7301,13 +7313,13 @@
         <v>268</v>
       </c>
       <c r="B257" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C257" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="G257" t="s">
-        <v>1067</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="258" spans="1:9">
@@ -7315,10 +7327,10 @@
         <v>269</v>
       </c>
       <c r="B258" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C258" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
     </row>
     <row r="259" spans="1:9">
@@ -7326,10 +7338,10 @@
         <v>270</v>
       </c>
       <c r="B259" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C259" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
     </row>
     <row r="260" spans="1:9">
@@ -7337,13 +7349,13 @@
         <v>271</v>
       </c>
       <c r="B260" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C260" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="I260" t="s">
-        <v>1135</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="261" spans="1:9">
@@ -7351,10 +7363,10 @@
         <v>272</v>
       </c>
       <c r="B261" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C261" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
     </row>
     <row r="262" spans="1:9">
@@ -7362,10 +7374,10 @@
         <v>273</v>
       </c>
       <c r="B262" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C262" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
     </row>
     <row r="263" spans="1:9">
@@ -7373,13 +7385,13 @@
         <v>274</v>
       </c>
       <c r="B263" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C263" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="I263" t="s">
-        <v>1151</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="264" spans="1:9">
@@ -7387,13 +7399,13 @@
         <v>275</v>
       </c>
       <c r="B264" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C264" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="I264" t="s">
-        <v>1151</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="265" spans="1:9">
@@ -7401,13 +7413,13 @@
         <v>276</v>
       </c>
       <c r="B265" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C265" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="I265" t="s">
-        <v>1151</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="266" spans="1:9">
@@ -7415,13 +7427,13 @@
         <v>277</v>
       </c>
       <c r="B266" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C266" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="I266" t="s">
-        <v>1151</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="267" spans="1:9">
@@ -7429,13 +7441,13 @@
         <v>278</v>
       </c>
       <c r="B267" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C267" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="I267" t="s">
-        <v>1151</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="268" spans="1:9">
@@ -7443,13 +7455,13 @@
         <v>279</v>
       </c>
       <c r="B268" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C268" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="I268" t="s">
-        <v>1151</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="269" spans="1:9">
@@ -7457,13 +7469,13 @@
         <v>280</v>
       </c>
       <c r="B269" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C269" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="I269" t="s">
-        <v>1139</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="270" spans="1:9">
@@ -7471,10 +7483,10 @@
         <v>281</v>
       </c>
       <c r="B270" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="C270" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
     </row>
     <row r="271" spans="1:9">
@@ -7482,10 +7494,10 @@
         <v>282</v>
       </c>
       <c r="B271" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="C271" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
     </row>
     <row r="272" spans="1:9">
@@ -7493,10 +7505,10 @@
         <v>283</v>
       </c>
       <c r="B272" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="C272" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
     </row>
     <row r="273" spans="1:12">
@@ -7504,10 +7516,10 @@
         <v>284</v>
       </c>
       <c r="B273" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="C273" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
     </row>
     <row r="274" spans="1:12">
@@ -7515,13 +7527,13 @@
         <v>285</v>
       </c>
       <c r="B274" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="C274" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="H274" t="s">
-        <v>1114</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="275" spans="1:12">
@@ -7529,10 +7541,10 @@
         <v>286</v>
       </c>
       <c r="B275" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="C275" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="276" spans="1:12">
@@ -7540,10 +7552,10 @@
         <v>287</v>
       </c>
       <c r="B276" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="C276" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
     </row>
     <row r="277" spans="1:12">
@@ -7551,10 +7563,10 @@
         <v>288</v>
       </c>
       <c r="B277" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="C277" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
     </row>
     <row r="278" spans="1:12">
@@ -7562,16 +7574,10 @@
         <v>289</v>
       </c>
       <c r="B278" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="C278" t="s">
-        <v>786</v>
-      </c>
-      <c r="G278" t="s">
-        <v>1068</v>
-      </c>
-      <c r="I278" t="s">
-        <v>1152</v>
+        <v>788</v>
       </c>
     </row>
     <row r="279" spans="1:12">
@@ -7579,10 +7585,16 @@
         <v>290</v>
       </c>
       <c r="B279" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="C279" t="s">
-        <v>787</v>
+        <v>789</v>
+      </c>
+      <c r="G279" t="s">
+        <v>1072</v>
+      </c>
+      <c r="I279" t="s">
+        <v>1156</v>
       </c>
     </row>
     <row r="280" spans="1:12">
@@ -7590,10 +7602,10 @@
         <v>291</v>
       </c>
       <c r="B280" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="C280" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
     </row>
     <row r="281" spans="1:12">
@@ -7601,13 +7613,10 @@
         <v>292</v>
       </c>
       <c r="B281" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="C281" t="s">
-        <v>789</v>
-      </c>
-      <c r="L281">
-        <v>1</v>
+        <v>791</v>
       </c>
     </row>
     <row r="282" spans="1:12">
@@ -7615,13 +7624,13 @@
         <v>293</v>
       </c>
       <c r="B282" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="C282" t="s">
-        <v>790</v>
-      </c>
-      <c r="G282" t="s">
-        <v>1069</v>
+        <v>792</v>
+      </c>
+      <c r="L282">
+        <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:12">
@@ -7629,13 +7638,13 @@
         <v>294</v>
       </c>
       <c r="B283" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="C283" t="s">
-        <v>791</v>
-      </c>
-      <c r="L283">
-        <v>1</v>
+        <v>793</v>
+      </c>
+      <c r="G283" t="s">
+        <v>1073</v>
       </c>
     </row>
     <row r="284" spans="1:12">
@@ -7643,10 +7652,13 @@
         <v>295</v>
       </c>
       <c r="B284" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="C284" t="s">
-        <v>792</v>
+        <v>794</v>
+      </c>
+      <c r="L284">
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:12">
@@ -7654,10 +7666,10 @@
         <v>296</v>
       </c>
       <c r="B285" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="C285" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
     </row>
     <row r="286" spans="1:12">
@@ -7665,10 +7677,10 @@
         <v>297</v>
       </c>
       <c r="B286" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="C286" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
     </row>
     <row r="287" spans="1:12">
@@ -7676,10 +7688,10 @@
         <v>298</v>
       </c>
       <c r="B287" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="C287" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
     </row>
     <row r="288" spans="1:12">
@@ -7687,10 +7699,10 @@
         <v>299</v>
       </c>
       <c r="B288" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="C288" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
     </row>
     <row r="289" spans="1:12">
@@ -7698,13 +7710,10 @@
         <v>300</v>
       </c>
       <c r="B289" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="C289" t="s">
-        <v>797</v>
-      </c>
-      <c r="L289">
-        <v>1</v>
+        <v>799</v>
       </c>
     </row>
     <row r="290" spans="1:12">
@@ -7712,10 +7721,13 @@
         <v>301</v>
       </c>
       <c r="B290" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C290" t="s">
-        <v>798</v>
+        <v>800</v>
+      </c>
+      <c r="L290">
+        <v>1</v>
       </c>
     </row>
     <row r="291" spans="1:12">
@@ -7723,10 +7735,10 @@
         <v>302</v>
       </c>
       <c r="B291" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="C291" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
     </row>
     <row r="292" spans="1:12">
@@ -7734,16 +7746,10 @@
         <v>303</v>
       </c>
       <c r="B292" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="C292" t="s">
-        <v>800</v>
-      </c>
-      <c r="G292" t="s">
-        <v>1070</v>
-      </c>
-      <c r="I292" t="s">
-        <v>1146</v>
+        <v>802</v>
       </c>
     </row>
     <row r="293" spans="1:12">
@@ -7751,10 +7757,16 @@
         <v>304</v>
       </c>
       <c r="B293" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="C293" t="s">
-        <v>801</v>
+        <v>803</v>
+      </c>
+      <c r="G293" t="s">
+        <v>1074</v>
+      </c>
+      <c r="I293" t="s">
+        <v>1150</v>
       </c>
     </row>
     <row r="294" spans="1:12">
@@ -7762,10 +7774,10 @@
         <v>305</v>
       </c>
       <c r="B294" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="C294" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
     </row>
     <row r="295" spans="1:12">
@@ -7773,16 +7785,10 @@
         <v>306</v>
       </c>
       <c r="B295" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="C295" t="s">
-        <v>803</v>
-      </c>
-      <c r="G295" t="s">
-        <v>1071</v>
-      </c>
-      <c r="I295" t="s">
-        <v>1146</v>
+        <v>805</v>
       </c>
     </row>
     <row r="296" spans="1:12">
@@ -7790,16 +7796,16 @@
         <v>307</v>
       </c>
       <c r="B296" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="C296" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="G296" t="s">
-        <v>1072</v>
+        <v>1075</v>
       </c>
       <c r="I296" t="s">
-        <v>1141</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="297" spans="1:12">
@@ -7807,10 +7813,16 @@
         <v>308</v>
       </c>
       <c r="B297" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="C297" t="s">
-        <v>805</v>
+        <v>807</v>
+      </c>
+      <c r="G297" t="s">
+        <v>1076</v>
+      </c>
+      <c r="I297" t="s">
+        <v>1145</v>
       </c>
     </row>
     <row r="298" spans="1:12">
@@ -7818,10 +7830,10 @@
         <v>309</v>
       </c>
       <c r="B298" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C298" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
     </row>
     <row r="299" spans="1:12">
@@ -7829,10 +7841,10 @@
         <v>310</v>
       </c>
       <c r="B299" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C299" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
     </row>
     <row r="300" spans="1:12">
@@ -7840,10 +7852,10 @@
         <v>311</v>
       </c>
       <c r="B300" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C300" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
     </row>
     <row r="301" spans="1:12">
@@ -7851,10 +7863,10 @@
         <v>312</v>
       </c>
       <c r="B301" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C301" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
     </row>
     <row r="302" spans="1:12">
@@ -7862,10 +7874,10 @@
         <v>313</v>
       </c>
       <c r="B302" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C302" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
     </row>
     <row r="303" spans="1:12">
@@ -7873,10 +7885,10 @@
         <v>314</v>
       </c>
       <c r="B303" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C303" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
     </row>
     <row r="304" spans="1:12">
@@ -7884,10 +7896,10 @@
         <v>315</v>
       </c>
       <c r="B304" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C304" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -7895,10 +7907,10 @@
         <v>316</v>
       </c>
       <c r="B305" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C305" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -7906,10 +7918,10 @@
         <v>317</v>
       </c>
       <c r="B306" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C306" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -7917,10 +7929,10 @@
         <v>318</v>
       </c>
       <c r="B307" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C307" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -7928,10 +7940,10 @@
         <v>319</v>
       </c>
       <c r="B308" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C308" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -7939,10 +7951,10 @@
         <v>320</v>
       </c>
       <c r="B309" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C309" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -7950,10 +7962,10 @@
         <v>321</v>
       </c>
       <c r="B310" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C310" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -7961,10 +7973,10 @@
         <v>322</v>
       </c>
       <c r="B311" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C311" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -7972,10 +7984,10 @@
         <v>323</v>
       </c>
       <c r="B312" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C312" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -7983,10 +7995,10 @@
         <v>324</v>
       </c>
       <c r="B313" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C313" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -7994,10 +8006,10 @@
         <v>325</v>
       </c>
       <c r="B314" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C314" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -8005,10 +8017,10 @@
         <v>326</v>
       </c>
       <c r="B315" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C315" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -8016,10 +8028,10 @@
         <v>327</v>
       </c>
       <c r="B316" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C316" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -8027,10 +8039,10 @@
         <v>328</v>
       </c>
       <c r="B317" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C317" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -8038,10 +8050,10 @@
         <v>329</v>
       </c>
       <c r="B318" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C318" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -8049,10 +8061,10 @@
         <v>330</v>
       </c>
       <c r="B319" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C319" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -8060,10 +8072,10 @@
         <v>331</v>
       </c>
       <c r="B320" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C320" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -8071,10 +8083,10 @@
         <v>332</v>
       </c>
       <c r="B321" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C321" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -8082,10 +8094,10 @@
         <v>333</v>
       </c>
       <c r="B322" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C322" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -8093,10 +8105,10 @@
         <v>334</v>
       </c>
       <c r="B323" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C323" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -8104,10 +8116,10 @@
         <v>335</v>
       </c>
       <c r="B324" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C324" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -8115,10 +8127,10 @@
         <v>336</v>
       </c>
       <c r="B325" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C325" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -8126,10 +8138,10 @@
         <v>337</v>
       </c>
       <c r="B326" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C326" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -8137,10 +8149,10 @@
         <v>338</v>
       </c>
       <c r="B327" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C327" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -8148,10 +8160,10 @@
         <v>339</v>
       </c>
       <c r="B328" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C328" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -8159,10 +8171,10 @@
         <v>340</v>
       </c>
       <c r="B329" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C329" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -8170,10 +8182,10 @@
         <v>341</v>
       </c>
       <c r="B330" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C330" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -8181,10 +8193,10 @@
         <v>342</v>
       </c>
       <c r="B331" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C331" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -8192,10 +8204,10 @@
         <v>343</v>
       </c>
       <c r="B332" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C332" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -8203,10 +8215,10 @@
         <v>344</v>
       </c>
       <c r="B333" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C333" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -8214,10 +8226,10 @@
         <v>345</v>
       </c>
       <c r="B334" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C334" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -8225,10 +8237,10 @@
         <v>346</v>
       </c>
       <c r="B335" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C335" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -8236,10 +8248,10 @@
         <v>347</v>
       </c>
       <c r="B336" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C336" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -8247,10 +8259,10 @@
         <v>348</v>
       </c>
       <c r="B337" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C337" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -8258,10 +8270,10 @@
         <v>349</v>
       </c>
       <c r="B338" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C338" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -8269,10 +8281,10 @@
         <v>350</v>
       </c>
       <c r="B339" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C339" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -8280,10 +8292,10 @@
         <v>351</v>
       </c>
       <c r="B340" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C340" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -8291,10 +8303,10 @@
         <v>352</v>
       </c>
       <c r="B341" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C341" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -8302,10 +8314,10 @@
         <v>353</v>
       </c>
       <c r="B342" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C342" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -8313,10 +8325,10 @@
         <v>354</v>
       </c>
       <c r="B343" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C343" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -8324,10 +8336,10 @@
         <v>355</v>
       </c>
       <c r="B344" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C344" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -8335,10 +8347,10 @@
         <v>356</v>
       </c>
       <c r="B345" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C345" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -8346,10 +8358,10 @@
         <v>357</v>
       </c>
       <c r="B346" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C346" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -8357,10 +8369,10 @@
         <v>358</v>
       </c>
       <c r="B347" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C347" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -8368,10 +8380,10 @@
         <v>359</v>
       </c>
       <c r="B348" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C348" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -8379,10 +8391,10 @@
         <v>360</v>
       </c>
       <c r="B349" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C349" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -8390,10 +8402,10 @@
         <v>361</v>
       </c>
       <c r="B350" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C350" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -8401,10 +8413,10 @@
         <v>362</v>
       </c>
       <c r="B351" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C351" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -8412,10 +8424,10 @@
         <v>363</v>
       </c>
       <c r="B352" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C352" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -8423,10 +8435,10 @@
         <v>364</v>
       </c>
       <c r="B353" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C353" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -8434,10 +8446,10 @@
         <v>365</v>
       </c>
       <c r="B354" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C354" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -8445,10 +8457,10 @@
         <v>366</v>
       </c>
       <c r="B355" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C355" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -8456,10 +8468,10 @@
         <v>367</v>
       </c>
       <c r="B356" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C356" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -8467,10 +8479,10 @@
         <v>368</v>
       </c>
       <c r="B357" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C357" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -8478,10 +8490,10 @@
         <v>369</v>
       </c>
       <c r="B358" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C358" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -8489,10 +8501,10 @@
         <v>370</v>
       </c>
       <c r="B359" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C359" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -8500,10 +8512,10 @@
         <v>371</v>
       </c>
       <c r="B360" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C360" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -8511,10 +8523,10 @@
         <v>372</v>
       </c>
       <c r="B361" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C361" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -8522,10 +8534,10 @@
         <v>373</v>
       </c>
       <c r="B362" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C362" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -8533,10 +8545,10 @@
         <v>374</v>
       </c>
       <c r="B363" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C363" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -8544,10 +8556,10 @@
         <v>375</v>
       </c>
       <c r="B364" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C364" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -8555,10 +8567,10 @@
         <v>376</v>
       </c>
       <c r="B365" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C365" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -8566,13 +8578,10 @@
         <v>377</v>
       </c>
       <c r="B366" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C366" t="s">
-        <v>874</v>
-      </c>
-      <c r="H366" t="s">
-        <v>1115</v>
+        <v>876</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -8580,10 +8589,13 @@
         <v>378</v>
       </c>
       <c r="B367" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C367" t="s">
-        <v>875</v>
+        <v>877</v>
+      </c>
+      <c r="H367" t="s">
+        <v>1119</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -8591,10 +8603,10 @@
         <v>379</v>
       </c>
       <c r="B368" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C368" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
     </row>
     <row r="369" spans="1:9">
@@ -8602,13 +8614,10 @@
         <v>380</v>
       </c>
       <c r="B369" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C369" t="s">
-        <v>877</v>
-      </c>
-      <c r="H369" t="s">
-        <v>1116</v>
+        <v>879</v>
       </c>
     </row>
     <row r="370" spans="1:9">
@@ -8616,13 +8625,13 @@
         <v>381</v>
       </c>
       <c r="B370" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C370" t="s">
-        <v>878</v>
-      </c>
-      <c r="I370" t="s">
-        <v>1139</v>
+        <v>880</v>
+      </c>
+      <c r="H370" t="s">
+        <v>1120</v>
       </c>
     </row>
     <row r="371" spans="1:9">
@@ -8630,13 +8639,13 @@
         <v>382</v>
       </c>
       <c r="B371" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C371" t="s">
-        <v>879</v>
-      </c>
-      <c r="H371" t="s">
-        <v>1117</v>
+        <v>881</v>
+      </c>
+      <c r="I371" t="s">
+        <v>1143</v>
       </c>
     </row>
     <row r="372" spans="1:9">
@@ -8644,10 +8653,13 @@
         <v>383</v>
       </c>
       <c r="B372" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C372" t="s">
-        <v>880</v>
+        <v>882</v>
+      </c>
+      <c r="H372" t="s">
+        <v>1121</v>
       </c>
     </row>
     <row r="373" spans="1:9">
@@ -8655,13 +8667,10 @@
         <v>384</v>
       </c>
       <c r="B373" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C373" t="s">
-        <v>881</v>
-      </c>
-      <c r="H373" t="s">
-        <v>1118</v>
+        <v>883</v>
       </c>
     </row>
     <row r="374" spans="1:9">
@@ -8669,10 +8678,13 @@
         <v>385</v>
       </c>
       <c r="B374" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C374" t="s">
-        <v>882</v>
+        <v>884</v>
+      </c>
+      <c r="H374" t="s">
+        <v>1122</v>
       </c>
     </row>
     <row r="375" spans="1:9">
@@ -8680,10 +8692,10 @@
         <v>386</v>
       </c>
       <c r="B375" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C375" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
     </row>
     <row r="376" spans="1:9">
@@ -8691,10 +8703,10 @@
         <v>387</v>
       </c>
       <c r="B376" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C376" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
     </row>
     <row r="377" spans="1:9">
@@ -8702,13 +8714,10 @@
         <v>388</v>
       </c>
       <c r="B377" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C377" t="s">
-        <v>885</v>
-      </c>
-      <c r="H377" t="s">
-        <v>1119</v>
+        <v>887</v>
       </c>
     </row>
     <row r="378" spans="1:9">
@@ -8716,16 +8725,13 @@
         <v>389</v>
       </c>
       <c r="B378" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C378" t="s">
-        <v>886</v>
-      </c>
-      <c r="G378" t="s">
-        <v>1073</v>
+        <v>888</v>
       </c>
       <c r="H378" t="s">
-        <v>1120</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="379" spans="1:9">
@@ -8733,10 +8739,16 @@
         <v>390</v>
       </c>
       <c r="B379" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C379" t="s">
-        <v>887</v>
+        <v>889</v>
+      </c>
+      <c r="G379" t="s">
+        <v>1077</v>
+      </c>
+      <c r="H379" t="s">
+        <v>1124</v>
       </c>
     </row>
     <row r="380" spans="1:9">
@@ -8744,13 +8756,10 @@
         <v>391</v>
       </c>
       <c r="B380" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C380" t="s">
-        <v>888</v>
-      </c>
-      <c r="H380" t="s">
-        <v>1121</v>
+        <v>890</v>
       </c>
     </row>
     <row r="381" spans="1:9">
@@ -8758,10 +8767,13 @@
         <v>392</v>
       </c>
       <c r="B381" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C381" t="s">
-        <v>889</v>
+        <v>891</v>
+      </c>
+      <c r="H381" t="s">
+        <v>1125</v>
       </c>
     </row>
     <row r="382" spans="1:9">
@@ -8769,13 +8781,10 @@
         <v>393</v>
       </c>
       <c r="B382" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C382" t="s">
-        <v>890</v>
-      </c>
-      <c r="H382" t="s">
-        <v>1122</v>
+        <v>892</v>
       </c>
     </row>
     <row r="383" spans="1:9">
@@ -8783,13 +8792,13 @@
         <v>394</v>
       </c>
       <c r="B383" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C383" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="H383" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="384" spans="1:9">
@@ -8797,10 +8806,13 @@
         <v>395</v>
       </c>
       <c r="B384" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C384" t="s">
-        <v>892</v>
+        <v>894</v>
+      </c>
+      <c r="H384" t="s">
+        <v>1126</v>
       </c>
     </row>
     <row r="385" spans="1:12">
@@ -8808,10 +8820,10 @@
         <v>396</v>
       </c>
       <c r="B385" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C385" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
     </row>
     <row r="386" spans="1:12">
@@ -8819,10 +8831,10 @@
         <v>397</v>
       </c>
       <c r="B386" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C386" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
     </row>
     <row r="387" spans="1:12">
@@ -8830,13 +8842,10 @@
         <v>398</v>
       </c>
       <c r="B387" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C387" t="s">
-        <v>895</v>
-      </c>
-      <c r="L387">
-        <v>1</v>
+        <v>897</v>
       </c>
     </row>
     <row r="388" spans="1:12">
@@ -8844,16 +8853,13 @@
         <v>399</v>
       </c>
       <c r="B388" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C388" t="s">
-        <v>896</v>
-      </c>
-      <c r="G388" t="s">
-        <v>1074</v>
-      </c>
-      <c r="I388" t="s">
-        <v>1141</v>
+        <v>898</v>
+      </c>
+      <c r="L388">
+        <v>1</v>
       </c>
     </row>
     <row r="389" spans="1:12">
@@ -8861,16 +8867,16 @@
         <v>400</v>
       </c>
       <c r="B389" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C389" t="s">
-        <v>897</v>
-      </c>
-      <c r="E389" t="s">
-        <v>997</v>
-      </c>
-      <c r="L389">
-        <v>1</v>
+        <v>899</v>
+      </c>
+      <c r="G389" t="s">
+        <v>1078</v>
+      </c>
+      <c r="I389" t="s">
+        <v>1145</v>
       </c>
     </row>
     <row r="390" spans="1:12">
@@ -8878,10 +8884,16 @@
         <v>401</v>
       </c>
       <c r="B390" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C390" t="s">
-        <v>898</v>
+        <v>900</v>
+      </c>
+      <c r="E390" t="s">
+        <v>1001</v>
+      </c>
+      <c r="L390">
+        <v>1</v>
       </c>
     </row>
     <row r="391" spans="1:12">
@@ -8889,16 +8901,10 @@
         <v>402</v>
       </c>
       <c r="B391" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C391" t="s">
-        <v>899</v>
-      </c>
-      <c r="G391" t="s">
-        <v>1075</v>
-      </c>
-      <c r="I391" t="s">
-        <v>1153</v>
+        <v>901</v>
       </c>
     </row>
     <row r="392" spans="1:12">
@@ -8906,13 +8912,16 @@
         <v>403</v>
       </c>
       <c r="B392" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C392" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="G392" t="s">
-        <v>1076</v>
+        <v>1079</v>
+      </c>
+      <c r="I392" t="s">
+        <v>1157</v>
       </c>
     </row>
     <row r="393" spans="1:12">
@@ -8920,13 +8929,13 @@
         <v>404</v>
       </c>
       <c r="B393" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C393" t="s">
-        <v>901</v>
-      </c>
-      <c r="L393">
-        <v>1</v>
+        <v>903</v>
+      </c>
+      <c r="G393" t="s">
+        <v>1080</v>
       </c>
     </row>
     <row r="394" spans="1:12">
@@ -8934,10 +8943,13 @@
         <v>405</v>
       </c>
       <c r="B394" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C394" t="s">
-        <v>902</v>
+        <v>904</v>
+      </c>
+      <c r="L394">
+        <v>1</v>
       </c>
     </row>
     <row r="395" spans="1:12">
@@ -8945,10 +8957,10 @@
         <v>406</v>
       </c>
       <c r="B395" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C395" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
     </row>
     <row r="396" spans="1:12">
@@ -8956,10 +8968,10 @@
         <v>407</v>
       </c>
       <c r="B396" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C396" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
     </row>
     <row r="397" spans="1:12">
@@ -8967,13 +8979,10 @@
         <v>408</v>
       </c>
       <c r="B397" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C397" t="s">
-        <v>905</v>
-      </c>
-      <c r="L397">
-        <v>1</v>
+        <v>907</v>
       </c>
     </row>
     <row r="398" spans="1:12">
@@ -8981,10 +8990,13 @@
         <v>409</v>
       </c>
       <c r="B398" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C398" t="s">
-        <v>906</v>
+        <v>908</v>
+      </c>
+      <c r="L398">
+        <v>1</v>
       </c>
     </row>
     <row r="399" spans="1:12">
@@ -8992,13 +9004,10 @@
         <v>410</v>
       </c>
       <c r="B399" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C399" t="s">
-        <v>907</v>
-      </c>
-      <c r="H399" t="s">
-        <v>1122</v>
+        <v>909</v>
       </c>
     </row>
     <row r="400" spans="1:12">
@@ -9006,13 +9015,13 @@
         <v>411</v>
       </c>
       <c r="B400" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C400" t="s">
-        <v>908</v>
-      </c>
-      <c r="L400">
-        <v>1</v>
+        <v>910</v>
+      </c>
+      <c r="H400" t="s">
+        <v>1126</v>
       </c>
     </row>
     <row r="401" spans="1:12">
@@ -9020,10 +9029,13 @@
         <v>412</v>
       </c>
       <c r="B401" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C401" t="s">
-        <v>909</v>
+        <v>911</v>
+      </c>
+      <c r="L401">
+        <v>1</v>
       </c>
     </row>
     <row r="402" spans="1:12">
@@ -9031,10 +9043,10 @@
         <v>413</v>
       </c>
       <c r="B402" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C402" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
     </row>
     <row r="403" spans="1:12">
@@ -9042,10 +9054,10 @@
         <v>414</v>
       </c>
       <c r="B403" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C403" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
     </row>
     <row r="404" spans="1:12">
@@ -9053,10 +9065,10 @@
         <v>415</v>
       </c>
       <c r="B404" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C404" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
     </row>
     <row r="405" spans="1:12">
@@ -9064,13 +9076,10 @@
         <v>416</v>
       </c>
       <c r="B405" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C405" t="s">
-        <v>913</v>
-      </c>
-      <c r="E405" t="s">
-        <v>998</v>
+        <v>915</v>
       </c>
     </row>
     <row r="406" spans="1:12">
@@ -9078,10 +9087,13 @@
         <v>417</v>
       </c>
       <c r="B406" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C406" t="s">
-        <v>914</v>
+        <v>916</v>
+      </c>
+      <c r="E406" t="s">
+        <v>1002</v>
       </c>
     </row>
     <row r="407" spans="1:12">
@@ -9089,10 +9101,10 @@
         <v>418</v>
       </c>
       <c r="B407" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C407" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
     </row>
     <row r="408" spans="1:12">
@@ -9100,13 +9112,10 @@
         <v>419</v>
       </c>
       <c r="B408" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C408" t="s">
-        <v>916</v>
-      </c>
-      <c r="I408" t="s">
-        <v>1141</v>
+        <v>918</v>
       </c>
     </row>
     <row r="409" spans="1:12">
@@ -9114,10 +9123,13 @@
         <v>420</v>
       </c>
       <c r="B409" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C409" t="s">
-        <v>917</v>
+        <v>919</v>
+      </c>
+      <c r="I409" t="s">
+        <v>1145</v>
       </c>
     </row>
     <row r="410" spans="1:12">
@@ -9125,13 +9137,10 @@
         <v>421</v>
       </c>
       <c r="B410" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C410" t="s">
-        <v>918</v>
-      </c>
-      <c r="L410">
-        <v>1</v>
+        <v>920</v>
       </c>
     </row>
     <row r="411" spans="1:12">
@@ -9139,10 +9148,13 @@
         <v>422</v>
       </c>
       <c r="B411" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C411" t="s">
-        <v>919</v>
+        <v>921</v>
+      </c>
+      <c r="L411">
+        <v>1</v>
       </c>
     </row>
     <row r="412" spans="1:12">
@@ -9150,13 +9162,10 @@
         <v>423</v>
       </c>
       <c r="B412" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C412" t="s">
-        <v>920</v>
-      </c>
-      <c r="I412" t="s">
-        <v>1152</v>
+        <v>922</v>
       </c>
     </row>
     <row r="413" spans="1:12">
@@ -9164,10 +9173,13 @@
         <v>424</v>
       </c>
       <c r="B413" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C413" t="s">
-        <v>921</v>
+        <v>923</v>
+      </c>
+      <c r="I413" t="s">
+        <v>1156</v>
       </c>
     </row>
     <row r="414" spans="1:12">
@@ -9175,10 +9187,10 @@
         <v>425</v>
       </c>
       <c r="B414" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C414" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
     </row>
     <row r="415" spans="1:12">
@@ -9186,10 +9198,10 @@
         <v>426</v>
       </c>
       <c r="B415" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C415" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
     </row>
     <row r="416" spans="1:12">
@@ -9197,16 +9209,10 @@
         <v>427</v>
       </c>
       <c r="B416" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="C416" t="s">
-        <v>924</v>
-      </c>
-      <c r="G416" t="s">
-        <v>1077</v>
-      </c>
-      <c r="I416" t="s">
-        <v>1154</v>
+        <v>926</v>
       </c>
     </row>
     <row r="417" spans="1:9">
@@ -9214,16 +9220,16 @@
         <v>428</v>
       </c>
       <c r="B417" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="C417" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="G417" t="s">
-        <v>1078</v>
+        <v>1081</v>
       </c>
       <c r="I417" t="s">
-        <v>1152</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="418" spans="1:9">
@@ -9231,10 +9237,16 @@
         <v>429</v>
       </c>
       <c r="B418" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="C418" t="s">
-        <v>926</v>
+        <v>928</v>
+      </c>
+      <c r="G418" t="s">
+        <v>1082</v>
+      </c>
+      <c r="I418" t="s">
+        <v>1156</v>
       </c>
     </row>
     <row r="419" spans="1:9">
@@ -9242,10 +9254,10 @@
         <v>430</v>
       </c>
       <c r="B419" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="C419" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
     </row>
     <row r="420" spans="1:9">
@@ -9253,10 +9265,10 @@
         <v>431</v>
       </c>
       <c r="B420" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="C420" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
     </row>
     <row r="421" spans="1:9">
@@ -9264,16 +9276,10 @@
         <v>432</v>
       </c>
       <c r="B421" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="C421" t="s">
-        <v>929</v>
-      </c>
-      <c r="G421" t="s">
-        <v>1079</v>
-      </c>
-      <c r="I421" t="s">
-        <v>1140</v>
+        <v>931</v>
       </c>
     </row>
     <row r="422" spans="1:9">
@@ -9281,16 +9287,16 @@
         <v>433</v>
       </c>
       <c r="B422" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="C422" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="G422" t="s">
-        <v>1080</v>
+        <v>1083</v>
       </c>
       <c r="I422" t="s">
-        <v>1138</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="423" spans="1:9">
@@ -9298,10 +9304,16 @@
         <v>434</v>
       </c>
       <c r="B423" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="C423" t="s">
-        <v>931</v>
+        <v>933</v>
+      </c>
+      <c r="G423" t="s">
+        <v>1084</v>
+      </c>
+      <c r="I423" t="s">
+        <v>1142</v>
       </c>
     </row>
     <row r="424" spans="1:9">
@@ -9309,16 +9321,10 @@
         <v>435</v>
       </c>
       <c r="B424" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="C424" t="s">
-        <v>932</v>
-      </c>
-      <c r="G424" t="s">
-        <v>1081</v>
-      </c>
-      <c r="I424" t="s">
-        <v>1138</v>
+        <v>934</v>
       </c>
     </row>
     <row r="425" spans="1:9">
@@ -9326,16 +9332,16 @@
         <v>436</v>
       </c>
       <c r="B425" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="C425" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="G425" t="s">
-        <v>1082</v>
+        <v>1085</v>
       </c>
       <c r="I425" t="s">
-        <v>1138</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="426" spans="1:9">
@@ -9343,16 +9349,16 @@
         <v>437</v>
       </c>
       <c r="B426" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="C426" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="G426" t="s">
-        <v>1083</v>
+        <v>1086</v>
       </c>
       <c r="I426" t="s">
-        <v>1155</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="427" spans="1:9">
@@ -9360,10 +9366,16 @@
         <v>438</v>
       </c>
       <c r="B427" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="C427" t="s">
-        <v>935</v>
+        <v>937</v>
+      </c>
+      <c r="G427" t="s">
+        <v>1087</v>
+      </c>
+      <c r="I427" t="s">
+        <v>1159</v>
       </c>
     </row>
     <row r="428" spans="1:9">
@@ -9371,16 +9383,10 @@
         <v>439</v>
       </c>
       <c r="B428" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="C428" t="s">
-        <v>936</v>
-      </c>
-      <c r="G428" t="s">
-        <v>1084</v>
-      </c>
-      <c r="I428" t="s">
-        <v>1138</v>
+        <v>938</v>
       </c>
     </row>
     <row r="429" spans="1:9">
@@ -9388,16 +9394,16 @@
         <v>440</v>
       </c>
       <c r="B429" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="C429" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="G429" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
       <c r="I429" t="s">
-        <v>1156</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="430" spans="1:9">
@@ -9405,16 +9411,16 @@
         <v>441</v>
       </c>
       <c r="B430" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="C430" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="G430" t="s">
-        <v>1086</v>
+        <v>1089</v>
       </c>
       <c r="I430" t="s">
-        <v>1154</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="431" spans="1:9">
@@ -9422,16 +9428,16 @@
         <v>442</v>
       </c>
       <c r="B431" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="C431" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="G431" t="s">
-        <v>1087</v>
+        <v>1090</v>
       </c>
       <c r="I431" t="s">
-        <v>1154</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="432" spans="1:9">
@@ -9439,16 +9445,16 @@
         <v>443</v>
       </c>
       <c r="B432" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="C432" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="G432" t="s">
-        <v>1088</v>
+        <v>1091</v>
       </c>
       <c r="I432" t="s">
-        <v>1156</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="433" spans="1:12">
@@ -9456,16 +9462,16 @@
         <v>444</v>
       </c>
       <c r="B433" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="C433" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="G433" t="s">
-        <v>1089</v>
+        <v>1092</v>
       </c>
       <c r="I433" t="s">
-        <v>1140</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="434" spans="1:12">
@@ -9473,10 +9479,10 @@
         <v>445</v>
       </c>
       <c r="B434" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="C434" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
     </row>
     <row r="435" spans="1:12">
@@ -9484,19 +9490,16 @@
         <v>446</v>
       </c>
       <c r="B435" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C435" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="G435" t="s">
-        <v>1090</v>
-      </c>
-      <c r="H435" t="s">
-        <v>1123</v>
+        <v>1093</v>
       </c>
       <c r="I435" t="s">
-        <v>1148</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="436" spans="1:12">
@@ -9504,13 +9507,10 @@
         <v>447</v>
       </c>
       <c r="B436" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C436" t="s">
-        <v>944</v>
-      </c>
-      <c r="L436">
-        <v>1</v>
+        <v>946</v>
       </c>
     </row>
     <row r="437" spans="1:12">
@@ -9518,13 +9518,19 @@
         <v>448</v>
       </c>
       <c r="B437" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C437" t="s">
-        <v>945</v>
+        <v>947</v>
+      </c>
+      <c r="G437" t="s">
+        <v>1094</v>
       </c>
       <c r="H437" t="s">
-        <v>1124</v>
+        <v>1127</v>
+      </c>
+      <c r="I437" t="s">
+        <v>1152</v>
       </c>
     </row>
     <row r="438" spans="1:12">
@@ -9532,19 +9538,13 @@
         <v>449</v>
       </c>
       <c r="B438" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C438" t="s">
-        <v>946</v>
-      </c>
-      <c r="G438" t="s">
-        <v>1091</v>
-      </c>
-      <c r="H438" t="s">
-        <v>1109</v>
-      </c>
-      <c r="I438" t="s">
-        <v>1139</v>
+        <v>948</v>
+      </c>
+      <c r="L438">
+        <v>1</v>
       </c>
     </row>
     <row r="439" spans="1:12">
@@ -9552,10 +9552,13 @@
         <v>450</v>
       </c>
       <c r="B439" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C439" t="s">
-        <v>947</v>
+        <v>949</v>
+      </c>
+      <c r="H439" t="s">
+        <v>1128</v>
       </c>
     </row>
     <row r="440" spans="1:12">
@@ -9563,19 +9566,19 @@
         <v>451</v>
       </c>
       <c r="B440" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C440" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="G440" t="s">
-        <v>1092</v>
+        <v>1095</v>
       </c>
       <c r="H440" t="s">
-        <v>1125</v>
+        <v>1113</v>
       </c>
       <c r="I440" t="s">
-        <v>1136</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="441" spans="1:12">
@@ -9583,13 +9586,10 @@
         <v>452</v>
       </c>
       <c r="B441" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C441" t="s">
-        <v>949</v>
-      </c>
-      <c r="L441">
-        <v>1</v>
+        <v>951</v>
       </c>
     </row>
     <row r="442" spans="1:12">
@@ -9597,16 +9597,19 @@
         <v>453</v>
       </c>
       <c r="B442" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C442" t="s">
-        <v>950</v>
-      </c>
-      <c r="E442" t="s">
-        <v>999</v>
+        <v>952</v>
       </c>
       <c r="G442" t="s">
-        <v>1093</v>
+        <v>1096</v>
+      </c>
+      <c r="H442" t="s">
+        <v>1129</v>
+      </c>
+      <c r="I442" t="s">
+        <v>1140</v>
       </c>
     </row>
     <row r="443" spans="1:12">
@@ -9614,16 +9617,13 @@
         <v>454</v>
       </c>
       <c r="B443" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C443" t="s">
-        <v>951</v>
-      </c>
-      <c r="E443" t="s">
-        <v>1000</v>
-      </c>
-      <c r="G443" t="s">
-        <v>1094</v>
+        <v>953</v>
+      </c>
+      <c r="L443">
+        <v>1</v>
       </c>
     </row>
     <row r="444" spans="1:12">
@@ -9631,22 +9631,16 @@
         <v>455</v>
       </c>
       <c r="B444" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C444" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="E444" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="G444" t="s">
-        <v>1095</v>
-      </c>
-      <c r="H444" t="s">
-        <v>1126</v>
-      </c>
-      <c r="I444" t="s">
-        <v>1157</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="445" spans="1:12">
@@ -9654,16 +9648,16 @@
         <v>456</v>
       </c>
       <c r="B445" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C445" t="s">
-        <v>953</v>
-      </c>
-      <c r="H445" t="s">
-        <v>1109</v>
-      </c>
-      <c r="I445" t="s">
-        <v>1158</v>
+        <v>955</v>
+      </c>
+      <c r="E445" t="s">
+        <v>1004</v>
+      </c>
+      <c r="G445" t="s">
+        <v>1098</v>
       </c>
     </row>
     <row r="446" spans="1:12">
@@ -9671,19 +9665,22 @@
         <v>457</v>
       </c>
       <c r="B446" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C446" t="s">
-        <v>954</v>
+        <v>956</v>
+      </c>
+      <c r="E446" t="s">
+        <v>1005</v>
       </c>
       <c r="G446" t="s">
-        <v>1096</v>
+        <v>1099</v>
       </c>
       <c r="H446" t="s">
-        <v>1127</v>
+        <v>1130</v>
       </c>
       <c r="I446" t="s">
-        <v>1159</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="447" spans="1:12">
@@ -9691,19 +9688,16 @@
         <v>458</v>
       </c>
       <c r="B447" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C447" t="s">
-        <v>955</v>
-      </c>
-      <c r="G447" t="s">
-        <v>1097</v>
+        <v>957</v>
       </c>
       <c r="H447" t="s">
-        <v>1128</v>
+        <v>1113</v>
       </c>
       <c r="I447" t="s">
-        <v>1141</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="448" spans="1:12">
@@ -9711,13 +9705,19 @@
         <v>459</v>
       </c>
       <c r="B448" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C448" t="s">
-        <v>956</v>
+        <v>958</v>
+      </c>
+      <c r="G448" t="s">
+        <v>1100</v>
       </c>
       <c r="H448" t="s">
-        <v>1129</v>
+        <v>1131</v>
+      </c>
+      <c r="I448" t="s">
+        <v>1163</v>
       </c>
     </row>
     <row r="449" spans="1:13">
@@ -9725,13 +9725,19 @@
         <v>460</v>
       </c>
       <c r="B449" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C449" t="s">
-        <v>957</v>
+        <v>959</v>
+      </c>
+      <c r="G449" t="s">
+        <v>1101</v>
       </c>
       <c r="H449" t="s">
-        <v>1122</v>
+        <v>1132</v>
+      </c>
+      <c r="I449" t="s">
+        <v>1145</v>
       </c>
     </row>
     <row r="450" spans="1:13">
@@ -9739,10 +9745,13 @@
         <v>461</v>
       </c>
       <c r="B450" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C450" t="s">
-        <v>958</v>
+        <v>960</v>
+      </c>
+      <c r="H450" t="s">
+        <v>1133</v>
       </c>
     </row>
     <row r="451" spans="1:13">
@@ -9750,13 +9759,13 @@
         <v>462</v>
       </c>
       <c r="B451" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C451" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="H451" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="452" spans="1:13">
@@ -9764,13 +9773,10 @@
         <v>463</v>
       </c>
       <c r="B452" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C452" t="s">
-        <v>960</v>
-      </c>
-      <c r="H452" t="s">
-        <v>1131</v>
+        <v>962</v>
       </c>
     </row>
     <row r="453" spans="1:13">
@@ -9778,10 +9784,13 @@
         <v>464</v>
       </c>
       <c r="B453" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C453" t="s">
-        <v>961</v>
+        <v>963</v>
+      </c>
+      <c r="H453" t="s">
+        <v>1134</v>
       </c>
     </row>
     <row r="454" spans="1:13">
@@ -9789,19 +9798,13 @@
         <v>465</v>
       </c>
       <c r="B454" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C454" t="s">
-        <v>962</v>
-      </c>
-      <c r="G454" t="s">
-        <v>1098</v>
+        <v>964</v>
       </c>
       <c r="H454" t="s">
-        <v>1132</v>
-      </c>
-      <c r="L454">
-        <v>1</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="455" spans="1:13">
@@ -9809,25 +9812,10 @@
         <v>466</v>
       </c>
       <c r="B455" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C455" t="s">
-        <v>963</v>
-      </c>
-      <c r="D455" t="s">
-        <v>989</v>
-      </c>
-      <c r="E455" t="s">
-        <v>1002</v>
-      </c>
-      <c r="G455" t="s">
-        <v>1099</v>
-      </c>
-      <c r="H455" t="s">
-        <v>1133</v>
-      </c>
-      <c r="I455" t="s">
-        <v>1160</v>
+        <v>965</v>
       </c>
     </row>
     <row r="456" spans="1:13">
@@ -9835,16 +9823,19 @@
         <v>467</v>
       </c>
       <c r="B456" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C456" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="G456" t="s">
-        <v>1074</v>
-      </c>
-      <c r="I456" t="s">
-        <v>1141</v>
+        <v>1102</v>
+      </c>
+      <c r="H456" t="s">
+        <v>1136</v>
+      </c>
+      <c r="L456">
+        <v>1</v>
       </c>
     </row>
     <row r="457" spans="1:13">
@@ -9852,16 +9843,25 @@
         <v>468</v>
       </c>
       <c r="B457" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C457" t="s">
-        <v>965</v>
+        <v>967</v>
+      </c>
+      <c r="D457" t="s">
+        <v>993</v>
+      </c>
+      <c r="E457" t="s">
+        <v>1006</v>
       </c>
       <c r="G457" t="s">
-        <v>1100</v>
+        <v>1103</v>
+      </c>
+      <c r="H457" t="s">
+        <v>1137</v>
       </c>
       <c r="I457" t="s">
-        <v>1153</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="458" spans="1:13">
@@ -9869,13 +9869,16 @@
         <v>469</v>
       </c>
       <c r="B458" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C458" t="s">
-        <v>966</v>
+        <v>968</v>
+      </c>
+      <c r="G458" t="s">
+        <v>1078</v>
       </c>
       <c r="I458" t="s">
-        <v>1135</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="459" spans="1:13">
@@ -9883,16 +9886,16 @@
         <v>470</v>
       </c>
       <c r="B459" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C459" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="G459" t="s">
-        <v>1075</v>
+        <v>1104</v>
       </c>
       <c r="I459" t="s">
-        <v>1135</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="460" spans="1:13">
@@ -9900,13 +9903,13 @@
         <v>471</v>
       </c>
       <c r="B460" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C460" t="s">
-        <v>968</v>
-      </c>
-      <c r="M460">
-        <v>1</v>
+        <v>970</v>
+      </c>
+      <c r="I460" t="s">
+        <v>1139</v>
       </c>
     </row>
     <row r="461" spans="1:13">
@@ -9914,16 +9917,16 @@
         <v>472</v>
       </c>
       <c r="B461" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C461" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="G461" t="s">
-        <v>1101</v>
+        <v>1079</v>
       </c>
       <c r="I461" t="s">
-        <v>1136</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="462" spans="1:13">
@@ -9931,10 +9934,13 @@
         <v>473</v>
       </c>
       <c r="B462" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C462" t="s">
-        <v>970</v>
+        <v>972</v>
+      </c>
+      <c r="M462">
+        <v>1</v>
       </c>
     </row>
     <row r="463" spans="1:13">
@@ -9942,13 +9948,16 @@
         <v>474</v>
       </c>
       <c r="B463" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C463" t="s">
-        <v>971</v>
-      </c>
-      <c r="H463" t="s">
-        <v>1109</v>
+        <v>973</v>
+      </c>
+      <c r="G463" t="s">
+        <v>1105</v>
+      </c>
+      <c r="I463" t="s">
+        <v>1140</v>
       </c>
     </row>
     <row r="464" spans="1:13">
@@ -9956,10 +9965,10 @@
         <v>475</v>
       </c>
       <c r="B464" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C464" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
     </row>
     <row r="465" spans="1:12">
@@ -9967,13 +9976,13 @@
         <v>476</v>
       </c>
       <c r="B465" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C465" t="s">
-        <v>973</v>
-      </c>
-      <c r="L465">
-        <v>1</v>
+        <v>975</v>
+      </c>
+      <c r="H465" t="s">
+        <v>1113</v>
       </c>
     </row>
     <row r="466" spans="1:12">
@@ -9981,16 +9990,10 @@
         <v>477</v>
       </c>
       <c r="B466" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C466" t="s">
-        <v>974</v>
-      </c>
-      <c r="G466" t="s">
-        <v>1102</v>
-      </c>
-      <c r="I466" t="s">
-        <v>1135</v>
+        <v>976</v>
       </c>
     </row>
     <row r="467" spans="1:12">
@@ -9998,10 +10001,13 @@
         <v>478</v>
       </c>
       <c r="B467" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C467" t="s">
-        <v>975</v>
+        <v>977</v>
+      </c>
+      <c r="L467">
+        <v>1</v>
       </c>
     </row>
     <row r="468" spans="1:12">
@@ -10009,13 +10015,16 @@
         <v>479</v>
       </c>
       <c r="B468" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C468" t="s">
-        <v>976</v>
+        <v>978</v>
+      </c>
+      <c r="G468" t="s">
+        <v>1106</v>
       </c>
       <c r="I468" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="469" spans="1:12">
@@ -10023,10 +10032,10 @@
         <v>480</v>
       </c>
       <c r="B469" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C469" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
     </row>
     <row r="470" spans="1:12">
@@ -10034,16 +10043,13 @@
         <v>481</v>
       </c>
       <c r="B470" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C470" t="s">
-        <v>978</v>
-      </c>
-      <c r="G470" t="s">
-        <v>1103</v>
+        <v>980</v>
       </c>
       <c r="I470" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="471" spans="1:12">
@@ -10051,10 +10057,10 @@
         <v>482</v>
       </c>
       <c r="B471" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C471" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
     </row>
     <row r="472" spans="1:12">
@@ -10062,10 +10068,16 @@
         <v>483</v>
       </c>
       <c r="B472" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C472" t="s">
-        <v>980</v>
+        <v>982</v>
+      </c>
+      <c r="G472" t="s">
+        <v>1107</v>
+      </c>
+      <c r="I472" t="s">
+        <v>1152</v>
       </c>
     </row>
     <row r="473" spans="1:12">
@@ -10073,13 +10085,10 @@
         <v>484</v>
       </c>
       <c r="B473" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C473" t="s">
-        <v>981</v>
-      </c>
-      <c r="L473">
-        <v>1</v>
+        <v>983</v>
       </c>
     </row>
     <row r="474" spans="1:12">
@@ -10087,16 +10096,10 @@
         <v>485</v>
       </c>
       <c r="B474" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C474" t="s">
-        <v>982</v>
-      </c>
-      <c r="G474" t="s">
-        <v>1104</v>
-      </c>
-      <c r="I474" t="s">
-        <v>1148</v>
+        <v>984</v>
       </c>
     </row>
     <row r="475" spans="1:12">
@@ -10104,13 +10107,13 @@
         <v>486</v>
       </c>
       <c r="B475" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C475" t="s">
-        <v>983</v>
-      </c>
-      <c r="I475" t="s">
-        <v>1141</v>
+        <v>985</v>
+      </c>
+      <c r="L475">
+        <v>1</v>
       </c>
     </row>
     <row r="476" spans="1:12">
@@ -10118,22 +10121,16 @@
         <v>487</v>
       </c>
       <c r="B476" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C476" t="s">
-        <v>984</v>
-      </c>
-      <c r="E476" t="s">
-        <v>1003</v>
+        <v>986</v>
       </c>
       <c r="G476" t="s">
-        <v>1105</v>
-      </c>
-      <c r="H476" t="s">
-        <v>1134</v>
+        <v>1108</v>
       </c>
       <c r="I476" t="s">
-        <v>1139</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="477" spans="1:12">
@@ -10141,10 +10138,13 @@
         <v>488</v>
       </c>
       <c r="B477" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C477" t="s">
-        <v>985</v>
+        <v>987</v>
+      </c>
+      <c r="I477" t="s">
+        <v>1145</v>
       </c>
     </row>
     <row r="478" spans="1:12">
@@ -10152,10 +10152,22 @@
         <v>489</v>
       </c>
       <c r="B478" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C478" t="s">
-        <v>986</v>
+        <v>988</v>
+      </c>
+      <c r="E478" t="s">
+        <v>1007</v>
+      </c>
+      <c r="G478" t="s">
+        <v>1109</v>
+      </c>
+      <c r="H478" t="s">
+        <v>1138</v>
+      </c>
+      <c r="I478" t="s">
+        <v>1143</v>
       </c>
     </row>
     <row r="479" spans="1:12">
@@ -10163,10 +10175,10 @@
         <v>490</v>
       </c>
       <c r="B479" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C479" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
     </row>
     <row r="480" spans="1:12">
@@ -10174,10 +10186,32 @@
         <v>491</v>
       </c>
       <c r="B480" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C480" t="s">
-        <v>988</v>
+        <v>990</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3">
+      <c r="A481" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="B481" t="s">
+        <v>511</v>
+      </c>
+      <c r="C481" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3">
+      <c r="A482" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="B482" t="s">
+        <v>511</v>
+      </c>
+      <c r="C482" t="s">
+        <v>992</v>
       </c>
     </row>
   </sheetData>

--- a/all_course.xlsx
+++ b/all_course.xlsx
@@ -862,6 +862,9 @@
     <t>bc7753c1</t>
   </si>
   <si>
+    <t>2b031a87</t>
+  </si>
+  <si>
     <t>e66f315e</t>
   </si>
   <si>
@@ -874,9 +877,6 @@
     <t>cfa6d506</t>
   </si>
   <si>
-    <t>2b031a87</t>
-  </si>
-  <si>
     <t>43d90710</t>
   </si>
   <si>
@@ -2359,6 +2359,9 @@
     <t>不忘</t>
   </si>
   <si>
+    <t>不离</t>
+  </si>
+  <si>
     <t>不要再杀生了</t>
   </si>
   <si>
@@ -2369,9 +2372,6 @@
   </si>
   <si>
     <t>厌世歌•杜鹃妙音</t>
-  </si>
-  <si>
-    <t>后记</t>
   </si>
   <si>
     <t>师徒欢喜之歌•无改心之自相</t>
@@ -7532,9 +7532,6 @@
       <c r="C274" t="s">
         <v>784</v>
       </c>
-      <c r="H274" t="s">
-        <v>1118</v>
-      </c>
     </row>
     <row r="275" spans="1:12">
       <c r="A275" s="1" t="s">
@@ -7545,6 +7542,9 @@
       </c>
       <c r="C275" t="s">
         <v>785</v>
+      </c>
+      <c r="H275" t="s">
+        <v>1118</v>
       </c>
     </row>
     <row r="276" spans="1:12">

--- a/all_course.xlsx
+++ b/all_course.xlsx
@@ -1453,6 +1453,9 @@
     <t>e76acd7e</t>
   </si>
   <si>
+    <t>9c59aa4e</t>
+  </si>
+  <si>
     <t>b9c6a980</t>
   </si>
   <si>
@@ -1483,9 +1486,6 @@
     <t>e9c9900f</t>
   </si>
   <si>
-    <t>9c59aa4e</t>
-  </si>
-  <si>
     <t>b46d2d67</t>
   </si>
   <si>
@@ -2950,6 +2950,9 @@
     <t>极乐愿文大疏</t>
   </si>
   <si>
+    <t>极乐愿文大疏讲解</t>
+  </si>
+  <si>
     <t>格言宝藏论释</t>
   </si>
   <si>
@@ -2980,9 +2983,6 @@
     <t>菩萨宝鬘论略记</t>
   </si>
   <si>
-    <t>藏传净土法讲解</t>
-  </si>
-  <si>
     <t>费闲歌讲解</t>
   </si>
   <si>
@@ -3334,6 +3334,9 @@
     <t>将一切苦乐转为道用的殊胜窍诀，告诉我们不论是有病、无病，有财、无财，长寿、短命，任何境遇皆快乐。</t>
   </si>
   <si>
+    <t>是藏传佛教的净土法门，着重宣说了往生极乐世界必不可少的四种因——明观福田、积资净障、发菩提心、发清净愿，再没有比这更殊胜的窍诀了。对一心念佛、发愿往生的人来说，实为不可多得的一部宝典。</t>
+  </si>
+  <si>
     <t>本论分为九品，内容包括观察学者、观察正士、观察愚者、观察多士、观察恶行、观察性情、观察非理、观察事业、观察佛法。任何一个人若修学此论，都会对自己的人格增上有极大助益。</t>
   </si>
   <si>
@@ -3341,9 +3344,6 @@
   </si>
   <si>
     <t>归摄《菩提道次第广论》之一切窍诀</t>
-  </si>
-  <si>
-    <t>是藏传佛教的净土法门，着重宣说了往生极乐世界必不可少的四种因——明观福田、积资净障、发菩提心、发清净愿，再没有比这更殊胜的窍诀了。对一心念佛、发愿往生的人来说，实为不可多得的一部宝典。</t>
   </si>
   <si>
     <t>阿底峡尊者 撰著，索达吉堪布 译释</t>
@@ -10020,11 +10020,17 @@
       <c r="C468" t="s">
         <v>978</v>
       </c>
+      <c r="E468" t="s">
+        <v>1007</v>
+      </c>
       <c r="G468" t="s">
         <v>1106</v>
       </c>
+      <c r="H468" t="s">
+        <v>1138</v>
+      </c>
       <c r="I468" t="s">
-        <v>1139</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="469" spans="1:12">
@@ -10037,6 +10043,12 @@
       <c r="C469" t="s">
         <v>979</v>
       </c>
+      <c r="G469" t="s">
+        <v>1107</v>
+      </c>
+      <c r="I469" t="s">
+        <v>1139</v>
+      </c>
     </row>
     <row r="470" spans="1:12">
       <c r="A470" s="1" t="s">
@@ -10048,9 +10060,6 @@
       <c r="C470" t="s">
         <v>980</v>
       </c>
-      <c r="I470" t="s">
-        <v>1145</v>
-      </c>
     </row>
     <row r="471" spans="1:12">
       <c r="A471" s="1" t="s">
@@ -10062,6 +10071,9 @@
       <c r="C471" t="s">
         <v>981</v>
       </c>
+      <c r="I471" t="s">
+        <v>1145</v>
+      </c>
     </row>
     <row r="472" spans="1:12">
       <c r="A472" s="1" t="s">
@@ -10073,12 +10085,6 @@
       <c r="C472" t="s">
         <v>982</v>
       </c>
-      <c r="G472" t="s">
-        <v>1107</v>
-      </c>
-      <c r="I472" t="s">
-        <v>1152</v>
-      </c>
     </row>
     <row r="473" spans="1:12">
       <c r="A473" s="1" t="s">
@@ -10090,6 +10096,12 @@
       <c r="C473" t="s">
         <v>983</v>
       </c>
+      <c r="G473" t="s">
+        <v>1108</v>
+      </c>
+      <c r="I473" t="s">
+        <v>1152</v>
+      </c>
     </row>
     <row r="474" spans="1:12">
       <c r="A474" s="1" t="s">
@@ -10112,9 +10124,6 @@
       <c r="C475" t="s">
         <v>985</v>
       </c>
-      <c r="L475">
-        <v>1</v>
-      </c>
     </row>
     <row r="476" spans="1:12">
       <c r="A476" s="1" t="s">
@@ -10126,11 +10135,8 @@
       <c r="C476" t="s">
         <v>986</v>
       </c>
-      <c r="G476" t="s">
-        <v>1108</v>
-      </c>
-      <c r="I476" t="s">
-        <v>1152</v>
+      <c r="L476">
+        <v>1</v>
       </c>
     </row>
     <row r="477" spans="1:12">
@@ -10143,8 +10149,11 @@
       <c r="C477" t="s">
         <v>987</v>
       </c>
+      <c r="G477" t="s">
+        <v>1109</v>
+      </c>
       <c r="I477" t="s">
-        <v>1145</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="478" spans="1:12">
@@ -10157,17 +10166,8 @@
       <c r="C478" t="s">
         <v>988</v>
       </c>
-      <c r="E478" t="s">
-        <v>1007</v>
-      </c>
-      <c r="G478" t="s">
-        <v>1109</v>
-      </c>
-      <c r="H478" t="s">
-        <v>1138</v>
-      </c>
       <c r="I478" t="s">
-        <v>1143</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="479" spans="1:12">

--- a/all_course.xlsx
+++ b/all_course.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1748" uniqueCount="1167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1751" uniqueCount="1169">
   <si>
     <t>category</t>
   </si>
@@ -67,6 +67,9 @@
     <t>ba411253</t>
   </si>
   <si>
+    <t>5fbf7cbf</t>
+  </si>
+  <si>
     <t>70cb843d</t>
   </si>
   <si>
@@ -1562,6 +1565,9 @@
   </si>
   <si>
     <t>中观庄严论</t>
+  </si>
+  <si>
+    <t>中观庄严论讲解</t>
   </si>
   <si>
     <t>中观庄严论释</t>
@@ -3872,7 +3878,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M482"/>
+  <dimension ref="A1:M483"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -3929,10 +3935,10 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C2" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -3940,16 +3946,16 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C3" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="G3" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="I3" t="s">
-        <v>1139</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -3957,10 +3963,10 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C4" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -3968,13 +3974,13 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C5" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="G5" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -3982,16 +3988,10 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C6" t="s">
-        <v>516</v>
-      </c>
-      <c r="G6" t="s">
-        <v>1010</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
+        <v>517</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -3999,13 +3999,13 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C7" t="s">
-        <v>517</v>
-      </c>
-      <c r="J7" t="s">
-        <v>1165</v>
+        <v>518</v>
+      </c>
+      <c r="G7" t="s">
+        <v>1012</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -4016,10 +4016,16 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C8" t="s">
-        <v>518</v>
+        <v>519</v>
+      </c>
+      <c r="J8" t="s">
+        <v>1167</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -4027,16 +4033,10 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C9" t="s">
-        <v>519</v>
-      </c>
-      <c r="E9" t="s">
-        <v>994</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
+        <v>520</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -4044,19 +4044,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C10" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="E10" t="s">
-        <v>995</v>
-      </c>
-      <c r="G10" t="s">
-        <v>1011</v>
-      </c>
-      <c r="J10" t="s">
-        <v>1165</v>
+        <v>996</v>
       </c>
       <c r="L10">
         <v>1</v>
@@ -4067,13 +4061,22 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C11" t="s">
-        <v>521</v>
-      </c>
-      <c r="H11" t="s">
-        <v>1110</v>
+        <v>522</v>
+      </c>
+      <c r="E11" t="s">
+        <v>997</v>
+      </c>
+      <c r="G11" t="s">
+        <v>1013</v>
+      </c>
+      <c r="J11" t="s">
+        <v>1167</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -4081,10 +4084,13 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C12" t="s">
-        <v>522</v>
+        <v>523</v>
+      </c>
+      <c r="H12" t="s">
+        <v>1112</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -4095,10 +4101,7 @@
         <v>495</v>
       </c>
       <c r="C13" t="s">
-        <v>523</v>
-      </c>
-      <c r="H13" t="s">
-        <v>1111</v>
+        <v>524</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -4106,10 +4109,13 @@
         <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C14" t="s">
-        <v>524</v>
+        <v>525</v>
+      </c>
+      <c r="H14" t="s">
+        <v>1113</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -4117,10 +4123,10 @@
         <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C15" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -4128,16 +4134,10 @@
         <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C16" t="s">
-        <v>526</v>
-      </c>
-      <c r="G16" t="s">
-        <v>1012</v>
-      </c>
-      <c r="I16" t="s">
-        <v>1140</v>
+        <v>527</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -4145,10 +4145,16 @@
         <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C17" t="s">
-        <v>527</v>
+        <v>528</v>
+      </c>
+      <c r="G17" t="s">
+        <v>1014</v>
+      </c>
+      <c r="I17" t="s">
+        <v>1142</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -4156,16 +4162,10 @@
         <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C18" t="s">
-        <v>528</v>
-      </c>
-      <c r="G18" t="s">
-        <v>1013</v>
-      </c>
-      <c r="I18" t="s">
-        <v>1139</v>
+        <v>529</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -4173,16 +4173,16 @@
         <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C19" t="s">
-        <v>529</v>
-      </c>
-      <c r="J19" t="s">
-        <v>1166</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
+        <v>530</v>
+      </c>
+      <c r="G19" t="s">
+        <v>1015</v>
+      </c>
+      <c r="I19" t="s">
+        <v>1141</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -4190,10 +4190,16 @@
         <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C20" t="s">
-        <v>530</v>
+        <v>531</v>
+      </c>
+      <c r="J20" t="s">
+        <v>1168</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -4201,10 +4207,10 @@
         <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C21" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -4215,10 +4221,7 @@
         <v>496</v>
       </c>
       <c r="C22" t="s">
-        <v>532</v>
-      </c>
-      <c r="G22" t="s">
-        <v>1014</v>
+        <v>533</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -4226,10 +4229,13 @@
         <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C23" t="s">
-        <v>533</v>
+        <v>534</v>
+      </c>
+      <c r="G23" t="s">
+        <v>1016</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -4237,13 +4243,10 @@
         <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C24" t="s">
-        <v>534</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
+        <v>535</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -4251,10 +4254,13 @@
         <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C25" t="s">
-        <v>535</v>
+        <v>536</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -4262,10 +4268,10 @@
         <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C26" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -4273,10 +4279,10 @@
         <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C27" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -4284,13 +4290,10 @@
         <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C28" t="s">
-        <v>538</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
+        <v>539</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -4298,10 +4301,13 @@
         <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C29" t="s">
-        <v>539</v>
+        <v>540</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -4309,13 +4315,10 @@
         <v>41</v>
       </c>
       <c r="B30" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C30" t="s">
-        <v>540</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
+        <v>541</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -4323,10 +4326,13 @@
         <v>42</v>
       </c>
       <c r="B31" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C31" t="s">
-        <v>541</v>
+        <v>542</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -4334,10 +4340,10 @@
         <v>43</v>
       </c>
       <c r="B32" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C32" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -4345,10 +4351,10 @@
         <v>44</v>
       </c>
       <c r="B33" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C33" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -4356,10 +4362,10 @@
         <v>45</v>
       </c>
       <c r="B34" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C34" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -4367,19 +4373,10 @@
         <v>46</v>
       </c>
       <c r="B35" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C35" t="s">
-        <v>545</v>
-      </c>
-      <c r="G35" t="s">
-        <v>1015</v>
-      </c>
-      <c r="I35" t="s">
-        <v>1141</v>
-      </c>
-      <c r="J35" t="s">
-        <v>1166</v>
+        <v>546</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -4387,16 +4384,19 @@
         <v>47</v>
       </c>
       <c r="B36" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C36" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="G36" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="I36" t="s">
-        <v>1142</v>
+        <v>1143</v>
+      </c>
+      <c r="J36" t="s">
+        <v>1168</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -4404,10 +4404,16 @@
         <v>48</v>
       </c>
       <c r="B37" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C37" t="s">
-        <v>547</v>
+        <v>548</v>
+      </c>
+      <c r="G37" t="s">
+        <v>1018</v>
+      </c>
+      <c r="I37" t="s">
+        <v>1144</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -4415,10 +4421,10 @@
         <v>49</v>
       </c>
       <c r="B38" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C38" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -4426,10 +4432,10 @@
         <v>50</v>
       </c>
       <c r="B39" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C39" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -4437,10 +4443,10 @@
         <v>51</v>
       </c>
       <c r="B40" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C40" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -4448,13 +4454,10 @@
         <v>52</v>
       </c>
       <c r="B41" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C41" t="s">
-        <v>551</v>
-      </c>
-      <c r="L41">
-        <v>1</v>
+        <v>552</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -4462,10 +4465,13 @@
         <v>53</v>
       </c>
       <c r="B42" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C42" t="s">
-        <v>552</v>
+        <v>553</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -4473,10 +4479,10 @@
         <v>54</v>
       </c>
       <c r="B43" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C43" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -4484,16 +4490,10 @@
         <v>55</v>
       </c>
       <c r="B44" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C44" t="s">
-        <v>554</v>
-      </c>
-      <c r="G44" t="s">
-        <v>1017</v>
-      </c>
-      <c r="I44" t="s">
-        <v>1141</v>
+        <v>555</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -4501,10 +4501,16 @@
         <v>56</v>
       </c>
       <c r="B45" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C45" t="s">
-        <v>555</v>
+        <v>556</v>
+      </c>
+      <c r="G45" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I45" t="s">
+        <v>1143</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -4512,10 +4518,10 @@
         <v>57</v>
       </c>
       <c r="B46" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C46" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -4523,16 +4529,10 @@
         <v>58</v>
       </c>
       <c r="B47" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C47" t="s">
-        <v>557</v>
-      </c>
-      <c r="J47" t="s">
-        <v>1166</v>
-      </c>
-      <c r="L47">
-        <v>1</v>
+        <v>558</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -4540,10 +4540,16 @@
         <v>59</v>
       </c>
       <c r="B48" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C48" t="s">
-        <v>558</v>
+        <v>559</v>
+      </c>
+      <c r="J48" t="s">
+        <v>1168</v>
+      </c>
+      <c r="L48">
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -4551,16 +4557,10 @@
         <v>60</v>
       </c>
       <c r="B49" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C49" t="s">
-        <v>559</v>
-      </c>
-      <c r="G49" t="s">
-        <v>1018</v>
-      </c>
-      <c r="I49" t="s">
-        <v>1141</v>
+        <v>560</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -4571,13 +4571,13 @@
         <v>497</v>
       </c>
       <c r="C50" t="s">
-        <v>560</v>
-      </c>
-      <c r="E50" t="s">
-        <v>996</v>
-      </c>
-      <c r="L50">
-        <v>1</v>
+        <v>561</v>
+      </c>
+      <c r="G50" t="s">
+        <v>1020</v>
+      </c>
+      <c r="I50" t="s">
+        <v>1143</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -4585,13 +4585,16 @@
         <v>62</v>
       </c>
       <c r="B51" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C51" t="s">
-        <v>561</v>
-      </c>
-      <c r="H51" t="s">
-        <v>1112</v>
+        <v>562</v>
+      </c>
+      <c r="E51" t="s">
+        <v>998</v>
+      </c>
+      <c r="L51">
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -4599,16 +4602,13 @@
         <v>63</v>
       </c>
       <c r="B52" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C52" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H52" t="s">
-        <v>1113</v>
-      </c>
-      <c r="I52" t="s">
-        <v>1143</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -4616,10 +4616,16 @@
         <v>64</v>
       </c>
       <c r="B53" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C53" t="s">
-        <v>563</v>
+        <v>564</v>
+      </c>
+      <c r="H53" t="s">
+        <v>1115</v>
+      </c>
+      <c r="I53" t="s">
+        <v>1145</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -4627,13 +4633,10 @@
         <v>65</v>
       </c>
       <c r="B54" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C54" t="s">
-        <v>564</v>
-      </c>
-      <c r="H54" t="s">
-        <v>1113</v>
+        <v>565</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -4641,13 +4644,13 @@
         <v>66</v>
       </c>
       <c r="B55" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C55" t="s">
-        <v>565</v>
-      </c>
-      <c r="M55">
-        <v>1</v>
+        <v>566</v>
+      </c>
+      <c r="H55" t="s">
+        <v>1115</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -4655,10 +4658,13 @@
         <v>67</v>
       </c>
       <c r="B56" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C56" t="s">
-        <v>566</v>
+        <v>567</v>
+      </c>
+      <c r="M56">
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -4666,10 +4672,10 @@
         <v>68</v>
       </c>
       <c r="B57" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C57" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -4677,10 +4683,10 @@
         <v>69</v>
       </c>
       <c r="B58" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C58" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -4688,10 +4694,10 @@
         <v>70</v>
       </c>
       <c r="B59" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C59" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -4699,10 +4705,10 @@
         <v>71</v>
       </c>
       <c r="B60" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C60" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -4710,19 +4716,10 @@
         <v>72</v>
       </c>
       <c r="B61" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C61" t="s">
-        <v>571</v>
-      </c>
-      <c r="G61" t="s">
-        <v>1019</v>
-      </c>
-      <c r="H61" t="s">
-        <v>1113</v>
-      </c>
-      <c r="I61" t="s">
-        <v>1144</v>
+        <v>572</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -4730,13 +4727,19 @@
         <v>73</v>
       </c>
       <c r="B62" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C62" t="s">
-        <v>572</v>
+        <v>573</v>
+      </c>
+      <c r="G62" t="s">
+        <v>1021</v>
       </c>
       <c r="H62" t="s">
-        <v>1113</v>
+        <v>1115</v>
+      </c>
+      <c r="I62" t="s">
+        <v>1146</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -4744,19 +4747,13 @@
         <v>74</v>
       </c>
       <c r="B63" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C63" t="s">
-        <v>573</v>
-      </c>
-      <c r="G63" t="s">
-        <v>1020</v>
+        <v>574</v>
       </c>
       <c r="H63" t="s">
-        <v>1113</v>
-      </c>
-      <c r="I63" t="s">
-        <v>1145</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -4764,16 +4761,19 @@
         <v>75</v>
       </c>
       <c r="B64" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C64" t="s">
-        <v>574</v>
+        <v>575</v>
+      </c>
+      <c r="G64" t="s">
+        <v>1022</v>
       </c>
       <c r="H64" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="I64" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -4781,19 +4781,16 @@
         <v>76</v>
       </c>
       <c r="B65" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C65" t="s">
-        <v>575</v>
-      </c>
-      <c r="E65" t="s">
-        <v>997</v>
+        <v>576</v>
       </c>
       <c r="H65" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="I65" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -4801,10 +4798,19 @@
         <v>77</v>
       </c>
       <c r="B66" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C66" t="s">
-        <v>576</v>
+        <v>577</v>
+      </c>
+      <c r="E66" t="s">
+        <v>999</v>
+      </c>
+      <c r="H66" t="s">
+        <v>1115</v>
+      </c>
+      <c r="I66" t="s">
+        <v>1149</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -4812,13 +4818,10 @@
         <v>78</v>
       </c>
       <c r="B67" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C67" t="s">
-        <v>577</v>
-      </c>
-      <c r="L67">
-        <v>1</v>
+        <v>578</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -4829,7 +4832,10 @@
         <v>498</v>
       </c>
       <c r="C68" t="s">
-        <v>578</v>
+        <v>579</v>
+      </c>
+      <c r="L68">
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -4837,13 +4843,10 @@
         <v>80</v>
       </c>
       <c r="B69" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C69" t="s">
-        <v>579</v>
-      </c>
-      <c r="I69" t="s">
-        <v>1148</v>
+        <v>580</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -4851,13 +4854,13 @@
         <v>81</v>
       </c>
       <c r="B70" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C70" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="I70" t="s">
-        <v>1139</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -4865,16 +4868,13 @@
         <v>82</v>
       </c>
       <c r="B71" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C71" t="s">
-        <v>581</v>
-      </c>
-      <c r="G71" t="s">
-        <v>1021</v>
-      </c>
-      <c r="L71">
-        <v>1</v>
+        <v>582</v>
+      </c>
+      <c r="I71" t="s">
+        <v>1141</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -4882,16 +4882,16 @@
         <v>83</v>
       </c>
       <c r="B72" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C72" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="G72" t="s">
-        <v>1022</v>
-      </c>
-      <c r="I72" t="s">
-        <v>1139</v>
+        <v>1023</v>
+      </c>
+      <c r="L72">
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -4902,10 +4902,13 @@
         <v>499</v>
       </c>
       <c r="C73" t="s">
-        <v>583</v>
+        <v>584</v>
+      </c>
+      <c r="G73" t="s">
+        <v>1024</v>
       </c>
       <c r="I73" t="s">
-        <v>1149</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -4913,10 +4916,13 @@
         <v>85</v>
       </c>
       <c r="B74" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C74" t="s">
-        <v>584</v>
+        <v>585</v>
+      </c>
+      <c r="I74" t="s">
+        <v>1151</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -4924,13 +4930,10 @@
         <v>86</v>
       </c>
       <c r="B75" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C75" t="s">
-        <v>585</v>
-      </c>
-      <c r="I75" t="s">
-        <v>1149</v>
+        <v>586</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -4938,16 +4941,13 @@
         <v>87</v>
       </c>
       <c r="B76" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C76" t="s">
-        <v>586</v>
-      </c>
-      <c r="G76" t="s">
-        <v>1023</v>
+        <v>587</v>
       </c>
       <c r="I76" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -4955,13 +4955,16 @@
         <v>88</v>
       </c>
       <c r="B77" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C77" t="s">
-        <v>587</v>
+        <v>588</v>
+      </c>
+      <c r="G77" t="s">
+        <v>1025</v>
       </c>
       <c r="I77" t="s">
-        <v>1143</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -4969,13 +4972,10 @@
         <v>89</v>
       </c>
       <c r="B78" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C78" t="s">
-        <v>588</v>
-      </c>
-      <c r="G78" t="s">
-        <v>1024</v>
+        <v>589</v>
       </c>
       <c r="I78" t="s">
         <v>1145</v>
@@ -4986,16 +4986,16 @@
         <v>90</v>
       </c>
       <c r="B79" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C79" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="G79" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="I79" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -5003,13 +5003,16 @@
         <v>91</v>
       </c>
       <c r="B80" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C80" t="s">
-        <v>590</v>
-      </c>
-      <c r="L80">
-        <v>1</v>
+        <v>591</v>
+      </c>
+      <c r="G80" t="s">
+        <v>1027</v>
+      </c>
+      <c r="I80" t="s">
+        <v>1151</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -5017,16 +5020,10 @@
         <v>92</v>
       </c>
       <c r="B81" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C81" t="s">
-        <v>591</v>
-      </c>
-      <c r="G81" t="s">
-        <v>1025</v>
-      </c>
-      <c r="I81" t="s">
-        <v>1143</v>
+        <v>592</v>
       </c>
       <c r="L81">
         <v>1</v>
@@ -5040,13 +5037,16 @@
         <v>500</v>
       </c>
       <c r="C82" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="G82" t="s">
-        <v>1026</v>
-      </c>
-      <c r="H82" t="s">
-        <v>1114</v>
+        <v>1027</v>
+      </c>
+      <c r="I82" t="s">
+        <v>1145</v>
+      </c>
+      <c r="L82">
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -5054,16 +5054,16 @@
         <v>94</v>
       </c>
       <c r="B83" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C83" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="G83" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="H83" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -5071,16 +5071,16 @@
         <v>95</v>
       </c>
       <c r="B84" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C84" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="G84" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="H84" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -5088,16 +5088,16 @@
         <v>96</v>
       </c>
       <c r="B85" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C85" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="G85" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="H85" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -5105,16 +5105,16 @@
         <v>97</v>
       </c>
       <c r="B86" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C86" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="G86" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="H86" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -5122,16 +5122,16 @@
         <v>98</v>
       </c>
       <c r="B87" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C87" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="G87" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="H87" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -5139,16 +5139,16 @@
         <v>99</v>
       </c>
       <c r="B88" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C88" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="G88" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="H88" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -5156,16 +5156,16 @@
         <v>100</v>
       </c>
       <c r="B89" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C89" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="G89" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="H89" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -5173,16 +5173,16 @@
         <v>101</v>
       </c>
       <c r="B90" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C90" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="G90" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="H90" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -5190,16 +5190,16 @@
         <v>102</v>
       </c>
       <c r="B91" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C91" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="G91" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="H91" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -5207,16 +5207,16 @@
         <v>103</v>
       </c>
       <c r="B92" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C92" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="G92" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="H92" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -5224,16 +5224,16 @@
         <v>104</v>
       </c>
       <c r="B93" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C93" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="G93" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="H93" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -5241,16 +5241,16 @@
         <v>105</v>
       </c>
       <c r="B94" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C94" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="G94" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="H94" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -5258,16 +5258,16 @@
         <v>106</v>
       </c>
       <c r="B95" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C95" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="G95" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="H95" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -5275,16 +5275,16 @@
         <v>107</v>
       </c>
       <c r="B96" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C96" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="G96" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="H96" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -5292,16 +5292,16 @@
         <v>108</v>
       </c>
       <c r="B97" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C97" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="G97" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="H97" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -5309,16 +5309,16 @@
         <v>109</v>
       </c>
       <c r="B98" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C98" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="G98" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="H98" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -5326,16 +5326,16 @@
         <v>110</v>
       </c>
       <c r="B99" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C99" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="G99" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="H99" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -5343,16 +5343,16 @@
         <v>111</v>
       </c>
       <c r="B100" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C100" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="G100" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="H100" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -5360,16 +5360,16 @@
         <v>112</v>
       </c>
       <c r="B101" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C101" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="G101" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H101" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -5377,16 +5377,16 @@
         <v>113</v>
       </c>
       <c r="B102" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C102" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="G102" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="H102" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -5394,16 +5394,16 @@
         <v>114</v>
       </c>
       <c r="B103" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C103" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="G103" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="H103" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -5411,16 +5411,16 @@
         <v>115</v>
       </c>
       <c r="B104" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C104" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="G104" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="H104" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -5428,16 +5428,16 @@
         <v>116</v>
       </c>
       <c r="B105" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C105" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="G105" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="H105" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -5445,16 +5445,16 @@
         <v>117</v>
       </c>
       <c r="B106" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C106" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="G106" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="H106" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -5462,16 +5462,16 @@
         <v>118</v>
       </c>
       <c r="B107" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C107" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="G107" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="H107" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -5479,16 +5479,16 @@
         <v>119</v>
       </c>
       <c r="B108" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C108" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="G108" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="H108" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -5496,16 +5496,16 @@
         <v>120</v>
       </c>
       <c r="B109" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C109" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="G109" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="H109" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -5513,16 +5513,16 @@
         <v>121</v>
       </c>
       <c r="B110" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C110" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="G110" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="H110" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -5530,16 +5530,16 @@
         <v>122</v>
       </c>
       <c r="B111" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C111" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="G111" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="H111" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -5547,16 +5547,16 @@
         <v>123</v>
       </c>
       <c r="B112" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C112" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="G112" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="H112" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="113" spans="1:12">
@@ -5564,16 +5564,16 @@
         <v>124</v>
       </c>
       <c r="B113" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C113" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="G113" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="H113" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="114" spans="1:12">
@@ -5581,13 +5581,16 @@
         <v>125</v>
       </c>
       <c r="B114" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C114" t="s">
-        <v>624</v>
-      </c>
-      <c r="L114">
-        <v>1</v>
+        <v>625</v>
+      </c>
+      <c r="G114" t="s">
+        <v>1059</v>
+      </c>
+      <c r="H114" t="s">
+        <v>1116</v>
       </c>
     </row>
     <row r="115" spans="1:12">
@@ -5595,16 +5598,13 @@
         <v>126</v>
       </c>
       <c r="B115" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C115" t="s">
-        <v>625</v>
-      </c>
-      <c r="G115" t="s">
-        <v>1058</v>
-      </c>
-      <c r="H115" t="s">
-        <v>1114</v>
+        <v>626</v>
+      </c>
+      <c r="L115">
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:12">
@@ -5612,16 +5612,16 @@
         <v>127</v>
       </c>
       <c r="B116" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C116" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="G116" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="H116" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="117" spans="1:12">
@@ -5629,16 +5629,16 @@
         <v>128</v>
       </c>
       <c r="B117" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C117" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="G117" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="H117" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="118" spans="1:12">
@@ -5646,16 +5646,16 @@
         <v>129</v>
       </c>
       <c r="B118" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C118" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="G118" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="H118" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="119" spans="1:12">
@@ -5663,13 +5663,16 @@
         <v>130</v>
       </c>
       <c r="B119" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C119" t="s">
-        <v>629</v>
-      </c>
-      <c r="L119">
-        <v>1</v>
+        <v>630</v>
+      </c>
+      <c r="G119" t="s">
+        <v>1063</v>
+      </c>
+      <c r="H119" t="s">
+        <v>1116</v>
       </c>
     </row>
     <row r="120" spans="1:12">
@@ -5677,10 +5680,10 @@
         <v>131</v>
       </c>
       <c r="B120" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C120" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="L120">
         <v>1</v>
@@ -5691,10 +5694,13 @@
         <v>132</v>
       </c>
       <c r="B121" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C121" t="s">
-        <v>631</v>
+        <v>632</v>
+      </c>
+      <c r="L121">
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:12">
@@ -5702,10 +5708,10 @@
         <v>133</v>
       </c>
       <c r="B122" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C122" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="123" spans="1:12">
@@ -5713,10 +5719,10 @@
         <v>134</v>
       </c>
       <c r="B123" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C123" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="124" spans="1:12">
@@ -5724,10 +5730,10 @@
         <v>135</v>
       </c>
       <c r="B124" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C124" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="125" spans="1:12">
@@ -5735,10 +5741,10 @@
         <v>136</v>
       </c>
       <c r="B125" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C125" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="126" spans="1:12">
@@ -5746,10 +5752,10 @@
         <v>137</v>
       </c>
       <c r="B126" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C126" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="127" spans="1:12">
@@ -5757,10 +5763,10 @@
         <v>138</v>
       </c>
       <c r="B127" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C127" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="128" spans="1:12">
@@ -5768,10 +5774,10 @@
         <v>139</v>
       </c>
       <c r="B128" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C128" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="129" spans="1:12">
@@ -5779,10 +5785,10 @@
         <v>140</v>
       </c>
       <c r="B129" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C129" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="130" spans="1:12">
@@ -5790,13 +5796,10 @@
         <v>141</v>
       </c>
       <c r="B130" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C130" t="s">
-        <v>640</v>
-      </c>
-      <c r="L130">
-        <v>1</v>
+        <v>641</v>
       </c>
     </row>
     <row r="131" spans="1:12">
@@ -5807,7 +5810,7 @@
         <v>501</v>
       </c>
       <c r="C131" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="L131">
         <v>1</v>
@@ -5818,13 +5821,13 @@
         <v>143</v>
       </c>
       <c r="B132" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C132" t="s">
-        <v>642</v>
-      </c>
-      <c r="I132" t="s">
-        <v>1145</v>
+        <v>643</v>
+      </c>
+      <c r="L132">
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:12">
@@ -5832,13 +5835,13 @@
         <v>144</v>
       </c>
       <c r="B133" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C133" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="I133" t="s">
-        <v>1145</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="134" spans="1:12">
@@ -5846,13 +5849,13 @@
         <v>145</v>
       </c>
       <c r="B134" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C134" t="s">
-        <v>644</v>
-      </c>
-      <c r="L134">
-        <v>1</v>
+        <v>645</v>
+      </c>
+      <c r="I134" t="s">
+        <v>1147</v>
       </c>
     </row>
     <row r="135" spans="1:12">
@@ -5860,10 +5863,10 @@
         <v>146</v>
       </c>
       <c r="B135" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C135" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="L135">
         <v>1</v>
@@ -5874,10 +5877,13 @@
         <v>147</v>
       </c>
       <c r="B136" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C136" t="s">
-        <v>646</v>
+        <v>647</v>
+      </c>
+      <c r="L136">
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:12">
@@ -5885,10 +5891,10 @@
         <v>148</v>
       </c>
       <c r="B137" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C137" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="138" spans="1:12">
@@ -5896,10 +5902,10 @@
         <v>149</v>
       </c>
       <c r="B138" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C138" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="139" spans="1:12">
@@ -5907,10 +5913,10 @@
         <v>150</v>
       </c>
       <c r="B139" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C139" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="140" spans="1:12">
@@ -5918,10 +5924,10 @@
         <v>151</v>
       </c>
       <c r="B140" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C140" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="141" spans="1:12">
@@ -5929,13 +5935,10 @@
         <v>152</v>
       </c>
       <c r="B141" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C141" t="s">
-        <v>651</v>
-      </c>
-      <c r="H141" t="s">
-        <v>1115</v>
+        <v>652</v>
       </c>
     </row>
     <row r="142" spans="1:12">
@@ -5943,10 +5946,13 @@
         <v>153</v>
       </c>
       <c r="B142" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C142" t="s">
-        <v>652</v>
+        <v>653</v>
+      </c>
+      <c r="H142" t="s">
+        <v>1117</v>
       </c>
     </row>
     <row r="143" spans="1:12">
@@ -5954,10 +5960,10 @@
         <v>154</v>
       </c>
       <c r="B143" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C143" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="144" spans="1:12">
@@ -5965,16 +5971,10 @@
         <v>155</v>
       </c>
       <c r="B144" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C144" t="s">
-        <v>654</v>
-      </c>
-      <c r="G144" t="s">
-        <v>1062</v>
-      </c>
-      <c r="I144" t="s">
-        <v>1151</v>
+        <v>655</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -5982,10 +5982,16 @@
         <v>156</v>
       </c>
       <c r="B145" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C145" t="s">
-        <v>655</v>
+        <v>656</v>
+      </c>
+      <c r="G145" t="s">
+        <v>1064</v>
+      </c>
+      <c r="I145" t="s">
+        <v>1153</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -5993,10 +5999,10 @@
         <v>157</v>
       </c>
       <c r="B146" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C146" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -6004,16 +6010,10 @@
         <v>158</v>
       </c>
       <c r="B147" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C147" t="s">
-        <v>657</v>
-      </c>
-      <c r="G147" t="s">
-        <v>1063</v>
-      </c>
-      <c r="I147" t="s">
-        <v>1152</v>
+        <v>658</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -6021,10 +6021,16 @@
         <v>159</v>
       </c>
       <c r="B148" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C148" t="s">
-        <v>658</v>
+        <v>659</v>
+      </c>
+      <c r="G148" t="s">
+        <v>1065</v>
+      </c>
+      <c r="I148" t="s">
+        <v>1154</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -6032,10 +6038,10 @@
         <v>160</v>
       </c>
       <c r="B149" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C149" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -6043,13 +6049,10 @@
         <v>161</v>
       </c>
       <c r="B150" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C150" t="s">
-        <v>660</v>
-      </c>
-      <c r="I150" t="s">
-        <v>1143</v>
+        <v>661</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -6057,10 +6060,13 @@
         <v>162</v>
       </c>
       <c r="B151" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C151" t="s">
-        <v>661</v>
+        <v>662</v>
+      </c>
+      <c r="I151" t="s">
+        <v>1145</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -6068,10 +6074,10 @@
         <v>163</v>
       </c>
       <c r="B152" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C152" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -6079,10 +6085,10 @@
         <v>164</v>
       </c>
       <c r="B153" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C153" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -6090,10 +6096,10 @@
         <v>165</v>
       </c>
       <c r="B154" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C154" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -6101,13 +6107,10 @@
         <v>166</v>
       </c>
       <c r="B155" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C155" t="s">
-        <v>665</v>
-      </c>
-      <c r="I155" t="s">
-        <v>1153</v>
+        <v>666</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -6115,10 +6118,13 @@
         <v>167</v>
       </c>
       <c r="B156" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C156" t="s">
-        <v>666</v>
+        <v>667</v>
+      </c>
+      <c r="I156" t="s">
+        <v>1155</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -6126,16 +6132,10 @@
         <v>168</v>
       </c>
       <c r="B157" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C157" t="s">
-        <v>667</v>
-      </c>
-      <c r="G157" t="s">
-        <v>1064</v>
-      </c>
-      <c r="I157" t="s">
-        <v>1145</v>
+        <v>668</v>
       </c>
     </row>
     <row r="158" spans="1:9">
@@ -6143,16 +6143,16 @@
         <v>169</v>
       </c>
       <c r="B158" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C158" t="s">
-        <v>668</v>
-      </c>
-      <c r="E158" t="s">
-        <v>998</v>
-      </c>
-      <c r="H158" t="s">
-        <v>1116</v>
+        <v>669</v>
+      </c>
+      <c r="G158" t="s">
+        <v>1066</v>
+      </c>
+      <c r="I158" t="s">
+        <v>1147</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -6160,13 +6160,16 @@
         <v>170</v>
       </c>
       <c r="B159" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C159" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="E159" t="s">
-        <v>668</v>
+        <v>1000</v>
+      </c>
+      <c r="H159" t="s">
+        <v>1118</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -6174,13 +6177,13 @@
         <v>171</v>
       </c>
       <c r="B160" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C160" t="s">
+        <v>671</v>
+      </c>
+      <c r="E160" t="s">
         <v>670</v>
-      </c>
-      <c r="H160" t="s">
-        <v>1117</v>
       </c>
     </row>
     <row r="161" spans="1:12">
@@ -6188,10 +6191,13 @@
         <v>172</v>
       </c>
       <c r="B161" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C161" t="s">
-        <v>671</v>
+        <v>672</v>
+      </c>
+      <c r="H161" t="s">
+        <v>1119</v>
       </c>
     </row>
     <row r="162" spans="1:12">
@@ -6199,16 +6205,10 @@
         <v>173</v>
       </c>
       <c r="B162" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C162" t="s">
-        <v>672</v>
-      </c>
-      <c r="G162" t="s">
-        <v>1065</v>
-      </c>
-      <c r="I162" t="s">
-        <v>1151</v>
+        <v>673</v>
       </c>
     </row>
     <row r="163" spans="1:12">
@@ -6216,10 +6216,16 @@
         <v>174</v>
       </c>
       <c r="B163" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C163" t="s">
-        <v>673</v>
+        <v>674</v>
+      </c>
+      <c r="G163" t="s">
+        <v>1067</v>
+      </c>
+      <c r="I163" t="s">
+        <v>1153</v>
       </c>
     </row>
     <row r="164" spans="1:12">
@@ -6227,10 +6233,10 @@
         <v>175</v>
       </c>
       <c r="B164" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C164" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="165" spans="1:12">
@@ -6238,13 +6244,10 @@
         <v>176</v>
       </c>
       <c r="B165" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C165" t="s">
-        <v>675</v>
-      </c>
-      <c r="L165">
-        <v>1</v>
+        <v>676</v>
       </c>
     </row>
     <row r="166" spans="1:12">
@@ -6252,13 +6255,13 @@
         <v>177</v>
       </c>
       <c r="B166" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C166" t="s">
-        <v>676</v>
-      </c>
-      <c r="I166" t="s">
-        <v>1145</v>
+        <v>677</v>
+      </c>
+      <c r="L166">
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:12">
@@ -6266,16 +6269,13 @@
         <v>178</v>
       </c>
       <c r="B167" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C167" t="s">
-        <v>677</v>
-      </c>
-      <c r="G167" t="s">
-        <v>1066</v>
+        <v>678</v>
       </c>
       <c r="I167" t="s">
-        <v>1139</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="168" spans="1:12">
@@ -6283,10 +6283,16 @@
         <v>179</v>
       </c>
       <c r="B168" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C168" t="s">
-        <v>678</v>
+        <v>679</v>
+      </c>
+      <c r="G168" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I168" t="s">
+        <v>1141</v>
       </c>
     </row>
     <row r="169" spans="1:12">
@@ -6294,10 +6300,10 @@
         <v>180</v>
       </c>
       <c r="B169" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C169" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="170" spans="1:12">
@@ -6305,10 +6311,10 @@
         <v>181</v>
       </c>
       <c r="B170" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C170" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="171" spans="1:12">
@@ -6316,13 +6322,10 @@
         <v>182</v>
       </c>
       <c r="B171" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C171" t="s">
-        <v>681</v>
-      </c>
-      <c r="I171" t="s">
-        <v>1154</v>
+        <v>682</v>
       </c>
     </row>
     <row r="172" spans="1:12">
@@ -6330,13 +6333,13 @@
         <v>183</v>
       </c>
       <c r="B172" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C172" t="s">
-        <v>682</v>
-      </c>
-      <c r="L172">
-        <v>1</v>
+        <v>683</v>
+      </c>
+      <c r="I172" t="s">
+        <v>1156</v>
       </c>
     </row>
     <row r="173" spans="1:12">
@@ -6344,10 +6347,13 @@
         <v>184</v>
       </c>
       <c r="B173" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C173" t="s">
-        <v>683</v>
+        <v>684</v>
+      </c>
+      <c r="L173">
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:12">
@@ -6355,10 +6361,10 @@
         <v>185</v>
       </c>
       <c r="B174" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C174" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="175" spans="1:12">
@@ -6366,10 +6372,10 @@
         <v>186</v>
       </c>
       <c r="B175" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C175" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="176" spans="1:12">
@@ -6377,13 +6383,10 @@
         <v>187</v>
       </c>
       <c r="B176" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C176" t="s">
-        <v>686</v>
-      </c>
-      <c r="I176" t="s">
-        <v>1153</v>
+        <v>687</v>
       </c>
     </row>
     <row r="177" spans="1:9">
@@ -6391,10 +6394,13 @@
         <v>188</v>
       </c>
       <c r="B177" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C177" t="s">
-        <v>687</v>
+        <v>688</v>
+      </c>
+      <c r="I177" t="s">
+        <v>1155</v>
       </c>
     </row>
     <row r="178" spans="1:9">
@@ -6402,10 +6408,10 @@
         <v>189</v>
       </c>
       <c r="B178" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C178" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="179" spans="1:9">
@@ -6413,10 +6419,10 @@
         <v>190</v>
       </c>
       <c r="B179" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C179" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="180" spans="1:9">
@@ -6424,10 +6430,10 @@
         <v>191</v>
       </c>
       <c r="B180" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C180" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="181" spans="1:9">
@@ -6435,10 +6441,10 @@
         <v>192</v>
       </c>
       <c r="B181" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C181" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="182" spans="1:9">
@@ -6446,10 +6452,10 @@
         <v>193</v>
       </c>
       <c r="B182" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C182" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="183" spans="1:9">
@@ -6457,16 +6463,10 @@
         <v>194</v>
       </c>
       <c r="B183" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C183" t="s">
-        <v>693</v>
-      </c>
-      <c r="G183" t="s">
-        <v>1067</v>
-      </c>
-      <c r="I183" t="s">
-        <v>1139</v>
+        <v>694</v>
       </c>
     </row>
     <row r="184" spans="1:9">
@@ -6474,10 +6474,16 @@
         <v>195</v>
       </c>
       <c r="B184" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C184" t="s">
-        <v>694</v>
+        <v>695</v>
+      </c>
+      <c r="G184" t="s">
+        <v>1069</v>
+      </c>
+      <c r="I184" t="s">
+        <v>1141</v>
       </c>
     </row>
     <row r="185" spans="1:9">
@@ -6485,10 +6491,10 @@
         <v>196</v>
       </c>
       <c r="B185" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C185" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="186" spans="1:9">
@@ -6496,13 +6502,10 @@
         <v>197</v>
       </c>
       <c r="B186" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C186" t="s">
-        <v>696</v>
-      </c>
-      <c r="I186" t="s">
-        <v>1145</v>
+        <v>697</v>
       </c>
     </row>
     <row r="187" spans="1:9">
@@ -6510,16 +6513,13 @@
         <v>198</v>
       </c>
       <c r="B187" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C187" t="s">
-        <v>697</v>
-      </c>
-      <c r="G187" t="s">
-        <v>1068</v>
+        <v>698</v>
       </c>
       <c r="I187" t="s">
-        <v>1152</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="188" spans="1:9">
@@ -6527,10 +6527,16 @@
         <v>199</v>
       </c>
       <c r="B188" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C188" t="s">
-        <v>698</v>
+        <v>699</v>
+      </c>
+      <c r="G188" t="s">
+        <v>1070</v>
+      </c>
+      <c r="I188" t="s">
+        <v>1154</v>
       </c>
     </row>
     <row r="189" spans="1:9">
@@ -6538,10 +6544,10 @@
         <v>200</v>
       </c>
       <c r="B189" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C189" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="190" spans="1:9">
@@ -6549,13 +6555,10 @@
         <v>201</v>
       </c>
       <c r="B190" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C190" t="s">
-        <v>700</v>
-      </c>
-      <c r="E190" t="s">
-        <v>999</v>
+        <v>701</v>
       </c>
     </row>
     <row r="191" spans="1:9">
@@ -6563,10 +6566,13 @@
         <v>202</v>
       </c>
       <c r="B191" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C191" t="s">
-        <v>701</v>
+        <v>702</v>
+      </c>
+      <c r="E191" t="s">
+        <v>1001</v>
       </c>
     </row>
     <row r="192" spans="1:9">
@@ -6574,10 +6580,10 @@
         <v>203</v>
       </c>
       <c r="B192" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C192" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -6585,10 +6591,10 @@
         <v>204</v>
       </c>
       <c r="B193" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C193" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -6596,10 +6602,10 @@
         <v>205</v>
       </c>
       <c r="B194" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C194" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -6607,10 +6613,10 @@
         <v>206</v>
       </c>
       <c r="B195" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C195" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -6618,10 +6624,10 @@
         <v>207</v>
       </c>
       <c r="B196" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C196" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -6629,10 +6635,10 @@
         <v>208</v>
       </c>
       <c r="B197" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C197" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -6640,10 +6646,10 @@
         <v>209</v>
       </c>
       <c r="B198" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C198" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -6651,10 +6657,10 @@
         <v>210</v>
       </c>
       <c r="B199" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C199" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -6662,10 +6668,10 @@
         <v>211</v>
       </c>
       <c r="B200" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C200" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -6673,10 +6679,10 @@
         <v>212</v>
       </c>
       <c r="B201" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C201" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -6687,7 +6693,7 @@
         <v>502</v>
       </c>
       <c r="C202" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -6695,10 +6701,10 @@
         <v>214</v>
       </c>
       <c r="B203" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C203" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -6706,10 +6712,10 @@
         <v>215</v>
       </c>
       <c r="B204" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C204" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -6717,10 +6723,10 @@
         <v>216</v>
       </c>
       <c r="B205" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C205" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -6728,10 +6734,10 @@
         <v>217</v>
       </c>
       <c r="B206" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C206" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -6739,10 +6745,10 @@
         <v>218</v>
       </c>
       <c r="B207" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C207" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -6750,10 +6756,10 @@
         <v>219</v>
       </c>
       <c r="B208" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C208" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
     </row>
     <row r="209" spans="1:13">
@@ -6761,10 +6767,10 @@
         <v>220</v>
       </c>
       <c r="B209" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C209" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="210" spans="1:13">
@@ -6772,10 +6778,10 @@
         <v>221</v>
       </c>
       <c r="B210" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C210" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
     </row>
     <row r="211" spans="1:13">
@@ -6783,10 +6789,10 @@
         <v>222</v>
       </c>
       <c r="B211" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C211" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
     </row>
     <row r="212" spans="1:13">
@@ -6794,10 +6800,10 @@
         <v>223</v>
       </c>
       <c r="B212" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C212" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
     </row>
     <row r="213" spans="1:13">
@@ -6805,10 +6811,10 @@
         <v>224</v>
       </c>
       <c r="B213" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C213" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="214" spans="1:13">
@@ -6816,10 +6822,10 @@
         <v>225</v>
       </c>
       <c r="B214" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C214" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
     </row>
     <row r="215" spans="1:13">
@@ -6827,10 +6833,10 @@
         <v>226</v>
       </c>
       <c r="B215" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C215" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
     </row>
     <row r="216" spans="1:13">
@@ -6838,10 +6844,10 @@
         <v>227</v>
       </c>
       <c r="B216" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C216" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="217" spans="1:13">
@@ -6849,10 +6855,10 @@
         <v>228</v>
       </c>
       <c r="B217" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C217" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
     </row>
     <row r="218" spans="1:13">
@@ -6860,10 +6866,10 @@
         <v>229</v>
       </c>
       <c r="B218" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C218" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
     </row>
     <row r="219" spans="1:13">
@@ -6871,10 +6877,10 @@
         <v>230</v>
       </c>
       <c r="B219" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C219" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="220" spans="1:13">
@@ -6882,10 +6888,10 @@
         <v>231</v>
       </c>
       <c r="B220" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C220" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
     </row>
     <row r="221" spans="1:13">
@@ -6893,10 +6899,10 @@
         <v>232</v>
       </c>
       <c r="B221" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C221" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
     </row>
     <row r="222" spans="1:13">
@@ -6904,10 +6910,10 @@
         <v>233</v>
       </c>
       <c r="B222" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C222" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
     </row>
     <row r="223" spans="1:13">
@@ -6918,10 +6924,7 @@
         <v>503</v>
       </c>
       <c r="C223" t="s">
-        <v>733</v>
-      </c>
-      <c r="M223">
-        <v>1</v>
+        <v>734</v>
       </c>
     </row>
     <row r="224" spans="1:13">
@@ -6929,189 +6932,189 @@
         <v>235</v>
       </c>
       <c r="B224" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C224" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5">
+        <v>735</v>
+      </c>
+      <c r="M224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
       <c r="A225" s="1" t="s">
         <v>236</v>
       </c>
       <c r="B225" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C225" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
       <c r="A226" s="1" t="s">
         <v>237</v>
       </c>
       <c r="B226" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C226" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
       <c r="A227" s="1" t="s">
         <v>238</v>
       </c>
       <c r="B227" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C227" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
       <c r="A228" s="1" t="s">
         <v>239</v>
       </c>
       <c r="B228" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C228" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
       <c r="A229" s="1" t="s">
         <v>240</v>
       </c>
       <c r="B229" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C229" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
       <c r="A230" s="1" t="s">
         <v>241</v>
       </c>
       <c r="B230" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C230" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
       <c r="A231" s="1" t="s">
         <v>242</v>
       </c>
       <c r="B231" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C231" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
       <c r="A232" s="1" t="s">
         <v>243</v>
       </c>
       <c r="B232" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C232" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
       <c r="A233" s="1" t="s">
         <v>244</v>
       </c>
       <c r="B233" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C233" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
       <c r="A234" s="1" t="s">
         <v>245</v>
       </c>
       <c r="B234" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C234" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
       <c r="A235" s="1" t="s">
         <v>246</v>
       </c>
       <c r="B235" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C235" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
       <c r="A236" s="1" t="s">
         <v>247</v>
       </c>
       <c r="B236" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C236" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
       <c r="A237" s="1" t="s">
         <v>248</v>
       </c>
       <c r="B237" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C237" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
       <c r="A238" s="1" t="s">
         <v>249</v>
       </c>
       <c r="B238" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C238" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
       <c r="A239" s="1" t="s">
         <v>250</v>
       </c>
       <c r="B239" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C239" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
       <c r="A240" s="1" t="s">
         <v>251</v>
       </c>
       <c r="B240" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C240" t="s">
-        <v>750</v>
-      </c>
-      <c r="E240" t="s">
-        <v>1000</v>
+        <v>751</v>
       </c>
     </row>
     <row r="241" spans="1:9">
@@ -7119,13 +7122,13 @@
         <v>252</v>
       </c>
       <c r="B241" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C241" t="s">
-        <v>751</v>
-      </c>
-      <c r="G241" t="s">
-        <v>1012</v>
+        <v>752</v>
+      </c>
+      <c r="E241" t="s">
+        <v>1002</v>
       </c>
     </row>
     <row r="242" spans="1:9">
@@ -7133,10 +7136,13 @@
         <v>253</v>
       </c>
       <c r="B242" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C242" t="s">
-        <v>752</v>
+        <v>753</v>
+      </c>
+      <c r="G242" t="s">
+        <v>1014</v>
       </c>
     </row>
     <row r="243" spans="1:9">
@@ -7144,10 +7150,10 @@
         <v>254</v>
       </c>
       <c r="B243" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C243" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
     </row>
     <row r="244" spans="1:9">
@@ -7155,10 +7161,10 @@
         <v>255</v>
       </c>
       <c r="B244" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C244" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
     </row>
     <row r="245" spans="1:9">
@@ -7166,10 +7172,10 @@
         <v>256</v>
       </c>
       <c r="B245" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C245" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
     </row>
     <row r="246" spans="1:9">
@@ -7177,10 +7183,10 @@
         <v>257</v>
       </c>
       <c r="B246" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C246" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
     </row>
     <row r="247" spans="1:9">
@@ -7188,10 +7194,10 @@
         <v>258</v>
       </c>
       <c r="B247" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C247" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
     <row r="248" spans="1:9">
@@ -7199,10 +7205,10 @@
         <v>259</v>
       </c>
       <c r="B248" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C248" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="249" spans="1:9">
@@ -7210,10 +7216,10 @@
         <v>260</v>
       </c>
       <c r="B249" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C249" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
     </row>
     <row r="250" spans="1:9">
@@ -7221,10 +7227,10 @@
         <v>261</v>
       </c>
       <c r="B250" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C250" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
     </row>
     <row r="251" spans="1:9">
@@ -7232,16 +7238,10 @@
         <v>262</v>
       </c>
       <c r="B251" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C251" t="s">
-        <v>761</v>
-      </c>
-      <c r="G251" t="s">
-        <v>1069</v>
-      </c>
-      <c r="I251" t="s">
-        <v>1143</v>
+        <v>762</v>
       </c>
     </row>
     <row r="252" spans="1:9">
@@ -7249,10 +7249,16 @@
         <v>263</v>
       </c>
       <c r="B252" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C252" t="s">
-        <v>762</v>
+        <v>763</v>
+      </c>
+      <c r="G252" t="s">
+        <v>1071</v>
+      </c>
+      <c r="I252" t="s">
+        <v>1145</v>
       </c>
     </row>
     <row r="253" spans="1:9">
@@ -7260,10 +7266,10 @@
         <v>264</v>
       </c>
       <c r="B253" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C253" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="254" spans="1:9">
@@ -7271,10 +7277,10 @@
         <v>265</v>
       </c>
       <c r="B254" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C254" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="255" spans="1:9">
@@ -7285,10 +7291,7 @@
         <v>504</v>
       </c>
       <c r="C255" t="s">
-        <v>765</v>
-      </c>
-      <c r="G255" t="s">
-        <v>1070</v>
+        <v>766</v>
       </c>
     </row>
     <row r="256" spans="1:9">
@@ -7299,13 +7302,10 @@
         <v>505</v>
       </c>
       <c r="C256" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="G256" t="s">
-        <v>1071</v>
-      </c>
-      <c r="I256" t="s">
-        <v>1143</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="257" spans="1:9">
@@ -7313,13 +7313,16 @@
         <v>268</v>
       </c>
       <c r="B257" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C257" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="G257" t="s">
-        <v>1071</v>
+        <v>1073</v>
+      </c>
+      <c r="I257" t="s">
+        <v>1145</v>
       </c>
     </row>
     <row r="258" spans="1:9">
@@ -7327,10 +7330,13 @@
         <v>269</v>
       </c>
       <c r="B258" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C258" t="s">
-        <v>768</v>
+        <v>769</v>
+      </c>
+      <c r="G258" t="s">
+        <v>1073</v>
       </c>
     </row>
     <row r="259" spans="1:9">
@@ -7338,10 +7344,10 @@
         <v>270</v>
       </c>
       <c r="B259" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C259" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="260" spans="1:9">
@@ -7349,13 +7355,10 @@
         <v>271</v>
       </c>
       <c r="B260" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C260" t="s">
-        <v>770</v>
-      </c>
-      <c r="I260" t="s">
-        <v>1139</v>
+        <v>771</v>
       </c>
     </row>
     <row r="261" spans="1:9">
@@ -7363,10 +7366,13 @@
         <v>272</v>
       </c>
       <c r="B261" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C261" t="s">
-        <v>771</v>
+        <v>772</v>
+      </c>
+      <c r="I261" t="s">
+        <v>1141</v>
       </c>
     </row>
     <row r="262" spans="1:9">
@@ -7374,10 +7380,10 @@
         <v>273</v>
       </c>
       <c r="B262" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C262" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="263" spans="1:9">
@@ -7385,13 +7391,10 @@
         <v>274</v>
       </c>
       <c r="B263" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C263" t="s">
-        <v>773</v>
-      </c>
-      <c r="I263" t="s">
-        <v>1155</v>
+        <v>774</v>
       </c>
     </row>
     <row r="264" spans="1:9">
@@ -7399,13 +7402,13 @@
         <v>275</v>
       </c>
       <c r="B264" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C264" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="I264" t="s">
-        <v>1155</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="265" spans="1:9">
@@ -7413,13 +7416,13 @@
         <v>276</v>
       </c>
       <c r="B265" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C265" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="I265" t="s">
-        <v>1155</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="266" spans="1:9">
@@ -7427,13 +7430,13 @@
         <v>277</v>
       </c>
       <c r="B266" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C266" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="I266" t="s">
-        <v>1155</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="267" spans="1:9">
@@ -7441,13 +7444,13 @@
         <v>278</v>
       </c>
       <c r="B267" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C267" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="I267" t="s">
-        <v>1155</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="268" spans="1:9">
@@ -7455,13 +7458,13 @@
         <v>279</v>
       </c>
       <c r="B268" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C268" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="I268" t="s">
-        <v>1155</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="269" spans="1:9">
@@ -7469,13 +7472,13 @@
         <v>280</v>
       </c>
       <c r="B269" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C269" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="I269" t="s">
-        <v>1143</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="270" spans="1:9">
@@ -7486,7 +7489,10 @@
         <v>506</v>
       </c>
       <c r="C270" t="s">
-        <v>780</v>
+        <v>781</v>
+      </c>
+      <c r="I270" t="s">
+        <v>1145</v>
       </c>
     </row>
     <row r="271" spans="1:9">
@@ -7494,10 +7500,10 @@
         <v>282</v>
       </c>
       <c r="B271" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C271" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="272" spans="1:9">
@@ -7505,10 +7511,10 @@
         <v>283</v>
       </c>
       <c r="B272" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C272" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="273" spans="1:12">
@@ -7516,10 +7522,10 @@
         <v>284</v>
       </c>
       <c r="B273" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C273" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="274" spans="1:12">
@@ -7527,10 +7533,10 @@
         <v>285</v>
       </c>
       <c r="B274" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C274" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="275" spans="1:12">
@@ -7538,13 +7544,10 @@
         <v>286</v>
       </c>
       <c r="B275" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C275" t="s">
-        <v>785</v>
-      </c>
-      <c r="H275" t="s">
-        <v>1118</v>
+        <v>786</v>
       </c>
     </row>
     <row r="276" spans="1:12">
@@ -7552,10 +7555,13 @@
         <v>287</v>
       </c>
       <c r="B276" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C276" t="s">
-        <v>786</v>
+        <v>787</v>
+      </c>
+      <c r="H276" t="s">
+        <v>1120</v>
       </c>
     </row>
     <row r="277" spans="1:12">
@@ -7563,10 +7569,10 @@
         <v>288</v>
       </c>
       <c r="B277" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C277" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="278" spans="1:12">
@@ -7574,10 +7580,10 @@
         <v>289</v>
       </c>
       <c r="B278" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C278" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="279" spans="1:12">
@@ -7585,16 +7591,10 @@
         <v>290</v>
       </c>
       <c r="B279" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C279" t="s">
-        <v>789</v>
-      </c>
-      <c r="G279" t="s">
-        <v>1072</v>
-      </c>
-      <c r="I279" t="s">
-        <v>1156</v>
+        <v>790</v>
       </c>
     </row>
     <row r="280" spans="1:12">
@@ -7602,10 +7602,16 @@
         <v>291</v>
       </c>
       <c r="B280" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C280" t="s">
-        <v>790</v>
+        <v>791</v>
+      </c>
+      <c r="G280" t="s">
+        <v>1074</v>
+      </c>
+      <c r="I280" t="s">
+        <v>1158</v>
       </c>
     </row>
     <row r="281" spans="1:12">
@@ -7613,10 +7619,10 @@
         <v>292</v>
       </c>
       <c r="B281" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C281" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
     </row>
     <row r="282" spans="1:12">
@@ -7624,13 +7630,10 @@
         <v>293</v>
       </c>
       <c r="B282" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C282" t="s">
-        <v>792</v>
-      </c>
-      <c r="L282">
-        <v>1</v>
+        <v>793</v>
       </c>
     </row>
     <row r="283" spans="1:12">
@@ -7638,13 +7641,13 @@
         <v>294</v>
       </c>
       <c r="B283" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C283" t="s">
-        <v>793</v>
-      </c>
-      <c r="G283" t="s">
-        <v>1073</v>
+        <v>794</v>
+      </c>
+      <c r="L283">
+        <v>1</v>
       </c>
     </row>
     <row r="284" spans="1:12">
@@ -7652,13 +7655,13 @@
         <v>295</v>
       </c>
       <c r="B284" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C284" t="s">
-        <v>794</v>
-      </c>
-      <c r="L284">
-        <v>1</v>
+        <v>795</v>
+      </c>
+      <c r="G284" t="s">
+        <v>1075</v>
       </c>
     </row>
     <row r="285" spans="1:12">
@@ -7666,10 +7669,13 @@
         <v>296</v>
       </c>
       <c r="B285" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C285" t="s">
-        <v>795</v>
+        <v>796</v>
+      </c>
+      <c r="L285">
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:12">
@@ -7677,10 +7683,10 @@
         <v>297</v>
       </c>
       <c r="B286" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C286" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
     </row>
     <row r="287" spans="1:12">
@@ -7688,10 +7694,10 @@
         <v>298</v>
       </c>
       <c r="B287" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C287" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
     </row>
     <row r="288" spans="1:12">
@@ -7699,10 +7705,10 @@
         <v>299</v>
       </c>
       <c r="B288" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C288" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
     </row>
     <row r="289" spans="1:12">
@@ -7710,10 +7716,10 @@
         <v>300</v>
       </c>
       <c r="B289" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C289" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="290" spans="1:12">
@@ -7721,13 +7727,10 @@
         <v>301</v>
       </c>
       <c r="B290" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C290" t="s">
-        <v>800</v>
-      </c>
-      <c r="L290">
-        <v>1</v>
+        <v>801</v>
       </c>
     </row>
     <row r="291" spans="1:12">
@@ -7738,7 +7741,10 @@
         <v>507</v>
       </c>
       <c r="C291" t="s">
-        <v>801</v>
+        <v>802</v>
+      </c>
+      <c r="L291">
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:12">
@@ -7746,10 +7752,10 @@
         <v>303</v>
       </c>
       <c r="B292" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C292" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
     </row>
     <row r="293" spans="1:12">
@@ -7757,16 +7763,10 @@
         <v>304</v>
       </c>
       <c r="B293" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C293" t="s">
-        <v>803</v>
-      </c>
-      <c r="G293" t="s">
-        <v>1074</v>
-      </c>
-      <c r="I293" t="s">
-        <v>1150</v>
+        <v>804</v>
       </c>
     </row>
     <row r="294" spans="1:12">
@@ -7774,10 +7774,16 @@
         <v>305</v>
       </c>
       <c r="B294" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C294" t="s">
-        <v>804</v>
+        <v>805</v>
+      </c>
+      <c r="G294" t="s">
+        <v>1076</v>
+      </c>
+      <c r="I294" t="s">
+        <v>1152</v>
       </c>
     </row>
     <row r="295" spans="1:12">
@@ -7785,10 +7791,10 @@
         <v>306</v>
       </c>
       <c r="B295" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C295" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
     </row>
     <row r="296" spans="1:12">
@@ -7796,16 +7802,10 @@
         <v>307</v>
       </c>
       <c r="B296" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C296" t="s">
-        <v>806</v>
-      </c>
-      <c r="G296" t="s">
-        <v>1075</v>
-      </c>
-      <c r="I296" t="s">
-        <v>1150</v>
+        <v>807</v>
       </c>
     </row>
     <row r="297" spans="1:12">
@@ -7813,16 +7813,16 @@
         <v>308</v>
       </c>
       <c r="B297" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C297" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="G297" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="I297" t="s">
-        <v>1145</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="298" spans="1:12">
@@ -7830,10 +7830,16 @@
         <v>309</v>
       </c>
       <c r="B298" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C298" t="s">
-        <v>808</v>
+        <v>809</v>
+      </c>
+      <c r="G298" t="s">
+        <v>1078</v>
+      </c>
+      <c r="I298" t="s">
+        <v>1147</v>
       </c>
     </row>
     <row r="299" spans="1:12">
@@ -7844,7 +7850,7 @@
         <v>508</v>
       </c>
       <c r="C299" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
     </row>
     <row r="300" spans="1:12">
@@ -7852,10 +7858,10 @@
         <v>311</v>
       </c>
       <c r="B300" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C300" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="301" spans="1:12">
@@ -7863,10 +7869,10 @@
         <v>312</v>
       </c>
       <c r="B301" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C301" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
     </row>
     <row r="302" spans="1:12">
@@ -7874,10 +7880,10 @@
         <v>313</v>
       </c>
       <c r="B302" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C302" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
     </row>
     <row r="303" spans="1:12">
@@ -7885,10 +7891,10 @@
         <v>314</v>
       </c>
       <c r="B303" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C303" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
     </row>
     <row r="304" spans="1:12">
@@ -7896,10 +7902,10 @@
         <v>315</v>
       </c>
       <c r="B304" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C304" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -7907,10 +7913,10 @@
         <v>316</v>
       </c>
       <c r="B305" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C305" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -7918,10 +7924,10 @@
         <v>317</v>
       </c>
       <c r="B306" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C306" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -7929,10 +7935,10 @@
         <v>318</v>
       </c>
       <c r="B307" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C307" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -7940,10 +7946,10 @@
         <v>319</v>
       </c>
       <c r="B308" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C308" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -7951,10 +7957,10 @@
         <v>320</v>
       </c>
       <c r="B309" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C309" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -7962,10 +7968,10 @@
         <v>321</v>
       </c>
       <c r="B310" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C310" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -7973,10 +7979,10 @@
         <v>322</v>
       </c>
       <c r="B311" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C311" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -7984,10 +7990,10 @@
         <v>323</v>
       </c>
       <c r="B312" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C312" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -7995,10 +8001,10 @@
         <v>324</v>
       </c>
       <c r="B313" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C313" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -8006,10 +8012,10 @@
         <v>325</v>
       </c>
       <c r="B314" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C314" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -8017,10 +8023,10 @@
         <v>326</v>
       </c>
       <c r="B315" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C315" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -8028,10 +8034,10 @@
         <v>327</v>
       </c>
       <c r="B316" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C316" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -8039,10 +8045,10 @@
         <v>328</v>
       </c>
       <c r="B317" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C317" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -8050,10 +8056,10 @@
         <v>329</v>
       </c>
       <c r="B318" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C318" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -8061,10 +8067,10 @@
         <v>330</v>
       </c>
       <c r="B319" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C319" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -8072,10 +8078,10 @@
         <v>331</v>
       </c>
       <c r="B320" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C320" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -8083,10 +8089,10 @@
         <v>332</v>
       </c>
       <c r="B321" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C321" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -8094,10 +8100,10 @@
         <v>333</v>
       </c>
       <c r="B322" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C322" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -8105,10 +8111,10 @@
         <v>334</v>
       </c>
       <c r="B323" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C323" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -8116,10 +8122,10 @@
         <v>335</v>
       </c>
       <c r="B324" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C324" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -8127,10 +8133,10 @@
         <v>336</v>
       </c>
       <c r="B325" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C325" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -8138,10 +8144,10 @@
         <v>337</v>
       </c>
       <c r="B326" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C326" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -8149,10 +8155,10 @@
         <v>338</v>
       </c>
       <c r="B327" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C327" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -8160,10 +8166,10 @@
         <v>339</v>
       </c>
       <c r="B328" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C328" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -8171,10 +8177,10 @@
         <v>340</v>
       </c>
       <c r="B329" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C329" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -8182,10 +8188,10 @@
         <v>341</v>
       </c>
       <c r="B330" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C330" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -8193,10 +8199,10 @@
         <v>342</v>
       </c>
       <c r="B331" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C331" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -8204,10 +8210,10 @@
         <v>343</v>
       </c>
       <c r="B332" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C332" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -8215,10 +8221,10 @@
         <v>344</v>
       </c>
       <c r="B333" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C333" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -8226,10 +8232,10 @@
         <v>345</v>
       </c>
       <c r="B334" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C334" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -8237,10 +8243,10 @@
         <v>346</v>
       </c>
       <c r="B335" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C335" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -8248,10 +8254,10 @@
         <v>347</v>
       </c>
       <c r="B336" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C336" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -8259,10 +8265,10 @@
         <v>348</v>
       </c>
       <c r="B337" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C337" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -8270,10 +8276,10 @@
         <v>349</v>
       </c>
       <c r="B338" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C338" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -8281,10 +8287,10 @@
         <v>350</v>
       </c>
       <c r="B339" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C339" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -8292,10 +8298,10 @@
         <v>351</v>
       </c>
       <c r="B340" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C340" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -8303,10 +8309,10 @@
         <v>352</v>
       </c>
       <c r="B341" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C341" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -8314,10 +8320,10 @@
         <v>353</v>
       </c>
       <c r="B342" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C342" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -8325,10 +8331,10 @@
         <v>354</v>
       </c>
       <c r="B343" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C343" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -8336,10 +8342,10 @@
         <v>355</v>
       </c>
       <c r="B344" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C344" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -8347,10 +8353,10 @@
         <v>356</v>
       </c>
       <c r="B345" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C345" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -8358,10 +8364,10 @@
         <v>357</v>
       </c>
       <c r="B346" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C346" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -8369,10 +8375,10 @@
         <v>358</v>
       </c>
       <c r="B347" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C347" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -8380,10 +8386,10 @@
         <v>359</v>
       </c>
       <c r="B348" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C348" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -8391,10 +8397,10 @@
         <v>360</v>
       </c>
       <c r="B349" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C349" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -8402,10 +8408,10 @@
         <v>361</v>
       </c>
       <c r="B350" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C350" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -8413,10 +8419,10 @@
         <v>362</v>
       </c>
       <c r="B351" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C351" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -8424,10 +8430,10 @@
         <v>363</v>
       </c>
       <c r="B352" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C352" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -8435,10 +8441,10 @@
         <v>364</v>
       </c>
       <c r="B353" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C353" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -8446,10 +8452,10 @@
         <v>365</v>
       </c>
       <c r="B354" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C354" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -8457,10 +8463,10 @@
         <v>366</v>
       </c>
       <c r="B355" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C355" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -8468,10 +8474,10 @@
         <v>367</v>
       </c>
       <c r="B356" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C356" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -8479,10 +8485,10 @@
         <v>368</v>
       </c>
       <c r="B357" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C357" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -8490,10 +8496,10 @@
         <v>369</v>
       </c>
       <c r="B358" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C358" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -8501,10 +8507,10 @@
         <v>370</v>
       </c>
       <c r="B359" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C359" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -8512,10 +8518,10 @@
         <v>371</v>
       </c>
       <c r="B360" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C360" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -8523,10 +8529,10 @@
         <v>372</v>
       </c>
       <c r="B361" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C361" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -8534,10 +8540,10 @@
         <v>373</v>
       </c>
       <c r="B362" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C362" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -8545,10 +8551,10 @@
         <v>374</v>
       </c>
       <c r="B363" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C363" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -8556,10 +8562,10 @@
         <v>375</v>
       </c>
       <c r="B364" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C364" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -8567,10 +8573,10 @@
         <v>376</v>
       </c>
       <c r="B365" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C365" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -8578,10 +8584,10 @@
         <v>377</v>
       </c>
       <c r="B366" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C366" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -8592,10 +8598,7 @@
         <v>509</v>
       </c>
       <c r="C367" t="s">
-        <v>877</v>
-      </c>
-      <c r="H367" t="s">
-        <v>1119</v>
+        <v>878</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -8603,10 +8606,13 @@
         <v>379</v>
       </c>
       <c r="B368" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C368" t="s">
-        <v>878</v>
+        <v>879</v>
+      </c>
+      <c r="H368" t="s">
+        <v>1121</v>
       </c>
     </row>
     <row r="369" spans="1:9">
@@ -8614,10 +8620,10 @@
         <v>380</v>
       </c>
       <c r="B369" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C369" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="370" spans="1:9">
@@ -8625,13 +8631,10 @@
         <v>381</v>
       </c>
       <c r="B370" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C370" t="s">
-        <v>880</v>
-      </c>
-      <c r="H370" t="s">
-        <v>1120</v>
+        <v>881</v>
       </c>
     </row>
     <row r="371" spans="1:9">
@@ -8639,13 +8642,13 @@
         <v>382</v>
       </c>
       <c r="B371" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C371" t="s">
-        <v>881</v>
-      </c>
-      <c r="I371" t="s">
-        <v>1143</v>
+        <v>882</v>
+      </c>
+      <c r="H371" t="s">
+        <v>1122</v>
       </c>
     </row>
     <row r="372" spans="1:9">
@@ -8653,13 +8656,13 @@
         <v>383</v>
       </c>
       <c r="B372" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C372" t="s">
-        <v>882</v>
-      </c>
-      <c r="H372" t="s">
-        <v>1121</v>
+        <v>883</v>
+      </c>
+      <c r="I372" t="s">
+        <v>1145</v>
       </c>
     </row>
     <row r="373" spans="1:9">
@@ -8667,10 +8670,13 @@
         <v>384</v>
       </c>
       <c r="B373" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C373" t="s">
-        <v>883</v>
+        <v>884</v>
+      </c>
+      <c r="H373" t="s">
+        <v>1123</v>
       </c>
     </row>
     <row r="374" spans="1:9">
@@ -8678,13 +8684,10 @@
         <v>385</v>
       </c>
       <c r="B374" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C374" t="s">
-        <v>884</v>
-      </c>
-      <c r="H374" t="s">
-        <v>1122</v>
+        <v>885</v>
       </c>
     </row>
     <row r="375" spans="1:9">
@@ -8692,10 +8695,13 @@
         <v>386</v>
       </c>
       <c r="B375" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C375" t="s">
-        <v>885</v>
+        <v>886</v>
+      </c>
+      <c r="H375" t="s">
+        <v>1124</v>
       </c>
     </row>
     <row r="376" spans="1:9">
@@ -8703,10 +8709,10 @@
         <v>387</v>
       </c>
       <c r="B376" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C376" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
     </row>
     <row r="377" spans="1:9">
@@ -8714,10 +8720,10 @@
         <v>388</v>
       </c>
       <c r="B377" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C377" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
     </row>
     <row r="378" spans="1:9">
@@ -8725,13 +8731,10 @@
         <v>389</v>
       </c>
       <c r="B378" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C378" t="s">
-        <v>888</v>
-      </c>
-      <c r="H378" t="s">
-        <v>1123</v>
+        <v>889</v>
       </c>
     </row>
     <row r="379" spans="1:9">
@@ -8739,16 +8742,13 @@
         <v>390</v>
       </c>
       <c r="B379" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C379" t="s">
-        <v>889</v>
-      </c>
-      <c r="G379" t="s">
-        <v>1077</v>
+        <v>890</v>
       </c>
       <c r="H379" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="380" spans="1:9">
@@ -8756,10 +8756,16 @@
         <v>391</v>
       </c>
       <c r="B380" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C380" t="s">
-        <v>890</v>
+        <v>891</v>
+      </c>
+      <c r="G380" t="s">
+        <v>1079</v>
+      </c>
+      <c r="H380" t="s">
+        <v>1126</v>
       </c>
     </row>
     <row r="381" spans="1:9">
@@ -8767,13 +8773,10 @@
         <v>392</v>
       </c>
       <c r="B381" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C381" t="s">
-        <v>891</v>
-      </c>
-      <c r="H381" t="s">
-        <v>1125</v>
+        <v>892</v>
       </c>
     </row>
     <row r="382" spans="1:9">
@@ -8781,10 +8784,13 @@
         <v>393</v>
       </c>
       <c r="B382" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C382" t="s">
-        <v>892</v>
+        <v>893</v>
+      </c>
+      <c r="H382" t="s">
+        <v>1127</v>
       </c>
     </row>
     <row r="383" spans="1:9">
@@ -8792,13 +8798,10 @@
         <v>394</v>
       </c>
       <c r="B383" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C383" t="s">
-        <v>893</v>
-      </c>
-      <c r="H383" t="s">
-        <v>1126</v>
+        <v>894</v>
       </c>
     </row>
     <row r="384" spans="1:9">
@@ -8806,13 +8809,13 @@
         <v>395</v>
       </c>
       <c r="B384" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C384" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="H384" t="s">
-        <v>1126</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="385" spans="1:12">
@@ -8820,10 +8823,13 @@
         <v>396</v>
       </c>
       <c r="B385" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C385" t="s">
-        <v>895</v>
+        <v>896</v>
+      </c>
+      <c r="H385" t="s">
+        <v>1128</v>
       </c>
     </row>
     <row r="386" spans="1:12">
@@ -8831,10 +8837,10 @@
         <v>397</v>
       </c>
       <c r="B386" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C386" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
     </row>
     <row r="387" spans="1:12">
@@ -8842,10 +8848,10 @@
         <v>398</v>
       </c>
       <c r="B387" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C387" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="388" spans="1:12">
@@ -8853,13 +8859,10 @@
         <v>399</v>
       </c>
       <c r="B388" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C388" t="s">
-        <v>898</v>
-      </c>
-      <c r="L388">
-        <v>1</v>
+        <v>899</v>
       </c>
     </row>
     <row r="389" spans="1:12">
@@ -8867,16 +8870,13 @@
         <v>400</v>
       </c>
       <c r="B389" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C389" t="s">
-        <v>899</v>
-      </c>
-      <c r="G389" t="s">
-        <v>1078</v>
-      </c>
-      <c r="I389" t="s">
-        <v>1145</v>
+        <v>900</v>
+      </c>
+      <c r="L389">
+        <v>1</v>
       </c>
     </row>
     <row r="390" spans="1:12">
@@ -8884,16 +8884,16 @@
         <v>401</v>
       </c>
       <c r="B390" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C390" t="s">
-        <v>900</v>
-      </c>
-      <c r="E390" t="s">
-        <v>1001</v>
-      </c>
-      <c r="L390">
-        <v>1</v>
+        <v>901</v>
+      </c>
+      <c r="G390" t="s">
+        <v>1080</v>
+      </c>
+      <c r="I390" t="s">
+        <v>1147</v>
       </c>
     </row>
     <row r="391" spans="1:12">
@@ -8901,10 +8901,16 @@
         <v>402</v>
       </c>
       <c r="B391" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C391" t="s">
-        <v>901</v>
+        <v>902</v>
+      </c>
+      <c r="E391" t="s">
+        <v>1003</v>
+      </c>
+      <c r="L391">
+        <v>1</v>
       </c>
     </row>
     <row r="392" spans="1:12">
@@ -8912,16 +8918,10 @@
         <v>403</v>
       </c>
       <c r="B392" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C392" t="s">
-        <v>902</v>
-      </c>
-      <c r="G392" t="s">
-        <v>1079</v>
-      </c>
-      <c r="I392" t="s">
-        <v>1157</v>
+        <v>903</v>
       </c>
     </row>
     <row r="393" spans="1:12">
@@ -8929,13 +8929,16 @@
         <v>404</v>
       </c>
       <c r="B393" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C393" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="G393" t="s">
-        <v>1080</v>
+        <v>1081</v>
+      </c>
+      <c r="I393" t="s">
+        <v>1159</v>
       </c>
     </row>
     <row r="394" spans="1:12">
@@ -8943,13 +8946,13 @@
         <v>405</v>
       </c>
       <c r="B394" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C394" t="s">
-        <v>904</v>
-      </c>
-      <c r="L394">
-        <v>1</v>
+        <v>905</v>
+      </c>
+      <c r="G394" t="s">
+        <v>1082</v>
       </c>
     </row>
     <row r="395" spans="1:12">
@@ -8957,10 +8960,13 @@
         <v>406</v>
       </c>
       <c r="B395" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C395" t="s">
-        <v>905</v>
+        <v>906</v>
+      </c>
+      <c r="L395">
+        <v>1</v>
       </c>
     </row>
     <row r="396" spans="1:12">
@@ -8968,10 +8974,10 @@
         <v>407</v>
       </c>
       <c r="B396" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C396" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
     </row>
     <row r="397" spans="1:12">
@@ -8979,10 +8985,10 @@
         <v>408</v>
       </c>
       <c r="B397" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C397" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
     </row>
     <row r="398" spans="1:12">
@@ -8990,13 +8996,10 @@
         <v>409</v>
       </c>
       <c r="B398" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C398" t="s">
-        <v>908</v>
-      </c>
-      <c r="L398">
-        <v>1</v>
+        <v>909</v>
       </c>
     </row>
     <row r="399" spans="1:12">
@@ -9004,10 +9007,13 @@
         <v>410</v>
       </c>
       <c r="B399" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C399" t="s">
-        <v>909</v>
+        <v>910</v>
+      </c>
+      <c r="L399">
+        <v>1</v>
       </c>
     </row>
     <row r="400" spans="1:12">
@@ -9015,13 +9021,10 @@
         <v>411</v>
       </c>
       <c r="B400" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C400" t="s">
-        <v>910</v>
-      </c>
-      <c r="H400" t="s">
-        <v>1126</v>
+        <v>911</v>
       </c>
     </row>
     <row r="401" spans="1:12">
@@ -9029,13 +9032,13 @@
         <v>412</v>
       </c>
       <c r="B401" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C401" t="s">
-        <v>911</v>
-      </c>
-      <c r="L401">
-        <v>1</v>
+        <v>912</v>
+      </c>
+      <c r="H401" t="s">
+        <v>1128</v>
       </c>
     </row>
     <row r="402" spans="1:12">
@@ -9043,10 +9046,13 @@
         <v>413</v>
       </c>
       <c r="B402" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C402" t="s">
-        <v>912</v>
+        <v>913</v>
+      </c>
+      <c r="L402">
+        <v>1</v>
       </c>
     </row>
     <row r="403" spans="1:12">
@@ -9054,10 +9060,10 @@
         <v>414</v>
       </c>
       <c r="B403" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C403" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
     </row>
     <row r="404" spans="1:12">
@@ -9065,10 +9071,10 @@
         <v>415</v>
       </c>
       <c r="B404" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C404" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="405" spans="1:12">
@@ -9076,10 +9082,10 @@
         <v>416</v>
       </c>
       <c r="B405" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C405" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
     </row>
     <row r="406" spans="1:12">
@@ -9087,13 +9093,10 @@
         <v>417</v>
       </c>
       <c r="B406" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C406" t="s">
-        <v>916</v>
-      </c>
-      <c r="E406" t="s">
-        <v>1002</v>
+        <v>917</v>
       </c>
     </row>
     <row r="407" spans="1:12">
@@ -9101,10 +9104,13 @@
         <v>418</v>
       </c>
       <c r="B407" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C407" t="s">
-        <v>917</v>
+        <v>918</v>
+      </c>
+      <c r="E407" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="408" spans="1:12">
@@ -9112,10 +9118,10 @@
         <v>419</v>
       </c>
       <c r="B408" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C408" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
     </row>
     <row r="409" spans="1:12">
@@ -9123,13 +9129,10 @@
         <v>420</v>
       </c>
       <c r="B409" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C409" t="s">
-        <v>919</v>
-      </c>
-      <c r="I409" t="s">
-        <v>1145</v>
+        <v>920</v>
       </c>
     </row>
     <row r="410" spans="1:12">
@@ -9137,10 +9140,13 @@
         <v>421</v>
       </c>
       <c r="B410" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C410" t="s">
-        <v>920</v>
+        <v>921</v>
+      </c>
+      <c r="I410" t="s">
+        <v>1147</v>
       </c>
     </row>
     <row r="411" spans="1:12">
@@ -9148,13 +9154,10 @@
         <v>422</v>
       </c>
       <c r="B411" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C411" t="s">
-        <v>921</v>
-      </c>
-      <c r="L411">
-        <v>1</v>
+        <v>922</v>
       </c>
     </row>
     <row r="412" spans="1:12">
@@ -9162,10 +9165,13 @@
         <v>423</v>
       </c>
       <c r="B412" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C412" t="s">
-        <v>922</v>
+        <v>923</v>
+      </c>
+      <c r="L412">
+        <v>1</v>
       </c>
     </row>
     <row r="413" spans="1:12">
@@ -9173,13 +9179,10 @@
         <v>424</v>
       </c>
       <c r="B413" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C413" t="s">
-        <v>923</v>
-      </c>
-      <c r="I413" t="s">
-        <v>1156</v>
+        <v>924</v>
       </c>
     </row>
     <row r="414" spans="1:12">
@@ -9187,10 +9190,13 @@
         <v>425</v>
       </c>
       <c r="B414" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C414" t="s">
-        <v>924</v>
+        <v>925</v>
+      </c>
+      <c r="I414" t="s">
+        <v>1158</v>
       </c>
     </row>
     <row r="415" spans="1:12">
@@ -9198,10 +9204,10 @@
         <v>426</v>
       </c>
       <c r="B415" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C415" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
     </row>
     <row r="416" spans="1:12">
@@ -9212,7 +9218,7 @@
         <v>510</v>
       </c>
       <c r="C416" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
     </row>
     <row r="417" spans="1:9">
@@ -9220,16 +9226,10 @@
         <v>428</v>
       </c>
       <c r="B417" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C417" t="s">
-        <v>927</v>
-      </c>
-      <c r="G417" t="s">
-        <v>1081</v>
-      </c>
-      <c r="I417" t="s">
-        <v>1158</v>
+        <v>928</v>
       </c>
     </row>
     <row r="418" spans="1:9">
@@ -9237,16 +9237,16 @@
         <v>429</v>
       </c>
       <c r="B418" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C418" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="G418" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="I418" t="s">
-        <v>1156</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="419" spans="1:9">
@@ -9254,10 +9254,16 @@
         <v>430</v>
       </c>
       <c r="B419" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C419" t="s">
-        <v>929</v>
+        <v>930</v>
+      </c>
+      <c r="G419" t="s">
+        <v>1084</v>
+      </c>
+      <c r="I419" t="s">
+        <v>1158</v>
       </c>
     </row>
     <row r="420" spans="1:9">
@@ -9265,10 +9271,10 @@
         <v>431</v>
       </c>
       <c r="B420" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C420" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
     </row>
     <row r="421" spans="1:9">
@@ -9276,10 +9282,10 @@
         <v>432</v>
       </c>
       <c r="B421" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C421" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
     </row>
     <row r="422" spans="1:9">
@@ -9287,16 +9293,10 @@
         <v>433</v>
       </c>
       <c r="B422" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C422" t="s">
-        <v>932</v>
-      </c>
-      <c r="G422" t="s">
-        <v>1083</v>
-      </c>
-      <c r="I422" t="s">
-        <v>1144</v>
+        <v>933</v>
       </c>
     </row>
     <row r="423" spans="1:9">
@@ -9304,16 +9304,16 @@
         <v>434</v>
       </c>
       <c r="B423" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C423" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="G423" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="I423" t="s">
-        <v>1142</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="424" spans="1:9">
@@ -9321,10 +9321,16 @@
         <v>435</v>
       </c>
       <c r="B424" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C424" t="s">
-        <v>934</v>
+        <v>935</v>
+      </c>
+      <c r="G424" t="s">
+        <v>1086</v>
+      </c>
+      <c r="I424" t="s">
+        <v>1144</v>
       </c>
     </row>
     <row r="425" spans="1:9">
@@ -9332,16 +9338,10 @@
         <v>436</v>
       </c>
       <c r="B425" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C425" t="s">
-        <v>935</v>
-      </c>
-      <c r="G425" t="s">
-        <v>1085</v>
-      </c>
-      <c r="I425" t="s">
-        <v>1142</v>
+        <v>936</v>
       </c>
     </row>
     <row r="426" spans="1:9">
@@ -9349,16 +9349,16 @@
         <v>437</v>
       </c>
       <c r="B426" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C426" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="G426" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="I426" t="s">
-        <v>1142</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="427" spans="1:9">
@@ -9366,16 +9366,16 @@
         <v>438</v>
       </c>
       <c r="B427" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C427" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="G427" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="I427" t="s">
-        <v>1159</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="428" spans="1:9">
@@ -9383,10 +9383,16 @@
         <v>439</v>
       </c>
       <c r="B428" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C428" t="s">
-        <v>938</v>
+        <v>939</v>
+      </c>
+      <c r="G428" t="s">
+        <v>1089</v>
+      </c>
+      <c r="I428" t="s">
+        <v>1161</v>
       </c>
     </row>
     <row r="429" spans="1:9">
@@ -9394,16 +9400,10 @@
         <v>440</v>
       </c>
       <c r="B429" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C429" t="s">
-        <v>939</v>
-      </c>
-      <c r="G429" t="s">
-        <v>1088</v>
-      </c>
-      <c r="I429" t="s">
-        <v>1142</v>
+        <v>940</v>
       </c>
     </row>
     <row r="430" spans="1:9">
@@ -9411,16 +9411,16 @@
         <v>441</v>
       </c>
       <c r="B430" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C430" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="G430" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="I430" t="s">
-        <v>1160</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="431" spans="1:9">
@@ -9428,16 +9428,16 @@
         <v>442</v>
       </c>
       <c r="B431" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C431" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="G431" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="I431" t="s">
-        <v>1158</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="432" spans="1:9">
@@ -9445,16 +9445,16 @@
         <v>443</v>
       </c>
       <c r="B432" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C432" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="G432" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="I432" t="s">
-        <v>1158</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="433" spans="1:12">
@@ -9462,13 +9462,13 @@
         <v>444</v>
       </c>
       <c r="B433" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C433" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="G433" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="I433" t="s">
         <v>1160</v>
@@ -9479,10 +9479,16 @@
         <v>445</v>
       </c>
       <c r="B434" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C434" t="s">
-        <v>944</v>
+        <v>945</v>
+      </c>
+      <c r="G434" t="s">
+        <v>1094</v>
+      </c>
+      <c r="I434" t="s">
+        <v>1162</v>
       </c>
     </row>
     <row r="435" spans="1:12">
@@ -9490,16 +9496,10 @@
         <v>446</v>
       </c>
       <c r="B435" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C435" t="s">
-        <v>945</v>
-      </c>
-      <c r="G435" t="s">
-        <v>1093</v>
-      </c>
-      <c r="I435" t="s">
-        <v>1144</v>
+        <v>946</v>
       </c>
     </row>
     <row r="436" spans="1:12">
@@ -9507,10 +9507,16 @@
         <v>447</v>
       </c>
       <c r="B436" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C436" t="s">
-        <v>946</v>
+        <v>947</v>
+      </c>
+      <c r="G436" t="s">
+        <v>1095</v>
+      </c>
+      <c r="I436" t="s">
+        <v>1146</v>
       </c>
     </row>
     <row r="437" spans="1:12">
@@ -9521,16 +9527,7 @@
         <v>511</v>
       </c>
       <c r="C437" t="s">
-        <v>947</v>
-      </c>
-      <c r="G437" t="s">
-        <v>1094</v>
-      </c>
-      <c r="H437" t="s">
-        <v>1127</v>
-      </c>
-      <c r="I437" t="s">
-        <v>1152</v>
+        <v>948</v>
       </c>
     </row>
     <row r="438" spans="1:12">
@@ -9538,13 +9535,19 @@
         <v>449</v>
       </c>
       <c r="B438" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C438" t="s">
-        <v>948</v>
-      </c>
-      <c r="L438">
-        <v>1</v>
+        <v>949</v>
+      </c>
+      <c r="G438" t="s">
+        <v>1096</v>
+      </c>
+      <c r="H438" t="s">
+        <v>1129</v>
+      </c>
+      <c r="I438" t="s">
+        <v>1154</v>
       </c>
     </row>
     <row r="439" spans="1:12">
@@ -9552,13 +9555,13 @@
         <v>450</v>
       </c>
       <c r="B439" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C439" t="s">
-        <v>949</v>
-      </c>
-      <c r="H439" t="s">
-        <v>1128</v>
+        <v>950</v>
+      </c>
+      <c r="L439">
+        <v>1</v>
       </c>
     </row>
     <row r="440" spans="1:12">
@@ -9566,19 +9569,13 @@
         <v>451</v>
       </c>
       <c r="B440" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C440" t="s">
-        <v>950</v>
-      </c>
-      <c r="G440" t="s">
-        <v>1095</v>
+        <v>951</v>
       </c>
       <c r="H440" t="s">
-        <v>1113</v>
-      </c>
-      <c r="I440" t="s">
-        <v>1143</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="441" spans="1:12">
@@ -9586,10 +9583,19 @@
         <v>452</v>
       </c>
       <c r="B441" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C441" t="s">
-        <v>951</v>
+        <v>952</v>
+      </c>
+      <c r="G441" t="s">
+        <v>1097</v>
+      </c>
+      <c r="H441" t="s">
+        <v>1115</v>
+      </c>
+      <c r="I441" t="s">
+        <v>1145</v>
       </c>
     </row>
     <row r="442" spans="1:12">
@@ -9597,19 +9603,10 @@
         <v>453</v>
       </c>
       <c r="B442" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C442" t="s">
-        <v>952</v>
-      </c>
-      <c r="G442" t="s">
-        <v>1096</v>
-      </c>
-      <c r="H442" t="s">
-        <v>1129</v>
-      </c>
-      <c r="I442" t="s">
-        <v>1140</v>
+        <v>953</v>
       </c>
     </row>
     <row r="443" spans="1:12">
@@ -9617,13 +9614,19 @@
         <v>454</v>
       </c>
       <c r="B443" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C443" t="s">
-        <v>953</v>
-      </c>
-      <c r="L443">
-        <v>1</v>
+        <v>954</v>
+      </c>
+      <c r="G443" t="s">
+        <v>1098</v>
+      </c>
+      <c r="H443" t="s">
+        <v>1131</v>
+      </c>
+      <c r="I443" t="s">
+        <v>1142</v>
       </c>
     </row>
     <row r="444" spans="1:12">
@@ -9631,16 +9634,13 @@
         <v>455</v>
       </c>
       <c r="B444" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C444" t="s">
-        <v>954</v>
-      </c>
-      <c r="E444" t="s">
-        <v>1003</v>
-      </c>
-      <c r="G444" t="s">
-        <v>1097</v>
+        <v>955</v>
+      </c>
+      <c r="L444">
+        <v>1</v>
       </c>
     </row>
     <row r="445" spans="1:12">
@@ -9648,16 +9648,16 @@
         <v>456</v>
       </c>
       <c r="B445" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C445" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E445" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="G445" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="446" spans="1:12">
@@ -9665,22 +9665,16 @@
         <v>457</v>
       </c>
       <c r="B446" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C446" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="E446" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="G446" t="s">
-        <v>1099</v>
-      </c>
-      <c r="H446" t="s">
-        <v>1130</v>
-      </c>
-      <c r="I446" t="s">
-        <v>1161</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="447" spans="1:12">
@@ -9688,16 +9682,22 @@
         <v>458</v>
       </c>
       <c r="B447" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C447" t="s">
-        <v>957</v>
+        <v>958</v>
+      </c>
+      <c r="E447" t="s">
+        <v>1007</v>
+      </c>
+      <c r="G447" t="s">
+        <v>1101</v>
       </c>
       <c r="H447" t="s">
-        <v>1113</v>
+        <v>1132</v>
       </c>
       <c r="I447" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="448" spans="1:12">
@@ -9705,19 +9705,16 @@
         <v>459</v>
       </c>
       <c r="B448" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C448" t="s">
-        <v>958</v>
-      </c>
-      <c r="G448" t="s">
-        <v>1100</v>
+        <v>959</v>
       </c>
       <c r="H448" t="s">
-        <v>1131</v>
+        <v>1115</v>
       </c>
       <c r="I448" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="449" spans="1:13">
@@ -9725,19 +9722,19 @@
         <v>460</v>
       </c>
       <c r="B449" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C449" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="G449" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="H449" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="I449" t="s">
-        <v>1145</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="450" spans="1:13">
@@ -9745,13 +9742,19 @@
         <v>461</v>
       </c>
       <c r="B450" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C450" t="s">
-        <v>960</v>
+        <v>961</v>
+      </c>
+      <c r="G450" t="s">
+        <v>1103</v>
       </c>
       <c r="H450" t="s">
-        <v>1133</v>
+        <v>1134</v>
+      </c>
+      <c r="I450" t="s">
+        <v>1147</v>
       </c>
     </row>
     <row r="451" spans="1:13">
@@ -9759,13 +9762,13 @@
         <v>462</v>
       </c>
       <c r="B451" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C451" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="H451" t="s">
-        <v>1126</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="452" spans="1:13">
@@ -9773,10 +9776,13 @@
         <v>463</v>
       </c>
       <c r="B452" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C452" t="s">
-        <v>962</v>
+        <v>963</v>
+      </c>
+      <c r="H452" t="s">
+        <v>1128</v>
       </c>
     </row>
     <row r="453" spans="1:13">
@@ -9784,13 +9790,10 @@
         <v>464</v>
       </c>
       <c r="B453" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C453" t="s">
-        <v>963</v>
-      </c>
-      <c r="H453" t="s">
-        <v>1134</v>
+        <v>964</v>
       </c>
     </row>
     <row r="454" spans="1:13">
@@ -9798,13 +9801,13 @@
         <v>465</v>
       </c>
       <c r="B454" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C454" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H454" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="455" spans="1:13">
@@ -9812,10 +9815,13 @@
         <v>466</v>
       </c>
       <c r="B455" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C455" t="s">
-        <v>965</v>
+        <v>966</v>
+      </c>
+      <c r="H455" t="s">
+        <v>1137</v>
       </c>
     </row>
     <row r="456" spans="1:13">
@@ -9823,19 +9829,10 @@
         <v>467</v>
       </c>
       <c r="B456" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C456" t="s">
-        <v>966</v>
-      </c>
-      <c r="G456" t="s">
-        <v>1102</v>
-      </c>
-      <c r="H456" t="s">
-        <v>1136</v>
-      </c>
-      <c r="L456">
-        <v>1</v>
+        <v>967</v>
       </c>
     </row>
     <row r="457" spans="1:13">
@@ -9843,25 +9840,19 @@
         <v>468</v>
       </c>
       <c r="B457" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C457" t="s">
-        <v>967</v>
-      </c>
-      <c r="D457" t="s">
-        <v>993</v>
-      </c>
-      <c r="E457" t="s">
-        <v>1006</v>
+        <v>968</v>
       </c>
       <c r="G457" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="H457" t="s">
-        <v>1137</v>
-      </c>
-      <c r="I457" t="s">
-        <v>1164</v>
+        <v>1138</v>
+      </c>
+      <c r="L457">
+        <v>1</v>
       </c>
     </row>
     <row r="458" spans="1:13">
@@ -9869,16 +9860,25 @@
         <v>469</v>
       </c>
       <c r="B458" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C458" t="s">
-        <v>968</v>
+        <v>969</v>
+      </c>
+      <c r="D458" t="s">
+        <v>995</v>
+      </c>
+      <c r="E458" t="s">
+        <v>1008</v>
       </c>
       <c r="G458" t="s">
-        <v>1078</v>
+        <v>1105</v>
+      </c>
+      <c r="H458" t="s">
+        <v>1139</v>
       </c>
       <c r="I458" t="s">
-        <v>1145</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="459" spans="1:13">
@@ -9886,16 +9886,16 @@
         <v>470</v>
       </c>
       <c r="B459" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C459" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="G459" t="s">
-        <v>1104</v>
+        <v>1080</v>
       </c>
       <c r="I459" t="s">
-        <v>1157</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="460" spans="1:13">
@@ -9903,13 +9903,16 @@
         <v>471</v>
       </c>
       <c r="B460" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C460" t="s">
-        <v>970</v>
+        <v>971</v>
+      </c>
+      <c r="G460" t="s">
+        <v>1106</v>
       </c>
       <c r="I460" t="s">
-        <v>1139</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="461" spans="1:13">
@@ -9917,16 +9920,13 @@
         <v>472</v>
       </c>
       <c r="B461" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C461" t="s">
-        <v>971</v>
-      </c>
-      <c r="G461" t="s">
-        <v>1079</v>
+        <v>972</v>
       </c>
       <c r="I461" t="s">
-        <v>1139</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="462" spans="1:13">
@@ -9934,13 +9934,16 @@
         <v>473</v>
       </c>
       <c r="B462" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C462" t="s">
-        <v>972</v>
-      </c>
-      <c r="M462">
-        <v>1</v>
+        <v>973</v>
+      </c>
+      <c r="G462" t="s">
+        <v>1081</v>
+      </c>
+      <c r="I462" t="s">
+        <v>1141</v>
       </c>
     </row>
     <row r="463" spans="1:13">
@@ -9948,16 +9951,13 @@
         <v>474</v>
       </c>
       <c r="B463" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C463" t="s">
-        <v>973</v>
-      </c>
-      <c r="G463" t="s">
-        <v>1105</v>
-      </c>
-      <c r="I463" t="s">
-        <v>1140</v>
+        <v>974</v>
+      </c>
+      <c r="M463">
+        <v>1</v>
       </c>
     </row>
     <row r="464" spans="1:13">
@@ -9965,10 +9965,16 @@
         <v>475</v>
       </c>
       <c r="B464" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C464" t="s">
-        <v>974</v>
+        <v>975</v>
+      </c>
+      <c r="G464" t="s">
+        <v>1107</v>
+      </c>
+      <c r="I464" t="s">
+        <v>1142</v>
       </c>
     </row>
     <row r="465" spans="1:12">
@@ -9976,13 +9982,10 @@
         <v>476</v>
       </c>
       <c r="B465" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C465" t="s">
-        <v>975</v>
-      </c>
-      <c r="H465" t="s">
-        <v>1113</v>
+        <v>976</v>
       </c>
     </row>
     <row r="466" spans="1:12">
@@ -9990,10 +9993,13 @@
         <v>477</v>
       </c>
       <c r="B466" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C466" t="s">
-        <v>976</v>
+        <v>977</v>
+      </c>
+      <c r="H466" t="s">
+        <v>1115</v>
       </c>
     </row>
     <row r="467" spans="1:12">
@@ -10001,13 +10007,10 @@
         <v>478</v>
       </c>
       <c r="B467" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C467" t="s">
-        <v>977</v>
-      </c>
-      <c r="L467">
-        <v>1</v>
+        <v>978</v>
       </c>
     </row>
     <row r="468" spans="1:12">
@@ -10015,22 +10018,13 @@
         <v>479</v>
       </c>
       <c r="B468" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C468" t="s">
-        <v>978</v>
-      </c>
-      <c r="E468" t="s">
-        <v>1007</v>
-      </c>
-      <c r="G468" t="s">
-        <v>1106</v>
-      </c>
-      <c r="H468" t="s">
-        <v>1138</v>
-      </c>
-      <c r="I468" t="s">
-        <v>1143</v>
+        <v>979</v>
+      </c>
+      <c r="L468">
+        <v>1</v>
       </c>
     </row>
     <row r="469" spans="1:12">
@@ -10038,16 +10032,22 @@
         <v>480</v>
       </c>
       <c r="B469" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C469" t="s">
-        <v>979</v>
+        <v>980</v>
+      </c>
+      <c r="E469" t="s">
+        <v>1009</v>
       </c>
       <c r="G469" t="s">
-        <v>1107</v>
+        <v>1108</v>
+      </c>
+      <c r="H469" t="s">
+        <v>1140</v>
       </c>
       <c r="I469" t="s">
-        <v>1139</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="470" spans="1:12">
@@ -10055,10 +10055,16 @@
         <v>481</v>
       </c>
       <c r="B470" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C470" t="s">
-        <v>980</v>
+        <v>981</v>
+      </c>
+      <c r="G470" t="s">
+        <v>1109</v>
+      </c>
+      <c r="I470" t="s">
+        <v>1141</v>
       </c>
     </row>
     <row r="471" spans="1:12">
@@ -10066,13 +10072,10 @@
         <v>482</v>
       </c>
       <c r="B471" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C471" t="s">
-        <v>981</v>
-      </c>
-      <c r="I471" t="s">
-        <v>1145</v>
+        <v>982</v>
       </c>
     </row>
     <row r="472" spans="1:12">
@@ -10080,10 +10083,13 @@
         <v>483</v>
       </c>
       <c r="B472" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C472" t="s">
-        <v>982</v>
+        <v>983</v>
+      </c>
+      <c r="I472" t="s">
+        <v>1147</v>
       </c>
     </row>
     <row r="473" spans="1:12">
@@ -10091,16 +10097,10 @@
         <v>484</v>
       </c>
       <c r="B473" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C473" t="s">
-        <v>983</v>
-      </c>
-      <c r="G473" t="s">
-        <v>1108</v>
-      </c>
-      <c r="I473" t="s">
-        <v>1152</v>
+        <v>984</v>
       </c>
     </row>
     <row r="474" spans="1:12">
@@ -10108,10 +10108,16 @@
         <v>485</v>
       </c>
       <c r="B474" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C474" t="s">
-        <v>984</v>
+        <v>985</v>
+      </c>
+      <c r="G474" t="s">
+        <v>1110</v>
+      </c>
+      <c r="I474" t="s">
+        <v>1154</v>
       </c>
     </row>
     <row r="475" spans="1:12">
@@ -10119,10 +10125,10 @@
         <v>486</v>
       </c>
       <c r="B475" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C475" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
     </row>
     <row r="476" spans="1:12">
@@ -10130,13 +10136,10 @@
         <v>487</v>
       </c>
       <c r="B476" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C476" t="s">
-        <v>986</v>
-      </c>
-      <c r="L476">
-        <v>1</v>
+        <v>987</v>
       </c>
     </row>
     <row r="477" spans="1:12">
@@ -10144,16 +10147,13 @@
         <v>488</v>
       </c>
       <c r="B477" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C477" t="s">
-        <v>987</v>
-      </c>
-      <c r="G477" t="s">
-        <v>1109</v>
-      </c>
-      <c r="I477" t="s">
-        <v>1152</v>
+        <v>988</v>
+      </c>
+      <c r="L477">
+        <v>1</v>
       </c>
     </row>
     <row r="478" spans="1:12">
@@ -10161,13 +10161,16 @@
         <v>489</v>
       </c>
       <c r="B478" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C478" t="s">
-        <v>988</v>
+        <v>989</v>
+      </c>
+      <c r="G478" t="s">
+        <v>1111</v>
       </c>
       <c r="I478" t="s">
-        <v>1145</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="479" spans="1:12">
@@ -10175,10 +10178,13 @@
         <v>490</v>
       </c>
       <c r="B479" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C479" t="s">
-        <v>989</v>
+        <v>990</v>
+      </c>
+      <c r="I479" t="s">
+        <v>1147</v>
       </c>
     </row>
     <row r="480" spans="1:12">
@@ -10186,10 +10192,10 @@
         <v>491</v>
       </c>
       <c r="B480" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C480" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
     </row>
     <row r="481" spans="1:3">
@@ -10197,10 +10203,10 @@
         <v>492</v>
       </c>
       <c r="B481" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C481" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
     </row>
     <row r="482" spans="1:3">
@@ -10208,10 +10214,21 @@
         <v>493</v>
       </c>
       <c r="B482" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C482" t="s">
-        <v>992</v>
+        <v>993</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3">
+      <c r="A483" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B483" t="s">
+        <v>512</v>
+      </c>
+      <c r="C483" t="s">
+        <v>994</v>
       </c>
     </row>
   </sheetData>

--- a/all_course.xlsx
+++ b/all_course.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1751" uniqueCount="1169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1784" uniqueCount="1191">
   <si>
     <t>category</t>
   </si>
@@ -1153,6 +1153,39 @@
     <t>ab8224a2</t>
   </si>
   <si>
+    <t>984905ab</t>
+  </si>
+  <si>
+    <t>2092038b</t>
+  </si>
+  <si>
+    <t>7c84afef</t>
+  </si>
+  <si>
+    <t>9dad353f</t>
+  </si>
+  <si>
+    <t>8c60a75f</t>
+  </si>
+  <si>
+    <t>a395f079</t>
+  </si>
+  <si>
+    <t>733e51e0</t>
+  </si>
+  <si>
+    <t>6e98d9ae</t>
+  </si>
+  <si>
+    <t>7344e7fe</t>
+  </si>
+  <si>
+    <t>14b797a2</t>
+  </si>
+  <si>
+    <t>a429f48d</t>
+  </si>
+  <si>
     <t>d2c76900</t>
   </si>
   <si>
@@ -2651,6 +2684,39 @@
   </si>
   <si>
     <t>68 非洲 马拉维监狱-心若向阳 无畏悲伤</t>
+  </si>
+  <si>
+    <t>69 北京 启明星辰公司-文明的融合与发展</t>
+  </si>
+  <si>
+    <t>70 中国企业家俱乐部-但问耕耘</t>
+  </si>
+  <si>
+    <t>71 北京 星期八文化中心-慈心仁术 话善别</t>
+  </si>
+  <si>
+    <t>72 青岛监狱-找回最初的你</t>
+  </si>
+  <si>
+    <t>73 青岛强制戒毒所-驱走心魔 遇见幸福</t>
+  </si>
+  <si>
+    <t>74 青岛 如是剧场-用爱拯救流浪的地球</t>
+  </si>
+  <si>
+    <t>75 中华传统美德教育论坛-孝行天下 德感万物</t>
+  </si>
+  <si>
+    <t>76 江苏省消防工程有限公司-企业责任与社会责任</t>
+  </si>
+  <si>
+    <t>77 中欧商学院CEO班-禅修与管理</t>
+  </si>
+  <si>
+    <t>78 重庆人大校友会-企业家的社会责任与未来出路</t>
+  </si>
+  <si>
+    <t>79 苏州欧朗幸福企业论坛-企业幸福之源</t>
   </si>
   <si>
     <t>三主要道论</t>
@@ -3878,7 +3944,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M483"/>
+  <dimension ref="A1:M494"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -3935,10 +4001,10 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>495</v>
+        <v>506</v>
       </c>
       <c r="C2" t="s">
-        <v>513</v>
+        <v>524</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -3946,16 +4012,16 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>495</v>
+        <v>506</v>
       </c>
       <c r="C3" t="s">
-        <v>514</v>
+        <v>525</v>
       </c>
       <c r="G3" t="s">
-        <v>1010</v>
+        <v>1032</v>
       </c>
       <c r="I3" t="s">
-        <v>1141</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -3963,10 +4029,10 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>495</v>
+        <v>506</v>
       </c>
       <c r="C4" t="s">
-        <v>515</v>
+        <v>526</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -3974,13 +4040,13 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>495</v>
+        <v>506</v>
       </c>
       <c r="C5" t="s">
-        <v>516</v>
+        <v>527</v>
       </c>
       <c r="G5" t="s">
-        <v>1011</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -3988,10 +4054,10 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>495</v>
+        <v>506</v>
       </c>
       <c r="C6" t="s">
-        <v>517</v>
+        <v>528</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -3999,13 +4065,13 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>495</v>
+        <v>506</v>
       </c>
       <c r="C7" t="s">
-        <v>518</v>
+        <v>529</v>
       </c>
       <c r="G7" t="s">
-        <v>1012</v>
+        <v>1034</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -4016,13 +4082,13 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>495</v>
+        <v>506</v>
       </c>
       <c r="C8" t="s">
-        <v>519</v>
+        <v>530</v>
       </c>
       <c r="J8" t="s">
-        <v>1167</v>
+        <v>1189</v>
       </c>
       <c r="L8">
         <v>1</v>
@@ -4033,10 +4099,10 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>495</v>
+        <v>506</v>
       </c>
       <c r="C9" t="s">
-        <v>520</v>
+        <v>531</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -4044,13 +4110,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>495</v>
+        <v>506</v>
       </c>
       <c r="C10" t="s">
-        <v>521</v>
+        <v>532</v>
       </c>
       <c r="E10" t="s">
-        <v>996</v>
+        <v>1018</v>
       </c>
       <c r="L10">
         <v>1</v>
@@ -4061,19 +4127,19 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>495</v>
+        <v>506</v>
       </c>
       <c r="C11" t="s">
-        <v>522</v>
+        <v>533</v>
       </c>
       <c r="E11" t="s">
-        <v>997</v>
+        <v>1019</v>
       </c>
       <c r="G11" t="s">
-        <v>1013</v>
+        <v>1035</v>
       </c>
       <c r="J11" t="s">
-        <v>1167</v>
+        <v>1189</v>
       </c>
       <c r="L11">
         <v>1</v>
@@ -4084,13 +4150,13 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>495</v>
+        <v>506</v>
       </c>
       <c r="C12" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="H12" t="s">
-        <v>1112</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -4098,10 +4164,10 @@
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>495</v>
+        <v>506</v>
       </c>
       <c r="C13" t="s">
-        <v>524</v>
+        <v>535</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -4109,13 +4175,13 @@
         <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>496</v>
+        <v>507</v>
       </c>
       <c r="C14" t="s">
-        <v>525</v>
+        <v>536</v>
       </c>
       <c r="H14" t="s">
-        <v>1113</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -4123,10 +4189,10 @@
         <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>496</v>
+        <v>507</v>
       </c>
       <c r="C15" t="s">
-        <v>526</v>
+        <v>537</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -4134,10 +4200,10 @@
         <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>496</v>
+        <v>507</v>
       </c>
       <c r="C16" t="s">
-        <v>527</v>
+        <v>538</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -4145,16 +4211,16 @@
         <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>496</v>
+        <v>507</v>
       </c>
       <c r="C17" t="s">
-        <v>528</v>
+        <v>539</v>
       </c>
       <c r="G17" t="s">
-        <v>1014</v>
+        <v>1036</v>
       </c>
       <c r="I17" t="s">
-        <v>1142</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -4162,10 +4228,10 @@
         <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>496</v>
+        <v>507</v>
       </c>
       <c r="C18" t="s">
-        <v>529</v>
+        <v>540</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -4173,16 +4239,16 @@
         <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>496</v>
+        <v>507</v>
       </c>
       <c r="C19" t="s">
-        <v>530</v>
+        <v>541</v>
       </c>
       <c r="G19" t="s">
-        <v>1015</v>
+        <v>1037</v>
       </c>
       <c r="I19" t="s">
-        <v>1141</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -4190,13 +4256,13 @@
         <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>496</v>
+        <v>507</v>
       </c>
       <c r="C20" t="s">
-        <v>531</v>
+        <v>542</v>
       </c>
       <c r="J20" t="s">
-        <v>1168</v>
+        <v>1190</v>
       </c>
       <c r="L20">
         <v>1</v>
@@ -4207,10 +4273,10 @@
         <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>496</v>
+        <v>507</v>
       </c>
       <c r="C21" t="s">
-        <v>532</v>
+        <v>543</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -4218,10 +4284,10 @@
         <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>496</v>
+        <v>507</v>
       </c>
       <c r="C22" t="s">
-        <v>533</v>
+        <v>544</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -4229,13 +4295,13 @@
         <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>497</v>
+        <v>508</v>
       </c>
       <c r="C23" t="s">
-        <v>534</v>
+        <v>545</v>
       </c>
       <c r="G23" t="s">
-        <v>1016</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -4243,10 +4309,10 @@
         <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>497</v>
+        <v>508</v>
       </c>
       <c r="C24" t="s">
-        <v>535</v>
+        <v>546</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -4254,10 +4320,10 @@
         <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>497</v>
+        <v>508</v>
       </c>
       <c r="C25" t="s">
-        <v>536</v>
+        <v>547</v>
       </c>
       <c r="L25">
         <v>1</v>
@@ -4268,10 +4334,10 @@
         <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>497</v>
+        <v>508</v>
       </c>
       <c r="C26" t="s">
-        <v>537</v>
+        <v>548</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -4279,10 +4345,10 @@
         <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>497</v>
+        <v>508</v>
       </c>
       <c r="C27" t="s">
-        <v>538</v>
+        <v>549</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -4290,10 +4356,10 @@
         <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>497</v>
+        <v>508</v>
       </c>
       <c r="C28" t="s">
-        <v>539</v>
+        <v>550</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -4301,10 +4367,10 @@
         <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>497</v>
+        <v>508</v>
       </c>
       <c r="C29" t="s">
-        <v>540</v>
+        <v>551</v>
       </c>
       <c r="L29">
         <v>1</v>
@@ -4315,10 +4381,10 @@
         <v>41</v>
       </c>
       <c r="B30" t="s">
-        <v>497</v>
+        <v>508</v>
       </c>
       <c r="C30" t="s">
-        <v>541</v>
+        <v>552</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -4326,10 +4392,10 @@
         <v>42</v>
       </c>
       <c r="B31" t="s">
-        <v>497</v>
+        <v>508</v>
       </c>
       <c r="C31" t="s">
-        <v>542</v>
+        <v>553</v>
       </c>
       <c r="L31">
         <v>1</v>
@@ -4340,10 +4406,10 @@
         <v>43</v>
       </c>
       <c r="B32" t="s">
-        <v>497</v>
+        <v>508</v>
       </c>
       <c r="C32" t="s">
-        <v>543</v>
+        <v>554</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -4351,10 +4417,10 @@
         <v>44</v>
       </c>
       <c r="B33" t="s">
-        <v>497</v>
+        <v>508</v>
       </c>
       <c r="C33" t="s">
-        <v>544</v>
+        <v>555</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -4362,10 +4428,10 @@
         <v>45</v>
       </c>
       <c r="B34" t="s">
-        <v>497</v>
+        <v>508</v>
       </c>
       <c r="C34" t="s">
-        <v>545</v>
+        <v>556</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -4373,10 +4439,10 @@
         <v>46</v>
       </c>
       <c r="B35" t="s">
-        <v>497</v>
+        <v>508</v>
       </c>
       <c r="C35" t="s">
-        <v>546</v>
+        <v>557</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -4384,19 +4450,19 @@
         <v>47</v>
       </c>
       <c r="B36" t="s">
-        <v>497</v>
+        <v>508</v>
       </c>
       <c r="C36" t="s">
-        <v>547</v>
+        <v>558</v>
       </c>
       <c r="G36" t="s">
-        <v>1017</v>
+        <v>1039</v>
       </c>
       <c r="I36" t="s">
-        <v>1143</v>
+        <v>1165</v>
       </c>
       <c r="J36" t="s">
-        <v>1168</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -4404,16 +4470,16 @@
         <v>48</v>
       </c>
       <c r="B37" t="s">
-        <v>497</v>
+        <v>508</v>
       </c>
       <c r="C37" t="s">
-        <v>548</v>
+        <v>559</v>
       </c>
       <c r="G37" t="s">
-        <v>1018</v>
+        <v>1040</v>
       </c>
       <c r="I37" t="s">
-        <v>1144</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -4421,10 +4487,10 @@
         <v>49</v>
       </c>
       <c r="B38" t="s">
-        <v>497</v>
+        <v>508</v>
       </c>
       <c r="C38" t="s">
-        <v>549</v>
+        <v>560</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -4432,10 +4498,10 @@
         <v>50</v>
       </c>
       <c r="B39" t="s">
-        <v>497</v>
+        <v>508</v>
       </c>
       <c r="C39" t="s">
-        <v>550</v>
+        <v>561</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -4443,10 +4509,10 @@
         <v>51</v>
       </c>
       <c r="B40" t="s">
-        <v>497</v>
+        <v>508</v>
       </c>
       <c r="C40" t="s">
-        <v>551</v>
+        <v>562</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -4454,10 +4520,10 @@
         <v>52</v>
       </c>
       <c r="B41" t="s">
-        <v>497</v>
+        <v>508</v>
       </c>
       <c r="C41" t="s">
-        <v>552</v>
+        <v>563</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -4465,10 +4531,10 @@
         <v>53</v>
       </c>
       <c r="B42" t="s">
-        <v>497</v>
+        <v>508</v>
       </c>
       <c r="C42" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="L42">
         <v>1</v>
@@ -4479,10 +4545,10 @@
         <v>54</v>
       </c>
       <c r="B43" t="s">
-        <v>497</v>
+        <v>508</v>
       </c>
       <c r="C43" t="s">
-        <v>554</v>
+        <v>565</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -4490,10 +4556,10 @@
         <v>55</v>
       </c>
       <c r="B44" t="s">
-        <v>497</v>
+        <v>508</v>
       </c>
       <c r="C44" t="s">
-        <v>555</v>
+        <v>566</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -4501,16 +4567,16 @@
         <v>56</v>
       </c>
       <c r="B45" t="s">
-        <v>497</v>
+        <v>508</v>
       </c>
       <c r="C45" t="s">
-        <v>556</v>
+        <v>567</v>
       </c>
       <c r="G45" t="s">
-        <v>1019</v>
+        <v>1041</v>
       </c>
       <c r="I45" t="s">
-        <v>1143</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -4518,10 +4584,10 @@
         <v>57</v>
       </c>
       <c r="B46" t="s">
-        <v>497</v>
+        <v>508</v>
       </c>
       <c r="C46" t="s">
-        <v>557</v>
+        <v>568</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -4529,10 +4595,10 @@
         <v>58</v>
       </c>
       <c r="B47" t="s">
-        <v>497</v>
+        <v>508</v>
       </c>
       <c r="C47" t="s">
-        <v>558</v>
+        <v>569</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -4540,13 +4606,13 @@
         <v>59</v>
       </c>
       <c r="B48" t="s">
-        <v>497</v>
+        <v>508</v>
       </c>
       <c r="C48" t="s">
-        <v>559</v>
+        <v>570</v>
       </c>
       <c r="J48" t="s">
-        <v>1168</v>
+        <v>1190</v>
       </c>
       <c r="L48">
         <v>1</v>
@@ -4557,10 +4623,10 @@
         <v>60</v>
       </c>
       <c r="B49" t="s">
-        <v>497</v>
+        <v>508</v>
       </c>
       <c r="C49" t="s">
-        <v>560</v>
+        <v>571</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -4568,16 +4634,16 @@
         <v>61</v>
       </c>
       <c r="B50" t="s">
-        <v>497</v>
+        <v>508</v>
       </c>
       <c r="C50" t="s">
-        <v>561</v>
+        <v>572</v>
       </c>
       <c r="G50" t="s">
-        <v>1020</v>
+        <v>1042</v>
       </c>
       <c r="I50" t="s">
-        <v>1143</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -4585,13 +4651,13 @@
         <v>62</v>
       </c>
       <c r="B51" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="C51" t="s">
-        <v>562</v>
+        <v>573</v>
       </c>
       <c r="E51" t="s">
-        <v>998</v>
+        <v>1020</v>
       </c>
       <c r="L51">
         <v>1</v>
@@ -4602,13 +4668,13 @@
         <v>63</v>
       </c>
       <c r="B52" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="C52" t="s">
-        <v>563</v>
+        <v>574</v>
       </c>
       <c r="H52" t="s">
-        <v>1114</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -4616,16 +4682,16 @@
         <v>64</v>
       </c>
       <c r="B53" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="C53" t="s">
-        <v>564</v>
+        <v>575</v>
       </c>
       <c r="H53" t="s">
-        <v>1115</v>
+        <v>1137</v>
       </c>
       <c r="I53" t="s">
-        <v>1145</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -4633,10 +4699,10 @@
         <v>65</v>
       </c>
       <c r="B54" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="C54" t="s">
-        <v>565</v>
+        <v>576</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -4644,13 +4710,13 @@
         <v>66</v>
       </c>
       <c r="B55" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="C55" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="H55" t="s">
-        <v>1115</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -4658,10 +4724,10 @@
         <v>67</v>
       </c>
       <c r="B56" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="C56" t="s">
-        <v>567</v>
+        <v>578</v>
       </c>
       <c r="M56">
         <v>1</v>
@@ -4672,10 +4738,10 @@
         <v>68</v>
       </c>
       <c r="B57" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="C57" t="s">
-        <v>568</v>
+        <v>579</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -4683,10 +4749,10 @@
         <v>69</v>
       </c>
       <c r="B58" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="C58" t="s">
-        <v>569</v>
+        <v>580</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -4694,10 +4760,10 @@
         <v>70</v>
       </c>
       <c r="B59" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="C59" t="s">
-        <v>570</v>
+        <v>581</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -4705,10 +4771,10 @@
         <v>71</v>
       </c>
       <c r="B60" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="C60" t="s">
-        <v>571</v>
+        <v>582</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -4716,10 +4782,10 @@
         <v>72</v>
       </c>
       <c r="B61" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="C61" t="s">
-        <v>572</v>
+        <v>583</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -4727,19 +4793,19 @@
         <v>73</v>
       </c>
       <c r="B62" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="C62" t="s">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="G62" t="s">
-        <v>1021</v>
+        <v>1043</v>
       </c>
       <c r="H62" t="s">
-        <v>1115</v>
+        <v>1137</v>
       </c>
       <c r="I62" t="s">
-        <v>1146</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -4747,13 +4813,13 @@
         <v>74</v>
       </c>
       <c r="B63" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="C63" t="s">
-        <v>574</v>
+        <v>585</v>
       </c>
       <c r="H63" t="s">
-        <v>1115</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -4761,19 +4827,19 @@
         <v>75</v>
       </c>
       <c r="B64" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="C64" t="s">
-        <v>575</v>
+        <v>586</v>
       </c>
       <c r="G64" t="s">
-        <v>1022</v>
+        <v>1044</v>
       </c>
       <c r="H64" t="s">
-        <v>1115</v>
+        <v>1137</v>
       </c>
       <c r="I64" t="s">
-        <v>1147</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -4781,16 +4847,16 @@
         <v>76</v>
       </c>
       <c r="B65" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="C65" t="s">
-        <v>576</v>
+        <v>587</v>
       </c>
       <c r="H65" t="s">
-        <v>1115</v>
+        <v>1137</v>
       </c>
       <c r="I65" t="s">
-        <v>1148</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -4798,19 +4864,19 @@
         <v>77</v>
       </c>
       <c r="B66" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="C66" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
       <c r="E66" t="s">
-        <v>999</v>
+        <v>1021</v>
       </c>
       <c r="H66" t="s">
-        <v>1115</v>
+        <v>1137</v>
       </c>
       <c r="I66" t="s">
-        <v>1149</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -4818,10 +4884,10 @@
         <v>78</v>
       </c>
       <c r="B67" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="C67" t="s">
-        <v>578</v>
+        <v>589</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -4829,10 +4895,10 @@
         <v>79</v>
       </c>
       <c r="B68" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="C68" t="s">
-        <v>579</v>
+        <v>590</v>
       </c>
       <c r="L68">
         <v>1</v>
@@ -4843,10 +4909,10 @@
         <v>80</v>
       </c>
       <c r="B69" t="s">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="C69" t="s">
-        <v>580</v>
+        <v>591</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -4854,13 +4920,13 @@
         <v>81</v>
       </c>
       <c r="B70" t="s">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="C70" t="s">
-        <v>581</v>
+        <v>592</v>
       </c>
       <c r="I70" t="s">
-        <v>1150</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -4868,13 +4934,13 @@
         <v>82</v>
       </c>
       <c r="B71" t="s">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="C71" t="s">
-        <v>582</v>
+        <v>593</v>
       </c>
       <c r="I71" t="s">
-        <v>1141</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -4882,13 +4948,13 @@
         <v>83</v>
       </c>
       <c r="B72" t="s">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="C72" t="s">
-        <v>583</v>
+        <v>594</v>
       </c>
       <c r="G72" t="s">
-        <v>1023</v>
+        <v>1045</v>
       </c>
       <c r="L72">
         <v>1</v>
@@ -4899,16 +4965,16 @@
         <v>84</v>
       </c>
       <c r="B73" t="s">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="C73" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="G73" t="s">
-        <v>1024</v>
+        <v>1046</v>
       </c>
       <c r="I73" t="s">
-        <v>1141</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -4916,13 +4982,13 @@
         <v>85</v>
       </c>
       <c r="B74" t="s">
-        <v>500</v>
+        <v>511</v>
       </c>
       <c r="C74" t="s">
-        <v>585</v>
+        <v>596</v>
       </c>
       <c r="I74" t="s">
-        <v>1151</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -4930,10 +4996,10 @@
         <v>86</v>
       </c>
       <c r="B75" t="s">
-        <v>500</v>
+        <v>511</v>
       </c>
       <c r="C75" t="s">
-        <v>586</v>
+        <v>597</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -4941,13 +5007,13 @@
         <v>87</v>
       </c>
       <c r="B76" t="s">
-        <v>500</v>
+        <v>511</v>
       </c>
       <c r="C76" t="s">
-        <v>587</v>
+        <v>598</v>
       </c>
       <c r="I76" t="s">
-        <v>1151</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -4955,16 +5021,16 @@
         <v>88</v>
       </c>
       <c r="B77" t="s">
-        <v>500</v>
+        <v>511</v>
       </c>
       <c r="C77" t="s">
-        <v>588</v>
+        <v>599</v>
       </c>
       <c r="G77" t="s">
-        <v>1025</v>
+        <v>1047</v>
       </c>
       <c r="I77" t="s">
-        <v>1152</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -4972,13 +5038,13 @@
         <v>89</v>
       </c>
       <c r="B78" t="s">
-        <v>500</v>
+        <v>511</v>
       </c>
       <c r="C78" t="s">
-        <v>589</v>
+        <v>600</v>
       </c>
       <c r="I78" t="s">
-        <v>1145</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -4986,16 +5052,16 @@
         <v>90</v>
       </c>
       <c r="B79" t="s">
-        <v>500</v>
+        <v>511</v>
       </c>
       <c r="C79" t="s">
-        <v>590</v>
+        <v>601</v>
       </c>
       <c r="G79" t="s">
-        <v>1026</v>
+        <v>1048</v>
       </c>
       <c r="I79" t="s">
-        <v>1147</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -5003,16 +5069,16 @@
         <v>91</v>
       </c>
       <c r="B80" t="s">
-        <v>500</v>
+        <v>511</v>
       </c>
       <c r="C80" t="s">
-        <v>591</v>
+        <v>602</v>
       </c>
       <c r="G80" t="s">
-        <v>1027</v>
+        <v>1049</v>
       </c>
       <c r="I80" t="s">
-        <v>1151</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -5020,10 +5086,10 @@
         <v>92</v>
       </c>
       <c r="B81" t="s">
-        <v>500</v>
+        <v>511</v>
       </c>
       <c r="C81" t="s">
-        <v>592</v>
+        <v>603</v>
       </c>
       <c r="L81">
         <v>1</v>
@@ -5034,16 +5100,16 @@
         <v>93</v>
       </c>
       <c r="B82" t="s">
-        <v>500</v>
+        <v>511</v>
       </c>
       <c r="C82" t="s">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="G82" t="s">
-        <v>1027</v>
+        <v>1049</v>
       </c>
       <c r="I82" t="s">
-        <v>1145</v>
+        <v>1167</v>
       </c>
       <c r="L82">
         <v>1</v>
@@ -5054,16 +5120,16 @@
         <v>94</v>
       </c>
       <c r="B83" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="C83" t="s">
-        <v>594</v>
+        <v>605</v>
       </c>
       <c r="G83" t="s">
-        <v>1028</v>
+        <v>1050</v>
       </c>
       <c r="H83" t="s">
-        <v>1116</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -5071,16 +5137,16 @@
         <v>95</v>
       </c>
       <c r="B84" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="C84" t="s">
-        <v>595</v>
+        <v>606</v>
       </c>
       <c r="G84" t="s">
-        <v>1029</v>
+        <v>1051</v>
       </c>
       <c r="H84" t="s">
-        <v>1116</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -5088,16 +5154,16 @@
         <v>96</v>
       </c>
       <c r="B85" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="C85" t="s">
-        <v>596</v>
+        <v>607</v>
       </c>
       <c r="G85" t="s">
-        <v>1030</v>
+        <v>1052</v>
       </c>
       <c r="H85" t="s">
-        <v>1116</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -5105,16 +5171,16 @@
         <v>97</v>
       </c>
       <c r="B86" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="C86" t="s">
-        <v>597</v>
+        <v>608</v>
       </c>
       <c r="G86" t="s">
-        <v>1031</v>
+        <v>1053</v>
       </c>
       <c r="H86" t="s">
-        <v>1116</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -5122,16 +5188,16 @@
         <v>98</v>
       </c>
       <c r="B87" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="C87" t="s">
-        <v>598</v>
+        <v>609</v>
       </c>
       <c r="G87" t="s">
-        <v>1032</v>
+        <v>1054</v>
       </c>
       <c r="H87" t="s">
-        <v>1116</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -5139,16 +5205,16 @@
         <v>99</v>
       </c>
       <c r="B88" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="C88" t="s">
-        <v>599</v>
+        <v>610</v>
       </c>
       <c r="G88" t="s">
-        <v>1033</v>
+        <v>1055</v>
       </c>
       <c r="H88" t="s">
-        <v>1116</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -5156,16 +5222,16 @@
         <v>100</v>
       </c>
       <c r="B89" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="C89" t="s">
-        <v>600</v>
+        <v>611</v>
       </c>
       <c r="G89" t="s">
-        <v>1034</v>
+        <v>1056</v>
       </c>
       <c r="H89" t="s">
-        <v>1116</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -5173,16 +5239,16 @@
         <v>101</v>
       </c>
       <c r="B90" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="C90" t="s">
-        <v>601</v>
+        <v>612</v>
       </c>
       <c r="G90" t="s">
-        <v>1035</v>
+        <v>1057</v>
       </c>
       <c r="H90" t="s">
-        <v>1116</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -5190,16 +5256,16 @@
         <v>102</v>
       </c>
       <c r="B91" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="C91" t="s">
-        <v>602</v>
+        <v>613</v>
       </c>
       <c r="G91" t="s">
-        <v>1036</v>
+        <v>1058</v>
       </c>
       <c r="H91" t="s">
-        <v>1116</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -5207,16 +5273,16 @@
         <v>103</v>
       </c>
       <c r="B92" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="C92" t="s">
-        <v>603</v>
+        <v>614</v>
       </c>
       <c r="G92" t="s">
-        <v>1037</v>
+        <v>1059</v>
       </c>
       <c r="H92" t="s">
-        <v>1116</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -5224,16 +5290,16 @@
         <v>104</v>
       </c>
       <c r="B93" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="C93" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
       <c r="G93" t="s">
-        <v>1038</v>
+        <v>1060</v>
       </c>
       <c r="H93" t="s">
-        <v>1116</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -5241,16 +5307,16 @@
         <v>105</v>
       </c>
       <c r="B94" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="C94" t="s">
-        <v>605</v>
+        <v>616</v>
       </c>
       <c r="G94" t="s">
-        <v>1039</v>
+        <v>1061</v>
       </c>
       <c r="H94" t="s">
-        <v>1116</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -5258,16 +5324,16 @@
         <v>106</v>
       </c>
       <c r="B95" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="C95" t="s">
-        <v>606</v>
+        <v>617</v>
       </c>
       <c r="G95" t="s">
-        <v>1040</v>
+        <v>1062</v>
       </c>
       <c r="H95" t="s">
-        <v>1116</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -5275,16 +5341,16 @@
         <v>107</v>
       </c>
       <c r="B96" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="C96" t="s">
-        <v>607</v>
+        <v>618</v>
       </c>
       <c r="G96" t="s">
-        <v>1041</v>
+        <v>1063</v>
       </c>
       <c r="H96" t="s">
-        <v>1116</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -5292,16 +5358,16 @@
         <v>108</v>
       </c>
       <c r="B97" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="C97" t="s">
-        <v>608</v>
+        <v>619</v>
       </c>
       <c r="G97" t="s">
-        <v>1042</v>
+        <v>1064</v>
       </c>
       <c r="H97" t="s">
-        <v>1116</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -5309,16 +5375,16 @@
         <v>109</v>
       </c>
       <c r="B98" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="C98" t="s">
-        <v>609</v>
+        <v>620</v>
       </c>
       <c r="G98" t="s">
-        <v>1043</v>
+        <v>1065</v>
       </c>
       <c r="H98" t="s">
-        <v>1116</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -5326,16 +5392,16 @@
         <v>110</v>
       </c>
       <c r="B99" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="C99" t="s">
-        <v>610</v>
+        <v>621</v>
       </c>
       <c r="G99" t="s">
-        <v>1044</v>
+        <v>1066</v>
       </c>
       <c r="H99" t="s">
-        <v>1116</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -5343,16 +5409,16 @@
         <v>111</v>
       </c>
       <c r="B100" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="C100" t="s">
-        <v>611</v>
+        <v>622</v>
       </c>
       <c r="G100" t="s">
-        <v>1045</v>
+        <v>1067</v>
       </c>
       <c r="H100" t="s">
-        <v>1116</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -5360,16 +5426,16 @@
         <v>112</v>
       </c>
       <c r="B101" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="C101" t="s">
-        <v>612</v>
+        <v>623</v>
       </c>
       <c r="G101" t="s">
-        <v>1046</v>
+        <v>1068</v>
       </c>
       <c r="H101" t="s">
-        <v>1116</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -5377,16 +5443,16 @@
         <v>113</v>
       </c>
       <c r="B102" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="C102" t="s">
-        <v>613</v>
+        <v>624</v>
       </c>
       <c r="G102" t="s">
-        <v>1047</v>
+        <v>1069</v>
       </c>
       <c r="H102" t="s">
-        <v>1116</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -5394,16 +5460,16 @@
         <v>114</v>
       </c>
       <c r="B103" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="C103" t="s">
-        <v>614</v>
+        <v>625</v>
       </c>
       <c r="G103" t="s">
-        <v>1048</v>
+        <v>1070</v>
       </c>
       <c r="H103" t="s">
-        <v>1116</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -5411,16 +5477,16 @@
         <v>115</v>
       </c>
       <c r="B104" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="C104" t="s">
-        <v>615</v>
+        <v>626</v>
       </c>
       <c r="G104" t="s">
-        <v>1049</v>
+        <v>1071</v>
       </c>
       <c r="H104" t="s">
-        <v>1116</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -5428,16 +5494,16 @@
         <v>116</v>
       </c>
       <c r="B105" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="C105" t="s">
-        <v>616</v>
+        <v>627</v>
       </c>
       <c r="G105" t="s">
-        <v>1050</v>
+        <v>1072</v>
       </c>
       <c r="H105" t="s">
-        <v>1116</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -5445,16 +5511,16 @@
         <v>117</v>
       </c>
       <c r="B106" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="C106" t="s">
-        <v>617</v>
+        <v>628</v>
       </c>
       <c r="G106" t="s">
-        <v>1051</v>
+        <v>1073</v>
       </c>
       <c r="H106" t="s">
-        <v>1116</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -5462,16 +5528,16 @@
         <v>118</v>
       </c>
       <c r="B107" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="C107" t="s">
-        <v>618</v>
+        <v>629</v>
       </c>
       <c r="G107" t="s">
-        <v>1052</v>
+        <v>1074</v>
       </c>
       <c r="H107" t="s">
-        <v>1116</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -5479,16 +5545,16 @@
         <v>119</v>
       </c>
       <c r="B108" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="C108" t="s">
-        <v>619</v>
+        <v>630</v>
       </c>
       <c r="G108" t="s">
-        <v>1053</v>
+        <v>1075</v>
       </c>
       <c r="H108" t="s">
-        <v>1116</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -5496,16 +5562,16 @@
         <v>120</v>
       </c>
       <c r="B109" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="C109" t="s">
-        <v>620</v>
+        <v>631</v>
       </c>
       <c r="G109" t="s">
-        <v>1054</v>
+        <v>1076</v>
       </c>
       <c r="H109" t="s">
-        <v>1116</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -5513,16 +5579,16 @@
         <v>121</v>
       </c>
       <c r="B110" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="C110" t="s">
-        <v>621</v>
+        <v>632</v>
       </c>
       <c r="G110" t="s">
-        <v>1055</v>
+        <v>1077</v>
       </c>
       <c r="H110" t="s">
-        <v>1116</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -5530,16 +5596,16 @@
         <v>122</v>
       </c>
       <c r="B111" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="C111" t="s">
-        <v>622</v>
+        <v>633</v>
       </c>
       <c r="G111" t="s">
-        <v>1056</v>
+        <v>1078</v>
       </c>
       <c r="H111" t="s">
-        <v>1116</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -5547,16 +5613,16 @@
         <v>123</v>
       </c>
       <c r="B112" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="C112" t="s">
-        <v>623</v>
+        <v>634</v>
       </c>
       <c r="G112" t="s">
-        <v>1057</v>
+        <v>1079</v>
       </c>
       <c r="H112" t="s">
-        <v>1116</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="113" spans="1:12">
@@ -5564,16 +5630,16 @@
         <v>124</v>
       </c>
       <c r="B113" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="C113" t="s">
-        <v>624</v>
+        <v>635</v>
       </c>
       <c r="G113" t="s">
-        <v>1058</v>
+        <v>1080</v>
       </c>
       <c r="H113" t="s">
-        <v>1116</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="114" spans="1:12">
@@ -5581,16 +5647,16 @@
         <v>125</v>
       </c>
       <c r="B114" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="C114" t="s">
-        <v>625</v>
+        <v>636</v>
       </c>
       <c r="G114" t="s">
-        <v>1059</v>
+        <v>1081</v>
       </c>
       <c r="H114" t="s">
-        <v>1116</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="115" spans="1:12">
@@ -5598,10 +5664,10 @@
         <v>126</v>
       </c>
       <c r="B115" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="C115" t="s">
-        <v>626</v>
+        <v>637</v>
       </c>
       <c r="L115">
         <v>1</v>
@@ -5612,16 +5678,16 @@
         <v>127</v>
       </c>
       <c r="B116" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="C116" t="s">
-        <v>627</v>
+        <v>638</v>
       </c>
       <c r="G116" t="s">
-        <v>1060</v>
+        <v>1082</v>
       </c>
       <c r="H116" t="s">
-        <v>1116</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="117" spans="1:12">
@@ -5629,16 +5695,16 @@
         <v>128</v>
       </c>
       <c r="B117" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="C117" t="s">
-        <v>628</v>
+        <v>639</v>
       </c>
       <c r="G117" t="s">
-        <v>1061</v>
+        <v>1083</v>
       </c>
       <c r="H117" t="s">
-        <v>1116</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="118" spans="1:12">
@@ -5646,16 +5712,16 @@
         <v>129</v>
       </c>
       <c r="B118" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="C118" t="s">
-        <v>629</v>
+        <v>640</v>
       </c>
       <c r="G118" t="s">
-        <v>1062</v>
+        <v>1084</v>
       </c>
       <c r="H118" t="s">
-        <v>1116</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="119" spans="1:12">
@@ -5663,16 +5729,16 @@
         <v>130</v>
       </c>
       <c r="B119" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="C119" t="s">
-        <v>630</v>
+        <v>641</v>
       </c>
       <c r="G119" t="s">
-        <v>1063</v>
+        <v>1085</v>
       </c>
       <c r="H119" t="s">
-        <v>1116</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="120" spans="1:12">
@@ -5680,10 +5746,10 @@
         <v>131</v>
       </c>
       <c r="B120" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="C120" t="s">
-        <v>631</v>
+        <v>642</v>
       </c>
       <c r="L120">
         <v>1</v>
@@ -5694,10 +5760,10 @@
         <v>132</v>
       </c>
       <c r="B121" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="C121" t="s">
-        <v>632</v>
+        <v>643</v>
       </c>
       <c r="L121">
         <v>1</v>
@@ -5708,10 +5774,10 @@
         <v>133</v>
       </c>
       <c r="B122" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="C122" t="s">
-        <v>633</v>
+        <v>644</v>
       </c>
     </row>
     <row r="123" spans="1:12">
@@ -5719,10 +5785,10 @@
         <v>134</v>
       </c>
       <c r="B123" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="C123" t="s">
-        <v>634</v>
+        <v>645</v>
       </c>
     </row>
     <row r="124" spans="1:12">
@@ -5730,10 +5796,10 @@
         <v>135</v>
       </c>
       <c r="B124" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="C124" t="s">
-        <v>635</v>
+        <v>646</v>
       </c>
     </row>
     <row r="125" spans="1:12">
@@ -5741,10 +5807,10 @@
         <v>136</v>
       </c>
       <c r="B125" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="C125" t="s">
-        <v>636</v>
+        <v>647</v>
       </c>
     </row>
     <row r="126" spans="1:12">
@@ -5752,10 +5818,10 @@
         <v>137</v>
       </c>
       <c r="B126" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="C126" t="s">
-        <v>637</v>
+        <v>648</v>
       </c>
     </row>
     <row r="127" spans="1:12">
@@ -5763,10 +5829,10 @@
         <v>138</v>
       </c>
       <c r="B127" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="C127" t="s">
-        <v>638</v>
+        <v>649</v>
       </c>
     </row>
     <row r="128" spans="1:12">
@@ -5774,10 +5840,10 @@
         <v>139</v>
       </c>
       <c r="B128" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="C128" t="s">
-        <v>639</v>
+        <v>650</v>
       </c>
     </row>
     <row r="129" spans="1:12">
@@ -5785,10 +5851,10 @@
         <v>140</v>
       </c>
       <c r="B129" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="C129" t="s">
-        <v>640</v>
+        <v>651</v>
       </c>
     </row>
     <row r="130" spans="1:12">
@@ -5796,10 +5862,10 @@
         <v>141</v>
       </c>
       <c r="B130" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="C130" t="s">
-        <v>641</v>
+        <v>652</v>
       </c>
     </row>
     <row r="131" spans="1:12">
@@ -5807,10 +5873,10 @@
         <v>142</v>
       </c>
       <c r="B131" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="C131" t="s">
-        <v>642</v>
+        <v>653</v>
       </c>
       <c r="L131">
         <v>1</v>
@@ -5821,10 +5887,10 @@
         <v>143</v>
       </c>
       <c r="B132" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="C132" t="s">
-        <v>643</v>
+        <v>654</v>
       </c>
       <c r="L132">
         <v>1</v>
@@ -5835,13 +5901,13 @@
         <v>144</v>
       </c>
       <c r="B133" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="C133" t="s">
-        <v>644</v>
+        <v>655</v>
       </c>
       <c r="I133" t="s">
-        <v>1147</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="134" spans="1:12">
@@ -5849,13 +5915,13 @@
         <v>145</v>
       </c>
       <c r="B134" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="C134" t="s">
-        <v>645</v>
+        <v>656</v>
       </c>
       <c r="I134" t="s">
-        <v>1147</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="135" spans="1:12">
@@ -5863,10 +5929,10 @@
         <v>146</v>
       </c>
       <c r="B135" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="C135" t="s">
-        <v>646</v>
+        <v>657</v>
       </c>
       <c r="L135">
         <v>1</v>
@@ -5877,10 +5943,10 @@
         <v>147</v>
       </c>
       <c r="B136" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="C136" t="s">
-        <v>647</v>
+        <v>658</v>
       </c>
       <c r="L136">
         <v>1</v>
@@ -5891,10 +5957,10 @@
         <v>148</v>
       </c>
       <c r="B137" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="C137" t="s">
-        <v>648</v>
+        <v>659</v>
       </c>
     </row>
     <row r="138" spans="1:12">
@@ -5902,10 +5968,10 @@
         <v>149</v>
       </c>
       <c r="B138" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="C138" t="s">
-        <v>649</v>
+        <v>660</v>
       </c>
     </row>
     <row r="139" spans="1:12">
@@ -5913,10 +5979,10 @@
         <v>150</v>
       </c>
       <c r="B139" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="C139" t="s">
-        <v>650</v>
+        <v>661</v>
       </c>
     </row>
     <row r="140" spans="1:12">
@@ -5924,10 +5990,10 @@
         <v>151</v>
       </c>
       <c r="B140" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="C140" t="s">
-        <v>651</v>
+        <v>662</v>
       </c>
     </row>
     <row r="141" spans="1:12">
@@ -5935,10 +6001,10 @@
         <v>152</v>
       </c>
       <c r="B141" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="C141" t="s">
-        <v>652</v>
+        <v>663</v>
       </c>
     </row>
     <row r="142" spans="1:12">
@@ -5946,13 +6012,13 @@
         <v>153</v>
       </c>
       <c r="B142" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="C142" t="s">
-        <v>653</v>
+        <v>664</v>
       </c>
       <c r="H142" t="s">
-        <v>1117</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="143" spans="1:12">
@@ -5960,10 +6026,10 @@
         <v>154</v>
       </c>
       <c r="B143" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="C143" t="s">
-        <v>654</v>
+        <v>665</v>
       </c>
     </row>
     <row r="144" spans="1:12">
@@ -5971,10 +6037,10 @@
         <v>155</v>
       </c>
       <c r="B144" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="C144" t="s">
-        <v>655</v>
+        <v>666</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -5982,16 +6048,16 @@
         <v>156</v>
       </c>
       <c r="B145" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="C145" t="s">
-        <v>656</v>
+        <v>667</v>
       </c>
       <c r="G145" t="s">
-        <v>1064</v>
+        <v>1086</v>
       </c>
       <c r="I145" t="s">
-        <v>1153</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -5999,10 +6065,10 @@
         <v>157</v>
       </c>
       <c r="B146" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="C146" t="s">
-        <v>657</v>
+        <v>668</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -6010,10 +6076,10 @@
         <v>158</v>
       </c>
       <c r="B147" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="C147" t="s">
-        <v>658</v>
+        <v>669</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -6021,16 +6087,16 @@
         <v>159</v>
       </c>
       <c r="B148" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="C148" t="s">
-        <v>659</v>
+        <v>670</v>
       </c>
       <c r="G148" t="s">
-        <v>1065</v>
+        <v>1087</v>
       </c>
       <c r="I148" t="s">
-        <v>1154</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -6038,10 +6104,10 @@
         <v>160</v>
       </c>
       <c r="B149" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="C149" t="s">
-        <v>660</v>
+        <v>671</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -6049,10 +6115,10 @@
         <v>161</v>
       </c>
       <c r="B150" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="C150" t="s">
-        <v>661</v>
+        <v>672</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -6060,13 +6126,13 @@
         <v>162</v>
       </c>
       <c r="B151" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="C151" t="s">
-        <v>662</v>
+        <v>673</v>
       </c>
       <c r="I151" t="s">
-        <v>1145</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -6074,10 +6140,10 @@
         <v>163</v>
       </c>
       <c r="B152" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="C152" t="s">
-        <v>663</v>
+        <v>674</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -6085,10 +6151,10 @@
         <v>164</v>
       </c>
       <c r="B153" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="C153" t="s">
-        <v>664</v>
+        <v>675</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -6096,10 +6162,10 @@
         <v>165</v>
       </c>
       <c r="B154" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="C154" t="s">
-        <v>665</v>
+        <v>676</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -6107,10 +6173,10 @@
         <v>166</v>
       </c>
       <c r="B155" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="C155" t="s">
-        <v>666</v>
+        <v>677</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -6118,13 +6184,13 @@
         <v>167</v>
       </c>
       <c r="B156" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="C156" t="s">
-        <v>667</v>
+        <v>678</v>
       </c>
       <c r="I156" t="s">
-        <v>1155</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -6132,10 +6198,10 @@
         <v>168</v>
       </c>
       <c r="B157" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="C157" t="s">
-        <v>668</v>
+        <v>679</v>
       </c>
     </row>
     <row r="158" spans="1:9">
@@ -6143,16 +6209,16 @@
         <v>169</v>
       </c>
       <c r="B158" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="C158" t="s">
-        <v>669</v>
+        <v>680</v>
       </c>
       <c r="G158" t="s">
-        <v>1066</v>
+        <v>1088</v>
       </c>
       <c r="I158" t="s">
-        <v>1147</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -6160,16 +6226,16 @@
         <v>170</v>
       </c>
       <c r="B159" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="C159" t="s">
-        <v>670</v>
+        <v>681</v>
       </c>
       <c r="E159" t="s">
-        <v>1000</v>
+        <v>1022</v>
       </c>
       <c r="H159" t="s">
-        <v>1118</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -6177,13 +6243,13 @@
         <v>171</v>
       </c>
       <c r="B160" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="C160" t="s">
-        <v>671</v>
+        <v>682</v>
       </c>
       <c r="E160" t="s">
-        <v>670</v>
+        <v>681</v>
       </c>
     </row>
     <row r="161" spans="1:12">
@@ -6191,13 +6257,13 @@
         <v>172</v>
       </c>
       <c r="B161" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="C161" t="s">
-        <v>672</v>
+        <v>683</v>
       </c>
       <c r="H161" t="s">
-        <v>1119</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="162" spans="1:12">
@@ -6205,10 +6271,10 @@
         <v>173</v>
       </c>
       <c r="B162" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="C162" t="s">
-        <v>673</v>
+        <v>684</v>
       </c>
     </row>
     <row r="163" spans="1:12">
@@ -6216,16 +6282,16 @@
         <v>174</v>
       </c>
       <c r="B163" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="C163" t="s">
-        <v>674</v>
+        <v>685</v>
       </c>
       <c r="G163" t="s">
-        <v>1067</v>
+        <v>1089</v>
       </c>
       <c r="I163" t="s">
-        <v>1153</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="164" spans="1:12">
@@ -6233,10 +6299,10 @@
         <v>175</v>
       </c>
       <c r="B164" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="C164" t="s">
-        <v>675</v>
+        <v>686</v>
       </c>
     </row>
     <row r="165" spans="1:12">
@@ -6244,10 +6310,10 @@
         <v>176</v>
       </c>
       <c r="B165" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="C165" t="s">
-        <v>676</v>
+        <v>687</v>
       </c>
     </row>
     <row r="166" spans="1:12">
@@ -6255,10 +6321,10 @@
         <v>177</v>
       </c>
       <c r="B166" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="C166" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
       <c r="L166">
         <v>1</v>
@@ -6269,13 +6335,13 @@
         <v>178</v>
       </c>
       <c r="B167" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="C167" t="s">
-        <v>678</v>
+        <v>689</v>
       </c>
       <c r="I167" t="s">
-        <v>1147</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="168" spans="1:12">
@@ -6283,16 +6349,16 @@
         <v>179</v>
       </c>
       <c r="B168" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="C168" t="s">
-        <v>679</v>
+        <v>690</v>
       </c>
       <c r="G168" t="s">
-        <v>1068</v>
+        <v>1090</v>
       </c>
       <c r="I168" t="s">
-        <v>1141</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="169" spans="1:12">
@@ -6300,10 +6366,10 @@
         <v>180</v>
       </c>
       <c r="B169" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="C169" t="s">
-        <v>680</v>
+        <v>691</v>
       </c>
     </row>
     <row r="170" spans="1:12">
@@ -6311,10 +6377,10 @@
         <v>181</v>
       </c>
       <c r="B170" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="C170" t="s">
-        <v>681</v>
+        <v>692</v>
       </c>
     </row>
     <row r="171" spans="1:12">
@@ -6322,10 +6388,10 @@
         <v>182</v>
       </c>
       <c r="B171" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="C171" t="s">
-        <v>682</v>
+        <v>693</v>
       </c>
     </row>
     <row r="172" spans="1:12">
@@ -6333,13 +6399,13 @@
         <v>183</v>
       </c>
       <c r="B172" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="C172" t="s">
-        <v>683</v>
+        <v>694</v>
       </c>
       <c r="I172" t="s">
-        <v>1156</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="173" spans="1:12">
@@ -6347,10 +6413,10 @@
         <v>184</v>
       </c>
       <c r="B173" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="C173" t="s">
-        <v>684</v>
+        <v>695</v>
       </c>
       <c r="L173">
         <v>1</v>
@@ -6361,10 +6427,10 @@
         <v>185</v>
       </c>
       <c r="B174" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="C174" t="s">
-        <v>685</v>
+        <v>696</v>
       </c>
     </row>
     <row r="175" spans="1:12">
@@ -6372,10 +6438,10 @@
         <v>186</v>
       </c>
       <c r="B175" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="C175" t="s">
-        <v>686</v>
+        <v>697</v>
       </c>
     </row>
     <row r="176" spans="1:12">
@@ -6383,10 +6449,10 @@
         <v>187</v>
       </c>
       <c r="B176" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="C176" t="s">
-        <v>687</v>
+        <v>698</v>
       </c>
     </row>
     <row r="177" spans="1:9">
@@ -6394,13 +6460,13 @@
         <v>188</v>
       </c>
       <c r="B177" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="C177" t="s">
-        <v>688</v>
+        <v>699</v>
       </c>
       <c r="I177" t="s">
-        <v>1155</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="178" spans="1:9">
@@ -6408,10 +6474,10 @@
         <v>189</v>
       </c>
       <c r="B178" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="C178" t="s">
-        <v>689</v>
+        <v>700</v>
       </c>
     </row>
     <row r="179" spans="1:9">
@@ -6419,10 +6485,10 @@
         <v>190</v>
       </c>
       <c r="B179" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="C179" t="s">
-        <v>690</v>
+        <v>701</v>
       </c>
     </row>
     <row r="180" spans="1:9">
@@ -6430,10 +6496,10 @@
         <v>191</v>
       </c>
       <c r="B180" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="C180" t="s">
-        <v>691</v>
+        <v>702</v>
       </c>
     </row>
     <row r="181" spans="1:9">
@@ -6441,10 +6507,10 @@
         <v>192</v>
       </c>
       <c r="B181" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="C181" t="s">
-        <v>692</v>
+        <v>703</v>
       </c>
     </row>
     <row r="182" spans="1:9">
@@ -6452,10 +6518,10 @@
         <v>193</v>
       </c>
       <c r="B182" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="C182" t="s">
-        <v>693</v>
+        <v>704</v>
       </c>
     </row>
     <row r="183" spans="1:9">
@@ -6463,10 +6529,10 @@
         <v>194</v>
       </c>
       <c r="B183" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="C183" t="s">
-        <v>694</v>
+        <v>705</v>
       </c>
     </row>
     <row r="184" spans="1:9">
@@ -6474,16 +6540,16 @@
         <v>195</v>
       </c>
       <c r="B184" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="C184" t="s">
-        <v>695</v>
+        <v>706</v>
       </c>
       <c r="G184" t="s">
-        <v>1069</v>
+        <v>1091</v>
       </c>
       <c r="I184" t="s">
-        <v>1141</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="185" spans="1:9">
@@ -6491,10 +6557,10 @@
         <v>196</v>
       </c>
       <c r="B185" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="C185" t="s">
-        <v>696</v>
+        <v>707</v>
       </c>
     </row>
     <row r="186" spans="1:9">
@@ -6502,10 +6568,10 @@
         <v>197</v>
       </c>
       <c r="B186" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="C186" t="s">
-        <v>697</v>
+        <v>708</v>
       </c>
     </row>
     <row r="187" spans="1:9">
@@ -6513,13 +6579,13 @@
         <v>198</v>
       </c>
       <c r="B187" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="C187" t="s">
-        <v>698</v>
+        <v>709</v>
       </c>
       <c r="I187" t="s">
-        <v>1147</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="188" spans="1:9">
@@ -6527,16 +6593,16 @@
         <v>199</v>
       </c>
       <c r="B188" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="C188" t="s">
-        <v>699</v>
+        <v>710</v>
       </c>
       <c r="G188" t="s">
-        <v>1070</v>
+        <v>1092</v>
       </c>
       <c r="I188" t="s">
-        <v>1154</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="189" spans="1:9">
@@ -6544,10 +6610,10 @@
         <v>200</v>
       </c>
       <c r="B189" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="C189" t="s">
-        <v>700</v>
+        <v>711</v>
       </c>
     </row>
     <row r="190" spans="1:9">
@@ -6555,10 +6621,10 @@
         <v>201</v>
       </c>
       <c r="B190" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="C190" t="s">
-        <v>701</v>
+        <v>712</v>
       </c>
     </row>
     <row r="191" spans="1:9">
@@ -6566,13 +6632,13 @@
         <v>202</v>
       </c>
       <c r="B191" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="C191" t="s">
-        <v>702</v>
+        <v>713</v>
       </c>
       <c r="E191" t="s">
-        <v>1001</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="192" spans="1:9">
@@ -6580,10 +6646,10 @@
         <v>203</v>
       </c>
       <c r="B192" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="C192" t="s">
-        <v>703</v>
+        <v>714</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -6591,10 +6657,10 @@
         <v>204</v>
       </c>
       <c r="B193" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="C193" t="s">
-        <v>704</v>
+        <v>715</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -6602,10 +6668,10 @@
         <v>205</v>
       </c>
       <c r="B194" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="C194" t="s">
-        <v>705</v>
+        <v>716</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -6613,10 +6679,10 @@
         <v>206</v>
       </c>
       <c r="B195" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="C195" t="s">
-        <v>706</v>
+        <v>717</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -6624,10 +6690,10 @@
         <v>207</v>
       </c>
       <c r="B196" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="C196" t="s">
-        <v>707</v>
+        <v>718</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -6635,10 +6701,10 @@
         <v>208</v>
       </c>
       <c r="B197" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="C197" t="s">
-        <v>708</v>
+        <v>719</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -6646,10 +6712,10 @@
         <v>209</v>
       </c>
       <c r="B198" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="C198" t="s">
-        <v>709</v>
+        <v>720</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -6657,10 +6723,10 @@
         <v>210</v>
       </c>
       <c r="B199" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="C199" t="s">
-        <v>710</v>
+        <v>721</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -6668,10 +6734,10 @@
         <v>211</v>
       </c>
       <c r="B200" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="C200" t="s">
-        <v>711</v>
+        <v>722</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -6679,10 +6745,10 @@
         <v>212</v>
       </c>
       <c r="B201" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="C201" t="s">
-        <v>712</v>
+        <v>723</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -6690,10 +6756,10 @@
         <v>213</v>
       </c>
       <c r="B202" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="C202" t="s">
-        <v>713</v>
+        <v>724</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -6701,10 +6767,10 @@
         <v>214</v>
       </c>
       <c r="B203" t="s">
-        <v>503</v>
+        <v>514</v>
       </c>
       <c r="C203" t="s">
-        <v>714</v>
+        <v>725</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -6712,10 +6778,10 @@
         <v>215</v>
       </c>
       <c r="B204" t="s">
-        <v>503</v>
+        <v>514</v>
       </c>
       <c r="C204" t="s">
-        <v>715</v>
+        <v>726</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -6723,10 +6789,10 @@
         <v>216</v>
       </c>
       <c r="B205" t="s">
-        <v>503</v>
+        <v>514</v>
       </c>
       <c r="C205" t="s">
-        <v>716</v>
+        <v>727</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -6734,10 +6800,10 @@
         <v>217</v>
       </c>
       <c r="B206" t="s">
-        <v>503</v>
+        <v>514</v>
       </c>
       <c r="C206" t="s">
-        <v>717</v>
+        <v>728</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -6745,10 +6811,10 @@
         <v>218</v>
       </c>
       <c r="B207" t="s">
-        <v>503</v>
+        <v>514</v>
       </c>
       <c r="C207" t="s">
-        <v>718</v>
+        <v>729</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -6756,10 +6822,10 @@
         <v>219</v>
       </c>
       <c r="B208" t="s">
-        <v>503</v>
+        <v>514</v>
       </c>
       <c r="C208" t="s">
-        <v>719</v>
+        <v>730</v>
       </c>
     </row>
     <row r="209" spans="1:13">
@@ -6767,10 +6833,10 @@
         <v>220</v>
       </c>
       <c r="B209" t="s">
-        <v>503</v>
+        <v>514</v>
       </c>
       <c r="C209" t="s">
-        <v>720</v>
+        <v>731</v>
       </c>
     </row>
     <row r="210" spans="1:13">
@@ -6778,10 +6844,10 @@
         <v>221</v>
       </c>
       <c r="B210" t="s">
-        <v>503</v>
+        <v>514</v>
       </c>
       <c r="C210" t="s">
-        <v>721</v>
+        <v>732</v>
       </c>
     </row>
     <row r="211" spans="1:13">
@@ -6789,10 +6855,10 @@
         <v>222</v>
       </c>
       <c r="B211" t="s">
-        <v>503</v>
+        <v>514</v>
       </c>
       <c r="C211" t="s">
-        <v>722</v>
+        <v>733</v>
       </c>
     </row>
     <row r="212" spans="1:13">
@@ -6800,10 +6866,10 @@
         <v>223</v>
       </c>
       <c r="B212" t="s">
-        <v>503</v>
+        <v>514</v>
       </c>
       <c r="C212" t="s">
-        <v>723</v>
+        <v>734</v>
       </c>
     </row>
     <row r="213" spans="1:13">
@@ -6811,10 +6877,10 @@
         <v>224</v>
       </c>
       <c r="B213" t="s">
-        <v>503</v>
+        <v>514</v>
       </c>
       <c r="C213" t="s">
-        <v>724</v>
+        <v>735</v>
       </c>
     </row>
     <row r="214" spans="1:13">
@@ -6822,10 +6888,10 @@
         <v>225</v>
       </c>
       <c r="B214" t="s">
-        <v>503</v>
+        <v>514</v>
       </c>
       <c r="C214" t="s">
-        <v>725</v>
+        <v>736</v>
       </c>
     </row>
     <row r="215" spans="1:13">
@@ -6833,10 +6899,10 @@
         <v>226</v>
       </c>
       <c r="B215" t="s">
-        <v>503</v>
+        <v>514</v>
       </c>
       <c r="C215" t="s">
-        <v>726</v>
+        <v>737</v>
       </c>
     </row>
     <row r="216" spans="1:13">
@@ -6844,10 +6910,10 @@
         <v>227</v>
       </c>
       <c r="B216" t="s">
-        <v>503</v>
+        <v>514</v>
       </c>
       <c r="C216" t="s">
-        <v>727</v>
+        <v>738</v>
       </c>
     </row>
     <row r="217" spans="1:13">
@@ -6855,10 +6921,10 @@
         <v>228</v>
       </c>
       <c r="B217" t="s">
-        <v>503</v>
+        <v>514</v>
       </c>
       <c r="C217" t="s">
-        <v>728</v>
+        <v>739</v>
       </c>
     </row>
     <row r="218" spans="1:13">
@@ -6866,10 +6932,10 @@
         <v>229</v>
       </c>
       <c r="B218" t="s">
-        <v>503</v>
+        <v>514</v>
       </c>
       <c r="C218" t="s">
-        <v>729</v>
+        <v>740</v>
       </c>
     </row>
     <row r="219" spans="1:13">
@@ -6877,10 +6943,10 @@
         <v>230</v>
       </c>
       <c r="B219" t="s">
-        <v>503</v>
+        <v>514</v>
       </c>
       <c r="C219" t="s">
-        <v>730</v>
+        <v>741</v>
       </c>
     </row>
     <row r="220" spans="1:13">
@@ -6888,10 +6954,10 @@
         <v>231</v>
       </c>
       <c r="B220" t="s">
-        <v>503</v>
+        <v>514</v>
       </c>
       <c r="C220" t="s">
-        <v>731</v>
+        <v>742</v>
       </c>
     </row>
     <row r="221" spans="1:13">
@@ -6899,10 +6965,10 @@
         <v>232</v>
       </c>
       <c r="B221" t="s">
-        <v>503</v>
+        <v>514</v>
       </c>
       <c r="C221" t="s">
-        <v>732</v>
+        <v>743</v>
       </c>
     </row>
     <row r="222" spans="1:13">
@@ -6910,10 +6976,10 @@
         <v>233</v>
       </c>
       <c r="B222" t="s">
-        <v>503</v>
+        <v>514</v>
       </c>
       <c r="C222" t="s">
-        <v>733</v>
+        <v>744</v>
       </c>
     </row>
     <row r="223" spans="1:13">
@@ -6921,10 +6987,10 @@
         <v>234</v>
       </c>
       <c r="B223" t="s">
-        <v>503</v>
+        <v>514</v>
       </c>
       <c r="C223" t="s">
-        <v>734</v>
+        <v>745</v>
       </c>
     </row>
     <row r="224" spans="1:13">
@@ -6932,10 +6998,10 @@
         <v>235</v>
       </c>
       <c r="B224" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
       <c r="C224" t="s">
-        <v>735</v>
+        <v>746</v>
       </c>
       <c r="M224">
         <v>1</v>
@@ -6946,10 +7012,10 @@
         <v>236</v>
       </c>
       <c r="B225" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
       <c r="C225" t="s">
-        <v>736</v>
+        <v>747</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -6957,10 +7023,10 @@
         <v>237</v>
       </c>
       <c r="B226" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
       <c r="C226" t="s">
-        <v>737</v>
+        <v>748</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -6968,10 +7034,10 @@
         <v>238</v>
       </c>
       <c r="B227" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
       <c r="C227" t="s">
-        <v>738</v>
+        <v>749</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -6979,10 +7045,10 @@
         <v>239</v>
       </c>
       <c r="B228" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
       <c r="C228" t="s">
-        <v>739</v>
+        <v>750</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -6990,10 +7056,10 @@
         <v>240</v>
       </c>
       <c r="B229" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
       <c r="C229" t="s">
-        <v>740</v>
+        <v>751</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -7001,10 +7067,10 @@
         <v>241</v>
       </c>
       <c r="B230" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
       <c r="C230" t="s">
-        <v>741</v>
+        <v>752</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -7012,10 +7078,10 @@
         <v>242</v>
       </c>
       <c r="B231" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
       <c r="C231" t="s">
-        <v>742</v>
+        <v>753</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -7023,10 +7089,10 @@
         <v>243</v>
       </c>
       <c r="B232" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
       <c r="C232" t="s">
-        <v>743</v>
+        <v>754</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -7034,10 +7100,10 @@
         <v>244</v>
       </c>
       <c r="B233" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
       <c r="C233" t="s">
-        <v>744</v>
+        <v>755</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -7045,10 +7111,10 @@
         <v>245</v>
       </c>
       <c r="B234" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
       <c r="C234" t="s">
-        <v>745</v>
+        <v>756</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -7056,10 +7122,10 @@
         <v>246</v>
       </c>
       <c r="B235" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
       <c r="C235" t="s">
-        <v>746</v>
+        <v>757</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -7067,10 +7133,10 @@
         <v>247</v>
       </c>
       <c r="B236" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
       <c r="C236" t="s">
-        <v>747</v>
+        <v>758</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -7078,10 +7144,10 @@
         <v>248</v>
       </c>
       <c r="B237" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
       <c r="C237" t="s">
-        <v>748</v>
+        <v>759</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -7089,10 +7155,10 @@
         <v>249</v>
       </c>
       <c r="B238" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
       <c r="C238" t="s">
-        <v>749</v>
+        <v>760</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -7100,10 +7166,10 @@
         <v>250</v>
       </c>
       <c r="B239" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
       <c r="C239" t="s">
-        <v>750</v>
+        <v>761</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -7111,10 +7177,10 @@
         <v>251</v>
       </c>
       <c r="B240" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
       <c r="C240" t="s">
-        <v>751</v>
+        <v>762</v>
       </c>
     </row>
     <row r="241" spans="1:9">
@@ -7122,13 +7188,13 @@
         <v>252</v>
       </c>
       <c r="B241" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
       <c r="C241" t="s">
-        <v>752</v>
+        <v>763</v>
       </c>
       <c r="E241" t="s">
-        <v>1002</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="242" spans="1:9">
@@ -7136,13 +7202,13 @@
         <v>253</v>
       </c>
       <c r="B242" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
       <c r="C242" t="s">
-        <v>753</v>
+        <v>764</v>
       </c>
       <c r="G242" t="s">
-        <v>1014</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="243" spans="1:9">
@@ -7150,10 +7216,10 @@
         <v>254</v>
       </c>
       <c r="B243" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
       <c r="C243" t="s">
-        <v>754</v>
+        <v>765</v>
       </c>
     </row>
     <row r="244" spans="1:9">
@@ -7161,10 +7227,10 @@
         <v>255</v>
       </c>
       <c r="B244" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
       <c r="C244" t="s">
-        <v>755</v>
+        <v>766</v>
       </c>
     </row>
     <row r="245" spans="1:9">
@@ -7172,10 +7238,10 @@
         <v>256</v>
       </c>
       <c r="B245" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
       <c r="C245" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="246" spans="1:9">
@@ -7183,10 +7249,10 @@
         <v>257</v>
       </c>
       <c r="B246" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
       <c r="C246" t="s">
-        <v>757</v>
+        <v>768</v>
       </c>
     </row>
     <row r="247" spans="1:9">
@@ -7194,10 +7260,10 @@
         <v>258</v>
       </c>
       <c r="B247" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
       <c r="C247" t="s">
-        <v>758</v>
+        <v>769</v>
       </c>
     </row>
     <row r="248" spans="1:9">
@@ -7205,10 +7271,10 @@
         <v>259</v>
       </c>
       <c r="B248" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
       <c r="C248" t="s">
-        <v>759</v>
+        <v>770</v>
       </c>
     </row>
     <row r="249" spans="1:9">
@@ -7216,10 +7282,10 @@
         <v>260</v>
       </c>
       <c r="B249" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
       <c r="C249" t="s">
-        <v>760</v>
+        <v>771</v>
       </c>
     </row>
     <row r="250" spans="1:9">
@@ -7227,10 +7293,10 @@
         <v>261</v>
       </c>
       <c r="B250" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
       <c r="C250" t="s">
-        <v>761</v>
+        <v>772</v>
       </c>
     </row>
     <row r="251" spans="1:9">
@@ -7238,10 +7304,10 @@
         <v>262</v>
       </c>
       <c r="B251" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
       <c r="C251" t="s">
-        <v>762</v>
+        <v>773</v>
       </c>
     </row>
     <row r="252" spans="1:9">
@@ -7249,16 +7315,16 @@
         <v>263</v>
       </c>
       <c r="B252" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
       <c r="C252" t="s">
-        <v>763</v>
+        <v>774</v>
       </c>
       <c r="G252" t="s">
-        <v>1071</v>
+        <v>1093</v>
       </c>
       <c r="I252" t="s">
-        <v>1145</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="253" spans="1:9">
@@ -7266,10 +7332,10 @@
         <v>264</v>
       </c>
       <c r="B253" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
       <c r="C253" t="s">
-        <v>764</v>
+        <v>775</v>
       </c>
     </row>
     <row r="254" spans="1:9">
@@ -7277,10 +7343,10 @@
         <v>265</v>
       </c>
       <c r="B254" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
       <c r="C254" t="s">
-        <v>765</v>
+        <v>776</v>
       </c>
     </row>
     <row r="255" spans="1:9">
@@ -7288,10 +7354,10 @@
         <v>266</v>
       </c>
       <c r="B255" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
       <c r="C255" t="s">
-        <v>766</v>
+        <v>777</v>
       </c>
     </row>
     <row r="256" spans="1:9">
@@ -7299,13 +7365,13 @@
         <v>267</v>
       </c>
       <c r="B256" t="s">
-        <v>505</v>
+        <v>516</v>
       </c>
       <c r="C256" t="s">
-        <v>767</v>
+        <v>778</v>
       </c>
       <c r="G256" t="s">
-        <v>1072</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="257" spans="1:9">
@@ -7313,16 +7379,16 @@
         <v>268</v>
       </c>
       <c r="B257" t="s">
-        <v>506</v>
+        <v>517</v>
       </c>
       <c r="C257" t="s">
-        <v>768</v>
+        <v>779</v>
       </c>
       <c r="G257" t="s">
-        <v>1073</v>
+        <v>1095</v>
       </c>
       <c r="I257" t="s">
-        <v>1145</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="258" spans="1:9">
@@ -7330,13 +7396,13 @@
         <v>269</v>
       </c>
       <c r="B258" t="s">
-        <v>506</v>
+        <v>517</v>
       </c>
       <c r="C258" t="s">
-        <v>769</v>
+        <v>780</v>
       </c>
       <c r="G258" t="s">
-        <v>1073</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="259" spans="1:9">
@@ -7344,10 +7410,10 @@
         <v>270</v>
       </c>
       <c r="B259" t="s">
-        <v>506</v>
+        <v>517</v>
       </c>
       <c r="C259" t="s">
-        <v>770</v>
+        <v>781</v>
       </c>
     </row>
     <row r="260" spans="1:9">
@@ -7355,10 +7421,10 @@
         <v>271</v>
       </c>
       <c r="B260" t="s">
-        <v>506</v>
+        <v>517</v>
       </c>
       <c r="C260" t="s">
-        <v>771</v>
+        <v>782</v>
       </c>
     </row>
     <row r="261" spans="1:9">
@@ -7366,13 +7432,13 @@
         <v>272</v>
       </c>
       <c r="B261" t="s">
-        <v>506</v>
+        <v>517</v>
       </c>
       <c r="C261" t="s">
-        <v>772</v>
+        <v>783</v>
       </c>
       <c r="I261" t="s">
-        <v>1141</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="262" spans="1:9">
@@ -7380,10 +7446,10 @@
         <v>273</v>
       </c>
       <c r="B262" t="s">
-        <v>506</v>
+        <v>517</v>
       </c>
       <c r="C262" t="s">
-        <v>773</v>
+        <v>784</v>
       </c>
     </row>
     <row r="263" spans="1:9">
@@ -7391,10 +7457,10 @@
         <v>274</v>
       </c>
       <c r="B263" t="s">
-        <v>506</v>
+        <v>517</v>
       </c>
       <c r="C263" t="s">
-        <v>774</v>
+        <v>785</v>
       </c>
     </row>
     <row r="264" spans="1:9">
@@ -7402,13 +7468,13 @@
         <v>275</v>
       </c>
       <c r="B264" t="s">
-        <v>506</v>
+        <v>517</v>
       </c>
       <c r="C264" t="s">
-        <v>775</v>
+        <v>786</v>
       </c>
       <c r="I264" t="s">
-        <v>1157</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="265" spans="1:9">
@@ -7416,13 +7482,13 @@
         <v>276</v>
       </c>
       <c r="B265" t="s">
-        <v>506</v>
+        <v>517</v>
       </c>
       <c r="C265" t="s">
-        <v>776</v>
+        <v>787</v>
       </c>
       <c r="I265" t="s">
-        <v>1157</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="266" spans="1:9">
@@ -7430,13 +7496,13 @@
         <v>277</v>
       </c>
       <c r="B266" t="s">
-        <v>506</v>
+        <v>517</v>
       </c>
       <c r="C266" t="s">
-        <v>777</v>
+        <v>788</v>
       </c>
       <c r="I266" t="s">
-        <v>1157</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="267" spans="1:9">
@@ -7444,13 +7510,13 @@
         <v>278</v>
       </c>
       <c r="B267" t="s">
-        <v>506</v>
+        <v>517</v>
       </c>
       <c r="C267" t="s">
-        <v>778</v>
+        <v>789</v>
       </c>
       <c r="I267" t="s">
-        <v>1157</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="268" spans="1:9">
@@ -7458,13 +7524,13 @@
         <v>279</v>
       </c>
       <c r="B268" t="s">
-        <v>506</v>
+        <v>517</v>
       </c>
       <c r="C268" t="s">
-        <v>779</v>
+        <v>790</v>
       </c>
       <c r="I268" t="s">
-        <v>1157</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="269" spans="1:9">
@@ -7472,13 +7538,13 @@
         <v>280</v>
       </c>
       <c r="B269" t="s">
-        <v>506</v>
+        <v>517</v>
       </c>
       <c r="C269" t="s">
-        <v>780</v>
+        <v>791</v>
       </c>
       <c r="I269" t="s">
-        <v>1157</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="270" spans="1:9">
@@ -7486,13 +7552,13 @@
         <v>281</v>
       </c>
       <c r="B270" t="s">
-        <v>506</v>
+        <v>517</v>
       </c>
       <c r="C270" t="s">
-        <v>781</v>
+        <v>792</v>
       </c>
       <c r="I270" t="s">
-        <v>1145</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="271" spans="1:9">
@@ -7500,10 +7566,10 @@
         <v>282</v>
       </c>
       <c r="B271" t="s">
-        <v>507</v>
+        <v>518</v>
       </c>
       <c r="C271" t="s">
-        <v>782</v>
+        <v>793</v>
       </c>
     </row>
     <row r="272" spans="1:9">
@@ -7511,10 +7577,10 @@
         <v>283</v>
       </c>
       <c r="B272" t="s">
-        <v>507</v>
+        <v>518</v>
       </c>
       <c r="C272" t="s">
-        <v>783</v>
+        <v>794</v>
       </c>
     </row>
     <row r="273" spans="1:12">
@@ -7522,10 +7588,10 @@
         <v>284</v>
       </c>
       <c r="B273" t="s">
-        <v>507</v>
+        <v>518</v>
       </c>
       <c r="C273" t="s">
-        <v>784</v>
+        <v>795</v>
       </c>
     </row>
     <row r="274" spans="1:12">
@@ -7533,10 +7599,10 @@
         <v>285</v>
       </c>
       <c r="B274" t="s">
-        <v>507</v>
+        <v>518</v>
       </c>
       <c r="C274" t="s">
-        <v>785</v>
+        <v>796</v>
       </c>
     </row>
     <row r="275" spans="1:12">
@@ -7544,10 +7610,10 @@
         <v>286</v>
       </c>
       <c r="B275" t="s">
-        <v>507</v>
+        <v>518</v>
       </c>
       <c r="C275" t="s">
-        <v>786</v>
+        <v>797</v>
       </c>
     </row>
     <row r="276" spans="1:12">
@@ -7555,13 +7621,13 @@
         <v>287</v>
       </c>
       <c r="B276" t="s">
-        <v>507</v>
+        <v>518</v>
       </c>
       <c r="C276" t="s">
-        <v>787</v>
+        <v>798</v>
       </c>
       <c r="H276" t="s">
-        <v>1120</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="277" spans="1:12">
@@ -7569,10 +7635,10 @@
         <v>288</v>
       </c>
       <c r="B277" t="s">
-        <v>507</v>
+        <v>518</v>
       </c>
       <c r="C277" t="s">
-        <v>788</v>
+        <v>799</v>
       </c>
     </row>
     <row r="278" spans="1:12">
@@ -7580,10 +7646,10 @@
         <v>289</v>
       </c>
       <c r="B278" t="s">
-        <v>507</v>
+        <v>518</v>
       </c>
       <c r="C278" t="s">
-        <v>789</v>
+        <v>800</v>
       </c>
     </row>
     <row r="279" spans="1:12">
@@ -7591,10 +7657,10 @@
         <v>290</v>
       </c>
       <c r="B279" t="s">
-        <v>507</v>
+        <v>518</v>
       </c>
       <c r="C279" t="s">
-        <v>790</v>
+        <v>801</v>
       </c>
     </row>
     <row r="280" spans="1:12">
@@ -7602,16 +7668,16 @@
         <v>291</v>
       </c>
       <c r="B280" t="s">
-        <v>507</v>
+        <v>518</v>
       </c>
       <c r="C280" t="s">
-        <v>791</v>
+        <v>802</v>
       </c>
       <c r="G280" t="s">
-        <v>1074</v>
+        <v>1096</v>
       </c>
       <c r="I280" t="s">
-        <v>1158</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="281" spans="1:12">
@@ -7619,10 +7685,10 @@
         <v>292</v>
       </c>
       <c r="B281" t="s">
-        <v>507</v>
+        <v>518</v>
       </c>
       <c r="C281" t="s">
-        <v>792</v>
+        <v>803</v>
       </c>
     </row>
     <row r="282" spans="1:12">
@@ -7630,10 +7696,10 @@
         <v>293</v>
       </c>
       <c r="B282" t="s">
-        <v>507</v>
+        <v>518</v>
       </c>
       <c r="C282" t="s">
-        <v>793</v>
+        <v>804</v>
       </c>
     </row>
     <row r="283" spans="1:12">
@@ -7641,10 +7707,10 @@
         <v>294</v>
       </c>
       <c r="B283" t="s">
-        <v>507</v>
+        <v>518</v>
       </c>
       <c r="C283" t="s">
-        <v>794</v>
+        <v>805</v>
       </c>
       <c r="L283">
         <v>1</v>
@@ -7655,13 +7721,13 @@
         <v>295</v>
       </c>
       <c r="B284" t="s">
-        <v>507</v>
+        <v>518</v>
       </c>
       <c r="C284" t="s">
-        <v>795</v>
+        <v>806</v>
       </c>
       <c r="G284" t="s">
-        <v>1075</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="285" spans="1:12">
@@ -7669,10 +7735,10 @@
         <v>296</v>
       </c>
       <c r="B285" t="s">
-        <v>507</v>
+        <v>518</v>
       </c>
       <c r="C285" t="s">
-        <v>796</v>
+        <v>807</v>
       </c>
       <c r="L285">
         <v>1</v>
@@ -7683,10 +7749,10 @@
         <v>297</v>
       </c>
       <c r="B286" t="s">
-        <v>507</v>
+        <v>518</v>
       </c>
       <c r="C286" t="s">
-        <v>797</v>
+        <v>808</v>
       </c>
     </row>
     <row r="287" spans="1:12">
@@ -7694,10 +7760,10 @@
         <v>298</v>
       </c>
       <c r="B287" t="s">
-        <v>507</v>
+        <v>518</v>
       </c>
       <c r="C287" t="s">
-        <v>798</v>
+        <v>809</v>
       </c>
     </row>
     <row r="288" spans="1:12">
@@ -7705,10 +7771,10 @@
         <v>299</v>
       </c>
       <c r="B288" t="s">
-        <v>507</v>
+        <v>518</v>
       </c>
       <c r="C288" t="s">
-        <v>799</v>
+        <v>810</v>
       </c>
     </row>
     <row r="289" spans="1:12">
@@ -7716,10 +7782,10 @@
         <v>300</v>
       </c>
       <c r="B289" t="s">
-        <v>507</v>
+        <v>518</v>
       </c>
       <c r="C289" t="s">
-        <v>800</v>
+        <v>811</v>
       </c>
     </row>
     <row r="290" spans="1:12">
@@ -7727,10 +7793,10 @@
         <v>301</v>
       </c>
       <c r="B290" t="s">
-        <v>507</v>
+        <v>518</v>
       </c>
       <c r="C290" t="s">
-        <v>801</v>
+        <v>812</v>
       </c>
     </row>
     <row r="291" spans="1:12">
@@ -7738,10 +7804,10 @@
         <v>302</v>
       </c>
       <c r="B291" t="s">
-        <v>507</v>
+        <v>518</v>
       </c>
       <c r="C291" t="s">
-        <v>802</v>
+        <v>813</v>
       </c>
       <c r="L291">
         <v>1</v>
@@ -7752,10 +7818,10 @@
         <v>303</v>
       </c>
       <c r="B292" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
       <c r="C292" t="s">
-        <v>803</v>
+        <v>814</v>
       </c>
     </row>
     <row r="293" spans="1:12">
@@ -7763,10 +7829,10 @@
         <v>304</v>
       </c>
       <c r="B293" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
       <c r="C293" t="s">
-        <v>804</v>
+        <v>815</v>
       </c>
     </row>
     <row r="294" spans="1:12">
@@ -7774,16 +7840,16 @@
         <v>305</v>
       </c>
       <c r="B294" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
       <c r="C294" t="s">
-        <v>805</v>
+        <v>816</v>
       </c>
       <c r="G294" t="s">
-        <v>1076</v>
+        <v>1098</v>
       </c>
       <c r="I294" t="s">
-        <v>1152</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="295" spans="1:12">
@@ -7791,10 +7857,10 @@
         <v>306</v>
       </c>
       <c r="B295" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
       <c r="C295" t="s">
-        <v>806</v>
+        <v>817</v>
       </c>
     </row>
     <row r="296" spans="1:12">
@@ -7802,10 +7868,10 @@
         <v>307</v>
       </c>
       <c r="B296" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
       <c r="C296" t="s">
-        <v>807</v>
+        <v>818</v>
       </c>
     </row>
     <row r="297" spans="1:12">
@@ -7813,16 +7879,16 @@
         <v>308</v>
       </c>
       <c r="B297" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
       <c r="C297" t="s">
-        <v>808</v>
+        <v>819</v>
       </c>
       <c r="G297" t="s">
-        <v>1077</v>
+        <v>1099</v>
       </c>
       <c r="I297" t="s">
-        <v>1152</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="298" spans="1:12">
@@ -7830,16 +7896,16 @@
         <v>309</v>
       </c>
       <c r="B298" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
       <c r="C298" t="s">
-        <v>809</v>
+        <v>820</v>
       </c>
       <c r="G298" t="s">
-        <v>1078</v>
+        <v>1100</v>
       </c>
       <c r="I298" t="s">
-        <v>1147</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="299" spans="1:12">
@@ -7847,10 +7913,10 @@
         <v>310</v>
       </c>
       <c r="B299" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
       <c r="C299" t="s">
-        <v>810</v>
+        <v>821</v>
       </c>
     </row>
     <row r="300" spans="1:12">
@@ -7858,10 +7924,10 @@
         <v>311</v>
       </c>
       <c r="B300" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="C300" t="s">
-        <v>811</v>
+        <v>822</v>
       </c>
     </row>
     <row r="301" spans="1:12">
@@ -7869,10 +7935,10 @@
         <v>312</v>
       </c>
       <c r="B301" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="C301" t="s">
-        <v>812</v>
+        <v>823</v>
       </c>
     </row>
     <row r="302" spans="1:12">
@@ -7880,10 +7946,10 @@
         <v>313</v>
       </c>
       <c r="B302" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="C302" t="s">
-        <v>813</v>
+        <v>824</v>
       </c>
     </row>
     <row r="303" spans="1:12">
@@ -7891,10 +7957,10 @@
         <v>314</v>
       </c>
       <c r="B303" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="C303" t="s">
-        <v>814</v>
+        <v>825</v>
       </c>
     </row>
     <row r="304" spans="1:12">
@@ -7902,10 +7968,10 @@
         <v>315</v>
       </c>
       <c r="B304" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="C304" t="s">
-        <v>815</v>
+        <v>826</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -7913,10 +7979,10 @@
         <v>316</v>
       </c>
       <c r="B305" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="C305" t="s">
-        <v>816</v>
+        <v>827</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -7924,10 +7990,10 @@
         <v>317</v>
       </c>
       <c r="B306" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="C306" t="s">
-        <v>817</v>
+        <v>828</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -7935,10 +8001,10 @@
         <v>318</v>
       </c>
       <c r="B307" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="C307" t="s">
-        <v>818</v>
+        <v>829</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -7946,10 +8012,10 @@
         <v>319</v>
       </c>
       <c r="B308" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="C308" t="s">
-        <v>819</v>
+        <v>830</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -7957,10 +8023,10 @@
         <v>320</v>
       </c>
       <c r="B309" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="C309" t="s">
-        <v>820</v>
+        <v>831</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -7968,10 +8034,10 @@
         <v>321</v>
       </c>
       <c r="B310" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="C310" t="s">
-        <v>821</v>
+        <v>832</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -7979,10 +8045,10 @@
         <v>322</v>
       </c>
       <c r="B311" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="C311" t="s">
-        <v>822</v>
+        <v>833</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -7990,10 +8056,10 @@
         <v>323</v>
       </c>
       <c r="B312" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="C312" t="s">
-        <v>823</v>
+        <v>834</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -8001,10 +8067,10 @@
         <v>324</v>
       </c>
       <c r="B313" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="C313" t="s">
-        <v>824</v>
+        <v>835</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -8012,10 +8078,10 @@
         <v>325</v>
       </c>
       <c r="B314" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="C314" t="s">
-        <v>825</v>
+        <v>836</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -8023,10 +8089,10 @@
         <v>326</v>
       </c>
       <c r="B315" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="C315" t="s">
-        <v>826</v>
+        <v>837</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -8034,10 +8100,10 @@
         <v>327</v>
       </c>
       <c r="B316" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="C316" t="s">
-        <v>827</v>
+        <v>838</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -8045,10 +8111,10 @@
         <v>328</v>
       </c>
       <c r="B317" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="C317" t="s">
-        <v>828</v>
+        <v>839</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -8056,10 +8122,10 @@
         <v>329</v>
       </c>
       <c r="B318" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="C318" t="s">
-        <v>829</v>
+        <v>840</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -8067,10 +8133,10 @@
         <v>330</v>
       </c>
       <c r="B319" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="C319" t="s">
-        <v>830</v>
+        <v>841</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -8078,10 +8144,10 @@
         <v>331</v>
       </c>
       <c r="B320" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="C320" t="s">
-        <v>831</v>
+        <v>842</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -8089,10 +8155,10 @@
         <v>332</v>
       </c>
       <c r="B321" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="C321" t="s">
-        <v>832</v>
+        <v>843</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -8100,10 +8166,10 @@
         <v>333</v>
       </c>
       <c r="B322" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="C322" t="s">
-        <v>833</v>
+        <v>844</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -8111,10 +8177,10 @@
         <v>334</v>
       </c>
       <c r="B323" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="C323" t="s">
-        <v>834</v>
+        <v>845</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -8122,10 +8188,10 @@
         <v>335</v>
       </c>
       <c r="B324" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="C324" t="s">
-        <v>835</v>
+        <v>846</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -8133,10 +8199,10 @@
         <v>336</v>
       </c>
       <c r="B325" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="C325" t="s">
-        <v>836</v>
+        <v>847</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -8144,10 +8210,10 @@
         <v>337</v>
       </c>
       <c r="B326" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="C326" t="s">
-        <v>837</v>
+        <v>848</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -8155,10 +8221,10 @@
         <v>338</v>
       </c>
       <c r="B327" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="C327" t="s">
-        <v>838</v>
+        <v>849</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -8166,10 +8232,10 @@
         <v>339</v>
       </c>
       <c r="B328" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="C328" t="s">
-        <v>839</v>
+        <v>850</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -8177,10 +8243,10 @@
         <v>340</v>
       </c>
       <c r="B329" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="C329" t="s">
-        <v>840</v>
+        <v>851</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -8188,10 +8254,10 @@
         <v>341</v>
       </c>
       <c r="B330" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="C330" t="s">
-        <v>841</v>
+        <v>852</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -8199,10 +8265,10 @@
         <v>342</v>
       </c>
       <c r="B331" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="C331" t="s">
-        <v>842</v>
+        <v>853</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -8210,10 +8276,10 @@
         <v>343</v>
       </c>
       <c r="B332" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="C332" t="s">
-        <v>843</v>
+        <v>854</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -8221,10 +8287,10 @@
         <v>344</v>
       </c>
       <c r="B333" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="C333" t="s">
-        <v>844</v>
+        <v>855</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -8232,10 +8298,10 @@
         <v>345</v>
       </c>
       <c r="B334" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="C334" t="s">
-        <v>845</v>
+        <v>856</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -8243,10 +8309,10 @@
         <v>346</v>
       </c>
       <c r="B335" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="C335" t="s">
-        <v>846</v>
+        <v>857</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -8254,10 +8320,10 @@
         <v>347</v>
       </c>
       <c r="B336" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="C336" t="s">
-        <v>847</v>
+        <v>858</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -8265,10 +8331,10 @@
         <v>348</v>
       </c>
       <c r="B337" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="C337" t="s">
-        <v>848</v>
+        <v>859</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -8276,10 +8342,10 @@
         <v>349</v>
       </c>
       <c r="B338" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="C338" t="s">
-        <v>849</v>
+        <v>860</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -8287,10 +8353,10 @@
         <v>350</v>
       </c>
       <c r="B339" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="C339" t="s">
-        <v>850</v>
+        <v>861</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -8298,10 +8364,10 @@
         <v>351</v>
       </c>
       <c r="B340" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="C340" t="s">
-        <v>851</v>
+        <v>862</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -8309,10 +8375,10 @@
         <v>352</v>
       </c>
       <c r="B341" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="C341" t="s">
-        <v>852</v>
+        <v>863</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -8320,10 +8386,10 @@
         <v>353</v>
       </c>
       <c r="B342" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="C342" t="s">
-        <v>853</v>
+        <v>864</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -8331,10 +8397,10 @@
         <v>354</v>
       </c>
       <c r="B343" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="C343" t="s">
-        <v>854</v>
+        <v>865</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -8342,10 +8408,10 @@
         <v>355</v>
       </c>
       <c r="B344" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="C344" t="s">
-        <v>855</v>
+        <v>866</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -8353,10 +8419,10 @@
         <v>356</v>
       </c>
       <c r="B345" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="C345" t="s">
-        <v>856</v>
+        <v>867</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -8364,10 +8430,10 @@
         <v>357</v>
       </c>
       <c r="B346" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="C346" t="s">
-        <v>857</v>
+        <v>868</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -8375,10 +8441,10 @@
         <v>358</v>
       </c>
       <c r="B347" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="C347" t="s">
-        <v>858</v>
+        <v>869</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -8386,10 +8452,10 @@
         <v>359</v>
       </c>
       <c r="B348" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="C348" t="s">
-        <v>859</v>
+        <v>870</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -8397,10 +8463,10 @@
         <v>360</v>
       </c>
       <c r="B349" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="C349" t="s">
-        <v>860</v>
+        <v>871</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -8408,10 +8474,10 @@
         <v>361</v>
       </c>
       <c r="B350" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="C350" t="s">
-        <v>861</v>
+        <v>872</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -8419,10 +8485,10 @@
         <v>362</v>
       </c>
       <c r="B351" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="C351" t="s">
-        <v>862</v>
+        <v>873</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -8430,189 +8496,186 @@
         <v>363</v>
       </c>
       <c r="B352" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="C352" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="353" spans="1:8">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3">
       <c r="A353" s="1" t="s">
         <v>364</v>
       </c>
       <c r="B353" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="C353" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="354" spans="1:8">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3">
       <c r="A354" s="1" t="s">
         <v>365</v>
       </c>
       <c r="B354" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="C354" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="355" spans="1:8">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3">
       <c r="A355" s="1" t="s">
         <v>366</v>
       </c>
       <c r="B355" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="C355" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="356" spans="1:8">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3">
       <c r="A356" s="1" t="s">
         <v>367</v>
       </c>
       <c r="B356" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="C356" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="357" spans="1:8">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3">
       <c r="A357" s="1" t="s">
         <v>368</v>
       </c>
       <c r="B357" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="C357" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="358" spans="1:8">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3">
       <c r="A358" s="1" t="s">
         <v>369</v>
       </c>
       <c r="B358" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="C358" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="359" spans="1:8">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3">
       <c r="A359" s="1" t="s">
         <v>370</v>
       </c>
       <c r="B359" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="C359" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="360" spans="1:8">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3">
       <c r="A360" s="1" t="s">
         <v>371</v>
       </c>
       <c r="B360" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="C360" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="361" spans="1:8">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3">
       <c r="A361" s="1" t="s">
         <v>372</v>
       </c>
       <c r="B361" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="C361" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="362" spans="1:8">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3">
       <c r="A362" s="1" t="s">
         <v>373</v>
       </c>
       <c r="B362" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="C362" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="363" spans="1:8">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3">
       <c r="A363" s="1" t="s">
         <v>374</v>
       </c>
       <c r="B363" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="C363" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="364" spans="1:8">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3">
       <c r="A364" s="1" t="s">
         <v>375</v>
       </c>
       <c r="B364" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="C364" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="365" spans="1:8">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3">
       <c r="A365" s="1" t="s">
         <v>376</v>
       </c>
       <c r="B365" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="C365" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="366" spans="1:8">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3">
       <c r="A366" s="1" t="s">
         <v>377</v>
       </c>
       <c r="B366" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="C366" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="367" spans="1:8">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3">
       <c r="A367" s="1" t="s">
         <v>378</v>
       </c>
       <c r="B367" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="C367" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="368" spans="1:8">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3">
       <c r="A368" s="1" t="s">
         <v>379</v>
       </c>
       <c r="B368" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="C368" t="s">
-        <v>879</v>
-      </c>
-      <c r="H368" t="s">
-        <v>1121</v>
+        <v>890</v>
       </c>
     </row>
     <row r="369" spans="1:9">
@@ -8620,10 +8683,10 @@
         <v>380</v>
       </c>
       <c r="B369" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="C369" t="s">
-        <v>880</v>
+        <v>891</v>
       </c>
     </row>
     <row r="370" spans="1:9">
@@ -8631,10 +8694,10 @@
         <v>381</v>
       </c>
       <c r="B370" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="C370" t="s">
-        <v>881</v>
+        <v>892</v>
       </c>
     </row>
     <row r="371" spans="1:9">
@@ -8642,13 +8705,10 @@
         <v>382</v>
       </c>
       <c r="B371" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="C371" t="s">
-        <v>882</v>
-      </c>
-      <c r="H371" t="s">
-        <v>1122</v>
+        <v>893</v>
       </c>
     </row>
     <row r="372" spans="1:9">
@@ -8656,13 +8716,10 @@
         <v>383</v>
       </c>
       <c r="B372" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="C372" t="s">
-        <v>883</v>
-      </c>
-      <c r="I372" t="s">
-        <v>1145</v>
+        <v>894</v>
       </c>
     </row>
     <row r="373" spans="1:9">
@@ -8670,13 +8727,10 @@
         <v>384</v>
       </c>
       <c r="B373" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="C373" t="s">
-        <v>884</v>
-      </c>
-      <c r="H373" t="s">
-        <v>1123</v>
+        <v>895</v>
       </c>
     </row>
     <row r="374" spans="1:9">
@@ -8684,10 +8738,10 @@
         <v>385</v>
       </c>
       <c r="B374" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="C374" t="s">
-        <v>885</v>
+        <v>896</v>
       </c>
     </row>
     <row r="375" spans="1:9">
@@ -8695,13 +8749,10 @@
         <v>386</v>
       </c>
       <c r="B375" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="C375" t="s">
-        <v>886</v>
-      </c>
-      <c r="H375" t="s">
-        <v>1124</v>
+        <v>897</v>
       </c>
     </row>
     <row r="376" spans="1:9">
@@ -8709,10 +8760,10 @@
         <v>387</v>
       </c>
       <c r="B376" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="C376" t="s">
-        <v>887</v>
+        <v>898</v>
       </c>
     </row>
     <row r="377" spans="1:9">
@@ -8720,10 +8771,10 @@
         <v>388</v>
       </c>
       <c r="B377" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="C377" t="s">
-        <v>888</v>
+        <v>899</v>
       </c>
     </row>
     <row r="378" spans="1:9">
@@ -8731,10 +8782,10 @@
         <v>389</v>
       </c>
       <c r="B378" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="C378" t="s">
-        <v>889</v>
+        <v>900</v>
       </c>
     </row>
     <row r="379" spans="1:9">
@@ -8742,13 +8793,13 @@
         <v>390</v>
       </c>
       <c r="B379" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
       <c r="C379" t="s">
-        <v>890</v>
+        <v>901</v>
       </c>
       <c r="H379" t="s">
-        <v>1125</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="380" spans="1:9">
@@ -8756,16 +8807,10 @@
         <v>391</v>
       </c>
       <c r="B380" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
       <c r="C380" t="s">
-        <v>891</v>
-      </c>
-      <c r="G380" t="s">
-        <v>1079</v>
-      </c>
-      <c r="H380" t="s">
-        <v>1126</v>
+        <v>902</v>
       </c>
     </row>
     <row r="381" spans="1:9">
@@ -8773,10 +8818,10 @@
         <v>392</v>
       </c>
       <c r="B381" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
       <c r="C381" t="s">
-        <v>892</v>
+        <v>903</v>
       </c>
     </row>
     <row r="382" spans="1:9">
@@ -8784,13 +8829,13 @@
         <v>393</v>
       </c>
       <c r="B382" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
       <c r="C382" t="s">
-        <v>893</v>
+        <v>904</v>
       </c>
       <c r="H382" t="s">
-        <v>1127</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="383" spans="1:9">
@@ -8798,10 +8843,13 @@
         <v>394</v>
       </c>
       <c r="B383" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
       <c r="C383" t="s">
-        <v>894</v>
+        <v>905</v>
+      </c>
+      <c r="I383" t="s">
+        <v>1167</v>
       </c>
     </row>
     <row r="384" spans="1:9">
@@ -8809,13 +8857,13 @@
         <v>395</v>
       </c>
       <c r="B384" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
       <c r="C384" t="s">
-        <v>895</v>
+        <v>906</v>
       </c>
       <c r="H384" t="s">
-        <v>1128</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="385" spans="1:12">
@@ -8823,13 +8871,10 @@
         <v>396</v>
       </c>
       <c r="B385" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
       <c r="C385" t="s">
-        <v>896</v>
-      </c>
-      <c r="H385" t="s">
-        <v>1128</v>
+        <v>907</v>
       </c>
     </row>
     <row r="386" spans="1:12">
@@ -8837,10 +8882,13 @@
         <v>397</v>
       </c>
       <c r="B386" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
       <c r="C386" t="s">
-        <v>897</v>
+        <v>908</v>
+      </c>
+      <c r="H386" t="s">
+        <v>1146</v>
       </c>
     </row>
     <row r="387" spans="1:12">
@@ -8848,10 +8896,10 @@
         <v>398</v>
       </c>
       <c r="B387" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
       <c r="C387" t="s">
-        <v>898</v>
+        <v>909</v>
       </c>
     </row>
     <row r="388" spans="1:12">
@@ -8859,10 +8907,10 @@
         <v>399</v>
       </c>
       <c r="B388" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
       <c r="C388" t="s">
-        <v>899</v>
+        <v>910</v>
       </c>
     </row>
     <row r="389" spans="1:12">
@@ -8870,13 +8918,10 @@
         <v>400</v>
       </c>
       <c r="B389" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
       <c r="C389" t="s">
-        <v>900</v>
-      </c>
-      <c r="L389">
-        <v>1</v>
+        <v>911</v>
       </c>
     </row>
     <row r="390" spans="1:12">
@@ -8884,15 +8929,12 @@
         <v>401</v>
       </c>
       <c r="B390" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
       <c r="C390" t="s">
-        <v>901</v>
-      </c>
-      <c r="G390" t="s">
-        <v>1080</v>
-      </c>
-      <c r="I390" t="s">
+        <v>912</v>
+      </c>
+      <c r="H390" t="s">
         <v>1147</v>
       </c>
     </row>
@@ -8901,16 +8943,16 @@
         <v>402</v>
       </c>
       <c r="B391" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
       <c r="C391" t="s">
-        <v>902</v>
-      </c>
-      <c r="E391" t="s">
-        <v>1003</v>
-      </c>
-      <c r="L391">
-        <v>1</v>
+        <v>913</v>
+      </c>
+      <c r="G391" t="s">
+        <v>1101</v>
+      </c>
+      <c r="H391" t="s">
+        <v>1148</v>
       </c>
     </row>
     <row r="392" spans="1:12">
@@ -8918,10 +8960,10 @@
         <v>403</v>
       </c>
       <c r="B392" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
       <c r="C392" t="s">
-        <v>903</v>
+        <v>914</v>
       </c>
     </row>
     <row r="393" spans="1:12">
@@ -8929,16 +8971,13 @@
         <v>404</v>
       </c>
       <c r="B393" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
       <c r="C393" t="s">
-        <v>904</v>
-      </c>
-      <c r="G393" t="s">
-        <v>1081</v>
-      </c>
-      <c r="I393" t="s">
-        <v>1159</v>
+        <v>915</v>
+      </c>
+      <c r="H393" t="s">
+        <v>1149</v>
       </c>
     </row>
     <row r="394" spans="1:12">
@@ -8946,13 +8985,10 @@
         <v>405</v>
       </c>
       <c r="B394" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
       <c r="C394" t="s">
-        <v>905</v>
-      </c>
-      <c r="G394" t="s">
-        <v>1082</v>
+        <v>916</v>
       </c>
     </row>
     <row r="395" spans="1:12">
@@ -8960,13 +8996,13 @@
         <v>406</v>
       </c>
       <c r="B395" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
       <c r="C395" t="s">
-        <v>906</v>
-      </c>
-      <c r="L395">
-        <v>1</v>
+        <v>917</v>
+      </c>
+      <c r="H395" t="s">
+        <v>1150</v>
       </c>
     </row>
     <row r="396" spans="1:12">
@@ -8974,10 +9010,13 @@
         <v>407</v>
       </c>
       <c r="B396" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
       <c r="C396" t="s">
-        <v>907</v>
+        <v>918</v>
+      </c>
+      <c r="H396" t="s">
+        <v>1150</v>
       </c>
     </row>
     <row r="397" spans="1:12">
@@ -8985,10 +9024,10 @@
         <v>408</v>
       </c>
       <c r="B397" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
       <c r="C397" t="s">
-        <v>908</v>
+        <v>919</v>
       </c>
     </row>
     <row r="398" spans="1:12">
@@ -8996,10 +9035,10 @@
         <v>409</v>
       </c>
       <c r="B398" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
       <c r="C398" t="s">
-        <v>909</v>
+        <v>920</v>
       </c>
     </row>
     <row r="399" spans="1:12">
@@ -9007,13 +9046,10 @@
         <v>410</v>
       </c>
       <c r="B399" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
       <c r="C399" t="s">
-        <v>910</v>
-      </c>
-      <c r="L399">
-        <v>1</v>
+        <v>921</v>
       </c>
     </row>
     <row r="400" spans="1:12">
@@ -9021,10 +9057,13 @@
         <v>411</v>
       </c>
       <c r="B400" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
       <c r="C400" t="s">
-        <v>911</v>
+        <v>922</v>
+      </c>
+      <c r="L400">
+        <v>1</v>
       </c>
     </row>
     <row r="401" spans="1:12">
@@ -9032,13 +9071,16 @@
         <v>412</v>
       </c>
       <c r="B401" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
       <c r="C401" t="s">
-        <v>912</v>
-      </c>
-      <c r="H401" t="s">
-        <v>1128</v>
+        <v>923</v>
+      </c>
+      <c r="G401" t="s">
+        <v>1102</v>
+      </c>
+      <c r="I401" t="s">
+        <v>1169</v>
       </c>
     </row>
     <row r="402" spans="1:12">
@@ -9046,10 +9088,13 @@
         <v>413</v>
       </c>
       <c r="B402" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
       <c r="C402" t="s">
-        <v>913</v>
+        <v>924</v>
+      </c>
+      <c r="E402" t="s">
+        <v>1025</v>
       </c>
       <c r="L402">
         <v>1</v>
@@ -9060,10 +9105,10 @@
         <v>414</v>
       </c>
       <c r="B403" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
       <c r="C403" t="s">
-        <v>914</v>
+        <v>925</v>
       </c>
     </row>
     <row r="404" spans="1:12">
@@ -9071,10 +9116,16 @@
         <v>415</v>
       </c>
       <c r="B404" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
       <c r="C404" t="s">
-        <v>915</v>
+        <v>926</v>
+      </c>
+      <c r="G404" t="s">
+        <v>1103</v>
+      </c>
+      <c r="I404" t="s">
+        <v>1181</v>
       </c>
     </row>
     <row r="405" spans="1:12">
@@ -9082,10 +9133,13 @@
         <v>416</v>
       </c>
       <c r="B405" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
       <c r="C405" t="s">
-        <v>916</v>
+        <v>927</v>
+      </c>
+      <c r="G405" t="s">
+        <v>1104</v>
       </c>
     </row>
     <row r="406" spans="1:12">
@@ -9093,10 +9147,13 @@
         <v>417</v>
       </c>
       <c r="B406" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
       <c r="C406" t="s">
-        <v>917</v>
+        <v>928</v>
+      </c>
+      <c r="L406">
+        <v>1</v>
       </c>
     </row>
     <row r="407" spans="1:12">
@@ -9104,13 +9161,10 @@
         <v>418</v>
       </c>
       <c r="B407" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
       <c r="C407" t="s">
-        <v>918</v>
-      </c>
-      <c r="E407" t="s">
-        <v>1004</v>
+        <v>929</v>
       </c>
     </row>
     <row r="408" spans="1:12">
@@ -9118,10 +9172,10 @@
         <v>419</v>
       </c>
       <c r="B408" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
       <c r="C408" t="s">
-        <v>919</v>
+        <v>930</v>
       </c>
     </row>
     <row r="409" spans="1:12">
@@ -9129,10 +9183,10 @@
         <v>420</v>
       </c>
       <c r="B409" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
       <c r="C409" t="s">
-        <v>920</v>
+        <v>931</v>
       </c>
     </row>
     <row r="410" spans="1:12">
@@ -9140,13 +9194,13 @@
         <v>421</v>
       </c>
       <c r="B410" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
       <c r="C410" t="s">
-        <v>921</v>
-      </c>
-      <c r="I410" t="s">
-        <v>1147</v>
+        <v>932</v>
+      </c>
+      <c r="L410">
+        <v>1</v>
       </c>
     </row>
     <row r="411" spans="1:12">
@@ -9154,10 +9208,10 @@
         <v>422</v>
       </c>
       <c r="B411" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
       <c r="C411" t="s">
-        <v>922</v>
+        <v>933</v>
       </c>
     </row>
     <row r="412" spans="1:12">
@@ -9165,13 +9219,13 @@
         <v>423</v>
       </c>
       <c r="B412" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
       <c r="C412" t="s">
-        <v>923</v>
-      </c>
-      <c r="L412">
-        <v>1</v>
+        <v>934</v>
+      </c>
+      <c r="H412" t="s">
+        <v>1150</v>
       </c>
     </row>
     <row r="413" spans="1:12">
@@ -9179,10 +9233,13 @@
         <v>424</v>
       </c>
       <c r="B413" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
       <c r="C413" t="s">
-        <v>924</v>
+        <v>935</v>
+      </c>
+      <c r="L413">
+        <v>1</v>
       </c>
     </row>
     <row r="414" spans="1:12">
@@ -9190,13 +9247,10 @@
         <v>425</v>
       </c>
       <c r="B414" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
       <c r="C414" t="s">
-        <v>925</v>
-      </c>
-      <c r="I414" t="s">
-        <v>1158</v>
+        <v>936</v>
       </c>
     </row>
     <row r="415" spans="1:12">
@@ -9204,10 +9258,10 @@
         <v>426</v>
       </c>
       <c r="B415" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
       <c r="C415" t="s">
-        <v>926</v>
+        <v>937</v>
       </c>
     </row>
     <row r="416" spans="1:12">
@@ -9215,1020 +9269,1153 @@
         <v>427</v>
       </c>
       <c r="B416" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
       <c r="C416" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="417" spans="1:9">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="417" spans="1:12">
       <c r="A417" s="1" t="s">
         <v>428</v>
       </c>
       <c r="B417" t="s">
-        <v>511</v>
+        <v>521</v>
       </c>
       <c r="C417" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="418" spans="1:9">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="418" spans="1:12">
       <c r="A418" s="1" t="s">
         <v>429</v>
       </c>
       <c r="B418" t="s">
-        <v>511</v>
+        <v>521</v>
       </c>
       <c r="C418" t="s">
-        <v>929</v>
-      </c>
-      <c r="G418" t="s">
-        <v>1083</v>
-      </c>
-      <c r="I418" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="419" spans="1:9">
+        <v>940</v>
+      </c>
+      <c r="E418" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="419" spans="1:12">
       <c r="A419" s="1" t="s">
         <v>430</v>
       </c>
       <c r="B419" t="s">
-        <v>511</v>
+        <v>521</v>
       </c>
       <c r="C419" t="s">
-        <v>930</v>
-      </c>
-      <c r="G419" t="s">
-        <v>1084</v>
-      </c>
-      <c r="I419" t="s">
-        <v>1158</v>
-      </c>
-    </row>
-    <row r="420" spans="1:9">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="420" spans="1:12">
       <c r="A420" s="1" t="s">
         <v>431</v>
       </c>
       <c r="B420" t="s">
-        <v>511</v>
+        <v>521</v>
       </c>
       <c r="C420" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="421" spans="1:9">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="421" spans="1:12">
       <c r="A421" s="1" t="s">
         <v>432</v>
       </c>
       <c r="B421" t="s">
-        <v>511</v>
+        <v>521</v>
       </c>
       <c r="C421" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="422" spans="1:9">
+        <v>943</v>
+      </c>
+      <c r="I421" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="422" spans="1:12">
       <c r="A422" s="1" t="s">
         <v>433</v>
       </c>
       <c r="B422" t="s">
-        <v>511</v>
+        <v>521</v>
       </c>
       <c r="C422" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="423" spans="1:9">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="423" spans="1:12">
       <c r="A423" s="1" t="s">
         <v>434</v>
       </c>
       <c r="B423" t="s">
-        <v>511</v>
+        <v>521</v>
       </c>
       <c r="C423" t="s">
-        <v>934</v>
-      </c>
-      <c r="G423" t="s">
-        <v>1085</v>
-      </c>
-      <c r="I423" t="s">
-        <v>1146</v>
-      </c>
-    </row>
-    <row r="424" spans="1:9">
+        <v>945</v>
+      </c>
+      <c r="L423">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424" spans="1:12">
       <c r="A424" s="1" t="s">
         <v>435</v>
       </c>
       <c r="B424" t="s">
-        <v>511</v>
+        <v>521</v>
       </c>
       <c r="C424" t="s">
-        <v>935</v>
-      </c>
-      <c r="G424" t="s">
-        <v>1086</v>
-      </c>
-      <c r="I424" t="s">
-        <v>1144</v>
-      </c>
-    </row>
-    <row r="425" spans="1:9">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="425" spans="1:12">
       <c r="A425" s="1" t="s">
         <v>436</v>
       </c>
       <c r="B425" t="s">
-        <v>511</v>
+        <v>521</v>
       </c>
       <c r="C425" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="426" spans="1:9">
+        <v>947</v>
+      </c>
+      <c r="I425" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="426" spans="1:12">
       <c r="A426" s="1" t="s">
         <v>437</v>
       </c>
       <c r="B426" t="s">
-        <v>511</v>
+        <v>521</v>
       </c>
       <c r="C426" t="s">
-        <v>937</v>
-      </c>
-      <c r="G426" t="s">
-        <v>1087</v>
-      </c>
-      <c r="I426" t="s">
-        <v>1144</v>
-      </c>
-    </row>
-    <row r="427" spans="1:9">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="427" spans="1:12">
       <c r="A427" s="1" t="s">
         <v>438</v>
       </c>
       <c r="B427" t="s">
-        <v>511</v>
+        <v>521</v>
       </c>
       <c r="C427" t="s">
-        <v>938</v>
-      </c>
-      <c r="G427" t="s">
-        <v>1088</v>
-      </c>
-      <c r="I427" t="s">
-        <v>1144</v>
-      </c>
-    </row>
-    <row r="428" spans="1:9">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="428" spans="1:12">
       <c r="A428" s="1" t="s">
         <v>439</v>
       </c>
       <c r="B428" t="s">
-        <v>511</v>
+        <v>522</v>
       </c>
       <c r="C428" t="s">
-        <v>939</v>
-      </c>
-      <c r="G428" t="s">
-        <v>1089</v>
-      </c>
-      <c r="I428" t="s">
-        <v>1161</v>
-      </c>
-    </row>
-    <row r="429" spans="1:9">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="429" spans="1:12">
       <c r="A429" s="1" t="s">
         <v>440</v>
       </c>
       <c r="B429" t="s">
-        <v>511</v>
+        <v>522</v>
       </c>
       <c r="C429" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="430" spans="1:9">
+        <v>951</v>
+      </c>
+      <c r="G429" t="s">
+        <v>1105</v>
+      </c>
+      <c r="I429" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="430" spans="1:12">
       <c r="A430" s="1" t="s">
         <v>441</v>
       </c>
       <c r="B430" t="s">
-        <v>511</v>
+        <v>522</v>
       </c>
       <c r="C430" t="s">
-        <v>941</v>
+        <v>952</v>
       </c>
       <c r="G430" t="s">
-        <v>1090</v>
+        <v>1106</v>
       </c>
       <c r="I430" t="s">
-        <v>1144</v>
-      </c>
-    </row>
-    <row r="431" spans="1:9">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="431" spans="1:12">
       <c r="A431" s="1" t="s">
         <v>442</v>
       </c>
       <c r="B431" t="s">
-        <v>511</v>
+        <v>522</v>
       </c>
       <c r="C431" t="s">
-        <v>942</v>
-      </c>
-      <c r="G431" t="s">
-        <v>1091</v>
-      </c>
-      <c r="I431" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="432" spans="1:9">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="432" spans="1:12">
       <c r="A432" s="1" t="s">
         <v>443</v>
       </c>
       <c r="B432" t="s">
-        <v>511</v>
+        <v>522</v>
       </c>
       <c r="C432" t="s">
-        <v>943</v>
-      </c>
-      <c r="G432" t="s">
-        <v>1092</v>
-      </c>
-      <c r="I432" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="433" spans="1:12">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="433" spans="1:9">
       <c r="A433" s="1" t="s">
         <v>444</v>
       </c>
       <c r="B433" t="s">
-        <v>511</v>
+        <v>522</v>
       </c>
       <c r="C433" t="s">
-        <v>944</v>
-      </c>
-      <c r="G433" t="s">
-        <v>1093</v>
-      </c>
-      <c r="I433" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="434" spans="1:12">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="434" spans="1:9">
       <c r="A434" s="1" t="s">
         <v>445</v>
       </c>
       <c r="B434" t="s">
-        <v>511</v>
+        <v>522</v>
       </c>
       <c r="C434" t="s">
-        <v>945</v>
+        <v>956</v>
       </c>
       <c r="G434" t="s">
-        <v>1094</v>
+        <v>1107</v>
       </c>
       <c r="I434" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="435" spans="1:12">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="435" spans="1:9">
       <c r="A435" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B435" t="s">
-        <v>511</v>
+        <v>522</v>
       </c>
       <c r="C435" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="436" spans="1:12">
+        <v>957</v>
+      </c>
+      <c r="G435" t="s">
+        <v>1108</v>
+      </c>
+      <c r="I435" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="436" spans="1:9">
       <c r="A436" s="1" t="s">
         <v>447</v>
       </c>
       <c r="B436" t="s">
-        <v>511</v>
+        <v>522</v>
       </c>
       <c r="C436" t="s">
-        <v>947</v>
-      </c>
-      <c r="G436" t="s">
-        <v>1095</v>
-      </c>
-      <c r="I436" t="s">
-        <v>1146</v>
-      </c>
-    </row>
-    <row r="437" spans="1:12">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="437" spans="1:9">
       <c r="A437" s="1" t="s">
         <v>448</v>
       </c>
       <c r="B437" t="s">
-        <v>511</v>
+        <v>522</v>
       </c>
       <c r="C437" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="438" spans="1:12">
+        <v>959</v>
+      </c>
+      <c r="G437" t="s">
+        <v>1109</v>
+      </c>
+      <c r="I437" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="438" spans="1:9">
       <c r="A438" s="1" t="s">
         <v>449</v>
       </c>
       <c r="B438" t="s">
-        <v>512</v>
+        <v>522</v>
       </c>
       <c r="C438" t="s">
-        <v>949</v>
+        <v>960</v>
       </c>
       <c r="G438" t="s">
-        <v>1096</v>
-      </c>
-      <c r="H438" t="s">
-        <v>1129</v>
+        <v>1110</v>
       </c>
       <c r="I438" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="439" spans="1:12">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="439" spans="1:9">
       <c r="A439" s="1" t="s">
         <v>450</v>
       </c>
       <c r="B439" t="s">
-        <v>512</v>
+        <v>522</v>
       </c>
       <c r="C439" t="s">
-        <v>950</v>
-      </c>
-      <c r="L439">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="440" spans="1:12">
+        <v>961</v>
+      </c>
+      <c r="G439" t="s">
+        <v>1111</v>
+      </c>
+      <c r="I439" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="440" spans="1:9">
       <c r="A440" s="1" t="s">
         <v>451</v>
       </c>
       <c r="B440" t="s">
-        <v>512</v>
+        <v>522</v>
       </c>
       <c r="C440" t="s">
-        <v>951</v>
-      </c>
-      <c r="H440" t="s">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="441" spans="1:12">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="441" spans="1:9">
       <c r="A441" s="1" t="s">
         <v>452</v>
       </c>
       <c r="B441" t="s">
-        <v>512</v>
+        <v>522</v>
       </c>
       <c r="C441" t="s">
-        <v>952</v>
+        <v>963</v>
       </c>
       <c r="G441" t="s">
-        <v>1097</v>
-      </c>
-      <c r="H441" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="I441" t="s">
-        <v>1145</v>
-      </c>
-    </row>
-    <row r="442" spans="1:12">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="442" spans="1:9">
       <c r="A442" s="1" t="s">
         <v>453</v>
       </c>
       <c r="B442" t="s">
-        <v>512</v>
+        <v>522</v>
       </c>
       <c r="C442" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="443" spans="1:12">
+        <v>964</v>
+      </c>
+      <c r="G442" t="s">
+        <v>1113</v>
+      </c>
+      <c r="I442" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="443" spans="1:9">
       <c r="A443" s="1" t="s">
         <v>454</v>
       </c>
       <c r="B443" t="s">
-        <v>512</v>
+        <v>522</v>
       </c>
       <c r="C443" t="s">
-        <v>954</v>
+        <v>965</v>
       </c>
       <c r="G443" t="s">
-        <v>1098</v>
-      </c>
-      <c r="H443" t="s">
-        <v>1131</v>
+        <v>1114</v>
       </c>
       <c r="I443" t="s">
-        <v>1142</v>
-      </c>
-    </row>
-    <row r="444" spans="1:12">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="444" spans="1:9">
       <c r="A444" s="1" t="s">
         <v>455</v>
       </c>
       <c r="B444" t="s">
-        <v>512</v>
+        <v>522</v>
       </c>
       <c r="C444" t="s">
-        <v>955</v>
-      </c>
-      <c r="L444">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="445" spans="1:12">
+        <v>966</v>
+      </c>
+      <c r="G444" t="s">
+        <v>1115</v>
+      </c>
+      <c r="I444" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="445" spans="1:9">
       <c r="A445" s="1" t="s">
         <v>456</v>
       </c>
       <c r="B445" t="s">
-        <v>512</v>
+        <v>522</v>
       </c>
       <c r="C445" t="s">
-        <v>956</v>
-      </c>
-      <c r="E445" t="s">
-        <v>1005</v>
+        <v>967</v>
       </c>
       <c r="G445" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="446" spans="1:12">
+        <v>1116</v>
+      </c>
+      <c r="I445" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="446" spans="1:9">
       <c r="A446" s="1" t="s">
         <v>457</v>
       </c>
       <c r="B446" t="s">
-        <v>512</v>
+        <v>522</v>
       </c>
       <c r="C446" t="s">
-        <v>957</v>
-      </c>
-      <c r="E446" t="s">
-        <v>1006</v>
-      </c>
-      <c r="G446" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="447" spans="1:12">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="447" spans="1:9">
       <c r="A447" s="1" t="s">
         <v>458</v>
       </c>
       <c r="B447" t="s">
-        <v>512</v>
+        <v>522</v>
       </c>
       <c r="C447" t="s">
-        <v>958</v>
-      </c>
-      <c r="E447" t="s">
-        <v>1007</v>
+        <v>969</v>
       </c>
       <c r="G447" t="s">
-        <v>1101</v>
-      </c>
-      <c r="H447" t="s">
-        <v>1132</v>
+        <v>1117</v>
       </c>
       <c r="I447" t="s">
-        <v>1163</v>
-      </c>
-    </row>
-    <row r="448" spans="1:12">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="448" spans="1:9">
       <c r="A448" s="1" t="s">
         <v>459</v>
       </c>
       <c r="B448" t="s">
-        <v>512</v>
+        <v>522</v>
       </c>
       <c r="C448" t="s">
-        <v>959</v>
-      </c>
-      <c r="H448" t="s">
-        <v>1115</v>
-      </c>
-      <c r="I448" t="s">
-        <v>1164</v>
-      </c>
-    </row>
-    <row r="449" spans="1:13">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="449" spans="1:12">
       <c r="A449" s="1" t="s">
         <v>460</v>
       </c>
       <c r="B449" t="s">
-        <v>512</v>
+        <v>523</v>
       </c>
       <c r="C449" t="s">
-        <v>960</v>
+        <v>971</v>
       </c>
       <c r="G449" t="s">
-        <v>1102</v>
+        <v>1118</v>
       </c>
       <c r="H449" t="s">
-        <v>1133</v>
+        <v>1151</v>
       </c>
       <c r="I449" t="s">
-        <v>1165</v>
-      </c>
-    </row>
-    <row r="450" spans="1:13">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="450" spans="1:12">
       <c r="A450" s="1" t="s">
         <v>461</v>
       </c>
       <c r="B450" t="s">
-        <v>512</v>
+        <v>523</v>
       </c>
       <c r="C450" t="s">
-        <v>961</v>
-      </c>
-      <c r="G450" t="s">
-        <v>1103</v>
-      </c>
-      <c r="H450" t="s">
-        <v>1134</v>
-      </c>
-      <c r="I450" t="s">
-        <v>1147</v>
-      </c>
-    </row>
-    <row r="451" spans="1:13">
+        <v>972</v>
+      </c>
+      <c r="L450">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451" spans="1:12">
       <c r="A451" s="1" t="s">
         <v>462</v>
       </c>
       <c r="B451" t="s">
-        <v>512</v>
+        <v>523</v>
       </c>
       <c r="C451" t="s">
-        <v>962</v>
+        <v>973</v>
       </c>
       <c r="H451" t="s">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="452" spans="1:13">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="452" spans="1:12">
       <c r="A452" s="1" t="s">
         <v>463</v>
       </c>
       <c r="B452" t="s">
-        <v>512</v>
+        <v>523</v>
       </c>
       <c r="C452" t="s">
-        <v>963</v>
+        <v>974</v>
+      </c>
+      <c r="G452" t="s">
+        <v>1119</v>
       </c>
       <c r="H452" t="s">
-        <v>1128</v>
-      </c>
-    </row>
-    <row r="453" spans="1:13">
+        <v>1137</v>
+      </c>
+      <c r="I452" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="453" spans="1:12">
       <c r="A453" s="1" t="s">
         <v>464</v>
       </c>
       <c r="B453" t="s">
-        <v>512</v>
+        <v>523</v>
       </c>
       <c r="C453" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="454" spans="1:13">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="454" spans="1:12">
       <c r="A454" s="1" t="s">
         <v>465</v>
       </c>
       <c r="B454" t="s">
-        <v>512</v>
+        <v>523</v>
       </c>
       <c r="C454" t="s">
-        <v>965</v>
+        <v>976</v>
+      </c>
+      <c r="G454" t="s">
+        <v>1120</v>
       </c>
       <c r="H454" t="s">
-        <v>1136</v>
-      </c>
-    </row>
-    <row r="455" spans="1:13">
+        <v>1153</v>
+      </c>
+      <c r="I454" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="455" spans="1:12">
       <c r="A455" s="1" t="s">
         <v>466</v>
       </c>
       <c r="B455" t="s">
-        <v>512</v>
+        <v>523</v>
       </c>
       <c r="C455" t="s">
-        <v>966</v>
-      </c>
-      <c r="H455" t="s">
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="456" spans="1:13">
+        <v>977</v>
+      </c>
+      <c r="L455">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456" spans="1:12">
       <c r="A456" s="1" t="s">
         <v>467</v>
       </c>
       <c r="B456" t="s">
-        <v>512</v>
+        <v>523</v>
       </c>
       <c r="C456" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="457" spans="1:13">
+        <v>978</v>
+      </c>
+      <c r="E456" t="s">
+        <v>1027</v>
+      </c>
+      <c r="G456" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="457" spans="1:12">
       <c r="A457" s="1" t="s">
         <v>468</v>
       </c>
       <c r="B457" t="s">
-        <v>512</v>
+        <v>523</v>
       </c>
       <c r="C457" t="s">
-        <v>968</v>
+        <v>979</v>
+      </c>
+      <c r="E457" t="s">
+        <v>1028</v>
       </c>
       <c r="G457" t="s">
-        <v>1104</v>
-      </c>
-      <c r="H457" t="s">
-        <v>1138</v>
-      </c>
-      <c r="L457">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="458" spans="1:13">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="458" spans="1:12">
       <c r="A458" s="1" t="s">
         <v>469</v>
       </c>
       <c r="B458" t="s">
-        <v>512</v>
+        <v>523</v>
       </c>
       <c r="C458" t="s">
-        <v>969</v>
-      </c>
-      <c r="D458" t="s">
-        <v>995</v>
+        <v>980</v>
       </c>
       <c r="E458" t="s">
-        <v>1008</v>
+        <v>1029</v>
       </c>
       <c r="G458" t="s">
-        <v>1105</v>
+        <v>1123</v>
       </c>
       <c r="H458" t="s">
-        <v>1139</v>
+        <v>1154</v>
       </c>
       <c r="I458" t="s">
-        <v>1166</v>
-      </c>
-    </row>
-    <row r="459" spans="1:13">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="459" spans="1:12">
       <c r="A459" s="1" t="s">
         <v>470</v>
       </c>
       <c r="B459" t="s">
-        <v>512</v>
+        <v>523</v>
       </c>
       <c r="C459" t="s">
-        <v>970</v>
-      </c>
-      <c r="G459" t="s">
-        <v>1080</v>
+        <v>981</v>
+      </c>
+      <c r="H459" t="s">
+        <v>1137</v>
       </c>
       <c r="I459" t="s">
-        <v>1147</v>
-      </c>
-    </row>
-    <row r="460" spans="1:13">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="460" spans="1:12">
       <c r="A460" s="1" t="s">
         <v>471</v>
       </c>
       <c r="B460" t="s">
-        <v>512</v>
+        <v>523</v>
       </c>
       <c r="C460" t="s">
-        <v>971</v>
+        <v>982</v>
       </c>
       <c r="G460" t="s">
-        <v>1106</v>
+        <v>1124</v>
+      </c>
+      <c r="H460" t="s">
+        <v>1155</v>
       </c>
       <c r="I460" t="s">
-        <v>1159</v>
-      </c>
-    </row>
-    <row r="461" spans="1:13">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="461" spans="1:12">
       <c r="A461" s="1" t="s">
         <v>472</v>
       </c>
       <c r="B461" t="s">
-        <v>512</v>
+        <v>523</v>
       </c>
       <c r="C461" t="s">
-        <v>972</v>
+        <v>983</v>
+      </c>
+      <c r="G461" t="s">
+        <v>1125</v>
+      </c>
+      <c r="H461" t="s">
+        <v>1156</v>
       </c>
       <c r="I461" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="462" spans="1:13">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="462" spans="1:12">
       <c r="A462" s="1" t="s">
         <v>473</v>
       </c>
       <c r="B462" t="s">
-        <v>512</v>
+        <v>523</v>
       </c>
       <c r="C462" t="s">
-        <v>973</v>
-      </c>
-      <c r="G462" t="s">
-        <v>1081</v>
-      </c>
-      <c r="I462" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="463" spans="1:13">
+        <v>984</v>
+      </c>
+      <c r="H462" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="463" spans="1:12">
       <c r="A463" s="1" t="s">
         <v>474</v>
       </c>
       <c r="B463" t="s">
-        <v>512</v>
+        <v>523</v>
       </c>
       <c r="C463" t="s">
-        <v>974</v>
-      </c>
-      <c r="M463">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="464" spans="1:13">
+        <v>985</v>
+      </c>
+      <c r="H463" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="464" spans="1:12">
       <c r="A464" s="1" t="s">
         <v>475</v>
       </c>
       <c r="B464" t="s">
-        <v>512</v>
+        <v>523</v>
       </c>
       <c r="C464" t="s">
-        <v>975</v>
-      </c>
-      <c r="G464" t="s">
-        <v>1107</v>
-      </c>
-      <c r="I464" t="s">
-        <v>1142</v>
-      </c>
-    </row>
-    <row r="465" spans="1:12">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="465" spans="1:13">
       <c r="A465" s="1" t="s">
         <v>476</v>
       </c>
       <c r="B465" t="s">
-        <v>512</v>
+        <v>523</v>
       </c>
       <c r="C465" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="466" spans="1:12">
+        <v>987</v>
+      </c>
+      <c r="H465" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="466" spans="1:13">
       <c r="A466" s="1" t="s">
         <v>477</v>
       </c>
       <c r="B466" t="s">
-        <v>512</v>
+        <v>523</v>
       </c>
       <c r="C466" t="s">
-        <v>977</v>
+        <v>988</v>
       </c>
       <c r="H466" t="s">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="467" spans="1:12">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="467" spans="1:13">
       <c r="A467" s="1" t="s">
         <v>478</v>
       </c>
       <c r="B467" t="s">
-        <v>512</v>
+        <v>523</v>
       </c>
       <c r="C467" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="468" spans="1:12">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="468" spans="1:13">
       <c r="A468" s="1" t="s">
         <v>479</v>
       </c>
       <c r="B468" t="s">
-        <v>512</v>
+        <v>523</v>
       </c>
       <c r="C468" t="s">
-        <v>979</v>
+        <v>990</v>
+      </c>
+      <c r="G468" t="s">
+        <v>1126</v>
+      </c>
+      <c r="H468" t="s">
+        <v>1160</v>
       </c>
       <c r="L468">
         <v>1</v>
       </c>
     </row>
-    <row r="469" spans="1:12">
+    <row r="469" spans="1:13">
       <c r="A469" s="1" t="s">
         <v>480</v>
       </c>
       <c r="B469" t="s">
-        <v>512</v>
+        <v>523</v>
       </c>
       <c r="C469" t="s">
-        <v>980</v>
+        <v>991</v>
+      </c>
+      <c r="D469" t="s">
+        <v>1017</v>
       </c>
       <c r="E469" t="s">
-        <v>1009</v>
+        <v>1030</v>
       </c>
       <c r="G469" t="s">
-        <v>1108</v>
+        <v>1127</v>
       </c>
       <c r="H469" t="s">
-        <v>1140</v>
+        <v>1161</v>
       </c>
       <c r="I469" t="s">
-        <v>1145</v>
-      </c>
-    </row>
-    <row r="470" spans="1:12">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="470" spans="1:13">
       <c r="A470" s="1" t="s">
         <v>481</v>
       </c>
       <c r="B470" t="s">
-        <v>512</v>
+        <v>523</v>
       </c>
       <c r="C470" t="s">
-        <v>981</v>
+        <v>992</v>
       </c>
       <c r="G470" t="s">
-        <v>1109</v>
+        <v>1102</v>
       </c>
       <c r="I470" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="471" spans="1:12">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="471" spans="1:13">
       <c r="A471" s="1" t="s">
         <v>482</v>
       </c>
       <c r="B471" t="s">
-        <v>512</v>
+        <v>523</v>
       </c>
       <c r="C471" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="472" spans="1:12">
+        <v>993</v>
+      </c>
+      <c r="G471" t="s">
+        <v>1128</v>
+      </c>
+      <c r="I471" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="472" spans="1:13">
       <c r="A472" s="1" t="s">
         <v>483</v>
       </c>
       <c r="B472" t="s">
-        <v>512</v>
+        <v>523</v>
       </c>
       <c r="C472" t="s">
-        <v>983</v>
+        <v>994</v>
       </c>
       <c r="I472" t="s">
-        <v>1147</v>
-      </c>
-    </row>
-    <row r="473" spans="1:12">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="473" spans="1:13">
       <c r="A473" s="1" t="s">
         <v>484</v>
       </c>
       <c r="B473" t="s">
-        <v>512</v>
+        <v>523</v>
       </c>
       <c r="C473" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="474" spans="1:12">
+        <v>995</v>
+      </c>
+      <c r="G473" t="s">
+        <v>1103</v>
+      </c>
+      <c r="I473" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="474" spans="1:13">
       <c r="A474" s="1" t="s">
         <v>485</v>
       </c>
       <c r="B474" t="s">
-        <v>512</v>
+        <v>523</v>
       </c>
       <c r="C474" t="s">
-        <v>985</v>
-      </c>
-      <c r="G474" t="s">
-        <v>1110</v>
-      </c>
-      <c r="I474" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="475" spans="1:12">
+        <v>996</v>
+      </c>
+      <c r="M474">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475" spans="1:13">
       <c r="A475" s="1" t="s">
         <v>486</v>
       </c>
       <c r="B475" t="s">
-        <v>512</v>
+        <v>523</v>
       </c>
       <c r="C475" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="476" spans="1:12">
+        <v>997</v>
+      </c>
+      <c r="G475" t="s">
+        <v>1129</v>
+      </c>
+      <c r="I475" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="476" spans="1:13">
       <c r="A476" s="1" t="s">
         <v>487</v>
       </c>
       <c r="B476" t="s">
-        <v>512</v>
+        <v>523</v>
       </c>
       <c r="C476" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="477" spans="1:12">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="477" spans="1:13">
       <c r="A477" s="1" t="s">
         <v>488</v>
       </c>
       <c r="B477" t="s">
-        <v>512</v>
+        <v>523</v>
       </c>
       <c r="C477" t="s">
-        <v>988</v>
-      </c>
-      <c r="L477">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="478" spans="1:12">
+        <v>999</v>
+      </c>
+      <c r="H477" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="478" spans="1:13">
       <c r="A478" s="1" t="s">
         <v>489</v>
       </c>
       <c r="B478" t="s">
-        <v>512</v>
+        <v>523</v>
       </c>
       <c r="C478" t="s">
-        <v>989</v>
-      </c>
-      <c r="G478" t="s">
-        <v>1111</v>
-      </c>
-      <c r="I478" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="479" spans="1:12">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="479" spans="1:13">
       <c r="A479" s="1" t="s">
         <v>490</v>
       </c>
       <c r="B479" t="s">
-        <v>512</v>
+        <v>523</v>
       </c>
       <c r="C479" t="s">
-        <v>990</v>
-      </c>
-      <c r="I479" t="s">
-        <v>1147</v>
-      </c>
-    </row>
-    <row r="480" spans="1:12">
+        <v>1001</v>
+      </c>
+      <c r="L479">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="480" spans="1:13">
       <c r="A480" s="1" t="s">
         <v>491</v>
       </c>
       <c r="B480" t="s">
-        <v>512</v>
+        <v>523</v>
       </c>
       <c r="C480" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="481" spans="1:3">
+        <v>1002</v>
+      </c>
+      <c r="E480" t="s">
+        <v>1031</v>
+      </c>
+      <c r="G480" t="s">
+        <v>1130</v>
+      </c>
+      <c r="H480" t="s">
+        <v>1162</v>
+      </c>
+      <c r="I480" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="481" spans="1:12">
       <c r="A481" s="1" t="s">
         <v>492</v>
       </c>
       <c r="B481" t="s">
-        <v>512</v>
+        <v>523</v>
       </c>
       <c r="C481" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="482" spans="1:3">
+        <v>1003</v>
+      </c>
+      <c r="G481" t="s">
+        <v>1131</v>
+      </c>
+      <c r="I481" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="482" spans="1:12">
       <c r="A482" s="1" t="s">
         <v>493</v>
       </c>
       <c r="B482" t="s">
-        <v>512</v>
+        <v>523</v>
       </c>
       <c r="C482" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="483" spans="1:3">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="483" spans="1:12">
       <c r="A483" s="1" t="s">
         <v>494</v>
       </c>
       <c r="B483" t="s">
-        <v>512</v>
+        <v>523</v>
       </c>
       <c r="C483" t="s">
-        <v>994</v>
+        <v>1005</v>
+      </c>
+      <c r="I483" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="484" spans="1:12">
+      <c r="A484" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B484" t="s">
+        <v>523</v>
+      </c>
+      <c r="C484" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="485" spans="1:12">
+      <c r="A485" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="B485" t="s">
+        <v>523</v>
+      </c>
+      <c r="C485" t="s">
+        <v>1007</v>
+      </c>
+      <c r="G485" t="s">
+        <v>1132</v>
+      </c>
+      <c r="I485" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="486" spans="1:12">
+      <c r="A486" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B486" t="s">
+        <v>523</v>
+      </c>
+      <c r="C486" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="487" spans="1:12">
+      <c r="A487" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B487" t="s">
+        <v>523</v>
+      </c>
+      <c r="C487" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="488" spans="1:12">
+      <c r="A488" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="B488" t="s">
+        <v>523</v>
+      </c>
+      <c r="C488" t="s">
+        <v>1010</v>
+      </c>
+      <c r="L488">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="489" spans="1:12">
+      <c r="A489" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="B489" t="s">
+        <v>523</v>
+      </c>
+      <c r="C489" t="s">
+        <v>1011</v>
+      </c>
+      <c r="G489" t="s">
+        <v>1133</v>
+      </c>
+      <c r="I489" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="490" spans="1:12">
+      <c r="A490" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="B490" t="s">
+        <v>523</v>
+      </c>
+      <c r="C490" t="s">
+        <v>1012</v>
+      </c>
+      <c r="I490" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="491" spans="1:12">
+      <c r="A491" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B491" t="s">
+        <v>523</v>
+      </c>
+      <c r="C491" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="492" spans="1:12">
+      <c r="A492" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B492" t="s">
+        <v>523</v>
+      </c>
+      <c r="C492" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="493" spans="1:12">
+      <c r="A493" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B493" t="s">
+        <v>523</v>
+      </c>
+      <c r="C493" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="494" spans="1:12">
+      <c r="A494" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B494" t="s">
+        <v>523</v>
+      </c>
+      <c r="C494" t="s">
+        <v>1016</v>
       </c>
     </row>
   </sheetData>

--- a/all_course.xlsx
+++ b/all_course.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1784" uniqueCount="1191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1787" uniqueCount="1193">
   <si>
     <t>category</t>
   </si>
@@ -1510,6 +1510,9 @@
     <t>e3ad7cc6</t>
   </si>
   <si>
+    <t>66d64102</t>
+  </si>
+  <si>
     <t>a9b5637e</t>
   </si>
   <si>
@@ -3041,6 +3044,9 @@
   </si>
   <si>
     <t>胜利道歌讲解</t>
+  </si>
+  <si>
+    <t>胜道宝鬘论讲解</t>
   </si>
   <si>
     <t>自我教言略释</t>
@@ -3944,7 +3950,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M494"/>
+  <dimension ref="A1:M495"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -4001,10 +4007,10 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C2" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -4012,16 +4018,16 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C3" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="G3" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="I3" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -4029,10 +4035,10 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C4" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -4040,13 +4046,13 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C5" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G5" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -4054,10 +4060,10 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C6" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -4065,13 +4071,13 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C7" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="G7" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -4082,13 +4088,13 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C8" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="J8" t="s">
-        <v>1189</v>
+        <v>1191</v>
       </c>
       <c r="L8">
         <v>1</v>
@@ -4099,10 +4105,10 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C9" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -4110,13 +4116,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C10" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E10" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="L10">
         <v>1</v>
@@ -4127,19 +4133,19 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C11" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="E11" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="G11" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="J11" t="s">
-        <v>1189</v>
+        <v>1191</v>
       </c>
       <c r="L11">
         <v>1</v>
@@ -4150,13 +4156,13 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C12" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H12" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -4164,10 +4170,10 @@
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C13" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -4175,13 +4181,13 @@
         <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C14" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H14" t="s">
-        <v>1135</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -4189,10 +4195,10 @@
         <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C15" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -4200,10 +4206,10 @@
         <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C16" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -4211,16 +4217,16 @@
         <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C17" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="G17" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="I17" t="s">
-        <v>1164</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -4228,10 +4234,10 @@
         <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C18" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -4239,16 +4245,16 @@
         <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C19" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="G19" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="I19" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -4256,13 +4262,13 @@
         <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C20" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="J20" t="s">
-        <v>1190</v>
+        <v>1192</v>
       </c>
       <c r="L20">
         <v>1</v>
@@ -4273,10 +4279,10 @@
         <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C21" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -4284,10 +4290,10 @@
         <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C22" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -4295,13 +4301,13 @@
         <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C23" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="G23" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -4309,10 +4315,10 @@
         <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C24" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -4320,10 +4326,10 @@
         <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C25" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="L25">
         <v>1</v>
@@ -4334,10 +4340,10 @@
         <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C26" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -4345,10 +4351,10 @@
         <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C27" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -4356,10 +4362,10 @@
         <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C28" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -4367,10 +4373,10 @@
         <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C29" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="L29">
         <v>1</v>
@@ -4381,10 +4387,10 @@
         <v>41</v>
       </c>
       <c r="B30" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C30" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -4392,10 +4398,10 @@
         <v>42</v>
       </c>
       <c r="B31" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C31" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="L31">
         <v>1</v>
@@ -4406,10 +4412,10 @@
         <v>43</v>
       </c>
       <c r="B32" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C32" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -4417,10 +4423,10 @@
         <v>44</v>
       </c>
       <c r="B33" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C33" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -4428,10 +4434,10 @@
         <v>45</v>
       </c>
       <c r="B34" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C34" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -4439,10 +4445,10 @@
         <v>46</v>
       </c>
       <c r="B35" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C35" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -4450,19 +4456,19 @@
         <v>47</v>
       </c>
       <c r="B36" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C36" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="G36" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="I36" t="s">
-        <v>1165</v>
+        <v>1167</v>
       </c>
       <c r="J36" t="s">
-        <v>1190</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -4470,16 +4476,16 @@
         <v>48</v>
       </c>
       <c r="B37" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C37" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="G37" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="I37" t="s">
-        <v>1166</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -4487,10 +4493,10 @@
         <v>49</v>
       </c>
       <c r="B38" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C38" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -4498,10 +4504,10 @@
         <v>50</v>
       </c>
       <c r="B39" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C39" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -4509,10 +4515,10 @@
         <v>51</v>
       </c>
       <c r="B40" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C40" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -4520,10 +4526,10 @@
         <v>52</v>
       </c>
       <c r="B41" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C41" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -4531,10 +4537,10 @@
         <v>53</v>
       </c>
       <c r="B42" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C42" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="L42">
         <v>1</v>
@@ -4545,10 +4551,10 @@
         <v>54</v>
       </c>
       <c r="B43" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C43" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -4556,10 +4562,10 @@
         <v>55</v>
       </c>
       <c r="B44" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C44" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -4567,16 +4573,16 @@
         <v>56</v>
       </c>
       <c r="B45" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C45" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="G45" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="I45" t="s">
-        <v>1165</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -4584,10 +4590,10 @@
         <v>57</v>
       </c>
       <c r="B46" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C46" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -4595,10 +4601,10 @@
         <v>58</v>
       </c>
       <c r="B47" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C47" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -4606,13 +4612,13 @@
         <v>59</v>
       </c>
       <c r="B48" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C48" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="J48" t="s">
-        <v>1190</v>
+        <v>1192</v>
       </c>
       <c r="L48">
         <v>1</v>
@@ -4623,10 +4629,10 @@
         <v>60</v>
       </c>
       <c r="B49" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C49" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -4634,16 +4640,16 @@
         <v>61</v>
       </c>
       <c r="B50" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C50" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="G50" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="I50" t="s">
-        <v>1165</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -4651,13 +4657,13 @@
         <v>62</v>
       </c>
       <c r="B51" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C51" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="E51" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="L51">
         <v>1</v>
@@ -4668,13 +4674,13 @@
         <v>63</v>
       </c>
       <c r="B52" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C52" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H52" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -4682,16 +4688,16 @@
         <v>64</v>
       </c>
       <c r="B53" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C53" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H53" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="I53" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -4699,10 +4705,10 @@
         <v>65</v>
       </c>
       <c r="B54" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C54" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -4710,13 +4716,13 @@
         <v>66</v>
       </c>
       <c r="B55" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C55" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H55" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -4724,10 +4730,10 @@
         <v>67</v>
       </c>
       <c r="B56" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C56" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="M56">
         <v>1</v>
@@ -4738,10 +4744,10 @@
         <v>68</v>
       </c>
       <c r="B57" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C57" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -4749,10 +4755,10 @@
         <v>69</v>
       </c>
       <c r="B58" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C58" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -4760,10 +4766,10 @@
         <v>70</v>
       </c>
       <c r="B59" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C59" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -4771,10 +4777,10 @@
         <v>71</v>
       </c>
       <c r="B60" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C60" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -4782,10 +4788,10 @@
         <v>72</v>
       </c>
       <c r="B61" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C61" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -4793,19 +4799,19 @@
         <v>73</v>
       </c>
       <c r="B62" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C62" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="G62" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="H62" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="I62" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -4813,13 +4819,13 @@
         <v>74</v>
       </c>
       <c r="B63" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C63" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H63" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -4827,19 +4833,19 @@
         <v>75</v>
       </c>
       <c r="B64" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C64" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="G64" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="H64" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="I64" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -4847,16 +4853,16 @@
         <v>76</v>
       </c>
       <c r="B65" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C65" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H65" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="I65" t="s">
-        <v>1170</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -4864,19 +4870,19 @@
         <v>77</v>
       </c>
       <c r="B66" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C66" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="E66" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="H66" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="I66" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -4884,10 +4890,10 @@
         <v>78</v>
       </c>
       <c r="B67" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C67" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -4895,10 +4901,10 @@
         <v>79</v>
       </c>
       <c r="B68" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C68" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="L68">
         <v>1</v>
@@ -4909,10 +4915,10 @@
         <v>80</v>
       </c>
       <c r="B69" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C69" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -4920,13 +4926,13 @@
         <v>81</v>
       </c>
       <c r="B70" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C70" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="I70" t="s">
-        <v>1172</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -4934,13 +4940,13 @@
         <v>82</v>
       </c>
       <c r="B71" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C71" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="I71" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -4948,13 +4954,13 @@
         <v>83</v>
       </c>
       <c r="B72" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C72" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="G72" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="L72">
         <v>1</v>
@@ -4965,16 +4971,16 @@
         <v>84</v>
       </c>
       <c r="B73" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C73" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="G73" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="I73" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -4982,13 +4988,13 @@
         <v>85</v>
       </c>
       <c r="B74" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C74" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="I74" t="s">
-        <v>1173</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -4996,10 +5002,10 @@
         <v>86</v>
       </c>
       <c r="B75" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C75" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -5007,13 +5013,13 @@
         <v>87</v>
       </c>
       <c r="B76" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C76" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="I76" t="s">
-        <v>1173</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -5021,16 +5027,16 @@
         <v>88</v>
       </c>
       <c r="B77" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C77" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="G77" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="I77" t="s">
-        <v>1174</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -5038,13 +5044,13 @@
         <v>89</v>
       </c>
       <c r="B78" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C78" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="I78" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -5052,16 +5058,16 @@
         <v>90</v>
       </c>
       <c r="B79" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C79" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="G79" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="I79" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -5069,16 +5075,16 @@
         <v>91</v>
       </c>
       <c r="B80" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C80" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="G80" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="I80" t="s">
-        <v>1173</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -5086,10 +5092,10 @@
         <v>92</v>
       </c>
       <c r="B81" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C81" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="L81">
         <v>1</v>
@@ -5100,16 +5106,16 @@
         <v>93</v>
       </c>
       <c r="B82" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C82" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="G82" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="I82" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="L82">
         <v>1</v>
@@ -5120,16 +5126,16 @@
         <v>94</v>
       </c>
       <c r="B83" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C83" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="G83" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="H83" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -5137,16 +5143,16 @@
         <v>95</v>
       </c>
       <c r="B84" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C84" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="G84" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="H84" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -5154,16 +5160,16 @@
         <v>96</v>
       </c>
       <c r="B85" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C85" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="G85" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="H85" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -5171,16 +5177,16 @@
         <v>97</v>
       </c>
       <c r="B86" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C86" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="G86" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="H86" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -5188,16 +5194,16 @@
         <v>98</v>
       </c>
       <c r="B87" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C87" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="G87" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="H87" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -5205,16 +5211,16 @@
         <v>99</v>
       </c>
       <c r="B88" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C88" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="G88" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="H88" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -5222,16 +5228,16 @@
         <v>100</v>
       </c>
       <c r="B89" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C89" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="G89" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="H89" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -5239,16 +5245,16 @@
         <v>101</v>
       </c>
       <c r="B90" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C90" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="G90" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="H90" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -5256,16 +5262,16 @@
         <v>102</v>
       </c>
       <c r="B91" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C91" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="G91" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="H91" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -5273,16 +5279,16 @@
         <v>103</v>
       </c>
       <c r="B92" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C92" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="G92" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="H92" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -5290,16 +5296,16 @@
         <v>104</v>
       </c>
       <c r="B93" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C93" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="G93" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="H93" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -5307,16 +5313,16 @@
         <v>105</v>
       </c>
       <c r="B94" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C94" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="G94" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="H94" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -5324,16 +5330,16 @@
         <v>106</v>
       </c>
       <c r="B95" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C95" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="G95" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="H95" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -5341,16 +5347,16 @@
         <v>107</v>
       </c>
       <c r="B96" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C96" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="G96" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="H96" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -5358,16 +5364,16 @@
         <v>108</v>
       </c>
       <c r="B97" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C97" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="G97" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="H97" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -5375,16 +5381,16 @@
         <v>109</v>
       </c>
       <c r="B98" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C98" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="G98" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="H98" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -5392,16 +5398,16 @@
         <v>110</v>
       </c>
       <c r="B99" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C99" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="G99" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="H99" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -5409,16 +5415,16 @@
         <v>111</v>
       </c>
       <c r="B100" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C100" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="G100" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="H100" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -5426,16 +5432,16 @@
         <v>112</v>
       </c>
       <c r="B101" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C101" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="G101" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="H101" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -5443,16 +5449,16 @@
         <v>113</v>
       </c>
       <c r="B102" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C102" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="G102" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="H102" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -5460,16 +5466,16 @@
         <v>114</v>
       </c>
       <c r="B103" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C103" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="G103" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="H103" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -5477,16 +5483,16 @@
         <v>115</v>
       </c>
       <c r="B104" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C104" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="G104" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="H104" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -5494,16 +5500,16 @@
         <v>116</v>
       </c>
       <c r="B105" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C105" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="G105" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="H105" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -5511,16 +5517,16 @@
         <v>117</v>
       </c>
       <c r="B106" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C106" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="G106" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="H106" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -5528,16 +5534,16 @@
         <v>118</v>
       </c>
       <c r="B107" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C107" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="G107" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="H107" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -5545,16 +5551,16 @@
         <v>119</v>
       </c>
       <c r="B108" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C108" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G108" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
       <c r="H108" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -5562,16 +5568,16 @@
         <v>120</v>
       </c>
       <c r="B109" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C109" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G109" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="H109" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -5579,16 +5585,16 @@
         <v>121</v>
       </c>
       <c r="B110" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C110" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G110" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="H110" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -5596,16 +5602,16 @@
         <v>122</v>
       </c>
       <c r="B111" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C111" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="G111" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="H111" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -5613,16 +5619,16 @@
         <v>123</v>
       </c>
       <c r="B112" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C112" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="G112" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="H112" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="113" spans="1:12">
@@ -5630,16 +5636,16 @@
         <v>124</v>
       </c>
       <c r="B113" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C113" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="G113" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="H113" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="114" spans="1:12">
@@ -5647,16 +5653,16 @@
         <v>125</v>
       </c>
       <c r="B114" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C114" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="G114" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="H114" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="115" spans="1:12">
@@ -5664,10 +5670,10 @@
         <v>126</v>
       </c>
       <c r="B115" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C115" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="L115">
         <v>1</v>
@@ -5678,16 +5684,16 @@
         <v>127</v>
       </c>
       <c r="B116" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C116" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="G116" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="H116" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="117" spans="1:12">
@@ -5695,16 +5701,16 @@
         <v>128</v>
       </c>
       <c r="B117" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C117" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="G117" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="H117" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="118" spans="1:12">
@@ -5712,16 +5718,16 @@
         <v>129</v>
       </c>
       <c r="B118" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C118" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="G118" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="H118" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="119" spans="1:12">
@@ -5729,16 +5735,16 @@
         <v>130</v>
       </c>
       <c r="B119" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C119" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="G119" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="H119" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="120" spans="1:12">
@@ -5746,10 +5752,10 @@
         <v>131</v>
       </c>
       <c r="B120" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C120" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="L120">
         <v>1</v>
@@ -5760,10 +5766,10 @@
         <v>132</v>
       </c>
       <c r="B121" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C121" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="L121">
         <v>1</v>
@@ -5774,10 +5780,10 @@
         <v>133</v>
       </c>
       <c r="B122" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C122" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="123" spans="1:12">
@@ -5785,10 +5791,10 @@
         <v>134</v>
       </c>
       <c r="B123" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C123" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="124" spans="1:12">
@@ -5796,10 +5802,10 @@
         <v>135</v>
       </c>
       <c r="B124" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C124" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="125" spans="1:12">
@@ -5807,10 +5813,10 @@
         <v>136</v>
       </c>
       <c r="B125" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C125" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="126" spans="1:12">
@@ -5818,10 +5824,10 @@
         <v>137</v>
       </c>
       <c r="B126" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C126" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="127" spans="1:12">
@@ -5829,10 +5835,10 @@
         <v>138</v>
       </c>
       <c r="B127" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C127" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="128" spans="1:12">
@@ -5840,10 +5846,10 @@
         <v>139</v>
       </c>
       <c r="B128" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C128" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="129" spans="1:12">
@@ -5851,10 +5857,10 @@
         <v>140</v>
       </c>
       <c r="B129" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C129" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="130" spans="1:12">
@@ -5862,10 +5868,10 @@
         <v>141</v>
       </c>
       <c r="B130" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C130" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="131" spans="1:12">
@@ -5873,10 +5879,10 @@
         <v>142</v>
       </c>
       <c r="B131" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C131" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="L131">
         <v>1</v>
@@ -5887,10 +5893,10 @@
         <v>143</v>
       </c>
       <c r="B132" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C132" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="L132">
         <v>1</v>
@@ -5901,13 +5907,13 @@
         <v>144</v>
       </c>
       <c r="B133" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C133" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="I133" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="134" spans="1:12">
@@ -5915,13 +5921,13 @@
         <v>145</v>
       </c>
       <c r="B134" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C134" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="I134" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="135" spans="1:12">
@@ -5929,10 +5935,10 @@
         <v>146</v>
       </c>
       <c r="B135" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C135" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="L135">
         <v>1</v>
@@ -5943,10 +5949,10 @@
         <v>147</v>
       </c>
       <c r="B136" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C136" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="L136">
         <v>1</v>
@@ -5957,10 +5963,10 @@
         <v>148</v>
       </c>
       <c r="B137" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C137" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="138" spans="1:12">
@@ -5968,10 +5974,10 @@
         <v>149</v>
       </c>
       <c r="B138" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C138" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="139" spans="1:12">
@@ -5979,10 +5985,10 @@
         <v>150</v>
       </c>
       <c r="B139" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C139" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="140" spans="1:12">
@@ -5990,10 +5996,10 @@
         <v>151</v>
       </c>
       <c r="B140" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C140" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="141" spans="1:12">
@@ -6001,10 +6007,10 @@
         <v>152</v>
       </c>
       <c r="B141" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C141" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="142" spans="1:12">
@@ -6012,13 +6018,13 @@
         <v>153</v>
       </c>
       <c r="B142" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C142" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H142" t="s">
-        <v>1139</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="143" spans="1:12">
@@ -6026,10 +6032,10 @@
         <v>154</v>
       </c>
       <c r="B143" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C143" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="144" spans="1:12">
@@ -6037,10 +6043,10 @@
         <v>155</v>
       </c>
       <c r="B144" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C144" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -6048,16 +6054,16 @@
         <v>156</v>
       </c>
       <c r="B145" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C145" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="G145" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="I145" t="s">
-        <v>1175</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -6065,10 +6071,10 @@
         <v>157</v>
       </c>
       <c r="B146" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C146" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -6076,10 +6082,10 @@
         <v>158</v>
       </c>
       <c r="B147" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C147" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -6087,16 +6093,16 @@
         <v>159</v>
       </c>
       <c r="B148" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C148" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="G148" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="I148" t="s">
-        <v>1176</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -6104,10 +6110,10 @@
         <v>160</v>
       </c>
       <c r="B149" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C149" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -6115,10 +6121,10 @@
         <v>161</v>
       </c>
       <c r="B150" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C150" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -6126,13 +6132,13 @@
         <v>162</v>
       </c>
       <c r="B151" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C151" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="I151" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -6140,10 +6146,10 @@
         <v>163</v>
       </c>
       <c r="B152" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C152" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -6151,10 +6157,10 @@
         <v>164</v>
       </c>
       <c r="B153" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C153" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -6162,10 +6168,10 @@
         <v>165</v>
       </c>
       <c r="B154" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C154" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -6173,10 +6179,10 @@
         <v>166</v>
       </c>
       <c r="B155" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C155" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -6184,13 +6190,13 @@
         <v>167</v>
       </c>
       <c r="B156" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C156" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="I156" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -6198,10 +6204,10 @@
         <v>168</v>
       </c>
       <c r="B157" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C157" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="158" spans="1:9">
@@ -6209,16 +6215,16 @@
         <v>169</v>
       </c>
       <c r="B158" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C158" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="G158" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="I158" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -6226,16 +6232,16 @@
         <v>170</v>
       </c>
       <c r="B159" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C159" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="E159" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="H159" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -6243,13 +6249,13 @@
         <v>171</v>
       </c>
       <c r="B160" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C160" t="s">
+        <v>683</v>
+      </c>
+      <c r="E160" t="s">
         <v>682</v>
-      </c>
-      <c r="E160" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="161" spans="1:12">
@@ -6257,13 +6263,13 @@
         <v>172</v>
       </c>
       <c r="B161" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C161" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="H161" t="s">
-        <v>1141</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="162" spans="1:12">
@@ -6271,10 +6277,10 @@
         <v>173</v>
       </c>
       <c r="B162" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C162" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="163" spans="1:12">
@@ -6282,16 +6288,16 @@
         <v>174</v>
       </c>
       <c r="B163" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C163" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="G163" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="I163" t="s">
-        <v>1175</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="164" spans="1:12">
@@ -6299,10 +6305,10 @@
         <v>175</v>
       </c>
       <c r="B164" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C164" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="165" spans="1:12">
@@ -6310,10 +6316,10 @@
         <v>176</v>
       </c>
       <c r="B165" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C165" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="166" spans="1:12">
@@ -6321,10 +6327,10 @@
         <v>177</v>
       </c>
       <c r="B166" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C166" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="L166">
         <v>1</v>
@@ -6335,13 +6341,13 @@
         <v>178</v>
       </c>
       <c r="B167" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C167" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="I167" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="168" spans="1:12">
@@ -6349,16 +6355,16 @@
         <v>179</v>
       </c>
       <c r="B168" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C168" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="G168" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="I168" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="169" spans="1:12">
@@ -6366,10 +6372,10 @@
         <v>180</v>
       </c>
       <c r="B169" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C169" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="170" spans="1:12">
@@ -6377,10 +6383,10 @@
         <v>181</v>
       </c>
       <c r="B170" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C170" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="171" spans="1:12">
@@ -6388,10 +6394,10 @@
         <v>182</v>
       </c>
       <c r="B171" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C171" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="172" spans="1:12">
@@ -6399,13 +6405,13 @@
         <v>183</v>
       </c>
       <c r="B172" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C172" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="I172" t="s">
-        <v>1178</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="173" spans="1:12">
@@ -6413,10 +6419,10 @@
         <v>184</v>
       </c>
       <c r="B173" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C173" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="L173">
         <v>1</v>
@@ -6427,10 +6433,10 @@
         <v>185</v>
       </c>
       <c r="B174" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C174" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="175" spans="1:12">
@@ -6438,10 +6444,10 @@
         <v>186</v>
       </c>
       <c r="B175" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C175" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="176" spans="1:12">
@@ -6449,10 +6455,10 @@
         <v>187</v>
       </c>
       <c r="B176" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C176" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="177" spans="1:9">
@@ -6460,13 +6466,13 @@
         <v>188</v>
       </c>
       <c r="B177" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C177" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="I177" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="178" spans="1:9">
@@ -6474,10 +6480,10 @@
         <v>189</v>
       </c>
       <c r="B178" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C178" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="179" spans="1:9">
@@ -6485,10 +6491,10 @@
         <v>190</v>
       </c>
       <c r="B179" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C179" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="180" spans="1:9">
@@ -6496,10 +6502,10 @@
         <v>191</v>
       </c>
       <c r="B180" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C180" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="181" spans="1:9">
@@ -6507,10 +6513,10 @@
         <v>192</v>
       </c>
       <c r="B181" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C181" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="182" spans="1:9">
@@ -6518,10 +6524,10 @@
         <v>193</v>
       </c>
       <c r="B182" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C182" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row r="183" spans="1:9">
@@ -6529,10 +6535,10 @@
         <v>194</v>
       </c>
       <c r="B183" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C183" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="184" spans="1:9">
@@ -6540,16 +6546,16 @@
         <v>195</v>
       </c>
       <c r="B184" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C184" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="G184" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="I184" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="185" spans="1:9">
@@ -6557,10 +6563,10 @@
         <v>196</v>
       </c>
       <c r="B185" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C185" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="186" spans="1:9">
@@ -6568,10 +6574,10 @@
         <v>197</v>
       </c>
       <c r="B186" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C186" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
     </row>
     <row r="187" spans="1:9">
@@ -6579,13 +6585,13 @@
         <v>198</v>
       </c>
       <c r="B187" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C187" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="I187" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="188" spans="1:9">
@@ -6593,16 +6599,16 @@
         <v>199</v>
       </c>
       <c r="B188" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C188" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="G188" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="I188" t="s">
-        <v>1176</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="189" spans="1:9">
@@ -6610,10 +6616,10 @@
         <v>200</v>
       </c>
       <c r="B189" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C189" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="190" spans="1:9">
@@ -6621,10 +6627,10 @@
         <v>201</v>
       </c>
       <c r="B190" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C190" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="191" spans="1:9">
@@ -6632,13 +6638,13 @@
         <v>202</v>
       </c>
       <c r="B191" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C191" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="E191" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="192" spans="1:9">
@@ -6646,10 +6652,10 @@
         <v>203</v>
       </c>
       <c r="B192" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C192" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -6657,10 +6663,10 @@
         <v>204</v>
       </c>
       <c r="B193" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C193" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -6668,10 +6674,10 @@
         <v>205</v>
       </c>
       <c r="B194" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C194" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -6679,10 +6685,10 @@
         <v>206</v>
       </c>
       <c r="B195" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C195" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -6690,10 +6696,10 @@
         <v>207</v>
       </c>
       <c r="B196" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C196" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -6701,10 +6707,10 @@
         <v>208</v>
       </c>
       <c r="B197" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C197" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -6712,10 +6718,10 @@
         <v>209</v>
       </c>
       <c r="B198" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C198" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -6723,10 +6729,10 @@
         <v>210</v>
       </c>
       <c r="B199" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C199" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -6734,10 +6740,10 @@
         <v>211</v>
       </c>
       <c r="B200" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C200" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -6745,10 +6751,10 @@
         <v>212</v>
       </c>
       <c r="B201" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C201" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -6756,10 +6762,10 @@
         <v>213</v>
       </c>
       <c r="B202" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C202" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -6767,10 +6773,10 @@
         <v>214</v>
       </c>
       <c r="B203" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C203" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -6778,10 +6784,10 @@
         <v>215</v>
       </c>
       <c r="B204" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C204" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -6789,10 +6795,10 @@
         <v>216</v>
       </c>
       <c r="B205" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C205" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -6800,10 +6806,10 @@
         <v>217</v>
       </c>
       <c r="B206" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C206" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -6811,10 +6817,10 @@
         <v>218</v>
       </c>
       <c r="B207" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C207" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -6822,10 +6828,10 @@
         <v>219</v>
       </c>
       <c r="B208" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C208" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
     </row>
     <row r="209" spans="1:13">
@@ -6833,10 +6839,10 @@
         <v>220</v>
       </c>
       <c r="B209" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C209" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
     </row>
     <row r="210" spans="1:13">
@@ -6844,10 +6850,10 @@
         <v>221</v>
       </c>
       <c r="B210" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C210" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
     </row>
     <row r="211" spans="1:13">
@@ -6855,10 +6861,10 @@
         <v>222</v>
       </c>
       <c r="B211" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C211" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
     </row>
     <row r="212" spans="1:13">
@@ -6866,10 +6872,10 @@
         <v>223</v>
       </c>
       <c r="B212" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C212" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
     </row>
     <row r="213" spans="1:13">
@@ -6877,10 +6883,10 @@
         <v>224</v>
       </c>
       <c r="B213" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C213" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
     </row>
     <row r="214" spans="1:13">
@@ -6888,10 +6894,10 @@
         <v>225</v>
       </c>
       <c r="B214" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C214" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="215" spans="1:13">
@@ -6899,10 +6905,10 @@
         <v>226</v>
       </c>
       <c r="B215" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C215" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="216" spans="1:13">
@@ -6910,10 +6916,10 @@
         <v>227</v>
       </c>
       <c r="B216" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C216" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
     </row>
     <row r="217" spans="1:13">
@@ -6921,10 +6927,10 @@
         <v>228</v>
       </c>
       <c r="B217" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C217" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
     </row>
     <row r="218" spans="1:13">
@@ -6932,10 +6938,10 @@
         <v>229</v>
       </c>
       <c r="B218" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C218" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="219" spans="1:13">
@@ -6943,10 +6949,10 @@
         <v>230</v>
       </c>
       <c r="B219" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C219" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
     </row>
     <row r="220" spans="1:13">
@@ -6954,10 +6960,10 @@
         <v>231</v>
       </c>
       <c r="B220" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C220" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
     </row>
     <row r="221" spans="1:13">
@@ -6965,10 +6971,10 @@
         <v>232</v>
       </c>
       <c r="B221" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C221" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
     </row>
     <row r="222" spans="1:13">
@@ -6976,10 +6982,10 @@
         <v>233</v>
       </c>
       <c r="B222" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C222" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="223" spans="1:13">
@@ -6987,10 +6993,10 @@
         <v>234</v>
       </c>
       <c r="B223" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C223" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
     <row r="224" spans="1:13">
@@ -6998,10 +7004,10 @@
         <v>235</v>
       </c>
       <c r="B224" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C224" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="M224">
         <v>1</v>
@@ -7012,10 +7018,10 @@
         <v>236</v>
       </c>
       <c r="B225" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C225" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -7023,10 +7029,10 @@
         <v>237</v>
       </c>
       <c r="B226" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C226" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -7034,10 +7040,10 @@
         <v>238</v>
       </c>
       <c r="B227" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C227" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -7045,10 +7051,10 @@
         <v>239</v>
       </c>
       <c r="B228" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C228" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -7056,10 +7062,10 @@
         <v>240</v>
       </c>
       <c r="B229" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C229" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -7067,10 +7073,10 @@
         <v>241</v>
       </c>
       <c r="B230" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C230" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -7078,10 +7084,10 @@
         <v>242</v>
       </c>
       <c r="B231" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C231" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -7089,10 +7095,10 @@
         <v>243</v>
       </c>
       <c r="B232" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C232" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -7100,10 +7106,10 @@
         <v>244</v>
       </c>
       <c r="B233" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C233" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -7111,10 +7117,10 @@
         <v>245</v>
       </c>
       <c r="B234" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C234" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -7122,10 +7128,10 @@
         <v>246</v>
       </c>
       <c r="B235" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C235" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -7133,10 +7139,10 @@
         <v>247</v>
       </c>
       <c r="B236" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C236" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -7144,10 +7150,10 @@
         <v>248</v>
       </c>
       <c r="B237" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C237" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -7155,10 +7161,10 @@
         <v>249</v>
       </c>
       <c r="B238" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C238" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -7166,10 +7172,10 @@
         <v>250</v>
       </c>
       <c r="B239" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C239" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -7177,10 +7183,10 @@
         <v>251</v>
       </c>
       <c r="B240" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C240" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
     </row>
     <row r="241" spans="1:9">
@@ -7188,13 +7194,13 @@
         <v>252</v>
       </c>
       <c r="B241" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C241" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="E241" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="242" spans="1:9">
@@ -7202,13 +7208,13 @@
         <v>253</v>
       </c>
       <c r="B242" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C242" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="G242" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="243" spans="1:9">
@@ -7216,10 +7222,10 @@
         <v>254</v>
       </c>
       <c r="B243" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C243" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="244" spans="1:9">
@@ -7227,10 +7233,10 @@
         <v>255</v>
       </c>
       <c r="B244" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C244" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="245" spans="1:9">
@@ -7238,10 +7244,10 @@
         <v>256</v>
       </c>
       <c r="B245" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C245" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="246" spans="1:9">
@@ -7249,10 +7255,10 @@
         <v>257</v>
       </c>
       <c r="B246" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C246" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="247" spans="1:9">
@@ -7260,10 +7266,10 @@
         <v>258</v>
       </c>
       <c r="B247" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C247" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="248" spans="1:9">
@@ -7271,10 +7277,10 @@
         <v>259</v>
       </c>
       <c r="B248" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C248" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="249" spans="1:9">
@@ -7282,10 +7288,10 @@
         <v>260</v>
       </c>
       <c r="B249" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C249" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="250" spans="1:9">
@@ -7293,10 +7299,10 @@
         <v>261</v>
       </c>
       <c r="B250" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C250" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="251" spans="1:9">
@@ -7304,10 +7310,10 @@
         <v>262</v>
       </c>
       <c r="B251" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C251" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="252" spans="1:9">
@@ -7315,16 +7321,16 @@
         <v>263</v>
       </c>
       <c r="B252" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C252" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="G252" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="I252" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="253" spans="1:9">
@@ -7332,10 +7338,10 @@
         <v>264</v>
       </c>
       <c r="B253" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C253" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="254" spans="1:9">
@@ -7343,10 +7349,10 @@
         <v>265</v>
       </c>
       <c r="B254" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C254" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="255" spans="1:9">
@@ -7354,10 +7360,10 @@
         <v>266</v>
       </c>
       <c r="B255" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C255" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="256" spans="1:9">
@@ -7365,13 +7371,13 @@
         <v>267</v>
       </c>
       <c r="B256" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C256" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="G256" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="257" spans="1:9">
@@ -7379,16 +7385,16 @@
         <v>268</v>
       </c>
       <c r="B257" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C257" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="G257" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="I257" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="258" spans="1:9">
@@ -7396,13 +7402,13 @@
         <v>269</v>
       </c>
       <c r="B258" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C258" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="G258" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="259" spans="1:9">
@@ -7410,10 +7416,10 @@
         <v>270</v>
       </c>
       <c r="B259" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C259" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="260" spans="1:9">
@@ -7421,10 +7427,10 @@
         <v>271</v>
       </c>
       <c r="B260" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C260" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="261" spans="1:9">
@@ -7432,13 +7438,13 @@
         <v>272</v>
       </c>
       <c r="B261" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C261" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="I261" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="262" spans="1:9">
@@ -7446,10 +7452,10 @@
         <v>273</v>
       </c>
       <c r="B262" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C262" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="263" spans="1:9">
@@ -7457,10 +7463,10 @@
         <v>274</v>
       </c>
       <c r="B263" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C263" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="264" spans="1:9">
@@ -7468,13 +7474,13 @@
         <v>275</v>
       </c>
       <c r="B264" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C264" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="I264" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="265" spans="1:9">
@@ -7482,13 +7488,13 @@
         <v>276</v>
       </c>
       <c r="B265" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C265" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="I265" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="266" spans="1:9">
@@ -7496,13 +7502,13 @@
         <v>277</v>
       </c>
       <c r="B266" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C266" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="I266" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="267" spans="1:9">
@@ -7510,13 +7516,13 @@
         <v>278</v>
       </c>
       <c r="B267" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C267" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="I267" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="268" spans="1:9">
@@ -7524,13 +7530,13 @@
         <v>279</v>
       </c>
       <c r="B268" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C268" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="I268" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="269" spans="1:9">
@@ -7538,13 +7544,13 @@
         <v>280</v>
       </c>
       <c r="B269" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C269" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="I269" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="270" spans="1:9">
@@ -7552,13 +7558,13 @@
         <v>281</v>
       </c>
       <c r="B270" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C270" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="I270" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="271" spans="1:9">
@@ -7566,10 +7572,10 @@
         <v>282</v>
       </c>
       <c r="B271" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C271" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
     </row>
     <row r="272" spans="1:9">
@@ -7577,10 +7583,10 @@
         <v>283</v>
       </c>
       <c r="B272" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C272" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
     </row>
     <row r="273" spans="1:12">
@@ -7588,10 +7594,10 @@
         <v>284</v>
       </c>
       <c r="B273" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C273" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
     </row>
     <row r="274" spans="1:12">
@@ -7599,10 +7605,10 @@
         <v>285</v>
       </c>
       <c r="B274" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C274" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
     </row>
     <row r="275" spans="1:12">
@@ -7610,10 +7616,10 @@
         <v>286</v>
       </c>
       <c r="B275" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C275" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
     </row>
     <row r="276" spans="1:12">
@@ -7621,13 +7627,13 @@
         <v>287</v>
       </c>
       <c r="B276" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C276" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="H276" t="s">
-        <v>1142</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="277" spans="1:12">
@@ -7635,10 +7641,10 @@
         <v>288</v>
       </c>
       <c r="B277" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C277" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="278" spans="1:12">
@@ -7646,10 +7652,10 @@
         <v>289</v>
       </c>
       <c r="B278" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C278" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
     </row>
     <row r="279" spans="1:12">
@@ -7657,10 +7663,10 @@
         <v>290</v>
       </c>
       <c r="B279" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C279" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="280" spans="1:12">
@@ -7668,16 +7674,16 @@
         <v>291</v>
       </c>
       <c r="B280" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C280" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="G280" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="I280" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="281" spans="1:12">
@@ -7685,10 +7691,10 @@
         <v>292</v>
       </c>
       <c r="B281" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C281" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="282" spans="1:12">
@@ -7696,10 +7702,10 @@
         <v>293</v>
       </c>
       <c r="B282" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C282" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
     </row>
     <row r="283" spans="1:12">
@@ -7707,10 +7713,10 @@
         <v>294</v>
       </c>
       <c r="B283" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C283" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="L283">
         <v>1</v>
@@ -7721,13 +7727,13 @@
         <v>295</v>
       </c>
       <c r="B284" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C284" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="G284" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="285" spans="1:12">
@@ -7735,10 +7741,10 @@
         <v>296</v>
       </c>
       <c r="B285" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C285" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="L285">
         <v>1</v>
@@ -7749,10 +7755,10 @@
         <v>297</v>
       </c>
       <c r="B286" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C286" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
     </row>
     <row r="287" spans="1:12">
@@ -7760,10 +7766,10 @@
         <v>298</v>
       </c>
       <c r="B287" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C287" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
     </row>
     <row r="288" spans="1:12">
@@ -7771,10 +7777,10 @@
         <v>299</v>
       </c>
       <c r="B288" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C288" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="289" spans="1:12">
@@ -7782,10 +7788,10 @@
         <v>300</v>
       </c>
       <c r="B289" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C289" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
     </row>
     <row r="290" spans="1:12">
@@ -7793,10 +7799,10 @@
         <v>301</v>
       </c>
       <c r="B290" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C290" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
     </row>
     <row r="291" spans="1:12">
@@ -7804,10 +7810,10 @@
         <v>302</v>
       </c>
       <c r="B291" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C291" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="L291">
         <v>1</v>
@@ -7818,10 +7824,10 @@
         <v>303</v>
       </c>
       <c r="B292" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C292" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
     </row>
     <row r="293" spans="1:12">
@@ -7829,10 +7835,10 @@
         <v>304</v>
       </c>
       <c r="B293" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C293" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
     </row>
     <row r="294" spans="1:12">
@@ -7840,16 +7846,16 @@
         <v>305</v>
       </c>
       <c r="B294" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C294" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="G294" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="I294" t="s">
-        <v>1174</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="295" spans="1:12">
@@ -7857,10 +7863,10 @@
         <v>306</v>
       </c>
       <c r="B295" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C295" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
     </row>
     <row r="296" spans="1:12">
@@ -7868,10 +7874,10 @@
         <v>307</v>
       </c>
       <c r="B296" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C296" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
     </row>
     <row r="297" spans="1:12">
@@ -7879,16 +7885,16 @@
         <v>308</v>
       </c>
       <c r="B297" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C297" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="G297" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
       <c r="I297" t="s">
-        <v>1174</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="298" spans="1:12">
@@ -7896,16 +7902,16 @@
         <v>309</v>
       </c>
       <c r="B298" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C298" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="G298" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="I298" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="299" spans="1:12">
@@ -7913,10 +7919,10 @@
         <v>310</v>
       </c>
       <c r="B299" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C299" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
     </row>
     <row r="300" spans="1:12">
@@ -7924,10 +7930,10 @@
         <v>311</v>
       </c>
       <c r="B300" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C300" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
     </row>
     <row r="301" spans="1:12">
@@ -7935,10 +7941,10 @@
         <v>312</v>
       </c>
       <c r="B301" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C301" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
     </row>
     <row r="302" spans="1:12">
@@ -7946,10 +7952,10 @@
         <v>313</v>
       </c>
       <c r="B302" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C302" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
     </row>
     <row r="303" spans="1:12">
@@ -7957,10 +7963,10 @@
         <v>314</v>
       </c>
       <c r="B303" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C303" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
     </row>
     <row r="304" spans="1:12">
@@ -7968,10 +7974,10 @@
         <v>315</v>
       </c>
       <c r="B304" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C304" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -7979,10 +7985,10 @@
         <v>316</v>
       </c>
       <c r="B305" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C305" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -7990,10 +7996,10 @@
         <v>317</v>
       </c>
       <c r="B306" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C306" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -8001,10 +8007,10 @@
         <v>318</v>
       </c>
       <c r="B307" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C307" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -8012,10 +8018,10 @@
         <v>319</v>
       </c>
       <c r="B308" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C308" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -8023,10 +8029,10 @@
         <v>320</v>
       </c>
       <c r="B309" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C309" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -8034,10 +8040,10 @@
         <v>321</v>
       </c>
       <c r="B310" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C310" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -8045,10 +8051,10 @@
         <v>322</v>
       </c>
       <c r="B311" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C311" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -8056,10 +8062,10 @@
         <v>323</v>
       </c>
       <c r="B312" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C312" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -8067,10 +8073,10 @@
         <v>324</v>
       </c>
       <c r="B313" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C313" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -8078,10 +8084,10 @@
         <v>325</v>
       </c>
       <c r="B314" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C314" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -8089,10 +8095,10 @@
         <v>326</v>
       </c>
       <c r="B315" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C315" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -8100,10 +8106,10 @@
         <v>327</v>
       </c>
       <c r="B316" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C316" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -8111,10 +8117,10 @@
         <v>328</v>
       </c>
       <c r="B317" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C317" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -8122,10 +8128,10 @@
         <v>329</v>
       </c>
       <c r="B318" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C318" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -8133,10 +8139,10 @@
         <v>330</v>
       </c>
       <c r="B319" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C319" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -8144,10 +8150,10 @@
         <v>331</v>
       </c>
       <c r="B320" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C320" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -8155,10 +8161,10 @@
         <v>332</v>
       </c>
       <c r="B321" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C321" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -8166,10 +8172,10 @@
         <v>333</v>
       </c>
       <c r="B322" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C322" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -8177,10 +8183,10 @@
         <v>334</v>
       </c>
       <c r="B323" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C323" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -8188,10 +8194,10 @@
         <v>335</v>
       </c>
       <c r="B324" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C324" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -8199,10 +8205,10 @@
         <v>336</v>
       </c>
       <c r="B325" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C325" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -8210,10 +8216,10 @@
         <v>337</v>
       </c>
       <c r="B326" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C326" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -8221,10 +8227,10 @@
         <v>338</v>
       </c>
       <c r="B327" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C327" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -8232,10 +8238,10 @@
         <v>339</v>
       </c>
       <c r="B328" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C328" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -8243,10 +8249,10 @@
         <v>340</v>
       </c>
       <c r="B329" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C329" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -8254,10 +8260,10 @@
         <v>341</v>
       </c>
       <c r="B330" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C330" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -8265,10 +8271,10 @@
         <v>342</v>
       </c>
       <c r="B331" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C331" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -8276,10 +8282,10 @@
         <v>343</v>
       </c>
       <c r="B332" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C332" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -8287,10 +8293,10 @@
         <v>344</v>
       </c>
       <c r="B333" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C333" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -8298,10 +8304,10 @@
         <v>345</v>
       </c>
       <c r="B334" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C334" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -8309,10 +8315,10 @@
         <v>346</v>
       </c>
       <c r="B335" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C335" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -8320,10 +8326,10 @@
         <v>347</v>
       </c>
       <c r="B336" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C336" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -8331,10 +8337,10 @@
         <v>348</v>
       </c>
       <c r="B337" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C337" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -8342,10 +8348,10 @@
         <v>349</v>
       </c>
       <c r="B338" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C338" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -8353,10 +8359,10 @@
         <v>350</v>
       </c>
       <c r="B339" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C339" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -8364,10 +8370,10 @@
         <v>351</v>
       </c>
       <c r="B340" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C340" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -8375,10 +8381,10 @@
         <v>352</v>
       </c>
       <c r="B341" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C341" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -8386,10 +8392,10 @@
         <v>353</v>
       </c>
       <c r="B342" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C342" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -8397,10 +8403,10 @@
         <v>354</v>
       </c>
       <c r="B343" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C343" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -8408,10 +8414,10 @@
         <v>355</v>
       </c>
       <c r="B344" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C344" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -8419,10 +8425,10 @@
         <v>356</v>
       </c>
       <c r="B345" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C345" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -8430,10 +8436,10 @@
         <v>357</v>
       </c>
       <c r="B346" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C346" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -8441,10 +8447,10 @@
         <v>358</v>
       </c>
       <c r="B347" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C347" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -8452,10 +8458,10 @@
         <v>359</v>
       </c>
       <c r="B348" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C348" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -8463,10 +8469,10 @@
         <v>360</v>
       </c>
       <c r="B349" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C349" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -8474,10 +8480,10 @@
         <v>361</v>
       </c>
       <c r="B350" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C350" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -8485,10 +8491,10 @@
         <v>362</v>
       </c>
       <c r="B351" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C351" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -8496,10 +8502,10 @@
         <v>363</v>
       </c>
       <c r="B352" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C352" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -8507,10 +8513,10 @@
         <v>364</v>
       </c>
       <c r="B353" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C353" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -8518,10 +8524,10 @@
         <v>365</v>
       </c>
       <c r="B354" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C354" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -8529,10 +8535,10 @@
         <v>366</v>
       </c>
       <c r="B355" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C355" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -8540,10 +8546,10 @@
         <v>367</v>
       </c>
       <c r="B356" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C356" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -8551,10 +8557,10 @@
         <v>368</v>
       </c>
       <c r="B357" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C357" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -8562,10 +8568,10 @@
         <v>369</v>
       </c>
       <c r="B358" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C358" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -8573,10 +8579,10 @@
         <v>370</v>
       </c>
       <c r="B359" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C359" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -8584,10 +8590,10 @@
         <v>371</v>
       </c>
       <c r="B360" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C360" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -8595,10 +8601,10 @@
         <v>372</v>
       </c>
       <c r="B361" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C361" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -8606,10 +8612,10 @@
         <v>373</v>
       </c>
       <c r="B362" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C362" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -8617,10 +8623,10 @@
         <v>374</v>
       </c>
       <c r="B363" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C363" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -8628,10 +8634,10 @@
         <v>375</v>
       </c>
       <c r="B364" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C364" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -8639,10 +8645,10 @@
         <v>376</v>
       </c>
       <c r="B365" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C365" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -8650,10 +8656,10 @@
         <v>377</v>
       </c>
       <c r="B366" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C366" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -8661,10 +8667,10 @@
         <v>378</v>
       </c>
       <c r="B367" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C367" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -8672,10 +8678,10 @@
         <v>379</v>
       </c>
       <c r="B368" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C368" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
     </row>
     <row r="369" spans="1:9">
@@ -8683,10 +8689,10 @@
         <v>380</v>
       </c>
       <c r="B369" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C369" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
     <row r="370" spans="1:9">
@@ -8694,10 +8700,10 @@
         <v>381</v>
       </c>
       <c r="B370" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C370" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
     <row r="371" spans="1:9">
@@ -8705,10 +8711,10 @@
         <v>382</v>
       </c>
       <c r="B371" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C371" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
     </row>
     <row r="372" spans="1:9">
@@ -8716,10 +8722,10 @@
         <v>383</v>
       </c>
       <c r="B372" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C372" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
     </row>
     <row r="373" spans="1:9">
@@ -8727,10 +8733,10 @@
         <v>384</v>
       </c>
       <c r="B373" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C373" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="374" spans="1:9">
@@ -8738,10 +8744,10 @@
         <v>385</v>
       </c>
       <c r="B374" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C374" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
     </row>
     <row r="375" spans="1:9">
@@ -8749,10 +8755,10 @@
         <v>386</v>
       </c>
       <c r="B375" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C375" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="376" spans="1:9">
@@ -8760,10 +8766,10 @@
         <v>387</v>
       </c>
       <c r="B376" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C376" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="377" spans="1:9">
@@ -8771,10 +8777,10 @@
         <v>388</v>
       </c>
       <c r="B377" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C377" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
     </row>
     <row r="378" spans="1:9">
@@ -8782,10 +8788,10 @@
         <v>389</v>
       </c>
       <c r="B378" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C378" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
     </row>
     <row r="379" spans="1:9">
@@ -8793,13 +8799,13 @@
         <v>390</v>
       </c>
       <c r="B379" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C379" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="H379" t="s">
-        <v>1143</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="380" spans="1:9">
@@ -8807,10 +8813,10 @@
         <v>391</v>
       </c>
       <c r="B380" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C380" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
     </row>
     <row r="381" spans="1:9">
@@ -8818,10 +8824,10 @@
         <v>392</v>
       </c>
       <c r="B381" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C381" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="382" spans="1:9">
@@ -8829,13 +8835,13 @@
         <v>393</v>
       </c>
       <c r="B382" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C382" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="H382" t="s">
-        <v>1144</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="383" spans="1:9">
@@ -8843,13 +8849,13 @@
         <v>394</v>
       </c>
       <c r="B383" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C383" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="I383" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="384" spans="1:9">
@@ -8857,13 +8863,13 @@
         <v>395</v>
       </c>
       <c r="B384" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C384" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="H384" t="s">
-        <v>1145</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="385" spans="1:12">
@@ -8871,10 +8877,10 @@
         <v>396</v>
       </c>
       <c r="B385" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C385" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
     </row>
     <row r="386" spans="1:12">
@@ -8882,13 +8888,13 @@
         <v>397</v>
       </c>
       <c r="B386" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C386" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="H386" t="s">
-        <v>1146</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="387" spans="1:12">
@@ -8896,10 +8902,10 @@
         <v>398</v>
       </c>
       <c r="B387" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C387" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
     </row>
     <row r="388" spans="1:12">
@@ -8907,10 +8913,10 @@
         <v>399</v>
       </c>
       <c r="B388" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C388" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
     </row>
     <row r="389" spans="1:12">
@@ -8918,10 +8924,10 @@
         <v>400</v>
       </c>
       <c r="B389" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C389" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
     </row>
     <row r="390" spans="1:12">
@@ -8929,13 +8935,13 @@
         <v>401</v>
       </c>
       <c r="B390" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C390" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="H390" t="s">
-        <v>1147</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="391" spans="1:12">
@@ -8943,16 +8949,16 @@
         <v>402</v>
       </c>
       <c r="B391" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C391" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="G391" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="H391" t="s">
-        <v>1148</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="392" spans="1:12">
@@ -8960,10 +8966,10 @@
         <v>403</v>
       </c>
       <c r="B392" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C392" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="393" spans="1:12">
@@ -8971,13 +8977,13 @@
         <v>404</v>
       </c>
       <c r="B393" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C393" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="H393" t="s">
-        <v>1149</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="394" spans="1:12">
@@ -8985,10 +8991,10 @@
         <v>405</v>
       </c>
       <c r="B394" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C394" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
     </row>
     <row r="395" spans="1:12">
@@ -8996,13 +9002,13 @@
         <v>406</v>
       </c>
       <c r="B395" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C395" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="H395" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="396" spans="1:12">
@@ -9010,13 +9016,13 @@
         <v>407</v>
       </c>
       <c r="B396" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C396" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="H396" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="397" spans="1:12">
@@ -9024,10 +9030,10 @@
         <v>408</v>
       </c>
       <c r="B397" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C397" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
     </row>
     <row r="398" spans="1:12">
@@ -9035,10 +9041,10 @@
         <v>409</v>
       </c>
       <c r="B398" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C398" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
     </row>
     <row r="399" spans="1:12">
@@ -9046,10 +9052,10 @@
         <v>410</v>
       </c>
       <c r="B399" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C399" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
     </row>
     <row r="400" spans="1:12">
@@ -9057,10 +9063,10 @@
         <v>411</v>
       </c>
       <c r="B400" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C400" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="L400">
         <v>1</v>
@@ -9071,16 +9077,16 @@
         <v>412</v>
       </c>
       <c r="B401" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C401" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="G401" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="I401" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="402" spans="1:12">
@@ -9088,13 +9094,13 @@
         <v>413</v>
       </c>
       <c r="B402" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C402" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="E402" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="L402">
         <v>1</v>
@@ -9105,10 +9111,10 @@
         <v>414</v>
       </c>
       <c r="B403" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C403" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
     </row>
     <row r="404" spans="1:12">
@@ -9116,16 +9122,16 @@
         <v>415</v>
       </c>
       <c r="B404" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C404" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="G404" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="I404" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="405" spans="1:12">
@@ -9133,13 +9139,13 @@
         <v>416</v>
       </c>
       <c r="B405" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C405" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="G405" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="406" spans="1:12">
@@ -9147,10 +9153,10 @@
         <v>417</v>
       </c>
       <c r="B406" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C406" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="L406">
         <v>1</v>
@@ -9161,10 +9167,10 @@
         <v>418</v>
       </c>
       <c r="B407" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C407" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
     </row>
     <row r="408" spans="1:12">
@@ -9172,10 +9178,10 @@
         <v>419</v>
       </c>
       <c r="B408" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C408" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
     </row>
     <row r="409" spans="1:12">
@@ -9183,10 +9189,10 @@
         <v>420</v>
       </c>
       <c r="B409" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C409" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
     </row>
     <row r="410" spans="1:12">
@@ -9194,10 +9200,10 @@
         <v>421</v>
       </c>
       <c r="B410" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C410" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="L410">
         <v>1</v>
@@ -9208,10 +9214,10 @@
         <v>422</v>
       </c>
       <c r="B411" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C411" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
     </row>
     <row r="412" spans="1:12">
@@ -9219,13 +9225,13 @@
         <v>423</v>
       </c>
       <c r="B412" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C412" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="H412" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="413" spans="1:12">
@@ -9233,10 +9239,10 @@
         <v>424</v>
       </c>
       <c r="B413" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C413" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="L413">
         <v>1</v>
@@ -9247,10 +9253,10 @@
         <v>425</v>
       </c>
       <c r="B414" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C414" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
     </row>
     <row r="415" spans="1:12">
@@ -9258,10 +9264,10 @@
         <v>426</v>
       </c>
       <c r="B415" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C415" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
     </row>
     <row r="416" spans="1:12">
@@ -9269,10 +9275,10 @@
         <v>427</v>
       </c>
       <c r="B416" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C416" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
     </row>
     <row r="417" spans="1:12">
@@ -9280,10 +9286,10 @@
         <v>428</v>
       </c>
       <c r="B417" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C417" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
     </row>
     <row r="418" spans="1:12">
@@ -9291,13 +9297,13 @@
         <v>429</v>
       </c>
       <c r="B418" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C418" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="E418" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="419" spans="1:12">
@@ -9305,10 +9311,10 @@
         <v>430</v>
       </c>
       <c r="B419" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C419" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
     </row>
     <row r="420" spans="1:12">
@@ -9316,10 +9322,10 @@
         <v>431</v>
       </c>
       <c r="B420" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C420" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
     </row>
     <row r="421" spans="1:12">
@@ -9327,13 +9333,13 @@
         <v>432</v>
       </c>
       <c r="B421" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C421" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="I421" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="422" spans="1:12">
@@ -9341,10 +9347,10 @@
         <v>433</v>
       </c>
       <c r="B422" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C422" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
     </row>
     <row r="423" spans="1:12">
@@ -9352,10 +9358,10 @@
         <v>434</v>
       </c>
       <c r="B423" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C423" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="L423">
         <v>1</v>
@@ -9366,10 +9372,10 @@
         <v>435</v>
       </c>
       <c r="B424" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C424" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
     </row>
     <row r="425" spans="1:12">
@@ -9377,13 +9383,13 @@
         <v>436</v>
       </c>
       <c r="B425" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C425" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="I425" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="426" spans="1:12">
@@ -9391,10 +9397,10 @@
         <v>437</v>
       </c>
       <c r="B426" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C426" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
     </row>
     <row r="427" spans="1:12">
@@ -9402,10 +9408,10 @@
         <v>438</v>
       </c>
       <c r="B427" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C427" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
     </row>
     <row r="428" spans="1:12">
@@ -9413,10 +9419,10 @@
         <v>439</v>
       </c>
       <c r="B428" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C428" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
     </row>
     <row r="429" spans="1:12">
@@ -9424,16 +9430,16 @@
         <v>440</v>
       </c>
       <c r="B429" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C429" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="G429" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="I429" t="s">
-        <v>1182</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="430" spans="1:12">
@@ -9441,16 +9447,16 @@
         <v>441</v>
       </c>
       <c r="B430" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C430" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="G430" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="I430" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="431" spans="1:12">
@@ -9458,10 +9464,10 @@
         <v>442</v>
       </c>
       <c r="B431" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C431" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
     </row>
     <row r="432" spans="1:12">
@@ -9469,10 +9475,10 @@
         <v>443</v>
       </c>
       <c r="B432" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C432" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
     </row>
     <row r="433" spans="1:9">
@@ -9480,10 +9486,10 @@
         <v>444</v>
       </c>
       <c r="B433" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C433" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
     </row>
     <row r="434" spans="1:9">
@@ -9491,16 +9497,16 @@
         <v>445</v>
       </c>
       <c r="B434" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C434" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="G434" t="s">
-        <v>1107</v>
+        <v>1109</v>
       </c>
       <c r="I434" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="435" spans="1:9">
@@ -9508,16 +9514,16 @@
         <v>446</v>
       </c>
       <c r="B435" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C435" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="G435" t="s">
-        <v>1108</v>
+        <v>1110</v>
       </c>
       <c r="I435" t="s">
-        <v>1166</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="436" spans="1:9">
@@ -9525,10 +9531,10 @@
         <v>447</v>
       </c>
       <c r="B436" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C436" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
     </row>
     <row r="437" spans="1:9">
@@ -9536,16 +9542,16 @@
         <v>448</v>
       </c>
       <c r="B437" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C437" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="G437" t="s">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="I437" t="s">
-        <v>1166</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="438" spans="1:9">
@@ -9553,16 +9559,16 @@
         <v>449</v>
       </c>
       <c r="B438" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C438" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="G438" t="s">
-        <v>1110</v>
+        <v>1112</v>
       </c>
       <c r="I438" t="s">
-        <v>1166</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="439" spans="1:9">
@@ -9570,16 +9576,16 @@
         <v>450</v>
       </c>
       <c r="B439" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C439" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="G439" t="s">
-        <v>1111</v>
+        <v>1113</v>
       </c>
       <c r="I439" t="s">
-        <v>1183</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="440" spans="1:9">
@@ -9587,10 +9593,10 @@
         <v>451</v>
       </c>
       <c r="B440" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C440" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
     </row>
     <row r="441" spans="1:9">
@@ -9598,16 +9604,16 @@
         <v>452</v>
       </c>
       <c r="B441" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C441" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="G441" t="s">
-        <v>1112</v>
+        <v>1114</v>
       </c>
       <c r="I441" t="s">
-        <v>1166</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="442" spans="1:9">
@@ -9615,16 +9621,16 @@
         <v>453</v>
       </c>
       <c r="B442" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C442" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="G442" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="I442" t="s">
-        <v>1184</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="443" spans="1:9">
@@ -9632,16 +9638,16 @@
         <v>454</v>
       </c>
       <c r="B443" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C443" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="G443" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="I443" t="s">
-        <v>1182</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="444" spans="1:9">
@@ -9649,16 +9655,16 @@
         <v>455</v>
       </c>
       <c r="B444" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C444" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="G444" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="I444" t="s">
-        <v>1182</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="445" spans="1:9">
@@ -9666,16 +9672,16 @@
         <v>456</v>
       </c>
       <c r="B445" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C445" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="G445" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
       <c r="I445" t="s">
-        <v>1184</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="446" spans="1:9">
@@ -9683,10 +9689,10 @@
         <v>457</v>
       </c>
       <c r="B446" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C446" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="447" spans="1:9">
@@ -9694,16 +9700,16 @@
         <v>458</v>
       </c>
       <c r="B447" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C447" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="G447" t="s">
-        <v>1117</v>
+        <v>1119</v>
       </c>
       <c r="I447" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="448" spans="1:9">
@@ -9711,10 +9717,10 @@
         <v>459</v>
       </c>
       <c r="B448" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C448" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
     <row r="449" spans="1:12">
@@ -9722,19 +9728,19 @@
         <v>460</v>
       </c>
       <c r="B449" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C449" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="G449" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="H449" t="s">
-        <v>1151</v>
+        <v>1153</v>
       </c>
       <c r="I449" t="s">
-        <v>1176</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="450" spans="1:12">
@@ -9742,10 +9748,10 @@
         <v>461</v>
       </c>
       <c r="B450" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C450" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="L450">
         <v>1</v>
@@ -9756,13 +9762,13 @@
         <v>462</v>
       </c>
       <c r="B451" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C451" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H451" t="s">
-        <v>1152</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="452" spans="1:12">
@@ -9770,19 +9776,19 @@
         <v>463</v>
       </c>
       <c r="B452" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C452" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="G452" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
       <c r="H452" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="I452" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="453" spans="1:12">
@@ -9790,10 +9796,10 @@
         <v>464</v>
       </c>
       <c r="B453" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C453" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
     </row>
     <row r="454" spans="1:12">
@@ -9801,19 +9807,19 @@
         <v>465</v>
       </c>
       <c r="B454" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C454" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="G454" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
       <c r="H454" t="s">
-        <v>1153</v>
+        <v>1155</v>
       </c>
       <c r="I454" t="s">
-        <v>1164</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="455" spans="1:12">
@@ -9821,10 +9827,10 @@
         <v>466</v>
       </c>
       <c r="B455" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C455" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="L455">
         <v>1</v>
@@ -9835,16 +9841,16 @@
         <v>467</v>
       </c>
       <c r="B456" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C456" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="E456" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="G456" t="s">
-        <v>1121</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="457" spans="1:12">
@@ -9852,16 +9858,16 @@
         <v>468</v>
       </c>
       <c r="B457" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C457" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="E457" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="G457" t="s">
-        <v>1122</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="458" spans="1:12">
@@ -9869,22 +9875,22 @@
         <v>469</v>
       </c>
       <c r="B458" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C458" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="E458" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="G458" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="H458" t="s">
-        <v>1154</v>
+        <v>1156</v>
       </c>
       <c r="I458" t="s">
-        <v>1185</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="459" spans="1:12">
@@ -9892,16 +9898,16 @@
         <v>470</v>
       </c>
       <c r="B459" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C459" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H459" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="I459" t="s">
-        <v>1186</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="460" spans="1:12">
@@ -9909,19 +9915,19 @@
         <v>471</v>
       </c>
       <c r="B460" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C460" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="G460" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="H460" t="s">
-        <v>1155</v>
+        <v>1157</v>
       </c>
       <c r="I460" t="s">
-        <v>1187</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="461" spans="1:12">
@@ -9929,19 +9935,19 @@
         <v>472</v>
       </c>
       <c r="B461" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C461" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="G461" t="s">
-        <v>1125</v>
+        <v>1127</v>
       </c>
       <c r="H461" t="s">
-        <v>1156</v>
+        <v>1158</v>
       </c>
       <c r="I461" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="462" spans="1:12">
@@ -9949,13 +9955,13 @@
         <v>473</v>
       </c>
       <c r="B462" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C462" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="H462" t="s">
-        <v>1157</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="463" spans="1:12">
@@ -9963,13 +9969,13 @@
         <v>474</v>
       </c>
       <c r="B463" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C463" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="H463" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="464" spans="1:12">
@@ -9977,10 +9983,10 @@
         <v>475</v>
       </c>
       <c r="B464" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C464" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
     </row>
     <row r="465" spans="1:13">
@@ -9988,13 +9994,13 @@
         <v>476</v>
       </c>
       <c r="B465" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C465" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="H465" t="s">
-        <v>1158</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="466" spans="1:13">
@@ -10002,13 +10008,13 @@
         <v>477</v>
       </c>
       <c r="B466" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C466" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="H466" t="s">
-        <v>1159</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="467" spans="1:13">
@@ -10016,10 +10022,10 @@
         <v>478</v>
       </c>
       <c r="B467" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C467" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
     </row>
     <row r="468" spans="1:13">
@@ -10027,16 +10033,16 @@
         <v>479</v>
       </c>
       <c r="B468" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C468" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="G468" t="s">
-        <v>1126</v>
+        <v>1128</v>
       </c>
       <c r="H468" t="s">
-        <v>1160</v>
+        <v>1162</v>
       </c>
       <c r="L468">
         <v>1</v>
@@ -10047,25 +10053,25 @@
         <v>480</v>
       </c>
       <c r="B469" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C469" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="D469" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="E469" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="G469" t="s">
-        <v>1127</v>
+        <v>1129</v>
       </c>
       <c r="H469" t="s">
-        <v>1161</v>
+        <v>1163</v>
       </c>
       <c r="I469" t="s">
-        <v>1188</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="470" spans="1:13">
@@ -10073,16 +10079,16 @@
         <v>481</v>
       </c>
       <c r="B470" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C470" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="G470" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="I470" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="471" spans="1:13">
@@ -10090,16 +10096,16 @@
         <v>482</v>
       </c>
       <c r="B471" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C471" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="G471" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="I471" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="472" spans="1:13">
@@ -10107,13 +10113,13 @@
         <v>483</v>
       </c>
       <c r="B472" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C472" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="I472" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="473" spans="1:13">
@@ -10121,16 +10127,16 @@
         <v>484</v>
       </c>
       <c r="B473" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C473" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="G473" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="I473" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="474" spans="1:13">
@@ -10138,10 +10144,10 @@
         <v>485</v>
       </c>
       <c r="B474" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C474" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="M474">
         <v>1</v>
@@ -10152,16 +10158,16 @@
         <v>486</v>
       </c>
       <c r="B475" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C475" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="G475" t="s">
-        <v>1129</v>
+        <v>1131</v>
       </c>
       <c r="I475" t="s">
-        <v>1164</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="476" spans="1:13">
@@ -10169,10 +10175,10 @@
         <v>487</v>
       </c>
       <c r="B476" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C476" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
     </row>
     <row r="477" spans="1:13">
@@ -10180,13 +10186,13 @@
         <v>488</v>
       </c>
       <c r="B477" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C477" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="H477" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="478" spans="1:13">
@@ -10194,10 +10200,10 @@
         <v>489</v>
       </c>
       <c r="B478" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C478" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="479" spans="1:13">
@@ -10205,10 +10211,10 @@
         <v>490</v>
       </c>
       <c r="B479" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C479" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="L479">
         <v>1</v>
@@ -10219,22 +10225,22 @@
         <v>491</v>
       </c>
       <c r="B480" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C480" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="E480" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="G480" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="H480" t="s">
-        <v>1162</v>
+        <v>1164</v>
       </c>
       <c r="I480" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="481" spans="1:12">
@@ -10242,16 +10248,16 @@
         <v>492</v>
       </c>
       <c r="B481" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C481" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="G481" t="s">
-        <v>1131</v>
+        <v>1133</v>
       </c>
       <c r="I481" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="482" spans="1:12">
@@ -10259,10 +10265,10 @@
         <v>493</v>
       </c>
       <c r="B482" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C482" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="483" spans="1:12">
@@ -10270,13 +10276,13 @@
         <v>494</v>
       </c>
       <c r="B483" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C483" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="I483" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="484" spans="1:12">
@@ -10284,10 +10290,10 @@
         <v>495</v>
       </c>
       <c r="B484" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C484" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="485" spans="1:12">
@@ -10295,16 +10301,16 @@
         <v>496</v>
       </c>
       <c r="B485" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C485" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="G485" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
       <c r="I485" t="s">
-        <v>1176</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="486" spans="1:12">
@@ -10312,10 +10318,10 @@
         <v>497</v>
       </c>
       <c r="B486" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C486" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="487" spans="1:12">
@@ -10323,10 +10329,10 @@
         <v>498</v>
       </c>
       <c r="B487" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C487" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="488" spans="1:12">
@@ -10334,13 +10340,10 @@
         <v>499</v>
       </c>
       <c r="B488" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C488" t="s">
-        <v>1010</v>
-      </c>
-      <c r="L488">
-        <v>1</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="489" spans="1:12">
@@ -10348,16 +10351,13 @@
         <v>500</v>
       </c>
       <c r="B489" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C489" t="s">
-        <v>1011</v>
-      </c>
-      <c r="G489" t="s">
-        <v>1133</v>
-      </c>
-      <c r="I489" t="s">
-        <v>1176</v>
+        <v>1012</v>
+      </c>
+      <c r="L489">
+        <v>1</v>
       </c>
     </row>
     <row r="490" spans="1:12">
@@ -10365,13 +10365,16 @@
         <v>501</v>
       </c>
       <c r="B490" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C490" t="s">
-        <v>1012</v>
+        <v>1013</v>
+      </c>
+      <c r="G490" t="s">
+        <v>1135</v>
       </c>
       <c r="I490" t="s">
-        <v>1169</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="491" spans="1:12">
@@ -10379,10 +10382,13 @@
         <v>502</v>
       </c>
       <c r="B491" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C491" t="s">
-        <v>1013</v>
+        <v>1014</v>
+      </c>
+      <c r="I491" t="s">
+        <v>1171</v>
       </c>
     </row>
     <row r="492" spans="1:12">
@@ -10390,10 +10396,10 @@
         <v>503</v>
       </c>
       <c r="B492" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C492" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="493" spans="1:12">
@@ -10401,10 +10407,10 @@
         <v>504</v>
       </c>
       <c r="B493" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C493" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="494" spans="1:12">
@@ -10412,10 +10418,21 @@
         <v>505</v>
       </c>
       <c r="B494" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C494" t="s">
-        <v>1016</v>
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="495" spans="1:12">
+      <c r="A495" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="B495" t="s">
+        <v>524</v>
+      </c>
+      <c r="C495" t="s">
+        <v>1018</v>
       </c>
     </row>
   </sheetData>

--- a/all_course.xlsx
+++ b/all_course.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1787" uniqueCount="1193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1790" uniqueCount="1195">
   <si>
     <t>category</t>
   </si>
@@ -229,6 +229,9 @@
     <t>d6d87cbc</t>
   </si>
   <si>
+    <t>e426f6bb</t>
+  </si>
+  <si>
     <t>fdf9ce42</t>
   </si>
   <si>
@@ -1763,6 +1766,9 @@
   </si>
   <si>
     <t>地藏菩萨本愿经讲解</t>
+  </si>
+  <si>
+    <t>大乘方广总持经讲解</t>
   </si>
   <si>
     <t>大势至菩萨念佛圆通章讲解</t>
@@ -3950,7 +3956,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M495"/>
+  <dimension ref="A1:M496"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -4007,10 +4013,10 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C2" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -4018,16 +4024,16 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C3" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="G3" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="I3" t="s">
-        <v>1165</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -4035,10 +4041,10 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C4" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -4046,13 +4052,13 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C5" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="G5" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -4060,10 +4066,10 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C6" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -4071,13 +4077,13 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C7" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="G7" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -4088,13 +4094,13 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C8" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="J8" t="s">
-        <v>1191</v>
+        <v>1193</v>
       </c>
       <c r="L8">
         <v>1</v>
@@ -4105,10 +4111,10 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C9" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -4116,13 +4122,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C10" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="E10" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="L10">
         <v>1</v>
@@ -4133,19 +4139,19 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C11" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="E11" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="G11" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="J11" t="s">
-        <v>1191</v>
+        <v>1193</v>
       </c>
       <c r="L11">
         <v>1</v>
@@ -4156,13 +4162,13 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C12" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H12" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -4170,10 +4176,10 @@
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C13" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -4181,13 +4187,13 @@
         <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C14" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H14" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -4195,10 +4201,10 @@
         <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C15" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -4206,10 +4212,10 @@
         <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C16" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -4217,16 +4223,16 @@
         <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C17" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="G17" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="I17" t="s">
-        <v>1166</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -4234,10 +4240,10 @@
         <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C18" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -4245,16 +4251,16 @@
         <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C19" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="G19" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="I19" t="s">
-        <v>1165</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -4262,13 +4268,13 @@
         <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C20" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="J20" t="s">
-        <v>1192</v>
+        <v>1194</v>
       </c>
       <c r="L20">
         <v>1</v>
@@ -4279,10 +4285,10 @@
         <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C21" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -4290,10 +4296,10 @@
         <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C22" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -4301,13 +4307,13 @@
         <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C23" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="G23" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -4315,10 +4321,10 @@
         <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C24" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -4326,10 +4332,10 @@
         <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C25" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="L25">
         <v>1</v>
@@ -4340,10 +4346,10 @@
         <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C26" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -4351,10 +4357,10 @@
         <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C27" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -4362,10 +4368,10 @@
         <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C28" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -4373,10 +4379,10 @@
         <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C29" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="L29">
         <v>1</v>
@@ -4387,10 +4393,10 @@
         <v>41</v>
       </c>
       <c r="B30" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C30" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -4398,10 +4404,10 @@
         <v>42</v>
       </c>
       <c r="B31" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C31" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="L31">
         <v>1</v>
@@ -4412,10 +4418,10 @@
         <v>43</v>
       </c>
       <c r="B32" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C32" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -4423,10 +4429,10 @@
         <v>44</v>
       </c>
       <c r="B33" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C33" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -4434,10 +4440,10 @@
         <v>45</v>
       </c>
       <c r="B34" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C34" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -4445,10 +4451,10 @@
         <v>46</v>
       </c>
       <c r="B35" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C35" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -4456,19 +4462,19 @@
         <v>47</v>
       </c>
       <c r="B36" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C36" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="G36" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="I36" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="J36" t="s">
-        <v>1192</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -4476,16 +4482,16 @@
         <v>48</v>
       </c>
       <c r="B37" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C37" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="G37" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="I37" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -4493,10 +4499,10 @@
         <v>49</v>
       </c>
       <c r="B38" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C38" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -4504,10 +4510,10 @@
         <v>50</v>
       </c>
       <c r="B39" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C39" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -4515,10 +4521,10 @@
         <v>51</v>
       </c>
       <c r="B40" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C40" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -4526,10 +4532,10 @@
         <v>52</v>
       </c>
       <c r="B41" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C41" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -4537,10 +4543,10 @@
         <v>53</v>
       </c>
       <c r="B42" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C42" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="L42">
         <v>1</v>
@@ -4551,10 +4557,10 @@
         <v>54</v>
       </c>
       <c r="B43" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C43" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -4562,10 +4568,10 @@
         <v>55</v>
       </c>
       <c r="B44" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C44" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -4573,16 +4579,16 @@
         <v>56</v>
       </c>
       <c r="B45" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C45" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="G45" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="I45" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -4590,10 +4596,10 @@
         <v>57</v>
       </c>
       <c r="B46" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C46" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -4601,10 +4607,10 @@
         <v>58</v>
       </c>
       <c r="B47" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C47" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -4612,13 +4618,13 @@
         <v>59</v>
       </c>
       <c r="B48" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C48" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="J48" t="s">
-        <v>1192</v>
+        <v>1194</v>
       </c>
       <c r="L48">
         <v>1</v>
@@ -4629,10 +4635,10 @@
         <v>60</v>
       </c>
       <c r="B49" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C49" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -4640,16 +4646,16 @@
         <v>61</v>
       </c>
       <c r="B50" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C50" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="G50" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="I50" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -4657,13 +4663,13 @@
         <v>62</v>
       </c>
       <c r="B51" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C51" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="E51" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="L51">
         <v>1</v>
@@ -4674,13 +4680,13 @@
         <v>63</v>
       </c>
       <c r="B52" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C52" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H52" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -4688,16 +4694,16 @@
         <v>64</v>
       </c>
       <c r="B53" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C53" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H53" t="s">
-        <v>1139</v>
+        <v>1141</v>
       </c>
       <c r="I53" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -4705,10 +4711,10 @@
         <v>65</v>
       </c>
       <c r="B54" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C54" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -4716,13 +4722,13 @@
         <v>66</v>
       </c>
       <c r="B55" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C55" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H55" t="s">
-        <v>1139</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -4730,10 +4736,10 @@
         <v>67</v>
       </c>
       <c r="B56" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C56" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="M56">
         <v>1</v>
@@ -4744,10 +4750,10 @@
         <v>68</v>
       </c>
       <c r="B57" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C57" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -4755,10 +4761,10 @@
         <v>69</v>
       </c>
       <c r="B58" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C58" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -4766,10 +4772,10 @@
         <v>70</v>
       </c>
       <c r="B59" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C59" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -4777,10 +4783,10 @@
         <v>71</v>
       </c>
       <c r="B60" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C60" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -4788,10 +4794,10 @@
         <v>72</v>
       </c>
       <c r="B61" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C61" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -4799,19 +4805,10 @@
         <v>73</v>
       </c>
       <c r="B62" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C62" t="s">
-        <v>585</v>
-      </c>
-      <c r="G62" t="s">
-        <v>1045</v>
-      </c>
-      <c r="H62" t="s">
-        <v>1139</v>
-      </c>
-      <c r="I62" t="s">
-        <v>1170</v>
+        <v>586</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -4819,13 +4816,19 @@
         <v>74</v>
       </c>
       <c r="B63" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C63" t="s">
-        <v>586</v>
+        <v>587</v>
+      </c>
+      <c r="G63" t="s">
+        <v>1047</v>
       </c>
       <c r="H63" t="s">
-        <v>1139</v>
+        <v>1141</v>
+      </c>
+      <c r="I63" t="s">
+        <v>1172</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -4833,19 +4836,13 @@
         <v>75</v>
       </c>
       <c r="B64" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C64" t="s">
-        <v>587</v>
-      </c>
-      <c r="G64" t="s">
-        <v>1046</v>
+        <v>588</v>
       </c>
       <c r="H64" t="s">
-        <v>1139</v>
-      </c>
-      <c r="I64" t="s">
-        <v>1171</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -4853,16 +4850,19 @@
         <v>76</v>
       </c>
       <c r="B65" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C65" t="s">
-        <v>588</v>
+        <v>589</v>
+      </c>
+      <c r="G65" t="s">
+        <v>1048</v>
       </c>
       <c r="H65" t="s">
-        <v>1139</v>
+        <v>1141</v>
       </c>
       <c r="I65" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -4870,19 +4870,16 @@
         <v>77</v>
       </c>
       <c r="B66" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C66" t="s">
-        <v>589</v>
-      </c>
-      <c r="E66" t="s">
-        <v>1023</v>
+        <v>590</v>
       </c>
       <c r="H66" t="s">
-        <v>1139</v>
+        <v>1141</v>
       </c>
       <c r="I66" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -4890,10 +4887,19 @@
         <v>78</v>
       </c>
       <c r="B67" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C67" t="s">
-        <v>590</v>
+        <v>591</v>
+      </c>
+      <c r="E67" t="s">
+        <v>1025</v>
+      </c>
+      <c r="H67" t="s">
+        <v>1141</v>
+      </c>
+      <c r="I67" t="s">
+        <v>1175</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -4901,13 +4907,10 @@
         <v>79</v>
       </c>
       <c r="B68" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C68" t="s">
-        <v>591</v>
-      </c>
-      <c r="L68">
-        <v>1</v>
+        <v>592</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -4918,7 +4921,10 @@
         <v>511</v>
       </c>
       <c r="C69" t="s">
-        <v>592</v>
+        <v>593</v>
+      </c>
+      <c r="L69">
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -4926,13 +4932,10 @@
         <v>81</v>
       </c>
       <c r="B70" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C70" t="s">
-        <v>593</v>
-      </c>
-      <c r="I70" t="s">
-        <v>1174</v>
+        <v>594</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -4940,13 +4943,13 @@
         <v>82</v>
       </c>
       <c r="B71" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C71" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="I71" t="s">
-        <v>1165</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -4954,16 +4957,13 @@
         <v>83</v>
       </c>
       <c r="B72" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C72" t="s">
-        <v>595</v>
-      </c>
-      <c r="G72" t="s">
-        <v>1047</v>
-      </c>
-      <c r="L72">
-        <v>1</v>
+        <v>596</v>
+      </c>
+      <c r="I72" t="s">
+        <v>1167</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -4971,16 +4971,16 @@
         <v>84</v>
       </c>
       <c r="B73" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C73" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="G73" t="s">
-        <v>1048</v>
-      </c>
-      <c r="I73" t="s">
-        <v>1165</v>
+        <v>1049</v>
+      </c>
+      <c r="L73">
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -4991,10 +4991,13 @@
         <v>512</v>
       </c>
       <c r="C74" t="s">
-        <v>597</v>
+        <v>598</v>
+      </c>
+      <c r="G74" t="s">
+        <v>1050</v>
       </c>
       <c r="I74" t="s">
-        <v>1175</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -5002,10 +5005,13 @@
         <v>86</v>
       </c>
       <c r="B75" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C75" t="s">
-        <v>598</v>
+        <v>599</v>
+      </c>
+      <c r="I75" t="s">
+        <v>1177</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -5013,13 +5019,10 @@
         <v>87</v>
       </c>
       <c r="B76" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C76" t="s">
-        <v>599</v>
-      </c>
-      <c r="I76" t="s">
-        <v>1175</v>
+        <v>600</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -5027,16 +5030,13 @@
         <v>88</v>
       </c>
       <c r="B77" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C77" t="s">
-        <v>600</v>
-      </c>
-      <c r="G77" t="s">
-        <v>1049</v>
+        <v>601</v>
       </c>
       <c r="I77" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -5044,13 +5044,16 @@
         <v>89</v>
       </c>
       <c r="B78" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C78" t="s">
-        <v>601</v>
+        <v>602</v>
+      </c>
+      <c r="G78" t="s">
+        <v>1051</v>
       </c>
       <c r="I78" t="s">
-        <v>1169</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -5058,13 +5061,10 @@
         <v>90</v>
       </c>
       <c r="B79" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C79" t="s">
-        <v>602</v>
-      </c>
-      <c r="G79" t="s">
-        <v>1050</v>
+        <v>603</v>
       </c>
       <c r="I79" t="s">
         <v>1171</v>
@@ -5075,16 +5075,16 @@
         <v>91</v>
       </c>
       <c r="B80" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C80" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="G80" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="I80" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -5092,13 +5092,16 @@
         <v>92</v>
       </c>
       <c r="B81" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C81" t="s">
-        <v>604</v>
-      </c>
-      <c r="L81">
-        <v>1</v>
+        <v>605</v>
+      </c>
+      <c r="G81" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I81" t="s">
+        <v>1177</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -5106,16 +5109,10 @@
         <v>93</v>
       </c>
       <c r="B82" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C82" t="s">
-        <v>605</v>
-      </c>
-      <c r="G82" t="s">
-        <v>1051</v>
-      </c>
-      <c r="I82" t="s">
-        <v>1169</v>
+        <v>606</v>
       </c>
       <c r="L82">
         <v>1</v>
@@ -5129,13 +5126,16 @@
         <v>513</v>
       </c>
       <c r="C83" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="G83" t="s">
-        <v>1052</v>
-      </c>
-      <c r="H83" t="s">
-        <v>1140</v>
+        <v>1053</v>
+      </c>
+      <c r="I83" t="s">
+        <v>1171</v>
+      </c>
+      <c r="L83">
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -5143,16 +5143,16 @@
         <v>95</v>
       </c>
       <c r="B84" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C84" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="G84" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="H84" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -5160,16 +5160,16 @@
         <v>96</v>
       </c>
       <c r="B85" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C85" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="G85" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="H85" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -5177,16 +5177,16 @@
         <v>97</v>
       </c>
       <c r="B86" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C86" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="G86" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="H86" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -5194,16 +5194,16 @@
         <v>98</v>
       </c>
       <c r="B87" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C87" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="G87" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="H87" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -5211,16 +5211,16 @@
         <v>99</v>
       </c>
       <c r="B88" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C88" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="G88" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="H88" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -5228,16 +5228,16 @@
         <v>100</v>
       </c>
       <c r="B89" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C89" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="G89" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="H89" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -5245,16 +5245,16 @@
         <v>101</v>
       </c>
       <c r="B90" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C90" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="G90" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="H90" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -5262,16 +5262,16 @@
         <v>102</v>
       </c>
       <c r="B91" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C91" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="G91" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="H91" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -5279,16 +5279,16 @@
         <v>103</v>
       </c>
       <c r="B92" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C92" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="G92" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="H92" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -5296,16 +5296,16 @@
         <v>104</v>
       </c>
       <c r="B93" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C93" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="G93" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="H93" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -5313,16 +5313,16 @@
         <v>105</v>
       </c>
       <c r="B94" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C94" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="G94" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="H94" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -5330,16 +5330,16 @@
         <v>106</v>
       </c>
       <c r="B95" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C95" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="G95" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="H95" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -5347,16 +5347,16 @@
         <v>107</v>
       </c>
       <c r="B96" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C96" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="G96" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="H96" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -5364,16 +5364,16 @@
         <v>108</v>
       </c>
       <c r="B97" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C97" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="G97" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="H97" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -5381,16 +5381,16 @@
         <v>109</v>
       </c>
       <c r="B98" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C98" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="G98" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="H98" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -5398,16 +5398,16 @@
         <v>110</v>
       </c>
       <c r="B99" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C99" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="G99" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="H99" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -5415,16 +5415,16 @@
         <v>111</v>
       </c>
       <c r="B100" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C100" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="G100" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="H100" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -5432,16 +5432,16 @@
         <v>112</v>
       </c>
       <c r="B101" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C101" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="G101" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="H101" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -5449,16 +5449,16 @@
         <v>113</v>
       </c>
       <c r="B102" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C102" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="G102" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="H102" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -5466,16 +5466,16 @@
         <v>114</v>
       </c>
       <c r="B103" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C103" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="G103" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="H103" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -5483,16 +5483,16 @@
         <v>115</v>
       </c>
       <c r="B104" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C104" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="G104" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="H104" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -5500,16 +5500,16 @@
         <v>116</v>
       </c>
       <c r="B105" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C105" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="G105" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="H105" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -5517,16 +5517,16 @@
         <v>117</v>
       </c>
       <c r="B106" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C106" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="G106" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="H106" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -5534,16 +5534,16 @@
         <v>118</v>
       </c>
       <c r="B107" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C107" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G107" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="H107" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -5551,16 +5551,16 @@
         <v>119</v>
       </c>
       <c r="B108" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C108" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G108" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="H108" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -5568,16 +5568,16 @@
         <v>120</v>
       </c>
       <c r="B109" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C109" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G109" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="H109" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -5585,16 +5585,16 @@
         <v>121</v>
       </c>
       <c r="B110" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C110" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="G110" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="H110" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -5602,16 +5602,16 @@
         <v>122</v>
       </c>
       <c r="B111" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C111" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="G111" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="H111" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -5619,16 +5619,16 @@
         <v>123</v>
       </c>
       <c r="B112" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C112" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="G112" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="H112" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="113" spans="1:12">
@@ -5636,16 +5636,16 @@
         <v>124</v>
       </c>
       <c r="B113" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C113" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="G113" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="H113" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="114" spans="1:12">
@@ -5653,16 +5653,16 @@
         <v>125</v>
       </c>
       <c r="B114" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C114" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="G114" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="H114" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="115" spans="1:12">
@@ -5670,13 +5670,16 @@
         <v>126</v>
       </c>
       <c r="B115" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C115" t="s">
-        <v>638</v>
-      </c>
-      <c r="L115">
-        <v>1</v>
+        <v>639</v>
+      </c>
+      <c r="G115" t="s">
+        <v>1085</v>
+      </c>
+      <c r="H115" t="s">
+        <v>1142</v>
       </c>
     </row>
     <row r="116" spans="1:12">
@@ -5684,16 +5687,13 @@
         <v>127</v>
       </c>
       <c r="B116" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C116" t="s">
-        <v>639</v>
-      </c>
-      <c r="G116" t="s">
-        <v>1084</v>
-      </c>
-      <c r="H116" t="s">
-        <v>1140</v>
+        <v>640</v>
+      </c>
+      <c r="L116">
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:12">
@@ -5701,16 +5701,16 @@
         <v>128</v>
       </c>
       <c r="B117" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C117" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="G117" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="H117" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="118" spans="1:12">
@@ -5718,16 +5718,16 @@
         <v>129</v>
       </c>
       <c r="B118" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C118" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="G118" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="H118" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="119" spans="1:12">
@@ -5735,16 +5735,16 @@
         <v>130</v>
       </c>
       <c r="B119" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C119" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="G119" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="H119" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="120" spans="1:12">
@@ -5752,13 +5752,16 @@
         <v>131</v>
       </c>
       <c r="B120" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C120" t="s">
-        <v>643</v>
-      </c>
-      <c r="L120">
-        <v>1</v>
+        <v>644</v>
+      </c>
+      <c r="G120" t="s">
+        <v>1089</v>
+      </c>
+      <c r="H120" t="s">
+        <v>1142</v>
       </c>
     </row>
     <row r="121" spans="1:12">
@@ -5766,10 +5769,10 @@
         <v>132</v>
       </c>
       <c r="B121" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C121" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="L121">
         <v>1</v>
@@ -5780,10 +5783,13 @@
         <v>133</v>
       </c>
       <c r="B122" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C122" t="s">
-        <v>645</v>
+        <v>646</v>
+      </c>
+      <c r="L122">
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:12">
@@ -5791,10 +5797,10 @@
         <v>134</v>
       </c>
       <c r="B123" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C123" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="124" spans="1:12">
@@ -5802,10 +5808,10 @@
         <v>135</v>
       </c>
       <c r="B124" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C124" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="125" spans="1:12">
@@ -5813,10 +5819,10 @@
         <v>136</v>
       </c>
       <c r="B125" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C125" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="126" spans="1:12">
@@ -5824,10 +5830,10 @@
         <v>137</v>
       </c>
       <c r="B126" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C126" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="127" spans="1:12">
@@ -5835,10 +5841,10 @@
         <v>138</v>
       </c>
       <c r="B127" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C127" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="128" spans="1:12">
@@ -5846,10 +5852,10 @@
         <v>139</v>
       </c>
       <c r="B128" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C128" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="129" spans="1:12">
@@ -5857,10 +5863,10 @@
         <v>140</v>
       </c>
       <c r="B129" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C129" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="130" spans="1:12">
@@ -5868,10 +5874,10 @@
         <v>141</v>
       </c>
       <c r="B130" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C130" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="131" spans="1:12">
@@ -5879,13 +5885,10 @@
         <v>142</v>
       </c>
       <c r="B131" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C131" t="s">
-        <v>654</v>
-      </c>
-      <c r="L131">
-        <v>1</v>
+        <v>655</v>
       </c>
     </row>
     <row r="132" spans="1:12">
@@ -5896,7 +5899,7 @@
         <v>514</v>
       </c>
       <c r="C132" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="L132">
         <v>1</v>
@@ -5907,13 +5910,13 @@
         <v>144</v>
       </c>
       <c r="B133" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C133" t="s">
-        <v>656</v>
-      </c>
-      <c r="I133" t="s">
-        <v>1171</v>
+        <v>657</v>
+      </c>
+      <c r="L133">
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:12">
@@ -5921,13 +5924,13 @@
         <v>145</v>
       </c>
       <c r="B134" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C134" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="I134" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="135" spans="1:12">
@@ -5935,13 +5938,13 @@
         <v>146</v>
       </c>
       <c r="B135" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C135" t="s">
-        <v>658</v>
-      </c>
-      <c r="L135">
-        <v>1</v>
+        <v>659</v>
+      </c>
+      <c r="I135" t="s">
+        <v>1173</v>
       </c>
     </row>
     <row r="136" spans="1:12">
@@ -5949,10 +5952,10 @@
         <v>147</v>
       </c>
       <c r="B136" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C136" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="L136">
         <v>1</v>
@@ -5963,10 +5966,13 @@
         <v>148</v>
       </c>
       <c r="B137" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C137" t="s">
-        <v>660</v>
+        <v>661</v>
+      </c>
+      <c r="L137">
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:12">
@@ -5974,10 +5980,10 @@
         <v>149</v>
       </c>
       <c r="B138" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C138" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="139" spans="1:12">
@@ -5985,10 +5991,10 @@
         <v>150</v>
       </c>
       <c r="B139" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C139" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="140" spans="1:12">
@@ -5996,10 +6002,10 @@
         <v>151</v>
       </c>
       <c r="B140" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C140" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="141" spans="1:12">
@@ -6007,10 +6013,10 @@
         <v>152</v>
       </c>
       <c r="B141" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C141" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="142" spans="1:12">
@@ -6018,13 +6024,10 @@
         <v>153</v>
       </c>
       <c r="B142" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C142" t="s">
-        <v>665</v>
-      </c>
-      <c r="H142" t="s">
-        <v>1141</v>
+        <v>666</v>
       </c>
     </row>
     <row r="143" spans="1:12">
@@ -6032,10 +6035,13 @@
         <v>154</v>
       </c>
       <c r="B143" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C143" t="s">
-        <v>666</v>
+        <v>667</v>
+      </c>
+      <c r="H143" t="s">
+        <v>1143</v>
       </c>
     </row>
     <row r="144" spans="1:12">
@@ -6043,10 +6049,10 @@
         <v>155</v>
       </c>
       <c r="B144" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C144" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -6054,16 +6060,10 @@
         <v>156</v>
       </c>
       <c r="B145" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C145" t="s">
-        <v>668</v>
-      </c>
-      <c r="G145" t="s">
-        <v>1088</v>
-      </c>
-      <c r="I145" t="s">
-        <v>1177</v>
+        <v>669</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -6071,10 +6071,16 @@
         <v>157</v>
       </c>
       <c r="B146" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C146" t="s">
-        <v>669</v>
+        <v>670</v>
+      </c>
+      <c r="G146" t="s">
+        <v>1090</v>
+      </c>
+      <c r="I146" t="s">
+        <v>1179</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -6082,10 +6088,10 @@
         <v>158</v>
       </c>
       <c r="B147" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C147" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -6093,16 +6099,10 @@
         <v>159</v>
       </c>
       <c r="B148" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C148" t="s">
-        <v>671</v>
-      </c>
-      <c r="G148" t="s">
-        <v>1089</v>
-      </c>
-      <c r="I148" t="s">
-        <v>1178</v>
+        <v>672</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -6110,10 +6110,16 @@
         <v>160</v>
       </c>
       <c r="B149" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C149" t="s">
-        <v>672</v>
+        <v>673</v>
+      </c>
+      <c r="G149" t="s">
+        <v>1091</v>
+      </c>
+      <c r="I149" t="s">
+        <v>1180</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -6121,10 +6127,10 @@
         <v>161</v>
       </c>
       <c r="B150" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C150" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -6132,13 +6138,10 @@
         <v>162</v>
       </c>
       <c r="B151" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C151" t="s">
-        <v>674</v>
-      </c>
-      <c r="I151" t="s">
-        <v>1169</v>
+        <v>675</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -6146,10 +6149,13 @@
         <v>163</v>
       </c>
       <c r="B152" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C152" t="s">
-        <v>675</v>
+        <v>676</v>
+      </c>
+      <c r="I152" t="s">
+        <v>1171</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -6157,10 +6163,10 @@
         <v>164</v>
       </c>
       <c r="B153" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C153" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -6168,10 +6174,10 @@
         <v>165</v>
       </c>
       <c r="B154" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C154" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -6179,10 +6185,10 @@
         <v>166</v>
       </c>
       <c r="B155" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C155" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -6190,13 +6196,10 @@
         <v>167</v>
       </c>
       <c r="B156" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C156" t="s">
-        <v>679</v>
-      </c>
-      <c r="I156" t="s">
-        <v>1179</v>
+        <v>680</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -6204,10 +6207,13 @@
         <v>168</v>
       </c>
       <c r="B157" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C157" t="s">
-        <v>680</v>
+        <v>681</v>
+      </c>
+      <c r="I157" t="s">
+        <v>1181</v>
       </c>
     </row>
     <row r="158" spans="1:9">
@@ -6215,16 +6221,10 @@
         <v>169</v>
       </c>
       <c r="B158" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C158" t="s">
-        <v>681</v>
-      </c>
-      <c r="G158" t="s">
-        <v>1090</v>
-      </c>
-      <c r="I158" t="s">
-        <v>1171</v>
+        <v>682</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -6232,16 +6232,16 @@
         <v>170</v>
       </c>
       <c r="B159" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C159" t="s">
-        <v>682</v>
-      </c>
-      <c r="E159" t="s">
-        <v>1024</v>
-      </c>
-      <c r="H159" t="s">
-        <v>1142</v>
+        <v>683</v>
+      </c>
+      <c r="G159" t="s">
+        <v>1092</v>
+      </c>
+      <c r="I159" t="s">
+        <v>1173</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -6249,13 +6249,16 @@
         <v>171</v>
       </c>
       <c r="B160" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C160" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="E160" t="s">
-        <v>682</v>
+        <v>1026</v>
+      </c>
+      <c r="H160" t="s">
+        <v>1144</v>
       </c>
     </row>
     <row r="161" spans="1:12">
@@ -6263,13 +6266,13 @@
         <v>172</v>
       </c>
       <c r="B161" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C161" t="s">
+        <v>685</v>
+      </c>
+      <c r="E161" t="s">
         <v>684</v>
-      </c>
-      <c r="H161" t="s">
-        <v>1143</v>
       </c>
     </row>
     <row r="162" spans="1:12">
@@ -6277,10 +6280,13 @@
         <v>173</v>
       </c>
       <c r="B162" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C162" t="s">
-        <v>685</v>
+        <v>686</v>
+      </c>
+      <c r="H162" t="s">
+        <v>1145</v>
       </c>
     </row>
     <row r="163" spans="1:12">
@@ -6288,16 +6294,10 @@
         <v>174</v>
       </c>
       <c r="B163" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C163" t="s">
-        <v>686</v>
-      </c>
-      <c r="G163" t="s">
-        <v>1091</v>
-      </c>
-      <c r="I163" t="s">
-        <v>1177</v>
+        <v>687</v>
       </c>
     </row>
     <row r="164" spans="1:12">
@@ -6305,10 +6305,16 @@
         <v>175</v>
       </c>
       <c r="B164" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C164" t="s">
-        <v>687</v>
+        <v>688</v>
+      </c>
+      <c r="G164" t="s">
+        <v>1093</v>
+      </c>
+      <c r="I164" t="s">
+        <v>1179</v>
       </c>
     </row>
     <row r="165" spans="1:12">
@@ -6316,10 +6322,10 @@
         <v>176</v>
       </c>
       <c r="B165" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C165" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="166" spans="1:12">
@@ -6327,13 +6333,10 @@
         <v>177</v>
       </c>
       <c r="B166" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C166" t="s">
-        <v>689</v>
-      </c>
-      <c r="L166">
-        <v>1</v>
+        <v>690</v>
       </c>
     </row>
     <row r="167" spans="1:12">
@@ -6341,13 +6344,13 @@
         <v>178</v>
       </c>
       <c r="B167" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C167" t="s">
-        <v>690</v>
-      </c>
-      <c r="I167" t="s">
-        <v>1171</v>
+        <v>691</v>
+      </c>
+      <c r="L167">
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:12">
@@ -6355,16 +6358,13 @@
         <v>179</v>
       </c>
       <c r="B168" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C168" t="s">
-        <v>691</v>
-      </c>
-      <c r="G168" t="s">
-        <v>1092</v>
+        <v>692</v>
       </c>
       <c r="I168" t="s">
-        <v>1165</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="169" spans="1:12">
@@ -6372,10 +6372,16 @@
         <v>180</v>
       </c>
       <c r="B169" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C169" t="s">
-        <v>692</v>
+        <v>693</v>
+      </c>
+      <c r="G169" t="s">
+        <v>1094</v>
+      </c>
+      <c r="I169" t="s">
+        <v>1167</v>
       </c>
     </row>
     <row r="170" spans="1:12">
@@ -6383,10 +6389,10 @@
         <v>181</v>
       </c>
       <c r="B170" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C170" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="171" spans="1:12">
@@ -6394,10 +6400,10 @@
         <v>182</v>
       </c>
       <c r="B171" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C171" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="172" spans="1:12">
@@ -6405,13 +6411,10 @@
         <v>183</v>
       </c>
       <c r="B172" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C172" t="s">
-        <v>695</v>
-      </c>
-      <c r="I172" t="s">
-        <v>1180</v>
+        <v>696</v>
       </c>
     </row>
     <row r="173" spans="1:12">
@@ -6419,13 +6422,13 @@
         <v>184</v>
       </c>
       <c r="B173" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C173" t="s">
-        <v>696</v>
-      </c>
-      <c r="L173">
-        <v>1</v>
+        <v>697</v>
+      </c>
+      <c r="I173" t="s">
+        <v>1182</v>
       </c>
     </row>
     <row r="174" spans="1:12">
@@ -6433,10 +6436,13 @@
         <v>185</v>
       </c>
       <c r="B174" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C174" t="s">
-        <v>697</v>
+        <v>698</v>
+      </c>
+      <c r="L174">
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:12">
@@ -6444,10 +6450,10 @@
         <v>186</v>
       </c>
       <c r="B175" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C175" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="176" spans="1:12">
@@ -6455,10 +6461,10 @@
         <v>187</v>
       </c>
       <c r="B176" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C176" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="177" spans="1:9">
@@ -6466,13 +6472,10 @@
         <v>188</v>
       </c>
       <c r="B177" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C177" t="s">
-        <v>700</v>
-      </c>
-      <c r="I177" t="s">
-        <v>1179</v>
+        <v>701</v>
       </c>
     </row>
     <row r="178" spans="1:9">
@@ -6480,10 +6483,13 @@
         <v>189</v>
       </c>
       <c r="B178" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C178" t="s">
-        <v>701</v>
+        <v>702</v>
+      </c>
+      <c r="I178" t="s">
+        <v>1181</v>
       </c>
     </row>
     <row r="179" spans="1:9">
@@ -6491,10 +6497,10 @@
         <v>190</v>
       </c>
       <c r="B179" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C179" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="180" spans="1:9">
@@ -6502,10 +6508,10 @@
         <v>191</v>
       </c>
       <c r="B180" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C180" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="181" spans="1:9">
@@ -6513,10 +6519,10 @@
         <v>192</v>
       </c>
       <c r="B181" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C181" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row r="182" spans="1:9">
@@ -6524,10 +6530,10 @@
         <v>193</v>
       </c>
       <c r="B182" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C182" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="183" spans="1:9">
@@ -6535,10 +6541,10 @@
         <v>194</v>
       </c>
       <c r="B183" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C183" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="184" spans="1:9">
@@ -6546,16 +6552,10 @@
         <v>195</v>
       </c>
       <c r="B184" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C184" t="s">
-        <v>707</v>
-      </c>
-      <c r="G184" t="s">
-        <v>1093</v>
-      </c>
-      <c r="I184" t="s">
-        <v>1165</v>
+        <v>708</v>
       </c>
     </row>
     <row r="185" spans="1:9">
@@ -6563,10 +6563,16 @@
         <v>196</v>
       </c>
       <c r="B185" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C185" t="s">
-        <v>708</v>
+        <v>709</v>
+      </c>
+      <c r="G185" t="s">
+        <v>1095</v>
+      </c>
+      <c r="I185" t="s">
+        <v>1167</v>
       </c>
     </row>
     <row r="186" spans="1:9">
@@ -6574,10 +6580,10 @@
         <v>197</v>
       </c>
       <c r="B186" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C186" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="187" spans="1:9">
@@ -6585,13 +6591,10 @@
         <v>198</v>
       </c>
       <c r="B187" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C187" t="s">
-        <v>710</v>
-      </c>
-      <c r="I187" t="s">
-        <v>1171</v>
+        <v>711</v>
       </c>
     </row>
     <row r="188" spans="1:9">
@@ -6599,16 +6602,13 @@
         <v>199</v>
       </c>
       <c r="B188" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C188" t="s">
-        <v>711</v>
-      </c>
-      <c r="G188" t="s">
-        <v>1094</v>
+        <v>712</v>
       </c>
       <c r="I188" t="s">
-        <v>1178</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="189" spans="1:9">
@@ -6616,10 +6616,16 @@
         <v>200</v>
       </c>
       <c r="B189" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C189" t="s">
-        <v>712</v>
+        <v>713</v>
+      </c>
+      <c r="G189" t="s">
+        <v>1096</v>
+      </c>
+      <c r="I189" t="s">
+        <v>1180</v>
       </c>
     </row>
     <row r="190" spans="1:9">
@@ -6627,10 +6633,10 @@
         <v>201</v>
       </c>
       <c r="B190" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C190" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="191" spans="1:9">
@@ -6638,13 +6644,10 @@
         <v>202</v>
       </c>
       <c r="B191" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C191" t="s">
-        <v>714</v>
-      </c>
-      <c r="E191" t="s">
-        <v>1025</v>
+        <v>715</v>
       </c>
     </row>
     <row r="192" spans="1:9">
@@ -6652,10 +6655,13 @@
         <v>203</v>
       </c>
       <c r="B192" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C192" t="s">
-        <v>715</v>
+        <v>716</v>
+      </c>
+      <c r="E192" t="s">
+        <v>1027</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -6663,10 +6669,10 @@
         <v>204</v>
       </c>
       <c r="B193" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C193" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -6674,10 +6680,10 @@
         <v>205</v>
       </c>
       <c r="B194" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C194" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -6685,10 +6691,10 @@
         <v>206</v>
       </c>
       <c r="B195" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C195" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -6696,10 +6702,10 @@
         <v>207</v>
       </c>
       <c r="B196" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C196" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -6707,10 +6713,10 @@
         <v>208</v>
       </c>
       <c r="B197" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C197" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -6718,10 +6724,10 @@
         <v>209</v>
       </c>
       <c r="B198" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C198" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -6729,10 +6735,10 @@
         <v>210</v>
       </c>
       <c r="B199" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C199" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -6740,10 +6746,10 @@
         <v>211</v>
       </c>
       <c r="B200" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C200" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -6751,10 +6757,10 @@
         <v>212</v>
       </c>
       <c r="B201" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C201" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -6762,10 +6768,10 @@
         <v>213</v>
       </c>
       <c r="B202" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C202" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -6776,7 +6782,7 @@
         <v>515</v>
       </c>
       <c r="C203" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -6784,10 +6790,10 @@
         <v>215</v>
       </c>
       <c r="B204" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C204" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -6795,10 +6801,10 @@
         <v>216</v>
       </c>
       <c r="B205" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C205" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -6806,10 +6812,10 @@
         <v>217</v>
       </c>
       <c r="B206" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C206" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -6817,10 +6823,10 @@
         <v>218</v>
       </c>
       <c r="B207" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C207" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -6828,178 +6834,178 @@
         <v>219</v>
       </c>
       <c r="B208" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C208" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="209" spans="1:13">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
       <c r="A209" s="1" t="s">
         <v>220</v>
       </c>
       <c r="B209" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C209" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="210" spans="1:13">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
       <c r="A210" s="1" t="s">
         <v>221</v>
       </c>
       <c r="B210" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C210" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="211" spans="1:13">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
       <c r="A211" s="1" t="s">
         <v>222</v>
       </c>
       <c r="B211" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C211" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="212" spans="1:13">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
       <c r="A212" s="1" t="s">
         <v>223</v>
       </c>
       <c r="B212" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C212" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="213" spans="1:13">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
       <c r="A213" s="1" t="s">
         <v>224</v>
       </c>
       <c r="B213" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C213" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="214" spans="1:13">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
       <c r="A214" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B214" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C214" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="215" spans="1:13">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
       <c r="A215" s="1" t="s">
         <v>226</v>
       </c>
       <c r="B215" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C215" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="216" spans="1:13">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
       <c r="A216" s="1" t="s">
         <v>227</v>
       </c>
       <c r="B216" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C216" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="217" spans="1:13">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
       <c r="A217" s="1" t="s">
         <v>228</v>
       </c>
       <c r="B217" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C217" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="218" spans="1:13">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
       <c r="A218" s="1" t="s">
         <v>229</v>
       </c>
       <c r="B218" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C218" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="219" spans="1:13">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
       <c r="A219" s="1" t="s">
         <v>230</v>
       </c>
       <c r="B219" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C219" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="220" spans="1:13">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
       <c r="A220" s="1" t="s">
         <v>231</v>
       </c>
       <c r="B220" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C220" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="221" spans="1:13">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
       <c r="A221" s="1" t="s">
         <v>232</v>
       </c>
       <c r="B221" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C221" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="222" spans="1:13">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
       <c r="A222" s="1" t="s">
         <v>233</v>
       </c>
       <c r="B222" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C222" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="223" spans="1:13">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
       <c r="A223" s="1" t="s">
         <v>234</v>
       </c>
       <c r="B223" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C223" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="224" spans="1:13">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
       <c r="A224" s="1" t="s">
         <v>235</v>
       </c>
@@ -7007,186 +7013,186 @@
         <v>516</v>
       </c>
       <c r="C224" t="s">
-        <v>747</v>
-      </c>
-      <c r="M224">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="225" spans="1:13">
       <c r="A225" s="1" t="s">
         <v>236</v>
       </c>
       <c r="B225" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C225" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3">
+        <v>749</v>
+      </c>
+      <c r="M225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:13">
       <c r="A226" s="1" t="s">
         <v>237</v>
       </c>
       <c r="B226" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C226" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="227" spans="1:13">
       <c r="A227" s="1" t="s">
         <v>238</v>
       </c>
       <c r="B227" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C227" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="228" spans="1:13">
       <c r="A228" s="1" t="s">
         <v>239</v>
       </c>
       <c r="B228" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C228" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="229" spans="1:13">
       <c r="A229" s="1" t="s">
         <v>240</v>
       </c>
       <c r="B229" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C229" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="230" spans="1:13">
       <c r="A230" s="1" t="s">
         <v>241</v>
       </c>
       <c r="B230" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C230" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="231" spans="1:13">
       <c r="A231" s="1" t="s">
         <v>242</v>
       </c>
       <c r="B231" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C231" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="232" spans="1:13">
       <c r="A232" s="1" t="s">
         <v>243</v>
       </c>
       <c r="B232" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C232" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="233" spans="1:13">
       <c r="A233" s="1" t="s">
         <v>244</v>
       </c>
       <c r="B233" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C233" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="234" spans="1:13">
       <c r="A234" s="1" t="s">
         <v>245</v>
       </c>
       <c r="B234" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C234" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="235" spans="1:13">
       <c r="A235" s="1" t="s">
         <v>246</v>
       </c>
       <c r="B235" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C235" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="236" spans="1:13">
       <c r="A236" s="1" t="s">
         <v>247</v>
       </c>
       <c r="B236" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C236" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="237" spans="1:13">
       <c r="A237" s="1" t="s">
         <v>248</v>
       </c>
       <c r="B237" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C237" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="238" spans="1:13">
       <c r="A238" s="1" t="s">
         <v>249</v>
       </c>
       <c r="B238" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C238" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="239" spans="1:13">
       <c r="A239" s="1" t="s">
         <v>250</v>
       </c>
       <c r="B239" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C239" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="240" spans="1:13">
       <c r="A240" s="1" t="s">
         <v>251</v>
       </c>
       <c r="B240" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C240" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="241" spans="1:9">
@@ -7194,13 +7200,10 @@
         <v>252</v>
       </c>
       <c r="B241" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C241" t="s">
-        <v>764</v>
-      </c>
-      <c r="E241" t="s">
-        <v>1026</v>
+        <v>765</v>
       </c>
     </row>
     <row r="242" spans="1:9">
@@ -7208,13 +7211,13 @@
         <v>253</v>
       </c>
       <c r="B242" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C242" t="s">
-        <v>765</v>
-      </c>
-      <c r="G242" t="s">
-        <v>1038</v>
+        <v>766</v>
+      </c>
+      <c r="E242" t="s">
+        <v>1028</v>
       </c>
     </row>
     <row r="243" spans="1:9">
@@ -7222,10 +7225,13 @@
         <v>254</v>
       </c>
       <c r="B243" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C243" t="s">
-        <v>766</v>
+        <v>767</v>
+      </c>
+      <c r="G243" t="s">
+        <v>1040</v>
       </c>
     </row>
     <row r="244" spans="1:9">
@@ -7233,10 +7239,10 @@
         <v>255</v>
       </c>
       <c r="B244" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C244" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="245" spans="1:9">
@@ -7244,10 +7250,10 @@
         <v>256</v>
       </c>
       <c r="B245" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C245" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="246" spans="1:9">
@@ -7255,10 +7261,10 @@
         <v>257</v>
       </c>
       <c r="B246" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C246" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="247" spans="1:9">
@@ -7266,10 +7272,10 @@
         <v>258</v>
       </c>
       <c r="B247" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C247" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="248" spans="1:9">
@@ -7277,10 +7283,10 @@
         <v>259</v>
       </c>
       <c r="B248" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C248" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="249" spans="1:9">
@@ -7288,10 +7294,10 @@
         <v>260</v>
       </c>
       <c r="B249" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C249" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="250" spans="1:9">
@@ -7299,10 +7305,10 @@
         <v>261</v>
       </c>
       <c r="B250" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C250" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="251" spans="1:9">
@@ -7310,10 +7316,10 @@
         <v>262</v>
       </c>
       <c r="B251" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C251" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="252" spans="1:9">
@@ -7321,16 +7327,10 @@
         <v>263</v>
       </c>
       <c r="B252" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C252" t="s">
-        <v>775</v>
-      </c>
-      <c r="G252" t="s">
-        <v>1095</v>
-      </c>
-      <c r="I252" t="s">
-        <v>1169</v>
+        <v>776</v>
       </c>
     </row>
     <row r="253" spans="1:9">
@@ -7338,10 +7338,16 @@
         <v>264</v>
       </c>
       <c r="B253" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C253" t="s">
-        <v>776</v>
+        <v>777</v>
+      </c>
+      <c r="G253" t="s">
+        <v>1097</v>
+      </c>
+      <c r="I253" t="s">
+        <v>1171</v>
       </c>
     </row>
     <row r="254" spans="1:9">
@@ -7349,10 +7355,10 @@
         <v>265</v>
       </c>
       <c r="B254" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C254" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="255" spans="1:9">
@@ -7360,10 +7366,10 @@
         <v>266</v>
       </c>
       <c r="B255" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C255" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="256" spans="1:9">
@@ -7374,10 +7380,7 @@
         <v>517</v>
       </c>
       <c r="C256" t="s">
-        <v>779</v>
-      </c>
-      <c r="G256" t="s">
-        <v>1096</v>
+        <v>780</v>
       </c>
     </row>
     <row r="257" spans="1:9">
@@ -7388,13 +7391,10 @@
         <v>518</v>
       </c>
       <c r="C257" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="G257" t="s">
-        <v>1097</v>
-      </c>
-      <c r="I257" t="s">
-        <v>1169</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="258" spans="1:9">
@@ -7402,13 +7402,16 @@
         <v>269</v>
       </c>
       <c r="B258" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C258" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="G258" t="s">
-        <v>1097</v>
+        <v>1099</v>
+      </c>
+      <c r="I258" t="s">
+        <v>1171</v>
       </c>
     </row>
     <row r="259" spans="1:9">
@@ -7416,10 +7419,13 @@
         <v>270</v>
       </c>
       <c r="B259" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C259" t="s">
-        <v>782</v>
+        <v>783</v>
+      </c>
+      <c r="G259" t="s">
+        <v>1099</v>
       </c>
     </row>
     <row r="260" spans="1:9">
@@ -7427,10 +7433,10 @@
         <v>271</v>
       </c>
       <c r="B260" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C260" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="261" spans="1:9">
@@ -7438,13 +7444,10 @@
         <v>272</v>
       </c>
       <c r="B261" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C261" t="s">
-        <v>784</v>
-      </c>
-      <c r="I261" t="s">
-        <v>1165</v>
+        <v>785</v>
       </c>
     </row>
     <row r="262" spans="1:9">
@@ -7452,10 +7455,13 @@
         <v>273</v>
       </c>
       <c r="B262" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C262" t="s">
-        <v>785</v>
+        <v>786</v>
+      </c>
+      <c r="I262" t="s">
+        <v>1167</v>
       </c>
     </row>
     <row r="263" spans="1:9">
@@ -7463,10 +7469,10 @@
         <v>274</v>
       </c>
       <c r="B263" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C263" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="264" spans="1:9">
@@ -7474,13 +7480,10 @@
         <v>275</v>
       </c>
       <c r="B264" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C264" t="s">
-        <v>787</v>
-      </c>
-      <c r="I264" t="s">
-        <v>1181</v>
+        <v>788</v>
       </c>
     </row>
     <row r="265" spans="1:9">
@@ -7488,13 +7491,13 @@
         <v>276</v>
       </c>
       <c r="B265" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C265" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="I265" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="266" spans="1:9">
@@ -7502,13 +7505,13 @@
         <v>277</v>
       </c>
       <c r="B266" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C266" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="I266" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="267" spans="1:9">
@@ -7516,13 +7519,13 @@
         <v>278</v>
       </c>
       <c r="B267" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C267" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="I267" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="268" spans="1:9">
@@ -7530,13 +7533,13 @@
         <v>279</v>
       </c>
       <c r="B268" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C268" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="I268" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="269" spans="1:9">
@@ -7544,13 +7547,13 @@
         <v>280</v>
       </c>
       <c r="B269" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C269" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="I269" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="270" spans="1:9">
@@ -7558,13 +7561,13 @@
         <v>281</v>
       </c>
       <c r="B270" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C270" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="I270" t="s">
-        <v>1169</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="271" spans="1:9">
@@ -7575,7 +7578,10 @@
         <v>519</v>
       </c>
       <c r="C271" t="s">
-        <v>794</v>
+        <v>795</v>
+      </c>
+      <c r="I271" t="s">
+        <v>1171</v>
       </c>
     </row>
     <row r="272" spans="1:9">
@@ -7583,10 +7589,10 @@
         <v>283</v>
       </c>
       <c r="B272" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C272" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
     </row>
     <row r="273" spans="1:12">
@@ -7594,10 +7600,10 @@
         <v>284</v>
       </c>
       <c r="B273" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C273" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
     </row>
     <row r="274" spans="1:12">
@@ -7605,10 +7611,10 @@
         <v>285</v>
       </c>
       <c r="B274" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C274" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
     </row>
     <row r="275" spans="1:12">
@@ -7616,10 +7622,10 @@
         <v>286</v>
       </c>
       <c r="B275" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C275" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
     </row>
     <row r="276" spans="1:12">
@@ -7627,13 +7633,10 @@
         <v>287</v>
       </c>
       <c r="B276" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C276" t="s">
-        <v>799</v>
-      </c>
-      <c r="H276" t="s">
-        <v>1144</v>
+        <v>800</v>
       </c>
     </row>
     <row r="277" spans="1:12">
@@ -7641,10 +7644,13 @@
         <v>288</v>
       </c>
       <c r="B277" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C277" t="s">
-        <v>800</v>
+        <v>801</v>
+      </c>
+      <c r="H277" t="s">
+        <v>1146</v>
       </c>
     </row>
     <row r="278" spans="1:12">
@@ -7652,10 +7658,10 @@
         <v>289</v>
       </c>
       <c r="B278" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C278" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="279" spans="1:12">
@@ -7663,10 +7669,10 @@
         <v>290</v>
       </c>
       <c r="B279" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C279" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
     </row>
     <row r="280" spans="1:12">
@@ -7674,16 +7680,10 @@
         <v>291</v>
       </c>
       <c r="B280" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C280" t="s">
-        <v>803</v>
-      </c>
-      <c r="G280" t="s">
-        <v>1098</v>
-      </c>
-      <c r="I280" t="s">
-        <v>1182</v>
+        <v>804</v>
       </c>
     </row>
     <row r="281" spans="1:12">
@@ -7691,10 +7691,16 @@
         <v>292</v>
       </c>
       <c r="B281" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C281" t="s">
-        <v>804</v>
+        <v>805</v>
+      </c>
+      <c r="G281" t="s">
+        <v>1100</v>
+      </c>
+      <c r="I281" t="s">
+        <v>1184</v>
       </c>
     </row>
     <row r="282" spans="1:12">
@@ -7702,10 +7708,10 @@
         <v>293</v>
       </c>
       <c r="B282" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C282" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
     </row>
     <row r="283" spans="1:12">
@@ -7713,13 +7719,10 @@
         <v>294</v>
       </c>
       <c r="B283" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C283" t="s">
-        <v>806</v>
-      </c>
-      <c r="L283">
-        <v>1</v>
+        <v>807</v>
       </c>
     </row>
     <row r="284" spans="1:12">
@@ -7727,13 +7730,13 @@
         <v>295</v>
       </c>
       <c r="B284" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C284" t="s">
-        <v>807</v>
-      </c>
-      <c r="G284" t="s">
-        <v>1099</v>
+        <v>808</v>
+      </c>
+      <c r="L284">
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:12">
@@ -7741,13 +7744,13 @@
         <v>296</v>
       </c>
       <c r="B285" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C285" t="s">
-        <v>808</v>
-      </c>
-      <c r="L285">
-        <v>1</v>
+        <v>809</v>
+      </c>
+      <c r="G285" t="s">
+        <v>1101</v>
       </c>
     </row>
     <row r="286" spans="1:12">
@@ -7755,10 +7758,13 @@
         <v>297</v>
       </c>
       <c r="B286" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C286" t="s">
-        <v>809</v>
+        <v>810</v>
+      </c>
+      <c r="L286">
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:12">
@@ -7766,10 +7772,10 @@
         <v>298</v>
       </c>
       <c r="B287" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C287" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="288" spans="1:12">
@@ -7777,10 +7783,10 @@
         <v>299</v>
       </c>
       <c r="B288" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C288" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
     </row>
     <row r="289" spans="1:12">
@@ -7788,10 +7794,10 @@
         <v>300</v>
       </c>
       <c r="B289" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C289" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
     </row>
     <row r="290" spans="1:12">
@@ -7799,10 +7805,10 @@
         <v>301</v>
       </c>
       <c r="B290" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C290" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
     </row>
     <row r="291" spans="1:12">
@@ -7810,13 +7816,10 @@
         <v>302</v>
       </c>
       <c r="B291" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C291" t="s">
-        <v>814</v>
-      </c>
-      <c r="L291">
-        <v>1</v>
+        <v>815</v>
       </c>
     </row>
     <row r="292" spans="1:12">
@@ -7827,7 +7830,10 @@
         <v>520</v>
       </c>
       <c r="C292" t="s">
-        <v>815</v>
+        <v>816</v>
+      </c>
+      <c r="L292">
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:12">
@@ -7835,10 +7841,10 @@
         <v>304</v>
       </c>
       <c r="B293" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C293" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
     </row>
     <row r="294" spans="1:12">
@@ -7846,16 +7852,10 @@
         <v>305</v>
       </c>
       <c r="B294" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C294" t="s">
-        <v>817</v>
-      </c>
-      <c r="G294" t="s">
-        <v>1100</v>
-      </c>
-      <c r="I294" t="s">
-        <v>1176</v>
+        <v>818</v>
       </c>
     </row>
     <row r="295" spans="1:12">
@@ -7863,10 +7863,16 @@
         <v>306</v>
       </c>
       <c r="B295" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C295" t="s">
-        <v>818</v>
+        <v>819</v>
+      </c>
+      <c r="G295" t="s">
+        <v>1102</v>
+      </c>
+      <c r="I295" t="s">
+        <v>1178</v>
       </c>
     </row>
     <row r="296" spans="1:12">
@@ -7874,10 +7880,10 @@
         <v>307</v>
       </c>
       <c r="B296" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C296" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="297" spans="1:12">
@@ -7885,16 +7891,10 @@
         <v>308</v>
       </c>
       <c r="B297" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C297" t="s">
-        <v>820</v>
-      </c>
-      <c r="G297" t="s">
-        <v>1101</v>
-      </c>
-      <c r="I297" t="s">
-        <v>1176</v>
+        <v>821</v>
       </c>
     </row>
     <row r="298" spans="1:12">
@@ -7902,16 +7902,16 @@
         <v>309</v>
       </c>
       <c r="B298" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C298" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="G298" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="I298" t="s">
-        <v>1171</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="299" spans="1:12">
@@ -7919,10 +7919,16 @@
         <v>310</v>
       </c>
       <c r="B299" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C299" t="s">
-        <v>822</v>
+        <v>823</v>
+      </c>
+      <c r="G299" t="s">
+        <v>1104</v>
+      </c>
+      <c r="I299" t="s">
+        <v>1173</v>
       </c>
     </row>
     <row r="300" spans="1:12">
@@ -7933,7 +7939,7 @@
         <v>521</v>
       </c>
       <c r="C300" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
     </row>
     <row r="301" spans="1:12">
@@ -7941,10 +7947,10 @@
         <v>312</v>
       </c>
       <c r="B301" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C301" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
     </row>
     <row r="302" spans="1:12">
@@ -7952,10 +7958,10 @@
         <v>313</v>
       </c>
       <c r="B302" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C302" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
     </row>
     <row r="303" spans="1:12">
@@ -7963,10 +7969,10 @@
         <v>314</v>
       </c>
       <c r="B303" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C303" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
     </row>
     <row r="304" spans="1:12">
@@ -7974,10 +7980,10 @@
         <v>315</v>
       </c>
       <c r="B304" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C304" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -7985,10 +7991,10 @@
         <v>316</v>
       </c>
       <c r="B305" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C305" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -7996,10 +8002,10 @@
         <v>317</v>
       </c>
       <c r="B306" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C306" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -8007,10 +8013,10 @@
         <v>318</v>
       </c>
       <c r="B307" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C307" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -8018,10 +8024,10 @@
         <v>319</v>
       </c>
       <c r="B308" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C308" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -8029,10 +8035,10 @@
         <v>320</v>
       </c>
       <c r="B309" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C309" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -8040,10 +8046,10 @@
         <v>321</v>
       </c>
       <c r="B310" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C310" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -8051,10 +8057,10 @@
         <v>322</v>
       </c>
       <c r="B311" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C311" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -8062,10 +8068,10 @@
         <v>323</v>
       </c>
       <c r="B312" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C312" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -8073,10 +8079,10 @@
         <v>324</v>
       </c>
       <c r="B313" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C313" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -8084,10 +8090,10 @@
         <v>325</v>
       </c>
       <c r="B314" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C314" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -8095,10 +8101,10 @@
         <v>326</v>
       </c>
       <c r="B315" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C315" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -8106,10 +8112,10 @@
         <v>327</v>
       </c>
       <c r="B316" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C316" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -8117,10 +8123,10 @@
         <v>328</v>
       </c>
       <c r="B317" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C317" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -8128,10 +8134,10 @@
         <v>329</v>
       </c>
       <c r="B318" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C318" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -8139,10 +8145,10 @@
         <v>330</v>
       </c>
       <c r="B319" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C319" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -8150,10 +8156,10 @@
         <v>331</v>
       </c>
       <c r="B320" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C320" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -8161,10 +8167,10 @@
         <v>332</v>
       </c>
       <c r="B321" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C321" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -8172,10 +8178,10 @@
         <v>333</v>
       </c>
       <c r="B322" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C322" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -8183,10 +8189,10 @@
         <v>334</v>
       </c>
       <c r="B323" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C323" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -8194,10 +8200,10 @@
         <v>335</v>
       </c>
       <c r="B324" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C324" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -8205,10 +8211,10 @@
         <v>336</v>
       </c>
       <c r="B325" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C325" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -8216,10 +8222,10 @@
         <v>337</v>
       </c>
       <c r="B326" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C326" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -8227,10 +8233,10 @@
         <v>338</v>
       </c>
       <c r="B327" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C327" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -8238,10 +8244,10 @@
         <v>339</v>
       </c>
       <c r="B328" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C328" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -8249,10 +8255,10 @@
         <v>340</v>
       </c>
       <c r="B329" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C329" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -8260,10 +8266,10 @@
         <v>341</v>
       </c>
       <c r="B330" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C330" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -8271,10 +8277,10 @@
         <v>342</v>
       </c>
       <c r="B331" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C331" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -8282,10 +8288,10 @@
         <v>343</v>
       </c>
       <c r="B332" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C332" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -8293,10 +8299,10 @@
         <v>344</v>
       </c>
       <c r="B333" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C333" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -8304,10 +8310,10 @@
         <v>345</v>
       </c>
       <c r="B334" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C334" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -8315,10 +8321,10 @@
         <v>346</v>
       </c>
       <c r="B335" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C335" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -8326,10 +8332,10 @@
         <v>347</v>
       </c>
       <c r="B336" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C336" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -8337,10 +8343,10 @@
         <v>348</v>
       </c>
       <c r="B337" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C337" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -8348,10 +8354,10 @@
         <v>349</v>
       </c>
       <c r="B338" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C338" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -8359,10 +8365,10 @@
         <v>350</v>
       </c>
       <c r="B339" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C339" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -8370,10 +8376,10 @@
         <v>351</v>
       </c>
       <c r="B340" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C340" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -8381,10 +8387,10 @@
         <v>352</v>
       </c>
       <c r="B341" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C341" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -8392,10 +8398,10 @@
         <v>353</v>
       </c>
       <c r="B342" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C342" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -8403,10 +8409,10 @@
         <v>354</v>
       </c>
       <c r="B343" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C343" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -8414,10 +8420,10 @@
         <v>355</v>
       </c>
       <c r="B344" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C344" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -8425,10 +8431,10 @@
         <v>356</v>
       </c>
       <c r="B345" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C345" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -8436,10 +8442,10 @@
         <v>357</v>
       </c>
       <c r="B346" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C346" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -8447,10 +8453,10 @@
         <v>358</v>
       </c>
       <c r="B347" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C347" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -8458,10 +8464,10 @@
         <v>359</v>
       </c>
       <c r="B348" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C348" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -8469,10 +8475,10 @@
         <v>360</v>
       </c>
       <c r="B349" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C349" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -8480,10 +8486,10 @@
         <v>361</v>
       </c>
       <c r="B350" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C350" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -8491,10 +8497,10 @@
         <v>362</v>
       </c>
       <c r="B351" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C351" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -8502,10 +8508,10 @@
         <v>363</v>
       </c>
       <c r="B352" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C352" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -8513,10 +8519,10 @@
         <v>364</v>
       </c>
       <c r="B353" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C353" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -8524,10 +8530,10 @@
         <v>365</v>
       </c>
       <c r="B354" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C354" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -8535,10 +8541,10 @@
         <v>366</v>
       </c>
       <c r="B355" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C355" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -8546,10 +8552,10 @@
         <v>367</v>
       </c>
       <c r="B356" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C356" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -8557,10 +8563,10 @@
         <v>368</v>
       </c>
       <c r="B357" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C357" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -8568,10 +8574,10 @@
         <v>369</v>
       </c>
       <c r="B358" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C358" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -8579,10 +8585,10 @@
         <v>370</v>
       </c>
       <c r="B359" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C359" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -8590,10 +8596,10 @@
         <v>371</v>
       </c>
       <c r="B360" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C360" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -8601,10 +8607,10 @@
         <v>372</v>
       </c>
       <c r="B361" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C361" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -8612,10 +8618,10 @@
         <v>373</v>
       </c>
       <c r="B362" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C362" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -8623,10 +8629,10 @@
         <v>374</v>
       </c>
       <c r="B363" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C363" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -8634,10 +8640,10 @@
         <v>375</v>
       </c>
       <c r="B364" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C364" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -8645,10 +8651,10 @@
         <v>376</v>
       </c>
       <c r="B365" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C365" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -8656,10 +8662,10 @@
         <v>377</v>
       </c>
       <c r="B366" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C366" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -8667,10 +8673,10 @@
         <v>378</v>
       </c>
       <c r="B367" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C367" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -8678,10 +8684,10 @@
         <v>379</v>
       </c>
       <c r="B368" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C368" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
     <row r="369" spans="1:9">
@@ -8689,10 +8695,10 @@
         <v>380</v>
       </c>
       <c r="B369" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C369" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
     <row r="370" spans="1:9">
@@ -8700,10 +8706,10 @@
         <v>381</v>
       </c>
       <c r="B370" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C370" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
     </row>
     <row r="371" spans="1:9">
@@ -8711,10 +8717,10 @@
         <v>382</v>
       </c>
       <c r="B371" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C371" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
     </row>
     <row r="372" spans="1:9">
@@ -8722,10 +8728,10 @@
         <v>383</v>
       </c>
       <c r="B372" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C372" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="373" spans="1:9">
@@ -8733,10 +8739,10 @@
         <v>384</v>
       </c>
       <c r="B373" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C373" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
     </row>
     <row r="374" spans="1:9">
@@ -8744,10 +8750,10 @@
         <v>385</v>
       </c>
       <c r="B374" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C374" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="375" spans="1:9">
@@ -8755,10 +8761,10 @@
         <v>386</v>
       </c>
       <c r="B375" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C375" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="376" spans="1:9">
@@ -8766,10 +8772,10 @@
         <v>387</v>
       </c>
       <c r="B376" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C376" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
     </row>
     <row r="377" spans="1:9">
@@ -8777,10 +8783,10 @@
         <v>388</v>
       </c>
       <c r="B377" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C377" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
     </row>
     <row r="378" spans="1:9">
@@ -8788,10 +8794,10 @@
         <v>389</v>
       </c>
       <c r="B378" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C378" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
     </row>
     <row r="379" spans="1:9">
@@ -8802,10 +8808,7 @@
         <v>522</v>
       </c>
       <c r="C379" t="s">
-        <v>902</v>
-      </c>
-      <c r="H379" t="s">
-        <v>1145</v>
+        <v>903</v>
       </c>
     </row>
     <row r="380" spans="1:9">
@@ -8813,10 +8816,13 @@
         <v>391</v>
       </c>
       <c r="B380" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C380" t="s">
-        <v>903</v>
+        <v>904</v>
+      </c>
+      <c r="H380" t="s">
+        <v>1147</v>
       </c>
     </row>
     <row r="381" spans="1:9">
@@ -8824,10 +8830,10 @@
         <v>392</v>
       </c>
       <c r="B381" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C381" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="382" spans="1:9">
@@ -8835,13 +8841,10 @@
         <v>393</v>
       </c>
       <c r="B382" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C382" t="s">
-        <v>905</v>
-      </c>
-      <c r="H382" t="s">
-        <v>1146</v>
+        <v>906</v>
       </c>
     </row>
     <row r="383" spans="1:9">
@@ -8849,13 +8852,13 @@
         <v>394</v>
       </c>
       <c r="B383" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C383" t="s">
-        <v>906</v>
-      </c>
-      <c r="I383" t="s">
-        <v>1169</v>
+        <v>907</v>
+      </c>
+      <c r="H383" t="s">
+        <v>1148</v>
       </c>
     </row>
     <row r="384" spans="1:9">
@@ -8863,213 +8866,213 @@
         <v>395</v>
       </c>
       <c r="B384" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C384" t="s">
-        <v>907</v>
-      </c>
-      <c r="H384" t="s">
-        <v>1147</v>
-      </c>
-    </row>
-    <row r="385" spans="1:12">
+        <v>908</v>
+      </c>
+      <c r="I384" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="385" spans="1:8">
       <c r="A385" s="1" t="s">
         <v>396</v>
       </c>
       <c r="B385" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C385" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="386" spans="1:12">
+        <v>909</v>
+      </c>
+      <c r="H385" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="386" spans="1:8">
       <c r="A386" s="1" t="s">
         <v>397</v>
       </c>
       <c r="B386" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C386" t="s">
-        <v>909</v>
-      </c>
-      <c r="H386" t="s">
-        <v>1148</v>
-      </c>
-    </row>
-    <row r="387" spans="1:12">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="387" spans="1:8">
       <c r="A387" s="1" t="s">
         <v>398</v>
       </c>
       <c r="B387" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C387" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="388" spans="1:12">
+        <v>911</v>
+      </c>
+      <c r="H387" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="388" spans="1:8">
       <c r="A388" s="1" t="s">
         <v>399</v>
       </c>
       <c r="B388" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C388" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="389" spans="1:12">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="389" spans="1:8">
       <c r="A389" s="1" t="s">
         <v>400</v>
       </c>
       <c r="B389" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C389" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="390" spans="1:12">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="390" spans="1:8">
       <c r="A390" s="1" t="s">
         <v>401</v>
       </c>
       <c r="B390" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C390" t="s">
-        <v>913</v>
-      </c>
-      <c r="H390" t="s">
-        <v>1149</v>
-      </c>
-    </row>
-    <row r="391" spans="1:12">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="391" spans="1:8">
       <c r="A391" s="1" t="s">
         <v>402</v>
       </c>
       <c r="B391" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C391" t="s">
-        <v>914</v>
-      </c>
-      <c r="G391" t="s">
-        <v>1103</v>
+        <v>915</v>
       </c>
       <c r="H391" t="s">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="392" spans="1:12">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="392" spans="1:8">
       <c r="A392" s="1" t="s">
         <v>403</v>
       </c>
       <c r="B392" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C392" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="393" spans="1:12">
+        <v>916</v>
+      </c>
+      <c r="G392" t="s">
+        <v>1105</v>
+      </c>
+      <c r="H392" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="393" spans="1:8">
       <c r="A393" s="1" t="s">
         <v>404</v>
       </c>
       <c r="B393" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C393" t="s">
-        <v>916</v>
-      </c>
-      <c r="H393" t="s">
-        <v>1151</v>
-      </c>
-    </row>
-    <row r="394" spans="1:12">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="394" spans="1:8">
       <c r="A394" s="1" t="s">
         <v>405</v>
       </c>
       <c r="B394" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C394" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="395" spans="1:12">
+        <v>918</v>
+      </c>
+      <c r="H394" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="395" spans="1:8">
       <c r="A395" s="1" t="s">
         <v>406</v>
       </c>
       <c r="B395" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C395" t="s">
-        <v>918</v>
-      </c>
-      <c r="H395" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="396" spans="1:12">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="396" spans="1:8">
       <c r="A396" s="1" t="s">
         <v>407</v>
       </c>
       <c r="B396" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C396" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="H396" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="397" spans="1:12">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="397" spans="1:8">
       <c r="A397" s="1" t="s">
         <v>408</v>
       </c>
       <c r="B397" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C397" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="398" spans="1:12">
+        <v>921</v>
+      </c>
+      <c r="H397" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="398" spans="1:8">
       <c r="A398" s="1" t="s">
         <v>409</v>
       </c>
       <c r="B398" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C398" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="399" spans="1:12">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="399" spans="1:8">
       <c r="A399" s="1" t="s">
         <v>410</v>
       </c>
       <c r="B399" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C399" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="400" spans="1:12">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="400" spans="1:8">
       <c r="A400" s="1" t="s">
         <v>411</v>
       </c>
       <c r="B400" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C400" t="s">
-        <v>923</v>
-      </c>
-      <c r="L400">
-        <v>1</v>
+        <v>924</v>
       </c>
     </row>
     <row r="401" spans="1:12">
@@ -9077,16 +9080,13 @@
         <v>412</v>
       </c>
       <c r="B401" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C401" t="s">
-        <v>924</v>
-      </c>
-      <c r="G401" t="s">
-        <v>1104</v>
-      </c>
-      <c r="I401" t="s">
-        <v>1171</v>
+        <v>925</v>
+      </c>
+      <c r="L401">
+        <v>1</v>
       </c>
     </row>
     <row r="402" spans="1:12">
@@ -9094,16 +9094,16 @@
         <v>413</v>
       </c>
       <c r="B402" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C402" t="s">
-        <v>925</v>
-      </c>
-      <c r="E402" t="s">
-        <v>1027</v>
-      </c>
-      <c r="L402">
-        <v>1</v>
+        <v>926</v>
+      </c>
+      <c r="G402" t="s">
+        <v>1106</v>
+      </c>
+      <c r="I402" t="s">
+        <v>1173</v>
       </c>
     </row>
     <row r="403" spans="1:12">
@@ -9111,10 +9111,16 @@
         <v>414</v>
       </c>
       <c r="B403" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C403" t="s">
-        <v>926</v>
+        <v>927</v>
+      </c>
+      <c r="E403" t="s">
+        <v>1029</v>
+      </c>
+      <c r="L403">
+        <v>1</v>
       </c>
     </row>
     <row r="404" spans="1:12">
@@ -9122,16 +9128,10 @@
         <v>415</v>
       </c>
       <c r="B404" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C404" t="s">
-        <v>927</v>
-      </c>
-      <c r="G404" t="s">
-        <v>1105</v>
-      </c>
-      <c r="I404" t="s">
-        <v>1183</v>
+        <v>928</v>
       </c>
     </row>
     <row r="405" spans="1:12">
@@ -9139,13 +9139,16 @@
         <v>416</v>
       </c>
       <c r="B405" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C405" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="G405" t="s">
-        <v>1106</v>
+        <v>1107</v>
+      </c>
+      <c r="I405" t="s">
+        <v>1185</v>
       </c>
     </row>
     <row r="406" spans="1:12">
@@ -9153,13 +9156,13 @@
         <v>417</v>
       </c>
       <c r="B406" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C406" t="s">
-        <v>929</v>
-      </c>
-      <c r="L406">
-        <v>1</v>
+        <v>930</v>
+      </c>
+      <c r="G406" t="s">
+        <v>1108</v>
       </c>
     </row>
     <row r="407" spans="1:12">
@@ -9167,10 +9170,13 @@
         <v>418</v>
       </c>
       <c r="B407" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C407" t="s">
-        <v>930</v>
+        <v>931</v>
+      </c>
+      <c r="L407">
+        <v>1</v>
       </c>
     </row>
     <row r="408" spans="1:12">
@@ -9178,10 +9184,10 @@
         <v>419</v>
       </c>
       <c r="B408" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C408" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
     </row>
     <row r="409" spans="1:12">
@@ -9189,10 +9195,10 @@
         <v>420</v>
       </c>
       <c r="B409" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C409" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
     </row>
     <row r="410" spans="1:12">
@@ -9200,13 +9206,10 @@
         <v>421</v>
       </c>
       <c r="B410" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C410" t="s">
-        <v>933</v>
-      </c>
-      <c r="L410">
-        <v>1</v>
+        <v>934</v>
       </c>
     </row>
     <row r="411" spans="1:12">
@@ -9214,10 +9217,13 @@
         <v>422</v>
       </c>
       <c r="B411" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C411" t="s">
-        <v>934</v>
+        <v>935</v>
+      </c>
+      <c r="L411">
+        <v>1</v>
       </c>
     </row>
     <row r="412" spans="1:12">
@@ -9225,13 +9231,10 @@
         <v>423</v>
       </c>
       <c r="B412" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C412" t="s">
-        <v>935</v>
-      </c>
-      <c r="H412" t="s">
-        <v>1152</v>
+        <v>936</v>
       </c>
     </row>
     <row r="413" spans="1:12">
@@ -9239,13 +9242,13 @@
         <v>424</v>
       </c>
       <c r="B413" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C413" t="s">
-        <v>936</v>
-      </c>
-      <c r="L413">
-        <v>1</v>
+        <v>937</v>
+      </c>
+      <c r="H413" t="s">
+        <v>1154</v>
       </c>
     </row>
     <row r="414" spans="1:12">
@@ -9253,10 +9256,13 @@
         <v>425</v>
       </c>
       <c r="B414" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C414" t="s">
-        <v>937</v>
+        <v>938</v>
+      </c>
+      <c r="L414">
+        <v>1</v>
       </c>
     </row>
     <row r="415" spans="1:12">
@@ -9264,10 +9270,10 @@
         <v>426</v>
       </c>
       <c r="B415" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C415" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
     </row>
     <row r="416" spans="1:12">
@@ -9275,10 +9281,10 @@
         <v>427</v>
       </c>
       <c r="B416" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C416" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
     </row>
     <row r="417" spans="1:12">
@@ -9286,10 +9292,10 @@
         <v>428</v>
       </c>
       <c r="B417" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C417" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
     </row>
     <row r="418" spans="1:12">
@@ -9297,13 +9303,10 @@
         <v>429</v>
       </c>
       <c r="B418" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C418" t="s">
-        <v>941</v>
-      </c>
-      <c r="E418" t="s">
-        <v>1028</v>
+        <v>942</v>
       </c>
     </row>
     <row r="419" spans="1:12">
@@ -9311,10 +9314,13 @@
         <v>430</v>
       </c>
       <c r="B419" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C419" t="s">
-        <v>942</v>
+        <v>943</v>
+      </c>
+      <c r="E419" t="s">
+        <v>1030</v>
       </c>
     </row>
     <row r="420" spans="1:12">
@@ -9322,10 +9328,10 @@
         <v>431</v>
       </c>
       <c r="B420" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C420" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
     </row>
     <row r="421" spans="1:12">
@@ -9333,13 +9339,10 @@
         <v>432</v>
       </c>
       <c r="B421" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C421" t="s">
-        <v>944</v>
-      </c>
-      <c r="I421" t="s">
-        <v>1171</v>
+        <v>945</v>
       </c>
     </row>
     <row r="422" spans="1:12">
@@ -9347,10 +9350,13 @@
         <v>433</v>
       </c>
       <c r="B422" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C422" t="s">
-        <v>945</v>
+        <v>946</v>
+      </c>
+      <c r="I422" t="s">
+        <v>1173</v>
       </c>
     </row>
     <row r="423" spans="1:12">
@@ -9358,13 +9364,10 @@
         <v>434</v>
       </c>
       <c r="B423" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C423" t="s">
-        <v>946</v>
-      </c>
-      <c r="L423">
-        <v>1</v>
+        <v>947</v>
       </c>
     </row>
     <row r="424" spans="1:12">
@@ -9372,10 +9375,13 @@
         <v>435</v>
       </c>
       <c r="B424" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C424" t="s">
-        <v>947</v>
+        <v>948</v>
+      </c>
+      <c r="L424">
+        <v>1</v>
       </c>
     </row>
     <row r="425" spans="1:12">
@@ -9383,13 +9389,10 @@
         <v>436</v>
       </c>
       <c r="B425" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C425" t="s">
-        <v>948</v>
-      </c>
-      <c r="I425" t="s">
-        <v>1182</v>
+        <v>949</v>
       </c>
     </row>
     <row r="426" spans="1:12">
@@ -9397,10 +9400,13 @@
         <v>437</v>
       </c>
       <c r="B426" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C426" t="s">
-        <v>949</v>
+        <v>950</v>
+      </c>
+      <c r="I426" t="s">
+        <v>1184</v>
       </c>
     </row>
     <row r="427" spans="1:12">
@@ -9408,10 +9414,10 @@
         <v>438</v>
       </c>
       <c r="B427" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C427" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
     </row>
     <row r="428" spans="1:12">
@@ -9422,7 +9428,7 @@
         <v>523</v>
       </c>
       <c r="C428" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
     </row>
     <row r="429" spans="1:12">
@@ -9430,16 +9436,10 @@
         <v>440</v>
       </c>
       <c r="B429" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C429" t="s">
-        <v>952</v>
-      </c>
-      <c r="G429" t="s">
-        <v>1107</v>
-      </c>
-      <c r="I429" t="s">
-        <v>1184</v>
+        <v>953</v>
       </c>
     </row>
     <row r="430" spans="1:12">
@@ -9447,16 +9447,16 @@
         <v>441</v>
       </c>
       <c r="B430" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C430" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="G430" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="I430" t="s">
-        <v>1182</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="431" spans="1:12">
@@ -9464,10 +9464,16 @@
         <v>442</v>
       </c>
       <c r="B431" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C431" t="s">
-        <v>954</v>
+        <v>955</v>
+      </c>
+      <c r="G431" t="s">
+        <v>1110</v>
+      </c>
+      <c r="I431" t="s">
+        <v>1184</v>
       </c>
     </row>
     <row r="432" spans="1:12">
@@ -9475,10 +9481,10 @@
         <v>443</v>
       </c>
       <c r="B432" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C432" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
     </row>
     <row r="433" spans="1:9">
@@ -9486,10 +9492,10 @@
         <v>444</v>
       </c>
       <c r="B433" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C433" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
     </row>
     <row r="434" spans="1:9">
@@ -9497,16 +9503,10 @@
         <v>445</v>
       </c>
       <c r="B434" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C434" t="s">
-        <v>957</v>
-      </c>
-      <c r="G434" t="s">
-        <v>1109</v>
-      </c>
-      <c r="I434" t="s">
-        <v>1170</v>
+        <v>958</v>
       </c>
     </row>
     <row r="435" spans="1:9">
@@ -9514,16 +9514,16 @@
         <v>446</v>
       </c>
       <c r="B435" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C435" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="G435" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="I435" t="s">
-        <v>1168</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="436" spans="1:9">
@@ -9531,10 +9531,16 @@
         <v>447</v>
       </c>
       <c r="B436" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C436" t="s">
-        <v>959</v>
+        <v>960</v>
+      </c>
+      <c r="G436" t="s">
+        <v>1112</v>
+      </c>
+      <c r="I436" t="s">
+        <v>1170</v>
       </c>
     </row>
     <row r="437" spans="1:9">
@@ -9542,16 +9548,10 @@
         <v>448</v>
       </c>
       <c r="B437" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C437" t="s">
-        <v>960</v>
-      </c>
-      <c r="G437" t="s">
-        <v>1111</v>
-      </c>
-      <c r="I437" t="s">
-        <v>1168</v>
+        <v>961</v>
       </c>
     </row>
     <row r="438" spans="1:9">
@@ -9559,16 +9559,16 @@
         <v>449</v>
       </c>
       <c r="B438" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C438" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="G438" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="I438" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="439" spans="1:9">
@@ -9576,16 +9576,16 @@
         <v>450</v>
       </c>
       <c r="B439" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C439" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="G439" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="I439" t="s">
-        <v>1185</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="440" spans="1:9">
@@ -9593,10 +9593,16 @@
         <v>451</v>
       </c>
       <c r="B440" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C440" t="s">
-        <v>963</v>
+        <v>964</v>
+      </c>
+      <c r="G440" t="s">
+        <v>1115</v>
+      </c>
+      <c r="I440" t="s">
+        <v>1187</v>
       </c>
     </row>
     <row r="441" spans="1:9">
@@ -9604,16 +9610,10 @@
         <v>452</v>
       </c>
       <c r="B441" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C441" t="s">
-        <v>964</v>
-      </c>
-      <c r="G441" t="s">
-        <v>1114</v>
-      </c>
-      <c r="I441" t="s">
-        <v>1168</v>
+        <v>965</v>
       </c>
     </row>
     <row r="442" spans="1:9">
@@ -9621,16 +9621,16 @@
         <v>453</v>
       </c>
       <c r="B442" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C442" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="G442" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="I442" t="s">
-        <v>1186</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="443" spans="1:9">
@@ -9638,16 +9638,16 @@
         <v>454</v>
       </c>
       <c r="B443" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C443" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="G443" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="I443" t="s">
-        <v>1184</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="444" spans="1:9">
@@ -9655,16 +9655,16 @@
         <v>455</v>
       </c>
       <c r="B444" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C444" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="G444" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="I444" t="s">
-        <v>1184</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="445" spans="1:9">
@@ -9672,13 +9672,13 @@
         <v>456</v>
       </c>
       <c r="B445" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C445" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="G445" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="I445" t="s">
         <v>1186</v>
@@ -9689,10 +9689,16 @@
         <v>457</v>
       </c>
       <c r="B446" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C446" t="s">
-        <v>969</v>
+        <v>970</v>
+      </c>
+      <c r="G446" t="s">
+        <v>1120</v>
+      </c>
+      <c r="I446" t="s">
+        <v>1188</v>
       </c>
     </row>
     <row r="447" spans="1:9">
@@ -9700,16 +9706,10 @@
         <v>458</v>
       </c>
       <c r="B447" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C447" t="s">
-        <v>970</v>
-      </c>
-      <c r="G447" t="s">
-        <v>1119</v>
-      </c>
-      <c r="I447" t="s">
-        <v>1170</v>
+        <v>971</v>
       </c>
     </row>
     <row r="448" spans="1:9">
@@ -9717,10 +9717,16 @@
         <v>459</v>
       </c>
       <c r="B448" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C448" t="s">
-        <v>971</v>
+        <v>972</v>
+      </c>
+      <c r="G448" t="s">
+        <v>1121</v>
+      </c>
+      <c r="I448" t="s">
+        <v>1172</v>
       </c>
     </row>
     <row r="449" spans="1:12">
@@ -9731,16 +9737,7 @@
         <v>524</v>
       </c>
       <c r="C449" t="s">
-        <v>972</v>
-      </c>
-      <c r="G449" t="s">
-        <v>1120</v>
-      </c>
-      <c r="H449" t="s">
-        <v>1153</v>
-      </c>
-      <c r="I449" t="s">
-        <v>1178</v>
+        <v>973</v>
       </c>
     </row>
     <row r="450" spans="1:12">
@@ -9748,13 +9745,19 @@
         <v>461</v>
       </c>
       <c r="B450" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C450" t="s">
-        <v>973</v>
-      </c>
-      <c r="L450">
-        <v>1</v>
+        <v>974</v>
+      </c>
+      <c r="G450" t="s">
+        <v>1122</v>
+      </c>
+      <c r="H450" t="s">
+        <v>1155</v>
+      </c>
+      <c r="I450" t="s">
+        <v>1180</v>
       </c>
     </row>
     <row r="451" spans="1:12">
@@ -9762,13 +9765,13 @@
         <v>462</v>
       </c>
       <c r="B451" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C451" t="s">
-        <v>974</v>
-      </c>
-      <c r="H451" t="s">
-        <v>1154</v>
+        <v>975</v>
+      </c>
+      <c r="L451">
+        <v>1</v>
       </c>
     </row>
     <row r="452" spans="1:12">
@@ -9776,19 +9779,13 @@
         <v>463</v>
       </c>
       <c r="B452" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C452" t="s">
-        <v>975</v>
-      </c>
-      <c r="G452" t="s">
-        <v>1121</v>
+        <v>976</v>
       </c>
       <c r="H452" t="s">
-        <v>1139</v>
-      </c>
-      <c r="I452" t="s">
-        <v>1169</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="453" spans="1:12">
@@ -9796,10 +9793,19 @@
         <v>464</v>
       </c>
       <c r="B453" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C453" t="s">
-        <v>976</v>
+        <v>977</v>
+      </c>
+      <c r="G453" t="s">
+        <v>1123</v>
+      </c>
+      <c r="H453" t="s">
+        <v>1141</v>
+      </c>
+      <c r="I453" t="s">
+        <v>1171</v>
       </c>
     </row>
     <row r="454" spans="1:12">
@@ -9807,19 +9813,10 @@
         <v>465</v>
       </c>
       <c r="B454" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C454" t="s">
-        <v>977</v>
-      </c>
-      <c r="G454" t="s">
-        <v>1122</v>
-      </c>
-      <c r="H454" t="s">
-        <v>1155</v>
-      </c>
-      <c r="I454" t="s">
-        <v>1166</v>
+        <v>978</v>
       </c>
     </row>
     <row r="455" spans="1:12">
@@ -9827,13 +9824,19 @@
         <v>466</v>
       </c>
       <c r="B455" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C455" t="s">
-        <v>978</v>
-      </c>
-      <c r="L455">
-        <v>1</v>
+        <v>979</v>
+      </c>
+      <c r="G455" t="s">
+        <v>1124</v>
+      </c>
+      <c r="H455" t="s">
+        <v>1157</v>
+      </c>
+      <c r="I455" t="s">
+        <v>1168</v>
       </c>
     </row>
     <row r="456" spans="1:12">
@@ -9841,16 +9844,13 @@
         <v>467</v>
       </c>
       <c r="B456" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C456" t="s">
-        <v>979</v>
-      </c>
-      <c r="E456" t="s">
-        <v>1029</v>
-      </c>
-      <c r="G456" t="s">
-        <v>1123</v>
+        <v>980</v>
+      </c>
+      <c r="L456">
+        <v>1</v>
       </c>
     </row>
     <row r="457" spans="1:12">
@@ -9858,16 +9858,16 @@
         <v>468</v>
       </c>
       <c r="B457" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C457" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="E457" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="G457" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="458" spans="1:12">
@@ -9875,22 +9875,16 @@
         <v>469</v>
       </c>
       <c r="B458" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C458" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="E458" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="G458" t="s">
-        <v>1125</v>
-      </c>
-      <c r="H458" t="s">
-        <v>1156</v>
-      </c>
-      <c r="I458" t="s">
-        <v>1187</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="459" spans="1:12">
@@ -9898,16 +9892,22 @@
         <v>470</v>
       </c>
       <c r="B459" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C459" t="s">
-        <v>982</v>
+        <v>983</v>
+      </c>
+      <c r="E459" t="s">
+        <v>1033</v>
+      </c>
+      <c r="G459" t="s">
+        <v>1127</v>
       </c>
       <c r="H459" t="s">
-        <v>1139</v>
+        <v>1158</v>
       </c>
       <c r="I459" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="460" spans="1:12">
@@ -9915,19 +9915,16 @@
         <v>471</v>
       </c>
       <c r="B460" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C460" t="s">
-        <v>983</v>
-      </c>
-      <c r="G460" t="s">
-        <v>1126</v>
+        <v>984</v>
       </c>
       <c r="H460" t="s">
-        <v>1157</v>
+        <v>1141</v>
       </c>
       <c r="I460" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="461" spans="1:12">
@@ -9935,19 +9932,19 @@
         <v>472</v>
       </c>
       <c r="B461" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C461" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="G461" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="H461" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="I461" t="s">
-        <v>1171</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="462" spans="1:12">
@@ -9955,13 +9952,19 @@
         <v>473</v>
       </c>
       <c r="B462" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C462" t="s">
-        <v>985</v>
+        <v>986</v>
+      </c>
+      <c r="